--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,33 @@
     <t>['74', '90+5']</t>
   </si>
   <si>
+    <t>['45+2', '90+4']</t>
+  </si>
+  <si>
+    <t>['58', '90+4']</t>
+  </si>
+  <si>
+    <t>['52', '67']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['5', '8', '79', '87']</t>
+  </si>
+  <si>
+    <t>['58', '90+7']</t>
+  </si>
+  <si>
+    <t>['73', '76']</t>
+  </si>
+  <si>
+    <t>['2', '59']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -689,6 +716,21 @@
   </si>
   <si>
     <t>['22', '76']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['51', '73']</t>
+  </si>
+  <si>
+    <t>['58', '80']</t>
+  </si>
+  <si>
+    <t>['25', '81']</t>
+  </si>
+  <si>
+    <t>['79', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1515,7 +1557,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1593,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1799,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ4">
         <v>2.33</v>
@@ -2008,7 +2050,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2133,7 +2175,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2420,7 +2462,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2545,7 +2587,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2623,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ8">
         <v>2.14</v>
@@ -2832,7 +2874,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2957,7 +2999,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3035,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -3369,7 +3411,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3447,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3575,7 +3617,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4065,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4683,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4892,7 +4934,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5017,7 +5059,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5095,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5223,7 +5265,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5429,7 +5471,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5507,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5635,7 +5677,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5713,10 +5755,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5919,7 +5961,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6047,7 +6089,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6125,10 +6167,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6331,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6459,7 +6501,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6537,10 +6579,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -6746,7 +6788,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -6871,7 +6913,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6949,7 +6991,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>2.14</v>
@@ -7077,7 +7119,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7283,7 +7325,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7364,7 +7406,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ31">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7489,7 +7531,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7567,10 +7609,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7773,10 +7815,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -7982,7 +8024,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -8107,7 +8149,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8313,7 +8355,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8391,7 +8433,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>2</v>
@@ -8931,7 +8973,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9012,7 +9054,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9137,7 +9179,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9215,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40">
         <v>1.57</v>
@@ -9343,7 +9385,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9627,7 +9669,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42">
         <v>1.57</v>
@@ -9836,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR43">
         <v>2.12</v>
@@ -10039,10 +10081,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10248,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10373,7 +10415,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10451,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10660,7 +10702,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR47">
         <v>1.2</v>
@@ -10863,7 +10905,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ48">
         <v>1.4</v>
@@ -10991,7 +11033,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11197,7 +11239,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11403,7 +11445,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11481,10 +11523,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ51">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -11609,7 +11651,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11815,7 +11857,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11893,7 +11935,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>2</v>
@@ -12021,7 +12063,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12099,7 +12141,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ54">
         <v>1.4</v>
@@ -12305,10 +12347,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12514,7 +12556,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12720,7 +12762,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -12923,7 +12965,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13129,7 +13171,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13257,7 +13299,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13338,7 +13380,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13463,7 +13505,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13544,7 +13586,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13669,7 +13711,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13747,10 +13789,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ62">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR62">
         <v>1.39</v>
@@ -14159,7 +14201,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
         <v>2.14</v>
@@ -14368,7 +14410,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR65">
         <v>1.44</v>
@@ -14493,7 +14535,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14571,7 +14613,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
         <v>1.5</v>
@@ -14777,10 +14819,10 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ67">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -14986,7 +15028,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15189,10 +15231,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ69">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15523,7 +15565,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15729,7 +15771,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15807,10 +15849,10 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
+        <v>1.57</v>
+      </c>
+      <c r="AQ72">
         <v>1.33</v>
-      </c>
-      <c r="AQ72">
-        <v>1.4</v>
       </c>
       <c r="AR72">
         <v>1.99</v>
@@ -15935,7 +15977,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -16016,7 +16058,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16219,7 +16261,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16347,7 +16389,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16428,7 +16470,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR75">
         <v>1.05</v>
@@ -16634,7 +16676,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ76">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR76">
         <v>2.09</v>
@@ -16759,7 +16801,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -16837,7 +16879,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -16965,7 +17007,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17171,7 +17213,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17455,7 +17497,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17789,7 +17831,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17867,7 +17909,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ82">
         <v>2.33</v>
@@ -17995,7 +18037,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18076,7 +18118,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18201,7 +18243,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18279,10 +18321,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR84">
         <v>1.35</v>
@@ -18407,7 +18449,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18485,7 +18527,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ85">
         <v>1.5</v>
@@ -18613,7 +18655,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>3.9</v>
@@ -18691,7 +18733,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ86">
         <v>2.14</v>
@@ -18900,7 +18942,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR87">
         <v>1.12</v>
@@ -19106,7 +19148,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR88">
         <v>1.13</v>
@@ -19309,10 +19351,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR89">
         <v>1.51</v>
@@ -19437,7 +19479,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19515,7 +19557,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.57</v>
@@ -19643,7 +19685,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19724,7 +19766,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -19927,7 +19969,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20133,7 +20175,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20261,7 +20303,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -20342,7 +20384,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ94">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR94">
         <v>1.32</v>
@@ -20467,7 +20509,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20548,7 +20590,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR95">
         <v>2.25</v>
@@ -20673,7 +20715,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -20754,7 +20796,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ96">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR96">
         <v>1.2</v>
@@ -20879,7 +20921,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -20957,7 +20999,7 @@
         <v>1.8</v>
       </c>
       <c r="AP97">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ97">
         <v>2.14</v>
@@ -21166,7 +21208,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21369,7 +21411,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21578,7 +21620,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ100">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -21703,7 +21745,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21781,7 +21823,7 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ101">
         <v>2</v>
@@ -21909,7 +21951,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="Q102">
         <v>2.73</v>
@@ -21987,10 +22029,10 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ102">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR102">
         <v>1.44</v>
@@ -22115,7 +22157,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>2.05</v>
@@ -22193,10 +22235,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ103">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22321,7 +22363,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22399,7 +22441,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ104">
         <v>1.5</v>
@@ -22605,7 +22647,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ105">
         <v>1.33</v>
@@ -23020,7 +23062,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23145,7 +23187,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>3.3</v>
@@ -23351,7 +23393,7 @@
         <v>121</v>
       </c>
       <c r="P109" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>2.82</v>
@@ -23432,7 +23474,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -23557,7 +23599,7 @@
         <v>97</v>
       </c>
       <c r="P110" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -23638,7 +23680,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR110">
         <v>2.24</v>
@@ -23841,7 +23883,7 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>1.67</v>
@@ -23969,7 +24011,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24047,10 +24089,10 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ112">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24175,7 +24217,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24381,7 +24423,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24793,7 +24835,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24871,10 +24913,10 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ116">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR116">
         <v>1.7</v>
@@ -25283,7 +25325,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ118">
         <v>1</v>
@@ -25492,7 +25534,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ119">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR119">
         <v>1.25</v>
@@ -25617,7 +25659,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -25980,6 +26022,2066 @@
       </c>
       <c r="BP121">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7331044</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45415.04861111111</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" t="s">
+        <v>92</v>
+      </c>
+      <c r="P122" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q122">
+        <v>3</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>3.3</v>
+      </c>
+      <c r="T122">
+        <v>1.41</v>
+      </c>
+      <c r="U122">
+        <v>2.7</v>
+      </c>
+      <c r="V122">
+        <v>2.9</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>7.4</v>
+      </c>
+      <c r="Y122">
+        <v>1.06</v>
+      </c>
+      <c r="Z122">
+        <v>2.49</v>
+      </c>
+      <c r="AA122">
+        <v>3.2</v>
+      </c>
+      <c r="AB122">
+        <v>2.39</v>
+      </c>
+      <c r="AC122">
+        <v>1.03</v>
+      </c>
+      <c r="AD122">
+        <v>8.4</v>
+      </c>
+      <c r="AE122">
+        <v>1.31</v>
+      </c>
+      <c r="AF122">
+        <v>3.46</v>
+      </c>
+      <c r="AG122">
+        <v>2</v>
+      </c>
+      <c r="AH122">
+        <v>1.72</v>
+      </c>
+      <c r="AI122">
+        <v>1.75</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.34</v>
+      </c>
+      <c r="AL122">
+        <v>1.29</v>
+      </c>
+      <c r="AM122">
+        <v>1.43</v>
+      </c>
+      <c r="AN122">
+        <v>0.5</v>
+      </c>
+      <c r="AO122">
+        <v>1.4</v>
+      </c>
+      <c r="AP122">
+        <v>0.57</v>
+      </c>
+      <c r="AQ122">
+        <v>1.33</v>
+      </c>
+      <c r="AR122">
+        <v>1.47</v>
+      </c>
+      <c r="AS122">
+        <v>1.57</v>
+      </c>
+      <c r="AT122">
+        <v>3.04</v>
+      </c>
+      <c r="AU122">
+        <v>5</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>12</v>
+      </c>
+      <c r="AX122">
+        <v>3</v>
+      </c>
+      <c r="AY122">
+        <v>17</v>
+      </c>
+      <c r="AZ122">
+        <v>8</v>
+      </c>
+      <c r="BA122">
+        <v>11</v>
+      </c>
+      <c r="BB122">
+        <v>2</v>
+      </c>
+      <c r="BC122">
+        <v>13</v>
+      </c>
+      <c r="BD122">
+        <v>1.77</v>
+      </c>
+      <c r="BE122">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF122">
+        <v>2.35</v>
+      </c>
+      <c r="BG122">
+        <v>1.16</v>
+      </c>
+      <c r="BH122">
+        <v>4.6</v>
+      </c>
+      <c r="BI122">
+        <v>1.41</v>
+      </c>
+      <c r="BJ122">
+        <v>2.6</v>
+      </c>
+      <c r="BK122">
+        <v>1.71</v>
+      </c>
+      <c r="BL122">
+        <v>1.97</v>
+      </c>
+      <c r="BM122">
+        <v>2.17</v>
+      </c>
+      <c r="BN122">
+        <v>1.58</v>
+      </c>
+      <c r="BO122">
+        <v>2.95</v>
+      </c>
+      <c r="BP122">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7331045</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45415.08333333334</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>87</v>
+      </c>
+      <c r="H123" t="s">
+        <v>84</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>167</v>
+      </c>
+      <c r="P123" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q123">
+        <v>2.98</v>
+      </c>
+      <c r="R123">
+        <v>2.09</v>
+      </c>
+      <c r="S123">
+        <v>4.14</v>
+      </c>
+      <c r="T123">
+        <v>1.48</v>
+      </c>
+      <c r="U123">
+        <v>2.65</v>
+      </c>
+      <c r="V123">
+        <v>3.18</v>
+      </c>
+      <c r="W123">
+        <v>1.33</v>
+      </c>
+      <c r="X123">
+        <v>8.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.04</v>
+      </c>
+      <c r="Z123">
+        <v>2.22</v>
+      </c>
+      <c r="AA123">
+        <v>3.15</v>
+      </c>
+      <c r="AB123">
+        <v>2.91</v>
+      </c>
+      <c r="AC123">
+        <v>1.05</v>
+      </c>
+      <c r="AD123">
+        <v>7.3</v>
+      </c>
+      <c r="AE123">
+        <v>1.42</v>
+      </c>
+      <c r="AF123">
+        <v>2.89</v>
+      </c>
+      <c r="AG123">
+        <v>2.27</v>
+      </c>
+      <c r="AH123">
+        <v>1.59</v>
+      </c>
+      <c r="AI123">
+        <v>1.9</v>
+      </c>
+      <c r="AJ123">
+        <v>1.75</v>
+      </c>
+      <c r="AK123">
+        <v>1.33</v>
+      </c>
+      <c r="AL123">
+        <v>1.3</v>
+      </c>
+      <c r="AM123">
+        <v>1.6</v>
+      </c>
+      <c r="AN123">
+        <v>1.33</v>
+      </c>
+      <c r="AO123">
+        <v>1.83</v>
+      </c>
+      <c r="AP123">
+        <v>1.57</v>
+      </c>
+      <c r="AQ123">
+        <v>1.57</v>
+      </c>
+      <c r="AR123">
+        <v>1.7</v>
+      </c>
+      <c r="AS123">
+        <v>1.43</v>
+      </c>
+      <c r="AT123">
+        <v>3.13</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>8</v>
+      </c>
+      <c r="AX123">
+        <v>8</v>
+      </c>
+      <c r="AY123">
+        <v>12</v>
+      </c>
+      <c r="AZ123">
+        <v>12</v>
+      </c>
+      <c r="BA123">
+        <v>2</v>
+      </c>
+      <c r="BB123">
+        <v>6</v>
+      </c>
+      <c r="BC123">
+        <v>8</v>
+      </c>
+      <c r="BD123">
+        <v>1.83</v>
+      </c>
+      <c r="BE123">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF123">
+        <v>2.22</v>
+      </c>
+      <c r="BG123">
+        <v>1.29</v>
+      </c>
+      <c r="BH123">
+        <v>3.3</v>
+      </c>
+      <c r="BI123">
+        <v>1.6</v>
+      </c>
+      <c r="BJ123">
+        <v>2.14</v>
+      </c>
+      <c r="BK123">
+        <v>2.03</v>
+      </c>
+      <c r="BL123">
+        <v>1.67</v>
+      </c>
+      <c r="BM123">
+        <v>2.71</v>
+      </c>
+      <c r="BN123">
+        <v>1.38</v>
+      </c>
+      <c r="BO123">
+        <v>3.6</v>
+      </c>
+      <c r="BP123">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7331046</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45415.08333333334</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>88</v>
+      </c>
+      <c r="H124" t="s">
+        <v>75</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>4</v>
+      </c>
+      <c r="O124" t="s">
+        <v>168</v>
+      </c>
+      <c r="P124" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q124">
+        <v>3.35</v>
+      </c>
+      <c r="R124">
+        <v>2.11</v>
+      </c>
+      <c r="S124">
+        <v>3.53</v>
+      </c>
+      <c r="T124">
+        <v>1.46</v>
+      </c>
+      <c r="U124">
+        <v>2.72</v>
+      </c>
+      <c r="V124">
+        <v>3.31</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>7.7</v>
+      </c>
+      <c r="Y124">
+        <v>1.05</v>
+      </c>
+      <c r="Z124">
+        <v>2.42</v>
+      </c>
+      <c r="AA124">
+        <v>3.21</v>
+      </c>
+      <c r="AB124">
+        <v>2.58</v>
+      </c>
+      <c r="AC124">
+        <v>1.04</v>
+      </c>
+      <c r="AD124">
+        <v>7.6</v>
+      </c>
+      <c r="AE124">
+        <v>1.37</v>
+      </c>
+      <c r="AF124">
+        <v>3.1</v>
+      </c>
+      <c r="AG124">
+        <v>2.14</v>
+      </c>
+      <c r="AH124">
+        <v>1.65</v>
+      </c>
+      <c r="AI124">
+        <v>1.83</v>
+      </c>
+      <c r="AJ124">
+        <v>1.9</v>
+      </c>
+      <c r="AK124">
+        <v>1.38</v>
+      </c>
+      <c r="AL124">
+        <v>1.28</v>
+      </c>
+      <c r="AM124">
+        <v>1.4</v>
+      </c>
+      <c r="AN124">
+        <v>1.8</v>
+      </c>
+      <c r="AO124">
+        <v>1.67</v>
+      </c>
+      <c r="AP124">
+        <v>1.67</v>
+      </c>
+      <c r="AQ124">
+        <v>1.57</v>
+      </c>
+      <c r="AR124">
+        <v>1.41</v>
+      </c>
+      <c r="AS124">
+        <v>1.41</v>
+      </c>
+      <c r="AT124">
+        <v>2.82</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>7</v>
+      </c>
+      <c r="AW124">
+        <v>8</v>
+      </c>
+      <c r="AX124">
+        <v>6</v>
+      </c>
+      <c r="AY124">
+        <v>13</v>
+      </c>
+      <c r="AZ124">
+        <v>13</v>
+      </c>
+      <c r="BA124">
+        <v>7</v>
+      </c>
+      <c r="BB124">
+        <v>5</v>
+      </c>
+      <c r="BC124">
+        <v>12</v>
+      </c>
+      <c r="BD124">
+        <v>1.93</v>
+      </c>
+      <c r="BE124">
+        <v>8.4</v>
+      </c>
+      <c r="BF124">
+        <v>2.08</v>
+      </c>
+      <c r="BG124">
+        <v>1.22</v>
+      </c>
+      <c r="BH124">
+        <v>3.8</v>
+      </c>
+      <c r="BI124">
+        <v>1.52</v>
+      </c>
+      <c r="BJ124">
+        <v>2.3</v>
+      </c>
+      <c r="BK124">
+        <v>1.98</v>
+      </c>
+      <c r="BL124">
+        <v>1.82</v>
+      </c>
+      <c r="BM124">
+        <v>2.5</v>
+      </c>
+      <c r="BN124">
+        <v>1.44</v>
+      </c>
+      <c r="BO124">
+        <v>2.77</v>
+      </c>
+      <c r="BP124">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7331047</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45415.08333333334</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>70</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>169</v>
+      </c>
+      <c r="P125" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q125">
+        <v>2.39</v>
+      </c>
+      <c r="R125">
+        <v>2.01</v>
+      </c>
+      <c r="S125">
+        <v>4.95</v>
+      </c>
+      <c r="T125">
+        <v>1.47</v>
+      </c>
+      <c r="U125">
+        <v>2.57</v>
+      </c>
+      <c r="V125">
+        <v>3.2</v>
+      </c>
+      <c r="W125">
+        <v>1.32</v>
+      </c>
+      <c r="X125">
+        <v>8</v>
+      </c>
+      <c r="Y125">
+        <v>1.05</v>
+      </c>
+      <c r="Z125">
+        <v>1.75</v>
+      </c>
+      <c r="AA125">
+        <v>3.35</v>
+      </c>
+      <c r="AB125">
+        <v>4.15</v>
+      </c>
+      <c r="AC125">
+        <v>1.04</v>
+      </c>
+      <c r="AD125">
+        <v>7.6</v>
+      </c>
+      <c r="AE125">
+        <v>1.36</v>
+      </c>
+      <c r="AF125">
+        <v>2.78</v>
+      </c>
+      <c r="AG125">
+        <v>2.11</v>
+      </c>
+      <c r="AH125">
+        <v>1.67</v>
+      </c>
+      <c r="AI125">
+        <v>1.98</v>
+      </c>
+      <c r="AJ125">
+        <v>1.7</v>
+      </c>
+      <c r="AK125">
+        <v>1.17</v>
+      </c>
+      <c r="AL125">
+        <v>1.27</v>
+      </c>
+      <c r="AM125">
+        <v>1.91</v>
+      </c>
+      <c r="AN125">
+        <v>1.83</v>
+      </c>
+      <c r="AO125">
+        <v>1</v>
+      </c>
+      <c r="AP125">
+        <v>2</v>
+      </c>
+      <c r="AQ125">
+        <v>0.83</v>
+      </c>
+      <c r="AR125">
+        <v>1.55</v>
+      </c>
+      <c r="AS125">
+        <v>1.3</v>
+      </c>
+      <c r="AT125">
+        <v>2.85</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>3</v>
+      </c>
+      <c r="AW125">
+        <v>7</v>
+      </c>
+      <c r="AX125">
+        <v>4</v>
+      </c>
+      <c r="AY125">
+        <v>12</v>
+      </c>
+      <c r="AZ125">
+        <v>7</v>
+      </c>
+      <c r="BA125">
+        <v>8</v>
+      </c>
+      <c r="BB125">
+        <v>1</v>
+      </c>
+      <c r="BC125">
+        <v>9</v>
+      </c>
+      <c r="BD125">
+        <v>1.34</v>
+      </c>
+      <c r="BE125">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF125">
+        <v>3.88</v>
+      </c>
+      <c r="BG125">
+        <v>1.32</v>
+      </c>
+      <c r="BH125">
+        <v>3.1</v>
+      </c>
+      <c r="BI125">
+        <v>1.53</v>
+      </c>
+      <c r="BJ125">
+        <v>2.28</v>
+      </c>
+      <c r="BK125">
+        <v>1.95</v>
+      </c>
+      <c r="BL125">
+        <v>1.85</v>
+      </c>
+      <c r="BM125">
+        <v>2.5</v>
+      </c>
+      <c r="BN125">
+        <v>1.44</v>
+      </c>
+      <c r="BO125">
+        <v>3.3</v>
+      </c>
+      <c r="BP125">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7331048</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45415.08333333334</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>86</v>
+      </c>
+      <c r="H126" t="s">
+        <v>79</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>170</v>
+      </c>
+      <c r="P126" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q126">
+        <v>2.62</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>4.05</v>
+      </c>
+      <c r="T126">
+        <v>1.42</v>
+      </c>
+      <c r="U126">
+        <v>2.73</v>
+      </c>
+      <c r="V126">
+        <v>2.99</v>
+      </c>
+      <c r="W126">
+        <v>1.36</v>
+      </c>
+      <c r="X126">
+        <v>7.3</v>
+      </c>
+      <c r="Y126">
+        <v>1.06</v>
+      </c>
+      <c r="Z126">
+        <v>2.02</v>
+      </c>
+      <c r="AA126">
+        <v>3.3</v>
+      </c>
+      <c r="AB126">
+        <v>3.21</v>
+      </c>
+      <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>8.4</v>
+      </c>
+      <c r="AE126">
+        <v>1.33</v>
+      </c>
+      <c r="AF126">
+        <v>3.31</v>
+      </c>
+      <c r="AG126">
+        <v>1.94</v>
+      </c>
+      <c r="AH126">
+        <v>1.78</v>
+      </c>
+      <c r="AI126">
+        <v>1.8</v>
+      </c>
+      <c r="AJ126">
+        <v>1.95</v>
+      </c>
+      <c r="AK126">
+        <v>1.28</v>
+      </c>
+      <c r="AL126">
+        <v>1.28</v>
+      </c>
+      <c r="AM126">
+        <v>1.68</v>
+      </c>
+      <c r="AN126">
+        <v>0.8</v>
+      </c>
+      <c r="AO126">
+        <v>1.67</v>
+      </c>
+      <c r="AP126">
+        <v>0.67</v>
+      </c>
+      <c r="AQ126">
+        <v>1.86</v>
+      </c>
+      <c r="AR126">
+        <v>1.44</v>
+      </c>
+      <c r="AS126">
+        <v>1.46</v>
+      </c>
+      <c r="AT126">
+        <v>2.9</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>4</v>
+      </c>
+      <c r="AW126">
+        <v>12</v>
+      </c>
+      <c r="AX126">
+        <v>9</v>
+      </c>
+      <c r="AY126">
+        <v>15</v>
+      </c>
+      <c r="AZ126">
+        <v>13</v>
+      </c>
+      <c r="BA126">
+        <v>3</v>
+      </c>
+      <c r="BB126">
+        <v>6</v>
+      </c>
+      <c r="BC126">
+        <v>9</v>
+      </c>
+      <c r="BD126">
+        <v>1.76</v>
+      </c>
+      <c r="BE126">
+        <v>8.6</v>
+      </c>
+      <c r="BF126">
+        <v>2.37</v>
+      </c>
+      <c r="BG126">
+        <v>1.22</v>
+      </c>
+      <c r="BH126">
+        <v>3.8</v>
+      </c>
+      <c r="BI126">
+        <v>1.41</v>
+      </c>
+      <c r="BJ126">
+        <v>2.6</v>
+      </c>
+      <c r="BK126">
+        <v>1.71</v>
+      </c>
+      <c r="BL126">
+        <v>1.97</v>
+      </c>
+      <c r="BM126">
+        <v>2.17</v>
+      </c>
+      <c r="BN126">
+        <v>1.58</v>
+      </c>
+      <c r="BO126">
+        <v>2.95</v>
+      </c>
+      <c r="BP126">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7331049</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45415.08333333334</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>81</v>
+      </c>
+      <c r="H127" t="s">
+        <v>85</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127" t="s">
+        <v>171</v>
+      </c>
+      <c r="P127" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q127">
+        <v>1.9</v>
+      </c>
+      <c r="R127">
+        <v>2.47</v>
+      </c>
+      <c r="S127">
+        <v>7.82</v>
+      </c>
+      <c r="T127">
+        <v>1.37</v>
+      </c>
+      <c r="U127">
+        <v>3.12</v>
+      </c>
+      <c r="V127">
+        <v>2.83</v>
+      </c>
+      <c r="W127">
+        <v>1.43</v>
+      </c>
+      <c r="X127">
+        <v>6.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.08</v>
+      </c>
+      <c r="Z127">
+        <v>1.38</v>
+      </c>
+      <c r="AA127">
+        <v>4.3</v>
+      </c>
+      <c r="AB127">
+        <v>6.3</v>
+      </c>
+      <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>9.6</v>
+      </c>
+      <c r="AE127">
+        <v>1.29</v>
+      </c>
+      <c r="AF127">
+        <v>3.63</v>
+      </c>
+      <c r="AG127">
+        <v>1.79</v>
+      </c>
+      <c r="AH127">
+        <v>1.91</v>
+      </c>
+      <c r="AI127">
+        <v>2.03</v>
+      </c>
+      <c r="AJ127">
+        <v>1.67</v>
+      </c>
+      <c r="AK127">
+        <v>1.08</v>
+      </c>
+      <c r="AL127">
+        <v>1.15</v>
+      </c>
+      <c r="AM127">
+        <v>2.36</v>
+      </c>
+      <c r="AN127">
+        <v>2.6</v>
+      </c>
+      <c r="AO127">
+        <v>0.67</v>
+      </c>
+      <c r="AP127">
+        <v>2.67</v>
+      </c>
+      <c r="AQ127">
+        <v>0.57</v>
+      </c>
+      <c r="AR127">
+        <v>1.87</v>
+      </c>
+      <c r="AS127">
+        <v>1.23</v>
+      </c>
+      <c r="AT127">
+        <v>3.1</v>
+      </c>
+      <c r="AU127">
+        <v>8</v>
+      </c>
+      <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>8</v>
+      </c>
+      <c r="AY127">
+        <v>11</v>
+      </c>
+      <c r="AZ127">
+        <v>11</v>
+      </c>
+      <c r="BA127">
+        <v>5</v>
+      </c>
+      <c r="BB127">
+        <v>4</v>
+      </c>
+      <c r="BC127">
+        <v>9</v>
+      </c>
+      <c r="BD127">
+        <v>1.24</v>
+      </c>
+      <c r="BE127">
+        <v>10.7</v>
+      </c>
+      <c r="BF127">
+        <v>4.88</v>
+      </c>
+      <c r="BG127">
+        <v>1.19</v>
+      </c>
+      <c r="BH127">
+        <v>4.2</v>
+      </c>
+      <c r="BI127">
+        <v>1.39</v>
+      </c>
+      <c r="BJ127">
+        <v>2.67</v>
+      </c>
+      <c r="BK127">
+        <v>1.68</v>
+      </c>
+      <c r="BL127">
+        <v>2.01</v>
+      </c>
+      <c r="BM127">
+        <v>2.12</v>
+      </c>
+      <c r="BN127">
+        <v>1.61</v>
+      </c>
+      <c r="BO127">
+        <v>2.85</v>
+      </c>
+      <c r="BP127">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7331050</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45415.08333333334</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128" t="s">
+        <v>77</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>172</v>
+      </c>
+      <c r="P128" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q128">
+        <v>2.65</v>
+      </c>
+      <c r="R128">
+        <v>2.1</v>
+      </c>
+      <c r="S128">
+        <v>3.8</v>
+      </c>
+      <c r="T128">
+        <v>1.39</v>
+      </c>
+      <c r="U128">
+        <v>2.85</v>
+      </c>
+      <c r="V128">
+        <v>2.81</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>6.8</v>
+      </c>
+      <c r="Y128">
+        <v>1.07</v>
+      </c>
+      <c r="Z128">
+        <v>2.13</v>
+      </c>
+      <c r="AA128">
+        <v>3.35</v>
+      </c>
+      <c r="AB128">
+        <v>2.9</v>
+      </c>
+      <c r="AC128">
+        <v>1.02</v>
+      </c>
+      <c r="AD128">
+        <v>9.1</v>
+      </c>
+      <c r="AE128">
+        <v>1.3</v>
+      </c>
+      <c r="AF128">
+        <v>3.56</v>
+      </c>
+      <c r="AG128">
+        <v>1.9</v>
+      </c>
+      <c r="AH128">
+        <v>1.8</v>
+      </c>
+      <c r="AI128">
+        <v>1.72</v>
+      </c>
+      <c r="AJ128">
+        <v>1.95</v>
+      </c>
+      <c r="AK128">
+        <v>1.26</v>
+      </c>
+      <c r="AL128">
+        <v>1.28</v>
+      </c>
+      <c r="AM128">
+        <v>1.55</v>
+      </c>
+      <c r="AN128">
+        <v>0.83</v>
+      </c>
+      <c r="AO128">
+        <v>0.8</v>
+      </c>
+      <c r="AP128">
+        <v>1.14</v>
+      </c>
+      <c r="AQ128">
+        <v>0.67</v>
+      </c>
+      <c r="AR128">
+        <v>1.36</v>
+      </c>
+      <c r="AS128">
+        <v>1.16</v>
+      </c>
+      <c r="AT128">
+        <v>2.52</v>
+      </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
+      <c r="AV128">
+        <v>3</v>
+      </c>
+      <c r="AW128">
+        <v>9</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>14</v>
+      </c>
+      <c r="AZ128">
+        <v>6</v>
+      </c>
+      <c r="BA128">
+        <v>5</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>1.78</v>
+      </c>
+      <c r="BE128">
+        <v>8.4</v>
+      </c>
+      <c r="BF128">
+        <v>2.35</v>
+      </c>
+      <c r="BG128">
+        <v>1.26</v>
+      </c>
+      <c r="BH128">
+        <v>3.5</v>
+      </c>
+      <c r="BI128">
+        <v>1.5</v>
+      </c>
+      <c r="BJ128">
+        <v>2.35</v>
+      </c>
+      <c r="BK128">
+        <v>1.92</v>
+      </c>
+      <c r="BL128">
+        <v>1.88</v>
+      </c>
+      <c r="BM128">
+        <v>2.4</v>
+      </c>
+      <c r="BN128">
+        <v>1.48</v>
+      </c>
+      <c r="BO128">
+        <v>3.3</v>
+      </c>
+      <c r="BP128">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7331051</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45415.08333333334</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>80</v>
+      </c>
+      <c r="H129" t="s">
+        <v>89</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>173</v>
+      </c>
+      <c r="P129" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q129">
+        <v>2.64</v>
+      </c>
+      <c r="R129">
+        <v>1.96</v>
+      </c>
+      <c r="S129">
+        <v>4.4</v>
+      </c>
+      <c r="T129">
+        <v>1.49</v>
+      </c>
+      <c r="U129">
+        <v>2.51</v>
+      </c>
+      <c r="V129">
+        <v>3.32</v>
+      </c>
+      <c r="W129">
+        <v>1.3</v>
+      </c>
+      <c r="X129">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y129">
+        <v>1.03</v>
+      </c>
+      <c r="Z129">
+        <v>2.05</v>
+      </c>
+      <c r="AA129">
+        <v>3.15</v>
+      </c>
+      <c r="AB129">
+        <v>3.25</v>
+      </c>
+      <c r="AC129">
+        <v>1.1</v>
+      </c>
+      <c r="AD129">
+        <v>7.42</v>
+      </c>
+      <c r="AE129">
+        <v>1.41</v>
+      </c>
+      <c r="AF129">
+        <v>2.89</v>
+      </c>
+      <c r="AG129">
+        <v>2.18</v>
+      </c>
+      <c r="AH129">
+        <v>1.63</v>
+      </c>
+      <c r="AI129">
+        <v>1.97</v>
+      </c>
+      <c r="AJ129">
+        <v>1.71</v>
+      </c>
+      <c r="AK129">
+        <v>1.22</v>
+      </c>
+      <c r="AL129">
+        <v>1.29</v>
+      </c>
+      <c r="AM129">
+        <v>1.59</v>
+      </c>
+      <c r="AN129">
+        <v>2.17</v>
+      </c>
+      <c r="AO129">
+        <v>1.5</v>
+      </c>
+      <c r="AP129">
+        <v>2</v>
+      </c>
+      <c r="AQ129">
+        <v>1.43</v>
+      </c>
+      <c r="AR129">
+        <v>1.64</v>
+      </c>
+      <c r="AS129">
+        <v>1.45</v>
+      </c>
+      <c r="AT129">
+        <v>3.09</v>
+      </c>
+      <c r="AU129">
+        <v>6</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>11</v>
+      </c>
+      <c r="AX129">
+        <v>7</v>
+      </c>
+      <c r="AY129">
+        <v>17</v>
+      </c>
+      <c r="AZ129">
+        <v>12</v>
+      </c>
+      <c r="BA129">
+        <v>6</v>
+      </c>
+      <c r="BB129">
+        <v>5</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>2.11</v>
+      </c>
+      <c r="BE129">
+        <v>8.5</v>
+      </c>
+      <c r="BF129">
+        <v>1.9</v>
+      </c>
+      <c r="BG129">
+        <v>1.19</v>
+      </c>
+      <c r="BH129">
+        <v>4.2</v>
+      </c>
+      <c r="BI129">
+        <v>1.44</v>
+      </c>
+      <c r="BJ129">
+        <v>2.51</v>
+      </c>
+      <c r="BK129">
+        <v>1.82</v>
+      </c>
+      <c r="BL129">
+        <v>1.98</v>
+      </c>
+      <c r="BM129">
+        <v>2.27</v>
+      </c>
+      <c r="BN129">
+        <v>1.53</v>
+      </c>
+      <c r="BO129">
+        <v>3.1</v>
+      </c>
+      <c r="BP129">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7331052</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45415.08333333334</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>76</v>
+      </c>
+      <c r="H130" t="s">
+        <v>82</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>174</v>
+      </c>
+      <c r="P130" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q130">
+        <v>2.65</v>
+      </c>
+      <c r="R130">
+        <v>2.15</v>
+      </c>
+      <c r="S130">
+        <v>3.6</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
+        <v>2.85</v>
+      </c>
+      <c r="V130">
+        <v>2.75</v>
+      </c>
+      <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>6.4</v>
+      </c>
+      <c r="Y130">
+        <v>1.08</v>
+      </c>
+      <c r="Z130">
+        <v>2.03</v>
+      </c>
+      <c r="AA130">
+        <v>3.45</v>
+      </c>
+      <c r="AB130">
+        <v>3.02</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>9.6</v>
+      </c>
+      <c r="AE130">
+        <v>1.26</v>
+      </c>
+      <c r="AF130">
+        <v>3.67</v>
+      </c>
+      <c r="AG130">
+        <v>1.8</v>
+      </c>
+      <c r="AH130">
+        <v>1.9</v>
+      </c>
+      <c r="AI130">
+        <v>1.7</v>
+      </c>
+      <c r="AJ130">
+        <v>2.1</v>
+      </c>
+      <c r="AK130">
+        <v>1.28</v>
+      </c>
+      <c r="AL130">
+        <v>1.25</v>
+      </c>
+      <c r="AM130">
+        <v>1.63</v>
+      </c>
+      <c r="AN130">
+        <v>0.71</v>
+      </c>
+      <c r="AO130">
+        <v>0.5</v>
+      </c>
+      <c r="AP130">
+        <v>0.75</v>
+      </c>
+      <c r="AQ130">
+        <v>0.57</v>
+      </c>
+      <c r="AR130">
+        <v>1.6</v>
+      </c>
+      <c r="AS130">
+        <v>1.46</v>
+      </c>
+      <c r="AT130">
+        <v>3.06</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>9</v>
+      </c>
+      <c r="AW130">
+        <v>9</v>
+      </c>
+      <c r="AX130">
+        <v>7</v>
+      </c>
+      <c r="AY130">
+        <v>15</v>
+      </c>
+      <c r="AZ130">
+        <v>16</v>
+      </c>
+      <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
+        <v>5</v>
+      </c>
+      <c r="BC130">
+        <v>8</v>
+      </c>
+      <c r="BD130">
+        <v>1.64</v>
+      </c>
+      <c r="BE130">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF130">
+        <v>2.62</v>
+      </c>
+      <c r="BG130">
+        <v>1.25</v>
+      </c>
+      <c r="BH130">
+        <v>3.6</v>
+      </c>
+      <c r="BI130">
+        <v>1.48</v>
+      </c>
+      <c r="BJ130">
+        <v>2.4</v>
+      </c>
+      <c r="BK130">
+        <v>1.9</v>
+      </c>
+      <c r="BL130">
+        <v>1.9</v>
+      </c>
+      <c r="BM130">
+        <v>2.38</v>
+      </c>
+      <c r="BN130">
+        <v>1.49</v>
+      </c>
+      <c r="BO130">
+        <v>3.2</v>
+      </c>
+      <c r="BP130">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7331053</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45415.16666666666</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>83</v>
+      </c>
+      <c r="H131" t="s">
+        <v>74</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>175</v>
+      </c>
+      <c r="P131" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q131">
+        <v>3.81</v>
+      </c>
+      <c r="R131">
+        <v>2.22</v>
+      </c>
+      <c r="S131">
+        <v>2.91</v>
+      </c>
+      <c r="T131">
+        <v>1.39</v>
+      </c>
+      <c r="U131">
+        <v>2.99</v>
+      </c>
+      <c r="V131">
+        <v>2.95</v>
+      </c>
+      <c r="W131">
+        <v>1.4</v>
+      </c>
+      <c r="X131">
+        <v>6.9</v>
+      </c>
+      <c r="Y131">
+        <v>1.07</v>
+      </c>
+      <c r="Z131">
+        <v>2.8</v>
+      </c>
+      <c r="AA131">
+        <v>3.35</v>
+      </c>
+      <c r="AB131">
+        <v>2.2</v>
+      </c>
+      <c r="AC131">
+        <v>1.02</v>
+      </c>
+      <c r="AD131">
+        <v>9</v>
+      </c>
+      <c r="AE131">
+        <v>1.27</v>
+      </c>
+      <c r="AF131">
+        <v>3.28</v>
+      </c>
+      <c r="AG131">
+        <v>1.91</v>
+      </c>
+      <c r="AH131">
+        <v>1.79</v>
+      </c>
+      <c r="AI131">
+        <v>1.71</v>
+      </c>
+      <c r="AJ131">
+        <v>1.97</v>
+      </c>
+      <c r="AK131">
+        <v>1.6</v>
+      </c>
+      <c r="AL131">
+        <v>1.28</v>
+      </c>
+      <c r="AM131">
+        <v>1.33</v>
+      </c>
+      <c r="AN131">
+        <v>1.6</v>
+      </c>
+      <c r="AO131">
+        <v>1.67</v>
+      </c>
+      <c r="AP131">
+        <v>1.83</v>
+      </c>
+      <c r="AQ131">
+        <v>1.43</v>
+      </c>
+      <c r="AR131">
+        <v>1.64</v>
+      </c>
+      <c r="AS131">
+        <v>1.51</v>
+      </c>
+      <c r="AT131">
+        <v>3.15</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>7</v>
+      </c>
+      <c r="AW131">
+        <v>6</v>
+      </c>
+      <c r="AX131">
+        <v>8</v>
+      </c>
+      <c r="AY131">
+        <v>13</v>
+      </c>
+      <c r="AZ131">
+        <v>15</v>
+      </c>
+      <c r="BA131">
+        <v>4</v>
+      </c>
+      <c r="BB131">
+        <v>6</v>
+      </c>
+      <c r="BC131">
+        <v>10</v>
+      </c>
+      <c r="BD131">
+        <v>1.98</v>
+      </c>
+      <c r="BE131">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF131">
+        <v>2.03</v>
+      </c>
+      <c r="BG131">
+        <v>1.23</v>
+      </c>
+      <c r="BH131">
+        <v>3.7</v>
+      </c>
+      <c r="BI131">
+        <v>1.48</v>
+      </c>
+      <c r="BJ131">
+        <v>2.4</v>
+      </c>
+      <c r="BK131">
+        <v>1.9</v>
+      </c>
+      <c r="BL131">
+        <v>1.9</v>
+      </c>
+      <c r="BM131">
+        <v>2.38</v>
+      </c>
+      <c r="BN131">
+        <v>1.49</v>
+      </c>
+      <c r="BO131">
+        <v>3.2</v>
+      </c>
+      <c r="BP131">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,18 @@
     <t>['70']</t>
   </si>
   <si>
+    <t>['33', '39']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['18', '78']</t>
+  </si>
+  <si>
+    <t>['51', '81']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -731,6 +743,18 @@
   </si>
   <si>
     <t>['79', '90+4']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['42', '49']</t>
+  </si>
+  <si>
+    <t>['28', '54', '76']</t>
+  </si>
+  <si>
+    <t>['11', '56', '90']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1557,7 +1581,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1844,7 +1868,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2047,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>1.43</v>
@@ -2175,7 +2199,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2253,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2459,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7">
         <v>0.57</v>
@@ -2587,7 +2611,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2668,7 +2692,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ8">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2871,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
         <v>0.57</v>
@@ -2999,7 +3023,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3080,7 +3104,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3286,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3411,7 +3435,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3492,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3617,7 +3641,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3695,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -3901,10 +3925,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4316,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -4519,10 +4543,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4931,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19">
         <v>1.43</v>
@@ -5059,7 +5083,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5265,7 +5289,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5343,10 +5367,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5471,7 +5495,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5677,7 +5701,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5964,7 +5988,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6089,7 +6113,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6501,7 +6525,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6785,7 +6809,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
         <v>1.57</v>
@@ -6913,7 +6937,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6994,7 +7018,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7119,7 +7143,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7197,10 +7221,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7325,7 +7349,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7403,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ31">
         <v>1.43</v>
@@ -7531,7 +7555,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8021,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ34">
         <v>1.33</v>
@@ -8149,7 +8173,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8227,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8355,7 +8379,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8436,7 +8460,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8639,10 +8663,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8845,10 +8869,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -8973,7 +8997,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9051,7 +9075,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39">
         <v>1.43</v>
@@ -9179,7 +9203,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9260,7 +9284,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.85</v>
@@ -9385,7 +9409,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9463,10 +9487,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -9672,7 +9696,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ42">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -9875,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
         <v>0.83</v>
@@ -10415,7 +10439,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10496,7 +10520,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10699,7 +10723,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
         <v>0.57</v>
@@ -10908,7 +10932,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ48">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR48">
         <v>1.94</v>
@@ -11033,7 +11057,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11111,10 +11135,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ49">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR49">
         <v>2.09</v>
@@ -11239,7 +11263,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11317,10 +11341,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11445,7 +11469,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11651,7 +11675,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11729,10 +11753,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -11857,7 +11881,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11938,7 +11962,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12063,7 +12087,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12144,7 +12168,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ54">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12553,7 +12577,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ56">
         <v>1.33</v>
@@ -12759,7 +12783,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57">
         <v>1.43</v>
@@ -12968,7 +12992,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13174,7 +13198,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13299,7 +13323,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13377,7 +13401,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60">
         <v>1.86</v>
@@ -13505,7 +13529,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13583,7 +13607,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ61">
         <v>1.57</v>
@@ -13711,7 +13735,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13995,10 +14019,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
+        <v>1.29</v>
+      </c>
+      <c r="AQ63">
         <v>1.5</v>
-      </c>
-      <c r="AQ63">
-        <v>1.57</v>
       </c>
       <c r="AR63">
         <v>1.2</v>
@@ -14204,7 +14228,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR64">
         <v>1.29</v>
@@ -14407,7 +14431,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ65">
         <v>0.57</v>
@@ -14535,7 +14559,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14616,7 +14640,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -15437,10 +15461,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15565,7 +15589,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15643,10 +15667,10 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ71">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR71">
         <v>1.06</v>
@@ -15771,7 +15795,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15977,7 +16001,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -16055,7 +16079,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>0.83</v>
@@ -16264,7 +16288,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR74">
         <v>1.55</v>
@@ -16389,7 +16413,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16467,7 +16491,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ75">
         <v>1.86</v>
@@ -16673,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ76">
         <v>0.57</v>
@@ -16801,7 +16825,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -16882,7 +16906,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR77">
         <v>2.06</v>
@@ -17007,7 +17031,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17085,10 +17109,10 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR78">
         <v>2.12</v>
@@ -17213,7 +17237,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17291,10 +17315,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
+        <v>1.43</v>
+      </c>
+      <c r="AQ79">
         <v>1.17</v>
-      </c>
-      <c r="AQ79">
-        <v>1.4</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -17500,7 +17524,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR80">
         <v>1.51</v>
@@ -17703,10 +17727,10 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR81">
         <v>1.19</v>
@@ -17831,7 +17855,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17912,7 +17936,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ82">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -18037,7 +18061,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18243,7 +18267,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18449,7 +18473,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18530,7 +18554,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
         <v>1.3</v>
@@ -18655,7 +18679,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>3.9</v>
@@ -18736,7 +18760,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ86">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -18939,7 +18963,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ87">
         <v>1.57</v>
@@ -19145,7 +19169,7 @@
         <v>0.33</v>
       </c>
       <c r="AP88">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ88">
         <v>0.83</v>
@@ -19479,7 +19503,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19560,7 +19584,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.52</v>
@@ -19685,7 +19709,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19763,7 +19787,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
         <v>1.57</v>
@@ -19972,7 +19996,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR92">
         <v>1.45</v>
@@ -20178,7 +20202,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR93">
         <v>1.92</v>
@@ -20303,7 +20327,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -20381,7 +20405,7 @@
         <v>0.75</v>
       </c>
       <c r="AP94">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ94">
         <v>0.57</v>
@@ -20509,7 +20533,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20587,7 +20611,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ95">
         <v>1.86</v>
@@ -20715,7 +20739,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -20793,7 +20817,7 @@
         <v>0.4</v>
       </c>
       <c r="AP96">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>0.57</v>
@@ -20921,7 +20945,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -21002,7 +21026,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ97">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR97">
         <v>1.54</v>
@@ -21205,7 +21229,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98">
         <v>1.57</v>
@@ -21414,7 +21438,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21617,7 +21641,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ100">
         <v>0.67</v>
@@ -21745,7 +21769,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21826,7 +21850,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ101">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR101">
         <v>1.63</v>
@@ -21951,7 +21975,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q102">
         <v>2.73</v>
@@ -22157,7 +22181,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>2.05</v>
@@ -22363,7 +22387,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22444,7 +22468,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ104">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -22650,7 +22674,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ105">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR105">
         <v>1.24</v>
@@ -22853,10 +22877,10 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ106">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR106">
         <v>1.81</v>
@@ -23059,7 +23083,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
         <v>0.57</v>
@@ -23187,7 +23211,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>3.3</v>
@@ -23268,7 +23292,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR108">
         <v>1.56</v>
@@ -23393,7 +23417,7 @@
         <v>121</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>2.82</v>
@@ -23471,7 +23495,7 @@
         <v>0.5</v>
       </c>
       <c r="AP109">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ109">
         <v>0.83</v>
@@ -23599,7 +23623,7 @@
         <v>97</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -23677,7 +23701,7 @@
         <v>1.2</v>
       </c>
       <c r="AP110">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ110">
         <v>1.43</v>
@@ -23886,7 +23910,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR111">
         <v>1.65</v>
@@ -24011,7 +24035,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24217,7 +24241,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24295,10 +24319,10 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24423,7 +24447,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24501,10 +24525,10 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ114">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -24707,10 +24731,10 @@
         <v>2.33</v>
       </c>
       <c r="AP115">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -24835,7 +24859,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25119,10 +25143,10 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25328,7 +25352,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR118">
         <v>1.36</v>
@@ -25531,7 +25555,7 @@
         <v>1.6</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ119">
         <v>1.57</v>
@@ -25659,7 +25683,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -25737,10 +25761,10 @@
         <v>1.4</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ120">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR120">
         <v>1.43</v>
@@ -25943,10 +25967,10 @@
         <v>1.33</v>
       </c>
       <c r="AP121">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ121">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.06</v>
@@ -26277,7 +26301,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q123">
         <v>2.98</v>
@@ -26483,7 +26507,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q124">
         <v>3.35</v>
@@ -26895,7 +26919,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>2.62</v>
@@ -27101,7 +27125,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q127">
         <v>1.9</v>
@@ -27307,7 +27331,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27513,7 +27537,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q129">
         <v>2.64</v>
@@ -27719,7 +27743,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>2.65</v>
@@ -28082,6 +28106,2066 @@
       </c>
       <c r="BP131">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7331061</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>82</v>
+      </c>
+      <c r="H132" t="s">
+        <v>87</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>92</v>
+      </c>
+      <c r="P132" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q132">
+        <v>3.79</v>
+      </c>
+      <c r="R132">
+        <v>2.19</v>
+      </c>
+      <c r="S132">
+        <v>2.98</v>
+      </c>
+      <c r="T132">
+        <v>1.41</v>
+      </c>
+      <c r="U132">
+        <v>2.91</v>
+      </c>
+      <c r="V132">
+        <v>3.05</v>
+      </c>
+      <c r="W132">
+        <v>1.38</v>
+      </c>
+      <c r="X132">
+        <v>7.5</v>
+      </c>
+      <c r="Y132">
+        <v>1.05</v>
+      </c>
+      <c r="Z132">
+        <v>2.95</v>
+      </c>
+      <c r="AA132">
+        <v>3.2</v>
+      </c>
+      <c r="AB132">
+        <v>2.28</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE132">
+        <v>1.32</v>
+      </c>
+      <c r="AF132">
+        <v>3.37</v>
+      </c>
+      <c r="AG132">
+        <v>1.96</v>
+      </c>
+      <c r="AH132">
+        <v>1.75</v>
+      </c>
+      <c r="AI132">
+        <v>1.83</v>
+      </c>
+      <c r="AJ132">
+        <v>1.9</v>
+      </c>
+      <c r="AK132">
+        <v>1.57</v>
+      </c>
+      <c r="AL132">
+        <v>1.33</v>
+      </c>
+      <c r="AM132">
+        <v>1.4</v>
+      </c>
+      <c r="AN132">
+        <v>1.5</v>
+      </c>
+      <c r="AO132">
+        <v>1.5</v>
+      </c>
+      <c r="AP132">
+        <v>1.29</v>
+      </c>
+      <c r="AQ132">
+        <v>1.71</v>
+      </c>
+      <c r="AR132">
+        <v>1.3</v>
+      </c>
+      <c r="AS132">
+        <v>1.19</v>
+      </c>
+      <c r="AT132">
+        <v>2.49</v>
+      </c>
+      <c r="AU132">
+        <v>8</v>
+      </c>
+      <c r="AV132">
+        <v>4</v>
+      </c>
+      <c r="AW132">
+        <v>8</v>
+      </c>
+      <c r="AX132">
+        <v>8</v>
+      </c>
+      <c r="AY132">
+        <v>16</v>
+      </c>
+      <c r="AZ132">
+        <v>12</v>
+      </c>
+      <c r="BA132">
+        <v>11</v>
+      </c>
+      <c r="BB132">
+        <v>7</v>
+      </c>
+      <c r="BC132">
+        <v>18</v>
+      </c>
+      <c r="BD132">
+        <v>1.98</v>
+      </c>
+      <c r="BE132">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF132">
+        <v>2.01</v>
+      </c>
+      <c r="BG132">
+        <v>1.29</v>
+      </c>
+      <c r="BH132">
+        <v>3.4</v>
+      </c>
+      <c r="BI132">
+        <v>1.48</v>
+      </c>
+      <c r="BJ132">
+        <v>2.5</v>
+      </c>
+      <c r="BK132">
+        <v>1.77</v>
+      </c>
+      <c r="BL132">
+        <v>2.02</v>
+      </c>
+      <c r="BM132">
+        <v>2.22</v>
+      </c>
+      <c r="BN132">
+        <v>1.64</v>
+      </c>
+      <c r="BO132">
+        <v>2.7</v>
+      </c>
+      <c r="BP132">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7331060</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>79</v>
+      </c>
+      <c r="H133" t="s">
+        <v>80</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>92</v>
+      </c>
+      <c r="P133" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q133">
+        <v>3.9</v>
+      </c>
+      <c r="R133">
+        <v>2.21</v>
+      </c>
+      <c r="S133">
+        <v>2.88</v>
+      </c>
+      <c r="T133">
+        <v>1.4</v>
+      </c>
+      <c r="U133">
+        <v>2.95</v>
+      </c>
+      <c r="V133">
+        <v>3</v>
+      </c>
+      <c r="W133">
+        <v>1.39</v>
+      </c>
+      <c r="X133">
+        <v>6.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.08</v>
+      </c>
+      <c r="Z133">
+        <v>3.2</v>
+      </c>
+      <c r="AA133">
+        <v>3.3</v>
+      </c>
+      <c r="AB133">
+        <v>2.08</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>8.6</v>
+      </c>
+      <c r="AE133">
+        <v>1.32</v>
+      </c>
+      <c r="AF133">
+        <v>3.42</v>
+      </c>
+      <c r="AG133">
+        <v>1.91</v>
+      </c>
+      <c r="AH133">
+        <v>1.79</v>
+      </c>
+      <c r="AI133">
+        <v>1.75</v>
+      </c>
+      <c r="AJ133">
+        <v>1.95</v>
+      </c>
+      <c r="AK133">
+        <v>1.7</v>
+      </c>
+      <c r="AL133">
+        <v>1.3</v>
+      </c>
+      <c r="AM133">
+        <v>1.35</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
+        <v>2.33</v>
+      </c>
+      <c r="AP133">
+        <v>1</v>
+      </c>
+      <c r="AQ133">
+        <v>2.14</v>
+      </c>
+      <c r="AR133">
+        <v>1.42</v>
+      </c>
+      <c r="AS133">
+        <v>1.58</v>
+      </c>
+      <c r="AT133">
+        <v>3</v>
+      </c>
+      <c r="AU133">
+        <v>4</v>
+      </c>
+      <c r="AV133">
+        <v>5</v>
+      </c>
+      <c r="AW133">
+        <v>7</v>
+      </c>
+      <c r="AX133">
+        <v>11</v>
+      </c>
+      <c r="AY133">
+        <v>11</v>
+      </c>
+      <c r="AZ133">
+        <v>16</v>
+      </c>
+      <c r="BA133">
+        <v>5</v>
+      </c>
+      <c r="BB133">
+        <v>9</v>
+      </c>
+      <c r="BC133">
+        <v>14</v>
+      </c>
+      <c r="BD133">
+        <v>1.86</v>
+      </c>
+      <c r="BE133">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF133">
+        <v>2.15</v>
+      </c>
+      <c r="BG133">
+        <v>1.25</v>
+      </c>
+      <c r="BH133">
+        <v>3.6</v>
+      </c>
+      <c r="BI133">
+        <v>1.42</v>
+      </c>
+      <c r="BJ133">
+        <v>2.62</v>
+      </c>
+      <c r="BK133">
+        <v>1.7</v>
+      </c>
+      <c r="BL133">
+        <v>2.1</v>
+      </c>
+      <c r="BM133">
+        <v>2.12</v>
+      </c>
+      <c r="BN133">
+        <v>1.69</v>
+      </c>
+      <c r="BO133">
+        <v>2.62</v>
+      </c>
+      <c r="BP133">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7331059</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>84</v>
+      </c>
+      <c r="H134" t="s">
+        <v>88</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>176</v>
+      </c>
+      <c r="P134" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q134">
+        <v>3.13</v>
+      </c>
+      <c r="R134">
+        <v>2.15</v>
+      </c>
+      <c r="S134">
+        <v>3.68</v>
+      </c>
+      <c r="T134">
+        <v>1.43</v>
+      </c>
+      <c r="U134">
+        <v>2.81</v>
+      </c>
+      <c r="V134">
+        <v>3.18</v>
+      </c>
+      <c r="W134">
+        <v>1.36</v>
+      </c>
+      <c r="X134">
+        <v>7.4</v>
+      </c>
+      <c r="Y134">
+        <v>1.06</v>
+      </c>
+      <c r="Z134">
+        <v>2.55</v>
+      </c>
+      <c r="AA134">
+        <v>2.95</v>
+      </c>
+      <c r="AB134">
+        <v>2.75</v>
+      </c>
+      <c r="AC134">
+        <v>1.06</v>
+      </c>
+      <c r="AD134">
+        <v>8</v>
+      </c>
+      <c r="AE134">
+        <v>1.33</v>
+      </c>
+      <c r="AF134">
+        <v>3.1</v>
+      </c>
+      <c r="AG134">
+        <v>2.06</v>
+      </c>
+      <c r="AH134">
+        <v>1.68</v>
+      </c>
+      <c r="AI134">
+        <v>1.84</v>
+      </c>
+      <c r="AJ134">
+        <v>1.96</v>
+      </c>
+      <c r="AK134">
+        <v>1.4</v>
+      </c>
+      <c r="AL134">
+        <v>1.36</v>
+      </c>
+      <c r="AM134">
+        <v>1.55</v>
+      </c>
+      <c r="AN134">
+        <v>1.17</v>
+      </c>
+      <c r="AO134">
+        <v>1</v>
+      </c>
+      <c r="AP134">
+        <v>1.43</v>
+      </c>
+      <c r="AQ134">
+        <v>0.88</v>
+      </c>
+      <c r="AR134">
+        <v>1.72</v>
+      </c>
+      <c r="AS134">
+        <v>1.28</v>
+      </c>
+      <c r="AT134">
+        <v>3</v>
+      </c>
+      <c r="AU134">
+        <v>6</v>
+      </c>
+      <c r="AV134">
+        <v>6</v>
+      </c>
+      <c r="AW134">
+        <v>7</v>
+      </c>
+      <c r="AX134">
+        <v>8</v>
+      </c>
+      <c r="AY134">
+        <v>13</v>
+      </c>
+      <c r="AZ134">
+        <v>14</v>
+      </c>
+      <c r="BA134">
+        <v>6</v>
+      </c>
+      <c r="BB134">
+        <v>13</v>
+      </c>
+      <c r="BC134">
+        <v>19</v>
+      </c>
+      <c r="BD134">
+        <v>1.75</v>
+      </c>
+      <c r="BE134">
+        <v>8.5</v>
+      </c>
+      <c r="BF134">
+        <v>2.33</v>
+      </c>
+      <c r="BG134">
+        <v>1.3</v>
+      </c>
+      <c r="BH134">
+        <v>3.2</v>
+      </c>
+      <c r="BI134">
+        <v>1.54</v>
+      </c>
+      <c r="BJ134">
+        <v>2.43</v>
+      </c>
+      <c r="BK134">
+        <v>1.9</v>
+      </c>
+      <c r="BL134">
+        <v>1.9</v>
+      </c>
+      <c r="BM134">
+        <v>2.4</v>
+      </c>
+      <c r="BN134">
+        <v>1.55</v>
+      </c>
+      <c r="BO134">
+        <v>3</v>
+      </c>
+      <c r="BP134">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7331058</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>75</v>
+      </c>
+      <c r="H135" t="s">
+        <v>78</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>177</v>
+      </c>
+      <c r="P135" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q135">
+        <v>2.3</v>
+      </c>
+      <c r="R135">
+        <v>2.21</v>
+      </c>
+      <c r="S135">
+        <v>5.87</v>
+      </c>
+      <c r="T135">
+        <v>1.43</v>
+      </c>
+      <c r="U135">
+        <v>2.73</v>
+      </c>
+      <c r="V135">
+        <v>3.19</v>
+      </c>
+      <c r="W135">
+        <v>1.33</v>
+      </c>
+      <c r="X135">
+        <v>7.8</v>
+      </c>
+      <c r="Y135">
+        <v>1.05</v>
+      </c>
+      <c r="Z135">
+        <v>1.68</v>
+      </c>
+      <c r="AA135">
+        <v>3.55</v>
+      </c>
+      <c r="AB135">
+        <v>4.5</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>8</v>
+      </c>
+      <c r="AE135">
+        <v>1.36</v>
+      </c>
+      <c r="AF135">
+        <v>3</v>
+      </c>
+      <c r="AG135">
+        <v>2.1</v>
+      </c>
+      <c r="AH135">
+        <v>1.65</v>
+      </c>
+      <c r="AI135">
+        <v>2</v>
+      </c>
+      <c r="AJ135">
+        <v>1.75</v>
+      </c>
+      <c r="AK135">
+        <v>1.17</v>
+      </c>
+      <c r="AL135">
+        <v>1.3</v>
+      </c>
+      <c r="AM135">
+        <v>2.1</v>
+      </c>
+      <c r="AN135">
+        <v>2</v>
+      </c>
+      <c r="AO135">
+        <v>1.33</v>
+      </c>
+      <c r="AP135">
+        <v>1.71</v>
+      </c>
+      <c r="AQ135">
+        <v>1.57</v>
+      </c>
+      <c r="AR135">
+        <v>1.46</v>
+      </c>
+      <c r="AS135">
+        <v>1.28</v>
+      </c>
+      <c r="AT135">
+        <v>2.74</v>
+      </c>
+      <c r="AU135">
+        <v>6</v>
+      </c>
+      <c r="AV135">
+        <v>6</v>
+      </c>
+      <c r="AW135">
+        <v>7</v>
+      </c>
+      <c r="AX135">
+        <v>2</v>
+      </c>
+      <c r="AY135">
+        <v>13</v>
+      </c>
+      <c r="AZ135">
+        <v>8</v>
+      </c>
+      <c r="BA135">
+        <v>7</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>7</v>
+      </c>
+      <c r="BD135">
+        <v>1.46</v>
+      </c>
+      <c r="BE135">
+        <v>9.1</v>
+      </c>
+      <c r="BF135">
+        <v>3.1</v>
+      </c>
+      <c r="BG135">
+        <v>1.29</v>
+      </c>
+      <c r="BH135">
+        <v>3.4</v>
+      </c>
+      <c r="BI135">
+        <v>1.47</v>
+      </c>
+      <c r="BJ135">
+        <v>2.6</v>
+      </c>
+      <c r="BK135">
+        <v>1.79</v>
+      </c>
+      <c r="BL135">
+        <v>2.01</v>
+      </c>
+      <c r="BM135">
+        <v>2.25</v>
+      </c>
+      <c r="BN135">
+        <v>1.61</v>
+      </c>
+      <c r="BO135">
+        <v>2.8</v>
+      </c>
+      <c r="BP135">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7331054</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>89</v>
+      </c>
+      <c r="H136" t="s">
+        <v>86</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136" t="s">
+        <v>178</v>
+      </c>
+      <c r="P136" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q136">
+        <v>3.53</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>3.65</v>
+      </c>
+      <c r="T136">
+        <v>1.54</v>
+      </c>
+      <c r="U136">
+        <v>2.48</v>
+      </c>
+      <c r="V136">
+        <v>3.3</v>
+      </c>
+      <c r="W136">
+        <v>1.29</v>
+      </c>
+      <c r="X136">
+        <v>8.5</v>
+      </c>
+      <c r="Y136">
+        <v>1.04</v>
+      </c>
+      <c r="Z136">
+        <v>2.55</v>
+      </c>
+      <c r="AA136">
+        <v>2.85</v>
+      </c>
+      <c r="AB136">
+        <v>2.85</v>
+      </c>
+      <c r="AC136">
+        <v>1.08</v>
+      </c>
+      <c r="AD136">
+        <v>6.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.48</v>
+      </c>
+      <c r="AF136">
+        <v>2.5</v>
+      </c>
+      <c r="AG136">
+        <v>2.35</v>
+      </c>
+      <c r="AH136">
+        <v>1.53</v>
+      </c>
+      <c r="AI136">
+        <v>2.05</v>
+      </c>
+      <c r="AJ136">
+        <v>1.72</v>
+      </c>
+      <c r="AK136">
+        <v>1.38</v>
+      </c>
+      <c r="AL136">
+        <v>1.3</v>
+      </c>
+      <c r="AM136">
+        <v>1.52</v>
+      </c>
+      <c r="AN136">
+        <v>1.5</v>
+      </c>
+      <c r="AO136">
+        <v>2</v>
+      </c>
+      <c r="AP136">
+        <v>1.29</v>
+      </c>
+      <c r="AQ136">
+        <v>2.13</v>
+      </c>
+      <c r="AR136">
+        <v>1.44</v>
+      </c>
+      <c r="AS136">
+        <v>1.6</v>
+      </c>
+      <c r="AT136">
+        <v>3.04</v>
+      </c>
+      <c r="AU136">
+        <v>3</v>
+      </c>
+      <c r="AV136">
+        <v>5</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>8</v>
+      </c>
+      <c r="AY136">
+        <v>7</v>
+      </c>
+      <c r="AZ136">
+        <v>13</v>
+      </c>
+      <c r="BA136">
+        <v>6</v>
+      </c>
+      <c r="BB136">
+        <v>9</v>
+      </c>
+      <c r="BC136">
+        <v>15</v>
+      </c>
+      <c r="BD136">
+        <v>1.89</v>
+      </c>
+      <c r="BE136">
+        <v>8.9</v>
+      </c>
+      <c r="BF136">
+        <v>2.1</v>
+      </c>
+      <c r="BG136">
+        <v>1.22</v>
+      </c>
+      <c r="BH136">
+        <v>3.8</v>
+      </c>
+      <c r="BI136">
+        <v>1.36</v>
+      </c>
+      <c r="BJ136">
+        <v>2.88</v>
+      </c>
+      <c r="BK136">
+        <v>1.62</v>
+      </c>
+      <c r="BL136">
+        <v>2.24</v>
+      </c>
+      <c r="BM136">
+        <v>2.01</v>
+      </c>
+      <c r="BN136">
+        <v>1.79</v>
+      </c>
+      <c r="BO136">
+        <v>2.55</v>
+      </c>
+      <c r="BP136">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7331056</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>85</v>
+      </c>
+      <c r="H137" t="s">
+        <v>72</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>92</v>
+      </c>
+      <c r="P137" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q137">
+        <v>3.31</v>
+      </c>
+      <c r="R137">
+        <v>2.15</v>
+      </c>
+      <c r="S137">
+        <v>3.45</v>
+      </c>
+      <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.86</v>
+      </c>
+      <c r="V137">
+        <v>3.18</v>
+      </c>
+      <c r="W137">
+        <v>1.37</v>
+      </c>
+      <c r="X137">
+        <v>7</v>
+      </c>
+      <c r="Y137">
+        <v>1.07</v>
+      </c>
+      <c r="Z137">
+        <v>2.6</v>
+      </c>
+      <c r="AA137">
+        <v>2.95</v>
+      </c>
+      <c r="AB137">
+        <v>2.7</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>8</v>
+      </c>
+      <c r="AE137">
+        <v>1.33</v>
+      </c>
+      <c r="AF137">
+        <v>3</v>
+      </c>
+      <c r="AG137">
+        <v>2.04</v>
+      </c>
+      <c r="AH137">
+        <v>1.7</v>
+      </c>
+      <c r="AI137">
+        <v>1.8</v>
+      </c>
+      <c r="AJ137">
+        <v>1.95</v>
+      </c>
+      <c r="AK137">
+        <v>1.44</v>
+      </c>
+      <c r="AL137">
+        <v>1.28</v>
+      </c>
+      <c r="AM137">
+        <v>1.47</v>
+      </c>
+      <c r="AN137">
+        <v>1.33</v>
+      </c>
+      <c r="AO137">
+        <v>1</v>
+      </c>
+      <c r="AP137">
+        <v>1.14</v>
+      </c>
+      <c r="AQ137">
+        <v>1.29</v>
+      </c>
+      <c r="AR137">
+        <v>1.07</v>
+      </c>
+      <c r="AS137">
+        <v>1.53</v>
+      </c>
+      <c r="AT137">
+        <v>2.6</v>
+      </c>
+      <c r="AU137">
+        <v>5</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>7</v>
+      </c>
+      <c r="AX137">
+        <v>8</v>
+      </c>
+      <c r="AY137">
+        <v>12</v>
+      </c>
+      <c r="AZ137">
+        <v>12</v>
+      </c>
+      <c r="BA137">
+        <v>3</v>
+      </c>
+      <c r="BB137">
+        <v>3</v>
+      </c>
+      <c r="BC137">
+        <v>6</v>
+      </c>
+      <c r="BD137">
+        <v>1.97</v>
+      </c>
+      <c r="BE137">
+        <v>8.5</v>
+      </c>
+      <c r="BF137">
+        <v>2.03</v>
+      </c>
+      <c r="BG137">
+        <v>1.29</v>
+      </c>
+      <c r="BH137">
+        <v>3.4</v>
+      </c>
+      <c r="BI137">
+        <v>1.48</v>
+      </c>
+      <c r="BJ137">
+        <v>2.5</v>
+      </c>
+      <c r="BK137">
+        <v>1.78</v>
+      </c>
+      <c r="BL137">
+        <v>2.02</v>
+      </c>
+      <c r="BM137">
+        <v>2.23</v>
+      </c>
+      <c r="BN137">
+        <v>1.64</v>
+      </c>
+      <c r="BO137">
+        <v>2.8</v>
+      </c>
+      <c r="BP137">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7331055</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>70</v>
+      </c>
+      <c r="H138" t="s">
+        <v>76</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>179</v>
+      </c>
+      <c r="P138" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q138">
+        <v>3.47</v>
+      </c>
+      <c r="R138">
+        <v>2.13</v>
+      </c>
+      <c r="S138">
+        <v>3.36</v>
+      </c>
+      <c r="T138">
+        <v>1.45</v>
+      </c>
+      <c r="U138">
+        <v>2.77</v>
+      </c>
+      <c r="V138">
+        <v>3.24</v>
+      </c>
+      <c r="W138">
+        <v>1.34</v>
+      </c>
+      <c r="X138">
+        <v>7.8</v>
+      </c>
+      <c r="Y138">
+        <v>1.05</v>
+      </c>
+      <c r="Z138">
+        <v>2.55</v>
+      </c>
+      <c r="AA138">
+        <v>3.1</v>
+      </c>
+      <c r="AB138">
+        <v>2.65</v>
+      </c>
+      <c r="AC138">
+        <v>1.05</v>
+      </c>
+      <c r="AD138">
+        <v>8</v>
+      </c>
+      <c r="AE138">
+        <v>1.36</v>
+      </c>
+      <c r="AF138">
+        <v>2.9</v>
+      </c>
+      <c r="AG138">
+        <v>2.1</v>
+      </c>
+      <c r="AH138">
+        <v>1.65</v>
+      </c>
+      <c r="AI138">
+        <v>1.85</v>
+      </c>
+      <c r="AJ138">
+        <v>1.85</v>
+      </c>
+      <c r="AK138">
+        <v>1.47</v>
+      </c>
+      <c r="AL138">
+        <v>1.28</v>
+      </c>
+      <c r="AM138">
+        <v>1.44</v>
+      </c>
+      <c r="AN138">
+        <v>0.86</v>
+      </c>
+      <c r="AO138">
+        <v>1.4</v>
+      </c>
+      <c r="AP138">
+        <v>1.13</v>
+      </c>
+      <c r="AQ138">
+        <v>1.17</v>
+      </c>
+      <c r="AR138">
+        <v>1.43</v>
+      </c>
+      <c r="AS138">
+        <v>1.82</v>
+      </c>
+      <c r="AT138">
+        <v>3.25</v>
+      </c>
+      <c r="AU138">
+        <v>4</v>
+      </c>
+      <c r="AV138">
+        <v>2</v>
+      </c>
+      <c r="AW138">
+        <v>15</v>
+      </c>
+      <c r="AX138">
+        <v>5</v>
+      </c>
+      <c r="AY138">
+        <v>19</v>
+      </c>
+      <c r="AZ138">
+        <v>7</v>
+      </c>
+      <c r="BA138">
+        <v>2</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>6</v>
+      </c>
+      <c r="BD138">
+        <v>2.14</v>
+      </c>
+      <c r="BE138">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF138">
+        <v>1.89</v>
+      </c>
+      <c r="BG138">
+        <v>1.38</v>
+      </c>
+      <c r="BH138">
+        <v>2.8</v>
+      </c>
+      <c r="BI138">
+        <v>1.68</v>
+      </c>
+      <c r="BJ138">
+        <v>2.15</v>
+      </c>
+      <c r="BK138">
+        <v>2.1</v>
+      </c>
+      <c r="BL138">
+        <v>1.7</v>
+      </c>
+      <c r="BM138">
+        <v>2.62</v>
+      </c>
+      <c r="BN138">
+        <v>1.42</v>
+      </c>
+      <c r="BO138">
+        <v>3.6</v>
+      </c>
+      <c r="BP138">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7331057</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45418.08333333334</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>77</v>
+      </c>
+      <c r="H139" t="s">
+        <v>81</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>92</v>
+      </c>
+      <c r="P139" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q139">
+        <v>6.99</v>
+      </c>
+      <c r="R139">
+        <v>2.47</v>
+      </c>
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
+        <v>1.36</v>
+      </c>
+      <c r="U139">
+        <v>3.26</v>
+      </c>
+      <c r="V139">
+        <v>2.75</v>
+      </c>
+      <c r="W139">
+        <v>1.47</v>
+      </c>
+      <c r="X139">
+        <v>6</v>
+      </c>
+      <c r="Y139">
+        <v>1.09</v>
+      </c>
+      <c r="Z139">
+        <v>6</v>
+      </c>
+      <c r="AA139">
+        <v>4.1</v>
+      </c>
+      <c r="AB139">
+        <v>1.47</v>
+      </c>
+      <c r="AC139">
+        <v>1.02</v>
+      </c>
+      <c r="AD139">
+        <v>10</v>
+      </c>
+      <c r="AE139">
+        <v>1.25</v>
+      </c>
+      <c r="AF139">
+        <v>3.6</v>
+      </c>
+      <c r="AG139">
+        <v>1.81</v>
+      </c>
+      <c r="AH139">
+        <v>1.89</v>
+      </c>
+      <c r="AI139">
+        <v>2</v>
+      </c>
+      <c r="AJ139">
+        <v>1.73</v>
+      </c>
+      <c r="AK139">
+        <v>2.7</v>
+      </c>
+      <c r="AL139">
+        <v>1.15</v>
+      </c>
+      <c r="AM139">
+        <v>1.06</v>
+      </c>
+      <c r="AN139">
+        <v>0.29</v>
+      </c>
+      <c r="AO139">
+        <v>2.14</v>
+      </c>
+      <c r="AP139">
+        <v>0.25</v>
+      </c>
+      <c r="AQ139">
+        <v>2.25</v>
+      </c>
+      <c r="AR139">
+        <v>1.17</v>
+      </c>
+      <c r="AS139">
+        <v>1.37</v>
+      </c>
+      <c r="AT139">
+        <v>2.54</v>
+      </c>
+      <c r="AU139">
+        <v>2</v>
+      </c>
+      <c r="AV139">
+        <v>9</v>
+      </c>
+      <c r="AW139">
+        <v>6</v>
+      </c>
+      <c r="AX139">
+        <v>12</v>
+      </c>
+      <c r="AY139">
+        <v>8</v>
+      </c>
+      <c r="AZ139">
+        <v>21</v>
+      </c>
+      <c r="BA139">
+        <v>1</v>
+      </c>
+      <c r="BB139">
+        <v>9</v>
+      </c>
+      <c r="BC139">
+        <v>10</v>
+      </c>
+      <c r="BD139">
+        <v>3.35</v>
+      </c>
+      <c r="BE139">
+        <v>9.5</v>
+      </c>
+      <c r="BF139">
+        <v>1.4</v>
+      </c>
+      <c r="BG139">
+        <v>1.25</v>
+      </c>
+      <c r="BH139">
+        <v>3.6</v>
+      </c>
+      <c r="BI139">
+        <v>1.42</v>
+      </c>
+      <c r="BJ139">
+        <v>2.62</v>
+      </c>
+      <c r="BK139">
+        <v>1.72</v>
+      </c>
+      <c r="BL139">
+        <v>2.09</v>
+      </c>
+      <c r="BM139">
+        <v>2.14</v>
+      </c>
+      <c r="BN139">
+        <v>1.69</v>
+      </c>
+      <c r="BO139">
+        <v>2.62</v>
+      </c>
+      <c r="BP139">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7331062</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45418.125</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" t="s">
+        <v>83</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140" t="s">
+        <v>92</v>
+      </c>
+      <c r="P140" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q140">
+        <v>3.65</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>2.7</v>
+      </c>
+      <c r="T140">
+        <v>1.38</v>
+      </c>
+      <c r="U140">
+        <v>2.8</v>
+      </c>
+      <c r="V140">
+        <v>2.8</v>
+      </c>
+      <c r="W140">
+        <v>1.38</v>
+      </c>
+      <c r="X140">
+        <v>6.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.08</v>
+      </c>
+      <c r="Z140">
+        <v>3.5</v>
+      </c>
+      <c r="AA140">
+        <v>3.2</v>
+      </c>
+      <c r="AB140">
+        <v>2.02</v>
+      </c>
+      <c r="AC140">
+        <v>1.03</v>
+      </c>
+      <c r="AD140">
+        <v>9</v>
+      </c>
+      <c r="AE140">
+        <v>1.29</v>
+      </c>
+      <c r="AF140">
+        <v>3.3</v>
+      </c>
+      <c r="AG140">
+        <v>1.8</v>
+      </c>
+      <c r="AH140">
+        <v>1.9</v>
+      </c>
+      <c r="AI140">
+        <v>1.73</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AK140">
+        <v>1.67</v>
+      </c>
+      <c r="AL140">
+        <v>1.25</v>
+      </c>
+      <c r="AM140">
+        <v>1.33</v>
+      </c>
+      <c r="AN140">
+        <v>1.57</v>
+      </c>
+      <c r="AO140">
+        <v>1.57</v>
+      </c>
+      <c r="AP140">
+        <v>1.5</v>
+      </c>
+      <c r="AQ140">
+        <v>1.5</v>
+      </c>
+      <c r="AR140">
+        <v>1.31</v>
+      </c>
+      <c r="AS140">
+        <v>1.51</v>
+      </c>
+      <c r="AT140">
+        <v>2.82</v>
+      </c>
+      <c r="AU140">
+        <v>3</v>
+      </c>
+      <c r="AV140">
+        <v>10</v>
+      </c>
+      <c r="AW140">
+        <v>9</v>
+      </c>
+      <c r="AX140">
+        <v>10</v>
+      </c>
+      <c r="AY140">
+        <v>12</v>
+      </c>
+      <c r="AZ140">
+        <v>20</v>
+      </c>
+      <c r="BA140">
+        <v>6</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
+        <v>9</v>
+      </c>
+      <c r="BD140">
+        <v>2.74</v>
+      </c>
+      <c r="BE140">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF140">
+        <v>1.55</v>
+      </c>
+      <c r="BG140">
+        <v>1.13</v>
+      </c>
+      <c r="BH140">
+        <v>5</v>
+      </c>
+      <c r="BI140">
+        <v>1.25</v>
+      </c>
+      <c r="BJ140">
+        <v>3.6</v>
+      </c>
+      <c r="BK140">
+        <v>1.42</v>
+      </c>
+      <c r="BL140">
+        <v>2.62</v>
+      </c>
+      <c r="BM140">
+        <v>1.67</v>
+      </c>
+      <c r="BN140">
+        <v>2.1</v>
+      </c>
+      <c r="BO140">
+        <v>2.05</v>
+      </c>
+      <c r="BP140">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7331063</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45418.29166666666</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" t="s">
+        <v>71</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>93</v>
+      </c>
+      <c r="P141" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q141">
+        <v>2.9</v>
+      </c>
+      <c r="R141">
+        <v>2.05</v>
+      </c>
+      <c r="S141">
+        <v>3.75</v>
+      </c>
+      <c r="T141">
+        <v>1.42</v>
+      </c>
+      <c r="U141">
+        <v>2.62</v>
+      </c>
+      <c r="V141">
+        <v>2.9</v>
+      </c>
+      <c r="W141">
+        <v>1.36</v>
+      </c>
+      <c r="X141">
+        <v>7</v>
+      </c>
+      <c r="Y141">
+        <v>1.07</v>
+      </c>
+      <c r="Z141">
+        <v>2.38</v>
+      </c>
+      <c r="AA141">
+        <v>3.05</v>
+      </c>
+      <c r="AB141">
+        <v>2.95</v>
+      </c>
+      <c r="AC141">
+        <v>1.05</v>
+      </c>
+      <c r="AD141">
+        <v>8</v>
+      </c>
+      <c r="AE141">
+        <v>1.33</v>
+      </c>
+      <c r="AF141">
+        <v>3</v>
+      </c>
+      <c r="AG141">
+        <v>2.08</v>
+      </c>
+      <c r="AH141">
+        <v>1.67</v>
+      </c>
+      <c r="AI141">
+        <v>1.8</v>
+      </c>
+      <c r="AJ141">
+        <v>1.91</v>
+      </c>
+      <c r="AK141">
+        <v>1.36</v>
+      </c>
+      <c r="AL141">
+        <v>1.35</v>
+      </c>
+      <c r="AM141">
+        <v>1.6</v>
+      </c>
+      <c r="AN141">
+        <v>1.17</v>
+      </c>
+      <c r="AO141">
+        <v>1.67</v>
+      </c>
+      <c r="AP141">
+        <v>1.43</v>
+      </c>
+      <c r="AQ141">
+        <v>1.43</v>
+      </c>
+      <c r="AR141">
+        <v>2.28</v>
+      </c>
+      <c r="AS141">
+        <v>1.63</v>
+      </c>
+      <c r="AT141">
+        <v>3.91</v>
+      </c>
+      <c r="AU141">
+        <v>7</v>
+      </c>
+      <c r="AV141">
+        <v>5</v>
+      </c>
+      <c r="AW141">
+        <v>6</v>
+      </c>
+      <c r="AX141">
+        <v>8</v>
+      </c>
+      <c r="AY141">
+        <v>13</v>
+      </c>
+      <c r="AZ141">
+        <v>13</v>
+      </c>
+      <c r="BA141">
+        <v>2</v>
+      </c>
+      <c r="BB141">
+        <v>9</v>
+      </c>
+      <c r="BC141">
+        <v>11</v>
+      </c>
+      <c r="BD141">
+        <v>2.08</v>
+      </c>
+      <c r="BE141">
+        <v>8.4</v>
+      </c>
+      <c r="BF141">
+        <v>1.93</v>
+      </c>
+      <c r="BG141">
+        <v>1.3</v>
+      </c>
+      <c r="BH141">
+        <v>3.2</v>
+      </c>
+      <c r="BI141">
+        <v>1.55</v>
+      </c>
+      <c r="BJ141">
+        <v>2.3</v>
+      </c>
+      <c r="BK141">
+        <v>1.85</v>
+      </c>
+      <c r="BL141">
+        <v>1.85</v>
+      </c>
+      <c r="BM141">
+        <v>2.3</v>
+      </c>
+      <c r="BN141">
+        <v>1.55</v>
+      </c>
+      <c r="BO141">
+        <v>3</v>
+      </c>
+      <c r="BP141">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -751,7 +751,7 @@
     <t>['42', '49']</t>
   </si>
   <si>
-    <t>['28', '54', '76']</t>
+    <t>['28', '54', '77']</t>
   </si>
   <si>
     <t>['11', '56', '90']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['51', '81']</t>
   </si>
   <si>
+    <t>['1', '43', '68', '82']</t>
+  </si>
+  <si>
+    <t>['8', '29']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -755,6 +761,9 @@
   </si>
   <si>
     <t>['11', '56', '90']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1581,7 +1590,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2199,7 +2208,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2611,7 +2620,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2898,7 +2907,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3023,7 +3032,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3435,7 +3444,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3641,7 +3650,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4131,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -5083,7 +5092,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5164,7 +5173,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5289,7 +5298,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5495,7 +5504,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5701,7 +5710,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6113,7 +6122,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6194,7 +6203,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ25">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6397,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>0.83</v>
@@ -6525,7 +6534,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6937,7 +6946,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7143,7 +7152,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7349,7 +7358,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7555,7 +7564,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7839,7 +7848,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ33">
         <v>1.86</v>
@@ -8173,7 +8182,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8379,7 +8388,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8997,7 +9006,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9203,7 +9212,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9409,7 +9418,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -10108,7 +10117,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10314,7 +10323,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>1.32</v>
@@ -10439,7 +10448,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10929,7 +10938,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -11057,7 +11066,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11263,7 +11272,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11469,7 +11478,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11675,7 +11684,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11881,7 +11890,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12087,7 +12096,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12371,7 +12380,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ55">
         <v>1.43</v>
@@ -13195,7 +13204,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
         <v>1.57</v>
@@ -13323,7 +13332,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13529,7 +13538,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13735,7 +13744,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14434,7 +14443,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>1.44</v>
@@ -14559,7 +14568,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14846,7 +14855,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -15589,7 +15598,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15795,7 +15804,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15873,7 +15882,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -16001,7 +16010,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -16413,7 +16422,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16825,7 +16834,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -16903,7 +16912,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ77">
         <v>1.57</v>
@@ -17031,7 +17040,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17237,7 +17246,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17855,7 +17864,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18061,7 +18070,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18267,7 +18276,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18473,7 +18482,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18679,7 +18688,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>3.9</v>
@@ -19378,7 +19387,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ89">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.51</v>
@@ -19503,7 +19512,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19709,7 +19718,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20199,7 +20208,7 @@
         <v>1.4</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
         <v>0.88</v>
@@ -20327,7 +20336,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -20533,7 +20542,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20739,7 +20748,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -20820,7 +20829,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ96">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR96">
         <v>1.2</v>
@@ -20945,7 +20954,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -21644,7 +21653,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -21769,7 +21778,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21975,7 +21984,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q102">
         <v>2.73</v>
@@ -22181,7 +22190,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>2.05</v>
@@ -22262,7 +22271,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ103">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22387,7 +22396,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22465,7 +22474,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ104">
         <v>1.71</v>
@@ -23211,7 +23220,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>3.3</v>
@@ -23417,7 +23426,7 @@
         <v>121</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>2.82</v>
@@ -23623,7 +23632,7 @@
         <v>97</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24035,7 +24044,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24113,7 +24122,7 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ112">
         <v>1.43</v>
@@ -24241,7 +24250,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24447,7 +24456,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24859,7 +24868,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25683,7 +25692,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26301,7 +26310,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q123">
         <v>2.98</v>
@@ -26379,7 +26388,7 @@
         <v>1.83</v>
       </c>
       <c r="AP123">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ123">
         <v>1.57</v>
@@ -26507,7 +26516,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q124">
         <v>3.35</v>
@@ -26919,7 +26928,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>2.62</v>
@@ -27125,7 +27134,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q127">
         <v>1.9</v>
@@ -27203,7 +27212,7 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ127">
         <v>0.57</v>
@@ -27331,7 +27340,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27412,7 +27421,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ128">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR128">
         <v>1.36</v>
@@ -27537,7 +27546,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q129">
         <v>2.64</v>
@@ -27743,7 +27752,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q130">
         <v>2.65</v>
@@ -27824,7 +27833,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ130">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR130">
         <v>1.6</v>
@@ -28155,7 +28164,7 @@
         <v>92</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q132">
         <v>3.79</v>
@@ -28773,7 +28782,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -28979,7 +28988,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q136">
         <v>3.53</v>
@@ -29597,7 +29606,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30166,6 +30175,418 @@
       </c>
       <c r="BP141">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7331065</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45423.08333333334</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>82</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>4</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>180</v>
+      </c>
+      <c r="P142" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q142">
+        <v>2.04</v>
+      </c>
+      <c r="R142">
+        <v>2.31</v>
+      </c>
+      <c r="S142">
+        <v>5.15</v>
+      </c>
+      <c r="T142">
+        <v>1.32</v>
+      </c>
+      <c r="U142">
+        <v>3.2</v>
+      </c>
+      <c r="V142">
+        <v>2.51</v>
+      </c>
+      <c r="W142">
+        <v>1.49</v>
+      </c>
+      <c r="X142">
+        <v>5.3</v>
+      </c>
+      <c r="Y142">
+        <v>1.12</v>
+      </c>
+      <c r="Z142">
+        <v>1.45</v>
+      </c>
+      <c r="AA142">
+        <v>4</v>
+      </c>
+      <c r="AB142">
+        <v>5.75</v>
+      </c>
+      <c r="AC142">
+        <v>1.04</v>
+      </c>
+      <c r="AD142">
+        <v>11</v>
+      </c>
+      <c r="AE142">
+        <v>1.19</v>
+      </c>
+      <c r="AF142">
+        <v>3.92</v>
+      </c>
+      <c r="AG142">
+        <v>1.7</v>
+      </c>
+      <c r="AH142">
+        <v>2.05</v>
+      </c>
+      <c r="AI142">
+        <v>1.73</v>
+      </c>
+      <c r="AJ142">
+        <v>1.94</v>
+      </c>
+      <c r="AK142">
+        <v>1.12</v>
+      </c>
+      <c r="AL142">
+        <v>1.19</v>
+      </c>
+      <c r="AM142">
+        <v>2.32</v>
+      </c>
+      <c r="AN142">
+        <v>2.67</v>
+      </c>
+      <c r="AO142">
+        <v>0.57</v>
+      </c>
+      <c r="AP142">
+        <v>2.71</v>
+      </c>
+      <c r="AQ142">
+        <v>0.5</v>
+      </c>
+      <c r="AR142">
+        <v>1.82</v>
+      </c>
+      <c r="AS142">
+        <v>1.55</v>
+      </c>
+      <c r="AT142">
+        <v>3.37</v>
+      </c>
+      <c r="AU142">
+        <v>9</v>
+      </c>
+      <c r="AV142">
+        <v>0</v>
+      </c>
+      <c r="AW142">
+        <v>4</v>
+      </c>
+      <c r="AX142">
+        <v>4</v>
+      </c>
+      <c r="AY142">
+        <v>13</v>
+      </c>
+      <c r="AZ142">
+        <v>4</v>
+      </c>
+      <c r="BA142">
+        <v>5</v>
+      </c>
+      <c r="BB142">
+        <v>5</v>
+      </c>
+      <c r="BC142">
+        <v>10</v>
+      </c>
+      <c r="BD142">
+        <v>1.55</v>
+      </c>
+      <c r="BE142">
+        <v>8.5</v>
+      </c>
+      <c r="BF142">
+        <v>2.91</v>
+      </c>
+      <c r="BG142">
+        <v>1.2</v>
+      </c>
+      <c r="BH142">
+        <v>4</v>
+      </c>
+      <c r="BI142">
+        <v>1.3</v>
+      </c>
+      <c r="BJ142">
+        <v>3.2</v>
+      </c>
+      <c r="BK142">
+        <v>1.54</v>
+      </c>
+      <c r="BL142">
+        <v>2.32</v>
+      </c>
+      <c r="BM142">
+        <v>1.96</v>
+      </c>
+      <c r="BN142">
+        <v>1.75</v>
+      </c>
+      <c r="BO142">
+        <v>2.52</v>
+      </c>
+      <c r="BP142">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7331064</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45423.08333333334</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>87</v>
+      </c>
+      <c r="H143" t="s">
+        <v>77</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>181</v>
+      </c>
+      <c r="P143" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q143">
+        <v>2.27</v>
+      </c>
+      <c r="R143">
+        <v>2.04</v>
+      </c>
+      <c r="S143">
+        <v>5.35</v>
+      </c>
+      <c r="T143">
+        <v>1.46</v>
+      </c>
+      <c r="U143">
+        <v>2.6</v>
+      </c>
+      <c r="V143">
+        <v>3.14</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>8</v>
+      </c>
+      <c r="Y143">
+        <v>1.05</v>
+      </c>
+      <c r="Z143">
+        <v>1.55</v>
+      </c>
+      <c r="AA143">
+        <v>3.5</v>
+      </c>
+      <c r="AB143">
+        <v>5.25</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>7.7</v>
+      </c>
+      <c r="AE143">
+        <v>1.36</v>
+      </c>
+      <c r="AF143">
+        <v>2.79</v>
+      </c>
+      <c r="AG143">
+        <v>2.1</v>
+      </c>
+      <c r="AH143">
+        <v>1.65</v>
+      </c>
+      <c r="AI143">
+        <v>2.01</v>
+      </c>
+      <c r="AJ143">
+        <v>1.76</v>
+      </c>
+      <c r="AK143">
+        <v>1.14</v>
+      </c>
+      <c r="AL143">
+        <v>1.25</v>
+      </c>
+      <c r="AM143">
+        <v>2.03</v>
+      </c>
+      <c r="AN143">
+        <v>1.57</v>
+      </c>
+      <c r="AO143">
+        <v>0.67</v>
+      </c>
+      <c r="AP143">
+        <v>1.75</v>
+      </c>
+      <c r="AQ143">
+        <v>0.57</v>
+      </c>
+      <c r="AR143">
+        <v>1.64</v>
+      </c>
+      <c r="AS143">
+        <v>1.12</v>
+      </c>
+      <c r="AT143">
+        <v>2.76</v>
+      </c>
+      <c r="AU143">
+        <v>6</v>
+      </c>
+      <c r="AV143">
+        <v>4</v>
+      </c>
+      <c r="AW143">
+        <v>3</v>
+      </c>
+      <c r="AX143">
+        <v>1</v>
+      </c>
+      <c r="AY143">
+        <v>9</v>
+      </c>
+      <c r="AZ143">
+        <v>5</v>
+      </c>
+      <c r="BA143">
+        <v>3</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>3</v>
+      </c>
+      <c r="BD143">
+        <v>1.51</v>
+      </c>
+      <c r="BE143">
+        <v>8.5</v>
+      </c>
+      <c r="BF143">
+        <v>3.07</v>
+      </c>
+      <c r="BG143">
+        <v>1.33</v>
+      </c>
+      <c r="BH143">
+        <v>3</v>
+      </c>
+      <c r="BI143">
+        <v>1.51</v>
+      </c>
+      <c r="BJ143">
+        <v>2.37</v>
+      </c>
+      <c r="BK143">
+        <v>1.95</v>
+      </c>
+      <c r="BL143">
+        <v>1.85</v>
+      </c>
+      <c r="BM143">
+        <v>2.47</v>
+      </c>
+      <c r="BN143">
+        <v>1.48</v>
+      </c>
+      <c r="BO143">
+        <v>3.2</v>
+      </c>
+      <c r="BP143">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,21 @@
     <t>['8', '29']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['12', '54']</t>
+  </si>
+  <si>
+    <t>['35', '90+4']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -685,9 +700,6 @@
     <t>['51']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
     <t>['16', '53']</t>
   </si>
   <si>
@@ -764,6 +776,18 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['7', '65']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['81', '83']</t>
+  </si>
+  <si>
+    <t>['58', '66']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1590,7 +1614,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1671,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1874,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>2.14</v>
@@ -2083,7 +2107,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2208,7 +2232,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2495,7 +2519,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ7">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2620,7 +2644,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2698,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ8">
         <v>2.25</v>
@@ -3032,7 +3056,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3110,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10">
         <v>2.13</v>
@@ -3444,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3522,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ12">
         <v>1.71</v>
@@ -3650,7 +3674,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4143,7 +4167,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4349,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -4758,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ18">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4967,7 +4991,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ19">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5092,7 +5116,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5170,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ20">
         <v>0.57</v>
@@ -5298,7 +5322,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5504,7 +5528,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5582,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5710,7 +5734,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5788,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6122,7 +6146,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6200,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -6409,7 +6433,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6534,7 +6558,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6612,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>1.86</v>
@@ -6821,7 +6845,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ28">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -6946,7 +6970,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7024,7 +7048,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ29">
         <v>2.25</v>
@@ -7152,7 +7176,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7358,7 +7382,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7439,7 +7463,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7564,7 +7588,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7642,10 +7666,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8057,7 +8081,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -8182,7 +8206,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8388,7 +8412,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8466,7 +8490,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ36">
         <v>2.13</v>
@@ -8881,7 +8905,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9006,7 +9030,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9087,7 +9111,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9212,7 +9236,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9290,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -9418,7 +9442,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9702,7 +9726,7 @@
         <v>1.5</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -9911,7 +9935,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>2.12</v>
@@ -10448,7 +10472,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10526,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -10735,7 +10759,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.2</v>
@@ -11066,7 +11090,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11272,7 +11296,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11478,7 +11502,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11556,10 +11580,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -11684,7 +11708,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11765,7 +11789,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -11890,7 +11914,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11968,7 +11992,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ53">
         <v>2.13</v>
@@ -12096,7 +12120,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12174,7 +12198,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ54">
         <v>1.17</v>
@@ -12383,7 +12407,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12589,7 +12613,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12795,7 +12819,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ57">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -12998,7 +13022,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ58">
         <v>0.88</v>
@@ -13332,7 +13356,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13538,7 +13562,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13619,7 +13643,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ61">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13744,7 +13768,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13822,10 +13846,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ62">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR62">
         <v>1.39</v>
@@ -14234,7 +14258,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ64">
         <v>2.25</v>
@@ -14568,7 +14592,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14852,7 +14876,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
         <v>0.57</v>
@@ -15061,7 +15085,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15264,10 +15288,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ69">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15598,7 +15622,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15804,7 +15828,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15885,7 +15909,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR72">
         <v>1.99</v>
@@ -16010,7 +16034,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -16091,7 +16115,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ73">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR73">
         <v>1.28</v>
@@ -16294,7 +16318,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ74">
         <v>1.29</v>
@@ -16422,7 +16446,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16709,7 +16733,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ76">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR76">
         <v>2.09</v>
@@ -16834,7 +16858,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -17040,7 +17064,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17121,7 +17145,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ78">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR78">
         <v>2.12</v>
@@ -17246,7 +17270,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17530,7 +17554,7 @@
         <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ80">
         <v>0.88</v>
@@ -17864,7 +17888,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17942,7 +17966,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ82">
         <v>2.14</v>
@@ -18070,7 +18094,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18151,7 +18175,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18276,7 +18300,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18354,10 +18378,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ84">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR84">
         <v>1.35</v>
@@ -18482,7 +18506,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18560,7 +18584,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ85">
         <v>1.71</v>
@@ -18688,7 +18712,7 @@
         <v>92</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="Q86">
         <v>3.9</v>
@@ -18766,7 +18790,7 @@
         <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ86">
         <v>2.25</v>
@@ -18975,7 +18999,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>1.12</v>
@@ -19181,7 +19205,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ88">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR88">
         <v>1.13</v>
@@ -19384,7 +19408,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19512,7 +19536,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19718,7 +19742,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19799,7 +19823,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20002,7 +20026,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ92">
         <v>1.57</v>
@@ -20336,7 +20360,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -20417,7 +20441,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ94">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR94">
         <v>1.32</v>
@@ -20542,7 +20566,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20748,7 +20772,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -20954,7 +20978,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -21032,7 +21056,7 @@
         <v>1.8</v>
       </c>
       <c r="AP97">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ97">
         <v>2.25</v>
@@ -21241,7 +21265,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21778,7 +21802,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21856,7 +21880,7 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ101">
         <v>2.13</v>
@@ -21984,7 +22008,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q102">
         <v>2.73</v>
@@ -22062,10 +22086,10 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ102">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR102">
         <v>1.44</v>
@@ -22190,7 +22214,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>2.05</v>
@@ -22268,7 +22292,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ103">
         <v>0.57</v>
@@ -22396,7 +22420,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22680,7 +22704,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ105">
         <v>1.57</v>
@@ -23095,7 +23119,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR107">
         <v>1.21</v>
@@ -23220,7 +23244,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>3.3</v>
@@ -23426,7 +23450,7 @@
         <v>121</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>2.82</v>
@@ -23507,7 +23531,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ109">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -23632,7 +23656,7 @@
         <v>97</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -23713,7 +23737,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ110">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR110">
         <v>2.24</v>
@@ -23916,10 +23940,10 @@
         <v>1.75</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ111">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR111">
         <v>1.65</v>
@@ -24044,7 +24068,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24125,7 +24149,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ112">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24250,7 +24274,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24456,7 +24480,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24868,7 +24892,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24946,7 +24970,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ116">
         <v>1.86</v>
@@ -25358,7 +25382,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ118">
         <v>0.88</v>
@@ -25567,7 +25591,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ119">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR119">
         <v>1.25</v>
@@ -25692,7 +25716,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -25773,7 +25797,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ120">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR120">
         <v>1.43</v>
@@ -26182,10 +26206,10 @@
         <v>1.4</v>
       </c>
       <c r="AP122">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26310,7 +26334,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>2.98</v>
@@ -26391,7 +26415,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ123">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR123">
         <v>1.7</v>
@@ -26516,7 +26540,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q124">
         <v>3.35</v>
@@ -26594,10 +26618,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ124">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR124">
         <v>1.41</v>
@@ -26803,7 +26827,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR125">
         <v>1.55</v>
@@ -26928,7 +26952,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>2.62</v>
@@ -27006,7 +27030,7 @@
         <v>1.67</v>
       </c>
       <c r="AP126">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ126">
         <v>1.86</v>
@@ -27134,7 +27158,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q127">
         <v>1.9</v>
@@ -27215,7 +27239,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ127">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
         <v>1.87</v>
@@ -27340,7 +27364,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27418,7 +27442,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
         <v>0.57</v>
@@ -27546,7 +27570,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>2.64</v>
@@ -27624,10 +27648,10 @@
         <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ129">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR129">
         <v>1.64</v>
@@ -27752,7 +27776,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>2.65</v>
@@ -27830,7 +27854,7 @@
         <v>0.5</v>
       </c>
       <c r="AP130">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ130">
         <v>0.5</v>
@@ -28036,10 +28060,10 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ131">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28164,7 +28188,7 @@
         <v>92</v>
       </c>
       <c r="P132" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>3.79</v>
@@ -28782,7 +28806,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -28988,7 +29012,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>3.53</v>
@@ -29606,7 +29630,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30099,7 +30123,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ141">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR141">
         <v>2.28</v>
@@ -30430,7 +30454,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>2.27</v>
@@ -30587,6 +30611,1654 @@
       </c>
       <c r="BP143">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7331067</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45424.04166666666</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>76</v>
+      </c>
+      <c r="H144" t="s">
+        <v>71</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>92</v>
+      </c>
+      <c r="P144" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q144">
+        <v>4.45</v>
+      </c>
+      <c r="R144">
+        <v>2.21</v>
+      </c>
+      <c r="S144">
+        <v>2.63</v>
+      </c>
+      <c r="T144">
+        <v>1.45</v>
+      </c>
+      <c r="U144">
+        <v>2.63</v>
+      </c>
+      <c r="V144">
+        <v>3.1</v>
+      </c>
+      <c r="W144">
+        <v>1.34</v>
+      </c>
+      <c r="X144">
+        <v>7.6</v>
+      </c>
+      <c r="Y144">
+        <v>1.05</v>
+      </c>
+      <c r="Z144">
+        <v>3.65</v>
+      </c>
+      <c r="AA144">
+        <v>3.2</v>
+      </c>
+      <c r="AB144">
+        <v>1.97</v>
+      </c>
+      <c r="AC144">
+        <v>1.04</v>
+      </c>
+      <c r="AD144">
+        <v>8.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.33</v>
+      </c>
+      <c r="AF144">
+        <v>3</v>
+      </c>
+      <c r="AG144">
+        <v>2.05</v>
+      </c>
+      <c r="AH144">
+        <v>1.68</v>
+      </c>
+      <c r="AI144">
+        <v>1.85</v>
+      </c>
+      <c r="AJ144">
+        <v>1.85</v>
+      </c>
+      <c r="AK144">
+        <v>1.78</v>
+      </c>
+      <c r="AL144">
+        <v>1.3</v>
+      </c>
+      <c r="AM144">
+        <v>1.3</v>
+      </c>
+      <c r="AN144">
+        <v>0.75</v>
+      </c>
+      <c r="AO144">
+        <v>1.43</v>
+      </c>
+      <c r="AP144">
+        <v>0.78</v>
+      </c>
+      <c r="AQ144">
+        <v>1.38</v>
+      </c>
+      <c r="AR144">
+        <v>1.62</v>
+      </c>
+      <c r="AS144">
+        <v>1.64</v>
+      </c>
+      <c r="AT144">
+        <v>3.26</v>
+      </c>
+      <c r="AU144">
+        <v>3</v>
+      </c>
+      <c r="AV144">
+        <v>5</v>
+      </c>
+      <c r="AW144">
+        <v>4</v>
+      </c>
+      <c r="AX144">
+        <v>7</v>
+      </c>
+      <c r="AY144">
+        <v>7</v>
+      </c>
+      <c r="AZ144">
+        <v>12</v>
+      </c>
+      <c r="BA144">
+        <v>2</v>
+      </c>
+      <c r="BB144">
+        <v>5</v>
+      </c>
+      <c r="BC144">
+        <v>7</v>
+      </c>
+      <c r="BD144">
+        <v>2.77</v>
+      </c>
+      <c r="BE144">
+        <v>8</v>
+      </c>
+      <c r="BF144">
+        <v>1.64</v>
+      </c>
+      <c r="BG144">
+        <v>1.33</v>
+      </c>
+      <c r="BH144">
+        <v>3</v>
+      </c>
+      <c r="BI144">
+        <v>1.51</v>
+      </c>
+      <c r="BJ144">
+        <v>2.37</v>
+      </c>
+      <c r="BK144">
+        <v>2</v>
+      </c>
+      <c r="BL144">
+        <v>1.8</v>
+      </c>
+      <c r="BM144">
+        <v>2.47</v>
+      </c>
+      <c r="BN144">
+        <v>1.48</v>
+      </c>
+      <c r="BO144">
+        <v>3.2</v>
+      </c>
+      <c r="BP144">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7331066</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45424.04166666666</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>83</v>
+      </c>
+      <c r="H145" t="s">
+        <v>84</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>182</v>
+      </c>
+      <c r="P145" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q145">
+        <v>2.72</v>
+      </c>
+      <c r="R145">
+        <v>2.16</v>
+      </c>
+      <c r="S145">
+        <v>4.41</v>
+      </c>
+      <c r="T145">
+        <v>1.44</v>
+      </c>
+      <c r="U145">
+        <v>2.8</v>
+      </c>
+      <c r="V145">
+        <v>3.2</v>
+      </c>
+      <c r="W145">
+        <v>1.35</v>
+      </c>
+      <c r="X145">
+        <v>7.7</v>
+      </c>
+      <c r="Y145">
+        <v>1.05</v>
+      </c>
+      <c r="Z145">
+        <v>1.97</v>
+      </c>
+      <c r="AA145">
+        <v>3.2</v>
+      </c>
+      <c r="AB145">
+        <v>3.65</v>
+      </c>
+      <c r="AC145">
+        <v>1.03</v>
+      </c>
+      <c r="AD145">
+        <v>8</v>
+      </c>
+      <c r="AE145">
+        <v>1.33</v>
+      </c>
+      <c r="AF145">
+        <v>2.91</v>
+      </c>
+      <c r="AG145">
+        <v>2.06</v>
+      </c>
+      <c r="AH145">
+        <v>1.67</v>
+      </c>
+      <c r="AI145">
+        <v>1.85</v>
+      </c>
+      <c r="AJ145">
+        <v>1.81</v>
+      </c>
+      <c r="AK145">
+        <v>1.25</v>
+      </c>
+      <c r="AL145">
+        <v>1.28</v>
+      </c>
+      <c r="AM145">
+        <v>1.73</v>
+      </c>
+      <c r="AN145">
+        <v>1.83</v>
+      </c>
+      <c r="AO145">
+        <v>1.57</v>
+      </c>
+      <c r="AP145">
+        <v>1.57</v>
+      </c>
+      <c r="AQ145">
+        <v>1.75</v>
+      </c>
+      <c r="AR145">
+        <v>1.66</v>
+      </c>
+      <c r="AS145">
+        <v>1.44</v>
+      </c>
+      <c r="AT145">
+        <v>3.1</v>
+      </c>
+      <c r="AU145">
+        <v>5</v>
+      </c>
+      <c r="AV145">
+        <v>5</v>
+      </c>
+      <c r="AW145">
+        <v>6</v>
+      </c>
+      <c r="AX145">
+        <v>9</v>
+      </c>
+      <c r="AY145">
+        <v>11</v>
+      </c>
+      <c r="AZ145">
+        <v>14</v>
+      </c>
+      <c r="BA145">
+        <v>3</v>
+      </c>
+      <c r="BB145">
+        <v>2</v>
+      </c>
+      <c r="BC145">
+        <v>5</v>
+      </c>
+      <c r="BD145">
+        <v>1.64</v>
+      </c>
+      <c r="BE145">
+        <v>8</v>
+      </c>
+      <c r="BF145">
+        <v>2.77</v>
+      </c>
+      <c r="BG145">
+        <v>1.25</v>
+      </c>
+      <c r="BH145">
+        <v>3.6</v>
+      </c>
+      <c r="BI145">
+        <v>1.45</v>
+      </c>
+      <c r="BJ145">
+        <v>2.55</v>
+      </c>
+      <c r="BK145">
+        <v>1.8</v>
+      </c>
+      <c r="BL145">
+        <v>2</v>
+      </c>
+      <c r="BM145">
+        <v>2.32</v>
+      </c>
+      <c r="BN145">
+        <v>1.54</v>
+      </c>
+      <c r="BO145">
+        <v>3.1</v>
+      </c>
+      <c r="BP145">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7331068</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45424.08333333334</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>88</v>
+      </c>
+      <c r="H146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>92</v>
+      </c>
+      <c r="P146" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q146">
+        <v>2.86</v>
+      </c>
+      <c r="R146">
+        <v>2.02</v>
+      </c>
+      <c r="S146">
+        <v>3.66</v>
+      </c>
+      <c r="T146">
+        <v>1.44</v>
+      </c>
+      <c r="U146">
+        <v>2.66</v>
+      </c>
+      <c r="V146">
+        <v>3.04</v>
+      </c>
+      <c r="W146">
+        <v>1.35</v>
+      </c>
+      <c r="X146">
+        <v>7.6</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.15</v>
+      </c>
+      <c r="AA146">
+        <v>3.3</v>
+      </c>
+      <c r="AB146">
+        <v>3.2</v>
+      </c>
+      <c r="AC146">
+        <v>1.03</v>
+      </c>
+      <c r="AD146">
+        <v>8</v>
+      </c>
+      <c r="AE146">
+        <v>1.33</v>
+      </c>
+      <c r="AF146">
+        <v>2.93</v>
+      </c>
+      <c r="AG146">
+        <v>2.05</v>
+      </c>
+      <c r="AH146">
+        <v>1.65</v>
+      </c>
+      <c r="AI146">
+        <v>1.81</v>
+      </c>
+      <c r="AJ146">
+        <v>1.85</v>
+      </c>
+      <c r="AK146">
+        <v>1.33</v>
+      </c>
+      <c r="AL146">
+        <v>1.29</v>
+      </c>
+      <c r="AM146">
+        <v>1.56</v>
+      </c>
+      <c r="AN146">
+        <v>1.67</v>
+      </c>
+      <c r="AO146">
+        <v>0.83</v>
+      </c>
+      <c r="AP146">
+        <v>1.43</v>
+      </c>
+      <c r="AQ146">
+        <v>1.14</v>
+      </c>
+      <c r="AR146">
+        <v>1.44</v>
+      </c>
+      <c r="AS146">
+        <v>1.23</v>
+      </c>
+      <c r="AT146">
+        <v>2.67</v>
+      </c>
+      <c r="AU146">
+        <v>5</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>9</v>
+      </c>
+      <c r="AX146">
+        <v>10</v>
+      </c>
+      <c r="AY146">
+        <v>14</v>
+      </c>
+      <c r="AZ146">
+        <v>14</v>
+      </c>
+      <c r="BA146">
+        <v>5</v>
+      </c>
+      <c r="BB146">
+        <v>5</v>
+      </c>
+      <c r="BC146">
+        <v>10</v>
+      </c>
+      <c r="BD146">
+        <v>1.85</v>
+      </c>
+      <c r="BE146">
+        <v>8</v>
+      </c>
+      <c r="BF146">
+        <v>2.28</v>
+      </c>
+      <c r="BG146">
+        <v>1.29</v>
+      </c>
+      <c r="BH146">
+        <v>3.3</v>
+      </c>
+      <c r="BI146">
+        <v>1.48</v>
+      </c>
+      <c r="BJ146">
+        <v>2.47</v>
+      </c>
+      <c r="BK146">
+        <v>2</v>
+      </c>
+      <c r="BL146">
+        <v>1.8</v>
+      </c>
+      <c r="BM146">
+        <v>2.47</v>
+      </c>
+      <c r="BN146">
+        <v>1.48</v>
+      </c>
+      <c r="BO146">
+        <v>3.1</v>
+      </c>
+      <c r="BP146">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7331069</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45424.08333333334</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147" t="s">
+        <v>89</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>183</v>
+      </c>
+      <c r="P147" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q147">
+        <v>3.98</v>
+      </c>
+      <c r="R147">
+        <v>1.99</v>
+      </c>
+      <c r="S147">
+        <v>2.75</v>
+      </c>
+      <c r="T147">
+        <v>1.46</v>
+      </c>
+      <c r="U147">
+        <v>2.6</v>
+      </c>
+      <c r="V147">
+        <v>3.14</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>8</v>
+      </c>
+      <c r="Y147">
+        <v>1.05</v>
+      </c>
+      <c r="Z147">
+        <v>3.4</v>
+      </c>
+      <c r="AA147">
+        <v>3.1</v>
+      </c>
+      <c r="AB147">
+        <v>2.1</v>
+      </c>
+      <c r="AC147">
+        <v>1.04</v>
+      </c>
+      <c r="AD147">
+        <v>7.6</v>
+      </c>
+      <c r="AE147">
+        <v>1.36</v>
+      </c>
+      <c r="AF147">
+        <v>2.79</v>
+      </c>
+      <c r="AG147">
+        <v>2.1</v>
+      </c>
+      <c r="AH147">
+        <v>1.6</v>
+      </c>
+      <c r="AI147">
+        <v>1.87</v>
+      </c>
+      <c r="AJ147">
+        <v>1.89</v>
+      </c>
+      <c r="AK147">
+        <v>1.62</v>
+      </c>
+      <c r="AL147">
+        <v>1.3</v>
+      </c>
+      <c r="AM147">
+        <v>1.29</v>
+      </c>
+      <c r="AN147">
+        <v>1.14</v>
+      </c>
+      <c r="AO147">
+        <v>1.43</v>
+      </c>
+      <c r="AP147">
+        <v>1.38</v>
+      </c>
+      <c r="AQ147">
+        <v>1.25</v>
+      </c>
+      <c r="AR147">
+        <v>1.43</v>
+      </c>
+      <c r="AS147">
+        <v>1.47</v>
+      </c>
+      <c r="AT147">
+        <v>2.9</v>
+      </c>
+      <c r="AU147">
+        <v>3</v>
+      </c>
+      <c r="AV147">
+        <v>4</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>14</v>
+      </c>
+      <c r="AY147">
+        <v>7</v>
+      </c>
+      <c r="AZ147">
+        <v>18</v>
+      </c>
+      <c r="BA147">
+        <v>2</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
+        <v>6</v>
+      </c>
+      <c r="BD147">
+        <v>2.33</v>
+      </c>
+      <c r="BE147">
+        <v>8</v>
+      </c>
+      <c r="BF147">
+        <v>1.82</v>
+      </c>
+      <c r="BG147">
+        <v>1.25</v>
+      </c>
+      <c r="BH147">
+        <v>3.6</v>
+      </c>
+      <c r="BI147">
+        <v>1.46</v>
+      </c>
+      <c r="BJ147">
+        <v>2.52</v>
+      </c>
+      <c r="BK147">
+        <v>1.9</v>
+      </c>
+      <c r="BL147">
+        <v>1.9</v>
+      </c>
+      <c r="BM147">
+        <v>2.37</v>
+      </c>
+      <c r="BN147">
+        <v>1.51</v>
+      </c>
+      <c r="BO147">
+        <v>3.2</v>
+      </c>
+      <c r="BP147">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7331070</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45424.08333333334</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>78</v>
+      </c>
+      <c r="H148" t="s">
+        <v>85</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>184</v>
+      </c>
+      <c r="P148" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q148">
+        <v>2.5</v>
+      </c>
+      <c r="R148">
+        <v>1.95</v>
+      </c>
+      <c r="S148">
+        <v>4.9</v>
+      </c>
+      <c r="T148">
+        <v>1.5</v>
+      </c>
+      <c r="U148">
+        <v>2.48</v>
+      </c>
+      <c r="V148">
+        <v>3.26</v>
+      </c>
+      <c r="W148">
+        <v>1.31</v>
+      </c>
+      <c r="X148">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y148">
+        <v>1.04</v>
+      </c>
+      <c r="Z148">
+        <v>1.87</v>
+      </c>
+      <c r="AA148">
+        <v>3.2</v>
+      </c>
+      <c r="AB148">
+        <v>4.2</v>
+      </c>
+      <c r="AC148">
+        <v>1.05</v>
+      </c>
+      <c r="AD148">
+        <v>7</v>
+      </c>
+      <c r="AE148">
+        <v>1.39</v>
+      </c>
+      <c r="AF148">
+        <v>2.67</v>
+      </c>
+      <c r="AG148">
+        <v>2.2</v>
+      </c>
+      <c r="AH148">
+        <v>1.53</v>
+      </c>
+      <c r="AI148">
+        <v>1.98</v>
+      </c>
+      <c r="AJ148">
+        <v>1.7</v>
+      </c>
+      <c r="AK148">
+        <v>1.18</v>
+      </c>
+      <c r="AL148">
+        <v>1.3</v>
+      </c>
+      <c r="AM148">
+        <v>1.82</v>
+      </c>
+      <c r="AN148">
+        <v>0.57</v>
+      </c>
+      <c r="AO148">
+        <v>0.57</v>
+      </c>
+      <c r="AP148">
+        <v>0.88</v>
+      </c>
+      <c r="AQ148">
+        <v>0.5</v>
+      </c>
+      <c r="AR148">
+        <v>1.56</v>
+      </c>
+      <c r="AS148">
+        <v>1.23</v>
+      </c>
+      <c r="AT148">
+        <v>2.79</v>
+      </c>
+      <c r="AU148">
+        <v>4</v>
+      </c>
+      <c r="AV148">
+        <v>0</v>
+      </c>
+      <c r="AW148">
+        <v>7</v>
+      </c>
+      <c r="AX148">
+        <v>6</v>
+      </c>
+      <c r="AY148">
+        <v>11</v>
+      </c>
+      <c r="AZ148">
+        <v>6</v>
+      </c>
+      <c r="BA148">
+        <v>6</v>
+      </c>
+      <c r="BB148">
+        <v>1</v>
+      </c>
+      <c r="BC148">
+        <v>7</v>
+      </c>
+      <c r="BD148">
+        <v>1.55</v>
+      </c>
+      <c r="BE148">
+        <v>8.5</v>
+      </c>
+      <c r="BF148">
+        <v>3.01</v>
+      </c>
+      <c r="BG148">
+        <v>1.3</v>
+      </c>
+      <c r="BH148">
+        <v>3.2</v>
+      </c>
+      <c r="BI148">
+        <v>1.48</v>
+      </c>
+      <c r="BJ148">
+        <v>2.47</v>
+      </c>
+      <c r="BK148">
+        <v>1.85</v>
+      </c>
+      <c r="BL148">
+        <v>1.95</v>
+      </c>
+      <c r="BM148">
+        <v>2.37</v>
+      </c>
+      <c r="BN148">
+        <v>1.51</v>
+      </c>
+      <c r="BO148">
+        <v>3.2</v>
+      </c>
+      <c r="BP148">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7331071</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45424.08333333334</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>80</v>
+      </c>
+      <c r="H149" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>92</v>
+      </c>
+      <c r="P149" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q149">
+        <v>2.94</v>
+      </c>
+      <c r="R149">
+        <v>1.97</v>
+      </c>
+      <c r="S149">
+        <v>3.72</v>
+      </c>
+      <c r="T149">
+        <v>1.46</v>
+      </c>
+      <c r="U149">
+        <v>2.6</v>
+      </c>
+      <c r="V149">
+        <v>2.99</v>
+      </c>
+      <c r="W149">
+        <v>1.36</v>
+      </c>
+      <c r="X149">
+        <v>7.4</v>
+      </c>
+      <c r="Y149">
+        <v>1.06</v>
+      </c>
+      <c r="Z149">
+        <v>2.3</v>
+      </c>
+      <c r="AA149">
+        <v>3.1</v>
+      </c>
+      <c r="AB149">
+        <v>3</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>7.8</v>
+      </c>
+      <c r="AE149">
+        <v>1.31</v>
+      </c>
+      <c r="AF149">
+        <v>3.04</v>
+      </c>
+      <c r="AG149">
+        <v>2</v>
+      </c>
+      <c r="AH149">
+        <v>1.67</v>
+      </c>
+      <c r="AI149">
+        <v>1.77</v>
+      </c>
+      <c r="AJ149">
+        <v>1.89</v>
+      </c>
+      <c r="AK149">
+        <v>1.33</v>
+      </c>
+      <c r="AL149">
+        <v>1.32</v>
+      </c>
+      <c r="AM149">
+        <v>1.53</v>
+      </c>
+      <c r="AN149">
+        <v>2</v>
+      </c>
+      <c r="AO149">
+        <v>1.57</v>
+      </c>
+      <c r="AP149">
+        <v>1.88</v>
+      </c>
+      <c r="AQ149">
+        <v>1.5</v>
+      </c>
+      <c r="AR149">
+        <v>1.67</v>
+      </c>
+      <c r="AS149">
+        <v>1.44</v>
+      </c>
+      <c r="AT149">
+        <v>3.11</v>
+      </c>
+      <c r="AU149">
+        <v>8</v>
+      </c>
+      <c r="AV149">
+        <v>3</v>
+      </c>
+      <c r="AW149">
+        <v>15</v>
+      </c>
+      <c r="AX149">
+        <v>11</v>
+      </c>
+      <c r="AY149">
+        <v>23</v>
+      </c>
+      <c r="AZ149">
+        <v>14</v>
+      </c>
+      <c r="BA149">
+        <v>11</v>
+      </c>
+      <c r="BB149">
+        <v>3</v>
+      </c>
+      <c r="BC149">
+        <v>14</v>
+      </c>
+      <c r="BD149">
+        <v>2.2</v>
+      </c>
+      <c r="BE149">
+        <v>8</v>
+      </c>
+      <c r="BF149">
+        <v>1.91</v>
+      </c>
+      <c r="BG149">
+        <v>1.29</v>
+      </c>
+      <c r="BH149">
+        <v>3.4</v>
+      </c>
+      <c r="BI149">
+        <v>1.48</v>
+      </c>
+      <c r="BJ149">
+        <v>2.47</v>
+      </c>
+      <c r="BK149">
+        <v>1.98</v>
+      </c>
+      <c r="BL149">
+        <v>1.82</v>
+      </c>
+      <c r="BM149">
+        <v>2.47</v>
+      </c>
+      <c r="BN149">
+        <v>1.48</v>
+      </c>
+      <c r="BO149">
+        <v>3</v>
+      </c>
+      <c r="BP149">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7331072</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45424.08333333334</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>79</v>
+      </c>
+      <c r="H150" t="s">
+        <v>73</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>185</v>
+      </c>
+      <c r="P150" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q150">
+        <v>2.69</v>
+      </c>
+      <c r="R150">
+        <v>2.22</v>
+      </c>
+      <c r="S150">
+        <v>4.27</v>
+      </c>
+      <c r="T150">
+        <v>1.4</v>
+      </c>
+      <c r="U150">
+        <v>2.96</v>
+      </c>
+      <c r="V150">
+        <v>2.97</v>
+      </c>
+      <c r="W150">
+        <v>1.4</v>
+      </c>
+      <c r="X150">
+        <v>6.5</v>
+      </c>
+      <c r="Y150">
+        <v>1.08</v>
+      </c>
+      <c r="Z150">
+        <v>1.95</v>
+      </c>
+      <c r="AA150">
+        <v>3.5</v>
+      </c>
+      <c r="AB150">
+        <v>3.4</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE150">
+        <v>1.26</v>
+      </c>
+      <c r="AF150">
+        <v>3.34</v>
+      </c>
+      <c r="AG150">
+        <v>1.94</v>
+      </c>
+      <c r="AH150">
+        <v>1.95</v>
+      </c>
+      <c r="AI150">
+        <v>1.71</v>
+      </c>
+      <c r="AJ150">
+        <v>1.97</v>
+      </c>
+      <c r="AK150">
+        <v>1.27</v>
+      </c>
+      <c r="AL150">
+        <v>1.26</v>
+      </c>
+      <c r="AM150">
+        <v>1.72</v>
+      </c>
+      <c r="AN150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
+        <v>1.33</v>
+      </c>
+      <c r="AP150">
+        <v>1</v>
+      </c>
+      <c r="AQ150">
+        <v>1.29</v>
+      </c>
+      <c r="AR150">
+        <v>1.4</v>
+      </c>
+      <c r="AS150">
+        <v>1.54</v>
+      </c>
+      <c r="AT150">
+        <v>2.94</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>5</v>
+      </c>
+      <c r="AW150">
+        <v>10</v>
+      </c>
+      <c r="AX150">
+        <v>6</v>
+      </c>
+      <c r="AY150">
+        <v>14</v>
+      </c>
+      <c r="AZ150">
+        <v>11</v>
+      </c>
+      <c r="BA150">
+        <v>7</v>
+      </c>
+      <c r="BB150">
+        <v>3</v>
+      </c>
+      <c r="BC150">
+        <v>10</v>
+      </c>
+      <c r="BD150">
+        <v>1.41</v>
+      </c>
+      <c r="BE150">
+        <v>9</v>
+      </c>
+      <c r="BF150">
+        <v>3.49</v>
+      </c>
+      <c r="BG150">
+        <v>1.22</v>
+      </c>
+      <c r="BH150">
+        <v>3.8</v>
+      </c>
+      <c r="BI150">
+        <v>1.4</v>
+      </c>
+      <c r="BJ150">
+        <v>2.75</v>
+      </c>
+      <c r="BK150">
+        <v>1.73</v>
+      </c>
+      <c r="BL150">
+        <v>1.99</v>
+      </c>
+      <c r="BM150">
+        <v>2.2</v>
+      </c>
+      <c r="BN150">
+        <v>1.6</v>
+      </c>
+      <c r="BO150">
+        <v>2.9</v>
+      </c>
+      <c r="BP150">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7331073</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45424.16666666666</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>86</v>
+      </c>
+      <c r="H151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>186</v>
+      </c>
+      <c r="P151" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q151">
+        <v>3.55</v>
+      </c>
+      <c r="R151">
+        <v>2.3</v>
+      </c>
+      <c r="S151">
+        <v>2.95</v>
+      </c>
+      <c r="T151">
+        <v>1.35</v>
+      </c>
+      <c r="U151">
+        <v>3.2</v>
+      </c>
+      <c r="V151">
+        <v>2.74</v>
+      </c>
+      <c r="W151">
+        <v>1.45</v>
+      </c>
+      <c r="X151">
+        <v>6</v>
+      </c>
+      <c r="Y151">
+        <v>1.09</v>
+      </c>
+      <c r="Z151">
+        <v>2.9</v>
+      </c>
+      <c r="AA151">
+        <v>3.3</v>
+      </c>
+      <c r="AB151">
+        <v>2.2</v>
+      </c>
+      <c r="AC151">
+        <v>1.02</v>
+      </c>
+      <c r="AD151">
+        <v>10</v>
+      </c>
+      <c r="AE151">
+        <v>1.25</v>
+      </c>
+      <c r="AF151">
+        <v>3.6</v>
+      </c>
+      <c r="AG151">
+        <v>1.8</v>
+      </c>
+      <c r="AH151">
+        <v>1.85</v>
+      </c>
+      <c r="AI151">
+        <v>1.65</v>
+      </c>
+      <c r="AJ151">
+        <v>2.1</v>
+      </c>
+      <c r="AK151">
+        <v>1.57</v>
+      </c>
+      <c r="AL151">
+        <v>1.33</v>
+      </c>
+      <c r="AM151">
+        <v>1.4</v>
+      </c>
+      <c r="AN151">
+        <v>0.67</v>
+      </c>
+      <c r="AO151">
+        <v>1.43</v>
+      </c>
+      <c r="AP151">
+        <v>0.71</v>
+      </c>
+      <c r="AQ151">
+        <v>1.38</v>
+      </c>
+      <c r="AR151">
+        <v>1.46</v>
+      </c>
+      <c r="AS151">
+        <v>1.55</v>
+      </c>
+      <c r="AT151">
+        <v>3.01</v>
+      </c>
+      <c r="AU151">
+        <v>3</v>
+      </c>
+      <c r="AV151">
+        <v>8</v>
+      </c>
+      <c r="AW151">
+        <v>9</v>
+      </c>
+      <c r="AX151">
+        <v>7</v>
+      </c>
+      <c r="AY151">
+        <v>12</v>
+      </c>
+      <c r="AZ151">
+        <v>15</v>
+      </c>
+      <c r="BA151">
+        <v>3</v>
+      </c>
+      <c r="BB151">
+        <v>8</v>
+      </c>
+      <c r="BC151">
+        <v>11</v>
+      </c>
+      <c r="BD151">
+        <v>2</v>
+      </c>
+      <c r="BE151">
+        <v>8</v>
+      </c>
+      <c r="BF151">
+        <v>2.05</v>
+      </c>
+      <c r="BG151">
+        <v>1.29</v>
+      </c>
+      <c r="BH151">
+        <v>3.4</v>
+      </c>
+      <c r="BI151">
+        <v>1.53</v>
+      </c>
+      <c r="BJ151">
+        <v>2.33</v>
+      </c>
+      <c r="BK151">
+        <v>1.98</v>
+      </c>
+      <c r="BL151">
+        <v>1.82</v>
+      </c>
+      <c r="BM151">
+        <v>2.5</v>
+      </c>
+      <c r="BN151">
+        <v>1.47</v>
+      </c>
+      <c r="BO151">
+        <v>3.1</v>
+      </c>
+      <c r="BP151">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,12 @@
     <t>['35', '90+4']</t>
   </si>
   <si>
+    <t>['17', '90+6']</t>
+  </si>
+  <si>
+    <t>['1', '15', '23', '42', '45+1', '72', '80']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -788,6 +794,21 @@
   </si>
   <si>
     <t>['58', '66']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['26', '74']</t>
+  </si>
+  <si>
+    <t>['16', '30']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['10', '58', '85']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1486,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1614,7 +1635,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1692,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -1901,7 +1922,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2107,7 +2128,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2232,7 +2253,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2310,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2644,7 +2665,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2725,7 +2746,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ8">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2928,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -3056,7 +3077,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3134,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ10">
         <v>2.13</v>
@@ -3468,7 +3489,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3674,7 +3695,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3752,7 +3773,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ13">
         <v>2.13</v>
@@ -3958,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ14">
         <v>1.29</v>
@@ -4167,7 +4188,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ15">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4576,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
         <v>1.57</v>
@@ -4991,7 +5012,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ19">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5116,7 +5137,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5322,7 +5343,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5528,7 +5549,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5606,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5734,7 +5755,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6018,7 +6039,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ24">
         <v>0.88</v>
@@ -6146,7 +6167,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6558,7 +6579,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6639,7 +6660,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -6970,7 +6991,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7051,7 +7072,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7176,7 +7197,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7257,7 +7278,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7382,7 +7403,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7460,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -7588,7 +7609,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7875,7 +7896,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ33">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -8078,10 +8099,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ34">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -8206,7 +8227,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8284,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ35">
         <v>1.57</v>
@@ -8412,7 +8433,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8490,7 +8511,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>2.13</v>
@@ -9030,7 +9051,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9108,7 +9129,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39">
         <v>1.38</v>
@@ -9236,7 +9257,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9317,7 +9338,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>1.85</v>
@@ -9442,7 +9463,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9523,7 +9544,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ41">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -9729,7 +9750,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR42">
         <v>1.39</v>
@@ -10138,7 +10159,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ44">
         <v>0.57</v>
@@ -10472,7 +10493,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10550,7 +10571,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -10965,7 +10986,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR48">
         <v>1.94</v>
@@ -11090,7 +11111,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11168,10 +11189,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>2.09</v>
@@ -11296,7 +11317,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11377,7 +11398,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11502,7 +11523,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11580,7 +11601,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11708,7 +11729,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11786,7 +11807,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ52">
         <v>1.38</v>
@@ -11914,7 +11935,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12120,7 +12141,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12201,7 +12222,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ54">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12407,7 +12428,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12613,7 +12634,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ56">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12816,7 +12837,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -13356,7 +13377,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13437,7 +13458,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13562,7 +13583,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13640,7 +13661,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13768,7 +13789,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14055,7 +14076,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR63">
         <v>1.2</v>
@@ -14258,10 +14279,10 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>1.29</v>
@@ -14464,7 +14485,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14592,7 +14613,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14670,7 +14691,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66">
         <v>1.71</v>
@@ -14876,7 +14897,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ67">
         <v>0.57</v>
@@ -15622,7 +15643,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15703,7 +15724,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ71">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR71">
         <v>1.06</v>
@@ -15828,7 +15849,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -15909,7 +15930,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.99</v>
@@ -16034,7 +16055,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -16446,7 +16467,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16524,10 +16545,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ75">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR75">
         <v>1.05</v>
@@ -16730,7 +16751,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ76">
         <v>0.5</v>
@@ -16858,7 +16879,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -17064,7 +17085,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17270,7 +17291,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17351,7 +17372,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ79">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR79">
         <v>1.68</v>
@@ -17760,7 +17781,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ81">
         <v>2.13</v>
@@ -17888,7 +17909,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17969,7 +17990,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ82">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -18094,7 +18115,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18175,7 +18196,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR83">
         <v>1.34</v>
@@ -18300,7 +18321,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18378,7 +18399,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -18506,7 +18527,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18793,7 +18814,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ86">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR86">
         <v>1.43</v>
@@ -19202,7 +19223,7 @@
         <v>0.33</v>
       </c>
       <c r="AP88">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ88">
         <v>1.14</v>
@@ -19408,7 +19429,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19536,7 +19557,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19614,10 +19635,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ90">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR90">
         <v>1.52</v>
@@ -19742,7 +19763,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20360,7 +20381,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -20438,7 +20459,7 @@
         <v>0.75</v>
       </c>
       <c r="AP94">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94">
         <v>0.5</v>
@@ -20566,7 +20587,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20644,10 +20665,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ95">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR95">
         <v>2.25</v>
@@ -20772,7 +20793,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -20978,7 +20999,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -21059,7 +21080,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ97">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR97">
         <v>1.54</v>
@@ -21468,7 +21489,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ99">
         <v>1.29</v>
@@ -21802,7 +21823,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22008,7 +22029,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q102">
         <v>2.73</v>
@@ -22086,10 +22107,10 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ102">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR102">
         <v>1.44</v>
@@ -22214,7 +22235,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>2.05</v>
@@ -22420,7 +22441,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22913,7 +22934,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ106">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR106">
         <v>1.81</v>
@@ -23116,7 +23137,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107">
         <v>0.5</v>
@@ -23244,7 +23265,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>3.3</v>
@@ -23325,7 +23346,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR108">
         <v>1.56</v>
@@ -23450,7 +23471,7 @@
         <v>121</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>2.82</v>
@@ -23656,7 +23677,7 @@
         <v>97</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -23734,10 +23755,10 @@
         <v>1.2</v>
       </c>
       <c r="AP110">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ110">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR110">
         <v>2.24</v>
@@ -24068,7 +24089,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24274,7 +24295,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24352,7 +24373,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ113">
         <v>1.29</v>
@@ -24480,7 +24501,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24558,10 +24579,10 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ114">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -24892,7 +24913,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24973,7 +24994,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ116">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR116">
         <v>1.7</v>
@@ -25179,7 +25200,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25382,7 +25403,7 @@
         <v>1.17</v>
       </c>
       <c r="AP118">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ118">
         <v>0.88</v>
@@ -25588,7 +25609,7 @@
         <v>1.6</v>
       </c>
       <c r="AP119">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ119">
         <v>1.75</v>
@@ -25716,7 +25737,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26003,7 +26024,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR121">
         <v>1.06</v>
@@ -26206,10 +26227,10 @@
         <v>1.4</v>
       </c>
       <c r="AP122">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ122">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26334,7 +26355,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>2.98</v>
@@ -26540,7 +26561,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q124">
         <v>3.35</v>
@@ -26618,7 +26639,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ124">
         <v>1.5</v>
@@ -26824,7 +26845,7 @@
         <v>1</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ125">
         <v>1.14</v>
@@ -26952,7 +26973,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>2.62</v>
@@ -27033,7 +27054,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ126">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR126">
         <v>1.44</v>
@@ -27158,7 +27179,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q127">
         <v>1.9</v>
@@ -27364,7 +27385,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27570,7 +27591,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>2.64</v>
@@ -27651,7 +27672,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ129">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR129">
         <v>1.64</v>
@@ -27776,7 +27797,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>2.65</v>
@@ -28188,7 +28209,7 @@
         <v>92</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>3.79</v>
@@ -28266,7 +28287,7 @@
         <v>1.5</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ132">
         <v>1.71</v>
@@ -28475,7 +28496,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28806,7 +28827,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -29012,7 +29033,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>3.53</v>
@@ -29502,10 +29523,10 @@
         <v>1.4</v>
       </c>
       <c r="AP138">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ138">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR138">
         <v>1.43</v>
@@ -29630,7 +29651,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -29708,10 +29729,10 @@
         <v>2.14</v>
       </c>
       <c r="AP139">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ139">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR139">
         <v>1.17</v>
@@ -29917,7 +29938,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR140">
         <v>1.31</v>
@@ -30120,7 +30141,7 @@
         <v>1.67</v>
       </c>
       <c r="AP141">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ141">
         <v>1.38</v>
@@ -30454,7 +30475,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q143">
         <v>2.27</v>
@@ -30866,7 +30887,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q145">
         <v>2.72</v>
@@ -31072,7 +31093,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31150,7 +31171,7 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ146">
         <v>1.14</v>
@@ -31359,7 +31380,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31562,7 +31583,7 @@
         <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ148">
         <v>0.5</v>
@@ -31896,7 +31917,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -31977,7 +31998,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -32102,7 +32123,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32259,6 +32280,1448 @@
       </c>
       <c r="BP151">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7331078</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45430.08333333334</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>71</v>
+      </c>
+      <c r="H152" t="s">
+        <v>81</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>187</v>
+      </c>
+      <c r="P152" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q152">
+        <v>3.6</v>
+      </c>
+      <c r="R152">
+        <v>2.14</v>
+      </c>
+      <c r="S152">
+        <v>3.22</v>
+      </c>
+      <c r="T152">
+        <v>1.44</v>
+      </c>
+      <c r="U152">
+        <v>2.78</v>
+      </c>
+      <c r="V152">
+        <v>3.22</v>
+      </c>
+      <c r="W152">
+        <v>1.35</v>
+      </c>
+      <c r="X152">
+        <v>7.2</v>
+      </c>
+      <c r="Y152">
+        <v>1.05</v>
+      </c>
+      <c r="Z152">
+        <v>2.58</v>
+      </c>
+      <c r="AA152">
+        <v>3.25</v>
+      </c>
+      <c r="AB152">
+        <v>2.28</v>
+      </c>
+      <c r="AC152">
+        <v>1.03</v>
+      </c>
+      <c r="AD152">
+        <v>7.9</v>
+      </c>
+      <c r="AE152">
+        <v>1.34</v>
+      </c>
+      <c r="AF152">
+        <v>2.88</v>
+      </c>
+      <c r="AG152">
+        <v>1.91</v>
+      </c>
+      <c r="AH152">
+        <v>1.79</v>
+      </c>
+      <c r="AI152">
+        <v>1.83</v>
+      </c>
+      <c r="AJ152">
+        <v>1.83</v>
+      </c>
+      <c r="AK152">
+        <v>1.51</v>
+      </c>
+      <c r="AL152">
+        <v>1.3</v>
+      </c>
+      <c r="AM152">
+        <v>1.37</v>
+      </c>
+      <c r="AN152">
+        <v>2</v>
+      </c>
+      <c r="AO152">
+        <v>2.25</v>
+      </c>
+      <c r="AP152">
+        <v>2.13</v>
+      </c>
+      <c r="AQ152">
+        <v>2</v>
+      </c>
+      <c r="AR152">
+        <v>1.55</v>
+      </c>
+      <c r="AS152">
+        <v>1.53</v>
+      </c>
+      <c r="AT152">
+        <v>3.08</v>
+      </c>
+      <c r="AU152">
+        <v>7</v>
+      </c>
+      <c r="AV152">
+        <v>4</v>
+      </c>
+      <c r="AW152">
+        <v>6</v>
+      </c>
+      <c r="AX152">
+        <v>2</v>
+      </c>
+      <c r="AY152">
+        <v>13</v>
+      </c>
+      <c r="AZ152">
+        <v>6</v>
+      </c>
+      <c r="BA152">
+        <v>9</v>
+      </c>
+      <c r="BB152">
+        <v>8</v>
+      </c>
+      <c r="BC152">
+        <v>17</v>
+      </c>
+      <c r="BD152">
+        <v>1.59</v>
+      </c>
+      <c r="BE152">
+        <v>8</v>
+      </c>
+      <c r="BF152">
+        <v>2.9</v>
+      </c>
+      <c r="BG152">
+        <v>1.25</v>
+      </c>
+      <c r="BH152">
+        <v>3.6</v>
+      </c>
+      <c r="BI152">
+        <v>1.48</v>
+      </c>
+      <c r="BJ152">
+        <v>2.47</v>
+      </c>
+      <c r="BK152">
+        <v>1.95</v>
+      </c>
+      <c r="BL152">
+        <v>1.85</v>
+      </c>
+      <c r="BM152">
+        <v>2.37</v>
+      </c>
+      <c r="BN152">
+        <v>1.51</v>
+      </c>
+      <c r="BO152">
+        <v>3.2</v>
+      </c>
+      <c r="BP152">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7331077</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45430.08333333334</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>74</v>
+      </c>
+      <c r="H153" t="s">
+        <v>73</v>
+      </c>
+      <c r="I153">
+        <v>5</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>5</v>
+      </c>
+      <c r="L153">
+        <v>7</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>8</v>
+      </c>
+      <c r="O153" t="s">
+        <v>188</v>
+      </c>
+      <c r="P153" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q153">
+        <v>2.08</v>
+      </c>
+      <c r="R153">
+        <v>2.48</v>
+      </c>
+      <c r="S153">
+        <v>5.7</v>
+      </c>
+      <c r="T153">
+        <v>1.33</v>
+      </c>
+      <c r="U153">
+        <v>3.33</v>
+      </c>
+      <c r="V153">
+        <v>2.59</v>
+      </c>
+      <c r="W153">
+        <v>1.5</v>
+      </c>
+      <c r="X153">
+        <v>5.9</v>
+      </c>
+      <c r="Y153">
+        <v>1.1</v>
+      </c>
+      <c r="Z153">
+        <v>1.45</v>
+      </c>
+      <c r="AA153">
+        <v>4.05</v>
+      </c>
+      <c r="AB153">
+        <v>5</v>
+      </c>
+      <c r="AC153">
+        <v>1.02</v>
+      </c>
+      <c r="AD153">
+        <v>10.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.19</v>
+      </c>
+      <c r="AF153">
+        <v>3.9</v>
+      </c>
+      <c r="AG153">
+        <v>1.62</v>
+      </c>
+      <c r="AH153">
+        <v>2.15</v>
+      </c>
+      <c r="AI153">
+        <v>1.73</v>
+      </c>
+      <c r="AJ153">
+        <v>1.95</v>
+      </c>
+      <c r="AK153">
+        <v>1.12</v>
+      </c>
+      <c r="AL153">
+        <v>1.19</v>
+      </c>
+      <c r="AM153">
+        <v>2.28</v>
+      </c>
+      <c r="AN153">
+        <v>1.43</v>
+      </c>
+      <c r="AO153">
+        <v>1.29</v>
+      </c>
+      <c r="AP153">
+        <v>1.63</v>
+      </c>
+      <c r="AQ153">
+        <v>1.13</v>
+      </c>
+      <c r="AR153">
+        <v>2.17</v>
+      </c>
+      <c r="AS153">
+        <v>1.51</v>
+      </c>
+      <c r="AT153">
+        <v>3.68</v>
+      </c>
+      <c r="AU153">
+        <v>9</v>
+      </c>
+      <c r="AV153">
+        <v>3</v>
+      </c>
+      <c r="AW153">
+        <v>9</v>
+      </c>
+      <c r="AX153">
+        <v>4</v>
+      </c>
+      <c r="AY153">
+        <v>18</v>
+      </c>
+      <c r="AZ153">
+        <v>7</v>
+      </c>
+      <c r="BA153">
+        <v>10</v>
+      </c>
+      <c r="BB153">
+        <v>3</v>
+      </c>
+      <c r="BC153">
+        <v>13</v>
+      </c>
+      <c r="BD153">
+        <v>1.21</v>
+      </c>
+      <c r="BE153">
+        <v>11</v>
+      </c>
+      <c r="BF153">
+        <v>5.6</v>
+      </c>
+      <c r="BG153">
+        <v>1.2</v>
+      </c>
+      <c r="BH153">
+        <v>4</v>
+      </c>
+      <c r="BI153">
+        <v>1.4</v>
+      </c>
+      <c r="BJ153">
+        <v>2.75</v>
+      </c>
+      <c r="BK153">
+        <v>1.73</v>
+      </c>
+      <c r="BL153">
+        <v>1.99</v>
+      </c>
+      <c r="BM153">
+        <v>2.2</v>
+      </c>
+      <c r="BN153">
+        <v>1.6</v>
+      </c>
+      <c r="BO153">
+        <v>2.9</v>
+      </c>
+      <c r="BP153">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7331079</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45430.08333333334</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>78</v>
+      </c>
+      <c r="H154" t="s">
+        <v>76</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>132</v>
+      </c>
+      <c r="P154" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q154">
+        <v>3.12</v>
+      </c>
+      <c r="R154">
+        <v>1.98</v>
+      </c>
+      <c r="S154">
+        <v>3.44</v>
+      </c>
+      <c r="T154">
+        <v>1.46</v>
+      </c>
+      <c r="U154">
+        <v>2.6</v>
+      </c>
+      <c r="V154">
+        <v>3.14</v>
+      </c>
+      <c r="W154">
+        <v>1.33</v>
+      </c>
+      <c r="X154">
+        <v>8</v>
+      </c>
+      <c r="Y154">
+        <v>1.05</v>
+      </c>
+      <c r="Z154">
+        <v>2.42</v>
+      </c>
+      <c r="AA154">
+        <v>3.1</v>
+      </c>
+      <c r="AB154">
+        <v>2.52</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>7.6</v>
+      </c>
+      <c r="AE154">
+        <v>1.36</v>
+      </c>
+      <c r="AF154">
+        <v>2.79</v>
+      </c>
+      <c r="AG154">
+        <v>2.17</v>
+      </c>
+      <c r="AH154">
+        <v>1.61</v>
+      </c>
+      <c r="AI154">
+        <v>1.84</v>
+      </c>
+      <c r="AJ154">
+        <v>1.82</v>
+      </c>
+      <c r="AK154">
+        <v>1.4</v>
+      </c>
+      <c r="AL154">
+        <v>1.31</v>
+      </c>
+      <c r="AM154">
+        <v>1.47</v>
+      </c>
+      <c r="AN154">
+        <v>0.88</v>
+      </c>
+      <c r="AO154">
+        <v>1.17</v>
+      </c>
+      <c r="AP154">
+        <v>0.78</v>
+      </c>
+      <c r="AQ154">
+        <v>1.43</v>
+      </c>
+      <c r="AR154">
+        <v>1.53</v>
+      </c>
+      <c r="AS154">
+        <v>1.67</v>
+      </c>
+      <c r="AT154">
+        <v>3.2</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>8</v>
+      </c>
+      <c r="AW154">
+        <v>5</v>
+      </c>
+      <c r="AX154">
+        <v>3</v>
+      </c>
+      <c r="AY154">
+        <v>9</v>
+      </c>
+      <c r="AZ154">
+        <v>11</v>
+      </c>
+      <c r="BA154">
+        <v>7</v>
+      </c>
+      <c r="BB154">
+        <v>6</v>
+      </c>
+      <c r="BC154">
+        <v>13</v>
+      </c>
+      <c r="BD154">
+        <v>2.29</v>
+      </c>
+      <c r="BE154">
+        <v>7.5</v>
+      </c>
+      <c r="BF154">
+        <v>1.85</v>
+      </c>
+      <c r="BG154">
+        <v>1.46</v>
+      </c>
+      <c r="BH154">
+        <v>2.52</v>
+      </c>
+      <c r="BI154">
+        <v>1.85</v>
+      </c>
+      <c r="BJ154">
+        <v>1.95</v>
+      </c>
+      <c r="BK154">
+        <v>2.45</v>
+      </c>
+      <c r="BL154">
+        <v>1.49</v>
+      </c>
+      <c r="BM154">
+        <v>3</v>
+      </c>
+      <c r="BN154">
+        <v>1.34</v>
+      </c>
+      <c r="BO154">
+        <v>3.6</v>
+      </c>
+      <c r="BP154">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7331075</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45430.08333333334</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>70</v>
+      </c>
+      <c r="H155" t="s">
+        <v>79</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>117</v>
+      </c>
+      <c r="P155" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q155">
+        <v>2.98</v>
+      </c>
+      <c r="R155">
+        <v>1.98</v>
+      </c>
+      <c r="S155">
+        <v>3.62</v>
+      </c>
+      <c r="T155">
+        <v>1.47</v>
+      </c>
+      <c r="U155">
+        <v>2.57</v>
+      </c>
+      <c r="V155">
+        <v>3.2</v>
+      </c>
+      <c r="W155">
+        <v>1.32</v>
+      </c>
+      <c r="X155">
+        <v>7.2</v>
+      </c>
+      <c r="Y155">
+        <v>1.05</v>
+      </c>
+      <c r="Z155">
+        <v>2.09</v>
+      </c>
+      <c r="AA155">
+        <v>3.2</v>
+      </c>
+      <c r="AB155">
+        <v>2.93</v>
+      </c>
+      <c r="AC155">
+        <v>1.04</v>
+      </c>
+      <c r="AD155">
+        <v>7.6</v>
+      </c>
+      <c r="AE155">
+        <v>1.36</v>
+      </c>
+      <c r="AF155">
+        <v>2.79</v>
+      </c>
+      <c r="AG155">
+        <v>2.08</v>
+      </c>
+      <c r="AH155">
+        <v>1.66</v>
+      </c>
+      <c r="AI155">
+        <v>1.86</v>
+      </c>
+      <c r="AJ155">
+        <v>1.8</v>
+      </c>
+      <c r="AK155">
+        <v>1.36</v>
+      </c>
+      <c r="AL155">
+        <v>1.31</v>
+      </c>
+      <c r="AM155">
+        <v>1.52</v>
+      </c>
+      <c r="AN155">
+        <v>1.13</v>
+      </c>
+      <c r="AO155">
+        <v>1.86</v>
+      </c>
+      <c r="AP155">
+        <v>1.11</v>
+      </c>
+      <c r="AQ155">
+        <v>1.75</v>
+      </c>
+      <c r="AR155">
+        <v>1.5</v>
+      </c>
+      <c r="AS155">
+        <v>1.47</v>
+      </c>
+      <c r="AT155">
+        <v>2.97</v>
+      </c>
+      <c r="AU155">
+        <v>7</v>
+      </c>
+      <c r="AV155">
+        <v>5</v>
+      </c>
+      <c r="AW155">
+        <v>9</v>
+      </c>
+      <c r="AX155">
+        <v>7</v>
+      </c>
+      <c r="AY155">
+        <v>16</v>
+      </c>
+      <c r="AZ155">
+        <v>12</v>
+      </c>
+      <c r="BA155">
+        <v>5</v>
+      </c>
+      <c r="BB155">
+        <v>6</v>
+      </c>
+      <c r="BC155">
+        <v>11</v>
+      </c>
+      <c r="BD155">
+        <v>2.1</v>
+      </c>
+      <c r="BE155">
+        <v>7.5</v>
+      </c>
+      <c r="BF155">
+        <v>1.95</v>
+      </c>
+      <c r="BG155">
+        <v>1.42</v>
+      </c>
+      <c r="BH155">
+        <v>2.65</v>
+      </c>
+      <c r="BI155">
+        <v>1.9</v>
+      </c>
+      <c r="BJ155">
+        <v>1.9</v>
+      </c>
+      <c r="BK155">
+        <v>2.4</v>
+      </c>
+      <c r="BL155">
+        <v>1.5</v>
+      </c>
+      <c r="BM155">
+        <v>2.75</v>
+      </c>
+      <c r="BN155">
+        <v>1.4</v>
+      </c>
+      <c r="BO155">
+        <v>3.6</v>
+      </c>
+      <c r="BP155">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7331074</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45430.08333333334</v>
+      </c>
+      <c r="F156">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>88</v>
+      </c>
+      <c r="H156" t="s">
+        <v>89</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>92</v>
+      </c>
+      <c r="P156" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q156">
+        <v>3.04</v>
+      </c>
+      <c r="R156">
+        <v>1.92</v>
+      </c>
+      <c r="S156">
+        <v>3.75</v>
+      </c>
+      <c r="T156">
+        <v>1.52</v>
+      </c>
+      <c r="U156">
+        <v>2.43</v>
+      </c>
+      <c r="V156">
+        <v>3.42</v>
+      </c>
+      <c r="W156">
+        <v>1.28</v>
+      </c>
+      <c r="X156">
+        <v>9</v>
+      </c>
+      <c r="Y156">
+        <v>1.03</v>
+      </c>
+      <c r="Z156">
+        <v>2.37</v>
+      </c>
+      <c r="AA156">
+        <v>3</v>
+      </c>
+      <c r="AB156">
+        <v>2.65</v>
+      </c>
+      <c r="AC156">
+        <v>1.06</v>
+      </c>
+      <c r="AD156">
+        <v>6.85</v>
+      </c>
+      <c r="AE156">
+        <v>1.43</v>
+      </c>
+      <c r="AF156">
+        <v>2.54</v>
+      </c>
+      <c r="AG156">
+        <v>2.35</v>
+      </c>
+      <c r="AH156">
+        <v>1.52</v>
+      </c>
+      <c r="AI156">
+        <v>1.97</v>
+      </c>
+      <c r="AJ156">
+        <v>1.71</v>
+      </c>
+      <c r="AK156">
+        <v>1.34</v>
+      </c>
+      <c r="AL156">
+        <v>1.32</v>
+      </c>
+      <c r="AM156">
+        <v>1.52</v>
+      </c>
+      <c r="AN156">
+        <v>1.43</v>
+      </c>
+      <c r="AO156">
+        <v>1.25</v>
+      </c>
+      <c r="AP156">
+        <v>1.25</v>
+      </c>
+      <c r="AQ156">
+        <v>1.44</v>
+      </c>
+      <c r="AR156">
+        <v>1.49</v>
+      </c>
+      <c r="AS156">
+        <v>1.51</v>
+      </c>
+      <c r="AT156">
+        <v>3</v>
+      </c>
+      <c r="AU156">
+        <v>6</v>
+      </c>
+      <c r="AV156">
+        <v>3</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
+        <v>7</v>
+      </c>
+      <c r="AY156">
+        <v>15</v>
+      </c>
+      <c r="AZ156">
+        <v>10</v>
+      </c>
+      <c r="BA156">
+        <v>10</v>
+      </c>
+      <c r="BB156">
+        <v>2</v>
+      </c>
+      <c r="BC156">
+        <v>12</v>
+      </c>
+      <c r="BD156">
+        <v>1.91</v>
+      </c>
+      <c r="BE156">
+        <v>8</v>
+      </c>
+      <c r="BF156">
+        <v>2.1</v>
+      </c>
+      <c r="BG156">
+        <v>1.18</v>
+      </c>
+      <c r="BH156">
+        <v>4.33</v>
+      </c>
+      <c r="BI156">
+        <v>1.32</v>
+      </c>
+      <c r="BJ156">
+        <v>3.1</v>
+      </c>
+      <c r="BK156">
+        <v>1.54</v>
+      </c>
+      <c r="BL156">
+        <v>2.32</v>
+      </c>
+      <c r="BM156">
+        <v>1.99</v>
+      </c>
+      <c r="BN156">
+        <v>1.73</v>
+      </c>
+      <c r="BO156">
+        <v>2.55</v>
+      </c>
+      <c r="BP156">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7331076</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45430.08333333334</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>77</v>
+      </c>
+      <c r="H157" t="s">
+        <v>83</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>92</v>
+      </c>
+      <c r="P157" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q157">
+        <v>5.35</v>
+      </c>
+      <c r="R157">
+        <v>2.07</v>
+      </c>
+      <c r="S157">
+        <v>2.24</v>
+      </c>
+      <c r="T157">
+        <v>1.44</v>
+      </c>
+      <c r="U157">
+        <v>2.66</v>
+      </c>
+      <c r="V157">
+        <v>3.04</v>
+      </c>
+      <c r="W157">
+        <v>1.35</v>
+      </c>
+      <c r="X157">
+        <v>7.2</v>
+      </c>
+      <c r="Y157">
+        <v>1.05</v>
+      </c>
+      <c r="Z157">
+        <v>5.6</v>
+      </c>
+      <c r="AA157">
+        <v>3.8</v>
+      </c>
+      <c r="AB157">
+        <v>1.44</v>
+      </c>
+      <c r="AC157">
+        <v>1.03</v>
+      </c>
+      <c r="AD157">
+        <v>8</v>
+      </c>
+      <c r="AE157">
+        <v>1.33</v>
+      </c>
+      <c r="AF157">
+        <v>2.93</v>
+      </c>
+      <c r="AG157">
+        <v>1.97</v>
+      </c>
+      <c r="AH157">
+        <v>1.74</v>
+      </c>
+      <c r="AI157">
+        <v>1.97</v>
+      </c>
+      <c r="AJ157">
+        <v>1.71</v>
+      </c>
+      <c r="AK157">
+        <v>2.05</v>
+      </c>
+      <c r="AL157">
+        <v>1.25</v>
+      </c>
+      <c r="AM157">
+        <v>1.14</v>
+      </c>
+      <c r="AN157">
+        <v>0.25</v>
+      </c>
+      <c r="AO157">
+        <v>1.5</v>
+      </c>
+      <c r="AP157">
+        <v>0.22</v>
+      </c>
+      <c r="AQ157">
+        <v>1.67</v>
+      </c>
+      <c r="AR157">
+        <v>1.13</v>
+      </c>
+      <c r="AS157">
+        <v>1.64</v>
+      </c>
+      <c r="AT157">
+        <v>2.77</v>
+      </c>
+      <c r="AU157">
+        <v>2</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>2</v>
+      </c>
+      <c r="AX157">
+        <v>4</v>
+      </c>
+      <c r="AY157">
+        <v>4</v>
+      </c>
+      <c r="AZ157">
+        <v>7</v>
+      </c>
+      <c r="BA157">
+        <v>4</v>
+      </c>
+      <c r="BB157">
+        <v>5</v>
+      </c>
+      <c r="BC157">
+        <v>9</v>
+      </c>
+      <c r="BD157">
+        <v>3.07</v>
+      </c>
+      <c r="BE157">
+        <v>8.5</v>
+      </c>
+      <c r="BF157">
+        <v>1.51</v>
+      </c>
+      <c r="BG157">
+        <v>1.22</v>
+      </c>
+      <c r="BH157">
+        <v>3.8</v>
+      </c>
+      <c r="BI157">
+        <v>1.41</v>
+      </c>
+      <c r="BJ157">
+        <v>2.7</v>
+      </c>
+      <c r="BK157">
+        <v>1.73</v>
+      </c>
+      <c r="BL157">
+        <v>1.99</v>
+      </c>
+      <c r="BM157">
+        <v>2.2</v>
+      </c>
+      <c r="BN157">
+        <v>1.6</v>
+      </c>
+      <c r="BO157">
+        <v>2.95</v>
+      </c>
+      <c r="BP157">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7331080</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45430.125</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>82</v>
+      </c>
+      <c r="H158" t="s">
+        <v>80</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>92</v>
+      </c>
+      <c r="P158" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q158">
+        <v>3.86</v>
+      </c>
+      <c r="R158">
+        <v>2.16</v>
+      </c>
+      <c r="S158">
+        <v>2.53</v>
+      </c>
+      <c r="T158">
+        <v>1.35</v>
+      </c>
+      <c r="U158">
+        <v>3.04</v>
+      </c>
+      <c r="V158">
+        <v>2.65</v>
+      </c>
+      <c r="W158">
+        <v>1.44</v>
+      </c>
+      <c r="X158">
+        <v>5.8</v>
+      </c>
+      <c r="Y158">
+        <v>1.09</v>
+      </c>
+      <c r="Z158">
+        <v>3.05</v>
+      </c>
+      <c r="AA158">
+        <v>3.45</v>
+      </c>
+      <c r="AB158">
+        <v>1.94</v>
+      </c>
+      <c r="AC158">
+        <v>1.01</v>
+      </c>
+      <c r="AD158">
+        <v>9.9</v>
+      </c>
+      <c r="AE158">
+        <v>1.23</v>
+      </c>
+      <c r="AF158">
+        <v>3.56</v>
+      </c>
+      <c r="AG158">
+        <v>1.8</v>
+      </c>
+      <c r="AH158">
+        <v>1.9</v>
+      </c>
+      <c r="AI158">
+        <v>1.65</v>
+      </c>
+      <c r="AJ158">
+        <v>2.05</v>
+      </c>
+      <c r="AK158">
+        <v>1.72</v>
+      </c>
+      <c r="AL158">
+        <v>1.26</v>
+      </c>
+      <c r="AM158">
+        <v>1.28</v>
+      </c>
+      <c r="AN158">
+        <v>1.29</v>
+      </c>
+      <c r="AO158">
+        <v>2.14</v>
+      </c>
+      <c r="AP158">
+        <v>1.13</v>
+      </c>
+      <c r="AQ158">
+        <v>2.25</v>
+      </c>
+      <c r="AR158">
+        <v>1.41</v>
+      </c>
+      <c r="AS158">
+        <v>1.61</v>
+      </c>
+      <c r="AT158">
+        <v>3.02</v>
+      </c>
+      <c r="AU158">
+        <v>4</v>
+      </c>
+      <c r="AV158">
+        <v>7</v>
+      </c>
+      <c r="AW158">
+        <v>3</v>
+      </c>
+      <c r="AX158">
+        <v>10</v>
+      </c>
+      <c r="AY158">
+        <v>7</v>
+      </c>
+      <c r="AZ158">
+        <v>17</v>
+      </c>
+      <c r="BA158">
+        <v>8</v>
+      </c>
+      <c r="BB158">
+        <v>7</v>
+      </c>
+      <c r="BC158">
+        <v>15</v>
+      </c>
+      <c r="BD158">
+        <v>1.75</v>
+      </c>
+      <c r="BE158">
+        <v>8</v>
+      </c>
+      <c r="BF158">
+        <v>2.44</v>
+      </c>
+      <c r="BG158">
+        <v>1.25</v>
+      </c>
+      <c r="BH158">
+        <v>3.6</v>
+      </c>
+      <c r="BI158">
+        <v>1.48</v>
+      </c>
+      <c r="BJ158">
+        <v>2.47</v>
+      </c>
+      <c r="BK158">
+        <v>1.95</v>
+      </c>
+      <c r="BL158">
+        <v>1.85</v>
+      </c>
+      <c r="BM158">
+        <v>2.4</v>
+      </c>
+      <c r="BN158">
+        <v>1.5</v>
+      </c>
+      <c r="BO158">
+        <v>3.2</v>
+      </c>
+      <c r="BP158">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,7 +580,16 @@
     <t>['17', '90+6']</t>
   </si>
   <si>
-    <t>['1', '15', '23', '42', '45+1', '72', '80']</t>
+    <t>['1', '15', '23', '42', '45+1', '71', '80']</t>
+  </si>
+  <si>
+    <t>['11', '82']</t>
+  </si>
+  <si>
+    <t>['23', '90+3']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -809,6 +818,9 @@
   </si>
   <si>
     <t>['10', '58', '85']</t>
+  </si>
+  <si>
+    <t>['16', '59']</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1635,7 +1647,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2253,7 +2265,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2537,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7">
         <v>0.5</v>
@@ -2665,7 +2677,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3077,7 +3089,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3158,7 +3170,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ10">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3364,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3489,7 +3501,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3570,7 +3582,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ12">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3695,7 +3707,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3776,7 +3788,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ13">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -3982,7 +3994,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -5009,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ19">
         <v>1.44</v>
@@ -5137,7 +5149,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5343,7 +5355,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5421,7 +5433,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.88</v>
@@ -5549,7 +5561,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5755,7 +5767,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6167,7 +6179,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6579,7 +6591,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6863,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -6991,7 +7003,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7197,7 +7209,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7403,7 +7415,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7609,7 +7621,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8227,7 +8239,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8433,7 +8445,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8514,7 +8526,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8720,7 +8732,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ37">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8923,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>1.38</v>
@@ -9051,7 +9063,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9257,7 +9269,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9463,7 +9475,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9541,7 +9553,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ41">
         <v>2.25</v>
@@ -9953,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ43">
         <v>1.14</v>
@@ -10493,7 +10505,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10574,7 +10586,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -11111,7 +11123,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11317,7 +11329,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11523,7 +11535,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11729,7 +11741,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11935,7 +11947,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12016,7 +12028,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ53">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12141,7 +12153,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12631,7 +12643,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -13377,7 +13389,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13455,7 +13467,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>1.75</v>
@@ -13583,7 +13595,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13789,7 +13801,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14613,7 +14625,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>2.25</v>
@@ -14694,7 +14706,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR66">
         <v>1.56</v>
@@ -15518,7 +15530,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15643,7 +15655,7 @@
         <v>130</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15721,7 +15733,7 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>2.25</v>
@@ -15849,7 +15861,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>2.42</v>
@@ -16055,7 +16067,7 @@
         <v>137</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>2.8</v>
@@ -16342,7 +16354,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ74">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR74">
         <v>1.55</v>
@@ -16467,7 +16479,7 @@
         <v>92</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>3.6</v>
@@ -16879,7 +16891,7 @@
         <v>107</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>1.8</v>
@@ -17085,7 +17097,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>2.74</v>
@@ -17163,7 +17175,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>1.38</v>
@@ -17291,7 +17303,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>3.22</v>
@@ -17369,7 +17381,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ79">
         <v>1.43</v>
@@ -17784,7 +17796,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ81">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR81">
         <v>1.19</v>
@@ -17909,7 +17921,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18115,7 +18127,7 @@
         <v>108</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>3.25</v>
@@ -18321,7 +18333,7 @@
         <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18527,7 +18539,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>3.5</v>
@@ -18608,7 +18620,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ85">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR85">
         <v>1.3</v>
@@ -19017,7 +19029,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
         <v>1.75</v>
@@ -19557,7 +19569,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19763,7 +19775,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20381,7 +20393,7 @@
         <v>149</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>2.64</v>
@@ -20587,7 +20599,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q95">
         <v>2.38</v>
@@ -20793,7 +20805,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>1.06</v>
@@ -20999,7 +21011,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>3.92</v>
@@ -21492,7 +21504,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ99">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21695,7 +21707,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
         <v>0.57</v>
@@ -21823,7 +21835,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21904,7 +21916,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ101">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR101">
         <v>1.63</v>
@@ -22029,7 +22041,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q102">
         <v>2.73</v>
@@ -22235,7 +22247,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>2.05</v>
@@ -22441,7 +22453,7 @@
         <v>158</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22522,7 +22534,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ104">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -22931,7 +22943,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ106">
         <v>1.43</v>
@@ -23265,7 +23277,7 @@
         <v>92</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>3.3</v>
@@ -23471,7 +23483,7 @@
         <v>121</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>2.82</v>
@@ -23549,7 +23561,7 @@
         <v>0.5</v>
       </c>
       <c r="AP109">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ109">
         <v>1.14</v>
@@ -23677,7 +23689,7 @@
         <v>97</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24089,7 +24101,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24295,7 +24307,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24376,7 +24388,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ113">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24501,7 +24513,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24788,7 +24800,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -24913,7 +24925,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25197,7 +25209,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ117">
         <v>2</v>
@@ -25737,7 +25749,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26021,7 +26033,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>1.67</v>
@@ -26355,7 +26367,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>2.98</v>
@@ -26561,7 +26573,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>3.35</v>
@@ -26973,7 +26985,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>2.62</v>
@@ -27179,7 +27191,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q127">
         <v>1.9</v>
@@ -27385,7 +27397,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27591,7 +27603,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>2.64</v>
@@ -27797,7 +27809,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>2.65</v>
@@ -28209,7 +28221,7 @@
         <v>92</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>3.79</v>
@@ -28290,7 +28302,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ132">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR132">
         <v>1.3</v>
@@ -28699,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AP134">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ134">
         <v>0.88</v>
@@ -28827,7 +28839,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>2.3</v>
@@ -28905,7 +28917,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ135">
         <v>1.57</v>
@@ -29033,7 +29045,7 @@
         <v>178</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>3.53</v>
@@ -29114,7 +29126,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ136">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR136">
         <v>1.44</v>
@@ -29317,10 +29329,10 @@
         <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR137">
         <v>1.07</v>
@@ -29651,7 +29663,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30475,7 +30487,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q143">
         <v>2.27</v>
@@ -30887,7 +30899,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q145">
         <v>2.72</v>
@@ -31093,7 +31105,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31917,7 +31929,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32123,7 +32135,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32535,7 +32547,7 @@
         <v>188</v>
       </c>
       <c r="P153" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q153">
         <v>2.08</v>
@@ -32741,7 +32753,7 @@
         <v>132</v>
       </c>
       <c r="P154" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q154">
         <v>3.12</v>
@@ -32834,7 +32846,7 @@
         <v>3.2</v>
       </c>
       <c r="AU154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV154">
         <v>8</v>
@@ -32843,13 +32855,13 @@
         <v>5</v>
       </c>
       <c r="AX154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY154">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ154">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA154">
         <v>7</v>
@@ -33153,7 +33165,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33359,7 +33371,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33565,7 +33577,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33661,19 +33673,19 @@
         <v>4</v>
       </c>
       <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>2</v>
+      </c>
+      <c r="AX158">
         <v>7</v>
       </c>
-      <c r="AW158">
-        <v>3</v>
-      </c>
-      <c r="AX158">
-        <v>10</v>
-      </c>
       <c r="AY158">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ158">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA158">
         <v>8</v>
@@ -33722,6 +33734,624 @@
       </c>
       <c r="BP158">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7331081</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45431.08333333334</v>
+      </c>
+      <c r="F159">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>75</v>
+      </c>
+      <c r="H159" t="s">
+        <v>86</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>189</v>
+      </c>
+      <c r="P159" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q159">
+        <v>2.95</v>
+      </c>
+      <c r="R159">
+        <v>2.05</v>
+      </c>
+      <c r="S159">
+        <v>3.4</v>
+      </c>
+      <c r="T159">
+        <v>1.43</v>
+      </c>
+      <c r="U159">
+        <v>2.65</v>
+      </c>
+      <c r="V159">
+        <v>2.99</v>
+      </c>
+      <c r="W159">
+        <v>1.36</v>
+      </c>
+      <c r="X159">
+        <v>7.4</v>
+      </c>
+      <c r="Y159">
+        <v>1.06</v>
+      </c>
+      <c r="Z159">
+        <v>2.25</v>
+      </c>
+      <c r="AA159">
+        <v>3.25</v>
+      </c>
+      <c r="AB159">
+        <v>3.05</v>
+      </c>
+      <c r="AC159">
+        <v>1.03</v>
+      </c>
+      <c r="AD159">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE159">
+        <v>1.33</v>
+      </c>
+      <c r="AF159">
+        <v>3.1</v>
+      </c>
+      <c r="AG159">
+        <v>2</v>
+      </c>
+      <c r="AH159">
+        <v>1.71</v>
+      </c>
+      <c r="AI159">
+        <v>1.8</v>
+      </c>
+      <c r="AJ159">
+        <v>1.95</v>
+      </c>
+      <c r="AK159">
+        <v>1.38</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.57</v>
+      </c>
+      <c r="AN159">
+        <v>1.71</v>
+      </c>
+      <c r="AO159">
+        <v>2.13</v>
+      </c>
+      <c r="AP159">
+        <v>1.88</v>
+      </c>
+      <c r="AQ159">
+        <v>1.89</v>
+      </c>
+      <c r="AR159">
+        <v>1.54</v>
+      </c>
+      <c r="AS159">
+        <v>1.59</v>
+      </c>
+      <c r="AT159">
+        <v>3.13</v>
+      </c>
+      <c r="AU159">
+        <v>2</v>
+      </c>
+      <c r="AV159">
+        <v>3</v>
+      </c>
+      <c r="AW159">
+        <v>2</v>
+      </c>
+      <c r="AX159">
+        <v>3</v>
+      </c>
+      <c r="AY159">
+        <v>4</v>
+      </c>
+      <c r="AZ159">
+        <v>6</v>
+      </c>
+      <c r="BA159">
+        <v>1</v>
+      </c>
+      <c r="BB159">
+        <v>1</v>
+      </c>
+      <c r="BC159">
+        <v>2</v>
+      </c>
+      <c r="BD159">
+        <v>1.91</v>
+      </c>
+      <c r="BE159">
+        <v>8</v>
+      </c>
+      <c r="BF159">
+        <v>2.1</v>
+      </c>
+      <c r="BG159">
+        <v>1.22</v>
+      </c>
+      <c r="BH159">
+        <v>3.8</v>
+      </c>
+      <c r="BI159">
+        <v>1.43</v>
+      </c>
+      <c r="BJ159">
+        <v>2.62</v>
+      </c>
+      <c r="BK159">
+        <v>1.73</v>
+      </c>
+      <c r="BL159">
+        <v>1.99</v>
+      </c>
+      <c r="BM159">
+        <v>2.22</v>
+      </c>
+      <c r="BN159">
+        <v>1.59</v>
+      </c>
+      <c r="BO159">
+        <v>2.95</v>
+      </c>
+      <c r="BP159">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7331082</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45431.08333333334</v>
+      </c>
+      <c r="F160">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>84</v>
+      </c>
+      <c r="H160" t="s">
+        <v>72</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>190</v>
+      </c>
+      <c r="P160" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q160">
+        <v>2.55</v>
+      </c>
+      <c r="R160">
+        <v>2.05</v>
+      </c>
+      <c r="S160">
+        <v>4.2</v>
+      </c>
+      <c r="T160">
+        <v>1.43</v>
+      </c>
+      <c r="U160">
+        <v>2.65</v>
+      </c>
+      <c r="V160">
+        <v>2.81</v>
+      </c>
+      <c r="W160">
+        <v>1.4</v>
+      </c>
+      <c r="X160">
+        <v>6.8</v>
+      </c>
+      <c r="Y160">
+        <v>1.07</v>
+      </c>
+      <c r="Z160">
+        <v>1.85</v>
+      </c>
+      <c r="AA160">
+        <v>3.5</v>
+      </c>
+      <c r="AB160">
+        <v>3.9</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>9</v>
+      </c>
+      <c r="AE160">
+        <v>1.3</v>
+      </c>
+      <c r="AF160">
+        <v>3.3</v>
+      </c>
+      <c r="AG160">
+        <v>1.89</v>
+      </c>
+      <c r="AH160">
+        <v>1.81</v>
+      </c>
+      <c r="AI160">
+        <v>1.8</v>
+      </c>
+      <c r="AJ160">
+        <v>1.95</v>
+      </c>
+      <c r="AK160">
+        <v>1.22</v>
+      </c>
+      <c r="AL160">
+        <v>1.25</v>
+      </c>
+      <c r="AM160">
+        <v>1.83</v>
+      </c>
+      <c r="AN160">
+        <v>1.43</v>
+      </c>
+      <c r="AO160">
+        <v>1.29</v>
+      </c>
+      <c r="AP160">
+        <v>1.63</v>
+      </c>
+      <c r="AQ160">
+        <v>1.13</v>
+      </c>
+      <c r="AR160">
+        <v>1.73</v>
+      </c>
+      <c r="AS160">
+        <v>1.5</v>
+      </c>
+      <c r="AT160">
+        <v>3.23</v>
+      </c>
+      <c r="AU160">
+        <v>2</v>
+      </c>
+      <c r="AV160">
+        <v>2</v>
+      </c>
+      <c r="AW160">
+        <v>1</v>
+      </c>
+      <c r="AX160">
+        <v>4</v>
+      </c>
+      <c r="AY160">
+        <v>3</v>
+      </c>
+      <c r="AZ160">
+        <v>6</v>
+      </c>
+      <c r="BA160">
+        <v>2</v>
+      </c>
+      <c r="BB160">
+        <v>3</v>
+      </c>
+      <c r="BC160">
+        <v>5</v>
+      </c>
+      <c r="BD160">
+        <v>1.75</v>
+      </c>
+      <c r="BE160">
+        <v>8</v>
+      </c>
+      <c r="BF160">
+        <v>2.52</v>
+      </c>
+      <c r="BG160">
+        <v>1.32</v>
+      </c>
+      <c r="BH160">
+        <v>3.1</v>
+      </c>
+      <c r="BI160">
+        <v>1.61</v>
+      </c>
+      <c r="BJ160">
+        <v>2.17</v>
+      </c>
+      <c r="BK160">
+        <v>2.07</v>
+      </c>
+      <c r="BL160">
+        <v>1.67</v>
+      </c>
+      <c r="BM160">
+        <v>2.77</v>
+      </c>
+      <c r="BN160">
+        <v>1.39</v>
+      </c>
+      <c r="BO160">
+        <v>3.2</v>
+      </c>
+      <c r="BP160">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7331083</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45431.20833333334</v>
+      </c>
+      <c r="F161">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>85</v>
+      </c>
+      <c r="H161" t="s">
+        <v>87</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>191</v>
+      </c>
+      <c r="P161" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q161">
+        <v>4.5</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>2.55</v>
+      </c>
+      <c r="T161">
+        <v>1.51</v>
+      </c>
+      <c r="U161">
+        <v>2.4</v>
+      </c>
+      <c r="V161">
+        <v>3.32</v>
+      </c>
+      <c r="W161">
+        <v>1.3</v>
+      </c>
+      <c r="X161">
+        <v>8.5</v>
+      </c>
+      <c r="Y161">
+        <v>1.04</v>
+      </c>
+      <c r="Z161">
+        <v>4.1</v>
+      </c>
+      <c r="AA161">
+        <v>3.35</v>
+      </c>
+      <c r="AB161">
+        <v>1.85</v>
+      </c>
+      <c r="AC161">
+        <v>1.05</v>
+      </c>
+      <c r="AD161">
+        <v>7.1</v>
+      </c>
+      <c r="AE161">
+        <v>1.42</v>
+      </c>
+      <c r="AF161">
+        <v>2.7</v>
+      </c>
+      <c r="AG161">
+        <v>2.28</v>
+      </c>
+      <c r="AH161">
+        <v>1.56</v>
+      </c>
+      <c r="AI161">
+        <v>2.05</v>
+      </c>
+      <c r="AJ161">
+        <v>1.72</v>
+      </c>
+      <c r="AK161">
+        <v>1.87</v>
+      </c>
+      <c r="AL161">
+        <v>1.25</v>
+      </c>
+      <c r="AM161">
+        <v>1.17</v>
+      </c>
+      <c r="AN161">
+        <v>1.14</v>
+      </c>
+      <c r="AO161">
+        <v>1.71</v>
+      </c>
+      <c r="AP161">
+        <v>1</v>
+      </c>
+      <c r="AQ161">
+        <v>1.88</v>
+      </c>
+      <c r="AR161">
+        <v>1.13</v>
+      </c>
+      <c r="AS161">
+        <v>1.22</v>
+      </c>
+      <c r="AT161">
+        <v>2.35</v>
+      </c>
+      <c r="AU161">
+        <v>3</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>1</v>
+      </c>
+      <c r="AX161">
+        <v>4</v>
+      </c>
+      <c r="AY161">
+        <v>4</v>
+      </c>
+      <c r="AZ161">
+        <v>7</v>
+      </c>
+      <c r="BA161">
+        <v>2</v>
+      </c>
+      <c r="BB161">
+        <v>3</v>
+      </c>
+      <c r="BC161">
+        <v>5</v>
+      </c>
+      <c r="BD161">
+        <v>2.77</v>
+      </c>
+      <c r="BE161">
+        <v>8</v>
+      </c>
+      <c r="BF161">
+        <v>1.64</v>
+      </c>
+      <c r="BG161">
+        <v>1.37</v>
+      </c>
+      <c r="BH161">
+        <v>2.85</v>
+      </c>
+      <c r="BI161">
+        <v>1.73</v>
+      </c>
+      <c r="BJ161">
+        <v>1.99</v>
+      </c>
+      <c r="BK161">
+        <v>2.23</v>
+      </c>
+      <c r="BL161">
+        <v>1.58</v>
+      </c>
+      <c r="BM161">
+        <v>3.05</v>
+      </c>
+      <c r="BN161">
+        <v>1.33</v>
+      </c>
+      <c r="BO161">
+        <v>3.3</v>
+      </c>
+      <c r="BP161">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -32846,7 +32846,7 @@
         <v>3.2</v>
       </c>
       <c r="AU154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV154">
         <v>8</v>
@@ -32855,13 +32855,13 @@
         <v>5</v>
       </c>
       <c r="AX154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY154">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ154">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA154">
         <v>7</v>
@@ -33673,19 +33673,19 @@
         <v>4</v>
       </c>
       <c r="AV158">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX158">
+        <v>10</v>
+      </c>
+      <c r="AY158">
         <v>7</v>
       </c>
-      <c r="AY158">
-        <v>6</v>
-      </c>
       <c r="AZ158">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA158">
         <v>8</v>
@@ -33876,31 +33876,31 @@
         <v>3.13</v>
       </c>
       <c r="AU159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV159">
+        <v>5</v>
+      </c>
+      <c r="AW159">
         <v>3</v>
       </c>
-      <c r="AW159">
-        <v>2</v>
-      </c>
       <c r="AX159">
+        <v>4</v>
+      </c>
+      <c r="AY159">
+        <v>6</v>
+      </c>
+      <c r="AZ159">
+        <v>9</v>
+      </c>
+      <c r="BA159">
+        <v>4</v>
+      </c>
+      <c r="BB159">
         <v>3</v>
       </c>
-      <c r="AY159">
-        <v>4</v>
-      </c>
-      <c r="AZ159">
-        <v>6</v>
-      </c>
-      <c r="BA159">
-        <v>1</v>
-      </c>
-      <c r="BB159">
-        <v>1</v>
-      </c>
       <c r="BC159">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BD159">
         <v>1.91</v>
@@ -34085,28 +34085,28 @@
         <v>2</v>
       </c>
       <c r="AV160">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX160">
+        <v>6</v>
+      </c>
+      <c r="AY160">
+        <v>6</v>
+      </c>
+      <c r="AZ160">
+        <v>11</v>
+      </c>
+      <c r="BA160">
+        <v>2</v>
+      </c>
+      <c r="BB160">
         <v>4</v>
       </c>
-      <c r="AY160">
-        <v>3</v>
-      </c>
-      <c r="AZ160">
+      <c r="BC160">
         <v>6</v>
-      </c>
-      <c r="BA160">
-        <v>2</v>
-      </c>
-      <c r="BB160">
-        <v>3</v>
-      </c>
-      <c r="BC160">
-        <v>5</v>
       </c>
       <c r="BD160">
         <v>1.75</v>
@@ -34288,31 +34288,31 @@
         <v>2.35</v>
       </c>
       <c r="AU161">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV161">
         <v>3</v>
       </c>
       <c r="AW161">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY161">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AZ161">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB161">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC161">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD161">
         <v>2.77</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -33876,19 +33876,19 @@
         <v>3.13</v>
       </c>
       <c r="AU159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV159">
+        <v>2</v>
+      </c>
+      <c r="AW159">
         <v>5</v>
       </c>
-      <c r="AW159">
-        <v>3</v>
-      </c>
       <c r="AX159">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY159">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ159">
         <v>9</v>
@@ -34082,22 +34082,22 @@
         <v>3.23</v>
       </c>
       <c r="AU160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV160">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW160">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX160">
         <v>6</v>
       </c>
       <c r="AY160">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ160">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA160">
         <v>2</v>
@@ -34291,19 +34291,19 @@
         <v>6</v>
       </c>
       <c r="AV161">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW161">
         <v>5</v>
       </c>
       <c r="AX161">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY161">
         <v>11</v>
       </c>
       <c r="AZ161">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA161">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,15 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['24', '54']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -772,9 +781,6 @@
     <t>['51', '73']</t>
   </si>
   <si>
-    <t>['20']</t>
-  </si>
-  <si>
     <t>['58', '80']</t>
   </si>
   <si>
@@ -824,6 +830,21 @@
   </si>
   <si>
     <t>['13', '58']</t>
+  </si>
+  <si>
+    <t>['20', '46', '69', '76']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,7 +1671,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1731,7 +1752,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2268,7 +2289,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2349,7 +2370,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ6">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2680,7 +2701,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2758,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -3092,7 +3113,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3504,7 +3525,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3710,7 +3731,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4200,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ15">
         <v>1.13</v>
@@ -4615,7 +4636,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ17">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4818,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5152,7 +5173,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5230,10 +5251,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ20">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5358,7 +5379,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5439,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5564,7 +5585,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5770,7 +5791,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6057,7 +6078,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ24">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6182,7 +6203,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6260,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
         <v>0.5600000000000001</v>
@@ -6466,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ26">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6594,7 +6615,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6881,7 +6902,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -7006,7 +7027,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7212,7 +7233,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7418,7 +7439,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7624,7 +7645,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7705,7 +7726,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7908,7 +7929,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ33">
         <v>1.75</v>
@@ -8242,7 +8263,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8323,7 +8344,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ35">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8448,7 +8469,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8732,7 +8753,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
         <v>1.88</v>
@@ -9066,7 +9087,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9272,7 +9293,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9350,7 +9371,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ40">
         <v>1.67</v>
@@ -9478,7 +9499,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9765,7 +9786,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ42">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>2.12</v>
@@ -10177,7 +10198,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ44">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10508,7 +10529,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10714,7 +10735,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10998,7 +11019,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48">
         <v>0.5600000000000001</v>
@@ -11204,7 +11225,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ49">
         <v>1.43</v>
@@ -11332,7 +11353,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11538,7 +11559,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11619,7 +11640,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -11744,7 +11765,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11950,7 +11971,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12440,7 +12461,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ55">
         <v>1.44</v>
@@ -12568,7 +12589,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13058,10 +13079,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13264,10 +13285,10 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ59">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13392,7 +13413,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13598,7 +13619,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13679,7 +13700,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13804,7 +13825,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13885,7 +13906,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ62">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR62">
         <v>1.39</v>
@@ -14091,7 +14112,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ63">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR63">
         <v>1.03</v>
@@ -14294,7 +14315,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ64">
         <v>1.67</v>
@@ -14834,7 +14855,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15121,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15324,7 +15345,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ69">
         <v>1.22</v>
@@ -15658,7 +15679,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15945,7 +15966,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16070,7 +16091,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16276,7 +16297,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16482,7 +16503,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16560,10 +16581,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ75">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>2.06</v>
@@ -16894,7 +16915,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17178,7 +17199,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>1.13</v>
@@ -17306,7 +17327,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>2.8</v>
@@ -17384,10 +17405,10 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17512,7 +17533,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17590,7 +17611,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>1.13</v>
@@ -17924,7 +17945,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18002,7 +18023,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ82">
         <v>2.25</v>
@@ -18417,7 +18438,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18623,7 +18644,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ85">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.13</v>
@@ -18748,7 +18769,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19160,7 +19181,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -19572,7 +19593,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19778,7 +19799,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19859,7 +19880,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -19984,7 +20005,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20271,7 +20292,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.45</v>
@@ -20474,10 +20495,10 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ94">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20602,7 +20623,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20808,7 +20829,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -20886,7 +20907,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>2</v>
@@ -21014,7 +21035,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21298,10 +21319,10 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21713,7 +21734,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ100">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -21838,7 +21859,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21916,7 +21937,7 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ101">
         <v>1.89</v>
@@ -22331,7 +22352,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>1.24</v>
@@ -22456,7 +22477,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22534,7 +22555,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ104">
         <v>1.88</v>
@@ -22662,7 +22683,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22743,7 +22764,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ105">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -22868,7 +22889,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q106">
         <v>2.73</v>
@@ -23074,7 +23095,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23280,7 +23301,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23361,7 +23382,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ108">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.71</v>
@@ -23692,7 +23713,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24104,7 +24125,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24182,7 +24203,7 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ112">
         <v>1.22</v>
@@ -24310,7 +24331,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24516,7 +24537,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24928,7 +24949,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25006,7 +25027,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ116">
         <v>1.75</v>
@@ -25340,7 +25361,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25418,7 +25439,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
         <v>1.56</v>
@@ -25833,7 +25854,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ120">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26039,7 +26060,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ121">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26370,7 +26391,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26451,7 +26472,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ123">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26576,7 +26597,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26654,7 +26675,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ124">
         <v>0.5600000000000001</v>
@@ -26782,7 +26803,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -26988,7 +27009,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27066,7 +27087,7 @@
         <v>0.67</v>
       </c>
       <c r="AP126">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ126">
         <v>0.5600000000000001</v>
@@ -27275,7 +27296,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ127">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR127">
         <v>1.55</v>
@@ -27400,7 +27421,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27481,7 +27502,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27606,7 +27627,7 @@
         <v>173</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="Q129">
         <v>2.98</v>
@@ -27684,10 +27705,10 @@
         <v>1.83</v>
       </c>
       <c r="AP129">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ129">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR129">
         <v>1.7</v>
@@ -27812,7 +27833,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28096,7 +28117,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
         <v>1.22</v>
@@ -28305,7 +28326,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ132">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR132">
         <v>1.72</v>
@@ -28636,7 +28657,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28717,7 +28738,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -28842,7 +28863,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29460,7 +29481,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29538,7 +29559,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ138">
         <v>1.89</v>
@@ -29666,7 +29687,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30284,7 +30305,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30362,10 +30383,10 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ142">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR142">
         <v>1.64</v>
@@ -30568,7 +30589,7 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ143">
         <v>0.5600000000000001</v>
@@ -30696,7 +30717,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -30774,10 +30795,10 @@
         <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -30980,7 +31001,7 @@
         <v>1.43</v>
       </c>
       <c r="AP145">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ145">
         <v>1.56</v>
@@ -31108,7 +31129,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31189,7 +31210,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ146">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR146">
         <v>1.44</v>
@@ -31807,7 +31828,7 @@
         <v>2</v>
       </c>
       <c r="AQ149">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR149">
         <v>1.67</v>
@@ -31932,7 +31953,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32138,7 +32159,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32344,7 +32365,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32756,7 +32777,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33168,7 +33189,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33374,7 +33395,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33580,7 +33601,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33992,7 +34013,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34198,7 +34219,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34497,31 +34518,31 @@
         <v>2.44</v>
       </c>
       <c r="AU162">
+        <v>2</v>
+      </c>
+      <c r="AV162">
+        <v>2</v>
+      </c>
+      <c r="AW162">
         <v>3</v>
       </c>
-      <c r="AV162">
-        <v>2</v>
-      </c>
-      <c r="AW162">
-        <v>0</v>
-      </c>
       <c r="AX162">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY162">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ162">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB162">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC162">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BD162">
         <v>2</v>
@@ -34610,7 +34631,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34706,28 +34727,28 @@
         <v>2</v>
       </c>
       <c r="AV163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW163">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AX163">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AY163">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ163">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA163">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB163">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC163">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BD163">
         <v>2.1</v>
@@ -34909,19 +34930,19 @@
         <v>3.37</v>
       </c>
       <c r="AU164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW164">
         <v>4</v>
       </c>
       <c r="AX164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ164">
         <v>8</v>
@@ -35022,7 +35043,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35115,31 +35136,31 @@
         <v>3.05</v>
       </c>
       <c r="AU165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV165">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW165">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX165">
+        <v>9</v>
+      </c>
+      <c r="AY165">
+        <v>7</v>
+      </c>
+      <c r="AZ165">
+        <v>13</v>
+      </c>
+      <c r="BA165">
         <v>4</v>
       </c>
-      <c r="AY165">
-        <v>3</v>
-      </c>
-      <c r="AZ165">
-        <v>6</v>
-      </c>
-      <c r="BA165">
-        <v>2</v>
-      </c>
       <c r="BB165">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC165">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BD165">
         <v>2.8</v>
@@ -35179,6 +35200,1242 @@
       </c>
       <c r="BP165">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7331088</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45438.08333333334</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>87</v>
+      </c>
+      <c r="H166" t="s">
+        <v>75</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>4</v>
+      </c>
+      <c r="N166">
+        <v>5</v>
+      </c>
+      <c r="O166" t="s">
+        <v>192</v>
+      </c>
+      <c r="P166" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q166">
+        <v>3.25</v>
+      </c>
+      <c r="R166">
+        <v>2</v>
+      </c>
+      <c r="S166">
+        <v>3.6</v>
+      </c>
+      <c r="T166">
+        <v>1.5</v>
+      </c>
+      <c r="U166">
+        <v>2.5</v>
+      </c>
+      <c r="V166">
+        <v>3.4</v>
+      </c>
+      <c r="W166">
+        <v>1.3</v>
+      </c>
+      <c r="X166">
+        <v>10</v>
+      </c>
+      <c r="Y166">
+        <v>1.06</v>
+      </c>
+      <c r="Z166">
+        <v>2.38</v>
+      </c>
+      <c r="AA166">
+        <v>3</v>
+      </c>
+      <c r="AB166">
+        <v>2.88</v>
+      </c>
+      <c r="AC166">
+        <v>1.05</v>
+      </c>
+      <c r="AD166">
+        <v>7.1</v>
+      </c>
+      <c r="AE166">
+        <v>1.42</v>
+      </c>
+      <c r="AF166">
+        <v>2.75</v>
+      </c>
+      <c r="AG166">
+        <v>2.05</v>
+      </c>
+      <c r="AH166">
+        <v>1.7</v>
+      </c>
+      <c r="AI166">
+        <v>1.83</v>
+      </c>
+      <c r="AJ166">
+        <v>1.83</v>
+      </c>
+      <c r="AK166">
+        <v>1.4</v>
+      </c>
+      <c r="AL166">
+        <v>1.28</v>
+      </c>
+      <c r="AM166">
+        <v>1.5</v>
+      </c>
+      <c r="AN166">
+        <v>1.75</v>
+      </c>
+      <c r="AO166">
+        <v>1.5</v>
+      </c>
+      <c r="AP166">
+        <v>1.56</v>
+      </c>
+      <c r="AQ166">
+        <v>1.67</v>
+      </c>
+      <c r="AR166">
+        <v>1.6</v>
+      </c>
+      <c r="AS166">
+        <v>1.44</v>
+      </c>
+      <c r="AT166">
+        <v>3.04</v>
+      </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>9</v>
+      </c>
+      <c r="AW166">
+        <v>7</v>
+      </c>
+      <c r="AX166">
+        <v>2</v>
+      </c>
+      <c r="AY166">
+        <v>12</v>
+      </c>
+      <c r="AZ166">
+        <v>11</v>
+      </c>
+      <c r="BA166">
+        <v>5</v>
+      </c>
+      <c r="BB166">
+        <v>1</v>
+      </c>
+      <c r="BC166">
+        <v>6</v>
+      </c>
+      <c r="BD166">
+        <v>1.91</v>
+      </c>
+      <c r="BE166">
+        <v>7.5</v>
+      </c>
+      <c r="BF166">
+        <v>2.2</v>
+      </c>
+      <c r="BG166">
+        <v>1.29</v>
+      </c>
+      <c r="BH166">
+        <v>3.3</v>
+      </c>
+      <c r="BI166">
+        <v>1.55</v>
+      </c>
+      <c r="BJ166">
+        <v>2.23</v>
+      </c>
+      <c r="BK166">
+        <v>1.93</v>
+      </c>
+      <c r="BL166">
+        <v>1.74</v>
+      </c>
+      <c r="BM166">
+        <v>2.54</v>
+      </c>
+      <c r="BN166">
+        <v>1.43</v>
+      </c>
+      <c r="BO166">
+        <v>3.3</v>
+      </c>
+      <c r="BP166">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7331089</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45438.08333333334</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>89</v>
+      </c>
+      <c r="H167" t="s">
+        <v>77</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>193</v>
+      </c>
+      <c r="P167" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q167">
+        <v>2.4</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>6</v>
+      </c>
+      <c r="T167">
+        <v>1.53</v>
+      </c>
+      <c r="U167">
+        <v>2.38</v>
+      </c>
+      <c r="V167">
+        <v>3.75</v>
+      </c>
+      <c r="W167">
+        <v>1.25</v>
+      </c>
+      <c r="X167">
+        <v>11</v>
+      </c>
+      <c r="Y167">
+        <v>1.05</v>
+      </c>
+      <c r="Z167">
+        <v>1.7</v>
+      </c>
+      <c r="AA167">
+        <v>3.3</v>
+      </c>
+      <c r="AB167">
+        <v>4.75</v>
+      </c>
+      <c r="AC167">
+        <v>1.07</v>
+      </c>
+      <c r="AD167">
+        <v>6.2</v>
+      </c>
+      <c r="AE167">
+        <v>1.48</v>
+      </c>
+      <c r="AF167">
+        <v>2.5</v>
+      </c>
+      <c r="AG167">
+        <v>2.4</v>
+      </c>
+      <c r="AH167">
+        <v>1.5</v>
+      </c>
+      <c r="AI167">
+        <v>2.38</v>
+      </c>
+      <c r="AJ167">
+        <v>1.53</v>
+      </c>
+      <c r="AK167">
+        <v>1.1</v>
+      </c>
+      <c r="AL167">
+        <v>1.25</v>
+      </c>
+      <c r="AM167">
+        <v>2.1</v>
+      </c>
+      <c r="AN167">
+        <v>1.29</v>
+      </c>
+      <c r="AO167">
+        <v>0.57</v>
+      </c>
+      <c r="AP167">
+        <v>1.25</v>
+      </c>
+      <c r="AQ167">
+        <v>0.63</v>
+      </c>
+      <c r="AR167">
+        <v>1.37</v>
+      </c>
+      <c r="AS167">
+        <v>1.11</v>
+      </c>
+      <c r="AT167">
+        <v>2.48</v>
+      </c>
+      <c r="AU167">
+        <v>5</v>
+      </c>
+      <c r="AV167">
+        <v>4</v>
+      </c>
+      <c r="AW167">
+        <v>11</v>
+      </c>
+      <c r="AX167">
+        <v>7</v>
+      </c>
+      <c r="AY167">
+        <v>16</v>
+      </c>
+      <c r="AZ167">
+        <v>11</v>
+      </c>
+      <c r="BA167">
+        <v>6</v>
+      </c>
+      <c r="BB167">
+        <v>4</v>
+      </c>
+      <c r="BC167">
+        <v>10</v>
+      </c>
+      <c r="BD167">
+        <v>1.41</v>
+      </c>
+      <c r="BE167">
+        <v>9</v>
+      </c>
+      <c r="BF167">
+        <v>3.58</v>
+      </c>
+      <c r="BG167">
+        <v>1.25</v>
+      </c>
+      <c r="BH167">
+        <v>3.6</v>
+      </c>
+      <c r="BI167">
+        <v>1.36</v>
+      </c>
+      <c r="BJ167">
+        <v>2.9</v>
+      </c>
+      <c r="BK167">
+        <v>1.82</v>
+      </c>
+      <c r="BL167">
+        <v>1.98</v>
+      </c>
+      <c r="BM167">
+        <v>2.1</v>
+      </c>
+      <c r="BN167">
+        <v>1.65</v>
+      </c>
+      <c r="BO167">
+        <v>2.75</v>
+      </c>
+      <c r="BP167">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7331090</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45438.08333333334</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>83</v>
+      </c>
+      <c r="H168" t="s">
+        <v>78</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>194</v>
+      </c>
+      <c r="P168" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q168">
+        <v>2.4</v>
+      </c>
+      <c r="R168">
+        <v>2.1</v>
+      </c>
+      <c r="S168">
+        <v>5</v>
+      </c>
+      <c r="T168">
+        <v>1.44</v>
+      </c>
+      <c r="U168">
+        <v>2.63</v>
+      </c>
+      <c r="V168">
+        <v>3</v>
+      </c>
+      <c r="W168">
+        <v>1.36</v>
+      </c>
+      <c r="X168">
+        <v>9</v>
+      </c>
+      <c r="Y168">
+        <v>1.07</v>
+      </c>
+      <c r="Z168">
+        <v>1.75</v>
+      </c>
+      <c r="AA168">
+        <v>3.4</v>
+      </c>
+      <c r="AB168">
+        <v>4.2</v>
+      </c>
+      <c r="AC168">
+        <v>1.03</v>
+      </c>
+      <c r="AD168">
+        <v>8.4</v>
+      </c>
+      <c r="AE168">
+        <v>1.33</v>
+      </c>
+      <c r="AF168">
+        <v>3.1</v>
+      </c>
+      <c r="AG168">
+        <v>2.05</v>
+      </c>
+      <c r="AH168">
+        <v>1.7</v>
+      </c>
+      <c r="AI168">
+        <v>1.91</v>
+      </c>
+      <c r="AJ168">
+        <v>1.8</v>
+      </c>
+      <c r="AK168">
+        <v>1.15</v>
+      </c>
+      <c r="AL168">
+        <v>1.25</v>
+      </c>
+      <c r="AM168">
+        <v>1.95</v>
+      </c>
+      <c r="AN168">
+        <v>1.57</v>
+      </c>
+      <c r="AO168">
+        <v>1.57</v>
+      </c>
+      <c r="AP168">
+        <v>1.5</v>
+      </c>
+      <c r="AQ168">
+        <v>1.5</v>
+      </c>
+      <c r="AR168">
+        <v>1.62</v>
+      </c>
+      <c r="AS168">
+        <v>1.25</v>
+      </c>
+      <c r="AT168">
+        <v>2.87</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>5</v>
+      </c>
+      <c r="AX168">
+        <v>6</v>
+      </c>
+      <c r="AY168">
+        <v>9</v>
+      </c>
+      <c r="AZ168">
+        <v>10</v>
+      </c>
+      <c r="BA168">
+        <v>1</v>
+      </c>
+      <c r="BB168">
+        <v>6</v>
+      </c>
+      <c r="BC168">
+        <v>7</v>
+      </c>
+      <c r="BD168">
+        <v>1.37</v>
+      </c>
+      <c r="BE168">
+        <v>9.5</v>
+      </c>
+      <c r="BF168">
+        <v>3.82</v>
+      </c>
+      <c r="BG168">
+        <v>1.25</v>
+      </c>
+      <c r="BH168">
+        <v>3.6</v>
+      </c>
+      <c r="BI168">
+        <v>1.39</v>
+      </c>
+      <c r="BJ168">
+        <v>2.67</v>
+      </c>
+      <c r="BK168">
+        <v>1.8</v>
+      </c>
+      <c r="BL168">
+        <v>2</v>
+      </c>
+      <c r="BM168">
+        <v>2.12</v>
+      </c>
+      <c r="BN168">
+        <v>1.61</v>
+      </c>
+      <c r="BO168">
+        <v>2.85</v>
+      </c>
+      <c r="BP168">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7331091</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45438.08333333334</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" t="s">
+        <v>70</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>195</v>
+      </c>
+      <c r="P169" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q169">
+        <v>2.3</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>5.5</v>
+      </c>
+      <c r="T169">
+        <v>1.4</v>
+      </c>
+      <c r="U169">
+        <v>2.75</v>
+      </c>
+      <c r="V169">
+        <v>3</v>
+      </c>
+      <c r="W169">
+        <v>1.36</v>
+      </c>
+      <c r="X169">
+        <v>8</v>
+      </c>
+      <c r="Y169">
+        <v>1.08</v>
+      </c>
+      <c r="Z169">
+        <v>1.62</v>
+      </c>
+      <c r="AA169">
+        <v>3.75</v>
+      </c>
+      <c r="AB169">
+        <v>4.75</v>
+      </c>
+      <c r="AC169">
+        <v>1.02</v>
+      </c>
+      <c r="AD169">
+        <v>8.9</v>
+      </c>
+      <c r="AE169">
+        <v>1.3</v>
+      </c>
+      <c r="AF169">
+        <v>3.3</v>
+      </c>
+      <c r="AG169">
+        <v>1.91</v>
+      </c>
+      <c r="AH169">
+        <v>1.8</v>
+      </c>
+      <c r="AI169">
+        <v>1.83</v>
+      </c>
+      <c r="AJ169">
+        <v>1.83</v>
+      </c>
+      <c r="AK169">
+        <v>1.12</v>
+      </c>
+      <c r="AL169">
+        <v>1.2</v>
+      </c>
+      <c r="AM169">
+        <v>2.2</v>
+      </c>
+      <c r="AN169">
+        <v>2.71</v>
+      </c>
+      <c r="AO169">
+        <v>1.14</v>
+      </c>
+      <c r="AP169">
+        <v>2.75</v>
+      </c>
+      <c r="AQ169">
+        <v>1</v>
+      </c>
+      <c r="AR169">
+        <v>1.82</v>
+      </c>
+      <c r="AS169">
+        <v>1.28</v>
+      </c>
+      <c r="AT169">
+        <v>3.1</v>
+      </c>
+      <c r="AU169">
+        <v>3</v>
+      </c>
+      <c r="AV169">
+        <v>8</v>
+      </c>
+      <c r="AW169">
+        <v>8</v>
+      </c>
+      <c r="AX169">
+        <v>7</v>
+      </c>
+      <c r="AY169">
+        <v>11</v>
+      </c>
+      <c r="AZ169">
+        <v>15</v>
+      </c>
+      <c r="BA169">
+        <v>2</v>
+      </c>
+      <c r="BB169">
+        <v>5</v>
+      </c>
+      <c r="BC169">
+        <v>7</v>
+      </c>
+      <c r="BD169">
+        <v>1.51</v>
+      </c>
+      <c r="BE169">
+        <v>8.5</v>
+      </c>
+      <c r="BF169">
+        <v>3.16</v>
+      </c>
+      <c r="BG169">
+        <v>1.29</v>
+      </c>
+      <c r="BH169">
+        <v>3.3</v>
+      </c>
+      <c r="BI169">
+        <v>1.44</v>
+      </c>
+      <c r="BJ169">
+        <v>2.5</v>
+      </c>
+      <c r="BK169">
+        <v>1.88</v>
+      </c>
+      <c r="BL169">
+        <v>1.92</v>
+      </c>
+      <c r="BM169">
+        <v>2.28</v>
+      </c>
+      <c r="BN169">
+        <v>1.53</v>
+      </c>
+      <c r="BO169">
+        <v>3.1</v>
+      </c>
+      <c r="BP169">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7331092</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45438.08333333334</v>
+      </c>
+      <c r="F170">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>76</v>
+      </c>
+      <c r="H170" t="s">
+        <v>88</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>92</v>
+      </c>
+      <c r="P170" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q170">
+        <v>3.1</v>
+      </c>
+      <c r="R170">
+        <v>2.1</v>
+      </c>
+      <c r="S170">
+        <v>3.5</v>
+      </c>
+      <c r="T170">
+        <v>1.4</v>
+      </c>
+      <c r="U170">
+        <v>2.75</v>
+      </c>
+      <c r="V170">
+        <v>3</v>
+      </c>
+      <c r="W170">
+        <v>1.36</v>
+      </c>
+      <c r="X170">
+        <v>8</v>
+      </c>
+      <c r="Y170">
+        <v>1.08</v>
+      </c>
+      <c r="Z170">
+        <v>2.5</v>
+      </c>
+      <c r="AA170">
+        <v>3.1</v>
+      </c>
+      <c r="AB170">
+        <v>2.63</v>
+      </c>
+      <c r="AC170">
+        <v>1.02</v>
+      </c>
+      <c r="AD170">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE170">
+        <v>1.3</v>
+      </c>
+      <c r="AF170">
+        <v>3.3</v>
+      </c>
+      <c r="AG170">
+        <v>1.91</v>
+      </c>
+      <c r="AH170">
+        <v>1.8</v>
+      </c>
+      <c r="AI170">
+        <v>1.73</v>
+      </c>
+      <c r="AJ170">
+        <v>2</v>
+      </c>
+      <c r="AK170">
+        <v>1.4</v>
+      </c>
+      <c r="AL170">
+        <v>1.28</v>
+      </c>
+      <c r="AM170">
+        <v>1.53</v>
+      </c>
+      <c r="AN170">
+        <v>0.78</v>
+      </c>
+      <c r="AO170">
+        <v>0.88</v>
+      </c>
+      <c r="AP170">
+        <v>0.7</v>
+      </c>
+      <c r="AQ170">
+        <v>1.11</v>
+      </c>
+      <c r="AR170">
+        <v>1.55</v>
+      </c>
+      <c r="AS170">
+        <v>1.38</v>
+      </c>
+      <c r="AT170">
+        <v>2.93</v>
+      </c>
+      <c r="AU170">
+        <v>4</v>
+      </c>
+      <c r="AV170">
+        <v>2</v>
+      </c>
+      <c r="AW170">
+        <v>4</v>
+      </c>
+      <c r="AX170">
+        <v>7</v>
+      </c>
+      <c r="AY170">
+        <v>8</v>
+      </c>
+      <c r="AZ170">
+        <v>9</v>
+      </c>
+      <c r="BA170">
+        <v>7</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>7</v>
+      </c>
+      <c r="BD170">
+        <v>1.64</v>
+      </c>
+      <c r="BE170">
+        <v>8</v>
+      </c>
+      <c r="BF170">
+        <v>2.67</v>
+      </c>
+      <c r="BG170">
+        <v>1.29</v>
+      </c>
+      <c r="BH170">
+        <v>3.4</v>
+      </c>
+      <c r="BI170">
+        <v>1.41</v>
+      </c>
+      <c r="BJ170">
+        <v>2.6</v>
+      </c>
+      <c r="BK170">
+        <v>1.73</v>
+      </c>
+      <c r="BL170">
+        <v>1.95</v>
+      </c>
+      <c r="BM170">
+        <v>2.19</v>
+      </c>
+      <c r="BN170">
+        <v>1.57</v>
+      </c>
+      <c r="BO170">
+        <v>3</v>
+      </c>
+      <c r="BP170">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7331093</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45438.08333333334</v>
+      </c>
+      <c r="F171">
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>79</v>
+      </c>
+      <c r="H171" t="s">
+        <v>84</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171" t="s">
+        <v>92</v>
+      </c>
+      <c r="P171" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q171">
+        <v>3.4</v>
+      </c>
+      <c r="R171">
+        <v>2.05</v>
+      </c>
+      <c r="S171">
+        <v>3.4</v>
+      </c>
+      <c r="T171">
+        <v>1.44</v>
+      </c>
+      <c r="U171">
+        <v>2.63</v>
+      </c>
+      <c r="V171">
+        <v>3.4</v>
+      </c>
+      <c r="W171">
+        <v>1.3</v>
+      </c>
+      <c r="X171">
+        <v>10</v>
+      </c>
+      <c r="Y171">
+        <v>1.06</v>
+      </c>
+      <c r="Z171">
+        <v>2.5</v>
+      </c>
+      <c r="AA171">
+        <v>3</v>
+      </c>
+      <c r="AB171">
+        <v>2.6</v>
+      </c>
+      <c r="AC171">
+        <v>1.04</v>
+      </c>
+      <c r="AD171">
+        <v>7.6</v>
+      </c>
+      <c r="AE171">
+        <v>1.36</v>
+      </c>
+      <c r="AF171">
+        <v>2.95</v>
+      </c>
+      <c r="AG171">
+        <v>2.2</v>
+      </c>
+      <c r="AH171">
+        <v>1.6</v>
+      </c>
+      <c r="AI171">
+        <v>1.83</v>
+      </c>
+      <c r="AJ171">
+        <v>1.83</v>
+      </c>
+      <c r="AK171">
+        <v>1.47</v>
+      </c>
+      <c r="AL171">
+        <v>1.28</v>
+      </c>
+      <c r="AM171">
+        <v>1.44</v>
+      </c>
+      <c r="AN171">
+        <v>1</v>
+      </c>
+      <c r="AO171">
+        <v>1.75</v>
+      </c>
+      <c r="AP171">
+        <v>1</v>
+      </c>
+      <c r="AQ171">
+        <v>1.67</v>
+      </c>
+      <c r="AR171">
+        <v>1.43</v>
+      </c>
+      <c r="AS171">
+        <v>1.49</v>
+      </c>
+      <c r="AT171">
+        <v>2.92</v>
+      </c>
+      <c r="AU171">
+        <v>2</v>
+      </c>
+      <c r="AV171">
+        <v>4</v>
+      </c>
+      <c r="AW171">
+        <v>2</v>
+      </c>
+      <c r="AX171">
+        <v>6</v>
+      </c>
+      <c r="AY171">
+        <v>4</v>
+      </c>
+      <c r="AZ171">
+        <v>10</v>
+      </c>
+      <c r="BA171">
+        <v>3</v>
+      </c>
+      <c r="BB171">
+        <v>4</v>
+      </c>
+      <c r="BC171">
+        <v>7</v>
+      </c>
+      <c r="BD171">
+        <v>1.82</v>
+      </c>
+      <c r="BE171">
+        <v>8</v>
+      </c>
+      <c r="BF171">
+        <v>2.33</v>
+      </c>
+      <c r="BG171">
+        <v>1.33</v>
+      </c>
+      <c r="BH171">
+        <v>3</v>
+      </c>
+      <c r="BI171">
+        <v>1.48</v>
+      </c>
+      <c r="BJ171">
+        <v>2.47</v>
+      </c>
+      <c r="BK171">
+        <v>2</v>
+      </c>
+      <c r="BL171">
+        <v>1.8</v>
+      </c>
+      <c r="BM171">
+        <v>2.47</v>
+      </c>
+      <c r="BN171">
+        <v>1.48</v>
+      </c>
+      <c r="BO171">
+        <v>3.2</v>
+      </c>
+      <c r="BP171">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -601,7 +601,7 @@
     <t>['22']</t>
   </si>
   <si>
-    <t>['24', '54']</t>
+    <t>['24', '53']</t>
   </si>
   <si>
     <t>['52']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,18 @@
     <t>['24', '53']</t>
   </si>
   <si>
+    <t>['4', '71']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['18', '67']</t>
+  </si>
+  <si>
+    <t>['56', '90+6']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -845,6 +857,12 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['22', '54']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1671,7 +1689,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1749,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -1955,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>2.25</v>
@@ -2289,7 +2307,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2367,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ6">
         <v>1.11</v>
@@ -2701,7 +2719,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3113,7 +3131,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3194,7 +3212,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ10">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3397,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ11">
         <v>1.88</v>
@@ -3525,7 +3543,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3731,7 +3749,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3812,7 +3830,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ13">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -4015,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ14">
         <v>1.13</v>
@@ -4224,7 +4242,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ15">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4427,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ16">
         <v>1.56</v>
@@ -4636,7 +4654,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4842,7 +4860,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5173,7 +5191,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5379,7 +5397,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5585,7 +5603,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5791,7 +5809,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6075,7 +6093,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ24">
         <v>1.11</v>
@@ -6203,7 +6221,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6615,7 +6633,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -6693,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>1.75</v>
@@ -7027,7 +7045,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7233,7 +7251,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7439,7 +7457,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7645,7 +7663,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7723,10 +7741,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8138,7 +8156,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ34">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -8263,7 +8281,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8344,7 +8362,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8469,7 +8487,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8550,7 +8568,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -9087,7 +9105,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9293,7 +9311,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9499,7 +9517,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9989,7 +10007,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ43">
         <v>0.5600000000000001</v>
@@ -10195,7 +10213,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ44">
         <v>0.63</v>
@@ -10529,7 +10547,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10735,7 +10753,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10813,7 +10831,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ47">
         <v>2</v>
@@ -11353,7 +11371,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11559,7 +11577,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11765,7 +11783,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11971,7 +11989,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12052,7 +12070,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12258,7 +12276,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12589,7 +12607,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12667,7 +12685,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
         <v>1.43</v>
@@ -13288,7 +13306,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13413,7 +13431,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13619,7 +13637,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13700,7 +13718,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13825,7 +13843,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14855,7 +14873,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -14933,7 +14951,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ67">
         <v>1.88</v>
@@ -15139,10 +15157,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15679,7 +15697,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16091,7 +16109,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16297,7 +16315,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16503,7 +16521,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16584,7 +16602,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR75">
         <v>2.06</v>
@@ -16790,7 +16808,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ76">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR76">
         <v>1.19</v>
@@ -16915,7 +16933,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17327,7 +17345,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>2.8</v>
@@ -17533,7 +17551,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17614,7 +17632,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR80">
         <v>1.99</v>
@@ -17817,7 +17835,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ81">
         <v>0.5600000000000001</v>
@@ -17945,7 +17963,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18769,7 +18787,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18847,7 +18865,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ86">
         <v>1.67</v>
@@ -19181,7 +19199,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -19259,7 +19277,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>1.88</v>
@@ -19593,7 +19611,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19671,7 +19689,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ90">
         <v>1.44</v>
@@ -19799,7 +19817,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19880,7 +19898,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20005,7 +20023,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20083,7 +20101,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ92">
         <v>1.75</v>
@@ -20292,7 +20310,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR93">
         <v>1.45</v>
@@ -20623,7 +20641,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20829,7 +20847,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21035,7 +21053,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21322,7 +21340,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21525,7 +21543,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ99">
         <v>1.13</v>
@@ -21859,7 +21877,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21940,7 +21958,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ101">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR101">
         <v>1.63</v>
@@ -22349,10 +22367,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR103">
         <v>1.24</v>
@@ -22477,7 +22495,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22683,7 +22701,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22889,7 +22907,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q106">
         <v>2.73</v>
@@ -22970,7 +22988,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ106">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.44</v>
@@ -23095,7 +23113,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23173,7 +23191,7 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ107">
         <v>1.44</v>
@@ -23301,7 +23319,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23713,7 +23731,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23791,7 +23809,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ110">
         <v>1.67</v>
@@ -24125,7 +24143,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24331,7 +24349,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24537,7 +24555,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24824,7 +24842,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ115">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -24949,7 +24967,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25361,7 +25379,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26266,7 +26284,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ122">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26391,7 +26409,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26469,7 +26487,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
         <v>0.63</v>
@@ -26597,7 +26615,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26803,7 +26821,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27009,7 +27027,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27293,7 +27311,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27421,7 +27439,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27502,7 +27520,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27833,7 +27851,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28529,7 +28547,7 @@
         <v>2.33</v>
       </c>
       <c r="AP133">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ133">
         <v>2.25</v>
@@ -28657,7 +28675,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28738,7 +28756,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -28863,7 +28881,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29481,7 +29499,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29562,7 +29580,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ138">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -29687,7 +29705,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30177,7 +30195,7 @@
         <v>1.67</v>
       </c>
       <c r="AP141">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ141">
         <v>1.56</v>
@@ -30305,7 +30323,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30717,7 +30735,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31129,7 +31147,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31413,7 +31431,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
         <v>1.44</v>
@@ -31828,7 +31846,7 @@
         <v>2</v>
       </c>
       <c r="AQ149">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR149">
         <v>1.67</v>
@@ -31953,7 +31971,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32031,10 +32049,10 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ150">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -32159,7 +32177,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32365,7 +32383,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32649,7 +32667,7 @@
         <v>2.25</v>
       </c>
       <c r="AP153">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ153">
         <v>2</v>
@@ -32777,7 +32795,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -32855,10 +32873,10 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ154">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR154">
         <v>2.17</v>
@@ -33189,7 +33207,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33395,7 +33413,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33601,7 +33619,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33888,7 +33906,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ159">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AR159">
         <v>1.54</v>
@@ -34013,7 +34031,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34219,7 +34237,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34631,7 +34649,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34709,7 +34727,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163">
         <v>0.5600000000000001</v>
@@ -35043,7 +35061,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35249,7 +35267,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35330,7 +35348,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ166">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35455,7 +35473,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35661,7 +35679,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35742,7 +35760,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ168">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR168">
         <v>1.62</v>
@@ -35867,7 +35885,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36073,7 +36091,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36357,7 +36375,7 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ171">
         <v>1.67</v>
@@ -36436,6 +36454,830 @@
       </c>
       <c r="BP171">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7331094</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45444.08333333334</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>72</v>
+      </c>
+      <c r="H172" t="s">
+        <v>86</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>3</v>
+      </c>
+      <c r="O172" t="s">
+        <v>196</v>
+      </c>
+      <c r="P172" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q172">
+        <v>3.83</v>
+      </c>
+      <c r="R172">
+        <v>2.31</v>
+      </c>
+      <c r="S172">
+        <v>2.77</v>
+      </c>
+      <c r="T172">
+        <v>1.35</v>
+      </c>
+      <c r="U172">
+        <v>3.22</v>
+      </c>
+      <c r="V172">
+        <v>2.71</v>
+      </c>
+      <c r="W172">
+        <v>1.46</v>
+      </c>
+      <c r="X172">
+        <v>6.1</v>
+      </c>
+      <c r="Y172">
+        <v>1.09</v>
+      </c>
+      <c r="Z172">
+        <v>3.24</v>
+      </c>
+      <c r="AA172">
+        <v>3.52</v>
+      </c>
+      <c r="AB172">
+        <v>2.03</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>10</v>
+      </c>
+      <c r="AE172">
+        <v>1.22</v>
+      </c>
+      <c r="AF172">
+        <v>3.8</v>
+      </c>
+      <c r="AG172">
+        <v>1.75</v>
+      </c>
+      <c r="AH172">
+        <v>2</v>
+      </c>
+      <c r="AI172">
+        <v>1.61</v>
+      </c>
+      <c r="AJ172">
+        <v>2.25</v>
+      </c>
+      <c r="AK172">
+        <v>1.67</v>
+      </c>
+      <c r="AL172">
+        <v>1.26</v>
+      </c>
+      <c r="AM172">
+        <v>1.3</v>
+      </c>
+      <c r="AN172">
+        <v>1.33</v>
+      </c>
+      <c r="AO172">
+        <v>1.89</v>
+      </c>
+      <c r="AP172">
+        <v>1.5</v>
+      </c>
+      <c r="AQ172">
+        <v>1.7</v>
+      </c>
+      <c r="AR172">
+        <v>1.36</v>
+      </c>
+      <c r="AS172">
+        <v>1.53</v>
+      </c>
+      <c r="AT172">
+        <v>2.89</v>
+      </c>
+      <c r="AU172">
+        <v>5</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>4</v>
+      </c>
+      <c r="AX172">
+        <v>6</v>
+      </c>
+      <c r="AY172">
+        <v>9</v>
+      </c>
+      <c r="AZ172">
+        <v>11</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>5</v>
+      </c>
+      <c r="BC172">
+        <v>5</v>
+      </c>
+      <c r="BD172">
+        <v>2.28</v>
+      </c>
+      <c r="BE172">
+        <v>8</v>
+      </c>
+      <c r="BF172">
+        <v>1.85</v>
+      </c>
+      <c r="BG172">
+        <v>1.29</v>
+      </c>
+      <c r="BH172">
+        <v>3.3</v>
+      </c>
+      <c r="BI172">
+        <v>1.48</v>
+      </c>
+      <c r="BJ172">
+        <v>2.55</v>
+      </c>
+      <c r="BK172">
+        <v>2</v>
+      </c>
+      <c r="BL172">
+        <v>1.8</v>
+      </c>
+      <c r="BM172">
+        <v>2.26</v>
+      </c>
+      <c r="BN172">
+        <v>1.6</v>
+      </c>
+      <c r="BO172">
+        <v>2.9</v>
+      </c>
+      <c r="BP172">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7331095</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45444.08333333334</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>79</v>
+      </c>
+      <c r="H173" t="s">
+        <v>78</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>197</v>
+      </c>
+      <c r="P173" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>2</v>
+      </c>
+      <c r="S173">
+        <v>3.5</v>
+      </c>
+      <c r="T173">
+        <v>1.46</v>
+      </c>
+      <c r="U173">
+        <v>2.55</v>
+      </c>
+      <c r="V173">
+        <v>3.32</v>
+      </c>
+      <c r="W173">
+        <v>1.33</v>
+      </c>
+      <c r="X173">
+        <v>7.9</v>
+      </c>
+      <c r="Y173">
+        <v>1.05</v>
+      </c>
+      <c r="Z173">
+        <v>2.35</v>
+      </c>
+      <c r="AA173">
+        <v>3.15</v>
+      </c>
+      <c r="AB173">
+        <v>2.92</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>8</v>
+      </c>
+      <c r="AE173">
+        <v>1.38</v>
+      </c>
+      <c r="AF173">
+        <v>2.9</v>
+      </c>
+      <c r="AG173">
+        <v>2.2</v>
+      </c>
+      <c r="AH173">
+        <v>1.62</v>
+      </c>
+      <c r="AI173">
+        <v>1.9</v>
+      </c>
+      <c r="AJ173">
+        <v>1.85</v>
+      </c>
+      <c r="AK173">
+        <v>1.38</v>
+      </c>
+      <c r="AL173">
+        <v>1.28</v>
+      </c>
+      <c r="AM173">
+        <v>1.55</v>
+      </c>
+      <c r="AN173">
+        <v>1</v>
+      </c>
+      <c r="AO173">
+        <v>1.5</v>
+      </c>
+      <c r="AP173">
+        <v>0.9</v>
+      </c>
+      <c r="AQ173">
+        <v>1.67</v>
+      </c>
+      <c r="AR173">
+        <v>1.34</v>
+      </c>
+      <c r="AS173">
+        <v>1.26</v>
+      </c>
+      <c r="AT173">
+        <v>2.6</v>
+      </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>3</v>
+      </c>
+      <c r="AW173">
+        <v>4</v>
+      </c>
+      <c r="AX173">
+        <v>10</v>
+      </c>
+      <c r="AY173">
+        <v>10</v>
+      </c>
+      <c r="AZ173">
+        <v>13</v>
+      </c>
+      <c r="BA173">
+        <v>4</v>
+      </c>
+      <c r="BB173">
+        <v>7</v>
+      </c>
+      <c r="BC173">
+        <v>11</v>
+      </c>
+      <c r="BD173">
+        <v>1.69</v>
+      </c>
+      <c r="BE173">
+        <v>8</v>
+      </c>
+      <c r="BF173">
+        <v>2.62</v>
+      </c>
+      <c r="BG173">
+        <v>1.29</v>
+      </c>
+      <c r="BH173">
+        <v>3.3</v>
+      </c>
+      <c r="BI173">
+        <v>1.51</v>
+      </c>
+      <c r="BJ173">
+        <v>2.5</v>
+      </c>
+      <c r="BK173">
+        <v>1.98</v>
+      </c>
+      <c r="BL173">
+        <v>1.82</v>
+      </c>
+      <c r="BM173">
+        <v>2.34</v>
+      </c>
+      <c r="BN173">
+        <v>1.57</v>
+      </c>
+      <c r="BO173">
+        <v>2.9</v>
+      </c>
+      <c r="BP173">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7331096</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45444.25</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" t="s">
+        <v>75</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>198</v>
+      </c>
+      <c r="P174" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q174">
+        <v>2.55</v>
+      </c>
+      <c r="R174">
+        <v>2.08</v>
+      </c>
+      <c r="S174">
+        <v>4.31</v>
+      </c>
+      <c r="T174">
+        <v>1.4</v>
+      </c>
+      <c r="U174">
+        <v>2.96</v>
+      </c>
+      <c r="V174">
+        <v>3</v>
+      </c>
+      <c r="W174">
+        <v>1.39</v>
+      </c>
+      <c r="X174">
+        <v>7.2</v>
+      </c>
+      <c r="Y174">
+        <v>1.06</v>
+      </c>
+      <c r="Z174">
+        <v>1.93</v>
+      </c>
+      <c r="AA174">
+        <v>3.44</v>
+      </c>
+      <c r="AB174">
+        <v>3.62</v>
+      </c>
+      <c r="AC174">
+        <v>1.03</v>
+      </c>
+      <c r="AD174">
+        <v>9</v>
+      </c>
+      <c r="AE174">
+        <v>1.3</v>
+      </c>
+      <c r="AF174">
+        <v>3.2</v>
+      </c>
+      <c r="AG174">
+        <v>2.01</v>
+      </c>
+      <c r="AH174">
+        <v>1.78</v>
+      </c>
+      <c r="AI174">
+        <v>1.78</v>
+      </c>
+      <c r="AJ174">
+        <v>1.99</v>
+      </c>
+      <c r="AK174">
+        <v>1.26</v>
+      </c>
+      <c r="AL174">
+        <v>1.27</v>
+      </c>
+      <c r="AM174">
+        <v>1.74</v>
+      </c>
+      <c r="AN174">
+        <v>1.63</v>
+      </c>
+      <c r="AO174">
+        <v>1.67</v>
+      </c>
+      <c r="AP174">
+        <v>1.78</v>
+      </c>
+      <c r="AQ174">
+        <v>1.5</v>
+      </c>
+      <c r="AR174">
+        <v>2.17</v>
+      </c>
+      <c r="AS174">
+        <v>1.45</v>
+      </c>
+      <c r="AT174">
+        <v>3.62</v>
+      </c>
+      <c r="AU174">
+        <v>7</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>11</v>
+      </c>
+      <c r="AX174">
+        <v>6</v>
+      </c>
+      <c r="AY174">
+        <v>18</v>
+      </c>
+      <c r="AZ174">
+        <v>9</v>
+      </c>
+      <c r="BA174">
+        <v>3</v>
+      </c>
+      <c r="BB174">
+        <v>8</v>
+      </c>
+      <c r="BC174">
+        <v>11</v>
+      </c>
+      <c r="BD174">
+        <v>1.55</v>
+      </c>
+      <c r="BE174">
+        <v>8</v>
+      </c>
+      <c r="BF174">
+        <v>2.92</v>
+      </c>
+      <c r="BG174">
+        <v>1.29</v>
+      </c>
+      <c r="BH174">
+        <v>3.4</v>
+      </c>
+      <c r="BI174">
+        <v>1.41</v>
+      </c>
+      <c r="BJ174">
+        <v>2.7</v>
+      </c>
+      <c r="BK174">
+        <v>1.98</v>
+      </c>
+      <c r="BL174">
+        <v>1.82</v>
+      </c>
+      <c r="BM174">
+        <v>2.22</v>
+      </c>
+      <c r="BN174">
+        <v>1.59</v>
+      </c>
+      <c r="BO174">
+        <v>2.95</v>
+      </c>
+      <c r="BP174">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7331097</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45444.25</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>71</v>
+      </c>
+      <c r="H175" t="s">
+        <v>73</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>199</v>
+      </c>
+      <c r="P175" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q175">
+        <v>1.86</v>
+      </c>
+      <c r="R175">
+        <v>2.6</v>
+      </c>
+      <c r="S175">
+        <v>7.28</v>
+      </c>
+      <c r="T175">
+        <v>1.32</v>
+      </c>
+      <c r="U175">
+        <v>3.27</v>
+      </c>
+      <c r="V175">
+        <v>2.55</v>
+      </c>
+      <c r="W175">
+        <v>1.52</v>
+      </c>
+      <c r="X175">
+        <v>5.6</v>
+      </c>
+      <c r="Y175">
+        <v>1.11</v>
+      </c>
+      <c r="Z175">
+        <v>1.33</v>
+      </c>
+      <c r="AA175">
+        <v>4.85</v>
+      </c>
+      <c r="AB175">
+        <v>7.8</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>11</v>
+      </c>
+      <c r="AE175">
+        <v>1.2</v>
+      </c>
+      <c r="AF175">
+        <v>4</v>
+      </c>
+      <c r="AG175">
+        <v>1.62</v>
+      </c>
+      <c r="AH175">
+        <v>2.2</v>
+      </c>
+      <c r="AI175">
+        <v>1.86</v>
+      </c>
+      <c r="AJ175">
+        <v>1.9</v>
+      </c>
+      <c r="AK175">
+        <v>1.06</v>
+      </c>
+      <c r="AL175">
+        <v>1.15</v>
+      </c>
+      <c r="AM175">
+        <v>2.78</v>
+      </c>
+      <c r="AN175">
+        <v>2.13</v>
+      </c>
+      <c r="AO175">
+        <v>1.13</v>
+      </c>
+      <c r="AP175">
+        <v>2.22</v>
+      </c>
+      <c r="AQ175">
+        <v>1</v>
+      </c>
+      <c r="AR175">
+        <v>1.58</v>
+      </c>
+      <c r="AS175">
+        <v>1.44</v>
+      </c>
+      <c r="AT175">
+        <v>3.02</v>
+      </c>
+      <c r="AU175">
+        <v>9</v>
+      </c>
+      <c r="AV175">
+        <v>4</v>
+      </c>
+      <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>17</v>
+      </c>
+      <c r="AZ175">
+        <v>8</v>
+      </c>
+      <c r="BA175">
+        <v>13</v>
+      </c>
+      <c r="BB175">
+        <v>3</v>
+      </c>
+      <c r="BC175">
+        <v>16</v>
+      </c>
+      <c r="BD175">
+        <v>1.07</v>
+      </c>
+      <c r="BE175">
+        <v>15</v>
+      </c>
+      <c r="BF175">
+        <v>10.5</v>
+      </c>
+      <c r="BG175">
+        <v>1.22</v>
+      </c>
+      <c r="BH175">
+        <v>3.8</v>
+      </c>
+      <c r="BI175">
+        <v>1.33</v>
+      </c>
+      <c r="BJ175">
+        <v>3.05</v>
+      </c>
+      <c r="BK175">
+        <v>1.62</v>
+      </c>
+      <c r="BL175">
+        <v>2.15</v>
+      </c>
+      <c r="BM175">
+        <v>2</v>
+      </c>
+      <c r="BN175">
+        <v>1.72</v>
+      </c>
+      <c r="BO175">
+        <v>2.6</v>
+      </c>
+      <c r="BP175">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,15 @@
     <t>['56', '90+6']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['13', '27']</t>
+  </si>
+  <si>
+    <t>['47', '61']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -644,9 +653,6 @@
   </si>
   <si>
     <t>['11', '76']</t>
-  </si>
-  <si>
-    <t>['46']</t>
   </si>
   <si>
     <t>['56']</t>
@@ -863,6 +869,15 @@
   </si>
   <si>
     <t>['22', '54']</t>
+  </si>
+  <si>
+    <t>['6', '52']</t>
+  </si>
+  <si>
+    <t>['3', '63', '90+13']</t>
+  </si>
+  <si>
+    <t>['47', '55', '77']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1689,7 +1704,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1976,7 +1991,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2182,7 +2197,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2307,7 +2322,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2388,7 +2403,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ6">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2719,7 +2734,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2800,7 +2815,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3003,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AQ9">
         <v>0.5600000000000001</v>
@@ -3131,7 +3146,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3418,7 +3433,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ11">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3543,7 +3558,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3624,7 +3639,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3749,7 +3764,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3827,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1.7</v>
@@ -4651,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ17">
         <v>1.67</v>
@@ -4857,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -5063,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ19">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5191,7 +5206,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5397,7 +5412,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5475,10 +5490,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ21">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5603,7 +5618,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5684,7 +5699,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ22">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5809,7 +5824,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6096,7 +6111,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ24">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6221,7 +6236,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>2.8</v>
@@ -6299,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>0.5600000000000001</v>
@@ -6633,7 +6648,7 @@
         <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>3.5</v>
@@ -7045,7 +7060,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7126,7 +7141,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7251,7 +7266,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7332,7 +7347,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ30">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7457,7 +7472,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7535,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AQ31">
         <v>1.22</v>
@@ -7663,7 +7678,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8153,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8281,7 +8296,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8359,7 +8374,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>1.67</v>
@@ -8487,7 +8502,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8774,7 +8789,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8977,7 +8992,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ38">
         <v>1.56</v>
@@ -9105,7 +9120,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9183,7 +9198,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ39">
         <v>1.22</v>
@@ -9311,7 +9326,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9517,7 +9532,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9595,10 +9610,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ41">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -10547,7 +10562,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10753,7 +10768,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10834,7 +10849,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -11246,7 +11261,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR49">
         <v>1.94</v>
@@ -11371,7 +11386,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11452,7 +11467,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ50">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11577,7 +11592,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11783,7 +11798,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11861,7 +11876,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ52">
         <v>1.56</v>
@@ -11989,7 +12004,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12273,7 +12288,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12482,7 +12497,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12607,7 +12622,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12688,7 +12703,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12891,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -13097,10 +13112,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13431,7 +13446,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13509,7 +13524,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ60">
         <v>1.75</v>
@@ -13637,7 +13652,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13715,7 +13730,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13843,7 +13858,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14542,7 +14557,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR65">
         <v>1.29</v>
@@ -14745,7 +14760,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>0.5600000000000001</v>
@@ -14873,7 +14888,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -14954,7 +14969,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ67">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15697,7 +15712,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15775,10 +15790,10 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ71">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR71">
         <v>1.06</v>
@@ -15984,7 +15999,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16109,7 +16124,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16187,10 +16202,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
+        <v>1.78</v>
+      </c>
+      <c r="AQ73">
         <v>1.63</v>
-      </c>
-      <c r="AQ73">
-        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16315,7 +16330,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16521,7 +16536,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16805,7 +16820,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76">
         <v>1.7</v>
@@ -16933,7 +16948,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17011,7 +17026,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AQ77">
         <v>1.75</v>
@@ -17217,7 +17232,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
         <v>1.13</v>
@@ -17345,7 +17360,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>2.8</v>
@@ -17551,7 +17566,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17963,7 +17978,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18044,7 +18059,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ82">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -18453,7 +18468,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ84">
         <v>1.67</v>
@@ -18659,7 +18674,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AQ85">
         <v>1</v>
@@ -18787,7 +18802,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19074,7 +19089,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19199,7 +19214,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -19280,7 +19295,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19611,7 +19626,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19692,7 +19707,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ90">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR90">
         <v>1.34</v>
@@ -19817,7 +19832,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20023,7 +20038,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20516,7 +20531,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ94">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20641,7 +20656,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20719,7 +20734,7 @@
         <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>0.5600000000000001</v>
@@ -20847,7 +20862,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -20925,10 +20940,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21053,7 +21068,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21749,7 +21764,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ100">
         <v>0.63</v>
@@ -21877,7 +21892,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22164,7 +22179,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ102">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR102">
         <v>1.81</v>
@@ -22495,7 +22510,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22576,7 +22591,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ104">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -22701,7 +22716,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22907,7 +22922,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q106">
         <v>2.73</v>
@@ -23113,7 +23128,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23194,7 +23209,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR107">
         <v>2.24</v>
@@ -23319,7 +23334,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23397,7 +23412,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23731,7 +23746,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24015,7 +24030,7 @@
         <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ111">
         <v>0.5600000000000001</v>
@@ -24143,7 +24158,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24349,7 +24364,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24427,7 +24442,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
         <v>1.13</v>
@@ -24555,7 +24570,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24633,10 +24648,10 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AQ114">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -24967,7 +24982,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25254,7 +25269,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ117">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25379,7 +25394,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25663,7 +25678,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ119">
         <v>1.67</v>
@@ -25872,7 +25887,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ120">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26075,7 +26090,7 @@
         <v>1.6</v>
       </c>
       <c r="AP121">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ121">
         <v>1.67</v>
@@ -26409,7 +26424,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26615,7 +26630,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26821,7 +26836,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -26902,7 +26917,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR125">
         <v>1.64</v>
@@ -27027,7 +27042,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27439,7 +27454,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27851,7 +27866,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28135,7 +28150,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ131">
         <v>1.22</v>
@@ -28341,10 +28356,10 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ132">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR132">
         <v>1.72</v>
@@ -28550,7 +28565,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ133">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28675,7 +28690,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28881,7 +28896,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -28959,10 +28974,10 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ135">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29165,7 +29180,7 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ136">
         <v>1.13</v>
@@ -29371,10 +29386,10 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29499,7 +29514,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29705,7 +29720,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -29783,10 +29798,10 @@
         <v>2.14</v>
       </c>
       <c r="AP139">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AQ139">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR139">
         <v>1.17</v>
@@ -30323,7 +30338,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30735,7 +30750,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -30813,7 +30828,7 @@
         <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ144">
         <v>1.67</v>
@@ -31147,7 +31162,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31434,7 +31449,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31971,7 +31986,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32177,7 +32192,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32383,7 +32398,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32464,7 +32479,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ152">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -32670,7 +32685,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ153">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AR153">
         <v>1.55</v>
@@ -32795,7 +32810,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33079,7 +33094,7 @@
         <v>1.86</v>
       </c>
       <c r="AP155">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ155">
         <v>1.75</v>
@@ -33207,7 +33222,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33288,7 +33303,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ156">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33413,7 +33428,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33491,7 +33506,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="AQ157">
         <v>1.67</v>
@@ -33619,7 +33634,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33697,10 +33712,10 @@
         <v>2.14</v>
       </c>
       <c r="AP158">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ158">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR158">
         <v>1.41</v>
@@ -34031,7 +34046,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34109,7 +34124,7 @@
         <v>1.29</v>
       </c>
       <c r="AP160">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ160">
         <v>1.13</v>
@@ -34237,7 +34252,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34315,10 +34330,10 @@
         <v>1.71</v>
       </c>
       <c r="AP161">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ161">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AR161">
         <v>1.13</v>
@@ -34649,7 +34664,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35061,7 +35076,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35267,7 +35282,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35473,7 +35488,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35679,7 +35694,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35757,7 +35772,7 @@
         <v>1.57</v>
       </c>
       <c r="AP168">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ168">
         <v>1.67</v>
@@ -35885,7 +35900,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36091,7 +36106,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36172,7 +36187,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ170">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR170">
         <v>1.55</v>
@@ -36503,7 +36518,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36709,7 +36724,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36915,7 +36930,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37278,6 +37293,1242 @@
       </c>
       <c r="BP175">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7331098</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45445.04166666666</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>83</v>
+      </c>
+      <c r="H176" t="s">
+        <v>87</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>200</v>
+      </c>
+      <c r="P176" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q176">
+        <v>2.82</v>
+      </c>
+      <c r="R176">
+        <v>1.92</v>
+      </c>
+      <c r="S176">
+        <v>4.15</v>
+      </c>
+      <c r="T176">
+        <v>1.5</v>
+      </c>
+      <c r="U176">
+        <v>2.48</v>
+      </c>
+      <c r="V176">
+        <v>3.2</v>
+      </c>
+      <c r="W176">
+        <v>1.32</v>
+      </c>
+      <c r="X176">
+        <v>7.6</v>
+      </c>
+      <c r="Y176">
+        <v>1.05</v>
+      </c>
+      <c r="Z176">
+        <v>2.09</v>
+      </c>
+      <c r="AA176">
+        <v>3.08</v>
+      </c>
+      <c r="AB176">
+        <v>3.27</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>7.1</v>
+      </c>
+      <c r="AE176">
+        <v>1.36</v>
+      </c>
+      <c r="AF176">
+        <v>2.79</v>
+      </c>
+      <c r="AG176">
+        <v>2.09</v>
+      </c>
+      <c r="AH176">
+        <v>1.69</v>
+      </c>
+      <c r="AI176">
+        <v>1.86</v>
+      </c>
+      <c r="AJ176">
+        <v>1.8</v>
+      </c>
+      <c r="AK176">
+        <v>1.3</v>
+      </c>
+      <c r="AL176">
+        <v>1.33</v>
+      </c>
+      <c r="AM176">
+        <v>1.65</v>
+      </c>
+      <c r="AN176">
+        <v>1.5</v>
+      </c>
+      <c r="AO176">
+        <v>1.88</v>
+      </c>
+      <c r="AP176">
+        <v>1.33</v>
+      </c>
+      <c r="AQ176">
+        <v>2</v>
+      </c>
+      <c r="AR176">
+        <v>1.56</v>
+      </c>
+      <c r="AS176">
+        <v>1.25</v>
+      </c>
+      <c r="AT176">
+        <v>2.81</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>4</v>
+      </c>
+      <c r="AW176">
+        <v>10</v>
+      </c>
+      <c r="AX176">
+        <v>2</v>
+      </c>
+      <c r="AY176">
+        <v>15</v>
+      </c>
+      <c r="AZ176">
+        <v>6</v>
+      </c>
+      <c r="BA176">
+        <v>8</v>
+      </c>
+      <c r="BB176">
+        <v>3</v>
+      </c>
+      <c r="BC176">
+        <v>11</v>
+      </c>
+      <c r="BD176">
+        <v>1.64</v>
+      </c>
+      <c r="BE176">
+        <v>8</v>
+      </c>
+      <c r="BF176">
+        <v>2.77</v>
+      </c>
+      <c r="BG176">
+        <v>1.29</v>
+      </c>
+      <c r="BH176">
+        <v>3.3</v>
+      </c>
+      <c r="BI176">
+        <v>1.54</v>
+      </c>
+      <c r="BJ176">
+        <v>2.32</v>
+      </c>
+      <c r="BK176">
+        <v>1.95</v>
+      </c>
+      <c r="BL176">
+        <v>1.85</v>
+      </c>
+      <c r="BM176">
+        <v>2.55</v>
+      </c>
+      <c r="BN176">
+        <v>1.45</v>
+      </c>
+      <c r="BO176">
+        <v>3.3</v>
+      </c>
+      <c r="BP176">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7331102</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45445.08333333334</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>82</v>
+      </c>
+      <c r="H177" t="s">
+        <v>89</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177" t="s">
+        <v>92</v>
+      </c>
+      <c r="P177" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q177">
+        <v>3.75</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>3.25</v>
+      </c>
+      <c r="T177">
+        <v>1.53</v>
+      </c>
+      <c r="U177">
+        <v>2.38</v>
+      </c>
+      <c r="V177">
+        <v>3.5</v>
+      </c>
+      <c r="W177">
+        <v>1.29</v>
+      </c>
+      <c r="X177">
+        <v>11</v>
+      </c>
+      <c r="Y177">
+        <v>1.05</v>
+      </c>
+      <c r="Z177">
+        <v>2.75</v>
+      </c>
+      <c r="AA177">
+        <v>3.1</v>
+      </c>
+      <c r="AB177">
+        <v>2.45</v>
+      </c>
+      <c r="AC177">
+        <v>1.09</v>
+      </c>
+      <c r="AD177">
+        <v>6.2</v>
+      </c>
+      <c r="AE177">
+        <v>1.42</v>
+      </c>
+      <c r="AF177">
+        <v>2.65</v>
+      </c>
+      <c r="AG177">
+        <v>2.1</v>
+      </c>
+      <c r="AH177">
+        <v>1.69</v>
+      </c>
+      <c r="AI177">
+        <v>2</v>
+      </c>
+      <c r="AJ177">
+        <v>1.73</v>
+      </c>
+      <c r="AK177">
+        <v>1.5</v>
+      </c>
+      <c r="AL177">
+        <v>1.4</v>
+      </c>
+      <c r="AM177">
+        <v>1.36</v>
+      </c>
+      <c r="AN177">
+        <v>1.13</v>
+      </c>
+      <c r="AO177">
+        <v>1.44</v>
+      </c>
+      <c r="AP177">
+        <v>1.11</v>
+      </c>
+      <c r="AQ177">
+        <v>1.4</v>
+      </c>
+      <c r="AR177">
+        <v>1.37</v>
+      </c>
+      <c r="AS177">
+        <v>1.46</v>
+      </c>
+      <c r="AT177">
+        <v>2.83</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>0</v>
+      </c>
+      <c r="AW177">
+        <v>7</v>
+      </c>
+      <c r="AX177">
+        <v>7</v>
+      </c>
+      <c r="AY177">
+        <v>10</v>
+      </c>
+      <c r="AZ177">
+        <v>7</v>
+      </c>
+      <c r="BA177">
+        <v>9</v>
+      </c>
+      <c r="BB177">
+        <v>5</v>
+      </c>
+      <c r="BC177">
+        <v>14</v>
+      </c>
+      <c r="BD177">
+        <v>2</v>
+      </c>
+      <c r="BE177">
+        <v>8</v>
+      </c>
+      <c r="BF177">
+        <v>2.05</v>
+      </c>
+      <c r="BG177">
+        <v>1.2</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>1.29</v>
+      </c>
+      <c r="BJ177">
+        <v>3.3</v>
+      </c>
+      <c r="BK177">
+        <v>1.53</v>
+      </c>
+      <c r="BL177">
+        <v>2.28</v>
+      </c>
+      <c r="BM177">
+        <v>1.88</v>
+      </c>
+      <c r="BN177">
+        <v>1.78</v>
+      </c>
+      <c r="BO177">
+        <v>2.42</v>
+      </c>
+      <c r="BP177">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7331101</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45445.08333333334</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>84</v>
+      </c>
+      <c r="H178" t="s">
+        <v>81</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>201</v>
+      </c>
+      <c r="P178" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q178">
+        <v>4.33</v>
+      </c>
+      <c r="R178">
+        <v>2.1</v>
+      </c>
+      <c r="S178">
+        <v>2.63</v>
+      </c>
+      <c r="T178">
+        <v>1.4</v>
+      </c>
+      <c r="U178">
+        <v>2.75</v>
+      </c>
+      <c r="V178">
+        <v>3</v>
+      </c>
+      <c r="W178">
+        <v>1.36</v>
+      </c>
+      <c r="X178">
+        <v>8</v>
+      </c>
+      <c r="Y178">
+        <v>1.08</v>
+      </c>
+      <c r="Z178">
+        <v>3.7</v>
+      </c>
+      <c r="AA178">
+        <v>3.35</v>
+      </c>
+      <c r="AB178">
+        <v>1.91</v>
+      </c>
+      <c r="AC178">
+        <v>1.03</v>
+      </c>
+      <c r="AD178">
+        <v>8.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.28</v>
+      </c>
+      <c r="AF178">
+        <v>3.3</v>
+      </c>
+      <c r="AG178">
+        <v>1.99</v>
+      </c>
+      <c r="AH178">
+        <v>1.79</v>
+      </c>
+      <c r="AI178">
+        <v>1.8</v>
+      </c>
+      <c r="AJ178">
+        <v>1.95</v>
+      </c>
+      <c r="AK178">
+        <v>1.8</v>
+      </c>
+      <c r="AL178">
+        <v>1.3</v>
+      </c>
+      <c r="AM178">
+        <v>1.25</v>
+      </c>
+      <c r="AN178">
+        <v>1.63</v>
+      </c>
+      <c r="AO178">
+        <v>2</v>
+      </c>
+      <c r="AP178">
+        <v>1.78</v>
+      </c>
+      <c r="AQ178">
+        <v>1.8</v>
+      </c>
+      <c r="AR178">
+        <v>1.66</v>
+      </c>
+      <c r="AS178">
+        <v>1.47</v>
+      </c>
+      <c r="AT178">
+        <v>3.13</v>
+      </c>
+      <c r="AU178">
+        <v>4</v>
+      </c>
+      <c r="AV178">
+        <v>2</v>
+      </c>
+      <c r="AW178">
+        <v>6</v>
+      </c>
+      <c r="AX178">
+        <v>6</v>
+      </c>
+      <c r="AY178">
+        <v>10</v>
+      </c>
+      <c r="AZ178">
+        <v>8</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>9</v>
+      </c>
+      <c r="BC178">
+        <v>13</v>
+      </c>
+      <c r="BD178">
+        <v>2.2</v>
+      </c>
+      <c r="BE178">
+        <v>8</v>
+      </c>
+      <c r="BF178">
+        <v>1.91</v>
+      </c>
+      <c r="BG178">
+        <v>1.29</v>
+      </c>
+      <c r="BH178">
+        <v>3.3</v>
+      </c>
+      <c r="BI178">
+        <v>1.44</v>
+      </c>
+      <c r="BJ178">
+        <v>2.5</v>
+      </c>
+      <c r="BK178">
+        <v>1.92</v>
+      </c>
+      <c r="BL178">
+        <v>1.88</v>
+      </c>
+      <c r="BM178">
+        <v>2.28</v>
+      </c>
+      <c r="BN178">
+        <v>1.53</v>
+      </c>
+      <c r="BO178">
+        <v>3.1</v>
+      </c>
+      <c r="BP178">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7331099</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45445.08333333334</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>70</v>
+      </c>
+      <c r="H179" t="s">
+        <v>80</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>3</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179" t="s">
+        <v>202</v>
+      </c>
+      <c r="P179" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q179">
+        <v>3.56</v>
+      </c>
+      <c r="R179">
+        <v>2.08</v>
+      </c>
+      <c r="S179">
+        <v>2.81</v>
+      </c>
+      <c r="T179">
+        <v>1.35</v>
+      </c>
+      <c r="U179">
+        <v>2.85</v>
+      </c>
+      <c r="V179">
+        <v>2.75</v>
+      </c>
+      <c r="W179">
+        <v>1.37</v>
+      </c>
+      <c r="X179">
+        <v>6.5</v>
+      </c>
+      <c r="Y179">
+        <v>1.07</v>
+      </c>
+      <c r="Z179">
+        <v>2.95</v>
+      </c>
+      <c r="AA179">
+        <v>3.3</v>
+      </c>
+      <c r="AB179">
+        <v>2.25</v>
+      </c>
+      <c r="AC179">
+        <v>1.02</v>
+      </c>
+      <c r="AD179">
+        <v>8.9</v>
+      </c>
+      <c r="AE179">
+        <v>1.28</v>
+      </c>
+      <c r="AF179">
+        <v>3.2</v>
+      </c>
+      <c r="AG179">
+        <v>2.06</v>
+      </c>
+      <c r="AH179">
+        <v>1.78</v>
+      </c>
+      <c r="AI179">
+        <v>1.73</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>1.6</v>
+      </c>
+      <c r="AL179">
+        <v>1.3</v>
+      </c>
+      <c r="AM179">
+        <v>1.36</v>
+      </c>
+      <c r="AN179">
+        <v>1.11</v>
+      </c>
+      <c r="AO179">
+        <v>2.25</v>
+      </c>
+      <c r="AP179">
+        <v>1</v>
+      </c>
+      <c r="AQ179">
+        <v>2.33</v>
+      </c>
+      <c r="AR179">
+        <v>1.55</v>
+      </c>
+      <c r="AS179">
+        <v>1.66</v>
+      </c>
+      <c r="AT179">
+        <v>3.21</v>
+      </c>
+      <c r="AU179">
+        <v>5</v>
+      </c>
+      <c r="AV179">
+        <v>10</v>
+      </c>
+      <c r="AW179">
+        <v>5</v>
+      </c>
+      <c r="AX179">
+        <v>7</v>
+      </c>
+      <c r="AY179">
+        <v>10</v>
+      </c>
+      <c r="AZ179">
+        <v>17</v>
+      </c>
+      <c r="BA179">
+        <v>2</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>8</v>
+      </c>
+      <c r="BD179">
+        <v>1.82</v>
+      </c>
+      <c r="BE179">
+        <v>8</v>
+      </c>
+      <c r="BF179">
+        <v>2.39</v>
+      </c>
+      <c r="BG179">
+        <v>1.33</v>
+      </c>
+      <c r="BH179">
+        <v>3</v>
+      </c>
+      <c r="BI179">
+        <v>1.5</v>
+      </c>
+      <c r="BJ179">
+        <v>2.4</v>
+      </c>
+      <c r="BK179">
+        <v>1.94</v>
+      </c>
+      <c r="BL179">
+        <v>1.77</v>
+      </c>
+      <c r="BM179">
+        <v>2.5</v>
+      </c>
+      <c r="BN179">
+        <v>1.47</v>
+      </c>
+      <c r="BO179">
+        <v>3.1</v>
+      </c>
+      <c r="BP179">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7331100</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45445.08333333334</v>
+      </c>
+      <c r="F180">
+        <v>18</v>
+      </c>
+      <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="s">
+        <v>88</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>92</v>
+      </c>
+      <c r="P180" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q180">
+        <v>4.5</v>
+      </c>
+      <c r="R180">
+        <v>2.05</v>
+      </c>
+      <c r="S180">
+        <v>2.63</v>
+      </c>
+      <c r="T180">
+        <v>1.44</v>
+      </c>
+      <c r="U180">
+        <v>2.63</v>
+      </c>
+      <c r="V180">
+        <v>3.25</v>
+      </c>
+      <c r="W180">
+        <v>1.33</v>
+      </c>
+      <c r="X180">
+        <v>10</v>
+      </c>
+      <c r="Y180">
+        <v>1.06</v>
+      </c>
+      <c r="Z180">
+        <v>3.6</v>
+      </c>
+      <c r="AA180">
+        <v>3.25</v>
+      </c>
+      <c r="AB180">
+        <v>1.95</v>
+      </c>
+      <c r="AC180">
+        <v>1.03</v>
+      </c>
+      <c r="AD180">
+        <v>7.9</v>
+      </c>
+      <c r="AE180">
+        <v>1.34</v>
+      </c>
+      <c r="AF180">
+        <v>2.88</v>
+      </c>
+      <c r="AG180">
+        <v>2.12</v>
+      </c>
+      <c r="AH180">
+        <v>1.67</v>
+      </c>
+      <c r="AI180">
+        <v>1.91</v>
+      </c>
+      <c r="AJ180">
+        <v>1.8</v>
+      </c>
+      <c r="AK180">
+        <v>1.75</v>
+      </c>
+      <c r="AL180">
+        <v>1.33</v>
+      </c>
+      <c r="AM180">
+        <v>1.22</v>
+      </c>
+      <c r="AN180">
+        <v>0.22</v>
+      </c>
+      <c r="AO180">
+        <v>1.11</v>
+      </c>
+      <c r="AP180">
+        <v>0.3</v>
+      </c>
+      <c r="AQ180">
+        <v>1.1</v>
+      </c>
+      <c r="AR180">
+        <v>1.08</v>
+      </c>
+      <c r="AS180">
+        <v>1.34</v>
+      </c>
+      <c r="AT180">
+        <v>2.42</v>
+      </c>
+      <c r="AU180">
+        <v>2</v>
+      </c>
+      <c r="AV180">
+        <v>6</v>
+      </c>
+      <c r="AW180">
+        <v>2</v>
+      </c>
+      <c r="AX180">
+        <v>6</v>
+      </c>
+      <c r="AY180">
+        <v>4</v>
+      </c>
+      <c r="AZ180">
+        <v>12</v>
+      </c>
+      <c r="BA180">
+        <v>9</v>
+      </c>
+      <c r="BB180">
+        <v>11</v>
+      </c>
+      <c r="BC180">
+        <v>20</v>
+      </c>
+      <c r="BD180">
+        <v>2.39</v>
+      </c>
+      <c r="BE180">
+        <v>8</v>
+      </c>
+      <c r="BF180">
+        <v>1.82</v>
+      </c>
+      <c r="BG180">
+        <v>1.22</v>
+      </c>
+      <c r="BH180">
+        <v>3.8</v>
+      </c>
+      <c r="BI180">
+        <v>1.36</v>
+      </c>
+      <c r="BJ180">
+        <v>2.9</v>
+      </c>
+      <c r="BK180">
+        <v>1.88</v>
+      </c>
+      <c r="BL180">
+        <v>1.92</v>
+      </c>
+      <c r="BM180">
+        <v>2.04</v>
+      </c>
+      <c r="BN180">
+        <v>1.66</v>
+      </c>
+      <c r="BO180">
+        <v>2.67</v>
+      </c>
+      <c r="BP180">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7331103</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45445.20833333334</v>
+      </c>
+      <c r="F181">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s">
+        <v>85</v>
+      </c>
+      <c r="H181" t="s">
+        <v>76</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>3</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181" t="s">
+        <v>106</v>
+      </c>
+      <c r="P181" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q181">
+        <v>4.05</v>
+      </c>
+      <c r="R181">
+        <v>2.01</v>
+      </c>
+      <c r="S181">
+        <v>2.69</v>
+      </c>
+      <c r="T181">
+        <v>1.45</v>
+      </c>
+      <c r="U181">
+        <v>2.63</v>
+      </c>
+      <c r="V181">
+        <v>3.12</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>7.6</v>
+      </c>
+      <c r="Y181">
+        <v>1.05</v>
+      </c>
+      <c r="Z181">
+        <v>3.22</v>
+      </c>
+      <c r="AA181">
+        <v>3.15</v>
+      </c>
+      <c r="AB181">
+        <v>2.11</v>
+      </c>
+      <c r="AC181">
+        <v>1.04</v>
+      </c>
+      <c r="AD181">
+        <v>7.8</v>
+      </c>
+      <c r="AE181">
+        <v>1.35</v>
+      </c>
+      <c r="AF181">
+        <v>2.84</v>
+      </c>
+      <c r="AG181">
+        <v>2.12</v>
+      </c>
+      <c r="AH181">
+        <v>1.67</v>
+      </c>
+      <c r="AI181">
+        <v>1.86</v>
+      </c>
+      <c r="AJ181">
+        <v>1.8</v>
+      </c>
+      <c r="AK181">
+        <v>1.65</v>
+      </c>
+      <c r="AL181">
+        <v>1.35</v>
+      </c>
+      <c r="AM181">
+        <v>1.29</v>
+      </c>
+      <c r="AN181">
+        <v>1</v>
+      </c>
+      <c r="AO181">
+        <v>1.43</v>
+      </c>
+      <c r="AP181">
+        <v>0.89</v>
+      </c>
+      <c r="AQ181">
+        <v>1.63</v>
+      </c>
+      <c r="AR181">
+        <v>1.17</v>
+      </c>
+      <c r="AS181">
+        <v>1.66</v>
+      </c>
+      <c r="AT181">
+        <v>2.83</v>
+      </c>
+      <c r="AU181">
+        <v>3</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>11</v>
+      </c>
+      <c r="AX181">
+        <v>5</v>
+      </c>
+      <c r="AY181">
+        <v>14</v>
+      </c>
+      <c r="AZ181">
+        <v>10</v>
+      </c>
+      <c r="BA181">
+        <v>3</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>6</v>
+      </c>
+      <c r="BD181">
+        <v>2.8</v>
+      </c>
+      <c r="BE181">
+        <v>8</v>
+      </c>
+      <c r="BF181">
+        <v>1.59</v>
+      </c>
+      <c r="BG181">
+        <v>1.33</v>
+      </c>
+      <c r="BH181">
+        <v>3</v>
+      </c>
+      <c r="BI181">
+        <v>1.53</v>
+      </c>
+      <c r="BJ181">
+        <v>2.28</v>
+      </c>
+      <c r="BK181">
+        <v>2</v>
+      </c>
+      <c r="BL181">
+        <v>1.8</v>
+      </c>
+      <c r="BM181">
+        <v>2.51</v>
+      </c>
+      <c r="BN181">
+        <v>1.44</v>
+      </c>
+      <c r="BO181">
+        <v>3.2</v>
+      </c>
+      <c r="BP181">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,18 @@
     <t>['47', '61']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -680,9 +692,6 @@
   </si>
   <si>
     <t>['32']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['44', '80', '90+1']</t>
@@ -853,9 +862,6 @@
     <t>['20', '46', '69', '76']</t>
   </si>
   <si>
-    <t>['73']</t>
-  </si>
-  <si>
     <t>['45+3']</t>
   </si>
   <si>
@@ -878,6 +884,21 @@
   </si>
   <si>
     <t>['47', '55', '77']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['45+4', '79']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +1725,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2194,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5">
         <v>1.4</v>
@@ -2322,7 +2343,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2606,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7">
         <v>0.5600000000000001</v>
@@ -2734,7 +2755,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3021,7 +3042,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ9">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3146,7 +3167,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3224,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ10">
         <v>1.7</v>
@@ -3433,7 +3454,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3558,7 +3579,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3639,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3764,7 +3785,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4051,7 +4072,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4254,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4463,7 +4484,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -5078,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ19">
         <v>1.4</v>
@@ -5206,7 +5227,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5287,7 +5308,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ20">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5412,7 +5433,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5490,7 +5511,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ21">
         <v>1.1</v>
@@ -5618,7 +5639,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5696,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ22">
         <v>1.4</v>
@@ -5824,7 +5845,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5902,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
         <v>0.5600000000000001</v>
@@ -6317,7 +6338,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6523,7 +6544,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6729,7 +6750,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -6932,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ28">
         <v>1.67</v>
@@ -7060,7 +7081,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7266,7 +7287,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7344,10 +7365,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ30">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7472,7 +7493,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7553,7 +7574,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7678,7 +7699,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7962,10 +7983,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -8296,7 +8317,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8502,7 +8523,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8580,7 +8601,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ36">
         <v>1.7</v>
@@ -8786,10 +8807,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8992,10 +9013,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9120,7 +9141,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9201,7 +9222,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ39">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9326,7 +9347,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9532,7 +9553,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9610,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ41">
         <v>2.33</v>
@@ -9816,10 +9837,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR42">
         <v>2.12</v>
@@ -10025,7 +10046,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ43">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -10231,7 +10252,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ44">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10434,7 +10455,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45">
         <v>1.67</v>
@@ -10562,7 +10583,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10640,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10768,7 +10789,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11052,7 +11073,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48">
         <v>0.5600000000000001</v>
@@ -11261,7 +11282,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ49">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR49">
         <v>1.94</v>
@@ -11386,7 +11407,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11464,7 +11485,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ50">
         <v>2.33</v>
@@ -11592,7 +11613,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11670,7 +11691,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -11798,7 +11819,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11879,7 +11900,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ52">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -12004,7 +12025,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12288,7 +12309,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12494,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ55">
         <v>1.4</v>
@@ -12622,7 +12643,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12703,7 +12724,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12909,7 +12930,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -13446,7 +13467,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13524,10 +13545,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13652,7 +13673,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13858,7 +13879,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13936,7 +13957,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ62">
         <v>1.67</v>
@@ -14142,10 +14163,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ63">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR63">
         <v>1.03</v>
@@ -14348,7 +14369,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ64">
         <v>1.67</v>
@@ -14554,7 +14575,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ65">
         <v>1.8</v>
@@ -14763,7 +14784,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR66">
         <v>1.44</v>
@@ -14888,7 +14909,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -14969,7 +14990,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15381,7 +15402,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ69">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15584,10 +15605,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15712,7 +15733,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15790,7 +15811,7 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ71">
         <v>2.33</v>
@@ -16124,7 +16145,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16202,10 +16223,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16330,7 +16351,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16408,10 +16429,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR74">
         <v>2.12</v>
@@ -16536,7 +16557,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16614,7 +16635,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ75">
         <v>1.67</v>
@@ -16948,7 +16969,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17029,7 +17050,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ77">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -17235,7 +17256,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.55</v>
@@ -17360,7 +17381,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>2.8</v>
@@ -17438,10 +17459,10 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17566,7 +17587,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17978,7 +17999,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18262,10 +18283,10 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ83">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR83">
         <v>1.51</v>
@@ -18468,7 +18489,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ84">
         <v>1.67</v>
@@ -18677,7 +18698,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR85">
         <v>1.13</v>
@@ -18802,7 +18823,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19086,7 +19107,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ87">
         <v>1.8</v>
@@ -19214,7 +19235,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -19295,7 +19316,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19498,10 +19519,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ89">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR89">
         <v>1.35</v>
@@ -19626,7 +19647,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19832,7 +19853,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19910,7 +19931,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -20038,7 +20059,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20119,7 +20140,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ92">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>2.25</v>
@@ -20656,7 +20677,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20862,7 +20883,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21068,7 +21089,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21146,10 +21167,10 @@
         <v>0.4</v>
       </c>
       <c r="AP97">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ97">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21352,7 +21373,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ98">
         <v>1.5</v>
@@ -21561,7 +21582,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21764,10 +21785,10 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ100">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -21892,7 +21913,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22176,10 +22197,10 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR102">
         <v>1.81</v>
@@ -22510,7 +22531,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22588,10 +22609,10 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -22716,7 +22737,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22794,10 +22815,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ105">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -22922,7 +22943,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q106">
         <v>2.73</v>
@@ -23000,7 +23021,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23128,7 +23149,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23334,7 +23355,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23412,10 +23433,10 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR108">
         <v>1.71</v>
@@ -23621,7 +23642,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR109">
         <v>1.65</v>
@@ -23746,7 +23767,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24158,7 +24179,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24239,7 +24260,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ112">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24364,7 +24385,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24445,7 +24466,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24570,7 +24591,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24854,7 +24875,7 @@
         <v>2.33</v>
       </c>
       <c r="AP115">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ115">
         <v>1.7</v>
@@ -24982,7 +25003,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25063,7 +25084,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ116">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR116">
         <v>1.7</v>
@@ -25266,7 +25287,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ117">
         <v>1.8</v>
@@ -25394,7 +25415,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25472,10 +25493,10 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ118">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR118">
         <v>1.43</v>
@@ -25678,7 +25699,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ119">
         <v>1.67</v>
@@ -25884,7 +25905,7 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ120">
         <v>1.1</v>
@@ -26296,7 +26317,7 @@
         <v>1.4</v>
       </c>
       <c r="AP122">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26424,7 +26445,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26505,7 +26526,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26630,7 +26651,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26711,7 +26732,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ124">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -26836,7 +26857,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27042,7 +27063,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27120,7 +27141,7 @@
         <v>0.67</v>
       </c>
       <c r="AP126">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ126">
         <v>0.5600000000000001</v>
@@ -27329,7 +27350,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR127">
         <v>1.55</v>
@@ -27454,7 +27475,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27532,7 +27553,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ128">
         <v>1.5</v>
@@ -27866,7 +27887,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -27944,10 +27965,10 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ130">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28153,7 +28174,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ131">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28356,7 +28377,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ132">
         <v>1.1</v>
@@ -28690,7 +28711,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28768,7 +28789,7 @@
         <v>1.33</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ134">
         <v>1.67</v>
@@ -28896,7 +28917,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -28977,7 +28998,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29180,10 +29201,10 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ136">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.07</v>
@@ -29389,7 +29410,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29514,7 +29535,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29592,7 +29613,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ138">
         <v>1.7</v>
@@ -29720,7 +29741,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30004,7 +30025,7 @@
         <v>1.57</v>
       </c>
       <c r="AP140">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ140">
         <v>1.67</v>
@@ -30213,7 +30234,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ141">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR141">
         <v>2.28</v>
@@ -30338,7 +30359,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30419,7 +30440,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ142">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR142">
         <v>1.64</v>
@@ -30622,10 +30643,10 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ143">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR143">
         <v>1.82</v>
@@ -30750,7 +30771,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31037,7 +31058,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ145">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR145">
         <v>1.62</v>
@@ -31162,7 +31183,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31240,10 +31261,10 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR146">
         <v>1.44</v>
@@ -31652,7 +31673,7 @@
         <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ148">
         <v>0.5600000000000001</v>
@@ -31986,7 +32007,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32192,7 +32213,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32270,10 +32291,10 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ151">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32398,7 +32419,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32476,10 +32497,10 @@
         <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ152">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -32810,7 +32831,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33097,7 +33118,7 @@
         <v>1</v>
       </c>
       <c r="AQ155">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR155">
         <v>1.5</v>
@@ -33222,7 +33243,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33300,7 +33321,7 @@
         <v>1.25</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ156">
         <v>1.4</v>
@@ -33428,7 +33449,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33634,7 +33655,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33918,7 +33939,7 @@
         <v>2.13</v>
       </c>
       <c r="AP159">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ159">
         <v>1.7</v>
@@ -34046,7 +34067,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34124,10 +34145,10 @@
         <v>1.29</v>
       </c>
       <c r="AP160">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ160">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR160">
         <v>1.73</v>
@@ -34252,7 +34273,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34330,10 +34351,10 @@
         <v>1.71</v>
       </c>
       <c r="AP161">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ161">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR161">
         <v>1.13</v>
@@ -34536,7 +34557,7 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ162">
         <v>0.5600000000000001</v>
@@ -34664,7 +34685,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34745,7 +34766,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -34951,7 +34972,7 @@
         <v>2</v>
       </c>
       <c r="AQ164">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR164">
         <v>1.77</v>
@@ -35076,7 +35097,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35154,10 +35175,10 @@
         <v>1.38</v>
       </c>
       <c r="AP165">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ165">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR165">
         <v>1.44</v>
@@ -35282,7 +35303,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35488,7 +35509,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35566,10 +35587,10 @@
         <v>0.57</v>
       </c>
       <c r="AP167">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ167">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -35694,7 +35715,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35900,7 +35921,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -35978,10 +35999,10 @@
         <v>1.14</v>
       </c>
       <c r="AP169">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR169">
         <v>1.82</v>
@@ -36106,7 +36127,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36518,7 +36539,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36724,7 +36745,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36930,7 +36951,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37342,7 +37363,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37423,7 +37444,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ176">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37832,7 +37853,7 @@
         <v>2</v>
       </c>
       <c r="AP178">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ178">
         <v>1.8</v>
@@ -37960,7 +37981,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38372,7 +38393,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38450,10 +38471,10 @@
         <v>1.43</v>
       </c>
       <c r="AP181">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ181">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR181">
         <v>1.17</v>
@@ -38529,6 +38550,1860 @@
       </c>
       <c r="BP181">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7331104</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45451.125</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>89</v>
+      </c>
+      <c r="H182" t="s">
+        <v>76</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>203</v>
+      </c>
+      <c r="P182" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q182">
+        <v>3.1</v>
+      </c>
+      <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
+        <v>3.75</v>
+      </c>
+      <c r="T182">
+        <v>1.5</v>
+      </c>
+      <c r="U182">
+        <v>2.4</v>
+      </c>
+      <c r="V182">
+        <v>3.3</v>
+      </c>
+      <c r="W182">
+        <v>1.29</v>
+      </c>
+      <c r="X182">
+        <v>8.5</v>
+      </c>
+      <c r="Y182">
+        <v>1.04</v>
+      </c>
+      <c r="Z182">
+        <v>2.27</v>
+      </c>
+      <c r="AA182">
+        <v>3.1</v>
+      </c>
+      <c r="AB182">
+        <v>3.1</v>
+      </c>
+      <c r="AC182">
+        <v>1.08</v>
+      </c>
+      <c r="AD182">
+        <v>6.5</v>
+      </c>
+      <c r="AE182">
+        <v>1.42</v>
+      </c>
+      <c r="AF182">
+        <v>2.62</v>
+      </c>
+      <c r="AG182">
+        <v>2.29</v>
+      </c>
+      <c r="AH182">
+        <v>1.58</v>
+      </c>
+      <c r="AI182">
+        <v>1.95</v>
+      </c>
+      <c r="AJ182">
+        <v>1.75</v>
+      </c>
+      <c r="AK182">
+        <v>1.38</v>
+      </c>
+      <c r="AL182">
+        <v>1.38</v>
+      </c>
+      <c r="AM182">
+        <v>1.55</v>
+      </c>
+      <c r="AN182">
+        <v>1.25</v>
+      </c>
+      <c r="AO182">
+        <v>1.63</v>
+      </c>
+      <c r="AP182">
+        <v>1.22</v>
+      </c>
+      <c r="AQ182">
+        <v>1.56</v>
+      </c>
+      <c r="AR182">
+        <v>1.43</v>
+      </c>
+      <c r="AS182">
+        <v>1.61</v>
+      </c>
+      <c r="AT182">
+        <v>3.04</v>
+      </c>
+      <c r="AU182">
+        <v>7</v>
+      </c>
+      <c r="AV182">
+        <v>3</v>
+      </c>
+      <c r="AW182">
+        <v>10</v>
+      </c>
+      <c r="AX182">
+        <v>9</v>
+      </c>
+      <c r="AY182">
+        <v>17</v>
+      </c>
+      <c r="AZ182">
+        <v>12</v>
+      </c>
+      <c r="BA182">
+        <v>8</v>
+      </c>
+      <c r="BB182">
+        <v>3</v>
+      </c>
+      <c r="BC182">
+        <v>11</v>
+      </c>
+      <c r="BD182">
+        <v>1.8</v>
+      </c>
+      <c r="BE182">
+        <v>8.6</v>
+      </c>
+      <c r="BF182">
+        <v>2.24</v>
+      </c>
+      <c r="BG182">
+        <v>1.29</v>
+      </c>
+      <c r="BH182">
+        <v>3.3</v>
+      </c>
+      <c r="BI182">
+        <v>1.49</v>
+      </c>
+      <c r="BJ182">
+        <v>2.57</v>
+      </c>
+      <c r="BK182">
+        <v>1.81</v>
+      </c>
+      <c r="BL182">
+        <v>1.98</v>
+      </c>
+      <c r="BM182">
+        <v>2.28</v>
+      </c>
+      <c r="BN182">
+        <v>1.61</v>
+      </c>
+      <c r="BO182">
+        <v>2.8</v>
+      </c>
+      <c r="BP182">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7331105</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45451.25</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>86</v>
+      </c>
+      <c r="H183" t="s">
+        <v>87</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>204</v>
+      </c>
+      <c r="P183" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q183">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>2.15</v>
+      </c>
+      <c r="S183">
+        <v>3.3</v>
+      </c>
+      <c r="T183">
+        <v>1.4</v>
+      </c>
+      <c r="U183">
+        <v>2.7</v>
+      </c>
+      <c r="V183">
+        <v>2.8</v>
+      </c>
+      <c r="W183">
+        <v>1.38</v>
+      </c>
+      <c r="X183">
+        <v>6.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.08</v>
+      </c>
+      <c r="Z183">
+        <v>2.57</v>
+      </c>
+      <c r="AA183">
+        <v>3.32</v>
+      </c>
+      <c r="AB183">
+        <v>2.54</v>
+      </c>
+      <c r="AC183">
+        <v>1.04</v>
+      </c>
+      <c r="AD183">
+        <v>8.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.3</v>
+      </c>
+      <c r="AF183">
+        <v>3.2</v>
+      </c>
+      <c r="AG183">
+        <v>2</v>
+      </c>
+      <c r="AH183">
+        <v>1.79</v>
+      </c>
+      <c r="AI183">
+        <v>1.75</v>
+      </c>
+      <c r="AJ183">
+        <v>1.95</v>
+      </c>
+      <c r="AK183">
+        <v>1.44</v>
+      </c>
+      <c r="AL183">
+        <v>1.25</v>
+      </c>
+      <c r="AM183">
+        <v>1.5</v>
+      </c>
+      <c r="AN183">
+        <v>0.63</v>
+      </c>
+      <c r="AO183">
+        <v>2</v>
+      </c>
+      <c r="AP183">
+        <v>0.67</v>
+      </c>
+      <c r="AQ183">
+        <v>1.9</v>
+      </c>
+      <c r="AR183">
+        <v>1.35</v>
+      </c>
+      <c r="AS183">
+        <v>1.21</v>
+      </c>
+      <c r="AT183">
+        <v>2.56</v>
+      </c>
+      <c r="AU183">
+        <v>4</v>
+      </c>
+      <c r="AV183">
+        <v>3</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>3</v>
+      </c>
+      <c r="AY183">
+        <v>7</v>
+      </c>
+      <c r="AZ183">
+        <v>6</v>
+      </c>
+      <c r="BA183">
+        <v>3</v>
+      </c>
+      <c r="BB183">
+        <v>9</v>
+      </c>
+      <c r="BC183">
+        <v>12</v>
+      </c>
+      <c r="BD183">
+        <v>1.7</v>
+      </c>
+      <c r="BE183">
+        <v>8.5</v>
+      </c>
+      <c r="BF183">
+        <v>2.43</v>
+      </c>
+      <c r="BG183">
+        <v>1.33</v>
+      </c>
+      <c r="BH183">
+        <v>3</v>
+      </c>
+      <c r="BI183">
+        <v>1.57</v>
+      </c>
+      <c r="BJ183">
+        <v>2.35</v>
+      </c>
+      <c r="BK183">
+        <v>1.95</v>
+      </c>
+      <c r="BL183">
+        <v>1.84</v>
+      </c>
+      <c r="BM183">
+        <v>2.49</v>
+      </c>
+      <c r="BN183">
+        <v>1.51</v>
+      </c>
+      <c r="BO183">
+        <v>3.2</v>
+      </c>
+      <c r="BP183">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7331106</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45451.25</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>81</v>
+      </c>
+      <c r="H184" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>205</v>
+      </c>
+      <c r="P184" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q184">
+        <v>1.87</v>
+      </c>
+      <c r="R184">
+        <v>2.45</v>
+      </c>
+      <c r="S184">
+        <v>5.5</v>
+      </c>
+      <c r="T184">
+        <v>1.29</v>
+      </c>
+      <c r="U184">
+        <v>3.4</v>
+      </c>
+      <c r="V184">
+        <v>2.36</v>
+      </c>
+      <c r="W184">
+        <v>1.54</v>
+      </c>
+      <c r="X184">
+        <v>5.3</v>
+      </c>
+      <c r="Y184">
+        <v>1.12</v>
+      </c>
+      <c r="Z184">
+        <v>1.42</v>
+      </c>
+      <c r="AA184">
+        <v>4.45</v>
+      </c>
+      <c r="AB184">
+        <v>6.4</v>
+      </c>
+      <c r="AC184">
+        <v>1.01</v>
+      </c>
+      <c r="AD184">
+        <v>11</v>
+      </c>
+      <c r="AE184">
+        <v>1.18</v>
+      </c>
+      <c r="AF184">
+        <v>4.5</v>
+      </c>
+      <c r="AG184">
+        <v>1.61</v>
+      </c>
+      <c r="AH184">
+        <v>2.23</v>
+      </c>
+      <c r="AI184">
+        <v>1.8</v>
+      </c>
+      <c r="AJ184">
+        <v>1.95</v>
+      </c>
+      <c r="AK184">
+        <v>1.06</v>
+      </c>
+      <c r="AL184">
+        <v>1.15</v>
+      </c>
+      <c r="AM184">
+        <v>2.8</v>
+      </c>
+      <c r="AN184">
+        <v>2.75</v>
+      </c>
+      <c r="AO184">
+        <v>1.13</v>
+      </c>
+      <c r="AP184">
+        <v>2.78</v>
+      </c>
+      <c r="AQ184">
+        <v>1</v>
+      </c>
+      <c r="AR184">
+        <v>1.74</v>
+      </c>
+      <c r="AS184">
+        <v>1.51</v>
+      </c>
+      <c r="AT184">
+        <v>3.25</v>
+      </c>
+      <c r="AU184">
+        <v>7</v>
+      </c>
+      <c r="AV184">
+        <v>3</v>
+      </c>
+      <c r="AW184">
+        <v>9</v>
+      </c>
+      <c r="AX184">
+        <v>1</v>
+      </c>
+      <c r="AY184">
+        <v>16</v>
+      </c>
+      <c r="AZ184">
+        <v>4</v>
+      </c>
+      <c r="BA184">
+        <v>8</v>
+      </c>
+      <c r="BB184">
+        <v>4</v>
+      </c>
+      <c r="BC184">
+        <v>12</v>
+      </c>
+      <c r="BD184">
+        <v>1.41</v>
+      </c>
+      <c r="BE184">
+        <v>9.5</v>
+      </c>
+      <c r="BF184">
+        <v>3.3</v>
+      </c>
+      <c r="BG184">
+        <v>1.25</v>
+      </c>
+      <c r="BH184">
+        <v>3.6</v>
+      </c>
+      <c r="BI184">
+        <v>1.42</v>
+      </c>
+      <c r="BJ184">
+        <v>2.62</v>
+      </c>
+      <c r="BK184">
+        <v>1.69</v>
+      </c>
+      <c r="BL184">
+        <v>2.12</v>
+      </c>
+      <c r="BM184">
+        <v>2.12</v>
+      </c>
+      <c r="BN184">
+        <v>1.69</v>
+      </c>
+      <c r="BO184">
+        <v>2.62</v>
+      </c>
+      <c r="BP184">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7331107</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45451.25</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>78</v>
+      </c>
+      <c r="H185" t="s">
+        <v>71</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>92</v>
+      </c>
+      <c r="P185" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q185">
+        <v>4.5</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>2.5</v>
+      </c>
+      <c r="T185">
+        <v>1.48</v>
+      </c>
+      <c r="U185">
+        <v>2.5</v>
+      </c>
+      <c r="V185">
+        <v>3.34</v>
+      </c>
+      <c r="W185">
+        <v>1.33</v>
+      </c>
+      <c r="X185">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y185">
+        <v>1.04</v>
+      </c>
+      <c r="Z185">
+        <v>3.66</v>
+      </c>
+      <c r="AA185">
+        <v>3.28</v>
+      </c>
+      <c r="AB185">
+        <v>1.97</v>
+      </c>
+      <c r="AC185">
+        <v>1.04</v>
+      </c>
+      <c r="AD185">
+        <v>7.6</v>
+      </c>
+      <c r="AE185">
+        <v>1.38</v>
+      </c>
+      <c r="AF185">
+        <v>2.9</v>
+      </c>
+      <c r="AG185">
+        <v>2.18</v>
+      </c>
+      <c r="AH185">
+        <v>1.63</v>
+      </c>
+      <c r="AI185">
+        <v>1.95</v>
+      </c>
+      <c r="AJ185">
+        <v>1.78</v>
+      </c>
+      <c r="AK185">
+        <v>1.87</v>
+      </c>
+      <c r="AL185">
+        <v>1.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.16</v>
+      </c>
+      <c r="AN185">
+        <v>0.78</v>
+      </c>
+      <c r="AO185">
+        <v>1.56</v>
+      </c>
+      <c r="AP185">
+        <v>0.7</v>
+      </c>
+      <c r="AQ185">
+        <v>1.7</v>
+      </c>
+      <c r="AR185">
+        <v>1.47</v>
+      </c>
+      <c r="AS185">
+        <v>1.59</v>
+      </c>
+      <c r="AT185">
+        <v>3.06</v>
+      </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
+      <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>7</v>
+      </c>
+      <c r="AX185">
+        <v>4</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>8</v>
+      </c>
+      <c r="BA185">
+        <v>3</v>
+      </c>
+      <c r="BB185">
+        <v>2</v>
+      </c>
+      <c r="BC185">
+        <v>5</v>
+      </c>
+      <c r="BD185">
+        <v>2.61</v>
+      </c>
+      <c r="BE185">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF185">
+        <v>1.61</v>
+      </c>
+      <c r="BG185">
+        <v>1.29</v>
+      </c>
+      <c r="BH185">
+        <v>3.3</v>
+      </c>
+      <c r="BI185">
+        <v>1.51</v>
+      </c>
+      <c r="BJ185">
+        <v>2.48</v>
+      </c>
+      <c r="BK185">
+        <v>1.85</v>
+      </c>
+      <c r="BL185">
+        <v>1.95</v>
+      </c>
+      <c r="BM185">
+        <v>2.3</v>
+      </c>
+      <c r="BN185">
+        <v>1.58</v>
+      </c>
+      <c r="BO185">
+        <v>2.9</v>
+      </c>
+      <c r="BP185">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7331108</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45451.25</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s">
+        <v>70</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>133</v>
+      </c>
+      <c r="P186" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q186">
+        <v>3.75</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>2.75</v>
+      </c>
+      <c r="T186">
+        <v>1.43</v>
+      </c>
+      <c r="U186">
+        <v>2.65</v>
+      </c>
+      <c r="V186">
+        <v>2.95</v>
+      </c>
+      <c r="W186">
+        <v>1.4</v>
+      </c>
+      <c r="X186">
+        <v>6.7</v>
+      </c>
+      <c r="Y186">
+        <v>1.07</v>
+      </c>
+      <c r="Z186">
+        <v>3.5</v>
+      </c>
+      <c r="AA186">
+        <v>3.5</v>
+      </c>
+      <c r="AB186">
+        <v>1.95</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>9</v>
+      </c>
+      <c r="AE186">
+        <v>1.3</v>
+      </c>
+      <c r="AF186">
+        <v>3.3</v>
+      </c>
+      <c r="AG186">
+        <v>2.01</v>
+      </c>
+      <c r="AH186">
+        <v>1.78</v>
+      </c>
+      <c r="AI186">
+        <v>1.75</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.66</v>
+      </c>
+      <c r="AL186">
+        <v>1.25</v>
+      </c>
+      <c r="AM186">
+        <v>1.3</v>
+      </c>
+      <c r="AN186">
+        <v>1.44</v>
+      </c>
+      <c r="AO186">
+        <v>1</v>
+      </c>
+      <c r="AP186">
+        <v>1.6</v>
+      </c>
+      <c r="AQ186">
+        <v>0.89</v>
+      </c>
+      <c r="AR186">
+        <v>1.24</v>
+      </c>
+      <c r="AS186">
+        <v>1.37</v>
+      </c>
+      <c r="AT186">
+        <v>2.61</v>
+      </c>
+      <c r="AU186">
+        <v>3</v>
+      </c>
+      <c r="AV186">
+        <v>6</v>
+      </c>
+      <c r="AW186">
+        <v>4</v>
+      </c>
+      <c r="AX186">
+        <v>12</v>
+      </c>
+      <c r="AY186">
+        <v>7</v>
+      </c>
+      <c r="AZ186">
+        <v>18</v>
+      </c>
+      <c r="BA186">
+        <v>3</v>
+      </c>
+      <c r="BB186">
+        <v>7</v>
+      </c>
+      <c r="BC186">
+        <v>10</v>
+      </c>
+      <c r="BD186">
+        <v>2.18</v>
+      </c>
+      <c r="BE186">
+        <v>8.6</v>
+      </c>
+      <c r="BF186">
+        <v>1.84</v>
+      </c>
+      <c r="BG186">
+        <v>1.25</v>
+      </c>
+      <c r="BH186">
+        <v>3.6</v>
+      </c>
+      <c r="BI186">
+        <v>1.42</v>
+      </c>
+      <c r="BJ186">
+        <v>2.62</v>
+      </c>
+      <c r="BK186">
+        <v>1.71</v>
+      </c>
+      <c r="BL186">
+        <v>2.12</v>
+      </c>
+      <c r="BM186">
+        <v>2.12</v>
+      </c>
+      <c r="BN186">
+        <v>1.7</v>
+      </c>
+      <c r="BO186">
+        <v>2.62</v>
+      </c>
+      <c r="BP186">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7331110</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45451.29166666666</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>84</v>
+      </c>
+      <c r="H187" t="s">
+        <v>74</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>206</v>
+      </c>
+      <c r="P187" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q187">
+        <v>3.75</v>
+      </c>
+      <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>2.7</v>
+      </c>
+      <c r="T187">
+        <v>1.43</v>
+      </c>
+      <c r="U187">
+        <v>2.65</v>
+      </c>
+      <c r="V187">
+        <v>3.05</v>
+      </c>
+      <c r="W187">
+        <v>1.38</v>
+      </c>
+      <c r="X187">
+        <v>7.2</v>
+      </c>
+      <c r="Y187">
+        <v>1.06</v>
+      </c>
+      <c r="Z187">
+        <v>3.22</v>
+      </c>
+      <c r="AA187">
+        <v>3.3</v>
+      </c>
+      <c r="AB187">
+        <v>2.12</v>
+      </c>
+      <c r="AC187">
+        <v>1.04</v>
+      </c>
+      <c r="AD187">
+        <v>8.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.33</v>
+      </c>
+      <c r="AF187">
+        <v>3.1</v>
+      </c>
+      <c r="AG187">
+        <v>1.99</v>
+      </c>
+      <c r="AH187">
+        <v>1.79</v>
+      </c>
+      <c r="AI187">
+        <v>1.83</v>
+      </c>
+      <c r="AJ187">
+        <v>1.9</v>
+      </c>
+      <c r="AK187">
+        <v>1.72</v>
+      </c>
+      <c r="AL187">
+        <v>1.25</v>
+      </c>
+      <c r="AM187">
+        <v>1.28</v>
+      </c>
+      <c r="AN187">
+        <v>1.78</v>
+      </c>
+      <c r="AO187">
+        <v>1.22</v>
+      </c>
+      <c r="AP187">
+        <v>1.6</v>
+      </c>
+      <c r="AQ187">
+        <v>1.4</v>
+      </c>
+      <c r="AR187">
+        <v>1.61</v>
+      </c>
+      <c r="AS187">
+        <v>1.56</v>
+      </c>
+      <c r="AT187">
+        <v>3.17</v>
+      </c>
+      <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
+        <v>4</v>
+      </c>
+      <c r="AW187">
+        <v>6</v>
+      </c>
+      <c r="AX187">
+        <v>6</v>
+      </c>
+      <c r="AY187">
+        <v>10</v>
+      </c>
+      <c r="AZ187">
+        <v>10</v>
+      </c>
+      <c r="BA187">
+        <v>7</v>
+      </c>
+      <c r="BB187">
+        <v>3</v>
+      </c>
+      <c r="BC187">
+        <v>10</v>
+      </c>
+      <c r="BD187">
+        <v>2.38</v>
+      </c>
+      <c r="BE187">
+        <v>8.6</v>
+      </c>
+      <c r="BF187">
+        <v>1.72</v>
+      </c>
+      <c r="BG187">
+        <v>1.3</v>
+      </c>
+      <c r="BH187">
+        <v>3.2</v>
+      </c>
+      <c r="BI187">
+        <v>1.55</v>
+      </c>
+      <c r="BJ187">
+        <v>2.41</v>
+      </c>
+      <c r="BK187">
+        <v>1.91</v>
+      </c>
+      <c r="BL187">
+        <v>1.89</v>
+      </c>
+      <c r="BM187">
+        <v>2.4</v>
+      </c>
+      <c r="BN187">
+        <v>1.55</v>
+      </c>
+      <c r="BO187">
+        <v>3</v>
+      </c>
+      <c r="BP187">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7331109</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45451.29166666666</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>85</v>
+      </c>
+      <c r="H188" t="s">
+        <v>77</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>115</v>
+      </c>
+      <c r="P188" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q188">
+        <v>3.3</v>
+      </c>
+      <c r="R188">
+        <v>1.97</v>
+      </c>
+      <c r="S188">
+        <v>4.05</v>
+      </c>
+      <c r="T188">
+        <v>1.57</v>
+      </c>
+      <c r="U188">
+        <v>2.41</v>
+      </c>
+      <c r="V188">
+        <v>3.62</v>
+      </c>
+      <c r="W188">
+        <v>1.26</v>
+      </c>
+      <c r="X188">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y188">
+        <v>1.02</v>
+      </c>
+      <c r="Z188">
+        <v>2.31</v>
+      </c>
+      <c r="AA188">
+        <v>3.02</v>
+      </c>
+      <c r="AB188">
+        <v>3.12</v>
+      </c>
+      <c r="AC188">
+        <v>1.09</v>
+      </c>
+      <c r="AD188">
+        <v>6.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.5</v>
+      </c>
+      <c r="AF188">
+        <v>2.49</v>
+      </c>
+      <c r="AG188">
+        <v>2.37</v>
+      </c>
+      <c r="AH188">
+        <v>1.48</v>
+      </c>
+      <c r="AI188">
+        <v>2.1</v>
+      </c>
+      <c r="AJ188">
+        <v>1.68</v>
+      </c>
+      <c r="AK188">
+        <v>1.36</v>
+      </c>
+      <c r="AL188">
+        <v>1.3</v>
+      </c>
+      <c r="AM188">
+        <v>1.53</v>
+      </c>
+      <c r="AN188">
+        <v>0.89</v>
+      </c>
+      <c r="AO188">
+        <v>0.63</v>
+      </c>
+      <c r="AP188">
+        <v>0.9</v>
+      </c>
+      <c r="AQ188">
+        <v>0.67</v>
+      </c>
+      <c r="AR188">
+        <v>1.2</v>
+      </c>
+      <c r="AS188">
+        <v>1.12</v>
+      </c>
+      <c r="AT188">
+        <v>2.32</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>2</v>
+      </c>
+      <c r="AW188">
+        <v>7</v>
+      </c>
+      <c r="AX188">
+        <v>5</v>
+      </c>
+      <c r="AY188">
+        <v>12</v>
+      </c>
+      <c r="AZ188">
+        <v>7</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>3</v>
+      </c>
+      <c r="BC188">
+        <v>8</v>
+      </c>
+      <c r="BD188">
+        <v>1.65</v>
+      </c>
+      <c r="BE188">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF188">
+        <v>2.52</v>
+      </c>
+      <c r="BG188">
+        <v>1.29</v>
+      </c>
+      <c r="BH188">
+        <v>3.3</v>
+      </c>
+      <c r="BI188">
+        <v>1.52</v>
+      </c>
+      <c r="BJ188">
+        <v>2.49</v>
+      </c>
+      <c r="BK188">
+        <v>1.86</v>
+      </c>
+      <c r="BL188">
+        <v>1.93</v>
+      </c>
+      <c r="BM188">
+        <v>2.35</v>
+      </c>
+      <c r="BN188">
+        <v>1.57</v>
+      </c>
+      <c r="BO188">
+        <v>2.9</v>
+      </c>
+      <c r="BP188">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7331111</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45452.08333333334</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>88</v>
+      </c>
+      <c r="H189" t="s">
+        <v>79</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189" t="s">
+        <v>92</v>
+      </c>
+      <c r="P189" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q189">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>2.1</v>
+      </c>
+      <c r="S189">
+        <v>3.75</v>
+      </c>
+      <c r="T189">
+        <v>1.4</v>
+      </c>
+      <c r="U189">
+        <v>2.75</v>
+      </c>
+      <c r="V189">
+        <v>3</v>
+      </c>
+      <c r="W189">
+        <v>1.36</v>
+      </c>
+      <c r="X189">
+        <v>8</v>
+      </c>
+      <c r="Y189">
+        <v>1.08</v>
+      </c>
+      <c r="Z189">
+        <v>2.2</v>
+      </c>
+      <c r="AA189">
+        <v>3.25</v>
+      </c>
+      <c r="AB189">
+        <v>3.1</v>
+      </c>
+      <c r="AC189">
+        <v>1.02</v>
+      </c>
+      <c r="AD189">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE189">
+        <v>1.29</v>
+      </c>
+      <c r="AF189">
+        <v>3.14</v>
+      </c>
+      <c r="AG189">
+        <v>2</v>
+      </c>
+      <c r="AH189">
+        <v>1.75</v>
+      </c>
+      <c r="AI189">
+        <v>1.73</v>
+      </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
+      <c r="AK189">
+        <v>1.35</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>1.6</v>
+      </c>
+      <c r="AN189">
+        <v>1.25</v>
+      </c>
+      <c r="AO189">
+        <v>1.75</v>
+      </c>
+      <c r="AP189">
+        <v>1.22</v>
+      </c>
+      <c r="AQ189">
+        <v>1.67</v>
+      </c>
+      <c r="AR189">
+        <v>1.54</v>
+      </c>
+      <c r="AS189">
+        <v>1.48</v>
+      </c>
+      <c r="AT189">
+        <v>3.02</v>
+      </c>
+      <c r="AU189">
+        <v>5</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+      <c r="AW189">
+        <v>11</v>
+      </c>
+      <c r="AX189">
+        <v>3</v>
+      </c>
+      <c r="AY189">
+        <v>16</v>
+      </c>
+      <c r="AZ189">
+        <v>5</v>
+      </c>
+      <c r="BA189">
+        <v>10</v>
+      </c>
+      <c r="BB189">
+        <v>4</v>
+      </c>
+      <c r="BC189">
+        <v>14</v>
+      </c>
+      <c r="BD189">
+        <v>1.8</v>
+      </c>
+      <c r="BE189">
+        <v>8.9</v>
+      </c>
+      <c r="BF189">
+        <v>2.22</v>
+      </c>
+      <c r="BG189">
+        <v>1.2</v>
+      </c>
+      <c r="BH189">
+        <v>4</v>
+      </c>
+      <c r="BI189">
+        <v>1.36</v>
+      </c>
+      <c r="BJ189">
+        <v>2.9</v>
+      </c>
+      <c r="BK189">
+        <v>1.6</v>
+      </c>
+      <c r="BL189">
+        <v>2.26</v>
+      </c>
+      <c r="BM189">
+        <v>1.99</v>
+      </c>
+      <c r="BN189">
+        <v>1.81</v>
+      </c>
+      <c r="BO189">
+        <v>2.51</v>
+      </c>
+      <c r="BP189">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7331113</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45452.29166666666</v>
+      </c>
+      <c r="F190">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>75</v>
+      </c>
+      <c r="H190" t="s">
+        <v>82</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>175</v>
+      </c>
+      <c r="P190" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q190">
+        <v>2.4</v>
+      </c>
+      <c r="R190">
+        <v>2.1</v>
+      </c>
+      <c r="S190">
+        <v>5</v>
+      </c>
+      <c r="T190">
+        <v>1.44</v>
+      </c>
+      <c r="U190">
+        <v>2.63</v>
+      </c>
+      <c r="V190">
+        <v>3</v>
+      </c>
+      <c r="W190">
+        <v>1.36</v>
+      </c>
+      <c r="X190">
+        <v>9</v>
+      </c>
+      <c r="Y190">
+        <v>1.07</v>
+      </c>
+      <c r="Z190">
+        <v>1.75</v>
+      </c>
+      <c r="AA190">
+        <v>3.6</v>
+      </c>
+      <c r="AB190">
+        <v>4.33</v>
+      </c>
+      <c r="AC190">
+        <v>1.03</v>
+      </c>
+      <c r="AD190">
+        <v>8.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.28</v>
+      </c>
+      <c r="AF190">
+        <v>3.3</v>
+      </c>
+      <c r="AG190">
+        <v>1.95</v>
+      </c>
+      <c r="AH190">
+        <v>1.8</v>
+      </c>
+      <c r="AI190">
+        <v>1.91</v>
+      </c>
+      <c r="AJ190">
+        <v>1.8</v>
+      </c>
+      <c r="AK190">
+        <v>1.16</v>
+      </c>
+      <c r="AL190">
+        <v>1.25</v>
+      </c>
+      <c r="AM190">
+        <v>1.99</v>
+      </c>
+      <c r="AN190">
+        <v>1.88</v>
+      </c>
+      <c r="AO190">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP190">
+        <v>1.78</v>
+      </c>
+      <c r="AQ190">
+        <v>0.6</v>
+      </c>
+      <c r="AR190">
+        <v>1.48</v>
+      </c>
+      <c r="AS190">
+        <v>1.44</v>
+      </c>
+      <c r="AT190">
+        <v>2.92</v>
+      </c>
+      <c r="AU190">
+        <v>3</v>
+      </c>
+      <c r="AV190">
+        <v>0</v>
+      </c>
+      <c r="AW190">
+        <v>3</v>
+      </c>
+      <c r="AX190">
+        <v>3</v>
+      </c>
+      <c r="AY190">
+        <v>6</v>
+      </c>
+      <c r="AZ190">
+        <v>3</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>4</v>
+      </c>
+      <c r="BD190">
+        <v>1.64</v>
+      </c>
+      <c r="BE190">
+        <v>9.1</v>
+      </c>
+      <c r="BF190">
+        <v>2.51</v>
+      </c>
+      <c r="BG190">
+        <v>1.18</v>
+      </c>
+      <c r="BH190">
+        <v>4.33</v>
+      </c>
+      <c r="BI190">
+        <v>1.33</v>
+      </c>
+      <c r="BJ190">
+        <v>3</v>
+      </c>
+      <c r="BK190">
+        <v>1.55</v>
+      </c>
+      <c r="BL190">
+        <v>2.38</v>
+      </c>
+      <c r="BM190">
+        <v>1.9</v>
+      </c>
+      <c r="BN190">
+        <v>1.9</v>
+      </c>
+      <c r="BO190">
+        <v>2.38</v>
+      </c>
+      <c r="BP190">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -40340,31 +40340,31 @@
         <v>2.92</v>
       </c>
       <c r="AU190">
+        <v>4</v>
+      </c>
+      <c r="AV190">
         <v>3</v>
       </c>
-      <c r="AV190">
-        <v>0</v>
-      </c>
       <c r="AW190">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX190">
         <v>3</v>
       </c>
       <c r="AY190">
+        <v>10</v>
+      </c>
+      <c r="AZ190">
         <v>6</v>
       </c>
-      <c r="AZ190">
+      <c r="BA190">
+        <v>7</v>
+      </c>
+      <c r="BB190">
         <v>3</v>
       </c>
-      <c r="BA190">
-        <v>4</v>
-      </c>
-      <c r="BB190">
-        <v>0</v>
-      </c>
       <c r="BC190">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD190">
         <v>1.64</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -40340,22 +40340,22 @@
         <v>2.92</v>
       </c>
       <c r="AU190">
+        <v>5</v>
+      </c>
+      <c r="AV190">
         <v>4</v>
       </c>
-      <c r="AV190">
-        <v>3</v>
-      </c>
       <c r="AW190">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY190">
         <v>10</v>
       </c>
       <c r="AZ190">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA190">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="297">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,12 @@
     <t>['80']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['80', '90+3']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -746,9 +752,6 @@
   </si>
   <si>
     <t>['16', '53']</t>
-  </si>
-  <si>
-    <t>['51']</t>
   </si>
   <si>
     <t>['3', '13', '90+1']</t>
@@ -899,6 +902,9 @@
   </si>
   <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['20', '24', '85']</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1725,7 +1731,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2009,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ4">
         <v>2.33</v>
@@ -2343,7 +2349,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2424,7 +2430,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2755,7 +2761,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3167,7 +3173,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3579,7 +3585,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3785,7 +3791,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4484,7 +4490,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -4687,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ17">
         <v>1.67</v>
@@ -5227,7 +5233,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5433,7 +5439,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5514,7 +5520,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ21">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5639,7 +5645,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5845,7 +5851,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6132,7 +6138,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ24">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6747,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27">
         <v>1.67</v>
@@ -7081,7 +7087,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7287,7 +7293,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7493,7 +7499,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7699,7 +7705,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7777,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -8317,7 +8323,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8523,7 +8529,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -9016,7 +9022,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ38">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9141,7 +9147,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9219,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39">
         <v>1.4</v>
@@ -9347,7 +9353,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9553,7 +9559,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -10789,7 +10795,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11407,7 +11413,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11613,7 +11619,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11819,7 +11825,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11897,10 +11903,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ52">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -12025,7 +12031,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12643,7 +12649,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12721,7 +12727,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ56">
         <v>1.56</v>
@@ -13136,7 +13142,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13467,7 +13473,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13673,7 +13679,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13879,7 +13885,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14909,7 +14915,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15733,7 +15739,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16020,7 +16026,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16145,7 +16151,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16351,7 +16357,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16432,7 +16438,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ74">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR74">
         <v>2.12</v>
@@ -16557,7 +16563,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16841,7 +16847,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ76">
         <v>1.7</v>
@@ -16969,7 +16975,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17381,7 +17387,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q79">
         <v>2.8</v>
@@ -17587,7 +17593,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17999,7 +18005,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18823,7 +18829,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19235,7 +19241,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -19313,7 +19319,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ88">
         <v>1.9</v>
@@ -19647,7 +19653,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19853,7 +19859,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20059,7 +20065,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20552,7 +20558,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ94">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20677,7 +20683,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20883,7 +20889,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21089,7 +21095,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21913,7 +21919,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22403,7 +22409,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ103">
         <v>1.67</v>
@@ -22531,7 +22537,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22737,7 +22743,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22943,7 +22949,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q106">
         <v>2.73</v>
@@ -23149,7 +23155,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23355,7 +23361,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23642,7 +23648,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR109">
         <v>1.65</v>
@@ -23767,7 +23773,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24051,7 +24057,7 @@
         <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ111">
         <v>0.5600000000000001</v>
@@ -24179,7 +24185,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24385,7 +24391,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24591,7 +24597,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25003,7 +25009,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25415,7 +25421,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25496,7 +25502,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ118">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR118">
         <v>1.43</v>
@@ -25908,7 +25914,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ120">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26111,7 +26117,7 @@
         <v>1.6</v>
       </c>
       <c r="AP121">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ121">
         <v>1.67</v>
@@ -26445,7 +26451,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26523,7 +26529,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ123">
         <v>0.67</v>
@@ -26651,7 +26657,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26857,7 +26863,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27063,7 +27069,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27475,7 +27481,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27887,7 +27893,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28380,7 +28386,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ132">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.72</v>
@@ -28711,7 +28717,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28917,7 +28923,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -28995,7 +29001,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ135">
         <v>1.9</v>
@@ -29535,7 +29541,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29741,7 +29747,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30234,7 +30240,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ141">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR141">
         <v>2.28</v>
@@ -30359,7 +30365,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30771,7 +30777,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31058,7 +31064,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ145">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR145">
         <v>1.62</v>
@@ -31183,7 +31189,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31467,7 +31473,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
         <v>1.4</v>
@@ -32007,7 +32013,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32213,7 +32219,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32419,7 +32425,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32831,7 +32837,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33243,7 +33249,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33449,7 +33455,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33655,7 +33661,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33733,7 +33739,7 @@
         <v>2.14</v>
       </c>
       <c r="AP158">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ158">
         <v>2.33</v>
@@ -34067,7 +34073,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34273,7 +34279,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34685,7 +34691,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34763,7 +34769,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ163">
         <v>0.6</v>
@@ -35097,7 +35103,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35178,7 +35184,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ165">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR165">
         <v>1.44</v>
@@ -35303,7 +35309,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35715,7 +35721,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35921,7 +35927,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36127,7 +36133,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36208,7 +36214,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ170">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR170">
         <v>1.55</v>
@@ -36539,7 +36545,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36617,7 +36623,7 @@
         <v>1.89</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ172">
         <v>1.7</v>
@@ -36745,7 +36751,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36951,7 +36957,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37363,7 +37369,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37647,7 +37653,7 @@
         <v>1.44</v>
       </c>
       <c r="AP177">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ177">
         <v>1.4</v>
@@ -37981,7 +37987,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38268,7 +38274,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ180">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR180">
         <v>1.08</v>
@@ -38393,7 +38399,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38599,7 +38605,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38805,7 +38811,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39217,7 +39223,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39298,7 +39304,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ185">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AR185">
         <v>1.47</v>
@@ -39629,7 +39635,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39835,7 +39841,7 @@
         <v>115</v>
       </c>
       <c r="P188" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q188">
         <v>3.3</v>
@@ -40247,7 +40253,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40404,6 +40410,418 @@
       </c>
       <c r="BP190">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7331114</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45458.25</v>
+      </c>
+      <c r="F191">
+        <v>20</v>
+      </c>
+      <c r="G191" t="s">
+        <v>72</v>
+      </c>
+      <c r="H191" t="s">
+        <v>71</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>3</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>207</v>
+      </c>
+      <c r="P191" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q191">
+        <v>4.75</v>
+      </c>
+      <c r="R191">
+        <v>2.15</v>
+      </c>
+      <c r="S191">
+        <v>2.25</v>
+      </c>
+      <c r="T191">
+        <v>1.38</v>
+      </c>
+      <c r="U191">
+        <v>2.9</v>
+      </c>
+      <c r="V191">
+        <v>2.75</v>
+      </c>
+      <c r="W191">
+        <v>1.4</v>
+      </c>
+      <c r="X191">
+        <v>6.5</v>
+      </c>
+      <c r="Y191">
+        <v>1.08</v>
+      </c>
+      <c r="Z191">
+        <v>4.43</v>
+      </c>
+      <c r="AA191">
+        <v>3.7</v>
+      </c>
+      <c r="AB191">
+        <v>1.67</v>
+      </c>
+      <c r="AC191">
+        <v>1.01</v>
+      </c>
+      <c r="AD191">
+        <v>9.4</v>
+      </c>
+      <c r="AE191">
+        <v>1.26</v>
+      </c>
+      <c r="AF191">
+        <v>3.34</v>
+      </c>
+      <c r="AG191">
+        <v>1.85</v>
+      </c>
+      <c r="AH191">
+        <v>1.85</v>
+      </c>
+      <c r="AI191">
+        <v>1.8</v>
+      </c>
+      <c r="AJ191">
+        <v>1.95</v>
+      </c>
+      <c r="AK191">
+        <v>2.1</v>
+      </c>
+      <c r="AL191">
+        <v>1.2</v>
+      </c>
+      <c r="AM191">
+        <v>1.15</v>
+      </c>
+      <c r="AN191">
+        <v>1.5</v>
+      </c>
+      <c r="AO191">
+        <v>1.7</v>
+      </c>
+      <c r="AP191">
+        <v>1.36</v>
+      </c>
+      <c r="AQ191">
+        <v>1.82</v>
+      </c>
+      <c r="AR191">
+        <v>1.35</v>
+      </c>
+      <c r="AS191">
+        <v>1.53</v>
+      </c>
+      <c r="AT191">
+        <v>2.88</v>
+      </c>
+      <c r="AU191">
+        <v>3</v>
+      </c>
+      <c r="AV191">
+        <v>9</v>
+      </c>
+      <c r="AW191">
+        <v>7</v>
+      </c>
+      <c r="AX191">
+        <v>9</v>
+      </c>
+      <c r="AY191">
+        <v>10</v>
+      </c>
+      <c r="AZ191">
+        <v>18</v>
+      </c>
+      <c r="BA191">
+        <v>3</v>
+      </c>
+      <c r="BB191">
+        <v>5</v>
+      </c>
+      <c r="BC191">
+        <v>8</v>
+      </c>
+      <c r="BD191">
+        <v>3.66</v>
+      </c>
+      <c r="BE191">
+        <v>9</v>
+      </c>
+      <c r="BF191">
+        <v>1.41</v>
+      </c>
+      <c r="BG191">
+        <v>1.29</v>
+      </c>
+      <c r="BH191">
+        <v>3.4</v>
+      </c>
+      <c r="BI191">
+        <v>1.44</v>
+      </c>
+      <c r="BJ191">
+        <v>2.6</v>
+      </c>
+      <c r="BK191">
+        <v>2</v>
+      </c>
+      <c r="BL191">
+        <v>1.8</v>
+      </c>
+      <c r="BM191">
+        <v>2.25</v>
+      </c>
+      <c r="BN191">
+        <v>1.57</v>
+      </c>
+      <c r="BO191">
+        <v>3</v>
+      </c>
+      <c r="BP191">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7331115</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F192">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>82</v>
+      </c>
+      <c r="H192" t="s">
+        <v>88</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>208</v>
+      </c>
+      <c r="P192" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q192">
+        <v>3.36</v>
+      </c>
+      <c r="R192">
+        <v>2.09</v>
+      </c>
+      <c r="S192">
+        <v>2.93</v>
+      </c>
+      <c r="T192">
+        <v>1.39</v>
+      </c>
+      <c r="U192">
+        <v>2.85</v>
+      </c>
+      <c r="V192">
+        <v>2.81</v>
+      </c>
+      <c r="W192">
+        <v>1.4</v>
+      </c>
+      <c r="X192">
+        <v>6.9</v>
+      </c>
+      <c r="Y192">
+        <v>1.07</v>
+      </c>
+      <c r="Z192">
+        <v>2.61</v>
+      </c>
+      <c r="AA192">
+        <v>3.2</v>
+      </c>
+      <c r="AB192">
+        <v>2.5</v>
+      </c>
+      <c r="AC192">
+        <v>1.02</v>
+      </c>
+      <c r="AD192">
+        <v>9.1</v>
+      </c>
+      <c r="AE192">
+        <v>1.27</v>
+      </c>
+      <c r="AF192">
+        <v>3.28</v>
+      </c>
+      <c r="AG192">
+        <v>1.9</v>
+      </c>
+      <c r="AH192">
+        <v>1.8</v>
+      </c>
+      <c r="AI192">
+        <v>1.69</v>
+      </c>
+      <c r="AJ192">
+        <v>2</v>
+      </c>
+      <c r="AK192">
+        <v>1.51</v>
+      </c>
+      <c r="AL192">
+        <v>1.28</v>
+      </c>
+      <c r="AM192">
+        <v>1.39</v>
+      </c>
+      <c r="AN192">
+        <v>1.11</v>
+      </c>
+      <c r="AO192">
+        <v>1.1</v>
+      </c>
+      <c r="AP192">
+        <v>1.3</v>
+      </c>
+      <c r="AQ192">
+        <v>1</v>
+      </c>
+      <c r="AR192">
+        <v>1.35</v>
+      </c>
+      <c r="AS192">
+        <v>1.39</v>
+      </c>
+      <c r="AT192">
+        <v>2.74</v>
+      </c>
+      <c r="AU192">
+        <v>0</v>
+      </c>
+      <c r="AV192">
+        <v>0</v>
+      </c>
+      <c r="AW192">
+        <v>3</v>
+      </c>
+      <c r="AX192">
+        <v>3</v>
+      </c>
+      <c r="AY192">
+        <v>3</v>
+      </c>
+      <c r="AZ192">
+        <v>3</v>
+      </c>
+      <c r="BA192">
+        <v>0</v>
+      </c>
+      <c r="BB192">
+        <v>5</v>
+      </c>
+      <c r="BC192">
+        <v>5</v>
+      </c>
+      <c r="BD192">
+        <v>1.82</v>
+      </c>
+      <c r="BE192">
+        <v>8</v>
+      </c>
+      <c r="BF192">
+        <v>2.33</v>
+      </c>
+      <c r="BG192">
+        <v>1.22</v>
+      </c>
+      <c r="BH192">
+        <v>3.8</v>
+      </c>
+      <c r="BI192">
+        <v>1.32</v>
+      </c>
+      <c r="BJ192">
+        <v>3.1</v>
+      </c>
+      <c r="BK192">
+        <v>1.8</v>
+      </c>
+      <c r="BL192">
+        <v>2</v>
+      </c>
+      <c r="BM192">
+        <v>2.03</v>
+      </c>
+      <c r="BN192">
+        <v>1.7</v>
+      </c>
+      <c r="BO192">
+        <v>2.62</v>
+      </c>
+      <c r="BP192">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,18 @@
     <t>['80', '90+3']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['55', '90+3']</t>
+  </si>
+  <si>
+    <t>['8', '59', '90']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -659,9 +671,6 @@
   </si>
   <si>
     <t>['60', '69']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['21', '32', '36']</t>
@@ -740,9 +749,6 @@
   </si>
   <si>
     <t>['24', '90+2']</t>
-  </si>
-  <si>
-    <t>['19']</t>
   </si>
   <si>
     <t>['67', '79']</t>
@@ -905,6 +911,15 @@
   </si>
   <si>
     <t>['20', '24', '85']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['15', '90+6']</t>
+  </si>
+  <si>
+    <t>['52', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1603,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1731,7 +1746,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1812,7 +1827,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2018,7 +2033,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2221,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2349,7 +2364,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2427,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2636,7 +2651,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ7">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2761,7 +2776,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2839,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ8">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3045,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ9">
         <v>0.6</v>
@@ -3173,7 +3188,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3254,7 +3269,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ10">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3457,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ11">
         <v>1.9</v>
@@ -3585,7 +3600,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3791,7 +3806,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3869,10 +3884,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ13">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -4075,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4487,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ16">
         <v>1.82</v>
@@ -4696,7 +4711,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4899,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5108,7 +5123,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5233,7 +5248,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5311,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5439,7 +5454,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5645,7 +5660,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5726,7 +5741,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5851,7 +5866,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5932,7 +5947,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ23">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6341,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ25">
         <v>0.6</v>
@@ -6547,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>0.89</v>
@@ -6962,7 +6977,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -7087,7 +7102,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7168,7 +7183,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7293,7 +7308,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7371,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ30">
         <v>1.56</v>
@@ -7499,7 +7514,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7577,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ31">
         <v>1.4</v>
@@ -7705,7 +7720,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7786,7 +7801,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8195,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8323,7 +8338,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8401,10 +8416,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8529,7 +8544,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8610,7 +8625,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ36">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -9147,7 +9162,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9353,7 +9368,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9431,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ40">
         <v>1.67</v>
@@ -9559,7 +9574,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9640,7 +9655,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -10049,7 +10064,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ43">
         <v>0.6</v>
@@ -10795,7 +10810,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10873,10 +10888,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -11082,7 +11097,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ48">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11285,7 +11300,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ49">
         <v>1.56</v>
@@ -11413,7 +11428,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11491,10 +11506,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11619,7 +11634,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11700,7 +11715,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -11825,7 +11840,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12031,7 +12046,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12112,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12524,7 +12539,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12649,7 +12664,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12933,7 +12948,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -13139,7 +13154,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13345,10 +13360,10 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13473,7 +13488,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13679,7 +13694,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13757,10 +13772,10 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13885,7 +13900,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13966,7 +13981,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ62">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR62">
         <v>1.39</v>
@@ -14584,7 +14599,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ65">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR65">
         <v>1.29</v>
@@ -14787,7 +14802,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ66">
         <v>0.6</v>
@@ -14915,7 +14930,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15199,10 +15214,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15405,7 +15420,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ69">
         <v>1.4</v>
@@ -15611,7 +15626,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15739,7 +15754,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15820,7 +15835,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ71">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR71">
         <v>1.06</v>
@@ -16151,7 +16166,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16357,7 +16372,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16563,7 +16578,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16644,7 +16659,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>2.06</v>
@@ -16850,7 +16865,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ76">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR76">
         <v>1.19</v>
@@ -16975,7 +16990,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17053,7 +17068,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ77">
         <v>1.67</v>
@@ -17259,7 +17274,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17387,7 +17402,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>2.8</v>
@@ -17593,7 +17608,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17671,7 +17686,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17877,10 +17892,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ81">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR81">
         <v>2.09</v>
@@ -18005,7 +18020,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18083,10 +18098,10 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ82">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -18498,7 +18513,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18701,7 +18716,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ85">
         <v>0.89</v>
@@ -18829,7 +18844,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19116,7 +19131,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ87">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19653,7 +19668,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19731,10 +19746,10 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ90">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR90">
         <v>1.34</v>
@@ -19859,7 +19874,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19937,10 +19952,10 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20065,7 +20080,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20143,7 +20158,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ92">
         <v>1.67</v>
@@ -20352,7 +20367,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.45</v>
@@ -20555,7 +20570,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -20683,7 +20698,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20761,10 +20776,10 @@
         <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ95">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20889,7 +20904,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -20967,10 +20982,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ96">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21095,7 +21110,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21173,7 +21188,7 @@
         <v>0.4</v>
       </c>
       <c r="AP97">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ97">
         <v>0.6</v>
@@ -21382,7 +21397,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21919,7 +21934,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21997,10 +22012,10 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ101">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR101">
         <v>1.63</v>
@@ -22412,7 +22427,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ103">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>1.24</v>
@@ -22537,7 +22552,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22743,7 +22758,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22949,7 +22964,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q106">
         <v>2.73</v>
@@ -23155,7 +23170,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23233,10 +23248,10 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ107">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR107">
         <v>2.24</v>
@@ -23361,7 +23376,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23773,7 +23788,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23851,7 +23866,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ110">
         <v>1.67</v>
@@ -24060,7 +24075,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ111">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24185,7 +24200,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24263,7 +24278,7 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
         <v>1.4</v>
@@ -24391,7 +24406,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24469,7 +24484,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24597,7 +24612,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24675,10 +24690,10 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ114">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -24881,10 +24896,10 @@
         <v>2.33</v>
       </c>
       <c r="AP115">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ115">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -25009,7 +25024,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25087,7 +25102,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ116">
         <v>1.67</v>
@@ -25296,7 +25311,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ117">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25421,7 +25436,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26120,7 +26135,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ121">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26451,7 +26466,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26657,7 +26672,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26735,7 +26750,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ124">
         <v>0.6</v>
@@ -26863,7 +26878,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -26944,7 +26959,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR125">
         <v>1.64</v>
@@ -27069,7 +27084,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27150,7 +27165,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ126">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR126">
         <v>1.87</v>
@@ -27481,7 +27496,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27562,7 +27577,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27765,10 +27780,10 @@
         <v>1.83</v>
       </c>
       <c r="AP129">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR129">
         <v>1.7</v>
@@ -27893,7 +27908,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28177,7 +28192,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ131">
         <v>1.4</v>
@@ -28589,10 +28604,10 @@
         <v>2.33</v>
       </c>
       <c r="AP133">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ133">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28717,7 +28732,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28798,7 +28813,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ134">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -28923,7 +28938,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29413,7 +29428,7 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ137">
         <v>1.56</v>
@@ -29541,7 +29556,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29622,7 +29637,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ138">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -29747,7 +29762,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -29825,10 +29840,10 @@
         <v>2.14</v>
       </c>
       <c r="AP139">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ139">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR139">
         <v>1.17</v>
@@ -30031,7 +30046,7 @@
         <v>1.57</v>
       </c>
       <c r="AP140">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ140">
         <v>1.67</v>
@@ -30237,7 +30252,7 @@
         <v>1.67</v>
       </c>
       <c r="AP141">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ141">
         <v>1.82</v>
@@ -30365,7 +30380,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30443,7 +30458,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142">
         <v>0.67</v>
@@ -30777,7 +30792,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -30855,10 +30870,10 @@
         <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ144">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -31061,7 +31076,7 @@
         <v>1.43</v>
       </c>
       <c r="AP145">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ145">
         <v>1.82</v>
@@ -31189,7 +31204,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31476,7 +31491,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31682,7 +31697,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ148">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR148">
         <v>1.56</v>
@@ -31888,7 +31903,7 @@
         <v>2</v>
       </c>
       <c r="AQ149">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR149">
         <v>1.67</v>
@@ -32013,7 +32028,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32091,7 +32106,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32219,7 +32234,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32425,7 +32440,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32712,7 +32727,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ153">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR153">
         <v>1.55</v>
@@ -32837,7 +32852,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -32915,7 +32930,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ154">
         <v>1</v>
@@ -33121,7 +33136,7 @@
         <v>1.86</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ155">
         <v>1.67</v>
@@ -33249,7 +33264,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33330,7 +33345,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ156">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33455,7 +33470,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33533,7 +33548,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ157">
         <v>1.67</v>
@@ -33661,7 +33676,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33742,7 +33757,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ158">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR158">
         <v>1.41</v>
@@ -33948,7 +33963,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ159">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR159">
         <v>1.54</v>
@@ -34073,7 +34088,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34279,7 +34294,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34563,10 +34578,10 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ162">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR162">
         <v>1.3</v>
@@ -34691,7 +34706,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35103,7 +35118,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35309,7 +35324,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35387,10 +35402,10 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35721,7 +35736,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35799,10 +35814,10 @@
         <v>1.57</v>
       </c>
       <c r="AP168">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ168">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR168">
         <v>1.62</v>
@@ -35927,7 +35942,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36133,7 +36148,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36211,7 +36226,7 @@
         <v>0.88</v>
       </c>
       <c r="AP170">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36417,10 +36432,10 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ171">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR171">
         <v>1.43</v>
@@ -36545,7 +36560,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36626,7 +36641,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ172">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -36751,7 +36766,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36829,10 +36844,10 @@
         <v>1.5</v>
       </c>
       <c r="AP173">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ173">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR173">
         <v>1.34</v>
@@ -36957,7 +36972,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37035,10 +37050,10 @@
         <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR174">
         <v>2.17</v>
@@ -37369,7 +37384,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37447,7 +37462,7 @@
         <v>1.88</v>
       </c>
       <c r="AP176">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ176">
         <v>1.9</v>
@@ -37656,7 +37671,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ177">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR177">
         <v>1.37</v>
@@ -37862,7 +37877,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ178">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR178">
         <v>1.66</v>
@@ -37987,7 +38002,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38065,10 +38080,10 @@
         <v>2.25</v>
       </c>
       <c r="AP179">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ179">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR179">
         <v>1.55</v>
@@ -38271,7 +38286,7 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ180">
         <v>1</v>
@@ -38399,7 +38414,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38605,7 +38620,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38811,7 +38826,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39223,7 +39238,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39507,7 +39522,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ186">
         <v>0.89</v>
@@ -39635,7 +39650,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39841,7 +39856,7 @@
         <v>115</v>
       </c>
       <c r="P188" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q188">
         <v>3.3</v>
@@ -40253,7 +40268,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40459,7 +40474,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -40758,31 +40773,31 @@
         <v>2.74</v>
       </c>
       <c r="AU192">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV192">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX192">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY192">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ192">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BA192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB192">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BC192">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD192">
         <v>1.82</v>
@@ -40822,6 +40837,1654 @@
       </c>
       <c r="BP192">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7331116</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45459.16666666666</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>83</v>
+      </c>
+      <c r="H193" t="s">
+        <v>86</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>209</v>
+      </c>
+      <c r="P193" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q193">
+        <v>2.75</v>
+      </c>
+      <c r="R193">
+        <v>2.2</v>
+      </c>
+      <c r="S193">
+        <v>3.75</v>
+      </c>
+      <c r="T193">
+        <v>1.36</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>2.75</v>
+      </c>
+      <c r="W193">
+        <v>1.4</v>
+      </c>
+      <c r="X193">
+        <v>7</v>
+      </c>
+      <c r="Y193">
+        <v>1.1</v>
+      </c>
+      <c r="Z193">
+        <v>2.1</v>
+      </c>
+      <c r="AA193">
+        <v>3.5</v>
+      </c>
+      <c r="AB193">
+        <v>3</v>
+      </c>
+      <c r="AC193">
+        <v>1.04</v>
+      </c>
+      <c r="AD193">
+        <v>9</v>
+      </c>
+      <c r="AE193">
+        <v>1.28</v>
+      </c>
+      <c r="AF193">
+        <v>3.5</v>
+      </c>
+      <c r="AG193">
+        <v>1.8</v>
+      </c>
+      <c r="AH193">
+        <v>1.9</v>
+      </c>
+      <c r="AI193">
+        <v>1.67</v>
+      </c>
+      <c r="AJ193">
+        <v>2.1</v>
+      </c>
+      <c r="AK193">
+        <v>1.36</v>
+      </c>
+      <c r="AL193">
+        <v>1.22</v>
+      </c>
+      <c r="AM193">
+        <v>1.66</v>
+      </c>
+      <c r="AN193">
+        <v>1.33</v>
+      </c>
+      <c r="AO193">
+        <v>1.7</v>
+      </c>
+      <c r="AP193">
+        <v>1.3</v>
+      </c>
+      <c r="AQ193">
+        <v>1.64</v>
+      </c>
+      <c r="AR193">
+        <v>1.59</v>
+      </c>
+      <c r="AS193">
+        <v>1.54</v>
+      </c>
+      <c r="AT193">
+        <v>3.13</v>
+      </c>
+      <c r="AU193">
+        <v>2</v>
+      </c>
+      <c r="AV193">
+        <v>3</v>
+      </c>
+      <c r="AW193">
+        <v>8</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>10</v>
+      </c>
+      <c r="AZ193">
+        <v>8</v>
+      </c>
+      <c r="BA193">
+        <v>2</v>
+      </c>
+      <c r="BB193">
+        <v>14</v>
+      </c>
+      <c r="BC193">
+        <v>16</v>
+      </c>
+      <c r="BD193">
+        <v>1.75</v>
+      </c>
+      <c r="BE193">
+        <v>8</v>
+      </c>
+      <c r="BF193">
+        <v>2.44</v>
+      </c>
+      <c r="BG193">
+        <v>1.25</v>
+      </c>
+      <c r="BH193">
+        <v>3.6</v>
+      </c>
+      <c r="BI193">
+        <v>1.4</v>
+      </c>
+      <c r="BJ193">
+        <v>2.75</v>
+      </c>
+      <c r="BK193">
+        <v>1.73</v>
+      </c>
+      <c r="BL193">
+        <v>2</v>
+      </c>
+      <c r="BM193">
+        <v>2.17</v>
+      </c>
+      <c r="BN193">
+        <v>1.61</v>
+      </c>
+      <c r="BO193">
+        <v>2.85</v>
+      </c>
+      <c r="BP193">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7331117</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45459.20833333334</v>
+      </c>
+      <c r="F194">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>70</v>
+      </c>
+      <c r="H194" t="s">
+        <v>89</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>210</v>
+      </c>
+      <c r="P194" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q194">
+        <v>3.4</v>
+      </c>
+      <c r="R194">
+        <v>1.95</v>
+      </c>
+      <c r="S194">
+        <v>3.6</v>
+      </c>
+      <c r="T194">
+        <v>1.53</v>
+      </c>
+      <c r="U194">
+        <v>2.38</v>
+      </c>
+      <c r="V194">
+        <v>3.5</v>
+      </c>
+      <c r="W194">
+        <v>1.29</v>
+      </c>
+      <c r="X194">
+        <v>11</v>
+      </c>
+      <c r="Y194">
+        <v>1.05</v>
+      </c>
+      <c r="Z194">
+        <v>2.5</v>
+      </c>
+      <c r="AA194">
+        <v>3</v>
+      </c>
+      <c r="AB194">
+        <v>2.76</v>
+      </c>
+      <c r="AC194">
+        <v>1.1</v>
+      </c>
+      <c r="AD194">
+        <v>6.25</v>
+      </c>
+      <c r="AE194">
+        <v>1.5</v>
+      </c>
+      <c r="AF194">
+        <v>2.45</v>
+      </c>
+      <c r="AG194">
+        <v>2.34</v>
+      </c>
+      <c r="AH194">
+        <v>1.53</v>
+      </c>
+      <c r="AI194">
+        <v>2</v>
+      </c>
+      <c r="AJ194">
+        <v>1.73</v>
+      </c>
+      <c r="AK194">
+        <v>1.4</v>
+      </c>
+      <c r="AL194">
+        <v>1.3</v>
+      </c>
+      <c r="AM194">
+        <v>1.47</v>
+      </c>
+      <c r="AN194">
+        <v>1</v>
+      </c>
+      <c r="AO194">
+        <v>1.4</v>
+      </c>
+      <c r="AP194">
+        <v>1.18</v>
+      </c>
+      <c r="AQ194">
+        <v>1.27</v>
+      </c>
+      <c r="AR194">
+        <v>1.53</v>
+      </c>
+      <c r="AS194">
+        <v>1.41</v>
+      </c>
+      <c r="AT194">
+        <v>2.94</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>3</v>
+      </c>
+      <c r="AW194">
+        <v>2</v>
+      </c>
+      <c r="AX194">
+        <v>9</v>
+      </c>
+      <c r="AY194">
+        <v>6</v>
+      </c>
+      <c r="AZ194">
+        <v>12</v>
+      </c>
+      <c r="BA194">
+        <v>3</v>
+      </c>
+      <c r="BB194">
+        <v>7</v>
+      </c>
+      <c r="BC194">
+        <v>10</v>
+      </c>
+      <c r="BD194">
+        <v>2.05</v>
+      </c>
+      <c r="BE194">
+        <v>8</v>
+      </c>
+      <c r="BF194">
+        <v>2.05</v>
+      </c>
+      <c r="BG194">
+        <v>1.25</v>
+      </c>
+      <c r="BH194">
+        <v>3.6</v>
+      </c>
+      <c r="BI194">
+        <v>1.43</v>
+      </c>
+      <c r="BJ194">
+        <v>2.62</v>
+      </c>
+      <c r="BK194">
+        <v>2</v>
+      </c>
+      <c r="BL194">
+        <v>1.8</v>
+      </c>
+      <c r="BM194">
+        <v>2.22</v>
+      </c>
+      <c r="BN194">
+        <v>1.59</v>
+      </c>
+      <c r="BO194">
+        <v>2.95</v>
+      </c>
+      <c r="BP194">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7331118</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F195">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>87</v>
+      </c>
+      <c r="H195" t="s">
+        <v>80</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>211</v>
+      </c>
+      <c r="P195" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q195">
+        <v>3.4</v>
+      </c>
+      <c r="R195">
+        <v>2.2</v>
+      </c>
+      <c r="S195">
+        <v>3.2</v>
+      </c>
+      <c r="T195">
+        <v>1.4</v>
+      </c>
+      <c r="U195">
+        <v>2.75</v>
+      </c>
+      <c r="V195">
+        <v>2.75</v>
+      </c>
+      <c r="W195">
+        <v>1.4</v>
+      </c>
+      <c r="X195">
+        <v>8</v>
+      </c>
+      <c r="Y195">
+        <v>1.08</v>
+      </c>
+      <c r="Z195">
+        <v>2.6</v>
+      </c>
+      <c r="AA195">
+        <v>3.2</v>
+      </c>
+      <c r="AB195">
+        <v>2.51</v>
+      </c>
+      <c r="AC195">
+        <v>1.05</v>
+      </c>
+      <c r="AD195">
+        <v>8.5</v>
+      </c>
+      <c r="AE195">
+        <v>1.3</v>
+      </c>
+      <c r="AF195">
+        <v>3.3</v>
+      </c>
+      <c r="AG195">
+        <v>1.9</v>
+      </c>
+      <c r="AH195">
+        <v>1.8</v>
+      </c>
+      <c r="AI195">
+        <v>1.73</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>1.5</v>
+      </c>
+      <c r="AL195">
+        <v>1.25</v>
+      </c>
+      <c r="AM195">
+        <v>1.44</v>
+      </c>
+      <c r="AN195">
+        <v>1.56</v>
+      </c>
+      <c r="AO195">
+        <v>2.33</v>
+      </c>
+      <c r="AP195">
+        <v>1.5</v>
+      </c>
+      <c r="AQ195">
+        <v>2.2</v>
+      </c>
+      <c r="AR195">
+        <v>1.6</v>
+      </c>
+      <c r="AS195">
+        <v>1.73</v>
+      </c>
+      <c r="AT195">
+        <v>3.33</v>
+      </c>
+      <c r="AU195">
+        <v>4</v>
+      </c>
+      <c r="AV195">
+        <v>10</v>
+      </c>
+      <c r="AW195">
+        <v>8</v>
+      </c>
+      <c r="AX195">
+        <v>6</v>
+      </c>
+      <c r="AY195">
+        <v>12</v>
+      </c>
+      <c r="AZ195">
+        <v>16</v>
+      </c>
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>10</v>
+      </c>
+      <c r="BD195">
+        <v>1.69</v>
+      </c>
+      <c r="BE195">
+        <v>8</v>
+      </c>
+      <c r="BF195">
+        <v>2.54</v>
+      </c>
+      <c r="BG195">
+        <v>1.3</v>
+      </c>
+      <c r="BH195">
+        <v>3.2</v>
+      </c>
+      <c r="BI195">
+        <v>1.47</v>
+      </c>
+      <c r="BJ195">
+        <v>2.5</v>
+      </c>
+      <c r="BK195">
+        <v>2.1</v>
+      </c>
+      <c r="BL195">
+        <v>1.67</v>
+      </c>
+      <c r="BM195">
+        <v>2.45</v>
+      </c>
+      <c r="BN195">
+        <v>1.49</v>
+      </c>
+      <c r="BO195">
+        <v>3.35</v>
+      </c>
+      <c r="BP195">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7331119</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>73</v>
+      </c>
+      <c r="H196" t="s">
+        <v>81</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>212</v>
+      </c>
+      <c r="P196" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q196">
+        <v>5.5</v>
+      </c>
+      <c r="R196">
+        <v>2.4</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
+        <v>1.3</v>
+      </c>
+      <c r="U196">
+        <v>3.4</v>
+      </c>
+      <c r="V196">
+        <v>2.5</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>6</v>
+      </c>
+      <c r="Y196">
+        <v>1.13</v>
+      </c>
+      <c r="Z196">
+        <v>5.18</v>
+      </c>
+      <c r="AA196">
+        <v>4.25</v>
+      </c>
+      <c r="AB196">
+        <v>1.5</v>
+      </c>
+      <c r="AC196">
+        <v>1.03</v>
+      </c>
+      <c r="AD196">
+        <v>10</v>
+      </c>
+      <c r="AE196">
+        <v>1.2</v>
+      </c>
+      <c r="AF196">
+        <v>4.33</v>
+      </c>
+      <c r="AG196">
+        <v>1.65</v>
+      </c>
+      <c r="AH196">
+        <v>2.11</v>
+      </c>
+      <c r="AI196">
+        <v>1.73</v>
+      </c>
+      <c r="AJ196">
+        <v>2</v>
+      </c>
+      <c r="AK196">
+        <v>2.45</v>
+      </c>
+      <c r="AL196">
+        <v>1.16</v>
+      </c>
+      <c r="AM196">
+        <v>1.1</v>
+      </c>
+      <c r="AN196">
+        <v>1.6</v>
+      </c>
+      <c r="AO196">
+        <v>1.8</v>
+      </c>
+      <c r="AP196">
+        <v>1.73</v>
+      </c>
+      <c r="AQ196">
+        <v>1.64</v>
+      </c>
+      <c r="AR196">
+        <v>1.21</v>
+      </c>
+      <c r="AS196">
+        <v>1.45</v>
+      </c>
+      <c r="AT196">
+        <v>2.66</v>
+      </c>
+      <c r="AU196">
+        <v>5</v>
+      </c>
+      <c r="AV196">
+        <v>2</v>
+      </c>
+      <c r="AW196">
+        <v>5</v>
+      </c>
+      <c r="AX196">
+        <v>11</v>
+      </c>
+      <c r="AY196">
+        <v>10</v>
+      </c>
+      <c r="AZ196">
+        <v>13</v>
+      </c>
+      <c r="BA196">
+        <v>2</v>
+      </c>
+      <c r="BB196">
+        <v>11</v>
+      </c>
+      <c r="BC196">
+        <v>13</v>
+      </c>
+      <c r="BD196">
+        <v>4.13</v>
+      </c>
+      <c r="BE196">
+        <v>9.5</v>
+      </c>
+      <c r="BF196">
+        <v>1.31</v>
+      </c>
+      <c r="BG196">
+        <v>1.18</v>
+      </c>
+      <c r="BH196">
+        <v>4.33</v>
+      </c>
+      <c r="BI196">
+        <v>1.3</v>
+      </c>
+      <c r="BJ196">
+        <v>3.2</v>
+      </c>
+      <c r="BK196">
+        <v>1.47</v>
+      </c>
+      <c r="BL196">
+        <v>2.5</v>
+      </c>
+      <c r="BM196">
+        <v>2</v>
+      </c>
+      <c r="BN196">
+        <v>1.73</v>
+      </c>
+      <c r="BO196">
+        <v>2.33</v>
+      </c>
+      <c r="BP196">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7331120</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
+      </c>
+      <c r="G197" t="s">
+        <v>76</v>
+      </c>
+      <c r="H197" t="s">
+        <v>75</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>92</v>
+      </c>
+      <c r="P197" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q197">
+        <v>3.5</v>
+      </c>
+      <c r="R197">
+        <v>2.1</v>
+      </c>
+      <c r="S197">
+        <v>3.2</v>
+      </c>
+      <c r="T197">
+        <v>1.44</v>
+      </c>
+      <c r="U197">
+        <v>2.63</v>
+      </c>
+      <c r="V197">
+        <v>3.25</v>
+      </c>
+      <c r="W197">
+        <v>1.33</v>
+      </c>
+      <c r="X197">
+        <v>9</v>
+      </c>
+      <c r="Y197">
+        <v>1.07</v>
+      </c>
+      <c r="Z197">
+        <v>2.69</v>
+      </c>
+      <c r="AA197">
+        <v>3.1</v>
+      </c>
+      <c r="AB197">
+        <v>2.5</v>
+      </c>
+      <c r="AC197">
+        <v>1.06</v>
+      </c>
+      <c r="AD197">
+        <v>8</v>
+      </c>
+      <c r="AE197">
+        <v>1.36</v>
+      </c>
+      <c r="AF197">
+        <v>3</v>
+      </c>
+      <c r="AG197">
+        <v>1.99</v>
+      </c>
+      <c r="AH197">
+        <v>1.73</v>
+      </c>
+      <c r="AI197">
+        <v>1.83</v>
+      </c>
+      <c r="AJ197">
+        <v>1.83</v>
+      </c>
+      <c r="AK197">
+        <v>1.52</v>
+      </c>
+      <c r="AL197">
+        <v>1.28</v>
+      </c>
+      <c r="AM197">
+        <v>1.42</v>
+      </c>
+      <c r="AN197">
+        <v>0.7</v>
+      </c>
+      <c r="AO197">
+        <v>1.5</v>
+      </c>
+      <c r="AP197">
+        <v>0.64</v>
+      </c>
+      <c r="AQ197">
+        <v>1.64</v>
+      </c>
+      <c r="AR197">
+        <v>1.51</v>
+      </c>
+      <c r="AS197">
+        <v>1.43</v>
+      </c>
+      <c r="AT197">
+        <v>2.94</v>
+      </c>
+      <c r="AU197">
+        <v>3</v>
+      </c>
+      <c r="AV197">
+        <v>10</v>
+      </c>
+      <c r="AW197">
+        <v>3</v>
+      </c>
+      <c r="AX197">
+        <v>18</v>
+      </c>
+      <c r="AY197">
+        <v>6</v>
+      </c>
+      <c r="AZ197">
+        <v>28</v>
+      </c>
+      <c r="BA197">
+        <v>5</v>
+      </c>
+      <c r="BB197">
+        <v>10</v>
+      </c>
+      <c r="BC197">
+        <v>15</v>
+      </c>
+      <c r="BD197">
+        <v>1.82</v>
+      </c>
+      <c r="BE197">
+        <v>8</v>
+      </c>
+      <c r="BF197">
+        <v>2.39</v>
+      </c>
+      <c r="BG197">
+        <v>1.33</v>
+      </c>
+      <c r="BH197">
+        <v>3</v>
+      </c>
+      <c r="BI197">
+        <v>1.54</v>
+      </c>
+      <c r="BJ197">
+        <v>2.25</v>
+      </c>
+      <c r="BK197">
+        <v>2.1</v>
+      </c>
+      <c r="BL197">
+        <v>1.67</v>
+      </c>
+      <c r="BM197">
+        <v>2.54</v>
+      </c>
+      <c r="BN197">
+        <v>1.43</v>
+      </c>
+      <c r="BO197">
+        <v>3.2</v>
+      </c>
+      <c r="BP197">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7331121</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>79</v>
+      </c>
+      <c r="H198" t="s">
+        <v>85</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>92</v>
+      </c>
+      <c r="P198" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q198">
+        <v>2.63</v>
+      </c>
+      <c r="R198">
+        <v>2.1</v>
+      </c>
+      <c r="S198">
+        <v>4.5</v>
+      </c>
+      <c r="T198">
+        <v>1.44</v>
+      </c>
+      <c r="U198">
+        <v>2.63</v>
+      </c>
+      <c r="V198">
+        <v>3.25</v>
+      </c>
+      <c r="W198">
+        <v>1.33</v>
+      </c>
+      <c r="X198">
+        <v>9</v>
+      </c>
+      <c r="Y198">
+        <v>1.07</v>
+      </c>
+      <c r="Z198">
+        <v>1.9</v>
+      </c>
+      <c r="AA198">
+        <v>3.3</v>
+      </c>
+      <c r="AB198">
+        <v>3.76</v>
+      </c>
+      <c r="AC198">
+        <v>1.03</v>
+      </c>
+      <c r="AD198">
+        <v>7.9</v>
+      </c>
+      <c r="AE198">
+        <v>1.34</v>
+      </c>
+      <c r="AF198">
+        <v>2.88</v>
+      </c>
+      <c r="AG198">
+        <v>2.03</v>
+      </c>
+      <c r="AH198">
+        <v>1.7</v>
+      </c>
+      <c r="AI198">
+        <v>1.91</v>
+      </c>
+      <c r="AJ198">
+        <v>1.8</v>
+      </c>
+      <c r="AK198">
+        <v>1.25</v>
+      </c>
+      <c r="AL198">
+        <v>1.25</v>
+      </c>
+      <c r="AM198">
+        <v>1.75</v>
+      </c>
+      <c r="AN198">
+        <v>0.9</v>
+      </c>
+      <c r="AO198">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP198">
+        <v>0.82</v>
+      </c>
+      <c r="AQ198">
+        <v>0.8</v>
+      </c>
+      <c r="AR198">
+        <v>1.34</v>
+      </c>
+      <c r="AS198">
+        <v>1.14</v>
+      </c>
+      <c r="AT198">
+        <v>2.48</v>
+      </c>
+      <c r="AU198">
+        <v>4</v>
+      </c>
+      <c r="AV198">
+        <v>4</v>
+      </c>
+      <c r="AW198">
+        <v>9</v>
+      </c>
+      <c r="AX198">
+        <v>6</v>
+      </c>
+      <c r="AY198">
+        <v>13</v>
+      </c>
+      <c r="AZ198">
+        <v>10</v>
+      </c>
+      <c r="BA198">
+        <v>3</v>
+      </c>
+      <c r="BB198">
+        <v>2</v>
+      </c>
+      <c r="BC198">
+        <v>5</v>
+      </c>
+      <c r="BD198">
+        <v>1.51</v>
+      </c>
+      <c r="BE198">
+        <v>8.5</v>
+      </c>
+      <c r="BF198">
+        <v>3.07</v>
+      </c>
+      <c r="BG198">
+        <v>1.33</v>
+      </c>
+      <c r="BH198">
+        <v>3</v>
+      </c>
+      <c r="BI198">
+        <v>1.49</v>
+      </c>
+      <c r="BJ198">
+        <v>2.45</v>
+      </c>
+      <c r="BK198">
+        <v>1.9</v>
+      </c>
+      <c r="BL198">
+        <v>1.9</v>
+      </c>
+      <c r="BM198">
+        <v>2.45</v>
+      </c>
+      <c r="BN198">
+        <v>1.49</v>
+      </c>
+      <c r="BO198">
+        <v>3.3</v>
+      </c>
+      <c r="BP198">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7331122</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45459.27083333334</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>77</v>
+      </c>
+      <c r="H199" t="s">
+        <v>84</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>92</v>
+      </c>
+      <c r="P199" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q199">
+        <v>4.33</v>
+      </c>
+      <c r="R199">
+        <v>1.95</v>
+      </c>
+      <c r="S199">
+        <v>2.7</v>
+      </c>
+      <c r="T199">
+        <v>1.54</v>
+      </c>
+      <c r="U199">
+        <v>2.36</v>
+      </c>
+      <c r="V199">
+        <v>3.45</v>
+      </c>
+      <c r="W199">
+        <v>1.25</v>
+      </c>
+      <c r="X199">
+        <v>8</v>
+      </c>
+      <c r="Y199">
+        <v>1.06</v>
+      </c>
+      <c r="Z199">
+        <v>4.15</v>
+      </c>
+      <c r="AA199">
+        <v>3.05</v>
+      </c>
+      <c r="AB199">
+        <v>1.9</v>
+      </c>
+      <c r="AC199">
+        <v>1.06</v>
+      </c>
+      <c r="AD199">
+        <v>6.75</v>
+      </c>
+      <c r="AE199">
+        <v>1.44</v>
+      </c>
+      <c r="AF199">
+        <v>2.51</v>
+      </c>
+      <c r="AG199">
+        <v>2.34</v>
+      </c>
+      <c r="AH199">
+        <v>1.53</v>
+      </c>
+      <c r="AI199">
+        <v>2.1</v>
+      </c>
+      <c r="AJ199">
+        <v>1.7</v>
+      </c>
+      <c r="AK199">
+        <v>1.75</v>
+      </c>
+      <c r="AL199">
+        <v>1.28</v>
+      </c>
+      <c r="AM199">
+        <v>1.22</v>
+      </c>
+      <c r="AN199">
+        <v>0.3</v>
+      </c>
+      <c r="AO199">
+        <v>1.67</v>
+      </c>
+      <c r="AP199">
+        <v>0.27</v>
+      </c>
+      <c r="AQ199">
+        <v>1.8</v>
+      </c>
+      <c r="AR199">
+        <v>1.05</v>
+      </c>
+      <c r="AS199">
+        <v>1.45</v>
+      </c>
+      <c r="AT199">
+        <v>2.5</v>
+      </c>
+      <c r="AU199">
+        <v>2</v>
+      </c>
+      <c r="AV199">
+        <v>3</v>
+      </c>
+      <c r="AW199">
+        <v>3</v>
+      </c>
+      <c r="AX199">
+        <v>5</v>
+      </c>
+      <c r="AY199">
+        <v>5</v>
+      </c>
+      <c r="AZ199">
+        <v>8</v>
+      </c>
+      <c r="BA199">
+        <v>1</v>
+      </c>
+      <c r="BB199">
+        <v>3</v>
+      </c>
+      <c r="BC199">
+        <v>4</v>
+      </c>
+      <c r="BD199">
+        <v>2.52</v>
+      </c>
+      <c r="BE199">
+        <v>8</v>
+      </c>
+      <c r="BF199">
+        <v>1.75</v>
+      </c>
+      <c r="BG199">
+        <v>1.36</v>
+      </c>
+      <c r="BH199">
+        <v>2.9</v>
+      </c>
+      <c r="BI199">
+        <v>1.54</v>
+      </c>
+      <c r="BJ199">
+        <v>2.25</v>
+      </c>
+      <c r="BK199">
+        <v>1.92</v>
+      </c>
+      <c r="BL199">
+        <v>1.88</v>
+      </c>
+      <c r="BM199">
+        <v>2.54</v>
+      </c>
+      <c r="BN199">
+        <v>1.43</v>
+      </c>
+      <c r="BO199">
+        <v>3.3</v>
+      </c>
+      <c r="BP199">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7331123</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45459.29166666666</v>
+      </c>
+      <c r="F200">
+        <v>20</v>
+      </c>
+      <c r="G200" t="s">
+        <v>74</v>
+      </c>
+      <c r="H200" t="s">
+        <v>78</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="O200" t="s">
+        <v>97</v>
+      </c>
+      <c r="P200" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q200">
+        <v>2.38</v>
+      </c>
+      <c r="R200">
+        <v>2.2</v>
+      </c>
+      <c r="S200">
+        <v>5</v>
+      </c>
+      <c r="T200">
+        <v>1.4</v>
+      </c>
+      <c r="U200">
+        <v>2.75</v>
+      </c>
+      <c r="V200">
+        <v>3</v>
+      </c>
+      <c r="W200">
+        <v>1.36</v>
+      </c>
+      <c r="X200">
+        <v>8</v>
+      </c>
+      <c r="Y200">
+        <v>1.08</v>
+      </c>
+      <c r="Z200">
+        <v>1.72</v>
+      </c>
+      <c r="AA200">
+        <v>3.5</v>
+      </c>
+      <c r="AB200">
+        <v>4.39</v>
+      </c>
+      <c r="AC200">
+        <v>1.02</v>
+      </c>
+      <c r="AD200">
+        <v>9</v>
+      </c>
+      <c r="AE200">
+        <v>1.28</v>
+      </c>
+      <c r="AF200">
+        <v>3.2</v>
+      </c>
+      <c r="AG200">
+        <v>1.9</v>
+      </c>
+      <c r="AH200">
+        <v>1.8</v>
+      </c>
+      <c r="AI200">
+        <v>1.83</v>
+      </c>
+      <c r="AJ200">
+        <v>1.83</v>
+      </c>
+      <c r="AK200">
+        <v>1.15</v>
+      </c>
+      <c r="AL200">
+        <v>1.22</v>
+      </c>
+      <c r="AM200">
+        <v>2.05</v>
+      </c>
+      <c r="AN200">
+        <v>1.78</v>
+      </c>
+      <c r="AO200">
+        <v>1.67</v>
+      </c>
+      <c r="AP200">
+        <v>1.9</v>
+      </c>
+      <c r="AQ200">
+        <v>1.5</v>
+      </c>
+      <c r="AR200">
+        <v>2.16</v>
+      </c>
+      <c r="AS200">
+        <v>1.27</v>
+      </c>
+      <c r="AT200">
+        <v>3.43</v>
+      </c>
+      <c r="AU200">
+        <v>4</v>
+      </c>
+      <c r="AV200">
+        <v>4</v>
+      </c>
+      <c r="AW200">
+        <v>7</v>
+      </c>
+      <c r="AX200">
+        <v>9</v>
+      </c>
+      <c r="AY200">
+        <v>11</v>
+      </c>
+      <c r="AZ200">
+        <v>13</v>
+      </c>
+      <c r="BA200">
+        <v>5</v>
+      </c>
+      <c r="BB200">
+        <v>7</v>
+      </c>
+      <c r="BC200">
+        <v>12</v>
+      </c>
+      <c r="BD200">
+        <v>1.37</v>
+      </c>
+      <c r="BE200">
+        <v>9</v>
+      </c>
+      <c r="BF200">
+        <v>3.7</v>
+      </c>
+      <c r="BG200">
+        <v>1.3</v>
+      </c>
+      <c r="BH200">
+        <v>3.2</v>
+      </c>
+      <c r="BI200">
+        <v>1.47</v>
+      </c>
+      <c r="BJ200">
+        <v>2.5</v>
+      </c>
+      <c r="BK200">
+        <v>1.95</v>
+      </c>
+      <c r="BL200">
+        <v>1.85</v>
+      </c>
+      <c r="BM200">
+        <v>2.35</v>
+      </c>
+      <c r="BN200">
+        <v>1.52</v>
+      </c>
+      <c r="BO200">
+        <v>3.15</v>
+      </c>
+      <c r="BP200">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -652,7 +652,7 @@
     <t>['55', '90+3']</t>
   </si>
   <si>
-    <t>['8', '59', '90']</t>
+    <t>['7', '59', '90']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -40982,19 +40982,19 @@
         <v>2</v>
       </c>
       <c r="AV193">
+        <v>8</v>
+      </c>
+      <c r="AW193">
+        <v>7</v>
+      </c>
+      <c r="AX193">
         <v>3</v>
       </c>
-      <c r="AW193">
-        <v>8</v>
-      </c>
-      <c r="AX193">
-        <v>5</v>
-      </c>
       <c r="AY193">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ193">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA193">
         <v>2</v>
@@ -41185,22 +41185,22 @@
         <v>2.94</v>
       </c>
       <c r="AU194">
+        <v>3</v>
+      </c>
+      <c r="AV194">
         <v>4</v>
       </c>
-      <c r="AV194">
-        <v>3</v>
-      </c>
       <c r="AW194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX194">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AY194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ194">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA194">
         <v>3</v>
@@ -41391,22 +41391,22 @@
         <v>3.33</v>
       </c>
       <c r="AU195">
+        <v>3</v>
+      </c>
+      <c r="AV195">
+        <v>8</v>
+      </c>
+      <c r="AW195">
+        <v>7</v>
+      </c>
+      <c r="AX195">
         <v>4</v>
       </c>
-      <c r="AV195">
+      <c r="AY195">
         <v>10</v>
       </c>
-      <c r="AW195">
-        <v>8</v>
-      </c>
-      <c r="AX195">
-        <v>6</v>
-      </c>
-      <c r="AY195">
+      <c r="AZ195">
         <v>12</v>
-      </c>
-      <c r="AZ195">
-        <v>16</v>
       </c>
       <c r="BA195">
         <v>4</v>
@@ -41597,22 +41597,22 @@
         <v>2.66</v>
       </c>
       <c r="AU196">
+        <v>3</v>
+      </c>
+      <c r="AV196">
         <v>5</v>
-      </c>
-      <c r="AV196">
-        <v>2</v>
       </c>
       <c r="AW196">
         <v>5</v>
       </c>
       <c r="AX196">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY196">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ196">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA196">
         <v>2</v>
@@ -41806,19 +41806,19 @@
         <v>3</v>
       </c>
       <c r="AV197">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX197">
+        <v>9</v>
+      </c>
+      <c r="AY197">
+        <v>7</v>
+      </c>
+      <c r="AZ197">
         <v>18</v>
-      </c>
-      <c r="AY197">
-        <v>6</v>
-      </c>
-      <c r="AZ197">
-        <v>28</v>
       </c>
       <c r="BA197">
         <v>5</v>
@@ -42009,22 +42009,22 @@
         <v>2.48</v>
       </c>
       <c r="AU198">
+        <v>6</v>
+      </c>
+      <c r="AV198">
+        <v>3</v>
+      </c>
+      <c r="AW198">
         <v>4</v>
       </c>
-      <c r="AV198">
+      <c r="AX198">
         <v>4</v>
       </c>
-      <c r="AW198">
-        <v>9</v>
-      </c>
-      <c r="AX198">
-        <v>6</v>
-      </c>
       <c r="AY198">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ198">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA198">
         <v>3</v>
@@ -42215,31 +42215,31 @@
         <v>2.5</v>
       </c>
       <c r="AU199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV199">
         <v>3</v>
       </c>
       <c r="AW199">
+        <v>6</v>
+      </c>
+      <c r="AX199">
+        <v>8</v>
+      </c>
+      <c r="AY199">
+        <v>10</v>
+      </c>
+      <c r="AZ199">
+        <v>11</v>
+      </c>
+      <c r="BA199">
         <v>3</v>
       </c>
-      <c r="AX199">
-        <v>5</v>
-      </c>
-      <c r="AY199">
-        <v>5</v>
-      </c>
-      <c r="AZ199">
-        <v>8</v>
-      </c>
-      <c r="BA199">
-        <v>1</v>
-      </c>
       <c r="BB199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC199">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD199">
         <v>2.52</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,36 @@
     <t>['47', '61']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['80', '90+3']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['55', '90+3']</t>
+  </si>
+  <si>
+    <t>['7', '59', '90']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -641,9 +671,6 @@
   </si>
   <si>
     <t>['60', '69']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['21', '32', '36']</t>
@@ -680,9 +707,6 @@
   </si>
   <si>
     <t>['32']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['44', '80', '90+1']</t>
@@ -727,9 +751,6 @@
     <t>['24', '90+2']</t>
   </si>
   <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['67', '79']</t>
   </si>
   <si>
@@ -737,9 +758,6 @@
   </si>
   <si>
     <t>['16', '53']</t>
-  </si>
-  <si>
-    <t>['51']</t>
   </si>
   <si>
     <t>['3', '13', '90+1']</t>
@@ -853,9 +871,6 @@
     <t>['20', '46', '69', '76']</t>
   </si>
   <si>
-    <t>['73']</t>
-  </si>
-  <si>
     <t>['45+3']</t>
   </si>
   <si>
@@ -878,6 +893,33 @@
   </si>
   <si>
     <t>['47', '55', '77']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['45+4', '79']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['20', '24', '85']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['15', '90+6']</t>
+  </si>
+  <si>
+    <t>['52', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1576,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ2">
         <v>1.67</v>
@@ -1704,7 +1746,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1785,7 +1827,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1988,10 +2030,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ4">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2194,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AQ5">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2322,7 +2364,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2400,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ6">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2606,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2734,7 +2776,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2812,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ8">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3018,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ9">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3146,7 +3188,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3224,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ10">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3430,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3558,7 +3600,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3639,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3764,7 +3806,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3842,10 +3884,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ13">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -4048,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4254,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4460,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ16">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -4666,10 +4708,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4872,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5078,10 +5120,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ19">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5206,7 +5248,7 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>2.7</v>
@@ -5284,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ20">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5412,7 +5454,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5490,10 +5532,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ21">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5618,7 +5660,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5696,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5824,7 +5866,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5902,10 +5944,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6111,7 +6153,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ24">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6314,10 +6356,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ25">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6520,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6726,10 +6768,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -6932,10 +6974,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -7060,7 +7102,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7141,7 +7183,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7266,7 +7308,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7344,10 +7386,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AQ30">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7472,7 +7514,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7550,10 +7592,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ31">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7678,7 +7720,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7756,10 +7798,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -7962,10 +8004,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -8168,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8296,7 +8338,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8374,10 +8416,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8502,7 +8544,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8580,10 +8622,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ36">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8786,10 +8828,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -8992,10 +9034,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9120,7 +9162,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9198,10 +9240,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9326,7 +9368,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9404,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ40">
         <v>1.67</v>
@@ -9532,7 +9574,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9610,10 +9652,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -9816,10 +9858,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR42">
         <v>2.12</v>
@@ -10022,10 +10064,10 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ43">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -10231,7 +10273,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ44">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10434,7 +10476,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45">
         <v>1.67</v>
@@ -10562,7 +10604,7 @@
         <v>92</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>2.32</v>
@@ -10640,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10768,7 +10810,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10846,10 +10888,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ47">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -11052,10 +11094,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11258,10 +11300,10 @@
         <v>3</v>
       </c>
       <c r="AP49">
+        <v>1.5</v>
+      </c>
+      <c r="AQ49">
         <v>1.56</v>
-      </c>
-      <c r="AQ49">
-        <v>1.63</v>
       </c>
       <c r="AR49">
         <v>1.94</v>
@@ -11386,7 +11428,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11464,10 +11506,10 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AQ50">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11592,7 +11634,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11670,10 +11712,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -11798,7 +11840,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11876,10 +11918,10 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ52">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -12004,7 +12046,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12085,7 +12127,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12288,7 +12330,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12494,10 +12536,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12622,7 +12664,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12700,10 +12742,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ56">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12906,10 +12948,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ57">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -13112,10 +13154,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ58">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13318,10 +13360,10 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13446,7 +13488,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13524,10 +13566,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13652,7 +13694,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13730,10 +13772,10 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13858,7 +13900,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13936,10 +13978,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ62">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR62">
         <v>1.39</v>
@@ -14142,10 +14184,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ63">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR63">
         <v>1.03</v>
@@ -14348,7 +14390,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ64">
         <v>1.67</v>
@@ -14554,10 +14596,10 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ65">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR65">
         <v>1.29</v>
@@ -14760,10 +14802,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ66">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR66">
         <v>1.44</v>
@@ -14888,7 +14930,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -14969,7 +15011,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15172,10 +15214,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15378,10 +15420,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ69">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15584,10 +15626,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15712,7 +15754,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15790,10 +15832,10 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ71">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR71">
         <v>1.06</v>
@@ -15999,7 +16041,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16124,7 +16166,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16202,10 +16244,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16330,7 +16372,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16408,10 +16450,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ74">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AR74">
         <v>2.12</v>
@@ -16536,7 +16578,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16614,10 +16656,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ75">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>2.06</v>
@@ -16820,10 +16862,10 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ76">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR76">
         <v>1.19</v>
@@ -16948,7 +16990,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17026,10 +17068,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ77">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -17232,10 +17274,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.55</v>
@@ -17360,7 +17402,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="Q79">
         <v>2.8</v>
@@ -17438,10 +17480,10 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17566,7 +17608,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17644,7 +17686,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17850,10 +17892,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ81">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR81">
         <v>2.09</v>
@@ -17978,7 +18020,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18056,10 +18098,10 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ82">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -18262,10 +18304,10 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ83">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR83">
         <v>1.51</v>
@@ -18468,10 +18510,10 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18674,10 +18716,10 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR85">
         <v>1.13</v>
@@ -18802,7 +18844,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19086,10 +19128,10 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ87">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19214,7 +19256,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>3.5</v>
@@ -19292,10 +19334,10 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19498,10 +19540,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ89">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR89">
         <v>1.35</v>
@@ -19626,7 +19668,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19704,10 +19746,10 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ90">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR90">
         <v>1.34</v>
@@ -19832,7 +19874,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19910,10 +19952,10 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20038,7 +20080,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20116,10 +20158,10 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ92">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>2.25</v>
@@ -20325,7 +20367,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.45</v>
@@ -20528,10 +20570,10 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20656,7 +20698,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20734,10 +20776,10 @@
         <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ95">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20862,7 +20904,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -20940,10 +20982,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ96">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21068,7 +21110,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21146,10 +21188,10 @@
         <v>0.4</v>
       </c>
       <c r="AP97">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AQ97">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21352,10 +21394,10 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21561,7 +21603,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21764,10 +21806,10 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ100">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -21892,7 +21934,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -21970,10 +22012,10 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ101">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR101">
         <v>1.63</v>
@@ -22176,10 +22218,10 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR102">
         <v>1.81</v>
@@ -22382,10 +22424,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
+        <v>1.36</v>
+      </c>
+      <c r="AQ103">
         <v>1.5</v>
-      </c>
-      <c r="AQ103">
-        <v>1.67</v>
       </c>
       <c r="AR103">
         <v>1.24</v>
@@ -22510,7 +22552,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22588,10 +22630,10 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -22716,7 +22758,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22794,10 +22836,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ105">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -22922,7 +22964,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q106">
         <v>2.73</v>
@@ -23000,7 +23042,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23128,7 +23170,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23206,10 +23248,10 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ107">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR107">
         <v>2.24</v>
@@ -23334,7 +23376,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23412,10 +23454,10 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR108">
         <v>1.71</v>
@@ -23621,7 +23663,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AR109">
         <v>1.65</v>
@@ -23746,7 +23788,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23824,7 +23866,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ110">
         <v>1.67</v>
@@ -24030,10 +24072,10 @@
         <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ111">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24158,7 +24200,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24236,10 +24278,10 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24364,7 +24406,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24442,10 +24484,10 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24570,7 +24612,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24648,10 +24690,10 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ114">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -24854,10 +24896,10 @@
         <v>2.33</v>
       </c>
       <c r="AP115">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AQ115">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -24982,7 +25024,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25060,10 +25102,10 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ116">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR116">
         <v>1.7</v>
@@ -25266,10 +25308,10 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ117">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25394,7 +25436,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25472,10 +25514,10 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ118">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AR118">
         <v>1.43</v>
@@ -25678,7 +25720,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ119">
         <v>1.67</v>
@@ -25884,10 +25926,10 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ120">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26090,10 +26132,10 @@
         <v>1.6</v>
       </c>
       <c r="AP121">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ121">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26296,7 +26338,7 @@
         <v>1.4</v>
       </c>
       <c r="AP122">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26424,7 +26466,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26502,10 +26544,10 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ123">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26630,7 +26672,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26708,10 +26750,10 @@
         <v>0.5</v>
       </c>
       <c r="AP124">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ124">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -26836,7 +26878,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -26917,7 +26959,7 @@
         <v>2</v>
       </c>
       <c r="AQ125">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR125">
         <v>1.64</v>
@@ -27042,7 +27084,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27120,10 +27162,10 @@
         <v>0.67</v>
       </c>
       <c r="AP126">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ126">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR126">
         <v>1.87</v>
@@ -27329,7 +27371,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR127">
         <v>1.55</v>
@@ -27454,7 +27496,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27532,10 +27574,10 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27738,10 +27780,10 @@
         <v>1.83</v>
       </c>
       <c r="AP129">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR129">
         <v>1.7</v>
@@ -27866,7 +27908,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -27944,10 +27986,10 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ130">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28150,10 +28192,10 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ131">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28356,10 +28398,10 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ132">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.72</v>
@@ -28562,10 +28604,10 @@
         <v>2.33</v>
       </c>
       <c r="AP133">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ133">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28690,7 +28732,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28768,10 +28810,10 @@
         <v>1.33</v>
       </c>
       <c r="AP134">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ134">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -28896,7 +28938,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -28974,10 +29016,10 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29180,10 +29222,10 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ136">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.07</v>
@@ -29386,10 +29428,10 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ137">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29514,7 +29556,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29592,10 +29634,10 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ138">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -29720,7 +29762,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -29798,10 +29840,10 @@
         <v>2.14</v>
       </c>
       <c r="AP139">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ139">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR139">
         <v>1.17</v>
@@ -30004,7 +30046,7 @@
         <v>1.57</v>
       </c>
       <c r="AP140">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AQ140">
         <v>1.67</v>
@@ -30210,10 +30252,10 @@
         <v>1.67</v>
       </c>
       <c r="AP141">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ141">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AR141">
         <v>2.28</v>
@@ -30338,7 +30380,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30416,10 +30458,10 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR142">
         <v>1.64</v>
@@ -30622,10 +30664,10 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ143">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR143">
         <v>1.82</v>
@@ -30750,7 +30792,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -30828,10 +30870,10 @@
         <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ144">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -31034,10 +31076,10 @@
         <v>1.43</v>
       </c>
       <c r="AP145">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ145">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AR145">
         <v>1.62</v>
@@ -31162,7 +31204,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31240,10 +31282,10 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR146">
         <v>1.44</v>
@@ -31446,10 +31488,10 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ147">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31652,10 +31694,10 @@
         <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ148">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR148">
         <v>1.56</v>
@@ -31861,7 +31903,7 @@
         <v>2</v>
       </c>
       <c r="AQ149">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR149">
         <v>1.67</v>
@@ -31986,7 +32028,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32064,7 +32106,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32192,7 +32234,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32270,10 +32312,10 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ151">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32398,7 +32440,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32476,10 +32518,10 @@
         <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AQ152">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -32685,7 +32727,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ153">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR153">
         <v>1.55</v>
@@ -32810,7 +32852,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -32888,7 +32930,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ154">
         <v>1</v>
@@ -33094,10 +33136,10 @@
         <v>1.86</v>
       </c>
       <c r="AP155">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ155">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR155">
         <v>1.5</v>
@@ -33222,7 +33264,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33300,10 +33342,10 @@
         <v>1.25</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ156">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33428,7 +33470,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33506,7 +33548,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ157">
         <v>1.67</v>
@@ -33634,7 +33676,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33712,10 +33754,10 @@
         <v>2.14</v>
       </c>
       <c r="AP158">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ158">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR158">
         <v>1.41</v>
@@ -33918,10 +33960,10 @@
         <v>2.13</v>
       </c>
       <c r="AP159">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ159">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR159">
         <v>1.54</v>
@@ -34046,7 +34088,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34124,10 +34166,10 @@
         <v>1.29</v>
       </c>
       <c r="AP160">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ160">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR160">
         <v>1.73</v>
@@ -34252,7 +34294,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34330,10 +34372,10 @@
         <v>1.71</v>
       </c>
       <c r="AP161">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ161">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR161">
         <v>1.13</v>
@@ -34536,10 +34578,10 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AQ162">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR162">
         <v>1.3</v>
@@ -34664,7 +34706,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34742,10 +34784,10 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ163">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -34951,7 +34993,7 @@
         <v>2</v>
       </c>
       <c r="AQ164">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR164">
         <v>1.77</v>
@@ -35076,7 +35118,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35154,10 +35196,10 @@
         <v>1.38</v>
       </c>
       <c r="AP165">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AQ165">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AR165">
         <v>1.44</v>
@@ -35282,7 +35324,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35360,10 +35402,10 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35488,7 +35530,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="Q167">
         <v>2.4</v>
@@ -35566,10 +35608,10 @@
         <v>0.57</v>
       </c>
       <c r="AP167">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ167">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -35694,7 +35736,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35772,10 +35814,10 @@
         <v>1.57</v>
       </c>
       <c r="AP168">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ168">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR168">
         <v>1.62</v>
@@ -35900,7 +35942,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -35978,10 +36020,10 @@
         <v>1.14</v>
       </c>
       <c r="AP169">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR169">
         <v>1.82</v>
@@ -36106,7 +36148,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36184,10 +36226,10 @@
         <v>0.88</v>
       </c>
       <c r="AP170">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AQ170">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR170">
         <v>1.55</v>
@@ -36390,10 +36432,10 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ171">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR171">
         <v>1.43</v>
@@ -36518,7 +36560,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36596,10 +36638,10 @@
         <v>1.89</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ172">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -36724,7 +36766,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36802,10 +36844,10 @@
         <v>1.5</v>
       </c>
       <c r="AP173">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ173">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR173">
         <v>1.34</v>
@@ -36930,7 +36972,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37008,10 +37050,10 @@
         <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR174">
         <v>2.17</v>
@@ -37342,7 +37384,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37420,10 +37462,10 @@
         <v>1.88</v>
       </c>
       <c r="AP176">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ176">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37626,10 +37668,10 @@
         <v>1.44</v>
       </c>
       <c r="AP177">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ177">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR177">
         <v>1.37</v>
@@ -37832,10 +37874,10 @@
         <v>2</v>
       </c>
       <c r="AP178">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AQ178">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR178">
         <v>1.66</v>
@@ -37960,7 +38002,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38038,10 +38080,10 @@
         <v>2.25</v>
       </c>
       <c r="AP179">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ179">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR179">
         <v>1.55</v>
@@ -38244,10 +38286,10 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ180">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR180">
         <v>1.08</v>
@@ -38372,7 +38414,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38450,10 +38492,10 @@
         <v>1.43</v>
       </c>
       <c r="AP181">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ181">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR181">
         <v>1.17</v>
@@ -38529,6 +38571,3920 @@
       </c>
       <c r="BP181">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7331104</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45451.125</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>89</v>
+      </c>
+      <c r="H182" t="s">
+        <v>76</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>203</v>
+      </c>
+      <c r="P182" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q182">
+        <v>3.1</v>
+      </c>
+      <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
+        <v>3.75</v>
+      </c>
+      <c r="T182">
+        <v>1.5</v>
+      </c>
+      <c r="U182">
+        <v>2.4</v>
+      </c>
+      <c r="V182">
+        <v>3.3</v>
+      </c>
+      <c r="W182">
+        <v>1.29</v>
+      </c>
+      <c r="X182">
+        <v>8.5</v>
+      </c>
+      <c r="Y182">
+        <v>1.04</v>
+      </c>
+      <c r="Z182">
+        <v>2.27</v>
+      </c>
+      <c r="AA182">
+        <v>3.1</v>
+      </c>
+      <c r="AB182">
+        <v>3.1</v>
+      </c>
+      <c r="AC182">
+        <v>1.08</v>
+      </c>
+      <c r="AD182">
+        <v>6.5</v>
+      </c>
+      <c r="AE182">
+        <v>1.42</v>
+      </c>
+      <c r="AF182">
+        <v>2.62</v>
+      </c>
+      <c r="AG182">
+        <v>2.29</v>
+      </c>
+      <c r="AH182">
+        <v>1.58</v>
+      </c>
+      <c r="AI182">
+        <v>1.95</v>
+      </c>
+      <c r="AJ182">
+        <v>1.75</v>
+      </c>
+      <c r="AK182">
+        <v>1.38</v>
+      </c>
+      <c r="AL182">
+        <v>1.38</v>
+      </c>
+      <c r="AM182">
+        <v>1.55</v>
+      </c>
+      <c r="AN182">
+        <v>1.25</v>
+      </c>
+      <c r="AO182">
+        <v>1.63</v>
+      </c>
+      <c r="AP182">
+        <v>1.22</v>
+      </c>
+      <c r="AQ182">
+        <v>1.56</v>
+      </c>
+      <c r="AR182">
+        <v>1.43</v>
+      </c>
+      <c r="AS182">
+        <v>1.61</v>
+      </c>
+      <c r="AT182">
+        <v>3.04</v>
+      </c>
+      <c r="AU182">
+        <v>7</v>
+      </c>
+      <c r="AV182">
+        <v>3</v>
+      </c>
+      <c r="AW182">
+        <v>10</v>
+      </c>
+      <c r="AX182">
+        <v>9</v>
+      </c>
+      <c r="AY182">
+        <v>17</v>
+      </c>
+      <c r="AZ182">
+        <v>12</v>
+      </c>
+      <c r="BA182">
+        <v>8</v>
+      </c>
+      <c r="BB182">
+        <v>3</v>
+      </c>
+      <c r="BC182">
+        <v>11</v>
+      </c>
+      <c r="BD182">
+        <v>1.8</v>
+      </c>
+      <c r="BE182">
+        <v>8.6</v>
+      </c>
+      <c r="BF182">
+        <v>2.24</v>
+      </c>
+      <c r="BG182">
+        <v>1.29</v>
+      </c>
+      <c r="BH182">
+        <v>3.3</v>
+      </c>
+      <c r="BI182">
+        <v>1.49</v>
+      </c>
+      <c r="BJ182">
+        <v>2.57</v>
+      </c>
+      <c r="BK182">
+        <v>1.81</v>
+      </c>
+      <c r="BL182">
+        <v>1.98</v>
+      </c>
+      <c r="BM182">
+        <v>2.28</v>
+      </c>
+      <c r="BN182">
+        <v>1.61</v>
+      </c>
+      <c r="BO182">
+        <v>2.8</v>
+      </c>
+      <c r="BP182">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7331105</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45451.25</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>86</v>
+      </c>
+      <c r="H183" t="s">
+        <v>87</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>204</v>
+      </c>
+      <c r="P183" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q183">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>2.15</v>
+      </c>
+      <c r="S183">
+        <v>3.3</v>
+      </c>
+      <c r="T183">
+        <v>1.4</v>
+      </c>
+      <c r="U183">
+        <v>2.7</v>
+      </c>
+      <c r="V183">
+        <v>2.8</v>
+      </c>
+      <c r="W183">
+        <v>1.38</v>
+      </c>
+      <c r="X183">
+        <v>6.5</v>
+      </c>
+      <c r="Y183">
+        <v>1.08</v>
+      </c>
+      <c r="Z183">
+        <v>2.57</v>
+      </c>
+      <c r="AA183">
+        <v>3.32</v>
+      </c>
+      <c r="AB183">
+        <v>2.54</v>
+      </c>
+      <c r="AC183">
+        <v>1.04</v>
+      </c>
+      <c r="AD183">
+        <v>8.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.3</v>
+      </c>
+      <c r="AF183">
+        <v>3.2</v>
+      </c>
+      <c r="AG183">
+        <v>2</v>
+      </c>
+      <c r="AH183">
+        <v>1.79</v>
+      </c>
+      <c r="AI183">
+        <v>1.75</v>
+      </c>
+      <c r="AJ183">
+        <v>1.95</v>
+      </c>
+      <c r="AK183">
+        <v>1.44</v>
+      </c>
+      <c r="AL183">
+        <v>1.25</v>
+      </c>
+      <c r="AM183">
+        <v>1.5</v>
+      </c>
+      <c r="AN183">
+        <v>0.63</v>
+      </c>
+      <c r="AO183">
+        <v>2</v>
+      </c>
+      <c r="AP183">
+        <v>0.67</v>
+      </c>
+      <c r="AQ183">
+        <v>1.9</v>
+      </c>
+      <c r="AR183">
+        <v>1.35</v>
+      </c>
+      <c r="AS183">
+        <v>1.21</v>
+      </c>
+      <c r="AT183">
+        <v>2.56</v>
+      </c>
+      <c r="AU183">
+        <v>4</v>
+      </c>
+      <c r="AV183">
+        <v>3</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>3</v>
+      </c>
+      <c r="AY183">
+        <v>7</v>
+      </c>
+      <c r="AZ183">
+        <v>6</v>
+      </c>
+      <c r="BA183">
+        <v>3</v>
+      </c>
+      <c r="BB183">
+        <v>9</v>
+      </c>
+      <c r="BC183">
+        <v>12</v>
+      </c>
+      <c r="BD183">
+        <v>1.7</v>
+      </c>
+      <c r="BE183">
+        <v>8.5</v>
+      </c>
+      <c r="BF183">
+        <v>2.43</v>
+      </c>
+      <c r="BG183">
+        <v>1.33</v>
+      </c>
+      <c r="BH183">
+        <v>3</v>
+      </c>
+      <c r="BI183">
+        <v>1.57</v>
+      </c>
+      <c r="BJ183">
+        <v>2.35</v>
+      </c>
+      <c r="BK183">
+        <v>1.95</v>
+      </c>
+      <c r="BL183">
+        <v>1.84</v>
+      </c>
+      <c r="BM183">
+        <v>2.49</v>
+      </c>
+      <c r="BN183">
+        <v>1.51</v>
+      </c>
+      <c r="BO183">
+        <v>3.2</v>
+      </c>
+      <c r="BP183">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7331106</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45451.25</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>81</v>
+      </c>
+      <c r="H184" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>205</v>
+      </c>
+      <c r="P184" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q184">
+        <v>1.87</v>
+      </c>
+      <c r="R184">
+        <v>2.45</v>
+      </c>
+      <c r="S184">
+        <v>5.5</v>
+      </c>
+      <c r="T184">
+        <v>1.29</v>
+      </c>
+      <c r="U184">
+        <v>3.4</v>
+      </c>
+      <c r="V184">
+        <v>2.36</v>
+      </c>
+      <c r="W184">
+        <v>1.54</v>
+      </c>
+      <c r="X184">
+        <v>5.3</v>
+      </c>
+      <c r="Y184">
+        <v>1.12</v>
+      </c>
+      <c r="Z184">
+        <v>1.42</v>
+      </c>
+      <c r="AA184">
+        <v>4.45</v>
+      </c>
+      <c r="AB184">
+        <v>6.4</v>
+      </c>
+      <c r="AC184">
+        <v>1.01</v>
+      </c>
+      <c r="AD184">
+        <v>11</v>
+      </c>
+      <c r="AE184">
+        <v>1.18</v>
+      </c>
+      <c r="AF184">
+        <v>4.5</v>
+      </c>
+      <c r="AG184">
+        <v>1.61</v>
+      </c>
+      <c r="AH184">
+        <v>2.23</v>
+      </c>
+      <c r="AI184">
+        <v>1.8</v>
+      </c>
+      <c r="AJ184">
+        <v>1.95</v>
+      </c>
+      <c r="AK184">
+        <v>1.06</v>
+      </c>
+      <c r="AL184">
+        <v>1.15</v>
+      </c>
+      <c r="AM184">
+        <v>2.8</v>
+      </c>
+      <c r="AN184">
+        <v>2.75</v>
+      </c>
+      <c r="AO184">
+        <v>1.13</v>
+      </c>
+      <c r="AP184">
+        <v>2.78</v>
+      </c>
+      <c r="AQ184">
+        <v>1</v>
+      </c>
+      <c r="AR184">
+        <v>1.74</v>
+      </c>
+      <c r="AS184">
+        <v>1.51</v>
+      </c>
+      <c r="AT184">
+        <v>3.25</v>
+      </c>
+      <c r="AU184">
+        <v>7</v>
+      </c>
+      <c r="AV184">
+        <v>3</v>
+      </c>
+      <c r="AW184">
+        <v>9</v>
+      </c>
+      <c r="AX184">
+        <v>1</v>
+      </c>
+      <c r="AY184">
+        <v>16</v>
+      </c>
+      <c r="AZ184">
+        <v>4</v>
+      </c>
+      <c r="BA184">
+        <v>8</v>
+      </c>
+      <c r="BB184">
+        <v>4</v>
+      </c>
+      <c r="BC184">
+        <v>12</v>
+      </c>
+      <c r="BD184">
+        <v>1.41</v>
+      </c>
+      <c r="BE184">
+        <v>9.5</v>
+      </c>
+      <c r="BF184">
+        <v>3.3</v>
+      </c>
+      <c r="BG184">
+        <v>1.25</v>
+      </c>
+      <c r="BH184">
+        <v>3.6</v>
+      </c>
+      <c r="BI184">
+        <v>1.42</v>
+      </c>
+      <c r="BJ184">
+        <v>2.62</v>
+      </c>
+      <c r="BK184">
+        <v>1.69</v>
+      </c>
+      <c r="BL184">
+        <v>2.12</v>
+      </c>
+      <c r="BM184">
+        <v>2.12</v>
+      </c>
+      <c r="BN184">
+        <v>1.69</v>
+      </c>
+      <c r="BO184">
+        <v>2.62</v>
+      </c>
+      <c r="BP184">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7331107</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45451.25</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>78</v>
+      </c>
+      <c r="H185" t="s">
+        <v>71</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>92</v>
+      </c>
+      <c r="P185" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q185">
+        <v>4.5</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>2.5</v>
+      </c>
+      <c r="T185">
+        <v>1.48</v>
+      </c>
+      <c r="U185">
+        <v>2.5</v>
+      </c>
+      <c r="V185">
+        <v>3.34</v>
+      </c>
+      <c r="W185">
+        <v>1.33</v>
+      </c>
+      <c r="X185">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y185">
+        <v>1.04</v>
+      </c>
+      <c r="Z185">
+        <v>3.66</v>
+      </c>
+      <c r="AA185">
+        <v>3.28</v>
+      </c>
+      <c r="AB185">
+        <v>1.97</v>
+      </c>
+      <c r="AC185">
+        <v>1.04</v>
+      </c>
+      <c r="AD185">
+        <v>7.6</v>
+      </c>
+      <c r="AE185">
+        <v>1.38</v>
+      </c>
+      <c r="AF185">
+        <v>2.9</v>
+      </c>
+      <c r="AG185">
+        <v>2.18</v>
+      </c>
+      <c r="AH185">
+        <v>1.63</v>
+      </c>
+      <c r="AI185">
+        <v>1.95</v>
+      </c>
+      <c r="AJ185">
+        <v>1.78</v>
+      </c>
+      <c r="AK185">
+        <v>1.87</v>
+      </c>
+      <c r="AL185">
+        <v>1.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.16</v>
+      </c>
+      <c r="AN185">
+        <v>0.78</v>
+      </c>
+      <c r="AO185">
+        <v>1.56</v>
+      </c>
+      <c r="AP185">
+        <v>0.7</v>
+      </c>
+      <c r="AQ185">
+        <v>1.82</v>
+      </c>
+      <c r="AR185">
+        <v>1.47</v>
+      </c>
+      <c r="AS185">
+        <v>1.59</v>
+      </c>
+      <c r="AT185">
+        <v>3.06</v>
+      </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
+      <c r="AV185">
+        <v>4</v>
+      </c>
+      <c r="AW185">
+        <v>7</v>
+      </c>
+      <c r="AX185">
+        <v>4</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>8</v>
+      </c>
+      <c r="BA185">
+        <v>3</v>
+      </c>
+      <c r="BB185">
+        <v>2</v>
+      </c>
+      <c r="BC185">
+        <v>5</v>
+      </c>
+      <c r="BD185">
+        <v>2.61</v>
+      </c>
+      <c r="BE185">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF185">
+        <v>1.61</v>
+      </c>
+      <c r="BG185">
+        <v>1.29</v>
+      </c>
+      <c r="BH185">
+        <v>3.3</v>
+      </c>
+      <c r="BI185">
+        <v>1.51</v>
+      </c>
+      <c r="BJ185">
+        <v>2.48</v>
+      </c>
+      <c r="BK185">
+        <v>1.85</v>
+      </c>
+      <c r="BL185">
+        <v>1.95</v>
+      </c>
+      <c r="BM185">
+        <v>2.3</v>
+      </c>
+      <c r="BN185">
+        <v>1.58</v>
+      </c>
+      <c r="BO185">
+        <v>2.9</v>
+      </c>
+      <c r="BP185">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7331108</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45451.25</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s">
+        <v>70</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>133</v>
+      </c>
+      <c r="P186" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q186">
+        <v>3.75</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>2.75</v>
+      </c>
+      <c r="T186">
+        <v>1.43</v>
+      </c>
+      <c r="U186">
+        <v>2.65</v>
+      </c>
+      <c r="V186">
+        <v>2.95</v>
+      </c>
+      <c r="W186">
+        <v>1.4</v>
+      </c>
+      <c r="X186">
+        <v>6.7</v>
+      </c>
+      <c r="Y186">
+        <v>1.07</v>
+      </c>
+      <c r="Z186">
+        <v>3.5</v>
+      </c>
+      <c r="AA186">
+        <v>3.5</v>
+      </c>
+      <c r="AB186">
+        <v>1.95</v>
+      </c>
+      <c r="AC186">
+        <v>1.03</v>
+      </c>
+      <c r="AD186">
+        <v>9</v>
+      </c>
+      <c r="AE186">
+        <v>1.3</v>
+      </c>
+      <c r="AF186">
+        <v>3.3</v>
+      </c>
+      <c r="AG186">
+        <v>2.01</v>
+      </c>
+      <c r="AH186">
+        <v>1.78</v>
+      </c>
+      <c r="AI186">
+        <v>1.75</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>1.66</v>
+      </c>
+      <c r="AL186">
+        <v>1.25</v>
+      </c>
+      <c r="AM186">
+        <v>1.3</v>
+      </c>
+      <c r="AN186">
+        <v>1.44</v>
+      </c>
+      <c r="AO186">
+        <v>1</v>
+      </c>
+      <c r="AP186">
+        <v>1.73</v>
+      </c>
+      <c r="AQ186">
+        <v>0.89</v>
+      </c>
+      <c r="AR186">
+        <v>1.24</v>
+      </c>
+      <c r="AS186">
+        <v>1.37</v>
+      </c>
+      <c r="AT186">
+        <v>2.61</v>
+      </c>
+      <c r="AU186">
+        <v>3</v>
+      </c>
+      <c r="AV186">
+        <v>6</v>
+      </c>
+      <c r="AW186">
+        <v>4</v>
+      </c>
+      <c r="AX186">
+        <v>12</v>
+      </c>
+      <c r="AY186">
+        <v>7</v>
+      </c>
+      <c r="AZ186">
+        <v>18</v>
+      </c>
+      <c r="BA186">
+        <v>3</v>
+      </c>
+      <c r="BB186">
+        <v>7</v>
+      </c>
+      <c r="BC186">
+        <v>10</v>
+      </c>
+      <c r="BD186">
+        <v>2.18</v>
+      </c>
+      <c r="BE186">
+        <v>8.6</v>
+      </c>
+      <c r="BF186">
+        <v>1.84</v>
+      </c>
+      <c r="BG186">
+        <v>1.25</v>
+      </c>
+      <c r="BH186">
+        <v>3.6</v>
+      </c>
+      <c r="BI186">
+        <v>1.42</v>
+      </c>
+      <c r="BJ186">
+        <v>2.62</v>
+      </c>
+      <c r="BK186">
+        <v>1.71</v>
+      </c>
+      <c r="BL186">
+        <v>2.12</v>
+      </c>
+      <c r="BM186">
+        <v>2.12</v>
+      </c>
+      <c r="BN186">
+        <v>1.7</v>
+      </c>
+      <c r="BO186">
+        <v>2.62</v>
+      </c>
+      <c r="BP186">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7331110</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45451.29166666666</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>84</v>
+      </c>
+      <c r="H187" t="s">
+        <v>74</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>206</v>
+      </c>
+      <c r="P187" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q187">
+        <v>3.75</v>
+      </c>
+      <c r="R187">
+        <v>2.05</v>
+      </c>
+      <c r="S187">
+        <v>2.7</v>
+      </c>
+      <c r="T187">
+        <v>1.43</v>
+      </c>
+      <c r="U187">
+        <v>2.65</v>
+      </c>
+      <c r="V187">
+        <v>3.05</v>
+      </c>
+      <c r="W187">
+        <v>1.38</v>
+      </c>
+      <c r="X187">
+        <v>7.2</v>
+      </c>
+      <c r="Y187">
+        <v>1.06</v>
+      </c>
+      <c r="Z187">
+        <v>3.22</v>
+      </c>
+      <c r="AA187">
+        <v>3.3</v>
+      </c>
+      <c r="AB187">
+        <v>2.12</v>
+      </c>
+      <c r="AC187">
+        <v>1.04</v>
+      </c>
+      <c r="AD187">
+        <v>8.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.33</v>
+      </c>
+      <c r="AF187">
+        <v>3.1</v>
+      </c>
+      <c r="AG187">
+        <v>1.99</v>
+      </c>
+      <c r="AH187">
+        <v>1.79</v>
+      </c>
+      <c r="AI187">
+        <v>1.83</v>
+      </c>
+      <c r="AJ187">
+        <v>1.9</v>
+      </c>
+      <c r="AK187">
+        <v>1.72</v>
+      </c>
+      <c r="AL187">
+        <v>1.25</v>
+      </c>
+      <c r="AM187">
+        <v>1.28</v>
+      </c>
+      <c r="AN187">
+        <v>1.78</v>
+      </c>
+      <c r="AO187">
+        <v>1.22</v>
+      </c>
+      <c r="AP187">
+        <v>1.6</v>
+      </c>
+      <c r="AQ187">
+        <v>1.4</v>
+      </c>
+      <c r="AR187">
+        <v>1.61</v>
+      </c>
+      <c r="AS187">
+        <v>1.56</v>
+      </c>
+      <c r="AT187">
+        <v>3.17</v>
+      </c>
+      <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
+        <v>4</v>
+      </c>
+      <c r="AW187">
+        <v>6</v>
+      </c>
+      <c r="AX187">
+        <v>6</v>
+      </c>
+      <c r="AY187">
+        <v>10</v>
+      </c>
+      <c r="AZ187">
+        <v>10</v>
+      </c>
+      <c r="BA187">
+        <v>7</v>
+      </c>
+      <c r="BB187">
+        <v>3</v>
+      </c>
+      <c r="BC187">
+        <v>10</v>
+      </c>
+      <c r="BD187">
+        <v>2.38</v>
+      </c>
+      <c r="BE187">
+        <v>8.6</v>
+      </c>
+      <c r="BF187">
+        <v>1.72</v>
+      </c>
+      <c r="BG187">
+        <v>1.3</v>
+      </c>
+      <c r="BH187">
+        <v>3.2</v>
+      </c>
+      <c r="BI187">
+        <v>1.55</v>
+      </c>
+      <c r="BJ187">
+        <v>2.41</v>
+      </c>
+      <c r="BK187">
+        <v>1.91</v>
+      </c>
+      <c r="BL187">
+        <v>1.89</v>
+      </c>
+      <c r="BM187">
+        <v>2.4</v>
+      </c>
+      <c r="BN187">
+        <v>1.55</v>
+      </c>
+      <c r="BO187">
+        <v>3</v>
+      </c>
+      <c r="BP187">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7331109</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45451.29166666666</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>85</v>
+      </c>
+      <c r="H188" t="s">
+        <v>77</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>115</v>
+      </c>
+      <c r="P188" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q188">
+        <v>3.3</v>
+      </c>
+      <c r="R188">
+        <v>1.97</v>
+      </c>
+      <c r="S188">
+        <v>4.05</v>
+      </c>
+      <c r="T188">
+        <v>1.57</v>
+      </c>
+      <c r="U188">
+        <v>2.41</v>
+      </c>
+      <c r="V188">
+        <v>3.62</v>
+      </c>
+      <c r="W188">
+        <v>1.26</v>
+      </c>
+      <c r="X188">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y188">
+        <v>1.02</v>
+      </c>
+      <c r="Z188">
+        <v>2.31</v>
+      </c>
+      <c r="AA188">
+        <v>3.02</v>
+      </c>
+      <c r="AB188">
+        <v>3.12</v>
+      </c>
+      <c r="AC188">
+        <v>1.09</v>
+      </c>
+      <c r="AD188">
+        <v>6.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.5</v>
+      </c>
+      <c r="AF188">
+        <v>2.49</v>
+      </c>
+      <c r="AG188">
+        <v>2.37</v>
+      </c>
+      <c r="AH188">
+        <v>1.48</v>
+      </c>
+      <c r="AI188">
+        <v>2.1</v>
+      </c>
+      <c r="AJ188">
+        <v>1.68</v>
+      </c>
+      <c r="AK188">
+        <v>1.36</v>
+      </c>
+      <c r="AL188">
+        <v>1.3</v>
+      </c>
+      <c r="AM188">
+        <v>1.53</v>
+      </c>
+      <c r="AN188">
+        <v>0.89</v>
+      </c>
+      <c r="AO188">
+        <v>0.63</v>
+      </c>
+      <c r="AP188">
+        <v>0.9</v>
+      </c>
+      <c r="AQ188">
+        <v>0.67</v>
+      </c>
+      <c r="AR188">
+        <v>1.2</v>
+      </c>
+      <c r="AS188">
+        <v>1.12</v>
+      </c>
+      <c r="AT188">
+        <v>2.32</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>2</v>
+      </c>
+      <c r="AW188">
+        <v>7</v>
+      </c>
+      <c r="AX188">
+        <v>5</v>
+      </c>
+      <c r="AY188">
+        <v>12</v>
+      </c>
+      <c r="AZ188">
+        <v>7</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>3</v>
+      </c>
+      <c r="BC188">
+        <v>8</v>
+      </c>
+      <c r="BD188">
+        <v>1.65</v>
+      </c>
+      <c r="BE188">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF188">
+        <v>2.52</v>
+      </c>
+      <c r="BG188">
+        <v>1.29</v>
+      </c>
+      <c r="BH188">
+        <v>3.3</v>
+      </c>
+      <c r="BI188">
+        <v>1.52</v>
+      </c>
+      <c r="BJ188">
+        <v>2.49</v>
+      </c>
+      <c r="BK188">
+        <v>1.86</v>
+      </c>
+      <c r="BL188">
+        <v>1.93</v>
+      </c>
+      <c r="BM188">
+        <v>2.35</v>
+      </c>
+      <c r="BN188">
+        <v>1.57</v>
+      </c>
+      <c r="BO188">
+        <v>2.9</v>
+      </c>
+      <c r="BP188">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7331111</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45452.08333333334</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>88</v>
+      </c>
+      <c r="H189" t="s">
+        <v>79</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189" t="s">
+        <v>92</v>
+      </c>
+      <c r="P189" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q189">
+        <v>3</v>
+      </c>
+      <c r="R189">
+        <v>2.1</v>
+      </c>
+      <c r="S189">
+        <v>3.75</v>
+      </c>
+      <c r="T189">
+        <v>1.4</v>
+      </c>
+      <c r="U189">
+        <v>2.75</v>
+      </c>
+      <c r="V189">
+        <v>3</v>
+      </c>
+      <c r="W189">
+        <v>1.36</v>
+      </c>
+      <c r="X189">
+        <v>8</v>
+      </c>
+      <c r="Y189">
+        <v>1.08</v>
+      </c>
+      <c r="Z189">
+        <v>2.2</v>
+      </c>
+      <c r="AA189">
+        <v>3.25</v>
+      </c>
+      <c r="AB189">
+        <v>3.1</v>
+      </c>
+      <c r="AC189">
+        <v>1.02</v>
+      </c>
+      <c r="AD189">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE189">
+        <v>1.29</v>
+      </c>
+      <c r="AF189">
+        <v>3.14</v>
+      </c>
+      <c r="AG189">
+        <v>2</v>
+      </c>
+      <c r="AH189">
+        <v>1.75</v>
+      </c>
+      <c r="AI189">
+        <v>1.73</v>
+      </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
+      <c r="AK189">
+        <v>1.35</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>1.6</v>
+      </c>
+      <c r="AN189">
+        <v>1.25</v>
+      </c>
+      <c r="AO189">
+        <v>1.75</v>
+      </c>
+      <c r="AP189">
+        <v>1.22</v>
+      </c>
+      <c r="AQ189">
+        <v>1.67</v>
+      </c>
+      <c r="AR189">
+        <v>1.54</v>
+      </c>
+      <c r="AS189">
+        <v>1.48</v>
+      </c>
+      <c r="AT189">
+        <v>3.02</v>
+      </c>
+      <c r="AU189">
+        <v>5</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+      <c r="AW189">
+        <v>11</v>
+      </c>
+      <c r="AX189">
+        <v>3</v>
+      </c>
+      <c r="AY189">
+        <v>16</v>
+      </c>
+      <c r="AZ189">
+        <v>5</v>
+      </c>
+      <c r="BA189">
+        <v>10</v>
+      </c>
+      <c r="BB189">
+        <v>4</v>
+      </c>
+      <c r="BC189">
+        <v>14</v>
+      </c>
+      <c r="BD189">
+        <v>1.8</v>
+      </c>
+      <c r="BE189">
+        <v>8.9</v>
+      </c>
+      <c r="BF189">
+        <v>2.22</v>
+      </c>
+      <c r="BG189">
+        <v>1.2</v>
+      </c>
+      <c r="BH189">
+        <v>4</v>
+      </c>
+      <c r="BI189">
+        <v>1.36</v>
+      </c>
+      <c r="BJ189">
+        <v>2.9</v>
+      </c>
+      <c r="BK189">
+        <v>1.6</v>
+      </c>
+      <c r="BL189">
+        <v>2.26</v>
+      </c>
+      <c r="BM189">
+        <v>1.99</v>
+      </c>
+      <c r="BN189">
+        <v>1.81</v>
+      </c>
+      <c r="BO189">
+        <v>2.51</v>
+      </c>
+      <c r="BP189">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7331113</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45452.29166666666</v>
+      </c>
+      <c r="F190">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>75</v>
+      </c>
+      <c r="H190" t="s">
+        <v>82</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>2</v>
+      </c>
+      <c r="O190" t="s">
+        <v>175</v>
+      </c>
+      <c r="P190" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q190">
+        <v>2.4</v>
+      </c>
+      <c r="R190">
+        <v>2.1</v>
+      </c>
+      <c r="S190">
+        <v>5</v>
+      </c>
+      <c r="T190">
+        <v>1.44</v>
+      </c>
+      <c r="U190">
+        <v>2.63</v>
+      </c>
+      <c r="V190">
+        <v>3</v>
+      </c>
+      <c r="W190">
+        <v>1.36</v>
+      </c>
+      <c r="X190">
+        <v>9</v>
+      </c>
+      <c r="Y190">
+        <v>1.07</v>
+      </c>
+      <c r="Z190">
+        <v>1.75</v>
+      </c>
+      <c r="AA190">
+        <v>3.6</v>
+      </c>
+      <c r="AB190">
+        <v>4.33</v>
+      </c>
+      <c r="AC190">
+        <v>1.03</v>
+      </c>
+      <c r="AD190">
+        <v>8.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.28</v>
+      </c>
+      <c r="AF190">
+        <v>3.3</v>
+      </c>
+      <c r="AG190">
+        <v>1.95</v>
+      </c>
+      <c r="AH190">
+        <v>1.8</v>
+      </c>
+      <c r="AI190">
+        <v>1.91</v>
+      </c>
+      <c r="AJ190">
+        <v>1.8</v>
+      </c>
+      <c r="AK190">
+        <v>1.16</v>
+      </c>
+      <c r="AL190">
+        <v>1.25</v>
+      </c>
+      <c r="AM190">
+        <v>1.99</v>
+      </c>
+      <c r="AN190">
+        <v>1.88</v>
+      </c>
+      <c r="AO190">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP190">
+        <v>1.78</v>
+      </c>
+      <c r="AQ190">
+        <v>0.6</v>
+      </c>
+      <c r="AR190">
+        <v>1.48</v>
+      </c>
+      <c r="AS190">
+        <v>1.44</v>
+      </c>
+      <c r="AT190">
+        <v>2.92</v>
+      </c>
+      <c r="AU190">
+        <v>5</v>
+      </c>
+      <c r="AV190">
+        <v>4</v>
+      </c>
+      <c r="AW190">
+        <v>5</v>
+      </c>
+      <c r="AX190">
+        <v>4</v>
+      </c>
+      <c r="AY190">
+        <v>10</v>
+      </c>
+      <c r="AZ190">
+        <v>8</v>
+      </c>
+      <c r="BA190">
+        <v>7</v>
+      </c>
+      <c r="BB190">
+        <v>3</v>
+      </c>
+      <c r="BC190">
+        <v>10</v>
+      </c>
+      <c r="BD190">
+        <v>1.64</v>
+      </c>
+      <c r="BE190">
+        <v>9.1</v>
+      </c>
+      <c r="BF190">
+        <v>2.51</v>
+      </c>
+      <c r="BG190">
+        <v>1.18</v>
+      </c>
+      <c r="BH190">
+        <v>4.33</v>
+      </c>
+      <c r="BI190">
+        <v>1.33</v>
+      </c>
+      <c r="BJ190">
+        <v>3</v>
+      </c>
+      <c r="BK190">
+        <v>1.55</v>
+      </c>
+      <c r="BL190">
+        <v>2.38</v>
+      </c>
+      <c r="BM190">
+        <v>1.9</v>
+      </c>
+      <c r="BN190">
+        <v>1.9</v>
+      </c>
+      <c r="BO190">
+        <v>2.38</v>
+      </c>
+      <c r="BP190">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7331114</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45458.25</v>
+      </c>
+      <c r="F191">
+        <v>20</v>
+      </c>
+      <c r="G191" t="s">
+        <v>72</v>
+      </c>
+      <c r="H191" t="s">
+        <v>71</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>3</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>207</v>
+      </c>
+      <c r="P191" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q191">
+        <v>4.75</v>
+      </c>
+      <c r="R191">
+        <v>2.15</v>
+      </c>
+      <c r="S191">
+        <v>2.25</v>
+      </c>
+      <c r="T191">
+        <v>1.38</v>
+      </c>
+      <c r="U191">
+        <v>2.9</v>
+      </c>
+      <c r="V191">
+        <v>2.75</v>
+      </c>
+      <c r="W191">
+        <v>1.4</v>
+      </c>
+      <c r="X191">
+        <v>6.5</v>
+      </c>
+      <c r="Y191">
+        <v>1.08</v>
+      </c>
+      <c r="Z191">
+        <v>4.43</v>
+      </c>
+      <c r="AA191">
+        <v>3.7</v>
+      </c>
+      <c r="AB191">
+        <v>1.67</v>
+      </c>
+      <c r="AC191">
+        <v>1.01</v>
+      </c>
+      <c r="AD191">
+        <v>9.4</v>
+      </c>
+      <c r="AE191">
+        <v>1.26</v>
+      </c>
+      <c r="AF191">
+        <v>3.34</v>
+      </c>
+      <c r="AG191">
+        <v>1.85</v>
+      </c>
+      <c r="AH191">
+        <v>1.85</v>
+      </c>
+      <c r="AI191">
+        <v>1.8</v>
+      </c>
+      <c r="AJ191">
+        <v>1.95</v>
+      </c>
+      <c r="AK191">
+        <v>2.1</v>
+      </c>
+      <c r="AL191">
+        <v>1.2</v>
+      </c>
+      <c r="AM191">
+        <v>1.15</v>
+      </c>
+      <c r="AN191">
+        <v>1.5</v>
+      </c>
+      <c r="AO191">
+        <v>1.7</v>
+      </c>
+      <c r="AP191">
+        <v>1.36</v>
+      </c>
+      <c r="AQ191">
+        <v>1.82</v>
+      </c>
+      <c r="AR191">
+        <v>1.35</v>
+      </c>
+      <c r="AS191">
+        <v>1.53</v>
+      </c>
+      <c r="AT191">
+        <v>2.88</v>
+      </c>
+      <c r="AU191">
+        <v>3</v>
+      </c>
+      <c r="AV191">
+        <v>9</v>
+      </c>
+      <c r="AW191">
+        <v>7</v>
+      </c>
+      <c r="AX191">
+        <v>9</v>
+      </c>
+      <c r="AY191">
+        <v>10</v>
+      </c>
+      <c r="AZ191">
+        <v>18</v>
+      </c>
+      <c r="BA191">
+        <v>3</v>
+      </c>
+      <c r="BB191">
+        <v>5</v>
+      </c>
+      <c r="BC191">
+        <v>8</v>
+      </c>
+      <c r="BD191">
+        <v>3.66</v>
+      </c>
+      <c r="BE191">
+        <v>9</v>
+      </c>
+      <c r="BF191">
+        <v>1.41</v>
+      </c>
+      <c r="BG191">
+        <v>1.29</v>
+      </c>
+      <c r="BH191">
+        <v>3.4</v>
+      </c>
+      <c r="BI191">
+        <v>1.44</v>
+      </c>
+      <c r="BJ191">
+        <v>2.6</v>
+      </c>
+      <c r="BK191">
+        <v>2</v>
+      </c>
+      <c r="BL191">
+        <v>1.8</v>
+      </c>
+      <c r="BM191">
+        <v>2.25</v>
+      </c>
+      <c r="BN191">
+        <v>1.57</v>
+      </c>
+      <c r="BO191">
+        <v>3</v>
+      </c>
+      <c r="BP191">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7331115</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45458.29166666666</v>
+      </c>
+      <c r="F192">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>82</v>
+      </c>
+      <c r="H192" t="s">
+        <v>88</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>3</v>
+      </c>
+      <c r="O192" t="s">
+        <v>208</v>
+      </c>
+      <c r="P192" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q192">
+        <v>3.36</v>
+      </c>
+      <c r="R192">
+        <v>2.09</v>
+      </c>
+      <c r="S192">
+        <v>2.93</v>
+      </c>
+      <c r="T192">
+        <v>1.39</v>
+      </c>
+      <c r="U192">
+        <v>2.85</v>
+      </c>
+      <c r="V192">
+        <v>2.81</v>
+      </c>
+      <c r="W192">
+        <v>1.4</v>
+      </c>
+      <c r="X192">
+        <v>6.9</v>
+      </c>
+      <c r="Y192">
+        <v>1.07</v>
+      </c>
+      <c r="Z192">
+        <v>2.61</v>
+      </c>
+      <c r="AA192">
+        <v>3.2</v>
+      </c>
+      <c r="AB192">
+        <v>2.5</v>
+      </c>
+      <c r="AC192">
+        <v>1.02</v>
+      </c>
+      <c r="AD192">
+        <v>9.1</v>
+      </c>
+      <c r="AE192">
+        <v>1.27</v>
+      </c>
+      <c r="AF192">
+        <v>3.28</v>
+      </c>
+      <c r="AG192">
+        <v>1.9</v>
+      </c>
+      <c r="AH192">
+        <v>1.8</v>
+      </c>
+      <c r="AI192">
+        <v>1.69</v>
+      </c>
+      <c r="AJ192">
+        <v>2</v>
+      </c>
+      <c r="AK192">
+        <v>1.51</v>
+      </c>
+      <c r="AL192">
+        <v>1.28</v>
+      </c>
+      <c r="AM192">
+        <v>1.39</v>
+      </c>
+      <c r="AN192">
+        <v>1.11</v>
+      </c>
+      <c r="AO192">
+        <v>1.1</v>
+      </c>
+      <c r="AP192">
+        <v>1.3</v>
+      </c>
+      <c r="AQ192">
+        <v>1</v>
+      </c>
+      <c r="AR192">
+        <v>1.35</v>
+      </c>
+      <c r="AS192">
+        <v>1.39</v>
+      </c>
+      <c r="AT192">
+        <v>2.74</v>
+      </c>
+      <c r="AU192">
+        <v>3</v>
+      </c>
+      <c r="AV192">
+        <v>4</v>
+      </c>
+      <c r="AW192">
+        <v>4</v>
+      </c>
+      <c r="AX192">
+        <v>8</v>
+      </c>
+      <c r="AY192">
+        <v>7</v>
+      </c>
+      <c r="AZ192">
+        <v>12</v>
+      </c>
+      <c r="BA192">
+        <v>1</v>
+      </c>
+      <c r="BB192">
+        <v>12</v>
+      </c>
+      <c r="BC192">
+        <v>13</v>
+      </c>
+      <c r="BD192">
+        <v>1.82</v>
+      </c>
+      <c r="BE192">
+        <v>8</v>
+      </c>
+      <c r="BF192">
+        <v>2.33</v>
+      </c>
+      <c r="BG192">
+        <v>1.22</v>
+      </c>
+      <c r="BH192">
+        <v>3.8</v>
+      </c>
+      <c r="BI192">
+        <v>1.32</v>
+      </c>
+      <c r="BJ192">
+        <v>3.1</v>
+      </c>
+      <c r="BK192">
+        <v>1.8</v>
+      </c>
+      <c r="BL192">
+        <v>2</v>
+      </c>
+      <c r="BM192">
+        <v>2.03</v>
+      </c>
+      <c r="BN192">
+        <v>1.7</v>
+      </c>
+      <c r="BO192">
+        <v>2.62</v>
+      </c>
+      <c r="BP192">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7331116</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45459.16666666666</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>83</v>
+      </c>
+      <c r="H193" t="s">
+        <v>86</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>209</v>
+      </c>
+      <c r="P193" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q193">
+        <v>2.75</v>
+      </c>
+      <c r="R193">
+        <v>2.2</v>
+      </c>
+      <c r="S193">
+        <v>3.75</v>
+      </c>
+      <c r="T193">
+        <v>1.36</v>
+      </c>
+      <c r="U193">
+        <v>3</v>
+      </c>
+      <c r="V193">
+        <v>2.75</v>
+      </c>
+      <c r="W193">
+        <v>1.4</v>
+      </c>
+      <c r="X193">
+        <v>7</v>
+      </c>
+      <c r="Y193">
+        <v>1.1</v>
+      </c>
+      <c r="Z193">
+        <v>2.1</v>
+      </c>
+      <c r="AA193">
+        <v>3.5</v>
+      </c>
+      <c r="AB193">
+        <v>3</v>
+      </c>
+      <c r="AC193">
+        <v>1.04</v>
+      </c>
+      <c r="AD193">
+        <v>9</v>
+      </c>
+      <c r="AE193">
+        <v>1.28</v>
+      </c>
+      <c r="AF193">
+        <v>3.5</v>
+      </c>
+      <c r="AG193">
+        <v>1.8</v>
+      </c>
+      <c r="AH193">
+        <v>1.9</v>
+      </c>
+      <c r="AI193">
+        <v>1.67</v>
+      </c>
+      <c r="AJ193">
+        <v>2.1</v>
+      </c>
+      <c r="AK193">
+        <v>1.36</v>
+      </c>
+      <c r="AL193">
+        <v>1.22</v>
+      </c>
+      <c r="AM193">
+        <v>1.66</v>
+      </c>
+      <c r="AN193">
+        <v>1.33</v>
+      </c>
+      <c r="AO193">
+        <v>1.7</v>
+      </c>
+      <c r="AP193">
+        <v>1.3</v>
+      </c>
+      <c r="AQ193">
+        <v>1.64</v>
+      </c>
+      <c r="AR193">
+        <v>1.59</v>
+      </c>
+      <c r="AS193">
+        <v>1.54</v>
+      </c>
+      <c r="AT193">
+        <v>3.13</v>
+      </c>
+      <c r="AU193">
+        <v>2</v>
+      </c>
+      <c r="AV193">
+        <v>3</v>
+      </c>
+      <c r="AW193">
+        <v>8</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>10</v>
+      </c>
+      <c r="AZ193">
+        <v>8</v>
+      </c>
+      <c r="BA193">
+        <v>2</v>
+      </c>
+      <c r="BB193">
+        <v>14</v>
+      </c>
+      <c r="BC193">
+        <v>16</v>
+      </c>
+      <c r="BD193">
+        <v>1.75</v>
+      </c>
+      <c r="BE193">
+        <v>8</v>
+      </c>
+      <c r="BF193">
+        <v>2.44</v>
+      </c>
+      <c r="BG193">
+        <v>1.25</v>
+      </c>
+      <c r="BH193">
+        <v>3.6</v>
+      </c>
+      <c r="BI193">
+        <v>1.4</v>
+      </c>
+      <c r="BJ193">
+        <v>2.75</v>
+      </c>
+      <c r="BK193">
+        <v>1.73</v>
+      </c>
+      <c r="BL193">
+        <v>2</v>
+      </c>
+      <c r="BM193">
+        <v>2.17</v>
+      </c>
+      <c r="BN193">
+        <v>1.61</v>
+      </c>
+      <c r="BO193">
+        <v>2.85</v>
+      </c>
+      <c r="BP193">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7331117</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45459.20833333334</v>
+      </c>
+      <c r="F194">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>70</v>
+      </c>
+      <c r="H194" t="s">
+        <v>89</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>210</v>
+      </c>
+      <c r="P194" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q194">
+        <v>3.4</v>
+      </c>
+      <c r="R194">
+        <v>1.95</v>
+      </c>
+      <c r="S194">
+        <v>3.6</v>
+      </c>
+      <c r="T194">
+        <v>1.53</v>
+      </c>
+      <c r="U194">
+        <v>2.38</v>
+      </c>
+      <c r="V194">
+        <v>3.5</v>
+      </c>
+      <c r="W194">
+        <v>1.29</v>
+      </c>
+      <c r="X194">
+        <v>11</v>
+      </c>
+      <c r="Y194">
+        <v>1.05</v>
+      </c>
+      <c r="Z194">
+        <v>2.5</v>
+      </c>
+      <c r="AA194">
+        <v>3</v>
+      </c>
+      <c r="AB194">
+        <v>2.76</v>
+      </c>
+      <c r="AC194">
+        <v>1.1</v>
+      </c>
+      <c r="AD194">
+        <v>6.25</v>
+      </c>
+      <c r="AE194">
+        <v>1.5</v>
+      </c>
+      <c r="AF194">
+        <v>2.45</v>
+      </c>
+      <c r="AG194">
+        <v>2.34</v>
+      </c>
+      <c r="AH194">
+        <v>1.53</v>
+      </c>
+      <c r="AI194">
+        <v>2</v>
+      </c>
+      <c r="AJ194">
+        <v>1.73</v>
+      </c>
+      <c r="AK194">
+        <v>1.4</v>
+      </c>
+      <c r="AL194">
+        <v>1.3</v>
+      </c>
+      <c r="AM194">
+        <v>1.47</v>
+      </c>
+      <c r="AN194">
+        <v>1</v>
+      </c>
+      <c r="AO194">
+        <v>1.4</v>
+      </c>
+      <c r="AP194">
+        <v>1.18</v>
+      </c>
+      <c r="AQ194">
+        <v>1.27</v>
+      </c>
+      <c r="AR194">
+        <v>1.53</v>
+      </c>
+      <c r="AS194">
+        <v>1.41</v>
+      </c>
+      <c r="AT194">
+        <v>2.94</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
+        <v>3</v>
+      </c>
+      <c r="AW194">
+        <v>2</v>
+      </c>
+      <c r="AX194">
+        <v>9</v>
+      </c>
+      <c r="AY194">
+        <v>6</v>
+      </c>
+      <c r="AZ194">
+        <v>12</v>
+      </c>
+      <c r="BA194">
+        <v>3</v>
+      </c>
+      <c r="BB194">
+        <v>7</v>
+      </c>
+      <c r="BC194">
+        <v>10</v>
+      </c>
+      <c r="BD194">
+        <v>2.05</v>
+      </c>
+      <c r="BE194">
+        <v>8</v>
+      </c>
+      <c r="BF194">
+        <v>2.05</v>
+      </c>
+      <c r="BG194">
+        <v>1.25</v>
+      </c>
+      <c r="BH194">
+        <v>3.6</v>
+      </c>
+      <c r="BI194">
+        <v>1.43</v>
+      </c>
+      <c r="BJ194">
+        <v>2.62</v>
+      </c>
+      <c r="BK194">
+        <v>2</v>
+      </c>
+      <c r="BL194">
+        <v>1.8</v>
+      </c>
+      <c r="BM194">
+        <v>2.22</v>
+      </c>
+      <c r="BN194">
+        <v>1.59</v>
+      </c>
+      <c r="BO194">
+        <v>2.95</v>
+      </c>
+      <c r="BP194">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7331118</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F195">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>87</v>
+      </c>
+      <c r="H195" t="s">
+        <v>80</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>211</v>
+      </c>
+      <c r="P195" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q195">
+        <v>3.4</v>
+      </c>
+      <c r="R195">
+        <v>2.2</v>
+      </c>
+      <c r="S195">
+        <v>3.2</v>
+      </c>
+      <c r="T195">
+        <v>1.4</v>
+      </c>
+      <c r="U195">
+        <v>2.75</v>
+      </c>
+      <c r="V195">
+        <v>2.75</v>
+      </c>
+      <c r="W195">
+        <v>1.4</v>
+      </c>
+      <c r="X195">
+        <v>8</v>
+      </c>
+      <c r="Y195">
+        <v>1.08</v>
+      </c>
+      <c r="Z195">
+        <v>2.6</v>
+      </c>
+      <c r="AA195">
+        <v>3.2</v>
+      </c>
+      <c r="AB195">
+        <v>2.51</v>
+      </c>
+      <c r="AC195">
+        <v>1.05</v>
+      </c>
+      <c r="AD195">
+        <v>8.5</v>
+      </c>
+      <c r="AE195">
+        <v>1.3</v>
+      </c>
+      <c r="AF195">
+        <v>3.3</v>
+      </c>
+      <c r="AG195">
+        <v>1.9</v>
+      </c>
+      <c r="AH195">
+        <v>1.8</v>
+      </c>
+      <c r="AI195">
+        <v>1.73</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>1.5</v>
+      </c>
+      <c r="AL195">
+        <v>1.25</v>
+      </c>
+      <c r="AM195">
+        <v>1.44</v>
+      </c>
+      <c r="AN195">
+        <v>1.56</v>
+      </c>
+      <c r="AO195">
+        <v>2.33</v>
+      </c>
+      <c r="AP195">
+        <v>1.5</v>
+      </c>
+      <c r="AQ195">
+        <v>2.2</v>
+      </c>
+      <c r="AR195">
+        <v>1.6</v>
+      </c>
+      <c r="AS195">
+        <v>1.73</v>
+      </c>
+      <c r="AT195">
+        <v>3.33</v>
+      </c>
+      <c r="AU195">
+        <v>4</v>
+      </c>
+      <c r="AV195">
+        <v>10</v>
+      </c>
+      <c r="AW195">
+        <v>8</v>
+      </c>
+      <c r="AX195">
+        <v>6</v>
+      </c>
+      <c r="AY195">
+        <v>12</v>
+      </c>
+      <c r="AZ195">
+        <v>16</v>
+      </c>
+      <c r="BA195">
+        <v>4</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>10</v>
+      </c>
+      <c r="BD195">
+        <v>1.69</v>
+      </c>
+      <c r="BE195">
+        <v>8</v>
+      </c>
+      <c r="BF195">
+        <v>2.54</v>
+      </c>
+      <c r="BG195">
+        <v>1.3</v>
+      </c>
+      <c r="BH195">
+        <v>3.2</v>
+      </c>
+      <c r="BI195">
+        <v>1.47</v>
+      </c>
+      <c r="BJ195">
+        <v>2.5</v>
+      </c>
+      <c r="BK195">
+        <v>2.1</v>
+      </c>
+      <c r="BL195">
+        <v>1.67</v>
+      </c>
+      <c r="BM195">
+        <v>2.45</v>
+      </c>
+      <c r="BN195">
+        <v>1.49</v>
+      </c>
+      <c r="BO195">
+        <v>3.35</v>
+      </c>
+      <c r="BP195">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7331119</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>73</v>
+      </c>
+      <c r="H196" t="s">
+        <v>81</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>212</v>
+      </c>
+      <c r="P196" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q196">
+        <v>5.5</v>
+      </c>
+      <c r="R196">
+        <v>2.4</v>
+      </c>
+      <c r="S196">
+        <v>2</v>
+      </c>
+      <c r="T196">
+        <v>1.3</v>
+      </c>
+      <c r="U196">
+        <v>3.4</v>
+      </c>
+      <c r="V196">
+        <v>2.5</v>
+      </c>
+      <c r="W196">
+        <v>1.5</v>
+      </c>
+      <c r="X196">
+        <v>6</v>
+      </c>
+      <c r="Y196">
+        <v>1.13</v>
+      </c>
+      <c r="Z196">
+        <v>5.18</v>
+      </c>
+      <c r="AA196">
+        <v>4.25</v>
+      </c>
+      <c r="AB196">
+        <v>1.5</v>
+      </c>
+      <c r="AC196">
+        <v>1.03</v>
+      </c>
+      <c r="AD196">
+        <v>10</v>
+      </c>
+      <c r="AE196">
+        <v>1.2</v>
+      </c>
+      <c r="AF196">
+        <v>4.33</v>
+      </c>
+      <c r="AG196">
+        <v>1.65</v>
+      </c>
+      <c r="AH196">
+        <v>2.11</v>
+      </c>
+      <c r="AI196">
+        <v>1.73</v>
+      </c>
+      <c r="AJ196">
+        <v>2</v>
+      </c>
+      <c r="AK196">
+        <v>2.45</v>
+      </c>
+      <c r="AL196">
+        <v>1.16</v>
+      </c>
+      <c r="AM196">
+        <v>1.1</v>
+      </c>
+      <c r="AN196">
+        <v>1.6</v>
+      </c>
+      <c r="AO196">
+        <v>1.8</v>
+      </c>
+      <c r="AP196">
+        <v>1.73</v>
+      </c>
+      <c r="AQ196">
+        <v>1.64</v>
+      </c>
+      <c r="AR196">
+        <v>1.21</v>
+      </c>
+      <c r="AS196">
+        <v>1.45</v>
+      </c>
+      <c r="AT196">
+        <v>2.66</v>
+      </c>
+      <c r="AU196">
+        <v>5</v>
+      </c>
+      <c r="AV196">
+        <v>2</v>
+      </c>
+      <c r="AW196">
+        <v>5</v>
+      </c>
+      <c r="AX196">
+        <v>11</v>
+      </c>
+      <c r="AY196">
+        <v>10</v>
+      </c>
+      <c r="AZ196">
+        <v>13</v>
+      </c>
+      <c r="BA196">
+        <v>2</v>
+      </c>
+      <c r="BB196">
+        <v>11</v>
+      </c>
+      <c r="BC196">
+        <v>13</v>
+      </c>
+      <c r="BD196">
+        <v>4.13</v>
+      </c>
+      <c r="BE196">
+        <v>9.5</v>
+      </c>
+      <c r="BF196">
+        <v>1.31</v>
+      </c>
+      <c r="BG196">
+        <v>1.18</v>
+      </c>
+      <c r="BH196">
+        <v>4.33</v>
+      </c>
+      <c r="BI196">
+        <v>1.3</v>
+      </c>
+      <c r="BJ196">
+        <v>3.2</v>
+      </c>
+      <c r="BK196">
+        <v>1.47</v>
+      </c>
+      <c r="BL196">
+        <v>2.5</v>
+      </c>
+      <c r="BM196">
+        <v>2</v>
+      </c>
+      <c r="BN196">
+        <v>1.73</v>
+      </c>
+      <c r="BO196">
+        <v>2.33</v>
+      </c>
+      <c r="BP196">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7331120</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
+      </c>
+      <c r="G197" t="s">
+        <v>76</v>
+      </c>
+      <c r="H197" t="s">
+        <v>75</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197" t="s">
+        <v>92</v>
+      </c>
+      <c r="P197" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q197">
+        <v>3.5</v>
+      </c>
+      <c r="R197">
+        <v>2.1</v>
+      </c>
+      <c r="S197">
+        <v>3.2</v>
+      </c>
+      <c r="T197">
+        <v>1.44</v>
+      </c>
+      <c r="U197">
+        <v>2.63</v>
+      </c>
+      <c r="V197">
+        <v>3.25</v>
+      </c>
+      <c r="W197">
+        <v>1.33</v>
+      </c>
+      <c r="X197">
+        <v>9</v>
+      </c>
+      <c r="Y197">
+        <v>1.07</v>
+      </c>
+      <c r="Z197">
+        <v>2.69</v>
+      </c>
+      <c r="AA197">
+        <v>3.1</v>
+      </c>
+      <c r="AB197">
+        <v>2.5</v>
+      </c>
+      <c r="AC197">
+        <v>1.06</v>
+      </c>
+      <c r="AD197">
+        <v>8</v>
+      </c>
+      <c r="AE197">
+        <v>1.36</v>
+      </c>
+      <c r="AF197">
+        <v>3</v>
+      </c>
+      <c r="AG197">
+        <v>1.99</v>
+      </c>
+      <c r="AH197">
+        <v>1.73</v>
+      </c>
+      <c r="AI197">
+        <v>1.83</v>
+      </c>
+      <c r="AJ197">
+        <v>1.83</v>
+      </c>
+      <c r="AK197">
+        <v>1.52</v>
+      </c>
+      <c r="AL197">
+        <v>1.28</v>
+      </c>
+      <c r="AM197">
+        <v>1.42</v>
+      </c>
+      <c r="AN197">
+        <v>0.7</v>
+      </c>
+      <c r="AO197">
+        <v>1.5</v>
+      </c>
+      <c r="AP197">
+        <v>0.64</v>
+      </c>
+      <c r="AQ197">
+        <v>1.64</v>
+      </c>
+      <c r="AR197">
+        <v>1.51</v>
+      </c>
+      <c r="AS197">
+        <v>1.43</v>
+      </c>
+      <c r="AT197">
+        <v>2.94</v>
+      </c>
+      <c r="AU197">
+        <v>3</v>
+      </c>
+      <c r="AV197">
+        <v>10</v>
+      </c>
+      <c r="AW197">
+        <v>3</v>
+      </c>
+      <c r="AX197">
+        <v>18</v>
+      </c>
+      <c r="AY197">
+        <v>6</v>
+      </c>
+      <c r="AZ197">
+        <v>28</v>
+      </c>
+      <c r="BA197">
+        <v>5</v>
+      </c>
+      <c r="BB197">
+        <v>10</v>
+      </c>
+      <c r="BC197">
+        <v>15</v>
+      </c>
+      <c r="BD197">
+        <v>1.82</v>
+      </c>
+      <c r="BE197">
+        <v>8</v>
+      </c>
+      <c r="BF197">
+        <v>2.39</v>
+      </c>
+      <c r="BG197">
+        <v>1.33</v>
+      </c>
+      <c r="BH197">
+        <v>3</v>
+      </c>
+      <c r="BI197">
+        <v>1.54</v>
+      </c>
+      <c r="BJ197">
+        <v>2.25</v>
+      </c>
+      <c r="BK197">
+        <v>2.1</v>
+      </c>
+      <c r="BL197">
+        <v>1.67</v>
+      </c>
+      <c r="BM197">
+        <v>2.54</v>
+      </c>
+      <c r="BN197">
+        <v>1.43</v>
+      </c>
+      <c r="BO197">
+        <v>3.2</v>
+      </c>
+      <c r="BP197">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7331121</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45459.25</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>79</v>
+      </c>
+      <c r="H198" t="s">
+        <v>85</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>92</v>
+      </c>
+      <c r="P198" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q198">
+        <v>2.63</v>
+      </c>
+      <c r="R198">
+        <v>2.1</v>
+      </c>
+      <c r="S198">
+        <v>4.5</v>
+      </c>
+      <c r="T198">
+        <v>1.44</v>
+      </c>
+      <c r="U198">
+        <v>2.63</v>
+      </c>
+      <c r="V198">
+        <v>3.25</v>
+      </c>
+      <c r="W198">
+        <v>1.33</v>
+      </c>
+      <c r="X198">
+        <v>9</v>
+      </c>
+      <c r="Y198">
+        <v>1.07</v>
+      </c>
+      <c r="Z198">
+        <v>1.9</v>
+      </c>
+      <c r="AA198">
+        <v>3.3</v>
+      </c>
+      <c r="AB198">
+        <v>3.76</v>
+      </c>
+      <c r="AC198">
+        <v>1.03</v>
+      </c>
+      <c r="AD198">
+        <v>7.9</v>
+      </c>
+      <c r="AE198">
+        <v>1.34</v>
+      </c>
+      <c r="AF198">
+        <v>2.88</v>
+      </c>
+      <c r="AG198">
+        <v>2.03</v>
+      </c>
+      <c r="AH198">
+        <v>1.7</v>
+      </c>
+      <c r="AI198">
+        <v>1.91</v>
+      </c>
+      <c r="AJ198">
+        <v>1.8</v>
+      </c>
+      <c r="AK198">
+        <v>1.25</v>
+      </c>
+      <c r="AL198">
+        <v>1.25</v>
+      </c>
+      <c r="AM198">
+        <v>1.75</v>
+      </c>
+      <c r="AN198">
+        <v>0.9</v>
+      </c>
+      <c r="AO198">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP198">
+        <v>0.82</v>
+      </c>
+      <c r="AQ198">
+        <v>0.8</v>
+      </c>
+      <c r="AR198">
+        <v>1.34</v>
+      </c>
+      <c r="AS198">
+        <v>1.14</v>
+      </c>
+      <c r="AT198">
+        <v>2.48</v>
+      </c>
+      <c r="AU198">
+        <v>4</v>
+      </c>
+      <c r="AV198">
+        <v>4</v>
+      </c>
+      <c r="AW198">
+        <v>9</v>
+      </c>
+      <c r="AX198">
+        <v>6</v>
+      </c>
+      <c r="AY198">
+        <v>13</v>
+      </c>
+      <c r="AZ198">
+        <v>10</v>
+      </c>
+      <c r="BA198">
+        <v>3</v>
+      </c>
+      <c r="BB198">
+        <v>2</v>
+      </c>
+      <c r="BC198">
+        <v>5</v>
+      </c>
+      <c r="BD198">
+        <v>1.51</v>
+      </c>
+      <c r="BE198">
+        <v>8.5</v>
+      </c>
+      <c r="BF198">
+        <v>3.07</v>
+      </c>
+      <c r="BG198">
+        <v>1.33</v>
+      </c>
+      <c r="BH198">
+        <v>3</v>
+      </c>
+      <c r="BI198">
+        <v>1.49</v>
+      </c>
+      <c r="BJ198">
+        <v>2.45</v>
+      </c>
+      <c r="BK198">
+        <v>1.9</v>
+      </c>
+      <c r="BL198">
+        <v>1.9</v>
+      </c>
+      <c r="BM198">
+        <v>2.45</v>
+      </c>
+      <c r="BN198">
+        <v>1.49</v>
+      </c>
+      <c r="BO198">
+        <v>3.3</v>
+      </c>
+      <c r="BP198">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7331122</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45459.27083333334</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>77</v>
+      </c>
+      <c r="H199" t="s">
+        <v>84</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>92</v>
+      </c>
+      <c r="P199" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q199">
+        <v>4.33</v>
+      </c>
+      <c r="R199">
+        <v>1.95</v>
+      </c>
+      <c r="S199">
+        <v>2.7</v>
+      </c>
+      <c r="T199">
+        <v>1.54</v>
+      </c>
+      <c r="U199">
+        <v>2.36</v>
+      </c>
+      <c r="V199">
+        <v>3.45</v>
+      </c>
+      <c r="W199">
+        <v>1.25</v>
+      </c>
+      <c r="X199">
+        <v>8</v>
+      </c>
+      <c r="Y199">
+        <v>1.06</v>
+      </c>
+      <c r="Z199">
+        <v>4.15</v>
+      </c>
+      <c r="AA199">
+        <v>3.05</v>
+      </c>
+      <c r="AB199">
+        <v>1.9</v>
+      </c>
+      <c r="AC199">
+        <v>1.06</v>
+      </c>
+      <c r="AD199">
+        <v>6.75</v>
+      </c>
+      <c r="AE199">
+        <v>1.44</v>
+      </c>
+      <c r="AF199">
+        <v>2.51</v>
+      </c>
+      <c r="AG199">
+        <v>2.34</v>
+      </c>
+      <c r="AH199">
+        <v>1.53</v>
+      </c>
+      <c r="AI199">
+        <v>2.1</v>
+      </c>
+      <c r="AJ199">
+        <v>1.7</v>
+      </c>
+      <c r="AK199">
+        <v>1.75</v>
+      </c>
+      <c r="AL199">
+        <v>1.28</v>
+      </c>
+      <c r="AM199">
+        <v>1.22</v>
+      </c>
+      <c r="AN199">
+        <v>0.3</v>
+      </c>
+      <c r="AO199">
+        <v>1.67</v>
+      </c>
+      <c r="AP199">
+        <v>0.27</v>
+      </c>
+      <c r="AQ199">
+        <v>1.8</v>
+      </c>
+      <c r="AR199">
+        <v>1.05</v>
+      </c>
+      <c r="AS199">
+        <v>1.45</v>
+      </c>
+      <c r="AT199">
+        <v>2.5</v>
+      </c>
+      <c r="AU199">
+        <v>2</v>
+      </c>
+      <c r="AV199">
+        <v>4</v>
+      </c>
+      <c r="AW199">
+        <v>8</v>
+      </c>
+      <c r="AX199">
+        <v>8</v>
+      </c>
+      <c r="AY199">
+        <v>10</v>
+      </c>
+      <c r="AZ199">
+        <v>12</v>
+      </c>
+      <c r="BA199">
+        <v>3</v>
+      </c>
+      <c r="BB199">
+        <v>4</v>
+      </c>
+      <c r="BC199">
+        <v>7</v>
+      </c>
+      <c r="BD199">
+        <v>2.52</v>
+      </c>
+      <c r="BE199">
+        <v>8</v>
+      </c>
+      <c r="BF199">
+        <v>1.75</v>
+      </c>
+      <c r="BG199">
+        <v>1.36</v>
+      </c>
+      <c r="BH199">
+        <v>2.9</v>
+      </c>
+      <c r="BI199">
+        <v>1.54</v>
+      </c>
+      <c r="BJ199">
+        <v>2.25</v>
+      </c>
+      <c r="BK199">
+        <v>1.92</v>
+      </c>
+      <c r="BL199">
+        <v>1.88</v>
+      </c>
+      <c r="BM199">
+        <v>2.54</v>
+      </c>
+      <c r="BN199">
+        <v>1.43</v>
+      </c>
+      <c r="BO199">
+        <v>3.3</v>
+      </c>
+      <c r="BP199">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7331123</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45459.29166666666</v>
+      </c>
+      <c r="F200">
+        <v>20</v>
+      </c>
+      <c r="G200" t="s">
+        <v>74</v>
+      </c>
+      <c r="H200" t="s">
+        <v>78</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="O200" t="s">
+        <v>97</v>
+      </c>
+      <c r="P200" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q200">
+        <v>2.38</v>
+      </c>
+      <c r="R200">
+        <v>2.2</v>
+      </c>
+      <c r="S200">
+        <v>5</v>
+      </c>
+      <c r="T200">
+        <v>1.4</v>
+      </c>
+      <c r="U200">
+        <v>2.75</v>
+      </c>
+      <c r="V200">
+        <v>3</v>
+      </c>
+      <c r="W200">
+        <v>1.36</v>
+      </c>
+      <c r="X200">
+        <v>8</v>
+      </c>
+      <c r="Y200">
+        <v>1.08</v>
+      </c>
+      <c r="Z200">
+        <v>1.72</v>
+      </c>
+      <c r="AA200">
+        <v>3.5</v>
+      </c>
+      <c r="AB200">
+        <v>4.39</v>
+      </c>
+      <c r="AC200">
+        <v>1.02</v>
+      </c>
+      <c r="AD200">
+        <v>9</v>
+      </c>
+      <c r="AE200">
+        <v>1.28</v>
+      </c>
+      <c r="AF200">
+        <v>3.2</v>
+      </c>
+      <c r="AG200">
+        <v>1.9</v>
+      </c>
+      <c r="AH200">
+        <v>1.8</v>
+      </c>
+      <c r="AI200">
+        <v>1.83</v>
+      </c>
+      <c r="AJ200">
+        <v>1.83</v>
+      </c>
+      <c r="AK200">
+        <v>1.15</v>
+      </c>
+      <c r="AL200">
+        <v>1.22</v>
+      </c>
+      <c r="AM200">
+        <v>2.05</v>
+      </c>
+      <c r="AN200">
+        <v>1.78</v>
+      </c>
+      <c r="AO200">
+        <v>1.67</v>
+      </c>
+      <c r="AP200">
+        <v>1.9</v>
+      </c>
+      <c r="AQ200">
+        <v>1.5</v>
+      </c>
+      <c r="AR200">
+        <v>2.16</v>
+      </c>
+      <c r="AS200">
+        <v>1.27</v>
+      </c>
+      <c r="AT200">
+        <v>3.43</v>
+      </c>
+      <c r="AU200">
+        <v>5</v>
+      </c>
+      <c r="AV200">
+        <v>5</v>
+      </c>
+      <c r="AW200">
+        <v>6</v>
+      </c>
+      <c r="AX200">
+        <v>6</v>
+      </c>
+      <c r="AY200">
+        <v>11</v>
+      </c>
+      <c r="AZ200">
+        <v>11</v>
+      </c>
+      <c r="BA200">
+        <v>5</v>
+      </c>
+      <c r="BB200">
+        <v>7</v>
+      </c>
+      <c r="BC200">
+        <v>12</v>
+      </c>
+      <c r="BD200">
+        <v>1.37</v>
+      </c>
+      <c r="BE200">
+        <v>9</v>
+      </c>
+      <c r="BF200">
+        <v>3.7</v>
+      </c>
+      <c r="BG200">
+        <v>1.3</v>
+      </c>
+      <c r="BH200">
+        <v>3.2</v>
+      </c>
+      <c r="BI200">
+        <v>1.47</v>
+      </c>
+      <c r="BJ200">
+        <v>2.5</v>
+      </c>
+      <c r="BK200">
+        <v>1.95</v>
+      </c>
+      <c r="BL200">
+        <v>1.85</v>
+      </c>
+      <c r="BM200">
+        <v>2.35</v>
+      </c>
+      <c r="BN200">
+        <v>1.52</v>
+      </c>
+      <c r="BO200">
+        <v>3.15</v>
+      </c>
+      <c r="BP200">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -655,6 +655,21 @@
     <t>['7', '59', '90']</t>
   </si>
   <si>
+    <t>['4', '14', '38', '67', '79']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['33', '70']</t>
+  </si>
+  <si>
+    <t>['8', '26']</t>
+  </si>
+  <si>
+    <t>['38', '69', '85']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -920,6 +935,12 @@
   </si>
   <si>
     <t>['52', '90+1']</t>
+  </si>
+  <si>
+    <t>['46', '57']</t>
+  </si>
+  <si>
+    <t>['56', '59', '66']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1642,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1746,7 +1767,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1824,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ3">
         <v>1.8</v>
@@ -2364,7 +2385,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2648,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2776,7 +2797,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3188,7 +3209,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3475,7 +3496,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ11">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3600,7 +3621,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3678,10 +3699,10 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ12">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3806,7 +3827,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4093,7 +4114,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4299,7 +4320,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4708,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -5120,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ19">
         <v>1.27</v>
@@ -5329,7 +5350,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5454,7 +5475,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5532,7 +5553,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5660,7 +5681,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5866,7 +5887,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5944,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ23">
         <v>0.8</v>
@@ -6150,7 +6171,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6771,7 +6792,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ27">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -6974,7 +6995,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ28">
         <v>1.8</v>
@@ -7102,7 +7123,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7180,7 +7201,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ29">
         <v>1.64</v>
@@ -7308,7 +7329,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7389,7 +7410,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ30">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7514,7 +7535,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7595,7 +7616,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7720,7 +7741,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8007,7 +8028,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -8213,7 +8234,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -8338,7 +8359,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8544,7 +8565,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8622,7 +8643,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ36">
         <v>1.64</v>
@@ -8831,7 +8852,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ37">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -9034,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ38">
         <v>1.82</v>
@@ -9162,7 +9183,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9240,10 +9261,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ39">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9368,7 +9389,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9449,7 +9470,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR40">
         <v>1.85</v>
@@ -9574,7 +9595,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9652,7 +9673,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ41">
         <v>2.2</v>
@@ -9858,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ42">
         <v>0.89</v>
@@ -10270,10 +10291,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10476,10 +10497,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR45">
         <v>1.39</v>
@@ -10682,10 +10703,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10810,7 +10831,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11303,7 +11324,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ49">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR49">
         <v>1.94</v>
@@ -11428,7 +11449,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11634,7 +11655,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11840,7 +11861,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11918,7 +11939,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ52">
         <v>1.82</v>
@@ -12046,7 +12067,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12124,7 +12145,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ53">
         <v>1.64</v>
@@ -12330,10 +12351,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12664,7 +12685,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12745,7 +12766,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ56">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12951,7 +12972,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -13488,7 +13509,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13566,10 +13587,10 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13694,7 +13715,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13900,7 +13921,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -13978,7 +13999,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ62">
         <v>1.8</v>
@@ -14187,7 +14208,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ63">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR63">
         <v>1.03</v>
@@ -14393,7 +14414,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ64">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14596,7 +14617,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ65">
         <v>1.64</v>
@@ -14930,7 +14951,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15008,10 +15029,10 @@
         <v>1.67</v>
       </c>
       <c r="AP67">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ67">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15423,7 +15444,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15629,7 +15650,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15754,7 +15775,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15832,7 +15853,7 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ71">
         <v>2.2</v>
@@ -16038,7 +16059,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16166,7 +16187,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16244,10 +16265,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ73">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16372,7 +16393,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16450,7 +16471,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ74">
         <v>1.82</v>
@@ -16578,7 +16599,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16862,7 +16883,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ76">
         <v>1.64</v>
@@ -16990,7 +17011,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17071,7 +17092,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ77">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -17277,7 +17298,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR78">
         <v>1.55</v>
@@ -17608,7 +17629,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17689,7 +17710,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
         <v>1.99</v>
@@ -18020,7 +18041,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18304,7 +18325,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ83">
         <v>0.6</v>
@@ -18510,7 +18531,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ84">
         <v>1.8</v>
@@ -18844,7 +18865,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18922,10 +18943,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ86">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR86">
         <v>1.52</v>
@@ -19128,7 +19149,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ87">
         <v>1.64</v>
@@ -19337,7 +19358,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ88">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19543,7 +19564,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ89">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR89">
         <v>1.35</v>
@@ -19668,7 +19689,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19874,7 +19895,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20080,7 +20101,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20161,7 +20182,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>2.25</v>
@@ -20364,7 +20385,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20698,7 +20719,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20904,7 +20925,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21110,7 +21131,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21600,10 +21621,10 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21806,10 +21827,10 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -21934,7 +21955,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22218,10 +22239,10 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ102">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR102">
         <v>1.81</v>
@@ -22552,7 +22573,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22633,7 +22654,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ104">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -22758,7 +22779,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22836,10 +22857,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ105">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -23042,10 +23063,10 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR106">
         <v>1.44</v>
@@ -23170,7 +23191,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23376,7 +23397,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23454,7 +23475,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ108">
         <v>0.89</v>
@@ -23660,7 +23681,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ109">
         <v>1.82</v>
@@ -23788,7 +23809,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23869,7 +23890,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ110">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR110">
         <v>1.56</v>
@@ -24072,7 +24093,7 @@
         <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ111">
         <v>0.8</v>
@@ -24200,7 +24221,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24281,7 +24302,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ112">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24406,7 +24427,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24487,7 +24508,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24612,7 +24633,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25024,7 +25045,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25105,7 +25126,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ116">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR116">
         <v>1.7</v>
@@ -25308,7 +25329,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ117">
         <v>1.64</v>
@@ -25436,7 +25457,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25720,10 +25741,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ119">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR119">
         <v>1.06</v>
@@ -26132,7 +26153,7 @@
         <v>1.6</v>
       </c>
       <c r="AP121">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ121">
         <v>1.8</v>
@@ -26341,7 +26362,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26466,7 +26487,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26547,7 +26568,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ123">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26672,7 +26693,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26878,7 +26899,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -26956,7 +26977,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ125">
         <v>1.27</v>
@@ -27084,7 +27105,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27368,7 +27389,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ127">
         <v>0.89</v>
@@ -27496,7 +27517,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27574,7 +27595,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ128">
         <v>1.64</v>
@@ -27908,7 +27929,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -27986,10 +28007,10 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ130">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28195,7 +28216,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ131">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28398,7 +28419,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28732,7 +28753,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28810,7 +28831,7 @@
         <v>1.33</v>
       </c>
       <c r="AP134">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ134">
         <v>1.5</v>
@@ -28938,7 +28959,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29016,10 +29037,10 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ135">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29222,10 +29243,10 @@
         <v>1</v>
       </c>
       <c r="AP136">
+        <v>1.09</v>
+      </c>
+      <c r="AQ136">
         <v>0.9</v>
-      </c>
-      <c r="AQ136">
-        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.07</v>
@@ -29431,7 +29452,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ137">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29556,7 +29577,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29762,7 +29783,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30049,7 +30070,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ140">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR140">
         <v>1.31</v>
@@ -30380,7 +30401,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30461,7 +30482,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ142">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR142">
         <v>1.64</v>
@@ -30792,7 +30813,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31204,7 +31225,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31282,7 +31303,7 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ146">
         <v>0.89</v>
@@ -31900,7 +31921,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ149">
         <v>1.64</v>
@@ -32028,7 +32049,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32109,7 +32130,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -32234,7 +32255,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32312,10 +32333,10 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ151">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32440,7 +32461,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32521,7 +32542,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ152">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -32724,7 +32745,7 @@
         <v>2.25</v>
       </c>
       <c r="AP153">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ153">
         <v>1.64</v>
@@ -32852,7 +32873,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -32933,7 +32954,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR154">
         <v>2.17</v>
@@ -33139,7 +33160,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ155">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR155">
         <v>1.5</v>
@@ -33264,7 +33285,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33342,7 +33363,7 @@
         <v>1.25</v>
       </c>
       <c r="AP156">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ156">
         <v>1.27</v>
@@ -33470,7 +33491,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33551,7 +33572,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ157">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR157">
         <v>1.13</v>
@@ -33676,7 +33697,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33754,7 +33775,7 @@
         <v>2.14</v>
       </c>
       <c r="AP158">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ158">
         <v>2.2</v>
@@ -33960,7 +33981,7 @@
         <v>2.13</v>
       </c>
       <c r="AP159">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ159">
         <v>1.64</v>
@@ -34088,7 +34109,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34166,10 +34187,10 @@
         <v>1.29</v>
       </c>
       <c r="AP160">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR160">
         <v>1.73</v>
@@ -34294,7 +34315,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34372,10 +34393,10 @@
         <v>1.71</v>
       </c>
       <c r="AP161">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ161">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR161">
         <v>1.13</v>
@@ -34706,7 +34727,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34990,10 +35011,10 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ164">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR164">
         <v>1.77</v>
@@ -35118,7 +35139,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35196,7 +35217,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ165">
         <v>1.82</v>
@@ -35324,7 +35345,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35611,7 +35632,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ167">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -35736,7 +35757,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35942,7 +35963,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36148,7 +36169,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36560,7 +36581,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36766,7 +36787,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36972,7 +36993,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37256,10 +37277,10 @@
         <v>1.13</v>
       </c>
       <c r="AP175">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -37384,7 +37405,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37465,7 +37486,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ176">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37668,7 +37689,7 @@
         <v>1.44</v>
       </c>
       <c r="AP177">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ177">
         <v>1.27</v>
@@ -37874,7 +37895,7 @@
         <v>2</v>
       </c>
       <c r="AP178">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ178">
         <v>1.64</v>
@@ -38002,7 +38023,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38414,7 +38435,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38492,10 +38513,10 @@
         <v>1.43</v>
       </c>
       <c r="AP181">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ181">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR181">
         <v>1.17</v>
@@ -38620,7 +38641,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38701,7 +38722,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ182">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR182">
         <v>1.43</v>
@@ -38826,7 +38847,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -38904,10 +38925,10 @@
         <v>2</v>
       </c>
       <c r="AP183">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ183">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39113,7 +39134,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ184">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR184">
         <v>1.74</v>
@@ -39238,7 +39259,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39650,7 +39671,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39728,10 +39749,10 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ187">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR187">
         <v>1.61</v>
@@ -39856,7 +39877,7 @@
         <v>115</v>
       </c>
       <c r="P188" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q188">
         <v>3.3</v>
@@ -39934,10 +39955,10 @@
         <v>0.63</v>
       </c>
       <c r="AP188">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ188">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR188">
         <v>1.2</v>
@@ -40140,10 +40161,10 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ189">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR189">
         <v>1.54</v>
@@ -40268,7 +40289,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40346,7 +40367,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP190">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AQ190">
         <v>0.6</v>
@@ -40474,7 +40495,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -40758,7 +40779,7 @@
         <v>1.1</v>
       </c>
       <c r="AP192">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ192">
         <v>1</v>
@@ -40886,7 +40907,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41298,7 +41319,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41710,7 +41731,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -41916,7 +41937,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42485,6 +42506,1654 @@
       </c>
       <c r="BP200">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7331124</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45465.20833333334</v>
+      </c>
+      <c r="F201">
+        <v>21</v>
+      </c>
+      <c r="G201" t="s">
+        <v>88</v>
+      </c>
+      <c r="H201" t="s">
+        <v>87</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>108</v>
+      </c>
+      <c r="P201" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q201">
+        <v>3.1</v>
+      </c>
+      <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
+        <v>3.4</v>
+      </c>
+      <c r="T201">
+        <v>1.45</v>
+      </c>
+      <c r="U201">
+        <v>2.6</v>
+      </c>
+      <c r="V201">
+        <v>2.94</v>
+      </c>
+      <c r="W201">
+        <v>1.37</v>
+      </c>
+      <c r="X201">
+        <v>7.5</v>
+      </c>
+      <c r="Y201">
+        <v>1.05</v>
+      </c>
+      <c r="Z201">
+        <v>2.43</v>
+      </c>
+      <c r="AA201">
+        <v>3.15</v>
+      </c>
+      <c r="AB201">
+        <v>2.8</v>
+      </c>
+      <c r="AC201">
+        <v>1.02</v>
+      </c>
+      <c r="AD201">
+        <v>8.5</v>
+      </c>
+      <c r="AE201">
+        <v>1.33</v>
+      </c>
+      <c r="AF201">
+        <v>3.1</v>
+      </c>
+      <c r="AG201">
+        <v>1.98</v>
+      </c>
+      <c r="AH201">
+        <v>1.73</v>
+      </c>
+      <c r="AI201">
+        <v>1.78</v>
+      </c>
+      <c r="AJ201">
+        <v>1.95</v>
+      </c>
+      <c r="AK201">
+        <v>1.42</v>
+      </c>
+      <c r="AL201">
+        <v>1.28</v>
+      </c>
+      <c r="AM201">
+        <v>1.5</v>
+      </c>
+      <c r="AN201">
+        <v>1.22</v>
+      </c>
+      <c r="AO201">
+        <v>1.9</v>
+      </c>
+      <c r="AP201">
+        <v>1.2</v>
+      </c>
+      <c r="AQ201">
+        <v>1.82</v>
+      </c>
+      <c r="AR201">
+        <v>1.6</v>
+      </c>
+      <c r="AS201">
+        <v>1.21</v>
+      </c>
+      <c r="AT201">
+        <v>2.81</v>
+      </c>
+      <c r="AU201">
+        <v>4</v>
+      </c>
+      <c r="AV201">
+        <v>4</v>
+      </c>
+      <c r="AW201">
+        <v>8</v>
+      </c>
+      <c r="AX201">
+        <v>7</v>
+      </c>
+      <c r="AY201">
+        <v>12</v>
+      </c>
+      <c r="AZ201">
+        <v>11</v>
+      </c>
+      <c r="BA201">
+        <v>4</v>
+      </c>
+      <c r="BB201">
+        <v>2</v>
+      </c>
+      <c r="BC201">
+        <v>6</v>
+      </c>
+      <c r="BD201">
+        <v>1.63</v>
+      </c>
+      <c r="BE201">
+        <v>6.5</v>
+      </c>
+      <c r="BF201">
+        <v>2.85</v>
+      </c>
+      <c r="BG201">
+        <v>1.29</v>
+      </c>
+      <c r="BH201">
+        <v>3.3</v>
+      </c>
+      <c r="BI201">
+        <v>1.45</v>
+      </c>
+      <c r="BJ201">
+        <v>2.48</v>
+      </c>
+      <c r="BK201">
+        <v>1.95</v>
+      </c>
+      <c r="BL201">
+        <v>1.85</v>
+      </c>
+      <c r="BM201">
+        <v>2.3</v>
+      </c>
+      <c r="BN201">
+        <v>1.52</v>
+      </c>
+      <c r="BO201">
+        <v>3.1</v>
+      </c>
+      <c r="BP201">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7331125</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45465.25</v>
+      </c>
+      <c r="F202">
+        <v>21</v>
+      </c>
+      <c r="G202" t="s">
+        <v>71</v>
+      </c>
+      <c r="H202" t="s">
+        <v>76</v>
+      </c>
+      <c r="I202">
+        <v>3</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>3</v>
+      </c>
+      <c r="L202">
+        <v>5</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>5</v>
+      </c>
+      <c r="O202" t="s">
+        <v>213</v>
+      </c>
+      <c r="P202" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q202">
+        <v>2.2</v>
+      </c>
+      <c r="R202">
+        <v>2.15</v>
+      </c>
+      <c r="S202">
+        <v>5</v>
+      </c>
+      <c r="T202">
+        <v>1.41</v>
+      </c>
+      <c r="U202">
+        <v>2.7</v>
+      </c>
+      <c r="V202">
+        <v>2.94</v>
+      </c>
+      <c r="W202">
+        <v>1.37</v>
+      </c>
+      <c r="X202">
+        <v>7.2</v>
+      </c>
+      <c r="Y202">
+        <v>1.06</v>
+      </c>
+      <c r="Z202">
+        <v>1.55</v>
+      </c>
+      <c r="AA202">
+        <v>3.75</v>
+      </c>
+      <c r="AB202">
+        <v>5.6</v>
+      </c>
+      <c r="AC202">
+        <v>1.02</v>
+      </c>
+      <c r="AD202">
+        <v>8.6</v>
+      </c>
+      <c r="AE202">
+        <v>1.33</v>
+      </c>
+      <c r="AF202">
+        <v>3.1</v>
+      </c>
+      <c r="AG202">
+        <v>1.91</v>
+      </c>
+      <c r="AH202">
+        <v>1.79</v>
+      </c>
+      <c r="AI202">
+        <v>2</v>
+      </c>
+      <c r="AJ202">
+        <v>1.75</v>
+      </c>
+      <c r="AK202">
+        <v>1.1</v>
+      </c>
+      <c r="AL202">
+        <v>1.2</v>
+      </c>
+      <c r="AM202">
+        <v>2.25</v>
+      </c>
+      <c r="AN202">
+        <v>2.22</v>
+      </c>
+      <c r="AO202">
+        <v>1.56</v>
+      </c>
+      <c r="AP202">
+        <v>2.3</v>
+      </c>
+      <c r="AQ202">
+        <v>1.4</v>
+      </c>
+      <c r="AR202">
+        <v>1.65</v>
+      </c>
+      <c r="AS202">
+        <v>1.57</v>
+      </c>
+      <c r="AT202">
+        <v>3.22</v>
+      </c>
+      <c r="AU202">
+        <v>10</v>
+      </c>
+      <c r="AV202">
+        <v>3</v>
+      </c>
+      <c r="AW202">
+        <v>6</v>
+      </c>
+      <c r="AX202">
+        <v>3</v>
+      </c>
+      <c r="AY202">
+        <v>16</v>
+      </c>
+      <c r="AZ202">
+        <v>6</v>
+      </c>
+      <c r="BA202">
+        <v>2</v>
+      </c>
+      <c r="BB202">
+        <v>2</v>
+      </c>
+      <c r="BC202">
+        <v>4</v>
+      </c>
+      <c r="BD202">
+        <v>1.26</v>
+      </c>
+      <c r="BE202">
+        <v>7.9</v>
+      </c>
+      <c r="BF202">
+        <v>5.05</v>
+      </c>
+      <c r="BG202">
+        <v>1.3</v>
+      </c>
+      <c r="BH202">
+        <v>3.2</v>
+      </c>
+      <c r="BI202">
+        <v>1.49</v>
+      </c>
+      <c r="BJ202">
+        <v>2.38</v>
+      </c>
+      <c r="BK202">
+        <v>1.88</v>
+      </c>
+      <c r="BL202">
+        <v>1.92</v>
+      </c>
+      <c r="BM202">
+        <v>2.4</v>
+      </c>
+      <c r="BN202">
+        <v>1.48</v>
+      </c>
+      <c r="BO202">
+        <v>3.3</v>
+      </c>
+      <c r="BP202">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7331126</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45465.25</v>
+      </c>
+      <c r="F203">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>86</v>
+      </c>
+      <c r="H203" t="s">
+        <v>73</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>3</v>
+      </c>
+      <c r="O203" t="s">
+        <v>214</v>
+      </c>
+      <c r="P203" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q203">
+        <v>2.2</v>
+      </c>
+      <c r="R203">
+        <v>2.25</v>
+      </c>
+      <c r="S203">
+        <v>4.5</v>
+      </c>
+      <c r="T203">
+        <v>1.31</v>
+      </c>
+      <c r="U203">
+        <v>3.26</v>
+      </c>
+      <c r="V203">
+        <v>2.5</v>
+      </c>
+      <c r="W203">
+        <v>1.48</v>
+      </c>
+      <c r="X203">
+        <v>5.6</v>
+      </c>
+      <c r="Y203">
+        <v>1.11</v>
+      </c>
+      <c r="Z203">
+        <v>1.7</v>
+      </c>
+      <c r="AA203">
+        <v>3.8</v>
+      </c>
+      <c r="AB203">
+        <v>4.25</v>
+      </c>
+      <c r="AC203">
+        <v>1.01</v>
+      </c>
+      <c r="AD203">
+        <v>10.5</v>
+      </c>
+      <c r="AE203">
+        <v>1.22</v>
+      </c>
+      <c r="AF203">
+        <v>4</v>
+      </c>
+      <c r="AG203">
+        <v>1.62</v>
+      </c>
+      <c r="AH203">
+        <v>2.15</v>
+      </c>
+      <c r="AI203">
+        <v>1.68</v>
+      </c>
+      <c r="AJ203">
+        <v>2.1</v>
+      </c>
+      <c r="AK203">
+        <v>1.15</v>
+      </c>
+      <c r="AL203">
+        <v>1.2</v>
+      </c>
+      <c r="AM203">
+        <v>2.1</v>
+      </c>
+      <c r="AN203">
+        <v>0.67</v>
+      </c>
+      <c r="AO203">
+        <v>1</v>
+      </c>
+      <c r="AP203">
+        <v>0.6</v>
+      </c>
+      <c r="AQ203">
+        <v>1.2</v>
+      </c>
+      <c r="AR203">
+        <v>1.31</v>
+      </c>
+      <c r="AS203">
+        <v>1.39</v>
+      </c>
+      <c r="AT203">
+        <v>2.7</v>
+      </c>
+      <c r="AU203">
+        <v>7</v>
+      </c>
+      <c r="AV203">
+        <v>4</v>
+      </c>
+      <c r="AW203">
+        <v>7</v>
+      </c>
+      <c r="AX203">
+        <v>1</v>
+      </c>
+      <c r="AY203">
+        <v>14</v>
+      </c>
+      <c r="AZ203">
+        <v>5</v>
+      </c>
+      <c r="BA203">
+        <v>9</v>
+      </c>
+      <c r="BB203">
+        <v>3</v>
+      </c>
+      <c r="BC203">
+        <v>12</v>
+      </c>
+      <c r="BD203">
+        <v>1.19</v>
+      </c>
+      <c r="BE203">
+        <v>9.1</v>
+      </c>
+      <c r="BF203">
+        <v>6</v>
+      </c>
+      <c r="BG203">
+        <v>1.18</v>
+      </c>
+      <c r="BH203">
+        <v>4.33</v>
+      </c>
+      <c r="BI203">
+        <v>1.3</v>
+      </c>
+      <c r="BJ203">
+        <v>3.2</v>
+      </c>
+      <c r="BK203">
+        <v>1.48</v>
+      </c>
+      <c r="BL203">
+        <v>2.4</v>
+      </c>
+      <c r="BM203">
+        <v>2</v>
+      </c>
+      <c r="BN203">
+        <v>1.73</v>
+      </c>
+      <c r="BO203">
+        <v>2.3</v>
+      </c>
+      <c r="BP203">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7331127</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F204">
+        <v>21</v>
+      </c>
+      <c r="G204" t="s">
+        <v>85</v>
+      </c>
+      <c r="H204" t="s">
+        <v>74</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>2</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204" t="s">
+        <v>215</v>
+      </c>
+      <c r="P204" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q204">
+        <v>4.75</v>
+      </c>
+      <c r="R204">
+        <v>2.15</v>
+      </c>
+      <c r="S204">
+        <v>2.25</v>
+      </c>
+      <c r="T204">
+        <v>1.4</v>
+      </c>
+      <c r="U204">
+        <v>2.75</v>
+      </c>
+      <c r="V204">
+        <v>2.85</v>
+      </c>
+      <c r="W204">
+        <v>1.39</v>
+      </c>
+      <c r="X204">
+        <v>6.9</v>
+      </c>
+      <c r="Y204">
+        <v>1.07</v>
+      </c>
+      <c r="Z204">
+        <v>4.6</v>
+      </c>
+      <c r="AA204">
+        <v>3.5</v>
+      </c>
+      <c r="AB204">
+        <v>1.7</v>
+      </c>
+      <c r="AC204">
+        <v>1.02</v>
+      </c>
+      <c r="AD204">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE204">
+        <v>1.3</v>
+      </c>
+      <c r="AF204">
+        <v>3.3</v>
+      </c>
+      <c r="AG204">
+        <v>1.92</v>
+      </c>
+      <c r="AH204">
+        <v>1.78</v>
+      </c>
+      <c r="AI204">
+        <v>1.9</v>
+      </c>
+      <c r="AJ204">
+        <v>1.85</v>
+      </c>
+      <c r="AK204">
+        <v>2.1</v>
+      </c>
+      <c r="AL204">
+        <v>1.2</v>
+      </c>
+      <c r="AM204">
+        <v>1.12</v>
+      </c>
+      <c r="AN204">
+        <v>0.9</v>
+      </c>
+      <c r="AO204">
+        <v>1.4</v>
+      </c>
+      <c r="AP204">
+        <v>1.09</v>
+      </c>
+      <c r="AQ204">
+        <v>1.27</v>
+      </c>
+      <c r="AR204">
+        <v>1.22</v>
+      </c>
+      <c r="AS204">
+        <v>1.53</v>
+      </c>
+      <c r="AT204">
+        <v>2.75</v>
+      </c>
+      <c r="AU204">
+        <v>6</v>
+      </c>
+      <c r="AV204">
+        <v>4</v>
+      </c>
+      <c r="AW204">
+        <v>6</v>
+      </c>
+      <c r="AX204">
+        <v>6</v>
+      </c>
+      <c r="AY204">
+        <v>12</v>
+      </c>
+      <c r="AZ204">
+        <v>10</v>
+      </c>
+      <c r="BA204">
+        <v>5</v>
+      </c>
+      <c r="BB204">
+        <v>7</v>
+      </c>
+      <c r="BC204">
+        <v>12</v>
+      </c>
+      <c r="BD204">
+        <v>3.46</v>
+      </c>
+      <c r="BE204">
+        <v>6.95</v>
+      </c>
+      <c r="BF204">
+        <v>1.46</v>
+      </c>
+      <c r="BG204">
+        <v>1.29</v>
+      </c>
+      <c r="BH204">
+        <v>3.3</v>
+      </c>
+      <c r="BI204">
+        <v>1.46</v>
+      </c>
+      <c r="BJ204">
+        <v>2.45</v>
+      </c>
+      <c r="BK204">
+        <v>2.05</v>
+      </c>
+      <c r="BL204">
+        <v>1.7</v>
+      </c>
+      <c r="BM204">
+        <v>2.32</v>
+      </c>
+      <c r="BN204">
+        <v>1.51</v>
+      </c>
+      <c r="BO204">
+        <v>3.15</v>
+      </c>
+      <c r="BP204">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7331128</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F205">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>75</v>
+      </c>
+      <c r="H205" t="s">
+        <v>77</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205" t="s">
+        <v>100</v>
+      </c>
+      <c r="P205" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q205">
+        <v>2.08</v>
+      </c>
+      <c r="R205">
+        <v>2.13</v>
+      </c>
+      <c r="S205">
+        <v>5.95</v>
+      </c>
+      <c r="T205">
+        <v>1.45</v>
+      </c>
+      <c r="U205">
+        <v>2.6</v>
+      </c>
+      <c r="V205">
+        <v>2.99</v>
+      </c>
+      <c r="W205">
+        <v>1.36</v>
+      </c>
+      <c r="X205">
+        <v>7.5</v>
+      </c>
+      <c r="Y205">
+        <v>1.05</v>
+      </c>
+      <c r="Z205">
+        <v>1.49</v>
+      </c>
+      <c r="AA205">
+        <v>3.95</v>
+      </c>
+      <c r="AB205">
+        <v>6.25</v>
+      </c>
+      <c r="AC205">
+        <v>1.03</v>
+      </c>
+      <c r="AD205">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE205">
+        <v>1.33</v>
+      </c>
+      <c r="AF205">
+        <v>3.1</v>
+      </c>
+      <c r="AG205">
+        <v>2.02</v>
+      </c>
+      <c r="AH205">
+        <v>1.71</v>
+      </c>
+      <c r="AI205">
+        <v>2.1</v>
+      </c>
+      <c r="AJ205">
+        <v>1.68</v>
+      </c>
+      <c r="AK205">
+        <v>1.08</v>
+      </c>
+      <c r="AL205">
+        <v>1.2</v>
+      </c>
+      <c r="AM205">
+        <v>2.35</v>
+      </c>
+      <c r="AN205">
+        <v>1.78</v>
+      </c>
+      <c r="AO205">
+        <v>0.67</v>
+      </c>
+      <c r="AP205">
+        <v>1.9</v>
+      </c>
+      <c r="AQ205">
+        <v>0.6</v>
+      </c>
+      <c r="AR205">
+        <v>1.48</v>
+      </c>
+      <c r="AS205">
+        <v>1.08</v>
+      </c>
+      <c r="AT205">
+        <v>2.56</v>
+      </c>
+      <c r="AU205">
+        <v>9</v>
+      </c>
+      <c r="AV205">
+        <v>2</v>
+      </c>
+      <c r="AW205">
+        <v>4</v>
+      </c>
+      <c r="AX205">
+        <v>8</v>
+      </c>
+      <c r="AY205">
+        <v>13</v>
+      </c>
+      <c r="AZ205">
+        <v>10</v>
+      </c>
+      <c r="BA205">
+        <v>12</v>
+      </c>
+      <c r="BB205">
+        <v>3</v>
+      </c>
+      <c r="BC205">
+        <v>15</v>
+      </c>
+      <c r="BD205">
+        <v>1.24</v>
+      </c>
+      <c r="BE205">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF205">
+        <v>5.25</v>
+      </c>
+      <c r="BG205">
+        <v>1.25</v>
+      </c>
+      <c r="BH205">
+        <v>3.6</v>
+      </c>
+      <c r="BI205">
+        <v>1.39</v>
+      </c>
+      <c r="BJ205">
+        <v>2.67</v>
+      </c>
+      <c r="BK205">
+        <v>1.88</v>
+      </c>
+      <c r="BL205">
+        <v>1.92</v>
+      </c>
+      <c r="BM205">
+        <v>2.14</v>
+      </c>
+      <c r="BN205">
+        <v>1.6</v>
+      </c>
+      <c r="BO205">
+        <v>2.85</v>
+      </c>
+      <c r="BP205">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7331129</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F206">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>84</v>
+      </c>
+      <c r="H206" t="s">
+        <v>83</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>3</v>
+      </c>
+      <c r="N206">
+        <v>3</v>
+      </c>
+      <c r="O206" t="s">
+        <v>92</v>
+      </c>
+      <c r="P206" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q206">
+        <v>3.3</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>3.2</v>
+      </c>
+      <c r="T206">
+        <v>1.46</v>
+      </c>
+      <c r="U206">
+        <v>2.55</v>
+      </c>
+      <c r="V206">
+        <v>3.04</v>
+      </c>
+      <c r="W206">
+        <v>1.35</v>
+      </c>
+      <c r="X206">
+        <v>7.6</v>
+      </c>
+      <c r="Y206">
+        <v>1.05</v>
+      </c>
+      <c r="Z206">
+        <v>2.65</v>
+      </c>
+      <c r="AA206">
+        <v>3.15</v>
+      </c>
+      <c r="AB206">
+        <v>2.6</v>
+      </c>
+      <c r="AC206">
+        <v>1.03</v>
+      </c>
+      <c r="AD206">
+        <v>8.1</v>
+      </c>
+      <c r="AE206">
+        <v>1.36</v>
+      </c>
+      <c r="AF206">
+        <v>3</v>
+      </c>
+      <c r="AG206">
+        <v>2.05</v>
+      </c>
+      <c r="AH206">
+        <v>1.68</v>
+      </c>
+      <c r="AI206">
+        <v>1.83</v>
+      </c>
+      <c r="AJ206">
+        <v>1.9</v>
+      </c>
+      <c r="AK206">
+        <v>1.47</v>
+      </c>
+      <c r="AL206">
+        <v>1.28</v>
+      </c>
+      <c r="AM206">
+        <v>1.44</v>
+      </c>
+      <c r="AN206">
+        <v>1.6</v>
+      </c>
+      <c r="AO206">
+        <v>1.67</v>
+      </c>
+      <c r="AP206">
+        <v>1.45</v>
+      </c>
+      <c r="AQ206">
+        <v>1.8</v>
+      </c>
+      <c r="AR206">
+        <v>1.59</v>
+      </c>
+      <c r="AS206">
+        <v>1.56</v>
+      </c>
+      <c r="AT206">
+        <v>3.15</v>
+      </c>
+      <c r="AU206">
+        <v>3</v>
+      </c>
+      <c r="AV206">
+        <v>6</v>
+      </c>
+      <c r="AW206">
+        <v>7</v>
+      </c>
+      <c r="AX206">
+        <v>8</v>
+      </c>
+      <c r="AY206">
+        <v>10</v>
+      </c>
+      <c r="AZ206">
+        <v>14</v>
+      </c>
+      <c r="BA206">
+        <v>8</v>
+      </c>
+      <c r="BB206">
+        <v>7</v>
+      </c>
+      <c r="BC206">
+        <v>15</v>
+      </c>
+      <c r="BD206">
+        <v>2.05</v>
+      </c>
+      <c r="BE206">
+        <v>6.25</v>
+      </c>
+      <c r="BF206">
+        <v>2.13</v>
+      </c>
+      <c r="BG206">
+        <v>1.3</v>
+      </c>
+      <c r="BH206">
+        <v>3.2</v>
+      </c>
+      <c r="BI206">
+        <v>1.5</v>
+      </c>
+      <c r="BJ206">
+        <v>2.35</v>
+      </c>
+      <c r="BK206">
+        <v>1.82</v>
+      </c>
+      <c r="BL206">
+        <v>1.98</v>
+      </c>
+      <c r="BM206">
+        <v>2.42</v>
+      </c>
+      <c r="BN206">
+        <v>1.47</v>
+      </c>
+      <c r="BO206">
+        <v>3.3</v>
+      </c>
+      <c r="BP206">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7331130</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F207">
+        <v>21</v>
+      </c>
+      <c r="G207" t="s">
+        <v>80</v>
+      </c>
+      <c r="H207" t="s">
+        <v>72</v>
+      </c>
+      <c r="I207">
+        <v>2</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>216</v>
+      </c>
+      <c r="P207" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q207">
+        <v>2.05</v>
+      </c>
+      <c r="R207">
+        <v>2.35</v>
+      </c>
+      <c r="S207">
+        <v>4.75</v>
+      </c>
+      <c r="T207">
+        <v>1.31</v>
+      </c>
+      <c r="U207">
+        <v>3.26</v>
+      </c>
+      <c r="V207">
+        <v>2.4</v>
+      </c>
+      <c r="W207">
+        <v>1.51</v>
+      </c>
+      <c r="X207">
+        <v>5.4</v>
+      </c>
+      <c r="Y207">
+        <v>1.11</v>
+      </c>
+      <c r="Z207">
+        <v>1.55</v>
+      </c>
+      <c r="AA207">
+        <v>4.1</v>
+      </c>
+      <c r="AB207">
+        <v>5.1</v>
+      </c>
+      <c r="AC207">
+        <v>1.01</v>
+      </c>
+      <c r="AD207">
+        <v>11</v>
+      </c>
+      <c r="AE207">
+        <v>1.18</v>
+      </c>
+      <c r="AF207">
+        <v>4.1</v>
+      </c>
+      <c r="AG207">
+        <v>1.6</v>
+      </c>
+      <c r="AH207">
+        <v>2.2</v>
+      </c>
+      <c r="AI207">
+        <v>1.68</v>
+      </c>
+      <c r="AJ207">
+        <v>2.1</v>
+      </c>
+      <c r="AK207">
+        <v>1.11</v>
+      </c>
+      <c r="AL207">
+        <v>1.17</v>
+      </c>
+      <c r="AM207">
+        <v>2.3</v>
+      </c>
+      <c r="AN207">
+        <v>2</v>
+      </c>
+      <c r="AO207">
+        <v>1</v>
+      </c>
+      <c r="AP207">
+        <v>2.1</v>
+      </c>
+      <c r="AQ207">
+        <v>0.9</v>
+      </c>
+      <c r="AR207">
+        <v>1.68</v>
+      </c>
+      <c r="AS207">
+        <v>1.42</v>
+      </c>
+      <c r="AT207">
+        <v>3.1</v>
+      </c>
+      <c r="AU207">
+        <v>4</v>
+      </c>
+      <c r="AV207">
+        <v>2</v>
+      </c>
+      <c r="AW207">
+        <v>7</v>
+      </c>
+      <c r="AX207">
+        <v>6</v>
+      </c>
+      <c r="AY207">
+        <v>11</v>
+      </c>
+      <c r="AZ207">
+        <v>8</v>
+      </c>
+      <c r="BA207">
+        <v>0</v>
+      </c>
+      <c r="BB207">
+        <v>6</v>
+      </c>
+      <c r="BC207">
+        <v>6</v>
+      </c>
+      <c r="BD207">
+        <v>1.38</v>
+      </c>
+      <c r="BE207">
+        <v>7.3</v>
+      </c>
+      <c r="BF207">
+        <v>3.92</v>
+      </c>
+      <c r="BG207">
+        <v>1.3</v>
+      </c>
+      <c r="BH207">
+        <v>3.2</v>
+      </c>
+      <c r="BI207">
+        <v>1.46</v>
+      </c>
+      <c r="BJ207">
+        <v>2.45</v>
+      </c>
+      <c r="BK207">
+        <v>1.9</v>
+      </c>
+      <c r="BL207">
+        <v>1.9</v>
+      </c>
+      <c r="BM207">
+        <v>2.32</v>
+      </c>
+      <c r="BN207">
+        <v>1.51</v>
+      </c>
+      <c r="BO207">
+        <v>3</v>
+      </c>
+      <c r="BP207">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7331131</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45465.29166666666</v>
+      </c>
+      <c r="F208">
+        <v>21</v>
+      </c>
+      <c r="G208" t="s">
+        <v>82</v>
+      </c>
+      <c r="H208" t="s">
+        <v>79</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>217</v>
+      </c>
+      <c r="P208" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q208">
+        <v>3.1</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="S208">
+        <v>3.4</v>
+      </c>
+      <c r="T208">
+        <v>1.45</v>
+      </c>
+      <c r="U208">
+        <v>2.6</v>
+      </c>
+      <c r="V208">
+        <v>2.99</v>
+      </c>
+      <c r="W208">
+        <v>1.36</v>
+      </c>
+      <c r="X208">
+        <v>7.6</v>
+      </c>
+      <c r="Y208">
+        <v>1.05</v>
+      </c>
+      <c r="Z208">
+        <v>2.48</v>
+      </c>
+      <c r="AA208">
+        <v>3.05</v>
+      </c>
+      <c r="AB208">
+        <v>2.85</v>
+      </c>
+      <c r="AC208">
+        <v>1.03</v>
+      </c>
+      <c r="AD208">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE208">
+        <v>1.33</v>
+      </c>
+      <c r="AF208">
+        <v>3.1</v>
+      </c>
+      <c r="AG208">
+        <v>2.05</v>
+      </c>
+      <c r="AH208">
+        <v>1.68</v>
+      </c>
+      <c r="AI208">
+        <v>1.78</v>
+      </c>
+      <c r="AJ208">
+        <v>1.95</v>
+      </c>
+      <c r="AK208">
+        <v>1.42</v>
+      </c>
+      <c r="AL208">
+        <v>1.28</v>
+      </c>
+      <c r="AM208">
+        <v>1.52</v>
+      </c>
+      <c r="AN208">
+        <v>1.3</v>
+      </c>
+      <c r="AO208">
+        <v>1.67</v>
+      </c>
+      <c r="AP208">
+        <v>1.45</v>
+      </c>
+      <c r="AQ208">
+        <v>1.5</v>
+      </c>
+      <c r="AR208">
+        <v>1.32</v>
+      </c>
+      <c r="AS208">
+        <v>1.41</v>
+      </c>
+      <c r="AT208">
+        <v>2.73</v>
+      </c>
+      <c r="AU208">
+        <v>5</v>
+      </c>
+      <c r="AV208">
+        <v>2</v>
+      </c>
+      <c r="AW208">
+        <v>8</v>
+      </c>
+      <c r="AX208">
+        <v>3</v>
+      </c>
+      <c r="AY208">
+        <v>13</v>
+      </c>
+      <c r="AZ208">
+        <v>5</v>
+      </c>
+      <c r="BA208">
+        <v>4</v>
+      </c>
+      <c r="BB208">
+        <v>1</v>
+      </c>
+      <c r="BC208">
+        <v>5</v>
+      </c>
+      <c r="BD208">
+        <v>1.85</v>
+      </c>
+      <c r="BE208">
+        <v>6.5</v>
+      </c>
+      <c r="BF208">
+        <v>2.36</v>
+      </c>
+      <c r="BG208">
+        <v>1.2</v>
+      </c>
+      <c r="BH208">
+        <v>4</v>
+      </c>
+      <c r="BI208">
+        <v>1.29</v>
+      </c>
+      <c r="BJ208">
+        <v>3.3</v>
+      </c>
+      <c r="BK208">
+        <v>1.56</v>
+      </c>
+      <c r="BL208">
+        <v>2.21</v>
+      </c>
+      <c r="BM208">
+        <v>2</v>
+      </c>
+      <c r="BN208">
+        <v>1.73</v>
+      </c>
+      <c r="BO208">
+        <v>2.51</v>
+      </c>
+      <c r="BP208">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -667,7 +667,10 @@
     <t>['8', '26']</t>
   </si>
   <si>
-    <t>['38', '69', '85']</t>
+    <t>['38', '69', '84']</t>
+  </si>
+  <si>
+    <t>['13', '42', '50']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -1302,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1767,7 +1770,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2385,7 +2388,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2797,7 +2800,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2878,7 +2881,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ8">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3209,7 +3212,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3621,7 +3624,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3827,7 +3830,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -5475,7 +5478,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5681,7 +5684,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5887,7 +5890,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -7123,7 +7126,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7204,7 +7207,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ29">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7329,7 +7332,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7535,7 +7538,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7741,7 +7744,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8359,7 +8362,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8565,7 +8568,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8849,7 +8852,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
         <v>1.82</v>
@@ -9183,7 +9186,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9389,7 +9392,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9595,7 +9598,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -10831,7 +10834,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10912,7 +10915,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ47">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -11115,7 +11118,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>0.8</v>
@@ -11449,7 +11452,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11655,7 +11658,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11861,7 +11864,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12067,7 +12070,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12685,7 +12688,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13509,7 +13512,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13715,7 +13718,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13921,7 +13924,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14411,7 +14414,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64">
         <v>1.8</v>
@@ -14620,7 +14623,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ65">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.29</v>
@@ -14951,7 +14954,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15775,7 +15778,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16187,7 +16190,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16393,7 +16396,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16599,7 +16602,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -17011,7 +17014,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17501,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ79">
         <v>0.89</v>
@@ -17629,7 +17632,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -18041,7 +18044,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18865,7 +18868,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19152,7 +19155,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ87">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19689,7 +19692,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19895,7 +19898,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20101,7 +20104,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20719,7 +20722,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20925,7 +20928,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21006,7 +21009,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ96">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21131,7 +21134,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21415,7 +21418,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98">
         <v>1.64</v>
@@ -21955,7 +21958,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22573,7 +22576,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22779,7 +22782,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23191,7 +23194,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23397,7 +23400,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23809,7 +23812,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24221,7 +24224,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24427,7 +24430,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24633,7 +24636,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25045,7 +25048,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25332,7 +25335,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ117">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25457,7 +25460,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25535,7 +25538,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ118">
         <v>1.82</v>
@@ -26487,7 +26490,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26693,7 +26696,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26899,7 +26902,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27105,7 +27108,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27517,7 +27520,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27929,7 +27932,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28753,7 +28756,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28959,7 +28962,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29577,7 +29580,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29655,7 +29658,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ138">
         <v>1.64</v>
@@ -29783,7 +29786,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -29864,7 +29867,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ139">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
         <v>1.17</v>
@@ -30401,7 +30404,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30813,7 +30816,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31225,7 +31228,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -32049,7 +32052,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32255,7 +32258,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32461,7 +32464,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32748,7 +32751,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ153">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR153">
         <v>1.55</v>
@@ -32873,7 +32876,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33285,7 +33288,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33491,7 +33494,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33697,7 +33700,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34109,7 +34112,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34315,7 +34318,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34727,7 +34730,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35139,7 +35142,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35345,7 +35348,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35629,7 +35632,7 @@
         <v>0.57</v>
       </c>
       <c r="AP167">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ167">
         <v>0.6</v>
@@ -35757,7 +35760,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35963,7 +35966,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36169,7 +36172,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36581,7 +36584,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36787,7 +36790,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36993,7 +36996,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37405,7 +37408,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37898,7 +37901,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ178">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR178">
         <v>1.66</v>
@@ -38023,7 +38026,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38435,7 +38438,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38641,7 +38644,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38719,7 +38722,7 @@
         <v>1.63</v>
       </c>
       <c r="AP182">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ182">
         <v>1.4</v>
@@ -38847,7 +38850,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39259,7 +39262,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39671,7 +39674,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39877,7 +39880,7 @@
         <v>115</v>
       </c>
       <c r="P188" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q188">
         <v>3.3</v>
@@ -40289,7 +40292,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40495,7 +40498,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -40907,7 +40910,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41319,7 +41322,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41606,7 +41609,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ196">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR196">
         <v>1.21</v>
@@ -41731,7 +41734,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -41937,7 +41940,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42555,7 +42558,7 @@
         <v>108</v>
       </c>
       <c r="P201" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42967,7 +42970,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43173,7 +43176,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43585,7 +43588,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -43678,22 +43681,22 @@
         <v>3.15</v>
       </c>
       <c r="AU206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV206">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW206">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX206">
         <v>8</v>
       </c>
       <c r="AY206">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ206">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA206">
         <v>8</v>
@@ -43884,22 +43887,22 @@
         <v>3.1</v>
       </c>
       <c r="AU207">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW207">
         <v>7</v>
       </c>
       <c r="AX207">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY207">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA207">
         <v>0</v>
@@ -44090,7 +44093,7 @@
         <v>2.73</v>
       </c>
       <c r="AU208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV208">
         <v>2</v>
@@ -44102,7 +44105,7 @@
         <v>3</v>
       </c>
       <c r="AY208">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ208">
         <v>5</v>
@@ -44154,6 +44157,212 @@
       </c>
       <c r="BP208">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7331132</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45466.08333333334</v>
+      </c>
+      <c r="F209">
+        <v>21</v>
+      </c>
+      <c r="G209" t="s">
+        <v>89</v>
+      </c>
+      <c r="H209" t="s">
+        <v>81</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>3</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>218</v>
+      </c>
+      <c r="P209" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q209">
+        <v>4.75</v>
+      </c>
+      <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>2.6</v>
+      </c>
+      <c r="T209">
+        <v>1.44</v>
+      </c>
+      <c r="U209">
+        <v>2.63</v>
+      </c>
+      <c r="V209">
+        <v>3.25</v>
+      </c>
+      <c r="W209">
+        <v>1.33</v>
+      </c>
+      <c r="X209">
+        <v>9</v>
+      </c>
+      <c r="Y209">
+        <v>1.07</v>
+      </c>
+      <c r="Z209">
+        <v>4.1</v>
+      </c>
+      <c r="AA209">
+        <v>3.35</v>
+      </c>
+      <c r="AB209">
+        <v>1.85</v>
+      </c>
+      <c r="AC209">
+        <v>1.03</v>
+      </c>
+      <c r="AD209">
+        <v>7.9</v>
+      </c>
+      <c r="AE209">
+        <v>1.33</v>
+      </c>
+      <c r="AF209">
+        <v>2.91</v>
+      </c>
+      <c r="AG209">
+        <v>2.05</v>
+      </c>
+      <c r="AH209">
+        <v>1.68</v>
+      </c>
+      <c r="AI209">
+        <v>1.91</v>
+      </c>
+      <c r="AJ209">
+        <v>1.8</v>
+      </c>
+      <c r="AK209">
+        <v>1.87</v>
+      </c>
+      <c r="AL209">
+        <v>1.25</v>
+      </c>
+      <c r="AM209">
+        <v>1.18</v>
+      </c>
+      <c r="AN209">
+        <v>1.22</v>
+      </c>
+      <c r="AO209">
+        <v>1.64</v>
+      </c>
+      <c r="AP209">
+        <v>1.4</v>
+      </c>
+      <c r="AQ209">
+        <v>1.5</v>
+      </c>
+      <c r="AR209">
+        <v>1.52</v>
+      </c>
+      <c r="AS209">
+        <v>1.44</v>
+      </c>
+      <c r="AT209">
+        <v>2.96</v>
+      </c>
+      <c r="AU209">
+        <v>4</v>
+      </c>
+      <c r="AV209">
+        <v>2</v>
+      </c>
+      <c r="AW209">
+        <v>7</v>
+      </c>
+      <c r="AX209">
+        <v>6</v>
+      </c>
+      <c r="AY209">
+        <v>11</v>
+      </c>
+      <c r="AZ209">
+        <v>8</v>
+      </c>
+      <c r="BA209">
+        <v>5</v>
+      </c>
+      <c r="BB209">
+        <v>8</v>
+      </c>
+      <c r="BC209">
+        <v>13</v>
+      </c>
+      <c r="BD209">
+        <v>2.33</v>
+      </c>
+      <c r="BE209">
+        <v>6.5</v>
+      </c>
+      <c r="BF209">
+        <v>1.87</v>
+      </c>
+      <c r="BG209">
+        <v>1.18</v>
+      </c>
+      <c r="BH209">
+        <v>4.33</v>
+      </c>
+      <c r="BI209">
+        <v>1.33</v>
+      </c>
+      <c r="BJ209">
+        <v>3</v>
+      </c>
+      <c r="BK209">
+        <v>1.5</v>
+      </c>
+      <c r="BL209">
+        <v>2.35</v>
+      </c>
+      <c r="BM209">
+        <v>1.98</v>
+      </c>
+      <c r="BN209">
+        <v>1.82</v>
+      </c>
+      <c r="BO209">
+        <v>2.38</v>
+      </c>
+      <c r="BP209">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1305,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ10">
         <v>1.64</v>
@@ -5762,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ22">
         <v>1.27</v>
@@ -6589,7 +6589,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -9885,7 +9885,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ42">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>2.12</v>
@@ -11736,7 +11736,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ51">
         <v>1.8</v>
@@ -14208,7 +14208,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ63">
         <v>0.6</v>
@@ -17507,7 +17507,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ79">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -18743,7 +18743,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ85">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR85">
         <v>1.13</v>
@@ -19564,7 +19564,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ89">
         <v>1.27</v>
@@ -23481,7 +23481,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ108">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR108">
         <v>1.71</v>
@@ -25950,7 +25950,7 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26362,7 +26362,7 @@
         <v>1.4</v>
       </c>
       <c r="AP122">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ122">
         <v>1.2</v>
@@ -27395,7 +27395,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ127">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR127">
         <v>1.55</v>
@@ -31309,7 +31309,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ146">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR146">
         <v>1.44</v>
@@ -31718,7 +31718,7 @@
         <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ148">
         <v>0.8</v>
@@ -32542,7 +32542,7 @@
         <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ152">
         <v>1.4</v>
@@ -36047,7 +36047,7 @@
         <v>2.78</v>
       </c>
       <c r="AQ169">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR169">
         <v>1.82</v>
@@ -39340,7 +39340,7 @@
         <v>1.56</v>
       </c>
       <c r="AP185">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ185">
         <v>1.82</v>
@@ -39549,7 +39549,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ186">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR186">
         <v>1.24</v>
@@ -44363,6 +44363,212 @@
       </c>
       <c r="BP209">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7331133</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45466.29166666666</v>
+      </c>
+      <c r="F210">
+        <v>21</v>
+      </c>
+      <c r="G210" t="s">
+        <v>78</v>
+      </c>
+      <c r="H210" t="s">
+        <v>70</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" t="s">
+        <v>112</v>
+      </c>
+      <c r="P210" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q210">
+        <v>3.2</v>
+      </c>
+      <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>3.75</v>
+      </c>
+      <c r="T210">
+        <v>1.5</v>
+      </c>
+      <c r="U210">
+        <v>2.5</v>
+      </c>
+      <c r="V210">
+        <v>3.4</v>
+      </c>
+      <c r="W210">
+        <v>1.3</v>
+      </c>
+      <c r="X210">
+        <v>10</v>
+      </c>
+      <c r="Y210">
+        <v>1.06</v>
+      </c>
+      <c r="Z210">
+        <v>2.38</v>
+      </c>
+      <c r="AA210">
+        <v>3</v>
+      </c>
+      <c r="AB210">
+        <v>2.9</v>
+      </c>
+      <c r="AC210">
+        <v>1.08</v>
+      </c>
+      <c r="AD210">
+        <v>7</v>
+      </c>
+      <c r="AE210">
+        <v>1.42</v>
+      </c>
+      <c r="AF210">
+        <v>2.75</v>
+      </c>
+      <c r="AG210">
+        <v>2.25</v>
+      </c>
+      <c r="AH210">
+        <v>1.57</v>
+      </c>
+      <c r="AI210">
+        <v>1.91</v>
+      </c>
+      <c r="AJ210">
+        <v>1.8</v>
+      </c>
+      <c r="AK210">
+        <v>1.38</v>
+      </c>
+      <c r="AL210">
+        <v>1.28</v>
+      </c>
+      <c r="AM210">
+        <v>1.52</v>
+      </c>
+      <c r="AN210">
+        <v>0.7</v>
+      </c>
+      <c r="AO210">
+        <v>0.89</v>
+      </c>
+      <c r="AP210">
+        <v>0.91</v>
+      </c>
+      <c r="AQ210">
+        <v>0.8</v>
+      </c>
+      <c r="AR210">
+        <v>1.48</v>
+      </c>
+      <c r="AS210">
+        <v>1.45</v>
+      </c>
+      <c r="AT210">
+        <v>2.93</v>
+      </c>
+      <c r="AU210">
+        <v>6</v>
+      </c>
+      <c r="AV210">
+        <v>5</v>
+      </c>
+      <c r="AW210">
+        <v>7</v>
+      </c>
+      <c r="AX210">
+        <v>5</v>
+      </c>
+      <c r="AY210">
+        <v>13</v>
+      </c>
+      <c r="AZ210">
+        <v>10</v>
+      </c>
+      <c r="BA210">
+        <v>6</v>
+      </c>
+      <c r="BB210">
+        <v>1</v>
+      </c>
+      <c r="BC210">
+        <v>7</v>
+      </c>
+      <c r="BD210">
+        <v>1.69</v>
+      </c>
+      <c r="BE210">
+        <v>6.3</v>
+      </c>
+      <c r="BF210">
+        <v>2.72</v>
+      </c>
+      <c r="BG210">
+        <v>1.31</v>
+      </c>
+      <c r="BH210">
+        <v>3.15</v>
+      </c>
+      <c r="BI210">
+        <v>1.59</v>
+      </c>
+      <c r="BJ210">
+        <v>2.16</v>
+      </c>
+      <c r="BK210">
+        <v>2</v>
+      </c>
+      <c r="BL210">
+        <v>1.8</v>
+      </c>
+      <c r="BM210">
+        <v>2.67</v>
+      </c>
+      <c r="BN210">
+        <v>1.39</v>
+      </c>
+      <c r="BO210">
+        <v>3.3</v>
+      </c>
+      <c r="BP210">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="311">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -673,6 +673,9 @@
     <t>['13', '42', '50']</t>
   </si>
   <si>
+    <t>['49', '57', '84']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1305,7 +1308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,7 +1648,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ2">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1770,7 +1773,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2388,7 +2391,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2800,7 +2803,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3212,7 +3215,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3624,7 +3627,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3702,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ12">
         <v>1.82</v>
@@ -3830,7 +3833,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -5478,7 +5481,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5684,7 +5687,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5890,7 +5893,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -7126,7 +7129,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7204,7 +7207,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7332,7 +7335,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7538,7 +7541,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7744,7 +7747,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8362,7 +8365,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8568,7 +8571,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -9186,7 +9189,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9392,7 +9395,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9473,7 +9476,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ40">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR40">
         <v>1.85</v>
@@ -9598,7 +9601,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -10503,7 +10506,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ45">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR45">
         <v>1.39</v>
@@ -10834,7 +10837,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11452,7 +11455,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11658,7 +11661,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11864,7 +11867,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12070,7 +12073,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12148,7 +12151,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ53">
         <v>1.64</v>
@@ -12688,7 +12691,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13512,7 +13515,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13718,7 +13721,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13924,7 +13927,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14417,7 +14420,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14954,7 +14957,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15778,7 +15781,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16062,7 +16065,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16190,7 +16193,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16396,7 +16399,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16602,7 +16605,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -17014,7 +17017,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17632,7 +17635,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -18044,7 +18047,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18868,7 +18871,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18949,7 +18952,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ86">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR86">
         <v>1.52</v>
@@ -19692,7 +19695,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19898,7 +19901,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20104,7 +20107,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20388,7 +20391,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20722,7 +20725,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20928,7 +20931,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21134,7 +21137,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21958,7 +21961,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22576,7 +22579,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22782,7 +22785,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23194,7 +23197,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23400,7 +23403,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23684,7 +23687,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ109">
         <v>1.82</v>
@@ -23812,7 +23815,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23893,7 +23896,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ110">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR110">
         <v>1.56</v>
@@ -24224,7 +24227,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24430,7 +24433,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24636,7 +24639,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25048,7 +25051,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25460,7 +25463,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25747,7 +25750,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ119">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR119">
         <v>1.06</v>
@@ -26490,7 +26493,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26696,7 +26699,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26902,7 +26905,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -26980,7 +26983,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ125">
         <v>1.27</v>
@@ -27108,7 +27111,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27520,7 +27523,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27932,7 +27935,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28756,7 +28759,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28962,7 +28965,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29580,7 +29583,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29786,7 +29789,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30073,7 +30076,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ140">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR140">
         <v>1.31</v>
@@ -30404,7 +30407,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30816,7 +30819,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31228,7 +31231,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31924,7 +31927,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ149">
         <v>1.64</v>
@@ -32052,7 +32055,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32258,7 +32261,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32464,7 +32467,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32876,7 +32879,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33288,7 +33291,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33494,7 +33497,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33575,7 +33578,7 @@
         <v>0.27</v>
       </c>
       <c r="AQ157">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR157">
         <v>1.13</v>
@@ -33700,7 +33703,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34112,7 +34115,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34318,7 +34321,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34730,7 +34733,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35014,7 +35017,7 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ164">
         <v>1.27</v>
@@ -35142,7 +35145,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35348,7 +35351,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35760,7 +35763,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35966,7 +35969,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36172,7 +36175,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36584,7 +36587,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36790,7 +36793,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36996,7 +36999,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37408,7 +37411,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -38026,7 +38029,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38438,7 +38441,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38644,7 +38647,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38850,7 +38853,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39262,7 +39265,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39674,7 +39677,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39880,7 +39883,7 @@
         <v>115</v>
       </c>
       <c r="P188" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q188">
         <v>3.3</v>
@@ -40292,7 +40295,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40498,7 +40501,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -40910,7 +40913,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41322,7 +41325,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41734,7 +41737,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -41940,7 +41943,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42558,7 +42561,7 @@
         <v>108</v>
       </c>
       <c r="P201" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42970,7 +42973,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43176,7 +43179,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43588,7 +43591,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -43669,7 +43672,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ206">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR206">
         <v>1.59</v>
@@ -43872,7 +43875,7 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ207">
         <v>0.9</v>
@@ -44569,6 +44572,212 @@
       </c>
       <c r="BP210">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7331112</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45469.29166666666</v>
+      </c>
+      <c r="F211">
+        <v>19</v>
+      </c>
+      <c r="G211" t="s">
+        <v>80</v>
+      </c>
+      <c r="H211" t="s">
+        <v>83</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="O211" t="s">
+        <v>219</v>
+      </c>
+      <c r="P211" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q211">
+        <v>2.87</v>
+      </c>
+      <c r="R211">
+        <v>2.27</v>
+      </c>
+      <c r="S211">
+        <v>3.61</v>
+      </c>
+      <c r="T211">
+        <v>1.35</v>
+      </c>
+      <c r="U211">
+        <v>3.08</v>
+      </c>
+      <c r="V211">
+        <v>2.78</v>
+      </c>
+      <c r="W211">
+        <v>1.42</v>
+      </c>
+      <c r="X211">
+        <v>6</v>
+      </c>
+      <c r="Y211">
+        <v>1.09</v>
+      </c>
+      <c r="Z211">
+        <v>2</v>
+      </c>
+      <c r="AA211">
+        <v>3.4</v>
+      </c>
+      <c r="AB211">
+        <v>3.25</v>
+      </c>
+      <c r="AC211">
+        <v>1.02</v>
+      </c>
+      <c r="AD211">
+        <v>10</v>
+      </c>
+      <c r="AE211">
+        <v>1.29</v>
+      </c>
+      <c r="AF211">
+        <v>3.4</v>
+      </c>
+      <c r="AG211">
+        <v>1.8</v>
+      </c>
+      <c r="AH211">
+        <v>1.91</v>
+      </c>
+      <c r="AI211">
+        <v>1.67</v>
+      </c>
+      <c r="AJ211">
+        <v>2.1</v>
+      </c>
+      <c r="AK211">
+        <v>1.38</v>
+      </c>
+      <c r="AL211">
+        <v>1.33</v>
+      </c>
+      <c r="AM211">
+        <v>1.62</v>
+      </c>
+      <c r="AN211">
+        <v>2.1</v>
+      </c>
+      <c r="AO211">
+        <v>1.8</v>
+      </c>
+      <c r="AP211">
+        <v>2.18</v>
+      </c>
+      <c r="AQ211">
+        <v>1.64</v>
+      </c>
+      <c r="AR211">
+        <v>1.62</v>
+      </c>
+      <c r="AS211">
+        <v>1.55</v>
+      </c>
+      <c r="AT211">
+        <v>3.17</v>
+      </c>
+      <c r="AU211">
+        <v>4</v>
+      </c>
+      <c r="AV211">
+        <v>2</v>
+      </c>
+      <c r="AW211">
+        <v>6</v>
+      </c>
+      <c r="AX211">
+        <v>5</v>
+      </c>
+      <c r="AY211">
+        <v>10</v>
+      </c>
+      <c r="AZ211">
+        <v>7</v>
+      </c>
+      <c r="BA211">
+        <v>6</v>
+      </c>
+      <c r="BB211">
+        <v>3</v>
+      </c>
+      <c r="BC211">
+        <v>9</v>
+      </c>
+      <c r="BD211">
+        <v>1.66</v>
+      </c>
+      <c r="BE211">
+        <v>6.6</v>
+      </c>
+      <c r="BF211">
+        <v>2.75</v>
+      </c>
+      <c r="BG211">
+        <v>1.22</v>
+      </c>
+      <c r="BH211">
+        <v>3.8</v>
+      </c>
+      <c r="BI211">
+        <v>1.4</v>
+      </c>
+      <c r="BJ211">
+        <v>2.7</v>
+      </c>
+      <c r="BK211">
+        <v>1.67</v>
+      </c>
+      <c r="BL211">
+        <v>2.18</v>
+      </c>
+      <c r="BM211">
+        <v>2.07</v>
+      </c>
+      <c r="BN211">
+        <v>1.74</v>
+      </c>
+      <c r="BO211">
+        <v>2.6</v>
+      </c>
+      <c r="BP211">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="321">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -676,6 +676,18 @@
     <t>['49', '57', '84']</t>
   </si>
   <si>
+    <t>['28', '31', '69', '84']</t>
+  </si>
+  <si>
+    <t>['27', '29', '33']</t>
+  </si>
+  <si>
+    <t>['49', '52']</t>
+  </si>
+  <si>
+    <t>['20', '49', '79']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -947,6 +959,24 @@
   </si>
   <si>
     <t>['56', '59', '66']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['31', '62', '66', '90+2']</t>
+  </si>
+  <si>
+    <t>['12', '50']</t>
+  </si>
+  <si>
+    <t>['63', '85']</t>
+  </si>
+  <si>
+    <t>['29', '89']</t>
+  </si>
+  <si>
+    <t>['14', '69', '73']</t>
   </si>
 </sst>
 </file>
@@ -1308,7 +1338,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ2">
         <v>1.64</v>
@@ -1773,7 +1803,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1854,7 +1884,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ3">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2060,7 +2090,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ4">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2391,7 +2421,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2472,7 +2502,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2678,7 +2708,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2803,7 +2833,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2881,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -3087,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
         <v>0.6</v>
@@ -3215,7 +3245,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3293,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ10">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3499,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ11">
         <v>1.82</v>
@@ -3627,7 +3657,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3833,7 +3863,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3911,10 +3941,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -4120,7 +4150,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ14">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4323,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ15">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4529,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ16">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -4941,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ18">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5353,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ20">
         <v>0.6</v>
@@ -5481,7 +5511,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5562,7 +5592,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5687,7 +5717,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5765,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ22">
         <v>1.27</v>
@@ -5893,7 +5923,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -5974,7 +6004,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6180,7 +6210,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6383,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ25">
         <v>0.6</v>
@@ -6589,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ26">
         <v>0.8</v>
@@ -7004,7 +7034,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ28">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -7129,7 +7159,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7335,7 +7365,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7541,7 +7571,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7619,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ31">
         <v>1.27</v>
@@ -7747,7 +7777,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7828,7 +7858,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8031,7 +8061,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -8237,10 +8267,10 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ34">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -8365,7 +8395,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8443,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8571,7 +8601,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8652,7 +8682,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8855,7 +8885,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ37">
         <v>1.82</v>
@@ -9064,7 +9094,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ38">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9189,7 +9219,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9395,7 +9425,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9473,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ40">
         <v>1.64</v>
@@ -9601,7 +9631,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9682,7 +9712,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ41">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -10091,7 +10121,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ43">
         <v>0.6</v>
@@ -10712,7 +10742,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ46">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10837,7 +10867,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11121,10 +11151,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11327,7 +11357,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ49">
         <v>1.4</v>
@@ -11455,7 +11485,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11536,7 +11566,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ50">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11661,7 +11691,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11739,10 +11769,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ51">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -11867,7 +11897,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -11948,7 +11978,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ52">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -12073,7 +12103,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12154,7 +12184,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ53">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12360,7 +12390,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ54">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12563,7 +12593,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ55">
         <v>1.27</v>
@@ -12691,7 +12721,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12975,7 +13005,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57">
         <v>1.27</v>
@@ -13181,10 +13211,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13387,7 +13417,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ59">
         <v>1.5</v>
@@ -13515,7 +13545,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13721,7 +13751,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13799,10 +13829,10 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ61">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13927,7 +13957,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14008,7 +14038,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ62">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR62">
         <v>1.39</v>
@@ -14211,7 +14241,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ63">
         <v>0.6</v>
@@ -14417,7 +14447,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ64">
         <v>1.64</v>
@@ -14829,7 +14859,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ66">
         <v>0.6</v>
@@ -14957,7 +14987,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15241,10 +15271,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ68">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15447,7 +15477,7 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ69">
         <v>1.27</v>
@@ -15656,7 +15686,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ70">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15781,7 +15811,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15862,7 +15892,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ71">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR71">
         <v>1.06</v>
@@ -16068,7 +16098,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16193,7 +16223,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16399,7 +16429,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16480,7 +16510,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ74">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR74">
         <v>2.12</v>
@@ -16605,7 +16635,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16683,7 +16713,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ75">
         <v>1.5</v>
@@ -16892,7 +16922,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ76">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR76">
         <v>1.19</v>
@@ -17017,7 +17047,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17095,7 +17125,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ77">
         <v>1.5</v>
@@ -17301,10 +17331,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ78">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR78">
         <v>1.55</v>
@@ -17507,7 +17537,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ79">
         <v>0.8</v>
@@ -17635,7 +17665,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17713,10 +17743,10 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR80">
         <v>1.99</v>
@@ -17922,7 +17952,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ81">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR81">
         <v>2.09</v>
@@ -18047,7 +18077,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18125,10 +18155,10 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ82">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -18540,7 +18570,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ84">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18743,7 +18773,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ85">
         <v>0.8</v>
@@ -18871,7 +18901,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19567,7 +19597,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ89">
         <v>1.27</v>
@@ -19695,7 +19725,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19773,7 +19803,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ90">
         <v>1.27</v>
@@ -19901,7 +19931,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -19982,7 +20012,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ91">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20107,7 +20137,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20597,10 +20627,10 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20725,7 +20755,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20803,10 +20833,10 @@
         <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ95">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20931,7 +20961,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21009,7 +21039,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -21137,7 +21167,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21421,10 +21451,10 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ98">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21630,7 +21660,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ99">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21961,7 +21991,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22039,10 +22069,10 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ101">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR101">
         <v>1.63</v>
@@ -22579,7 +22609,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22657,7 +22687,7 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ104">
         <v>1.82</v>
@@ -22785,7 +22815,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23072,7 +23102,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ106">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR106">
         <v>1.44</v>
@@ -23197,7 +23227,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23403,7 +23433,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23690,7 +23720,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ109">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR109">
         <v>1.65</v>
@@ -23815,7 +23845,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23893,7 +23923,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ110">
         <v>1.64</v>
@@ -24102,7 +24132,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24227,7 +24257,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24305,7 +24335,7 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ112">
         <v>1.27</v>
@@ -24433,7 +24463,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24511,10 +24541,10 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ113">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24639,7 +24669,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24717,10 +24747,10 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ114">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -24926,7 +24956,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ115">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -25051,7 +25081,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25129,7 +25159,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ116">
         <v>1.5</v>
@@ -25463,7 +25493,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25541,10 +25571,10 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ118">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR118">
         <v>1.43</v>
@@ -25953,10 +25983,10 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26162,7 +26192,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ121">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26365,10 +26395,10 @@
         <v>1.4</v>
       </c>
       <c r="AP122">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ122">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26493,7 +26523,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26699,7 +26729,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26777,7 +26807,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ124">
         <v>0.6</v>
@@ -26905,7 +26935,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27111,7 +27141,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27189,10 +27219,10 @@
         <v>0.67</v>
       </c>
       <c r="AP126">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ126">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR126">
         <v>1.87</v>
@@ -27523,7 +27553,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27604,7 +27634,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ128">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27807,10 +27837,10 @@
         <v>1.83</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ129">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR129">
         <v>1.7</v>
@@ -27935,7 +27965,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28219,7 +28249,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ131">
         <v>1.27</v>
@@ -28428,7 +28458,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR132">
         <v>1.72</v>
@@ -28631,10 +28661,10 @@
         <v>2.33</v>
       </c>
       <c r="AP133">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ133">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28759,7 +28789,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28965,7 +28995,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29252,7 +29282,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ136">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR136">
         <v>1.07</v>
@@ -29455,7 +29485,7 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137">
         <v>1.4</v>
@@ -29583,7 +29613,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29661,10 +29691,10 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ138">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -29789,7 +29819,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -29867,7 +29897,7 @@
         <v>2.14</v>
       </c>
       <c r="AP139">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ139">
         <v>1.5</v>
@@ -30282,7 +30312,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ141">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR141">
         <v>2.28</v>
@@ -30407,7 +30437,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30485,7 +30515,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ142">
         <v>0.6</v>
@@ -30691,7 +30721,7 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ143">
         <v>0.6</v>
@@ -30819,7 +30849,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -30897,10 +30927,10 @@
         <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ144">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -31103,10 +31133,10 @@
         <v>1.43</v>
       </c>
       <c r="AP145">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ145">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR145">
         <v>1.62</v>
@@ -31231,7 +31261,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31721,10 +31751,10 @@
         <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ148">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR148">
         <v>1.56</v>
@@ -31930,7 +31960,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ149">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR149">
         <v>1.67</v>
@@ -32055,7 +32085,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32133,10 +32163,10 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ150">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -32261,7 +32291,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32467,7 +32497,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32545,7 +32575,7 @@
         <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ152">
         <v>1.4</v>
@@ -32879,7 +32909,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -32960,7 +32990,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ154">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR154">
         <v>2.17</v>
@@ -33163,7 +33193,7 @@
         <v>1.86</v>
       </c>
       <c r="AP155">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ155">
         <v>1.5</v>
@@ -33291,7 +33321,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33497,7 +33527,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33575,7 +33605,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ157">
         <v>1.64</v>
@@ -33703,7 +33733,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33784,7 +33814,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ158">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR158">
         <v>1.41</v>
@@ -33990,7 +34020,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ159">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR159">
         <v>1.54</v>
@@ -34115,7 +34145,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34196,7 +34226,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ160">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR160">
         <v>1.73</v>
@@ -34321,7 +34351,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34608,7 +34638,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ162">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR162">
         <v>1.3</v>
@@ -34733,7 +34763,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35145,7 +35175,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35226,7 +35256,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ165">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR165">
         <v>1.44</v>
@@ -35351,7 +35381,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35429,10 +35459,10 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
+        <v>1.64</v>
+      </c>
+      <c r="AQ166">
         <v>1.5</v>
-      </c>
-      <c r="AQ166">
-        <v>1.64</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35635,7 +35665,7 @@
         <v>0.57</v>
       </c>
       <c r="AP167">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ167">
         <v>0.6</v>
@@ -35763,7 +35793,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35841,7 +35871,7 @@
         <v>1.57</v>
       </c>
       <c r="AP168">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ168">
         <v>1.5</v>
@@ -35969,7 +35999,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36047,7 +36077,7 @@
         <v>1.14</v>
       </c>
       <c r="AP169">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ169">
         <v>0.8</v>
@@ -36175,7 +36205,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36253,10 +36283,10 @@
         <v>0.88</v>
       </c>
       <c r="AP170">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR170">
         <v>1.55</v>
@@ -36459,10 +36489,10 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ171">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR171">
         <v>1.43</v>
@@ -36587,7 +36617,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36668,7 +36698,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ172">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -36793,7 +36823,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36871,7 +36901,7 @@
         <v>1.5</v>
       </c>
       <c r="AP173">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ173">
         <v>1.5</v>
@@ -36999,7 +37029,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37080,7 +37110,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ174">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR174">
         <v>2.17</v>
@@ -37286,7 +37316,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ175">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -37411,7 +37441,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37489,7 +37519,7 @@
         <v>1.88</v>
       </c>
       <c r="AP176">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ176">
         <v>1.82</v>
@@ -38029,7 +38059,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38107,10 +38137,10 @@
         <v>2.25</v>
       </c>
       <c r="AP179">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ179">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR179">
         <v>1.55</v>
@@ -38313,10 +38343,10 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ180">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR180">
         <v>1.08</v>
@@ -38441,7 +38471,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38647,7 +38677,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38725,7 +38755,7 @@
         <v>1.63</v>
       </c>
       <c r="AP182">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ182">
         <v>1.4</v>
@@ -38853,7 +38883,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39137,10 +39167,10 @@
         <v>1.13</v>
       </c>
       <c r="AP184">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AQ184">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR184">
         <v>1.74</v>
@@ -39265,7 +39295,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39343,10 +39373,10 @@
         <v>1.56</v>
       </c>
       <c r="AP185">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ185">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR185">
         <v>1.47</v>
@@ -39677,7 +39707,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39883,7 +39913,7 @@
         <v>115</v>
       </c>
       <c r="P188" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q188">
         <v>3.3</v>
@@ -40295,7 +40325,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40501,7 +40531,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -40582,7 +40612,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ191">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR191">
         <v>1.35</v>
@@ -40788,7 +40818,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR192">
         <v>1.35</v>
@@ -40913,7 +40943,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -40991,10 +41021,10 @@
         <v>1.7</v>
       </c>
       <c r="AP193">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ193">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR193">
         <v>1.59</v>
@@ -41197,7 +41227,7 @@
         <v>1.4</v>
       </c>
       <c r="AP194">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ194">
         <v>1.27</v>
@@ -41325,7 +41355,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41403,10 +41433,10 @@
         <v>2.33</v>
       </c>
       <c r="AP195">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ195">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR195">
         <v>1.6</v>
@@ -41737,7 +41767,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -41815,10 +41845,10 @@
         <v>1.5</v>
       </c>
       <c r="AP197">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ197">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR197">
         <v>1.51</v>
@@ -41943,7 +41973,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42021,10 +42051,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP198">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ198">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42227,10 +42257,10 @@
         <v>1.67</v>
       </c>
       <c r="AP199">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ199">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR199">
         <v>1.05</v>
@@ -42561,7 +42591,7 @@
         <v>108</v>
       </c>
       <c r="P201" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42973,7 +43003,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43054,7 +43084,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ203">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR203">
         <v>1.31</v>
@@ -43179,7 +43209,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43591,7 +43621,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -43878,7 +43908,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ207">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR207">
         <v>1.68</v>
@@ -44287,7 +44317,7 @@
         <v>1.64</v>
       </c>
       <c r="AP209">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ209">
         <v>1.5</v>
@@ -44493,7 +44523,7 @@
         <v>0.89</v>
       </c>
       <c r="AP210">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AQ210">
         <v>0.8</v>
@@ -44778,6 +44808,1860 @@
       </c>
       <c r="BP211">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7331135</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45472.25</v>
+      </c>
+      <c r="F212">
+        <v>22</v>
+      </c>
+      <c r="G212" t="s">
+        <v>70</v>
+      </c>
+      <c r="H212" t="s">
+        <v>84</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>135</v>
+      </c>
+      <c r="P212" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q212">
+        <v>3.6</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>3.1</v>
+      </c>
+      <c r="T212">
+        <v>1.48</v>
+      </c>
+      <c r="U212">
+        <v>2.5</v>
+      </c>
+      <c r="V212">
+        <v>3.2</v>
+      </c>
+      <c r="W212">
+        <v>1.3</v>
+      </c>
+      <c r="X212">
+        <v>8</v>
+      </c>
+      <c r="Y212">
+        <v>1.05</v>
+      </c>
+      <c r="Z212">
+        <v>2.8</v>
+      </c>
+      <c r="AA212">
+        <v>3.3</v>
+      </c>
+      <c r="AB212">
+        <v>2.35</v>
+      </c>
+      <c r="AC212">
+        <v>1.07</v>
+      </c>
+      <c r="AD212">
+        <v>7</v>
+      </c>
+      <c r="AE212">
+        <v>1.38</v>
+      </c>
+      <c r="AF212">
+        <v>2.8</v>
+      </c>
+      <c r="AG212">
+        <v>2.23</v>
+      </c>
+      <c r="AH212">
+        <v>1.61</v>
+      </c>
+      <c r="AI212">
+        <v>1.91</v>
+      </c>
+      <c r="AJ212">
+        <v>1.8</v>
+      </c>
+      <c r="AK212">
+        <v>1.46</v>
+      </c>
+      <c r="AL212">
+        <v>1.28</v>
+      </c>
+      <c r="AM212">
+        <v>1.32</v>
+      </c>
+      <c r="AN212">
+        <v>1.18</v>
+      </c>
+      <c r="AO212">
+        <v>1.8</v>
+      </c>
+      <c r="AP212">
+        <v>1.17</v>
+      </c>
+      <c r="AQ212">
+        <v>1.73</v>
+      </c>
+      <c r="AR212">
+        <v>1.48</v>
+      </c>
+      <c r="AS212">
+        <v>1.44</v>
+      </c>
+      <c r="AT212">
+        <v>2.92</v>
+      </c>
+      <c r="AU212">
+        <v>2</v>
+      </c>
+      <c r="AV212">
+        <v>3</v>
+      </c>
+      <c r="AW212">
+        <v>4</v>
+      </c>
+      <c r="AX212">
+        <v>15</v>
+      </c>
+      <c r="AY212">
+        <v>6</v>
+      </c>
+      <c r="AZ212">
+        <v>18</v>
+      </c>
+      <c r="BA212">
+        <v>3</v>
+      </c>
+      <c r="BB212">
+        <v>6</v>
+      </c>
+      <c r="BC212">
+        <v>9</v>
+      </c>
+      <c r="BD212">
+        <v>2.1</v>
+      </c>
+      <c r="BE212">
+        <v>7.5</v>
+      </c>
+      <c r="BF212">
+        <v>1.95</v>
+      </c>
+      <c r="BG212">
+        <v>1.29</v>
+      </c>
+      <c r="BH212">
+        <v>3.3</v>
+      </c>
+      <c r="BI212">
+        <v>1.73</v>
+      </c>
+      <c r="BJ212">
+        <v>2</v>
+      </c>
+      <c r="BK212">
+        <v>2.04</v>
+      </c>
+      <c r="BL212">
+        <v>1.66</v>
+      </c>
+      <c r="BM212">
+        <v>2.71</v>
+      </c>
+      <c r="BN212">
+        <v>1.38</v>
+      </c>
+      <c r="BO212">
+        <v>3.4</v>
+      </c>
+      <c r="BP212">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7331136</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45472.25</v>
+      </c>
+      <c r="F213">
+        <v>22</v>
+      </c>
+      <c r="G213" t="s">
+        <v>76</v>
+      </c>
+      <c r="H213" t="s">
+        <v>73</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>4</v>
+      </c>
+      <c r="O213" t="s">
+        <v>220</v>
+      </c>
+      <c r="P213" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q213">
+        <v>2.6</v>
+      </c>
+      <c r="R213">
+        <v>2.2</v>
+      </c>
+      <c r="S213">
+        <v>3.8</v>
+      </c>
+      <c r="T213">
+        <v>1.32</v>
+      </c>
+      <c r="U213">
+        <v>2.95</v>
+      </c>
+      <c r="V213">
+        <v>2.6</v>
+      </c>
+      <c r="W213">
+        <v>1.4</v>
+      </c>
+      <c r="X213">
+        <v>5.8</v>
+      </c>
+      <c r="Y213">
+        <v>1.09</v>
+      </c>
+      <c r="Z213">
+        <v>2</v>
+      </c>
+      <c r="AA213">
+        <v>3.4</v>
+      </c>
+      <c r="AB213">
+        <v>3.4</v>
+      </c>
+      <c r="AC213">
+        <v>1.01</v>
+      </c>
+      <c r="AD213">
+        <v>10.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.22</v>
+      </c>
+      <c r="AF213">
+        <v>3.7</v>
+      </c>
+      <c r="AG213">
+        <v>1.88</v>
+      </c>
+      <c r="AH213">
+        <v>1.98</v>
+      </c>
+      <c r="AI213">
+        <v>1.72</v>
+      </c>
+      <c r="AJ213">
+        <v>2.05</v>
+      </c>
+      <c r="AK213">
+        <v>1.28</v>
+      </c>
+      <c r="AL213">
+        <v>1.25</v>
+      </c>
+      <c r="AM213">
+        <v>1.75</v>
+      </c>
+      <c r="AN213">
+        <v>0.64</v>
+      </c>
+      <c r="AO213">
+        <v>1.2</v>
+      </c>
+      <c r="AP213">
+        <v>0.83</v>
+      </c>
+      <c r="AQ213">
+        <v>1.09</v>
+      </c>
+      <c r="AR213">
+        <v>1.46</v>
+      </c>
+      <c r="AS213">
+        <v>1.34</v>
+      </c>
+      <c r="AT213">
+        <v>2.8</v>
+      </c>
+      <c r="AU213">
+        <v>5</v>
+      </c>
+      <c r="AV213">
+        <v>0</v>
+      </c>
+      <c r="AW213">
+        <v>11</v>
+      </c>
+      <c r="AX213">
+        <v>4</v>
+      </c>
+      <c r="AY213">
+        <v>16</v>
+      </c>
+      <c r="AZ213">
+        <v>4</v>
+      </c>
+      <c r="BA213">
+        <v>14</v>
+      </c>
+      <c r="BB213">
+        <v>2</v>
+      </c>
+      <c r="BC213">
+        <v>16</v>
+      </c>
+      <c r="BD213">
+        <v>1.37</v>
+      </c>
+      <c r="BE213">
+        <v>9.5</v>
+      </c>
+      <c r="BF213">
+        <v>3.82</v>
+      </c>
+      <c r="BG213">
+        <v>1.22</v>
+      </c>
+      <c r="BH213">
+        <v>3.8</v>
+      </c>
+      <c r="BI213">
+        <v>1.32</v>
+      </c>
+      <c r="BJ213">
+        <v>3.1</v>
+      </c>
+      <c r="BK213">
+        <v>1.82</v>
+      </c>
+      <c r="BL213">
+        <v>1.98</v>
+      </c>
+      <c r="BM213">
+        <v>2.01</v>
+      </c>
+      <c r="BN213">
+        <v>1.68</v>
+      </c>
+      <c r="BO213">
+        <v>2.64</v>
+      </c>
+      <c r="BP213">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7331134</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45472.25</v>
+      </c>
+      <c r="F214">
+        <v>22</v>
+      </c>
+      <c r="G214" t="s">
+        <v>83</v>
+      </c>
+      <c r="H214" t="s">
+        <v>71</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>4</v>
+      </c>
+      <c r="N214">
+        <v>4</v>
+      </c>
+      <c r="O214" t="s">
+        <v>92</v>
+      </c>
+      <c r="P214" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q214">
+        <v>4.04</v>
+      </c>
+      <c r="R214">
+        <v>1.93</v>
+      </c>
+      <c r="S214">
+        <v>2.3</v>
+      </c>
+      <c r="T214">
+        <v>1.32</v>
+      </c>
+      <c r="U214">
+        <v>2.4</v>
+      </c>
+      <c r="V214">
+        <v>2.52</v>
+      </c>
+      <c r="W214">
+        <v>1.28</v>
+      </c>
+      <c r="X214">
+        <v>5.8</v>
+      </c>
+      <c r="Y214">
+        <v>1.06</v>
+      </c>
+      <c r="Z214">
+        <v>3.4</v>
+      </c>
+      <c r="AA214">
+        <v>3.2</v>
+      </c>
+      <c r="AB214">
+        <v>2.05</v>
+      </c>
+      <c r="AC214">
+        <v>1.02</v>
+      </c>
+      <c r="AD214">
+        <v>8.6</v>
+      </c>
+      <c r="AE214">
+        <v>1.29</v>
+      </c>
+      <c r="AF214">
+        <v>3.14</v>
+      </c>
+      <c r="AG214">
+        <v>2.03</v>
+      </c>
+      <c r="AH214">
+        <v>1.83</v>
+      </c>
+      <c r="AI214">
+        <v>1.65</v>
+      </c>
+      <c r="AJ214">
+        <v>1.76</v>
+      </c>
+      <c r="AK214">
+        <v>1.56</v>
+      </c>
+      <c r="AL214">
+        <v>1.24</v>
+      </c>
+      <c r="AM214">
+        <v>1.22</v>
+      </c>
+      <c r="AN214">
+        <v>1.3</v>
+      </c>
+      <c r="AO214">
+        <v>1.82</v>
+      </c>
+      <c r="AP214">
+        <v>1.18</v>
+      </c>
+      <c r="AQ214">
+        <v>1.92</v>
+      </c>
+      <c r="AR214">
+        <v>1.54</v>
+      </c>
+      <c r="AS214">
+        <v>1.6</v>
+      </c>
+      <c r="AT214">
+        <v>3.14</v>
+      </c>
+      <c r="AU214">
+        <v>4</v>
+      </c>
+      <c r="AV214">
+        <v>8</v>
+      </c>
+      <c r="AW214">
+        <v>6</v>
+      </c>
+      <c r="AX214">
+        <v>6</v>
+      </c>
+      <c r="AY214">
+        <v>10</v>
+      </c>
+      <c r="AZ214">
+        <v>14</v>
+      </c>
+      <c r="BA214">
+        <v>5</v>
+      </c>
+      <c r="BB214">
+        <v>4</v>
+      </c>
+      <c r="BC214">
+        <v>9</v>
+      </c>
+      <c r="BD214">
+        <v>2.46</v>
+      </c>
+      <c r="BE214">
+        <v>6.4</v>
+      </c>
+      <c r="BF214">
+        <v>1.8</v>
+      </c>
+      <c r="BG214">
+        <v>1.29</v>
+      </c>
+      <c r="BH214">
+        <v>3.4</v>
+      </c>
+      <c r="BI214">
+        <v>1.48</v>
+      </c>
+      <c r="BJ214">
+        <v>2.5</v>
+      </c>
+      <c r="BK214">
+        <v>1.77</v>
+      </c>
+      <c r="BL214">
+        <v>2.03</v>
+      </c>
+      <c r="BM214">
+        <v>2.2</v>
+      </c>
+      <c r="BN214">
+        <v>1.64</v>
+      </c>
+      <c r="BO214">
+        <v>2.7</v>
+      </c>
+      <c r="BP214">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7331137</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45472.29166666666</v>
+      </c>
+      <c r="F215">
+        <v>22</v>
+      </c>
+      <c r="G215" t="s">
+        <v>87</v>
+      </c>
+      <c r="H215" t="s">
+        <v>85</v>
+      </c>
+      <c r="I215">
+        <v>3</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>4</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>5</v>
+      </c>
+      <c r="O215" t="s">
+        <v>221</v>
+      </c>
+      <c r="P215" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q215">
+        <v>2.35</v>
+      </c>
+      <c r="R215">
+        <v>2</v>
+      </c>
+      <c r="S215">
+        <v>5</v>
+      </c>
+      <c r="T215">
+        <v>1.42</v>
+      </c>
+      <c r="U215">
+        <v>2.55</v>
+      </c>
+      <c r="V215">
+        <v>3.1</v>
+      </c>
+      <c r="W215">
+        <v>1.3</v>
+      </c>
+      <c r="X215">
+        <v>7.2</v>
+      </c>
+      <c r="Y215">
+        <v>1.05</v>
+      </c>
+      <c r="Z215">
+        <v>1.7</v>
+      </c>
+      <c r="AA215">
+        <v>3.5</v>
+      </c>
+      <c r="AB215">
+        <v>4.75</v>
+      </c>
+      <c r="AC215">
+        <v>1.04</v>
+      </c>
+      <c r="AD215">
+        <v>7.8</v>
+      </c>
+      <c r="AE215">
+        <v>1.33</v>
+      </c>
+      <c r="AF215">
+        <v>3</v>
+      </c>
+      <c r="AG215">
+        <v>2.19</v>
+      </c>
+      <c r="AH215">
+        <v>1.63</v>
+      </c>
+      <c r="AI215">
+        <v>2.1</v>
+      </c>
+      <c r="AJ215">
+        <v>1.68</v>
+      </c>
+      <c r="AK215">
+        <v>1.06</v>
+      </c>
+      <c r="AL215">
+        <v>1.27</v>
+      </c>
+      <c r="AM215">
+        <v>2.1</v>
+      </c>
+      <c r="AN215">
+        <v>1.5</v>
+      </c>
+      <c r="AO215">
+        <v>0.8</v>
+      </c>
+      <c r="AP215">
+        <v>1.64</v>
+      </c>
+      <c r="AQ215">
+        <v>0.73</v>
+      </c>
+      <c r="AR215">
+        <v>1.58</v>
+      </c>
+      <c r="AS215">
+        <v>1.15</v>
+      </c>
+      <c r="AT215">
+        <v>2.73</v>
+      </c>
+      <c r="AU215">
+        <v>5</v>
+      </c>
+      <c r="AV215">
+        <v>5</v>
+      </c>
+      <c r="AW215">
+        <v>4</v>
+      </c>
+      <c r="AX215">
+        <v>9</v>
+      </c>
+      <c r="AY215">
+        <v>9</v>
+      </c>
+      <c r="AZ215">
+        <v>14</v>
+      </c>
+      <c r="BA215">
+        <v>5</v>
+      </c>
+      <c r="BB215">
+        <v>3</v>
+      </c>
+      <c r="BC215">
+        <v>8</v>
+      </c>
+      <c r="BD215">
+        <v>1.51</v>
+      </c>
+      <c r="BE215">
+        <v>8.5</v>
+      </c>
+      <c r="BF215">
+        <v>3.16</v>
+      </c>
+      <c r="BG215">
+        <v>1.3</v>
+      </c>
+      <c r="BH215">
+        <v>3.2</v>
+      </c>
+      <c r="BI215">
+        <v>1.59</v>
+      </c>
+      <c r="BJ215">
+        <v>2.16</v>
+      </c>
+      <c r="BK215">
+        <v>2.05</v>
+      </c>
+      <c r="BL215">
+        <v>1.7</v>
+      </c>
+      <c r="BM215">
+        <v>2.67</v>
+      </c>
+      <c r="BN215">
+        <v>1.39</v>
+      </c>
+      <c r="BO215">
+        <v>3.4</v>
+      </c>
+      <c r="BP215">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7331138</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45472.29166666666</v>
+      </c>
+      <c r="F216">
+        <v>22</v>
+      </c>
+      <c r="G216" t="s">
+        <v>77</v>
+      </c>
+      <c r="H216" t="s">
+        <v>72</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>193</v>
+      </c>
+      <c r="P216" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q216">
+        <v>3.6</v>
+      </c>
+      <c r="R216">
+        <v>1.95</v>
+      </c>
+      <c r="S216">
+        <v>3</v>
+      </c>
+      <c r="T216">
+        <v>1.42</v>
+      </c>
+      <c r="U216">
+        <v>2.55</v>
+      </c>
+      <c r="V216">
+        <v>3</v>
+      </c>
+      <c r="W216">
+        <v>1.32</v>
+      </c>
+      <c r="X216">
+        <v>7.2</v>
+      </c>
+      <c r="Y216">
+        <v>1.05</v>
+      </c>
+      <c r="Z216">
+        <v>3</v>
+      </c>
+      <c r="AA216">
+        <v>3.1</v>
+      </c>
+      <c r="AB216">
+        <v>2.3</v>
+      </c>
+      <c r="AC216">
+        <v>1.06</v>
+      </c>
+      <c r="AD216">
+        <v>7</v>
+      </c>
+      <c r="AE216">
+        <v>1.35</v>
+      </c>
+      <c r="AF216">
+        <v>2.9</v>
+      </c>
+      <c r="AG216">
+        <v>2.17</v>
+      </c>
+      <c r="AH216">
+        <v>1.64</v>
+      </c>
+      <c r="AI216">
+        <v>1.85</v>
+      </c>
+      <c r="AJ216">
+        <v>1.81</v>
+      </c>
+      <c r="AK216">
+        <v>1.47</v>
+      </c>
+      <c r="AL216">
+        <v>1.35</v>
+      </c>
+      <c r="AM216">
+        <v>1.27</v>
+      </c>
+      <c r="AN216">
+        <v>0.27</v>
+      </c>
+      <c r="AO216">
+        <v>0.9</v>
+      </c>
+      <c r="AP216">
+        <v>0.25</v>
+      </c>
+      <c r="AQ216">
+        <v>1.09</v>
+      </c>
+      <c r="AR216">
+        <v>1.06</v>
+      </c>
+      <c r="AS216">
+        <v>1.37</v>
+      </c>
+      <c r="AT216">
+        <v>2.43</v>
+      </c>
+      <c r="AU216">
+        <v>2</v>
+      </c>
+      <c r="AV216">
+        <v>6</v>
+      </c>
+      <c r="AW216">
+        <v>5</v>
+      </c>
+      <c r="AX216">
+        <v>8</v>
+      </c>
+      <c r="AY216">
+        <v>7</v>
+      </c>
+      <c r="AZ216">
+        <v>14</v>
+      </c>
+      <c r="BA216">
+        <v>5</v>
+      </c>
+      <c r="BB216">
+        <v>8</v>
+      </c>
+      <c r="BC216">
+        <v>13</v>
+      </c>
+      <c r="BD216">
+        <v>2.1</v>
+      </c>
+      <c r="BE216">
+        <v>8</v>
+      </c>
+      <c r="BF216">
+        <v>1.91</v>
+      </c>
+      <c r="BG216">
+        <v>1.29</v>
+      </c>
+      <c r="BH216">
+        <v>3.3</v>
+      </c>
+      <c r="BI216">
+        <v>1.46</v>
+      </c>
+      <c r="BJ216">
+        <v>2.45</v>
+      </c>
+      <c r="BK216">
+        <v>1.8</v>
+      </c>
+      <c r="BL216">
+        <v>2</v>
+      </c>
+      <c r="BM216">
+        <v>2.32</v>
+      </c>
+      <c r="BN216">
+        <v>1.51</v>
+      </c>
+      <c r="BO216">
+        <v>3.15</v>
+      </c>
+      <c r="BP216">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7331139</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45472.29166666666</v>
+      </c>
+      <c r="F217">
+        <v>22</v>
+      </c>
+      <c r="G217" t="s">
+        <v>78</v>
+      </c>
+      <c r="H217" t="s">
+        <v>80</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
+      <c r="O217" t="s">
+        <v>222</v>
+      </c>
+      <c r="P217" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q217">
+        <v>3.74</v>
+      </c>
+      <c r="R217">
+        <v>1.96</v>
+      </c>
+      <c r="S217">
+        <v>2.34</v>
+      </c>
+      <c r="T217">
+        <v>1.28</v>
+      </c>
+      <c r="U217">
+        <v>2.56</v>
+      </c>
+      <c r="V217">
+        <v>2.32</v>
+      </c>
+      <c r="W217">
+        <v>1.34</v>
+      </c>
+      <c r="X217">
+        <v>5.24</v>
+      </c>
+      <c r="Y217">
+        <v>1.06</v>
+      </c>
+      <c r="Z217">
+        <v>3.2</v>
+      </c>
+      <c r="AA217">
+        <v>3.3</v>
+      </c>
+      <c r="AB217">
+        <v>2.1</v>
+      </c>
+      <c r="AC217">
+        <v>1.02</v>
+      </c>
+      <c r="AD217">
+        <v>8</v>
+      </c>
+      <c r="AE217">
+        <v>1.22</v>
+      </c>
+      <c r="AF217">
+        <v>2.92</v>
+      </c>
+      <c r="AG217">
+        <v>1.93</v>
+      </c>
+      <c r="AH217">
+        <v>1.93</v>
+      </c>
+      <c r="AI217">
+        <v>1.59</v>
+      </c>
+      <c r="AJ217">
+        <v>1.83</v>
+      </c>
+      <c r="AK217">
+        <v>1.54</v>
+      </c>
+      <c r="AL217">
+        <v>1.23</v>
+      </c>
+      <c r="AM217">
+        <v>1.24</v>
+      </c>
+      <c r="AN217">
+        <v>0.91</v>
+      </c>
+      <c r="AO217">
+        <v>2.2</v>
+      </c>
+      <c r="AP217">
+        <v>0.92</v>
+      </c>
+      <c r="AQ217">
+        <v>2.09</v>
+      </c>
+      <c r="AR217">
+        <v>1.5</v>
+      </c>
+      <c r="AS217">
+        <v>1.77</v>
+      </c>
+      <c r="AT217">
+        <v>3.27</v>
+      </c>
+      <c r="AU217">
+        <v>4</v>
+      </c>
+      <c r="AV217">
+        <v>3</v>
+      </c>
+      <c r="AW217">
+        <v>11</v>
+      </c>
+      <c r="AX217">
+        <v>8</v>
+      </c>
+      <c r="AY217">
+        <v>15</v>
+      </c>
+      <c r="AZ217">
+        <v>11</v>
+      </c>
+      <c r="BA217">
+        <v>1</v>
+      </c>
+      <c r="BB217">
+        <v>2</v>
+      </c>
+      <c r="BC217">
+        <v>3</v>
+      </c>
+      <c r="BD217">
+        <v>2.06</v>
+      </c>
+      <c r="BE217">
+        <v>6.2</v>
+      </c>
+      <c r="BF217">
+        <v>2.12</v>
+      </c>
+      <c r="BG217">
+        <v>1.29</v>
+      </c>
+      <c r="BH217">
+        <v>3.3</v>
+      </c>
+      <c r="BI217">
+        <v>1.48</v>
+      </c>
+      <c r="BJ217">
+        <v>2.57</v>
+      </c>
+      <c r="BK217">
+        <v>1.81</v>
+      </c>
+      <c r="BL217">
+        <v>1.99</v>
+      </c>
+      <c r="BM217">
+        <v>2.26</v>
+      </c>
+      <c r="BN217">
+        <v>1.62</v>
+      </c>
+      <c r="BO217">
+        <v>2.8</v>
+      </c>
+      <c r="BP217">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7331140</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45472.29166666666</v>
+      </c>
+      <c r="F218">
+        <v>22</v>
+      </c>
+      <c r="G218" t="s">
+        <v>79</v>
+      </c>
+      <c r="H218" t="s">
+        <v>86</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218" t="s">
+        <v>92</v>
+      </c>
+      <c r="P218" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q218">
+        <v>3.93</v>
+      </c>
+      <c r="R218">
+        <v>2.24</v>
+      </c>
+      <c r="S218">
+        <v>2.91</v>
+      </c>
+      <c r="T218">
+        <v>1.35</v>
+      </c>
+      <c r="U218">
+        <v>2.8</v>
+      </c>
+      <c r="V218">
+        <v>2.75</v>
+      </c>
+      <c r="W218">
+        <v>1.37</v>
+      </c>
+      <c r="X218">
+        <v>6.5</v>
+      </c>
+      <c r="Y218">
+        <v>1.07</v>
+      </c>
+      <c r="Z218">
+        <v>3.1</v>
+      </c>
+      <c r="AA218">
+        <v>3.2</v>
+      </c>
+      <c r="AB218">
+        <v>2.25</v>
+      </c>
+      <c r="AC218">
+        <v>1.04</v>
+      </c>
+      <c r="AD218">
+        <v>7.8</v>
+      </c>
+      <c r="AE218">
+        <v>1.27</v>
+      </c>
+      <c r="AF218">
+        <v>3.4</v>
+      </c>
+      <c r="AG218">
+        <v>2.03</v>
+      </c>
+      <c r="AH218">
+        <v>1.83</v>
+      </c>
+      <c r="AI218">
+        <v>1.74</v>
+      </c>
+      <c r="AJ218">
+        <v>1.93</v>
+      </c>
+      <c r="AK218">
+        <v>1.45</v>
+      </c>
+      <c r="AL218">
+        <v>1.32</v>
+      </c>
+      <c r="AM218">
+        <v>1.32</v>
+      </c>
+      <c r="AN218">
+        <v>0.82</v>
+      </c>
+      <c r="AO218">
+        <v>1.64</v>
+      </c>
+      <c r="AP218">
+        <v>0.83</v>
+      </c>
+      <c r="AQ218">
+        <v>1.58</v>
+      </c>
+      <c r="AR218">
+        <v>1.35</v>
+      </c>
+      <c r="AS218">
+        <v>1.5</v>
+      </c>
+      <c r="AT218">
+        <v>2.85</v>
+      </c>
+      <c r="AU218">
+        <v>2</v>
+      </c>
+      <c r="AV218">
+        <v>0</v>
+      </c>
+      <c r="AW218">
+        <v>2</v>
+      </c>
+      <c r="AX218">
+        <v>7</v>
+      </c>
+      <c r="AY218">
+        <v>4</v>
+      </c>
+      <c r="AZ218">
+        <v>7</v>
+      </c>
+      <c r="BA218">
+        <v>7</v>
+      </c>
+      <c r="BB218">
+        <v>2</v>
+      </c>
+      <c r="BC218">
+        <v>9</v>
+      </c>
+      <c r="BD218">
+        <v>2.1</v>
+      </c>
+      <c r="BE218">
+        <v>8</v>
+      </c>
+      <c r="BF218">
+        <v>1.91</v>
+      </c>
+      <c r="BG218">
+        <v>1.22</v>
+      </c>
+      <c r="BH218">
+        <v>3.8</v>
+      </c>
+      <c r="BI218">
+        <v>1.38</v>
+      </c>
+      <c r="BJ218">
+        <v>2.71</v>
+      </c>
+      <c r="BK218">
+        <v>1.85</v>
+      </c>
+      <c r="BL218">
+        <v>1.95</v>
+      </c>
+      <c r="BM218">
+        <v>2.1</v>
+      </c>
+      <c r="BN218">
+        <v>1.62</v>
+      </c>
+      <c r="BO218">
+        <v>2.65</v>
+      </c>
+      <c r="BP218">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7331141</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45473.04444444444</v>
+      </c>
+      <c r="F219">
+        <v>22</v>
+      </c>
+      <c r="G219" t="s">
+        <v>89</v>
+      </c>
+      <c r="H219" t="s">
+        <v>88</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>3</v>
+      </c>
+      <c r="N219">
+        <v>3</v>
+      </c>
+      <c r="O219" t="s">
+        <v>92</v>
+      </c>
+      <c r="P219" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q219">
+        <v>3.1</v>
+      </c>
+      <c r="R219">
+        <v>1.95</v>
+      </c>
+      <c r="S219">
+        <v>3.5</v>
+      </c>
+      <c r="T219">
+        <v>1.5</v>
+      </c>
+      <c r="U219">
+        <v>2.4</v>
+      </c>
+      <c r="V219">
+        <v>3</v>
+      </c>
+      <c r="W219">
+        <v>1.36</v>
+      </c>
+      <c r="X219">
+        <v>7.5</v>
+      </c>
+      <c r="Y219">
+        <v>1.07</v>
+      </c>
+      <c r="Z219">
+        <v>2.45</v>
+      </c>
+      <c r="AA219">
+        <v>3.18</v>
+      </c>
+      <c r="AB219">
+        <v>2.92</v>
+      </c>
+      <c r="AC219">
+        <v>1.05</v>
+      </c>
+      <c r="AD219">
+        <v>7.3</v>
+      </c>
+      <c r="AE219">
+        <v>1.42</v>
+      </c>
+      <c r="AF219">
+        <v>2.75</v>
+      </c>
+      <c r="AG219">
+        <v>2.1</v>
+      </c>
+      <c r="AH219">
+        <v>1.6</v>
+      </c>
+      <c r="AI219">
+        <v>1.91</v>
+      </c>
+      <c r="AJ219">
+        <v>1.8</v>
+      </c>
+      <c r="AK219">
+        <v>1.38</v>
+      </c>
+      <c r="AL219">
+        <v>1.28</v>
+      </c>
+      <c r="AM219">
+        <v>1.53</v>
+      </c>
+      <c r="AN219">
+        <v>1.4</v>
+      </c>
+      <c r="AO219">
+        <v>1</v>
+      </c>
+      <c r="AP219">
+        <v>1.27</v>
+      </c>
+      <c r="AQ219">
+        <v>1.17</v>
+      </c>
+      <c r="AR219">
+        <v>1.5</v>
+      </c>
+      <c r="AS219">
+        <v>1.38</v>
+      </c>
+      <c r="AT219">
+        <v>2.88</v>
+      </c>
+      <c r="AU219">
+        <v>4</v>
+      </c>
+      <c r="AV219">
+        <v>6</v>
+      </c>
+      <c r="AW219">
+        <v>9</v>
+      </c>
+      <c r="AX219">
+        <v>3</v>
+      </c>
+      <c r="AY219">
+        <v>13</v>
+      </c>
+      <c r="AZ219">
+        <v>9</v>
+      </c>
+      <c r="BA219">
+        <v>6</v>
+      </c>
+      <c r="BB219">
+        <v>3</v>
+      </c>
+      <c r="BC219">
+        <v>9</v>
+      </c>
+      <c r="BD219">
+        <v>1.89</v>
+      </c>
+      <c r="BE219">
+        <v>6.55</v>
+      </c>
+      <c r="BF219">
+        <v>2.29</v>
+      </c>
+      <c r="BG219">
+        <v>1.17</v>
+      </c>
+      <c r="BH219">
+        <v>4.5</v>
+      </c>
+      <c r="BI219">
+        <v>1.3</v>
+      </c>
+      <c r="BJ219">
+        <v>3.2</v>
+      </c>
+      <c r="BK219">
+        <v>1.47</v>
+      </c>
+      <c r="BL219">
+        <v>2.42</v>
+      </c>
+      <c r="BM219">
+        <v>1.95</v>
+      </c>
+      <c r="BN219">
+        <v>1.85</v>
+      </c>
+      <c r="BO219">
+        <v>2.3</v>
+      </c>
+      <c r="BP219">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7331142</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45473.25</v>
+      </c>
+      <c r="F220">
+        <v>22</v>
+      </c>
+      <c r="G220" t="s">
+        <v>81</v>
+      </c>
+      <c r="H220" t="s">
+        <v>75</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220" t="s">
+        <v>223</v>
+      </c>
+      <c r="P220" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q220">
+        <v>2.5</v>
+      </c>
+      <c r="R220">
+        <v>2.05</v>
+      </c>
+      <c r="S220">
+        <v>4.2</v>
+      </c>
+      <c r="T220">
+        <v>1.4</v>
+      </c>
+      <c r="U220">
+        <v>2.75</v>
+      </c>
+      <c r="V220">
+        <v>2.75</v>
+      </c>
+      <c r="W220">
+        <v>1.4</v>
+      </c>
+      <c r="X220">
+        <v>7</v>
+      </c>
+      <c r="Y220">
+        <v>1.08</v>
+      </c>
+      <c r="Z220">
+        <v>1.9</v>
+      </c>
+      <c r="AA220">
+        <v>3.35</v>
+      </c>
+      <c r="AB220">
+        <v>3.85</v>
+      </c>
+      <c r="AC220">
+        <v>1.03</v>
+      </c>
+      <c r="AD220">
+        <v>8</v>
+      </c>
+      <c r="AE220">
+        <v>1.31</v>
+      </c>
+      <c r="AF220">
+        <v>3.04</v>
+      </c>
+      <c r="AG220">
+        <v>1.98</v>
+      </c>
+      <c r="AH220">
+        <v>1.73</v>
+      </c>
+      <c r="AI220">
+        <v>1.83</v>
+      </c>
+      <c r="AJ220">
+        <v>1.83</v>
+      </c>
+      <c r="AK220">
+        <v>1.25</v>
+      </c>
+      <c r="AL220">
+        <v>1.33</v>
+      </c>
+      <c r="AM220">
+        <v>1.75</v>
+      </c>
+      <c r="AN220">
+        <v>2.78</v>
+      </c>
+      <c r="AO220">
+        <v>1.64</v>
+      </c>
+      <c r="AP220">
+        <v>2.8</v>
+      </c>
+      <c r="AQ220">
+        <v>1.5</v>
+      </c>
+      <c r="AR220">
+        <v>1.78</v>
+      </c>
+      <c r="AS220">
+        <v>1.57</v>
+      </c>
+      <c r="AT220">
+        <v>3.35</v>
+      </c>
+      <c r="AU220">
+        <v>9</v>
+      </c>
+      <c r="AV220">
+        <v>6</v>
+      </c>
+      <c r="AW220">
+        <v>9</v>
+      </c>
+      <c r="AX220">
+        <v>4</v>
+      </c>
+      <c r="AY220">
+        <v>18</v>
+      </c>
+      <c r="AZ220">
+        <v>10</v>
+      </c>
+      <c r="BA220">
+        <v>4</v>
+      </c>
+      <c r="BB220">
+        <v>3</v>
+      </c>
+      <c r="BC220">
+        <v>7</v>
+      </c>
+      <c r="BD220">
+        <v>1.61</v>
+      </c>
+      <c r="BE220">
+        <v>6.8</v>
+      </c>
+      <c r="BF220">
+        <v>2.86</v>
+      </c>
+      <c r="BG220">
+        <v>1.2</v>
+      </c>
+      <c r="BH220">
+        <v>4</v>
+      </c>
+      <c r="BI220">
+        <v>1.33</v>
+      </c>
+      <c r="BJ220">
+        <v>3</v>
+      </c>
+      <c r="BK220">
+        <v>1.73</v>
+      </c>
+      <c r="BL220">
+        <v>2</v>
+      </c>
+      <c r="BM220">
+        <v>1.86</v>
+      </c>
+      <c r="BN220">
+        <v>1.8</v>
+      </c>
+      <c r="BO220">
+        <v>2.4</v>
+      </c>
+      <c r="BP220">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="322">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,9 @@
     <t>['20', '49', '79']</t>
   </si>
   <si>
+    <t>['37', '67']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1338,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1803,7 +1806,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2421,7 +2424,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2499,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.17</v>
@@ -2833,7 +2836,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3120,7 +3123,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3245,7 +3248,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3657,7 +3660,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3863,7 +3866,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4147,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.09</v>
@@ -5511,7 +5514,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5717,7 +5720,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5923,7 +5926,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6416,7 +6419,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ25">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -7159,7 +7162,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7365,7 +7368,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7571,7 +7574,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7777,7 +7780,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8395,7 +8398,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8601,7 +8604,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -9219,7 +9222,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9425,7 +9428,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9631,7 +9634,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -10124,7 +10127,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ43">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -10867,7 +10870,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10945,7 +10948,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -11485,7 +11488,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11691,7 +11694,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11897,7 +11900,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12103,7 +12106,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12721,7 +12724,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13545,7 +13548,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13751,7 +13754,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13957,7 +13960,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14862,7 +14865,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ66">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR66">
         <v>1.44</v>
@@ -14987,7 +14990,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15811,7 +15814,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16223,7 +16226,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16429,7 +16432,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16635,7 +16638,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -17047,7 +17050,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17665,7 +17668,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17949,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>0.73</v>
@@ -18077,7 +18080,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18364,7 +18367,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ83">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR83">
         <v>1.51</v>
@@ -18901,7 +18904,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19725,7 +19728,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19931,7 +19934,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20137,7 +20140,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20215,7 +20218,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>1.5</v>
@@ -20755,7 +20758,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20961,7 +20964,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21167,7 +21170,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21248,7 +21251,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ97">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21991,7 +21994,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22609,7 +22612,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22815,7 +22818,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23227,7 +23230,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23305,7 +23308,7 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>1.27</v>
@@ -23433,7 +23436,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23845,7 +23848,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24257,7 +24260,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24463,7 +24466,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24669,7 +24672,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25081,7 +25084,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25493,7 +25496,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26523,7 +26526,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26729,7 +26732,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26810,7 +26813,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ124">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -26935,7 +26938,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27141,7 +27144,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27553,7 +27556,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27965,7 +27968,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28789,7 +28792,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28995,7 +28998,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29613,7 +29616,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29819,7 +29822,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30309,7 +30312,7 @@
         <v>1.67</v>
       </c>
       <c r="AP141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
         <v>1.92</v>
@@ -30437,7 +30440,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30724,7 +30727,7 @@
         <v>2.8</v>
       </c>
       <c r="AQ143">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR143">
         <v>1.82</v>
@@ -30849,7 +30852,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31261,7 +31264,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -32085,7 +32088,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32291,7 +32294,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32497,7 +32500,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32909,7 +32912,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -32987,7 +32990,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
         <v>1.09</v>
@@ -33321,7 +33324,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33527,7 +33530,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33733,7 +33736,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34145,7 +34148,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34351,7 +34354,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34763,7 +34766,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34844,7 +34847,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ163">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -35175,7 +35178,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35381,7 +35384,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35793,7 +35796,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35999,7 +36002,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36205,7 +36208,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36617,7 +36620,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36823,7 +36826,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37029,7 +37032,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37107,7 +37110,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ174">
         <v>1.5</v>
@@ -37441,7 +37444,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -38059,7 +38062,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38471,7 +38474,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38677,7 +38680,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38883,7 +38886,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39295,7 +39298,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39707,7 +39710,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39913,7 +39916,7 @@
         <v>115</v>
       </c>
       <c r="P188" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q188">
         <v>3.3</v>
@@ -40325,7 +40328,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40406,7 +40409,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ190">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR190">
         <v>1.48</v>
@@ -40531,7 +40534,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -40943,7 +40946,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41355,7 +41358,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41767,7 +41770,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -41973,7 +41976,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42463,7 +42466,7 @@
         <v>1.67</v>
       </c>
       <c r="AP200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ200">
         <v>1.5</v>
@@ -42591,7 +42594,7 @@
         <v>108</v>
       </c>
       <c r="P201" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -43003,7 +43006,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43209,7 +43212,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43621,7 +43624,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -44857,7 +44860,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -45269,7 +45272,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45475,7 +45478,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45681,7 +45684,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -45887,7 +45890,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -46266,7 +46269,7 @@
         <v>69</v>
       </c>
       <c r="E219" s="2">
-        <v>45473.04444444444</v>
+        <v>45473.04166666666</v>
       </c>
       <c r="F219">
         <v>22</v>
@@ -46299,7 +46302,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46505,7 +46508,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46662,6 +46665,212 @@
       </c>
       <c r="BP220">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7331143</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45473.29166666666</v>
+      </c>
+      <c r="F221">
+        <v>22</v>
+      </c>
+      <c r="G221" t="s">
+        <v>74</v>
+      </c>
+      <c r="H221" t="s">
+        <v>82</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>3</v>
+      </c>
+      <c r="O221" t="s">
+        <v>224</v>
+      </c>
+      <c r="P221" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q221">
+        <v>1.95</v>
+      </c>
+      <c r="R221">
+        <v>2.3</v>
+      </c>
+      <c r="S221">
+        <v>5.5</v>
+      </c>
+      <c r="T221">
+        <v>1.33</v>
+      </c>
+      <c r="U221">
+        <v>3.25</v>
+      </c>
+      <c r="V221">
+        <v>2.5</v>
+      </c>
+      <c r="W221">
+        <v>1.5</v>
+      </c>
+      <c r="X221">
+        <v>6</v>
+      </c>
+      <c r="Y221">
+        <v>1.11</v>
+      </c>
+      <c r="Z221">
+        <v>1.52</v>
+      </c>
+      <c r="AA221">
+        <v>4.1</v>
+      </c>
+      <c r="AB221">
+        <v>5.25</v>
+      </c>
+      <c r="AC221">
+        <v>1.02</v>
+      </c>
+      <c r="AD221">
+        <v>10.5</v>
+      </c>
+      <c r="AE221">
+        <v>1.21</v>
+      </c>
+      <c r="AF221">
+        <v>3.74</v>
+      </c>
+      <c r="AG221">
+        <v>1.7</v>
+      </c>
+      <c r="AH221">
+        <v>2.02</v>
+      </c>
+      <c r="AI221">
+        <v>1.8</v>
+      </c>
+      <c r="AJ221">
+        <v>1.91</v>
+      </c>
+      <c r="AK221">
+        <v>1.12</v>
+      </c>
+      <c r="AL221">
+        <v>1.22</v>
+      </c>
+      <c r="AM221">
+        <v>2.38</v>
+      </c>
+      <c r="AN221">
+        <v>1.9</v>
+      </c>
+      <c r="AO221">
+        <v>0.6</v>
+      </c>
+      <c r="AP221">
+        <v>2</v>
+      </c>
+      <c r="AQ221">
+        <v>0.55</v>
+      </c>
+      <c r="AR221">
+        <v>2.08</v>
+      </c>
+      <c r="AS221">
+        <v>1.42</v>
+      </c>
+      <c r="AT221">
+        <v>3.5</v>
+      </c>
+      <c r="AU221">
+        <v>5</v>
+      </c>
+      <c r="AV221">
+        <v>5</v>
+      </c>
+      <c r="AW221">
+        <v>2</v>
+      </c>
+      <c r="AX221">
+        <v>2</v>
+      </c>
+      <c r="AY221">
+        <v>7</v>
+      </c>
+      <c r="AZ221">
+        <v>7</v>
+      </c>
+      <c r="BA221">
+        <v>3</v>
+      </c>
+      <c r="BB221">
+        <v>5</v>
+      </c>
+      <c r="BC221">
+        <v>8</v>
+      </c>
+      <c r="BD221">
+        <v>1.36</v>
+      </c>
+      <c r="BE221">
+        <v>7.6</v>
+      </c>
+      <c r="BF221">
+        <v>4</v>
+      </c>
+      <c r="BG221">
+        <v>1.2</v>
+      </c>
+      <c r="BH221">
+        <v>4</v>
+      </c>
+      <c r="BI221">
+        <v>1.29</v>
+      </c>
+      <c r="BJ221">
+        <v>3.3</v>
+      </c>
+      <c r="BK221">
+        <v>1.7</v>
+      </c>
+      <c r="BL221">
+        <v>2.05</v>
+      </c>
+      <c r="BM221">
+        <v>1.92</v>
+      </c>
+      <c r="BN221">
+        <v>1.75</v>
+      </c>
+      <c r="BO221">
+        <v>2.51</v>
+      </c>
+      <c r="BP221">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -691,6 +691,21 @@
     <t>['37', '67']</t>
   </si>
   <si>
+    <t>['36', '41', '48']</t>
+  </si>
+  <si>
+    <t>['7', '30']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['31', '72']</t>
+  </si>
+  <si>
+    <t>['16', '22']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -980,6 +995,12 @@
   </si>
   <si>
     <t>['14', '69', '73']</t>
+  </si>
+  <si>
+    <t>['57', '67', '90+8']</t>
+  </si>
+  <si>
+    <t>['36', '45+1', '57', '76']</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1806,7 +1827,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1884,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ3">
         <v>1.73</v>
@@ -2090,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>2.09</v>
@@ -2296,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ5">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2424,7 +2445,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2708,10 +2729,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2836,7 +2857,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3123,7 +3144,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3248,7 +3269,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3535,7 +3556,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ11">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3660,7 +3681,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3738,10 +3759,10 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3866,7 +3887,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4356,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ15">
         <v>1.09</v>
@@ -4771,7 +4792,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4974,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -5180,10 +5201,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ19">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5389,7 +5410,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ20">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5514,7 +5535,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5720,7 +5741,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5801,7 +5822,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ22">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5926,7 +5947,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6004,10 +6025,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ23">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6210,7 +6231,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -6416,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ25">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -6625,7 +6646,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6828,10 +6849,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -7034,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.73</v>
@@ -7162,7 +7183,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7240,7 +7261,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7368,7 +7389,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7446,10 +7467,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7574,7 +7595,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7655,7 +7676,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ31">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7780,7 +7801,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7858,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -8064,10 +8085,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -8398,7 +8419,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8479,7 +8500,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8604,7 +8625,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8682,7 +8703,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ36">
         <v>1.58</v>
@@ -8891,7 +8912,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ37">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -9222,7 +9243,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9303,7 +9324,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ39">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9428,7 +9449,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9634,7 +9655,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9712,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ41">
         <v>2.09</v>
@@ -9918,10 +9939,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR42">
         <v>2.12</v>
@@ -10127,7 +10148,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ43">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -10330,10 +10351,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10536,7 +10557,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ45">
         <v>1.64</v>
@@ -10742,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ46">
         <v>1.09</v>
@@ -10870,7 +10891,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11157,7 +11178,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ48">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11363,7 +11384,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR49">
         <v>1.94</v>
@@ -11488,7 +11509,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11566,7 +11587,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ50">
         <v>2.09</v>
@@ -11694,7 +11715,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11900,7 +11921,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12106,7 +12127,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12184,7 +12205,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ53">
         <v>1.58</v>
@@ -12390,7 +12411,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
         <v>1.09</v>
@@ -12596,10 +12617,10 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ55">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12724,7 +12745,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12802,10 +12823,10 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -13011,7 +13032,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ57">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -13214,7 +13235,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13423,7 +13444,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13548,7 +13569,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13629,7 +13650,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13754,7 +13775,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13960,7 +13981,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14038,7 +14059,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ62">
         <v>1.73</v>
@@ -14247,7 +14268,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ63">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR63">
         <v>1.03</v>
@@ -14656,7 +14677,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -14865,7 +14886,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ66">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.44</v>
@@ -14990,7 +15011,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15068,10 +15089,10 @@
         <v>1.67</v>
       </c>
       <c r="AP67">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ67">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15483,7 +15504,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ69">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15686,7 +15707,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ70">
         <v>1.09</v>
@@ -15814,7 +15835,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16098,7 +16119,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -16226,7 +16247,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16304,10 +16325,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ73">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16432,7 +16453,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16510,7 +16531,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1.92</v>
@@ -16638,7 +16659,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16716,10 +16737,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ75">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR75">
         <v>2.06</v>
@@ -17050,7 +17071,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17131,7 +17152,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -17334,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ78">
         <v>1.09</v>
@@ -17543,7 +17564,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ79">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17668,7 +17689,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17955,7 +17976,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>2.09</v>
@@ -18080,7 +18101,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18364,10 +18385,10 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ83">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>1.51</v>
@@ -18779,7 +18800,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ85">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR85">
         <v>1.13</v>
@@ -18904,7 +18925,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -18982,7 +19003,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ86">
         <v>1.64</v>
@@ -19188,7 +19209,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ87">
         <v>1.5</v>
@@ -19394,10 +19415,10 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19603,7 +19624,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ89">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
         <v>1.35</v>
@@ -19728,7 +19749,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19809,7 +19830,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ90">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR90">
         <v>1.34</v>
@@ -19934,7 +19955,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20012,7 +20033,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -20140,7 +20161,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20221,7 +20242,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR92">
         <v>2.25</v>
@@ -20424,10 +20445,10 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR93">
         <v>1.45</v>
@@ -20758,7 +20779,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20839,7 +20860,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ95">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -20964,7 +20985,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21042,7 +21063,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -21170,7 +21191,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21248,10 +21269,10 @@
         <v>0.4</v>
       </c>
       <c r="AP97">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ97">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21660,7 +21681,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ99">
         <v>1.09</v>
@@ -21866,10 +21887,10 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ100">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -21994,7 +22015,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22278,10 +22299,10 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR102">
         <v>1.81</v>
@@ -22484,10 +22505,10 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR103">
         <v>1.24</v>
@@ -22612,7 +22633,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22690,10 +22711,10 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ104">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -22818,7 +22839,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22896,10 +22917,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ105">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -23102,7 +23123,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ106">
         <v>1.09</v>
@@ -23230,7 +23251,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23311,7 +23332,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR107">
         <v>2.24</v>
@@ -23436,7 +23457,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23514,10 +23535,10 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ108">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR108">
         <v>1.71</v>
@@ -23720,7 +23741,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ109">
         <v>1.92</v>
@@ -23848,7 +23869,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24135,7 +24156,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ111">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24260,7 +24281,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24341,7 +24362,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ112">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24466,7 +24487,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24672,7 +24693,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24956,7 +24977,7 @@
         <v>2.33</v>
       </c>
       <c r="AP115">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ115">
         <v>1.58</v>
@@ -25084,7 +25105,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25165,7 +25186,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ116">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR116">
         <v>1.7</v>
@@ -25368,7 +25389,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25496,7 +25517,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26526,7 +26547,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26604,10 +26625,10 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26732,7 +26753,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26813,7 +26834,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ124">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -26938,7 +26959,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27016,10 +27037,10 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ125">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR125">
         <v>1.64</v>
@@ -27144,7 +27165,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27222,10 +27243,10 @@
         <v>0.67</v>
       </c>
       <c r="AP126">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ126">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR126">
         <v>1.87</v>
@@ -27428,10 +27449,10 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ127">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR127">
         <v>1.55</v>
@@ -27556,7 +27577,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27634,7 +27655,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ128">
         <v>1.5</v>
@@ -27968,7 +27989,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28046,10 +28067,10 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28252,10 +28273,10 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ131">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28458,7 +28479,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ132">
         <v>1.17</v>
@@ -28792,7 +28813,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28870,10 +28891,10 @@
         <v>1.33</v>
       </c>
       <c r="AP134">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -28998,7 +29019,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29079,7 +29100,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ135">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29491,7 +29512,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ137">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29616,7 +29637,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29822,7 +29843,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30106,7 +30127,7 @@
         <v>1.57</v>
       </c>
       <c r="AP140">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ140">
         <v>1.64</v>
@@ -30440,7 +30461,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30521,7 +30542,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ142">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR142">
         <v>1.64</v>
@@ -30724,10 +30745,10 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ143">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR143">
         <v>1.82</v>
@@ -30852,7 +30873,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -30930,7 +30951,7 @@
         <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ144">
         <v>1.73</v>
@@ -31264,7 +31285,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31342,10 +31363,10 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ146">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR146">
         <v>1.44</v>
@@ -31548,10 +31569,10 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31757,7 +31778,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ148">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR148">
         <v>1.56</v>
@@ -31960,7 +31981,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ149">
         <v>1.5</v>
@@ -32088,7 +32109,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32294,7 +32315,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32372,10 +32393,10 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ151">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32500,7 +32521,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32581,7 +32602,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ152">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -32784,7 +32805,7 @@
         <v>2.25</v>
       </c>
       <c r="AP153">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ153">
         <v>1.5</v>
@@ -32912,7 +32933,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33199,7 +33220,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ155">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR155">
         <v>1.5</v>
@@ -33324,7 +33345,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33402,10 +33423,10 @@
         <v>1.25</v>
       </c>
       <c r="AP156">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ156">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33530,7 +33551,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33736,7 +33757,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34020,7 +34041,7 @@
         <v>2.13</v>
       </c>
       <c r="AP159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ159">
         <v>1.58</v>
@@ -34148,7 +34169,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34226,7 +34247,7 @@
         <v>1.29</v>
       </c>
       <c r="AP160">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ160">
         <v>1.09</v>
@@ -34354,7 +34375,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34435,7 +34456,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ161">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR161">
         <v>1.13</v>
@@ -34638,10 +34659,10 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ162">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR162">
         <v>1.3</v>
@@ -34766,7 +34787,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34844,10 +34865,10 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -35050,10 +35071,10 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ164">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR164">
         <v>1.77</v>
@@ -35178,7 +35199,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35256,7 +35277,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ165">
         <v>1.92</v>
@@ -35384,7 +35405,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35671,7 +35692,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ167">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -35796,7 +35817,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35874,10 +35895,10 @@
         <v>1.57</v>
       </c>
       <c r="AP168">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ168">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR168">
         <v>1.62</v>
@@ -36002,7 +36023,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36080,10 +36101,10 @@
         <v>1.14</v>
       </c>
       <c r="AP169">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ169">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR169">
         <v>1.82</v>
@@ -36208,7 +36229,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36620,7 +36641,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36698,7 +36719,7 @@
         <v>1.89</v>
       </c>
       <c r="AP172">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ172">
         <v>1.58</v>
@@ -36826,7 +36847,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36907,7 +36928,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ173">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR173">
         <v>1.34</v>
@@ -37032,7 +37053,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37316,7 +37337,7 @@
         <v>1.13</v>
       </c>
       <c r="AP175">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ175">
         <v>1.09</v>
@@ -37444,7 +37465,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37522,10 +37543,10 @@
         <v>1.88</v>
       </c>
       <c r="AP176">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ176">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37731,7 +37752,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ177">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR177">
         <v>1.37</v>
@@ -37934,7 +37955,7 @@
         <v>2</v>
       </c>
       <c r="AP178">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ178">
         <v>1.5</v>
@@ -38062,7 +38083,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38474,7 +38495,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38555,7 +38576,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ181">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR181">
         <v>1.17</v>
@@ -38680,7 +38701,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38761,7 +38782,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ182">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR182">
         <v>1.43</v>
@@ -38886,7 +38907,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -38964,10 +38985,10 @@
         <v>2</v>
       </c>
       <c r="AP183">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ183">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39170,7 +39191,7 @@
         <v>1.13</v>
       </c>
       <c r="AP184">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ184">
         <v>1.09</v>
@@ -39298,7 +39319,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39582,10 +39603,10 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ186">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR186">
         <v>1.24</v>
@@ -39710,7 +39731,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39788,10 +39809,10 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ187">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR187">
         <v>1.61</v>
@@ -39916,7 +39937,7 @@
         <v>115</v>
       </c>
       <c r="P188" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q188">
         <v>3.3</v>
@@ -39997,7 +40018,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ188">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR188">
         <v>1.2</v>
@@ -40200,10 +40221,10 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ189">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR189">
         <v>1.54</v>
@@ -40328,7 +40349,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40406,10 +40427,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP190">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ190">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR190">
         <v>1.48</v>
@@ -40534,7 +40555,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -40612,7 +40633,7 @@
         <v>1.7</v>
       </c>
       <c r="AP191">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ191">
         <v>1.92</v>
@@ -40946,7 +40967,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41024,7 +41045,7 @@
         <v>1.7</v>
       </c>
       <c r="AP193">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ193">
         <v>1.58</v>
@@ -41233,7 +41254,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ194">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR194">
         <v>1.53</v>
@@ -41358,7 +41379,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41642,7 +41663,7 @@
         <v>1.8</v>
       </c>
       <c r="AP196">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ196">
         <v>1.5</v>
@@ -41770,7 +41791,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -41976,7 +41997,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42057,7 +42078,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ198">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42469,7 +42490,7 @@
         <v>2</v>
       </c>
       <c r="AQ200">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR200">
         <v>2.16</v>
@@ -42594,7 +42615,7 @@
         <v>108</v>
       </c>
       <c r="P201" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42672,10 +42693,10 @@
         <v>1.9</v>
       </c>
       <c r="AP201">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ201">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AR201">
         <v>1.6</v>
@@ -42878,10 +42899,10 @@
         <v>1.56</v>
       </c>
       <c r="AP202">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ202">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR202">
         <v>1.65</v>
@@ -43006,7 +43027,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43084,7 +43105,7 @@
         <v>1</v>
       </c>
       <c r="AP203">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ203">
         <v>1.09</v>
@@ -43212,7 +43233,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43293,7 +43314,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ204">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR204">
         <v>1.22</v>
@@ -43496,10 +43517,10 @@
         <v>0.67</v>
       </c>
       <c r="AP205">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ205">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AR205">
         <v>1.48</v>
@@ -43624,7 +43645,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -43702,7 +43723,7 @@
         <v>1.67</v>
       </c>
       <c r="AP206">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ206">
         <v>1.64</v>
@@ -43908,7 +43929,7 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ207">
         <v>1.09</v>
@@ -44117,7 +44138,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ208">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR208">
         <v>1.32</v>
@@ -44529,7 +44550,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ210">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -44732,7 +44753,7 @@
         <v>1.8</v>
       </c>
       <c r="AP211">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ211">
         <v>1.64</v>
@@ -44860,7 +44881,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -45272,7 +45293,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45350,7 +45371,7 @@
         <v>1.82</v>
       </c>
       <c r="AP214">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AQ214">
         <v>1.92</v>
@@ -45478,7 +45499,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45559,7 +45580,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ215">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR215">
         <v>1.58</v>
@@ -45684,7 +45705,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -45890,7 +45911,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -46302,7 +46323,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46508,7 +46529,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46586,7 +46607,7 @@
         <v>1.64</v>
       </c>
       <c r="AP220">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AQ220">
         <v>1.5</v>
@@ -46714,7 +46735,7 @@
         <v>224</v>
       </c>
       <c r="P221" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q221">
         <v>1.95</v>
@@ -46795,7 +46816,7 @@
         <v>2</v>
       </c>
       <c r="AQ221">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR221">
         <v>2.08</v>
@@ -46870,6 +46891,2066 @@
         <v>2.51</v>
       </c>
       <c r="BP221">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7331147</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45479.25</v>
+      </c>
+      <c r="F222">
+        <v>23</v>
+      </c>
+      <c r="G222" t="s">
+        <v>72</v>
+      </c>
+      <c r="H222" t="s">
+        <v>70</v>
+      </c>
+      <c r="I222">
+        <v>2</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>4</v>
+      </c>
+      <c r="O222" t="s">
+        <v>225</v>
+      </c>
+      <c r="P222" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q222">
+        <v>3.25</v>
+      </c>
+      <c r="R222">
+        <v>2.05</v>
+      </c>
+      <c r="S222">
+        <v>3.1</v>
+      </c>
+      <c r="T222">
+        <v>1.4</v>
+      </c>
+      <c r="U222">
+        <v>2.75</v>
+      </c>
+      <c r="V222">
+        <v>2.65</v>
+      </c>
+      <c r="W222">
+        <v>1.43</v>
+      </c>
+      <c r="X222">
+        <v>6.6</v>
+      </c>
+      <c r="Y222">
+        <v>1.07</v>
+      </c>
+      <c r="Z222">
+        <v>2.62</v>
+      </c>
+      <c r="AA222">
+        <v>3.25</v>
+      </c>
+      <c r="AB222">
+        <v>2.5</v>
+      </c>
+      <c r="AC222">
+        <v>1.02</v>
+      </c>
+      <c r="AD222">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE222">
+        <v>1.3</v>
+      </c>
+      <c r="AF222">
+        <v>3.3</v>
+      </c>
+      <c r="AG222">
+        <v>1.96</v>
+      </c>
+      <c r="AH222">
+        <v>1.88</v>
+      </c>
+      <c r="AI222">
+        <v>1.72</v>
+      </c>
+      <c r="AJ222">
+        <v>2.05</v>
+      </c>
+      <c r="AK222">
+        <v>1.5</v>
+      </c>
+      <c r="AL222">
+        <v>1.25</v>
+      </c>
+      <c r="AM222">
+        <v>1.44</v>
+      </c>
+      <c r="AN222">
+        <v>1.36</v>
+      </c>
+      <c r="AO222">
+        <v>0.8</v>
+      </c>
+      <c r="AP222">
+        <v>1.5</v>
+      </c>
+      <c r="AQ222">
+        <v>0.73</v>
+      </c>
+      <c r="AR222">
+        <v>1.33</v>
+      </c>
+      <c r="AS222">
+        <v>1.44</v>
+      </c>
+      <c r="AT222">
+        <v>2.77</v>
+      </c>
+      <c r="AU222">
+        <v>4</v>
+      </c>
+      <c r="AV222">
+        <v>7</v>
+      </c>
+      <c r="AW222">
+        <v>2</v>
+      </c>
+      <c r="AX222">
+        <v>3</v>
+      </c>
+      <c r="AY222">
+        <v>6</v>
+      </c>
+      <c r="AZ222">
+        <v>10</v>
+      </c>
+      <c r="BA222">
+        <v>5</v>
+      </c>
+      <c r="BB222">
+        <v>6</v>
+      </c>
+      <c r="BC222">
+        <v>11</v>
+      </c>
+      <c r="BD222">
+        <v>2.05</v>
+      </c>
+      <c r="BE222">
+        <v>7.5</v>
+      </c>
+      <c r="BF222">
+        <v>2.05</v>
+      </c>
+      <c r="BG222">
+        <v>1.38</v>
+      </c>
+      <c r="BH222">
+        <v>2.8</v>
+      </c>
+      <c r="BI222">
+        <v>1.63</v>
+      </c>
+      <c r="BJ222">
+        <v>2.09</v>
+      </c>
+      <c r="BK222">
+        <v>2.07</v>
+      </c>
+      <c r="BL222">
+        <v>1.64</v>
+      </c>
+      <c r="BM222">
+        <v>2.78</v>
+      </c>
+      <c r="BN222">
+        <v>1.36</v>
+      </c>
+      <c r="BO222">
+        <v>3.4</v>
+      </c>
+      <c r="BP222">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7331144</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45479.25</v>
+      </c>
+      <c r="F223">
+        <v>23</v>
+      </c>
+      <c r="G223" t="s">
+        <v>83</v>
+      </c>
+      <c r="H223" t="s">
+        <v>79</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>1</v>
+      </c>
+      <c r="O223" t="s">
+        <v>92</v>
+      </c>
+      <c r="P223" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q223">
+        <v>2.5</v>
+      </c>
+      <c r="R223">
+        <v>2.1</v>
+      </c>
+      <c r="S223">
+        <v>4.2</v>
+      </c>
+      <c r="T223">
+        <v>1.4</v>
+      </c>
+      <c r="U223">
+        <v>2.75</v>
+      </c>
+      <c r="V223">
+        <v>2.85</v>
+      </c>
+      <c r="W223">
+        <v>1.39</v>
+      </c>
+      <c r="X223">
+        <v>6.7</v>
+      </c>
+      <c r="Y223">
+        <v>1.07</v>
+      </c>
+      <c r="Z223">
+        <v>1.87</v>
+      </c>
+      <c r="AA223">
+        <v>3.5</v>
+      </c>
+      <c r="AB223">
+        <v>3.75</v>
+      </c>
+      <c r="AC223">
+        <v>1.02</v>
+      </c>
+      <c r="AD223">
+        <v>8.9</v>
+      </c>
+      <c r="AE223">
+        <v>1.3</v>
+      </c>
+      <c r="AF223">
+        <v>3.3</v>
+      </c>
+      <c r="AG223">
+        <v>2.03</v>
+      </c>
+      <c r="AH223">
+        <v>1.85</v>
+      </c>
+      <c r="AI223">
+        <v>1.8</v>
+      </c>
+      <c r="AJ223">
+        <v>1.95</v>
+      </c>
+      <c r="AK223">
+        <v>1.2</v>
+      </c>
+      <c r="AL223">
+        <v>1.22</v>
+      </c>
+      <c r="AM223">
+        <v>1.85</v>
+      </c>
+      <c r="AN223">
+        <v>1.18</v>
+      </c>
+      <c r="AO223">
+        <v>1.5</v>
+      </c>
+      <c r="AP223">
+        <v>1.08</v>
+      </c>
+      <c r="AQ223">
+        <v>1.64</v>
+      </c>
+      <c r="AR223">
+        <v>1.52</v>
+      </c>
+      <c r="AS223">
+        <v>1.34</v>
+      </c>
+      <c r="AT223">
+        <v>2.86</v>
+      </c>
+      <c r="AU223">
+        <v>7</v>
+      </c>
+      <c r="AV223">
+        <v>6</v>
+      </c>
+      <c r="AW223">
+        <v>7</v>
+      </c>
+      <c r="AX223">
+        <v>5</v>
+      </c>
+      <c r="AY223">
+        <v>14</v>
+      </c>
+      <c r="AZ223">
+        <v>11</v>
+      </c>
+      <c r="BA223">
+        <v>3</v>
+      </c>
+      <c r="BB223">
+        <v>2</v>
+      </c>
+      <c r="BC223">
+        <v>5</v>
+      </c>
+      <c r="BD223">
+        <v>1.69</v>
+      </c>
+      <c r="BE223">
+        <v>8</v>
+      </c>
+      <c r="BF223">
+        <v>2.54</v>
+      </c>
+      <c r="BG223">
+        <v>1.25</v>
+      </c>
+      <c r="BH223">
+        <v>3.6</v>
+      </c>
+      <c r="BI223">
+        <v>1.37</v>
+      </c>
+      <c r="BJ223">
+        <v>2.75</v>
+      </c>
+      <c r="BK223">
+        <v>1.65</v>
+      </c>
+      <c r="BL223">
+        <v>2.05</v>
+      </c>
+      <c r="BM223">
+        <v>2.09</v>
+      </c>
+      <c r="BN223">
+        <v>1.63</v>
+      </c>
+      <c r="BO223">
+        <v>2.8</v>
+      </c>
+      <c r="BP223">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7331145</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45479.25</v>
+      </c>
+      <c r="F224">
+        <v>23</v>
+      </c>
+      <c r="G224" t="s">
+        <v>71</v>
+      </c>
+      <c r="H224" t="s">
+        <v>89</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>139</v>
+      </c>
+      <c r="P224" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q224">
+        <v>2.34</v>
+      </c>
+      <c r="R224">
+        <v>2.01</v>
+      </c>
+      <c r="S224">
+        <v>5.55</v>
+      </c>
+      <c r="T224">
+        <v>1.48</v>
+      </c>
+      <c r="U224">
+        <v>2.54</v>
+      </c>
+      <c r="V224">
+        <v>3.26</v>
+      </c>
+      <c r="W224">
+        <v>1.31</v>
+      </c>
+      <c r="X224">
+        <v>8.5</v>
+      </c>
+      <c r="Y224">
+        <v>1.04</v>
+      </c>
+      <c r="Z224">
+        <v>1.73</v>
+      </c>
+      <c r="AA224">
+        <v>3.3</v>
+      </c>
+      <c r="AB224">
+        <v>4.75</v>
+      </c>
+      <c r="AC224">
+        <v>1.07</v>
+      </c>
+      <c r="AD224">
+        <v>7</v>
+      </c>
+      <c r="AE224">
+        <v>1.4</v>
+      </c>
+      <c r="AF224">
+        <v>2.7</v>
+      </c>
+      <c r="AG224">
+        <v>2.25</v>
+      </c>
+      <c r="AH224">
+        <v>1.57</v>
+      </c>
+      <c r="AI224">
+        <v>2.05</v>
+      </c>
+      <c r="AJ224">
+        <v>1.73</v>
+      </c>
+      <c r="AK224">
+        <v>1.15</v>
+      </c>
+      <c r="AL224">
+        <v>1.26</v>
+      </c>
+      <c r="AM224">
+        <v>1.98</v>
+      </c>
+      <c r="AN224">
+        <v>2.3</v>
+      </c>
+      <c r="AO224">
+        <v>1.27</v>
+      </c>
+      <c r="AP224">
+        <v>2.36</v>
+      </c>
+      <c r="AQ224">
+        <v>1.17</v>
+      </c>
+      <c r="AR224">
+        <v>1.71</v>
+      </c>
+      <c r="AS224">
+        <v>1.4</v>
+      </c>
+      <c r="AT224">
+        <v>3.11</v>
+      </c>
+      <c r="AU224">
+        <v>5</v>
+      </c>
+      <c r="AV224">
+        <v>0</v>
+      </c>
+      <c r="AW224">
+        <v>8</v>
+      </c>
+      <c r="AX224">
+        <v>3</v>
+      </c>
+      <c r="AY224">
+        <v>13</v>
+      </c>
+      <c r="AZ224">
+        <v>3</v>
+      </c>
+      <c r="BA224">
+        <v>1</v>
+      </c>
+      <c r="BB224">
+        <v>4</v>
+      </c>
+      <c r="BC224">
+        <v>5</v>
+      </c>
+      <c r="BD224">
+        <v>1.3</v>
+      </c>
+      <c r="BE224">
+        <v>10</v>
+      </c>
+      <c r="BF224">
+        <v>4.42</v>
+      </c>
+      <c r="BG224">
+        <v>1.22</v>
+      </c>
+      <c r="BH224">
+        <v>3.8</v>
+      </c>
+      <c r="BI224">
+        <v>1.33</v>
+      </c>
+      <c r="BJ224">
+        <v>3.05</v>
+      </c>
+      <c r="BK224">
+        <v>1.6</v>
+      </c>
+      <c r="BL224">
+        <v>2.14</v>
+      </c>
+      <c r="BM224">
+        <v>2</v>
+      </c>
+      <c r="BN224">
+        <v>1.69</v>
+      </c>
+      <c r="BO224">
+        <v>2.6</v>
+      </c>
+      <c r="BP224">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7331146</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45479.25</v>
+      </c>
+      <c r="F225">
+        <v>23</v>
+      </c>
+      <c r="G225" t="s">
+        <v>86</v>
+      </c>
+      <c r="H225" t="s">
+        <v>78</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225">
+        <v>4</v>
+      </c>
+      <c r="O225" t="s">
+        <v>96</v>
+      </c>
+      <c r="P225" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q225">
+        <v>2.9</v>
+      </c>
+      <c r="R225">
+        <v>2.05</v>
+      </c>
+      <c r="S225">
+        <v>3.5</v>
+      </c>
+      <c r="T225">
+        <v>1.41</v>
+      </c>
+      <c r="U225">
+        <v>2.7</v>
+      </c>
+      <c r="V225">
+        <v>2.85</v>
+      </c>
+      <c r="W225">
+        <v>1.39</v>
+      </c>
+      <c r="X225">
+        <v>7.1</v>
+      </c>
+      <c r="Y225">
+        <v>1.06</v>
+      </c>
+      <c r="Z225">
+        <v>2.25</v>
+      </c>
+      <c r="AA225">
+        <v>3.3</v>
+      </c>
+      <c r="AB225">
+        <v>2.9</v>
+      </c>
+      <c r="AC225">
+        <v>1.02</v>
+      </c>
+      <c r="AD225">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE225">
+        <v>1.3</v>
+      </c>
+      <c r="AF225">
+        <v>3.3</v>
+      </c>
+      <c r="AG225">
+        <v>2.03</v>
+      </c>
+      <c r="AH225">
+        <v>1.85</v>
+      </c>
+      <c r="AI225">
+        <v>1.75</v>
+      </c>
+      <c r="AJ225">
+        <v>2</v>
+      </c>
+      <c r="AK225">
+        <v>1.36</v>
+      </c>
+      <c r="AL225">
+        <v>1.25</v>
+      </c>
+      <c r="AM225">
+        <v>1.57</v>
+      </c>
+      <c r="AN225">
+        <v>0.6</v>
+      </c>
+      <c r="AO225">
+        <v>1.5</v>
+      </c>
+      <c r="AP225">
+        <v>0.55</v>
+      </c>
+      <c r="AQ225">
+        <v>1.64</v>
+      </c>
+      <c r="AR225">
+        <v>1.37</v>
+      </c>
+      <c r="AS225">
+        <v>1.28</v>
+      </c>
+      <c r="AT225">
+        <v>2.65</v>
+      </c>
+      <c r="AU225">
+        <v>5</v>
+      </c>
+      <c r="AV225">
+        <v>5</v>
+      </c>
+      <c r="AW225">
+        <v>9</v>
+      </c>
+      <c r="AX225">
+        <v>8</v>
+      </c>
+      <c r="AY225">
+        <v>14</v>
+      </c>
+      <c r="AZ225">
+        <v>13</v>
+      </c>
+      <c r="BA225">
+        <v>4</v>
+      </c>
+      <c r="BB225">
+        <v>1</v>
+      </c>
+      <c r="BC225">
+        <v>5</v>
+      </c>
+      <c r="BD225">
+        <v>1.75</v>
+      </c>
+      <c r="BE225">
+        <v>8</v>
+      </c>
+      <c r="BF225">
+        <v>2.44</v>
+      </c>
+      <c r="BG225">
+        <v>1.25</v>
+      </c>
+      <c r="BH225">
+        <v>3.6</v>
+      </c>
+      <c r="BI225">
+        <v>1.36</v>
+      </c>
+      <c r="BJ225">
+        <v>2.78</v>
+      </c>
+      <c r="BK225">
+        <v>1.65</v>
+      </c>
+      <c r="BL225">
+        <v>2.05</v>
+      </c>
+      <c r="BM225">
+        <v>2.07</v>
+      </c>
+      <c r="BN225">
+        <v>1.64</v>
+      </c>
+      <c r="BO225">
+        <v>2.8</v>
+      </c>
+      <c r="BP225">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7331148</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45479.27083333334</v>
+      </c>
+      <c r="F226">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>81</v>
+      </c>
+      <c r="H226" t="s">
+        <v>74</v>
+      </c>
+      <c r="I226">
+        <v>2</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>2</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>2</v>
+      </c>
+      <c r="O226" t="s">
+        <v>226</v>
+      </c>
+      <c r="P226" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q226">
+        <v>2.44</v>
+      </c>
+      <c r="R226">
+        <v>2.19</v>
+      </c>
+      <c r="S226">
+        <v>3.98</v>
+      </c>
+      <c r="T226">
+        <v>1.34</v>
+      </c>
+      <c r="U226">
+        <v>3.1</v>
+      </c>
+      <c r="V226">
+        <v>2.57</v>
+      </c>
+      <c r="W226">
+        <v>1.47</v>
+      </c>
+      <c r="X226">
+        <v>6</v>
+      </c>
+      <c r="Y226">
+        <v>1.09</v>
+      </c>
+      <c r="Z226">
+        <v>2.05</v>
+      </c>
+      <c r="AA226">
+        <v>3.2</v>
+      </c>
+      <c r="AB226">
+        <v>3.04</v>
+      </c>
+      <c r="AC226">
+        <v>1.01</v>
+      </c>
+      <c r="AD226">
+        <v>10.25</v>
+      </c>
+      <c r="AE226">
+        <v>1.22</v>
+      </c>
+      <c r="AF226">
+        <v>3.65</v>
+      </c>
+      <c r="AG226">
+        <v>1.75</v>
+      </c>
+      <c r="AH226">
+        <v>1.95</v>
+      </c>
+      <c r="AI226">
+        <v>1.67</v>
+      </c>
+      <c r="AJ226">
+        <v>2.1</v>
+      </c>
+      <c r="AK226">
+        <v>1.26</v>
+      </c>
+      <c r="AL226">
+        <v>1.25</v>
+      </c>
+      <c r="AM226">
+        <v>1.76</v>
+      </c>
+      <c r="AN226">
+        <v>2.8</v>
+      </c>
+      <c r="AO226">
+        <v>1.27</v>
+      </c>
+      <c r="AP226">
+        <v>2.82</v>
+      </c>
+      <c r="AQ226">
+        <v>1.17</v>
+      </c>
+      <c r="AR226">
+        <v>1.81</v>
+      </c>
+      <c r="AS226">
+        <v>1.52</v>
+      </c>
+      <c r="AT226">
+        <v>3.33</v>
+      </c>
+      <c r="AU226">
+        <v>3</v>
+      </c>
+      <c r="AV226">
+        <v>2</v>
+      </c>
+      <c r="AW226">
+        <v>5</v>
+      </c>
+      <c r="AX226">
+        <v>3</v>
+      </c>
+      <c r="AY226">
+        <v>8</v>
+      </c>
+      <c r="AZ226">
+        <v>5</v>
+      </c>
+      <c r="BA226">
+        <v>3</v>
+      </c>
+      <c r="BB226">
+        <v>9</v>
+      </c>
+      <c r="BC226">
+        <v>12</v>
+      </c>
+      <c r="BD226">
+        <v>1.82</v>
+      </c>
+      <c r="BE226">
+        <v>8</v>
+      </c>
+      <c r="BF226">
+        <v>2.33</v>
+      </c>
+      <c r="BG226">
+        <v>1.25</v>
+      </c>
+      <c r="BH226">
+        <v>3.6</v>
+      </c>
+      <c r="BI226">
+        <v>1.42</v>
+      </c>
+      <c r="BJ226">
+        <v>2.57</v>
+      </c>
+      <c r="BK226">
+        <v>1.9</v>
+      </c>
+      <c r="BL226">
+        <v>1.9</v>
+      </c>
+      <c r="BM226">
+        <v>2.19</v>
+      </c>
+      <c r="BN226">
+        <v>1.57</v>
+      </c>
+      <c r="BO226">
+        <v>2.95</v>
+      </c>
+      <c r="BP226">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7331149</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45479.29166666666</v>
+      </c>
+      <c r="F227">
+        <v>23</v>
+      </c>
+      <c r="G227" t="s">
+        <v>88</v>
+      </c>
+      <c r="H227" t="s">
+        <v>85</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227" t="s">
+        <v>227</v>
+      </c>
+      <c r="P227" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q227">
+        <v>2.31</v>
+      </c>
+      <c r="R227">
+        <v>2.09</v>
+      </c>
+      <c r="S227">
+        <v>5.16</v>
+      </c>
+      <c r="T227">
+        <v>1.42</v>
+      </c>
+      <c r="U227">
+        <v>2.73</v>
+      </c>
+      <c r="V227">
+        <v>2.97</v>
+      </c>
+      <c r="W227">
+        <v>1.36</v>
+      </c>
+      <c r="X227">
+        <v>7.3</v>
+      </c>
+      <c r="Y227">
+        <v>1.06</v>
+      </c>
+      <c r="Z227">
+        <v>1.73</v>
+      </c>
+      <c r="AA227">
+        <v>3.6</v>
+      </c>
+      <c r="AB227">
+        <v>4.4</v>
+      </c>
+      <c r="AC227">
+        <v>1.04</v>
+      </c>
+      <c r="AD227">
+        <v>8.5</v>
+      </c>
+      <c r="AE227">
+        <v>1.33</v>
+      </c>
+      <c r="AF227">
+        <v>3</v>
+      </c>
+      <c r="AG227">
+        <v>1.95</v>
+      </c>
+      <c r="AH227">
+        <v>1.75</v>
+      </c>
+      <c r="AI227">
+        <v>1.87</v>
+      </c>
+      <c r="AJ227">
+        <v>1.89</v>
+      </c>
+      <c r="AK227">
+        <v>1.17</v>
+      </c>
+      <c r="AL227">
+        <v>1.25</v>
+      </c>
+      <c r="AM227">
+        <v>1.97</v>
+      </c>
+      <c r="AN227">
+        <v>1.2</v>
+      </c>
+      <c r="AO227">
+        <v>0.73</v>
+      </c>
+      <c r="AP227">
+        <v>1.36</v>
+      </c>
+      <c r="AQ227">
+        <v>0.67</v>
+      </c>
+      <c r="AR227">
+        <v>1.58</v>
+      </c>
+      <c r="AS227">
+        <v>1.19</v>
+      </c>
+      <c r="AT227">
+        <v>2.77</v>
+      </c>
+      <c r="AU227">
+        <v>8</v>
+      </c>
+      <c r="AV227">
+        <v>0</v>
+      </c>
+      <c r="AW227">
+        <v>10</v>
+      </c>
+      <c r="AX227">
+        <v>3</v>
+      </c>
+      <c r="AY227">
+        <v>18</v>
+      </c>
+      <c r="AZ227">
+        <v>3</v>
+      </c>
+      <c r="BA227">
+        <v>4</v>
+      </c>
+      <c r="BB227">
+        <v>6</v>
+      </c>
+      <c r="BC227">
+        <v>10</v>
+      </c>
+      <c r="BD227">
+        <v>1.51</v>
+      </c>
+      <c r="BE227">
+        <v>8.5</v>
+      </c>
+      <c r="BF227">
+        <v>3.07</v>
+      </c>
+      <c r="BG227">
+        <v>1.22</v>
+      </c>
+      <c r="BH227">
+        <v>3.8</v>
+      </c>
+      <c r="BI227">
+        <v>1.37</v>
+      </c>
+      <c r="BJ227">
+        <v>2.85</v>
+      </c>
+      <c r="BK227">
+        <v>1.62</v>
+      </c>
+      <c r="BL227">
+        <v>2.1</v>
+      </c>
+      <c r="BM227">
+        <v>2.03</v>
+      </c>
+      <c r="BN227">
+        <v>1.67</v>
+      </c>
+      <c r="BO227">
+        <v>2.67</v>
+      </c>
+      <c r="BP227">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7331150</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45479.29166666666</v>
+      </c>
+      <c r="F228">
+        <v>23</v>
+      </c>
+      <c r="G228" t="s">
+        <v>75</v>
+      </c>
+      <c r="H228" t="s">
+        <v>87</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>2</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>228</v>
+      </c>
+      <c r="P228" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q228">
+        <v>2.69</v>
+      </c>
+      <c r="R228">
+        <v>2.05</v>
+      </c>
+      <c r="S228">
+        <v>3.88</v>
+      </c>
+      <c r="T228">
+        <v>1.42</v>
+      </c>
+      <c r="U228">
+        <v>2.73</v>
+      </c>
+      <c r="V228">
+        <v>2.97</v>
+      </c>
+      <c r="W228">
+        <v>1.36</v>
+      </c>
+      <c r="X228">
+        <v>7.3</v>
+      </c>
+      <c r="Y228">
+        <v>1.06</v>
+      </c>
+      <c r="Z228">
+        <v>2.1</v>
+      </c>
+      <c r="AA228">
+        <v>3.2</v>
+      </c>
+      <c r="AB228">
+        <v>3.3</v>
+      </c>
+      <c r="AC228">
+        <v>1.03</v>
+      </c>
+      <c r="AD228">
+        <v>8.4</v>
+      </c>
+      <c r="AE228">
+        <v>1.31</v>
+      </c>
+      <c r="AF228">
+        <v>3.04</v>
+      </c>
+      <c r="AG228">
+        <v>1.95</v>
+      </c>
+      <c r="AH228">
+        <v>1.75</v>
+      </c>
+      <c r="AI228">
+        <v>1.78</v>
+      </c>
+      <c r="AJ228">
+        <v>1.88</v>
+      </c>
+      <c r="AK228">
+        <v>1.29</v>
+      </c>
+      <c r="AL228">
+        <v>1.28</v>
+      </c>
+      <c r="AM228">
+        <v>1.64</v>
+      </c>
+      <c r="AN228">
+        <v>1.9</v>
+      </c>
+      <c r="AO228">
+        <v>1.82</v>
+      </c>
+      <c r="AP228">
+        <v>2</v>
+      </c>
+      <c r="AQ228">
+        <v>1.67</v>
+      </c>
+      <c r="AR228">
+        <v>1.52</v>
+      </c>
+      <c r="AS228">
+        <v>1.22</v>
+      </c>
+      <c r="AT228">
+        <v>2.74</v>
+      </c>
+      <c r="AU228">
+        <v>3</v>
+      </c>
+      <c r="AV228">
+        <v>0</v>
+      </c>
+      <c r="AW228">
+        <v>9</v>
+      </c>
+      <c r="AX228">
+        <v>7</v>
+      </c>
+      <c r="AY228">
+        <v>12</v>
+      </c>
+      <c r="AZ228">
+        <v>7</v>
+      </c>
+      <c r="BA228">
+        <v>6</v>
+      </c>
+      <c r="BB228">
+        <v>7</v>
+      </c>
+      <c r="BC228">
+        <v>13</v>
+      </c>
+      <c r="BD228">
+        <v>1.82</v>
+      </c>
+      <c r="BE228">
+        <v>8</v>
+      </c>
+      <c r="BF228">
+        <v>2.39</v>
+      </c>
+      <c r="BG228">
+        <v>1.33</v>
+      </c>
+      <c r="BH228">
+        <v>3</v>
+      </c>
+      <c r="BI228">
+        <v>1.51</v>
+      </c>
+      <c r="BJ228">
+        <v>2.32</v>
+      </c>
+      <c r="BK228">
+        <v>1.95</v>
+      </c>
+      <c r="BL228">
+        <v>1.85</v>
+      </c>
+      <c r="BM228">
+        <v>2.45</v>
+      </c>
+      <c r="BN228">
+        <v>1.46</v>
+      </c>
+      <c r="BO228">
+        <v>3.2</v>
+      </c>
+      <c r="BP228">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7331151</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45479.29166666666</v>
+      </c>
+      <c r="F229">
+        <v>23</v>
+      </c>
+      <c r="G229" t="s">
+        <v>84</v>
+      </c>
+      <c r="H229" t="s">
+        <v>82</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229" t="s">
+        <v>126</v>
+      </c>
+      <c r="P229" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q229">
+        <v>2.6</v>
+      </c>
+      <c r="R229">
+        <v>2.06</v>
+      </c>
+      <c r="S229">
+        <v>4.05</v>
+      </c>
+      <c r="T229">
+        <v>1.43</v>
+      </c>
+      <c r="U229">
+        <v>2.65</v>
+      </c>
+      <c r="V229">
+        <v>2.97</v>
+      </c>
+      <c r="W229">
+        <v>1.36</v>
+      </c>
+      <c r="X229">
+        <v>7.4</v>
+      </c>
+      <c r="Y229">
+        <v>1.06</v>
+      </c>
+      <c r="Z229">
+        <v>2.05</v>
+      </c>
+      <c r="AA229">
+        <v>3.25</v>
+      </c>
+      <c r="AB229">
+        <v>3.4</v>
+      </c>
+      <c r="AC229">
+        <v>1.03</v>
+      </c>
+      <c r="AD229">
+        <v>8.4</v>
+      </c>
+      <c r="AE229">
+        <v>1.33</v>
+      </c>
+      <c r="AF229">
+        <v>3.1</v>
+      </c>
+      <c r="AG229">
+        <v>2.08</v>
+      </c>
+      <c r="AH229">
+        <v>1.8</v>
+      </c>
+      <c r="AI229">
+        <v>1.83</v>
+      </c>
+      <c r="AJ229">
+        <v>1.83</v>
+      </c>
+      <c r="AK229">
+        <v>1.27</v>
+      </c>
+      <c r="AL229">
+        <v>1.28</v>
+      </c>
+      <c r="AM229">
+        <v>1.69</v>
+      </c>
+      <c r="AN229">
+        <v>1.45</v>
+      </c>
+      <c r="AO229">
+        <v>0.55</v>
+      </c>
+      <c r="AP229">
+        <v>1.58</v>
+      </c>
+      <c r="AQ229">
+        <v>0.5</v>
+      </c>
+      <c r="AR229">
+        <v>1.53</v>
+      </c>
+      <c r="AS229">
+        <v>1.4</v>
+      </c>
+      <c r="AT229">
+        <v>2.93</v>
+      </c>
+      <c r="AU229">
+        <v>4</v>
+      </c>
+      <c r="AV229">
+        <v>4</v>
+      </c>
+      <c r="AW229">
+        <v>10</v>
+      </c>
+      <c r="AX229">
+        <v>2</v>
+      </c>
+      <c r="AY229">
+        <v>14</v>
+      </c>
+      <c r="AZ229">
+        <v>6</v>
+      </c>
+      <c r="BA229">
+        <v>5</v>
+      </c>
+      <c r="BB229">
+        <v>1</v>
+      </c>
+      <c r="BC229">
+        <v>6</v>
+      </c>
+      <c r="BD229">
+        <v>1.82</v>
+      </c>
+      <c r="BE229">
+        <v>8</v>
+      </c>
+      <c r="BF229">
+        <v>2.33</v>
+      </c>
+      <c r="BG229">
+        <v>1.25</v>
+      </c>
+      <c r="BH229">
+        <v>3.6</v>
+      </c>
+      <c r="BI229">
+        <v>1.33</v>
+      </c>
+      <c r="BJ229">
+        <v>3.05</v>
+      </c>
+      <c r="BK229">
+        <v>1.62</v>
+      </c>
+      <c r="BL229">
+        <v>2.11</v>
+      </c>
+      <c r="BM229">
+        <v>2.02</v>
+      </c>
+      <c r="BN229">
+        <v>1.67</v>
+      </c>
+      <c r="BO229">
+        <v>2.64</v>
+      </c>
+      <c r="BP229">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7331152</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45479.29166666666</v>
+      </c>
+      <c r="F230">
+        <v>23</v>
+      </c>
+      <c r="G230" t="s">
+        <v>80</v>
+      </c>
+      <c r="H230" t="s">
+        <v>76</v>
+      </c>
+      <c r="I230">
+        <v>2</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>2</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>229</v>
+      </c>
+      <c r="P230" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q230">
+        <v>2.15</v>
+      </c>
+      <c r="R230">
+        <v>2.35</v>
+      </c>
+      <c r="S230">
+        <v>4.33</v>
+      </c>
+      <c r="T230">
+        <v>1.3</v>
+      </c>
+      <c r="U230">
+        <v>3.32</v>
+      </c>
+      <c r="V230">
+        <v>2.36</v>
+      </c>
+      <c r="W230">
+        <v>1.54</v>
+      </c>
+      <c r="X230">
+        <v>5.2</v>
+      </c>
+      <c r="Y230">
+        <v>1.13</v>
+      </c>
+      <c r="Z230">
+        <v>1.62</v>
+      </c>
+      <c r="AA230">
+        <v>4</v>
+      </c>
+      <c r="AB230">
+        <v>4.6</v>
+      </c>
+      <c r="AC230">
+        <v>1.01</v>
+      </c>
+      <c r="AD230">
+        <v>11</v>
+      </c>
+      <c r="AE230">
+        <v>1.18</v>
+      </c>
+      <c r="AF230">
+        <v>4.5</v>
+      </c>
+      <c r="AG230">
+        <v>1.6</v>
+      </c>
+      <c r="AH230">
+        <v>2.2</v>
+      </c>
+      <c r="AI230">
+        <v>1.62</v>
+      </c>
+      <c r="AJ230">
+        <v>2.2</v>
+      </c>
+      <c r="AK230">
+        <v>1.15</v>
+      </c>
+      <c r="AL230">
+        <v>1.18</v>
+      </c>
+      <c r="AM230">
+        <v>2.2</v>
+      </c>
+      <c r="AN230">
+        <v>2.18</v>
+      </c>
+      <c r="AO230">
+        <v>1.4</v>
+      </c>
+      <c r="AP230">
+        <v>2.25</v>
+      </c>
+      <c r="AQ230">
+        <v>1.27</v>
+      </c>
+      <c r="AR230">
+        <v>1.61</v>
+      </c>
+      <c r="AS230">
+        <v>1.5</v>
+      </c>
+      <c r="AT230">
+        <v>3.11</v>
+      </c>
+      <c r="AU230">
+        <v>3</v>
+      </c>
+      <c r="AV230">
+        <v>0</v>
+      </c>
+      <c r="AW230">
+        <v>5</v>
+      </c>
+      <c r="AX230">
+        <v>10</v>
+      </c>
+      <c r="AY230">
+        <v>8</v>
+      </c>
+      <c r="AZ230">
+        <v>10</v>
+      </c>
+      <c r="BA230">
+        <v>2</v>
+      </c>
+      <c r="BB230">
+        <v>8</v>
+      </c>
+      <c r="BC230">
+        <v>10</v>
+      </c>
+      <c r="BD230">
+        <v>1.95</v>
+      </c>
+      <c r="BE230">
+        <v>8</v>
+      </c>
+      <c r="BF230">
+        <v>2.1</v>
+      </c>
+      <c r="BG230">
+        <v>1.3</v>
+      </c>
+      <c r="BH230">
+        <v>3.2</v>
+      </c>
+      <c r="BI230">
+        <v>1.47</v>
+      </c>
+      <c r="BJ230">
+        <v>2.42</v>
+      </c>
+      <c r="BK230">
+        <v>1.98</v>
+      </c>
+      <c r="BL230">
+        <v>1.82</v>
+      </c>
+      <c r="BM230">
+        <v>2.32</v>
+      </c>
+      <c r="BN230">
+        <v>1.51</v>
+      </c>
+      <c r="BO230">
+        <v>3</v>
+      </c>
+      <c r="BP230">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7331153</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45480.29166666666</v>
+      </c>
+      <c r="F231">
+        <v>23</v>
+      </c>
+      <c r="G231" t="s">
+        <v>73</v>
+      </c>
+      <c r="H231" t="s">
+        <v>77</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>2</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>4</v>
+      </c>
+      <c r="N231">
+        <v>4</v>
+      </c>
+      <c r="O231" t="s">
+        <v>92</v>
+      </c>
+      <c r="P231" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q231">
+        <v>2.75</v>
+      </c>
+      <c r="R231">
+        <v>2.1</v>
+      </c>
+      <c r="S231">
+        <v>4.33</v>
+      </c>
+      <c r="T231">
+        <v>1.44</v>
+      </c>
+      <c r="U231">
+        <v>2.63</v>
+      </c>
+      <c r="V231">
+        <v>3.25</v>
+      </c>
+      <c r="W231">
+        <v>1.33</v>
+      </c>
+      <c r="X231">
+        <v>9</v>
+      </c>
+      <c r="Y231">
+        <v>1.07</v>
+      </c>
+      <c r="Z231">
+        <v>2</v>
+      </c>
+      <c r="AA231">
+        <v>3.2</v>
+      </c>
+      <c r="AB231">
+        <v>3.2</v>
+      </c>
+      <c r="AC231">
+        <v>1.02</v>
+      </c>
+      <c r="AD231">
+        <v>8.5</v>
+      </c>
+      <c r="AE231">
+        <v>1.33</v>
+      </c>
+      <c r="AF231">
+        <v>3.1</v>
+      </c>
+      <c r="AG231">
+        <v>2.04</v>
+      </c>
+      <c r="AH231">
+        <v>1.7</v>
+      </c>
+      <c r="AI231">
+        <v>1.83</v>
+      </c>
+      <c r="AJ231">
+        <v>1.83</v>
+      </c>
+      <c r="AK231">
+        <v>1.28</v>
+      </c>
+      <c r="AL231">
+        <v>1.25</v>
+      </c>
+      <c r="AM231">
+        <v>1.72</v>
+      </c>
+      <c r="AN231">
+        <v>1.73</v>
+      </c>
+      <c r="AO231">
+        <v>0.6</v>
+      </c>
+      <c r="AP231">
+        <v>1.58</v>
+      </c>
+      <c r="AQ231">
+        <v>0.82</v>
+      </c>
+      <c r="AR231">
+        <v>1.21</v>
+      </c>
+      <c r="AS231">
+        <v>1.06</v>
+      </c>
+      <c r="AT231">
+        <v>2.27</v>
+      </c>
+      <c r="AU231">
+        <v>0</v>
+      </c>
+      <c r="AV231">
+        <v>7</v>
+      </c>
+      <c r="AW231">
+        <v>0</v>
+      </c>
+      <c r="AX231">
+        <v>0</v>
+      </c>
+      <c r="AY231">
+        <v>0</v>
+      </c>
+      <c r="AZ231">
+        <v>7</v>
+      </c>
+      <c r="BA231">
+        <v>1</v>
+      </c>
+      <c r="BB231">
+        <v>9</v>
+      </c>
+      <c r="BC231">
+        <v>10</v>
+      </c>
+      <c r="BD231">
+        <v>1.82</v>
+      </c>
+      <c r="BE231">
+        <v>8</v>
+      </c>
+      <c r="BF231">
+        <v>2.33</v>
+      </c>
+      <c r="BG231">
+        <v>1.2</v>
+      </c>
+      <c r="BH231">
+        <v>4</v>
+      </c>
+      <c r="BI231">
+        <v>1.3</v>
+      </c>
+      <c r="BJ231">
+        <v>3.2</v>
+      </c>
+      <c r="BK231">
+        <v>1.55</v>
+      </c>
+      <c r="BL231">
+        <v>2.23</v>
+      </c>
+      <c r="BM231">
+        <v>1.92</v>
+      </c>
+      <c r="BN231">
+        <v>1.75</v>
+      </c>
+      <c r="BO231">
+        <v>2.5</v>
+      </c>
+      <c r="BP231">
         <v>1.44</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1362,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP231"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>2.09</v>
@@ -4380,7 +4380,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ15">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ17">
         <v>1.64</v>
@@ -5410,7 +5410,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ20">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>1.64</v>
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -8294,7 +8294,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ34">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -9321,7 +9321,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ39">
         <v>1.17</v>
@@ -10354,7 +10354,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ44">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -11999,7 +11999,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ52">
         <v>1.92</v>
@@ -12414,7 +12414,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12823,7 +12823,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56">
         <v>1.27</v>
@@ -14268,7 +14268,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ63">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
         <v>1.03</v>
@@ -16943,7 +16943,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ76">
         <v>1.58</v>
@@ -17770,7 +17770,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ80">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.99</v>
@@ -19415,7 +19415,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
         <v>1.67</v>
@@ -21890,7 +21890,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ100">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -22505,7 +22505,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
         <v>1.64</v>
@@ -22920,7 +22920,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ105">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -23126,7 +23126,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ106">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR106">
         <v>1.44</v>
@@ -24153,7 +24153,7 @@
         <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ111">
         <v>0.67</v>
@@ -26213,7 +26213,7 @@
         <v>1.6</v>
       </c>
       <c r="AP121">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ121">
         <v>1.73</v>
@@ -26422,7 +26422,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ122">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26625,10 +26625,10 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -29097,7 +29097,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ135">
         <v>1.67</v>
@@ -30542,7 +30542,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ142">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR142">
         <v>1.64</v>
@@ -31569,7 +31569,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
         <v>1.17</v>
@@ -32190,7 +32190,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ150">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -33014,7 +33014,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR154">
         <v>2.17</v>
@@ -33835,7 +33835,7 @@
         <v>2.14</v>
       </c>
       <c r="AP158">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ158">
         <v>2.09</v>
@@ -34865,7 +34865,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163">
         <v>0.5</v>
@@ -35692,7 +35692,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ167">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -36719,7 +36719,7 @@
         <v>1.89</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ172">
         <v>1.58</v>
@@ -37340,7 +37340,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ175">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -37749,7 +37749,7 @@
         <v>1.44</v>
       </c>
       <c r="AP177">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ177">
         <v>1.17</v>
@@ -40018,7 +40018,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ188">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR188">
         <v>1.2</v>
@@ -40633,7 +40633,7 @@
         <v>1.7</v>
       </c>
       <c r="AP191">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ191">
         <v>1.92</v>
@@ -40839,7 +40839,7 @@
         <v>1.1</v>
       </c>
       <c r="AP192">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ192">
         <v>1.17</v>
@@ -43108,7 +43108,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ203">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR203">
         <v>1.31</v>
@@ -43520,7 +43520,7 @@
         <v>2</v>
       </c>
       <c r="AQ205">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR205">
         <v>1.48</v>
@@ -44135,7 +44135,7 @@
         <v>1.67</v>
       </c>
       <c r="AP208">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ208">
         <v>1.64</v>
@@ -45168,7 +45168,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ213">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR213">
         <v>1.46</v>
@@ -47019,7 +47019,7 @@
         <v>0.8</v>
       </c>
       <c r="AP222">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ222">
         <v>0.73</v>
@@ -48876,7 +48876,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ231">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR231">
         <v>1.21</v>
@@ -48952,6 +48952,418 @@
       </c>
       <c r="BP231">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7331154</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45486.29166666666</v>
+      </c>
+      <c r="F232">
+        <v>24</v>
+      </c>
+      <c r="G232" t="s">
+        <v>72</v>
+      </c>
+      <c r="H232" t="s">
+        <v>73</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>1</v>
+      </c>
+      <c r="O232" t="s">
+        <v>92</v>
+      </c>
+      <c r="P232" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q232">
+        <v>2.75</v>
+      </c>
+      <c r="R232">
+        <v>2.38</v>
+      </c>
+      <c r="S232">
+        <v>3.69</v>
+      </c>
+      <c r="T232">
+        <v>1.33</v>
+      </c>
+      <c r="U232">
+        <v>3.25</v>
+      </c>
+      <c r="V232">
+        <v>2.56</v>
+      </c>
+      <c r="W232">
+        <v>1.51</v>
+      </c>
+      <c r="X232">
+        <v>6.5</v>
+      </c>
+      <c r="Y232">
+        <v>1.11</v>
+      </c>
+      <c r="Z232">
+        <v>2.15</v>
+      </c>
+      <c r="AA232">
+        <v>3.4</v>
+      </c>
+      <c r="AB232">
+        <v>3.1</v>
+      </c>
+      <c r="AC232">
+        <v>1.02</v>
+      </c>
+      <c r="AD232">
+        <v>10</v>
+      </c>
+      <c r="AE232">
+        <v>1.22</v>
+      </c>
+      <c r="AF232">
+        <v>4</v>
+      </c>
+      <c r="AG232">
+        <v>1.7</v>
+      </c>
+      <c r="AH232">
+        <v>2.08</v>
+      </c>
+      <c r="AI232">
+        <v>1.57</v>
+      </c>
+      <c r="AJ232">
+        <v>2.25</v>
+      </c>
+      <c r="AK232">
+        <v>1.36</v>
+      </c>
+      <c r="AL232">
+        <v>1.22</v>
+      </c>
+      <c r="AM232">
+        <v>1.65</v>
+      </c>
+      <c r="AN232">
+        <v>1.5</v>
+      </c>
+      <c r="AO232">
+        <v>1.09</v>
+      </c>
+      <c r="AP232">
+        <v>1.38</v>
+      </c>
+      <c r="AQ232">
+        <v>1.25</v>
+      </c>
+      <c r="AR232">
+        <v>1.3</v>
+      </c>
+      <c r="AS232">
+        <v>1.27</v>
+      </c>
+      <c r="AT232">
+        <v>2.57</v>
+      </c>
+      <c r="AU232">
+        <v>6</v>
+      </c>
+      <c r="AV232">
+        <v>4</v>
+      </c>
+      <c r="AW232">
+        <v>9</v>
+      </c>
+      <c r="AX232">
+        <v>6</v>
+      </c>
+      <c r="AY232">
+        <v>15</v>
+      </c>
+      <c r="AZ232">
+        <v>10</v>
+      </c>
+      <c r="BA232">
+        <v>7</v>
+      </c>
+      <c r="BB232">
+        <v>2</v>
+      </c>
+      <c r="BC232">
+        <v>9</v>
+      </c>
+      <c r="BD232">
+        <v>1.55</v>
+      </c>
+      <c r="BE232">
+        <v>8.5</v>
+      </c>
+      <c r="BF232">
+        <v>2.91</v>
+      </c>
+      <c r="BG232">
+        <v>1.22</v>
+      </c>
+      <c r="BH232">
+        <v>3.8</v>
+      </c>
+      <c r="BI232">
+        <v>1.33</v>
+      </c>
+      <c r="BJ232">
+        <v>2.91</v>
+      </c>
+      <c r="BK232">
+        <v>1.6</v>
+      </c>
+      <c r="BL232">
+        <v>2.14</v>
+      </c>
+      <c r="BM232">
+        <v>2</v>
+      </c>
+      <c r="BN232">
+        <v>1.69</v>
+      </c>
+      <c r="BO232">
+        <v>2.4</v>
+      </c>
+      <c r="BP232">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7331155</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45486.29166666666</v>
+      </c>
+      <c r="F233">
+        <v>24</v>
+      </c>
+      <c r="G233" t="s">
+        <v>82</v>
+      </c>
+      <c r="H233" t="s">
+        <v>77</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>183</v>
+      </c>
+      <c r="P233" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q233">
+        <v>2.48</v>
+      </c>
+      <c r="R233">
+        <v>2.2</v>
+      </c>
+      <c r="S233">
+        <v>5.03</v>
+      </c>
+      <c r="T233">
+        <v>1.43</v>
+      </c>
+      <c r="U233">
+        <v>2.82</v>
+      </c>
+      <c r="V233">
+        <v>3.17</v>
+      </c>
+      <c r="W233">
+        <v>1.36</v>
+      </c>
+      <c r="X233">
+        <v>9</v>
+      </c>
+      <c r="Y233">
+        <v>1.07</v>
+      </c>
+      <c r="Z233">
+        <v>1.83</v>
+      </c>
+      <c r="AA233">
+        <v>3.4</v>
+      </c>
+      <c r="AB233">
+        <v>4</v>
+      </c>
+      <c r="AC233">
+        <v>1.03</v>
+      </c>
+      <c r="AD233">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE233">
+        <v>1.33</v>
+      </c>
+      <c r="AF233">
+        <v>3.1</v>
+      </c>
+      <c r="AG233">
+        <v>2.04</v>
+      </c>
+      <c r="AH233">
+        <v>1.73</v>
+      </c>
+      <c r="AI233">
+        <v>1.91</v>
+      </c>
+      <c r="AJ233">
+        <v>1.8</v>
+      </c>
+      <c r="AK233">
+        <v>1.17</v>
+      </c>
+      <c r="AL233">
+        <v>1.25</v>
+      </c>
+      <c r="AM233">
+        <v>1.9</v>
+      </c>
+      <c r="AN233">
+        <v>1.45</v>
+      </c>
+      <c r="AO233">
+        <v>0.82</v>
+      </c>
+      <c r="AP233">
+        <v>1.42</v>
+      </c>
+      <c r="AQ233">
+        <v>0.83</v>
+      </c>
+      <c r="AR233">
+        <v>1.32</v>
+      </c>
+      <c r="AS233">
+        <v>1.09</v>
+      </c>
+      <c r="AT233">
+        <v>2.41</v>
+      </c>
+      <c r="AU233">
+        <v>2</v>
+      </c>
+      <c r="AV233">
+        <v>4</v>
+      </c>
+      <c r="AW233">
+        <v>10</v>
+      </c>
+      <c r="AX233">
+        <v>11</v>
+      </c>
+      <c r="AY233">
+        <v>12</v>
+      </c>
+      <c r="AZ233">
+        <v>15</v>
+      </c>
+      <c r="BA233">
+        <v>2</v>
+      </c>
+      <c r="BB233">
+        <v>4</v>
+      </c>
+      <c r="BC233">
+        <v>6</v>
+      </c>
+      <c r="BD233">
+        <v>1.55</v>
+      </c>
+      <c r="BE233">
+        <v>8.5</v>
+      </c>
+      <c r="BF233">
+        <v>2.91</v>
+      </c>
+      <c r="BG233">
+        <v>1.2</v>
+      </c>
+      <c r="BH233">
+        <v>4</v>
+      </c>
+      <c r="BI233">
+        <v>1.31</v>
+      </c>
+      <c r="BJ233">
+        <v>3.04</v>
+      </c>
+      <c r="BK233">
+        <v>1.8</v>
+      </c>
+      <c r="BL233">
+        <v>2</v>
+      </c>
+      <c r="BM233">
+        <v>1.93</v>
+      </c>
+      <c r="BN233">
+        <v>1.74</v>
+      </c>
+      <c r="BO233">
+        <v>2.48</v>
+      </c>
+      <c r="BP233">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,21 @@
     <t>['16', '22']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['57', '66']</t>
+  </si>
+  <si>
+    <t>['47', '58']</t>
+  </si>
+  <si>
+    <t>['27', '63']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -755,9 +770,6 @@
   </si>
   <si>
     <t>['9', '28', '50', '70', '75', '80']</t>
-  </si>
-  <si>
-    <t>['32']</t>
   </si>
   <si>
     <t>['44', '80', '90+1']</t>
@@ -1001,6 +1013,21 @@
   </si>
   <si>
     <t>['36', '45+1', '57', '76']</t>
+  </si>
+  <si>
+    <t>['76', '87']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+9']</t>
+  </si>
+  <si>
+    <t>['33', '89']</t>
+  </si>
+  <si>
+    <t>['42', '56']</t>
+  </si>
+  <si>
+    <t>['55', '74']</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ2">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1827,7 +1854,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1908,7 +1935,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ3">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2114,7 +2141,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2445,7 +2472,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2523,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
         <v>1.17</v>
@@ -2857,7 +2884,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2938,7 +2965,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3269,7 +3296,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3347,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ10">
         <v>1.58</v>
@@ -3553,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ11">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3681,7 +3708,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3762,7 +3789,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3887,7 +3914,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3965,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ13">
         <v>1.58</v>
@@ -4171,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
         <v>1.09</v>
@@ -4583,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ16">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -4998,7 +5025,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5535,7 +5562,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5613,7 +5640,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ21">
         <v>1.17</v>
@@ -5741,7 +5768,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5819,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22">
         <v>1.17</v>
@@ -5947,7 +5974,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6025,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ23">
         <v>0.67</v>
@@ -7058,7 +7085,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -7183,7 +7210,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7264,7 +7291,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7389,7 +7416,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7470,7 +7497,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7595,7 +7622,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7801,7 +7828,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7882,7 +7909,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8419,7 +8446,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8497,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ35">
         <v>1.64</v>
@@ -8625,7 +8652,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8703,7 +8730,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>1.58</v>
@@ -8909,10 +8936,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -9115,10 +9142,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ38">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9243,7 +9270,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9449,7 +9476,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9530,7 +9557,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>1.85</v>
@@ -9655,7 +9682,7 @@
         <v>92</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>3.6</v>
@@ -9736,7 +9763,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ41">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -10145,7 +10172,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ43">
         <v>0.5</v>
@@ -10557,10 +10584,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ45">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR45">
         <v>1.39</v>
@@ -10763,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
         <v>1.09</v>
@@ -10891,7 +10918,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10969,10 +10996,10 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -11175,7 +11202,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -11384,7 +11411,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ49">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR49">
         <v>1.94</v>
@@ -11509,7 +11536,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11590,7 +11617,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ50">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11715,7 +11742,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11793,10 +11820,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ51">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -11921,7 +11948,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12002,7 +12029,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ52">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -12127,7 +12154,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12745,7 +12772,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12826,7 +12853,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -13029,7 +13056,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ57">
         <v>1.17</v>
@@ -13569,7 +13596,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13647,7 +13674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ60">
         <v>1.64</v>
@@ -13775,7 +13802,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13856,7 +13883,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -13981,7 +14008,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14059,10 +14086,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ62">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR62">
         <v>1.39</v>
@@ -14265,7 +14292,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ63">
         <v>0.83</v>
@@ -14471,10 +14498,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ64">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14677,10 +14704,10 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR65">
         <v>1.29</v>
@@ -14883,7 +14910,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -15011,7 +15038,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15092,7 +15119,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ67">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15295,10 +15322,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15835,7 +15862,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15913,10 +15940,10 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ71">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.06</v>
@@ -16247,7 +16274,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16328,7 +16355,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ73">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16453,7 +16480,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16534,7 +16561,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR74">
         <v>2.12</v>
@@ -16659,7 +16686,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -17071,7 +17098,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17561,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ79">
         <v>0.73</v>
@@ -17689,7 +17716,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17973,7 +18000,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81">
         <v>0.67</v>
@@ -18101,7 +18128,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18182,7 +18209,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ82">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -18385,7 +18412,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>0.5</v>
@@ -18591,10 +18618,10 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ84">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -18925,7 +18952,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19006,7 +19033,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ86">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR86">
         <v>1.52</v>
@@ -19209,10 +19236,10 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19418,7 +19445,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19621,7 +19648,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ89">
         <v>1.17</v>
@@ -19749,7 +19776,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19827,7 +19854,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ90">
         <v>1.17</v>
@@ -19955,7 +19982,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20036,7 +20063,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20161,7 +20188,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20239,7 +20266,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92">
         <v>1.64</v>
@@ -20779,7 +20806,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20857,7 +20884,7 @@
         <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ95">
         <v>0.67</v>
@@ -20985,7 +21012,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21066,7 +21093,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21191,7 +21218,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21475,10 +21502,10 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -22015,7 +22042,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22302,7 +22329,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR102">
         <v>1.81</v>
@@ -22633,7 +22660,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22714,7 +22741,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ104">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -22839,7 +22866,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22917,7 +22944,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ105">
         <v>0.83</v>
@@ -23123,7 +23150,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106">
         <v>1.25</v>
@@ -23251,7 +23278,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23329,7 +23356,7 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ107">
         <v>1.17</v>
@@ -23457,7 +23484,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23744,7 +23771,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ109">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR109">
         <v>1.65</v>
@@ -23869,7 +23896,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -23947,10 +23974,10 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ110">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR110">
         <v>1.56</v>
@@ -24281,7 +24308,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24487,7 +24514,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24565,7 +24592,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ113">
         <v>1.09</v>
@@ -24693,7 +24720,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24774,7 +24801,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ114">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -25105,7 +25132,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25392,7 +25419,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25517,7 +25544,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25595,10 +25622,10 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ118">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR118">
         <v>1.43</v>
@@ -25801,10 +25828,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ119">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR119">
         <v>1.06</v>
@@ -26007,7 +26034,7 @@
         <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ120">
         <v>1.17</v>
@@ -26216,7 +26243,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ121">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26419,7 +26446,7 @@
         <v>1.4</v>
       </c>
       <c r="AP122">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ122">
         <v>1.25</v>
@@ -26547,7 +26574,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26753,7 +26780,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26959,7 +26986,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27165,7 +27192,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27577,7 +27604,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27655,10 +27682,10 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27864,7 +27891,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ129">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR129">
         <v>1.7</v>
@@ -27989,7 +28016,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28067,7 +28094,7 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ130">
         <v>1.64</v>
@@ -28685,10 +28712,10 @@
         <v>2.33</v>
       </c>
       <c r="AP133">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ133">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28813,7 +28840,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -29019,7 +29046,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29100,7 +29127,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ135">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29303,7 +29330,7 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ136">
         <v>1.09</v>
@@ -29509,10 +29536,10 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ137">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29637,7 +29664,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29715,7 +29742,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ138">
         <v>1.58</v>
@@ -29843,7 +29870,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -29924,7 +29951,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR139">
         <v>1.17</v>
@@ -30130,7 +30157,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ140">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR140">
         <v>1.31</v>
@@ -30333,10 +30360,10 @@
         <v>1.67</v>
       </c>
       <c r="AP141">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ141">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR141">
         <v>2.28</v>
@@ -30461,7 +30488,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30873,7 +30900,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -30954,7 +30981,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ144">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -31160,7 +31187,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ145">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR145">
         <v>1.62</v>
@@ -31285,7 +31312,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31363,7 +31390,7 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ146">
         <v>0.73</v>
@@ -31775,7 +31802,7 @@
         <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ148">
         <v>0.67</v>
@@ -31984,7 +32011,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ149">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR149">
         <v>1.67</v>
@@ -32109,7 +32136,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32187,7 +32214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ150">
         <v>1.25</v>
@@ -32315,7 +32342,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32393,7 +32420,7 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ151">
         <v>1.17</v>
@@ -32521,7 +32548,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32599,10 +32626,10 @@
         <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ152">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -32808,7 +32835,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ153">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR153">
         <v>1.55</v>
@@ -32933,7 +32960,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33011,7 +33038,7 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ154">
         <v>1.25</v>
@@ -33217,7 +33244,7 @@
         <v>1.86</v>
       </c>
       <c r="AP155">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ155">
         <v>1.64</v>
@@ -33345,7 +33372,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33423,7 +33450,7 @@
         <v>1.25</v>
       </c>
       <c r="AP156">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ156">
         <v>1.17</v>
@@ -33551,7 +33578,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33632,7 +33659,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ157">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR157">
         <v>1.13</v>
@@ -33757,7 +33784,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33838,7 +33865,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ158">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR158">
         <v>1.41</v>
@@ -34169,7 +34196,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34375,7 +34402,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34453,10 +34480,10 @@
         <v>1.71</v>
       </c>
       <c r="AP161">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ161">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR161">
         <v>1.13</v>
@@ -34787,7 +34814,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35199,7 +35226,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35277,10 +35304,10 @@
         <v>1.38</v>
       </c>
       <c r="AP165">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ165">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR165">
         <v>1.44</v>
@@ -35405,7 +35432,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35486,7 +35513,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35689,7 +35716,7 @@
         <v>0.57</v>
       </c>
       <c r="AP167">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167">
         <v>0.83</v>
@@ -35817,7 +35844,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36023,7 +36050,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36229,7 +36256,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36513,10 +36540,10 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ171">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR171">
         <v>1.43</v>
@@ -36641,7 +36668,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36847,7 +36874,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36925,7 +36952,7 @@
         <v>1.5</v>
       </c>
       <c r="AP173">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ173">
         <v>1.64</v>
@@ -37053,7 +37080,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37131,10 +37158,10 @@
         <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR174">
         <v>2.17</v>
@@ -37465,7 +37492,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37546,7 +37573,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ176">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -37958,7 +37985,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ178">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR178">
         <v>1.66</v>
@@ -38083,7 +38110,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38161,10 +38188,10 @@
         <v>2.25</v>
       </c>
       <c r="AP179">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ179">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR179">
         <v>1.55</v>
@@ -38495,7 +38522,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38573,10 +38600,10 @@
         <v>1.43</v>
       </c>
       <c r="AP181">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ181">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR181">
         <v>1.17</v>
@@ -38701,7 +38728,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38779,10 +38806,10 @@
         <v>1.63</v>
       </c>
       <c r="AP182">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ182">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR182">
         <v>1.43</v>
@@ -38907,7 +38934,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -38985,10 +39012,10 @@
         <v>2</v>
       </c>
       <c r="AP183">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ183">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39319,7 +39346,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39397,10 +39424,10 @@
         <v>1.56</v>
       </c>
       <c r="AP185">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ185">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR185">
         <v>1.47</v>
@@ -39731,7 +39758,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39937,7 +39964,7 @@
         <v>115</v>
       </c>
       <c r="P188" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q188">
         <v>3.3</v>
@@ -40015,7 +40042,7 @@
         <v>0.63</v>
       </c>
       <c r="AP188">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ188">
         <v>0.83</v>
@@ -40221,7 +40248,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ189">
         <v>1.64</v>
@@ -40349,7 +40376,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40555,7 +40582,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -40636,7 +40663,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ191">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR191">
         <v>1.35</v>
@@ -40967,7 +40994,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41251,7 +41278,7 @@
         <v>1.4</v>
       </c>
       <c r="AP194">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ194">
         <v>1.17</v>
@@ -41379,7 +41406,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41460,7 +41487,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ195">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR195">
         <v>1.6</v>
@@ -41666,7 +41693,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ196">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR196">
         <v>1.21</v>
@@ -41791,7 +41818,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -41872,7 +41899,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ197">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR197">
         <v>1.51</v>
@@ -41997,7 +42024,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42075,7 +42102,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP198">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ198">
         <v>0.67</v>
@@ -42284,7 +42311,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ199">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR199">
         <v>1.05</v>
@@ -42487,7 +42514,7 @@
         <v>1.67</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ200">
         <v>1.64</v>
@@ -42615,7 +42642,7 @@
         <v>108</v>
       </c>
       <c r="P201" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="Q201">
         <v>3.1</v>
@@ -42693,10 +42720,10 @@
         <v>1.9</v>
       </c>
       <c r="AP201">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ201">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR201">
         <v>1.6</v>
@@ -42902,7 +42929,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ202">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR202">
         <v>1.65</v>
@@ -43027,7 +43054,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43105,7 +43132,7 @@
         <v>1</v>
       </c>
       <c r="AP203">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ203">
         <v>1.25</v>
@@ -43233,7 +43260,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43311,7 +43338,7 @@
         <v>1.4</v>
       </c>
       <c r="AP204">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ204">
         <v>1.17</v>
@@ -43645,7 +43672,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -43726,7 +43753,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ206">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR206">
         <v>1.59</v>
@@ -44341,10 +44368,10 @@
         <v>1.64</v>
       </c>
       <c r="AP209">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ209">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AR209">
         <v>1.52</v>
@@ -44547,7 +44574,7 @@
         <v>0.89</v>
       </c>
       <c r="AP210">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ210">
         <v>0.73</v>
@@ -44756,7 +44783,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ211">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR211">
         <v>1.62</v>
@@ -44881,7 +44908,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -44959,10 +44986,10 @@
         <v>1.8</v>
       </c>
       <c r="AP212">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ212">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR212">
         <v>1.48</v>
@@ -45293,7 +45320,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45374,7 +45401,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ214">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AR214">
         <v>1.54</v>
@@ -45499,7 +45526,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45705,7 +45732,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -45911,7 +45938,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -45989,10 +46016,10 @@
         <v>2.2</v>
       </c>
       <c r="AP217">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ217">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AR217">
         <v>1.5</v>
@@ -46195,7 +46222,7 @@
         <v>1.64</v>
       </c>
       <c r="AP218">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ218">
         <v>1.58</v>
@@ -46323,7 +46350,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46401,7 +46428,7 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ219">
         <v>1.17</v>
@@ -46529,7 +46556,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46610,7 +46637,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ220">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR220">
         <v>1.78</v>
@@ -46735,7 +46762,7 @@
         <v>224</v>
       </c>
       <c r="P221" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q221">
         <v>1.95</v>
@@ -46813,7 +46840,7 @@
         <v>0.6</v>
       </c>
       <c r="AP221">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ221">
         <v>0.5</v>
@@ -46941,7 +46968,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q222">
         <v>3.25</v>
@@ -47147,7 +47174,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47559,7 +47586,7 @@
         <v>96</v>
       </c>
       <c r="P225" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q225">
         <v>2.9</v>
@@ -47637,7 +47664,7 @@
         <v>1.5</v>
       </c>
       <c r="AP225">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ225">
         <v>1.64</v>
@@ -48049,7 +48076,7 @@
         <v>0.73</v>
       </c>
       <c r="AP227">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ227">
         <v>0.67</v>
@@ -48258,7 +48285,7 @@
         <v>2</v>
       </c>
       <c r="AQ228">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR228">
         <v>1.52</v>
@@ -48670,7 +48697,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ230">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR230">
         <v>1.61</v>
@@ -48795,7 +48822,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -48968,7 +48995,7 @@
         <v>69</v>
       </c>
       <c r="E232" s="2">
-        <v>45486.29166666666</v>
+        <v>45485.875</v>
       </c>
       <c r="F232">
         <v>24</v>
@@ -49094,22 +49121,22 @@
         <v>2.57</v>
       </c>
       <c r="AU232">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV232">
         <v>4</v>
       </c>
       <c r="AW232">
+        <v>7</v>
+      </c>
+      <c r="AX232">
+        <v>5</v>
+      </c>
+      <c r="AY232">
+        <v>14</v>
+      </c>
+      <c r="AZ232">
         <v>9</v>
-      </c>
-      <c r="AX232">
-        <v>6</v>
-      </c>
-      <c r="AY232">
-        <v>15</v>
-      </c>
-      <c r="AZ232">
-        <v>10</v>
       </c>
       <c r="BA232">
         <v>7</v>
@@ -49174,7 +49201,7 @@
         <v>69</v>
       </c>
       <c r="E233" s="2">
-        <v>45486.29166666666</v>
+        <v>45485.875</v>
       </c>
       <c r="F233">
         <v>24</v>
@@ -49204,7 +49231,7 @@
         <v>2</v>
       </c>
       <c r="O233" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="P233" t="s">
         <v>104</v>
@@ -49300,22 +49327,22 @@
         <v>2.41</v>
       </c>
       <c r="AU233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW233">
+        <v>5</v>
+      </c>
+      <c r="AX233">
+        <v>8</v>
+      </c>
+      <c r="AY233">
+        <v>5</v>
+      </c>
+      <c r="AZ233">
         <v>10</v>
-      </c>
-      <c r="AX233">
-        <v>11</v>
-      </c>
-      <c r="AY233">
-        <v>12</v>
-      </c>
-      <c r="AZ233">
-        <v>15</v>
       </c>
       <c r="BA233">
         <v>2</v>
@@ -49364,6 +49391,1654 @@
       </c>
       <c r="BP233">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7331156</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45486.875</v>
+      </c>
+      <c r="F234">
+        <v>24</v>
+      </c>
+      <c r="G234" t="s">
+        <v>89</v>
+      </c>
+      <c r="H234" t="s">
+        <v>84</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>1</v>
+      </c>
+      <c r="O234" t="s">
+        <v>230</v>
+      </c>
+      <c r="P234" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q234">
+        <v>3.4</v>
+      </c>
+      <c r="R234">
+        <v>1.95</v>
+      </c>
+      <c r="S234">
+        <v>3.75</v>
+      </c>
+      <c r="T234">
+        <v>1.57</v>
+      </c>
+      <c r="U234">
+        <v>2.25</v>
+      </c>
+      <c r="V234">
+        <v>3.75</v>
+      </c>
+      <c r="W234">
+        <v>1.25</v>
+      </c>
+      <c r="X234">
+        <v>11</v>
+      </c>
+      <c r="Y234">
+        <v>1.05</v>
+      </c>
+      <c r="Z234">
+        <v>2.45</v>
+      </c>
+      <c r="AA234">
+        <v>2.8</v>
+      </c>
+      <c r="AB234">
+        <v>2.8</v>
+      </c>
+      <c r="AC234">
+        <v>1.06</v>
+      </c>
+      <c r="AD234">
+        <v>6.6</v>
+      </c>
+      <c r="AE234">
+        <v>1.48</v>
+      </c>
+      <c r="AF234">
+        <v>2.48</v>
+      </c>
+      <c r="AG234">
+        <v>2.4</v>
+      </c>
+      <c r="AH234">
+        <v>1.5</v>
+      </c>
+      <c r="AI234">
+        <v>2.1</v>
+      </c>
+      <c r="AJ234">
+        <v>1.67</v>
+      </c>
+      <c r="AK234">
+        <v>1.42</v>
+      </c>
+      <c r="AL234">
+        <v>1.3</v>
+      </c>
+      <c r="AM234">
+        <v>1.45</v>
+      </c>
+      <c r="AN234">
+        <v>1.27</v>
+      </c>
+      <c r="AO234">
+        <v>1.73</v>
+      </c>
+      <c r="AP234">
+        <v>1.42</v>
+      </c>
+      <c r="AQ234">
+        <v>1.58</v>
+      </c>
+      <c r="AR234">
+        <v>1.5</v>
+      </c>
+      <c r="AS234">
+        <v>1.47</v>
+      </c>
+      <c r="AT234">
+        <v>2.97</v>
+      </c>
+      <c r="AU234">
+        <v>2</v>
+      </c>
+      <c r="AV234">
+        <v>0</v>
+      </c>
+      <c r="AW234">
+        <v>4</v>
+      </c>
+      <c r="AX234">
+        <v>0</v>
+      </c>
+      <c r="AY234">
+        <v>6</v>
+      </c>
+      <c r="AZ234">
+        <v>0</v>
+      </c>
+      <c r="BA234">
+        <v>0</v>
+      </c>
+      <c r="BB234">
+        <v>0</v>
+      </c>
+      <c r="BC234">
+        <v>0</v>
+      </c>
+      <c r="BD234">
+        <v>1.91</v>
+      </c>
+      <c r="BE234">
+        <v>8</v>
+      </c>
+      <c r="BF234">
+        <v>2.2</v>
+      </c>
+      <c r="BG234">
+        <v>1.25</v>
+      </c>
+      <c r="BH234">
+        <v>3.6</v>
+      </c>
+      <c r="BI234">
+        <v>1.4</v>
+      </c>
+      <c r="BJ234">
+        <v>2.64</v>
+      </c>
+      <c r="BK234">
+        <v>1.7</v>
+      </c>
+      <c r="BL234">
+        <v>1.98</v>
+      </c>
+      <c r="BM234">
+        <v>2.15</v>
+      </c>
+      <c r="BN234">
+        <v>1.59</v>
+      </c>
+      <c r="BO234">
+        <v>2.7</v>
+      </c>
+      <c r="BP234">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7331157</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45487.25</v>
+      </c>
+      <c r="F235">
+        <v>24</v>
+      </c>
+      <c r="G235" t="s">
+        <v>70</v>
+      </c>
+      <c r="H235" t="s">
+        <v>71</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>2</v>
+      </c>
+      <c r="N235">
+        <v>4</v>
+      </c>
+      <c r="O235" t="s">
+        <v>231</v>
+      </c>
+      <c r="P235" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q235">
+        <v>5.5</v>
+      </c>
+      <c r="R235">
+        <v>2.1</v>
+      </c>
+      <c r="S235">
+        <v>2.3</v>
+      </c>
+      <c r="T235">
+        <v>1.44</v>
+      </c>
+      <c r="U235">
+        <v>2.63</v>
+      </c>
+      <c r="V235">
+        <v>3.25</v>
+      </c>
+      <c r="W235">
+        <v>1.33</v>
+      </c>
+      <c r="X235">
+        <v>9</v>
+      </c>
+      <c r="Y235">
+        <v>1.07</v>
+      </c>
+      <c r="Z235">
+        <v>4.6</v>
+      </c>
+      <c r="AA235">
+        <v>3.45</v>
+      </c>
+      <c r="AB235">
+        <v>1.65</v>
+      </c>
+      <c r="AC235">
+        <v>1.03</v>
+      </c>
+      <c r="AD235">
+        <v>8.4</v>
+      </c>
+      <c r="AE235">
+        <v>1.33</v>
+      </c>
+      <c r="AF235">
+        <v>3.1</v>
+      </c>
+      <c r="AG235">
+        <v>2</v>
+      </c>
+      <c r="AH235">
+        <v>1.7</v>
+      </c>
+      <c r="AI235">
+        <v>2</v>
+      </c>
+      <c r="AJ235">
+        <v>1.73</v>
+      </c>
+      <c r="AK235">
+        <v>2.15</v>
+      </c>
+      <c r="AL235">
+        <v>1.2</v>
+      </c>
+      <c r="AM235">
+        <v>1.11</v>
+      </c>
+      <c r="AN235">
+        <v>1.17</v>
+      </c>
+      <c r="AO235">
+        <v>1.92</v>
+      </c>
+      <c r="AP235">
+        <v>1.15</v>
+      </c>
+      <c r="AQ235">
+        <v>1.85</v>
+      </c>
+      <c r="AR235">
+        <v>1.43</v>
+      </c>
+      <c r="AS235">
+        <v>1.61</v>
+      </c>
+      <c r="AT235">
+        <v>3.04</v>
+      </c>
+      <c r="AU235">
+        <v>3</v>
+      </c>
+      <c r="AV235">
+        <v>7</v>
+      </c>
+      <c r="AW235">
+        <v>4</v>
+      </c>
+      <c r="AX235">
+        <v>15</v>
+      </c>
+      <c r="AY235">
+        <v>7</v>
+      </c>
+      <c r="AZ235">
+        <v>22</v>
+      </c>
+      <c r="BA235">
+        <v>1</v>
+      </c>
+      <c r="BB235">
+        <v>7</v>
+      </c>
+      <c r="BC235">
+        <v>8</v>
+      </c>
+      <c r="BD235">
+        <v>3.83</v>
+      </c>
+      <c r="BE235">
+        <v>9</v>
+      </c>
+      <c r="BF235">
+        <v>1.37</v>
+      </c>
+      <c r="BG235">
+        <v>1.33</v>
+      </c>
+      <c r="BH235">
+        <v>3</v>
+      </c>
+      <c r="BI235">
+        <v>1.52</v>
+      </c>
+      <c r="BJ235">
+        <v>2.3</v>
+      </c>
+      <c r="BK235">
+        <v>1.89</v>
+      </c>
+      <c r="BL235">
+        <v>1.77</v>
+      </c>
+      <c r="BM235">
+        <v>2.48</v>
+      </c>
+      <c r="BN235">
+        <v>1.45</v>
+      </c>
+      <c r="BO235">
+        <v>3.2</v>
+      </c>
+      <c r="BP235">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7331158</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45487.25</v>
+      </c>
+      <c r="F236">
+        <v>24</v>
+      </c>
+      <c r="G236" t="s">
+        <v>86</v>
+      </c>
+      <c r="H236" t="s">
+        <v>80</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>2</v>
+      </c>
+      <c r="M236">
+        <v>2</v>
+      </c>
+      <c r="N236">
+        <v>4</v>
+      </c>
+      <c r="O236" t="s">
+        <v>232</v>
+      </c>
+      <c r="P236" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q236">
+        <v>3.4</v>
+      </c>
+      <c r="R236">
+        <v>2.38</v>
+      </c>
+      <c r="S236">
+        <v>2.88</v>
+      </c>
+      <c r="T236">
+        <v>1.3</v>
+      </c>
+      <c r="U236">
+        <v>3.4</v>
+      </c>
+      <c r="V236">
+        <v>2.38</v>
+      </c>
+      <c r="W236">
+        <v>1.53</v>
+      </c>
+      <c r="X236">
+        <v>6</v>
+      </c>
+      <c r="Y236">
+        <v>1.13</v>
+      </c>
+      <c r="Z236">
+        <v>2.65</v>
+      </c>
+      <c r="AA236">
+        <v>3.45</v>
+      </c>
+      <c r="AB236">
+        <v>2.2</v>
+      </c>
+      <c r="AC236">
+        <v>1.03</v>
+      </c>
+      <c r="AD236">
+        <v>12.4</v>
+      </c>
+      <c r="AE236">
+        <v>1.18</v>
+      </c>
+      <c r="AF236">
+        <v>4.5</v>
+      </c>
+      <c r="AG236">
+        <v>1.57</v>
+      </c>
+      <c r="AH236">
+        <v>2.25</v>
+      </c>
+      <c r="AI236">
+        <v>1.53</v>
+      </c>
+      <c r="AJ236">
+        <v>2.38</v>
+      </c>
+      <c r="AK236">
+        <v>1.6</v>
+      </c>
+      <c r="AL236">
+        <v>1.22</v>
+      </c>
+      <c r="AM236">
+        <v>1.42</v>
+      </c>
+      <c r="AN236">
+        <v>0.55</v>
+      </c>
+      <c r="AO236">
+        <v>2.09</v>
+      </c>
+      <c r="AP236">
+        <v>0.58</v>
+      </c>
+      <c r="AQ236">
+        <v>2</v>
+      </c>
+      <c r="AR236">
+        <v>1.39</v>
+      </c>
+      <c r="AS236">
+        <v>1.71</v>
+      </c>
+      <c r="AT236">
+        <v>3.1</v>
+      </c>
+      <c r="AU236">
+        <v>5</v>
+      </c>
+      <c r="AV236">
+        <v>5</v>
+      </c>
+      <c r="AW236">
+        <v>7</v>
+      </c>
+      <c r="AX236">
+        <v>11</v>
+      </c>
+      <c r="AY236">
+        <v>12</v>
+      </c>
+      <c r="AZ236">
+        <v>16</v>
+      </c>
+      <c r="BA236">
+        <v>3</v>
+      </c>
+      <c r="BB236">
+        <v>5</v>
+      </c>
+      <c r="BC236">
+        <v>8</v>
+      </c>
+      <c r="BD236">
+        <v>1.64</v>
+      </c>
+      <c r="BE236">
+        <v>8.5</v>
+      </c>
+      <c r="BF236">
+        <v>2.64</v>
+      </c>
+      <c r="BG236">
+        <v>1.22</v>
+      </c>
+      <c r="BH236">
+        <v>3.8</v>
+      </c>
+      <c r="BI236">
+        <v>1.36</v>
+      </c>
+      <c r="BJ236">
+        <v>2.78</v>
+      </c>
+      <c r="BK236">
+        <v>1.65</v>
+      </c>
+      <c r="BL236">
+        <v>2.05</v>
+      </c>
+      <c r="BM236">
+        <v>2.07</v>
+      </c>
+      <c r="BN236">
+        <v>1.64</v>
+      </c>
+      <c r="BO236">
+        <v>2.6</v>
+      </c>
+      <c r="BP236">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7331163</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F237">
+        <v>24</v>
+      </c>
+      <c r="G237" t="s">
+        <v>79</v>
+      </c>
+      <c r="H237" t="s">
+        <v>81</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>2</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237" t="s">
+        <v>92</v>
+      </c>
+      <c r="P237" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q237">
+        <v>5</v>
+      </c>
+      <c r="R237">
+        <v>2.25</v>
+      </c>
+      <c r="S237">
+        <v>2.3</v>
+      </c>
+      <c r="T237">
+        <v>1.36</v>
+      </c>
+      <c r="U237">
+        <v>3</v>
+      </c>
+      <c r="V237">
+        <v>2.75</v>
+      </c>
+      <c r="W237">
+        <v>1.4</v>
+      </c>
+      <c r="X237">
+        <v>7</v>
+      </c>
+      <c r="Y237">
+        <v>1.1</v>
+      </c>
+      <c r="Z237">
+        <v>4.4</v>
+      </c>
+      <c r="AA237">
+        <v>3.5</v>
+      </c>
+      <c r="AB237">
+        <v>1.65</v>
+      </c>
+      <c r="AC237">
+        <v>1.01</v>
+      </c>
+      <c r="AD237">
+        <v>9.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.25</v>
+      </c>
+      <c r="AF237">
+        <v>3.6</v>
+      </c>
+      <c r="AG237">
+        <v>1.85</v>
+      </c>
+      <c r="AH237">
+        <v>1.85</v>
+      </c>
+      <c r="AI237">
+        <v>1.83</v>
+      </c>
+      <c r="AJ237">
+        <v>1.83</v>
+      </c>
+      <c r="AK237">
+        <v>2.1</v>
+      </c>
+      <c r="AL237">
+        <v>1.2</v>
+      </c>
+      <c r="AM237">
+        <v>1.15</v>
+      </c>
+      <c r="AN237">
+        <v>0.83</v>
+      </c>
+      <c r="AO237">
+        <v>1.5</v>
+      </c>
+      <c r="AP237">
+        <v>0.77</v>
+      </c>
+      <c r="AQ237">
+        <v>1.62</v>
+      </c>
+      <c r="AR237">
+        <v>1.31</v>
+      </c>
+      <c r="AS237">
+        <v>1.4</v>
+      </c>
+      <c r="AT237">
+        <v>2.71</v>
+      </c>
+      <c r="AU237">
+        <v>4</v>
+      </c>
+      <c r="AV237">
+        <v>4</v>
+      </c>
+      <c r="AW237">
+        <v>6</v>
+      </c>
+      <c r="AX237">
+        <v>7</v>
+      </c>
+      <c r="AY237">
+        <v>10</v>
+      </c>
+      <c r="AZ237">
+        <v>11</v>
+      </c>
+      <c r="BA237">
+        <v>7</v>
+      </c>
+      <c r="BB237">
+        <v>5</v>
+      </c>
+      <c r="BC237">
+        <v>12</v>
+      </c>
+      <c r="BD237">
+        <v>2.66</v>
+      </c>
+      <c r="BE237">
+        <v>8.5</v>
+      </c>
+      <c r="BF237">
+        <v>1.64</v>
+      </c>
+      <c r="BG237">
+        <v>1.22</v>
+      </c>
+      <c r="BH237">
+        <v>3.8</v>
+      </c>
+      <c r="BI237">
+        <v>1.37</v>
+      </c>
+      <c r="BJ237">
+        <v>2.75</v>
+      </c>
+      <c r="BK237">
+        <v>1.65</v>
+      </c>
+      <c r="BL237">
+        <v>2.05</v>
+      </c>
+      <c r="BM237">
+        <v>2.07</v>
+      </c>
+      <c r="BN237">
+        <v>1.64</v>
+      </c>
+      <c r="BO237">
+        <v>2.95</v>
+      </c>
+      <c r="BP237">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7331162</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F238">
+        <v>24</v>
+      </c>
+      <c r="G238" t="s">
+        <v>78</v>
+      </c>
+      <c r="H238" t="s">
+        <v>87</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>233</v>
+      </c>
+      <c r="P238" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q238">
+        <v>3.25</v>
+      </c>
+      <c r="R238">
+        <v>2</v>
+      </c>
+      <c r="S238">
+        <v>3.6</v>
+      </c>
+      <c r="T238">
+        <v>1.5</v>
+      </c>
+      <c r="U238">
+        <v>2.5</v>
+      </c>
+      <c r="V238">
+        <v>3.4</v>
+      </c>
+      <c r="W238">
+        <v>1.3</v>
+      </c>
+      <c r="X238">
+        <v>10</v>
+      </c>
+      <c r="Y238">
+        <v>1.06</v>
+      </c>
+      <c r="Z238">
+        <v>2.5</v>
+      </c>
+      <c r="AA238">
+        <v>2.9</v>
+      </c>
+      <c r="AB238">
+        <v>2.65</v>
+      </c>
+      <c r="AC238">
+        <v>1.04</v>
+      </c>
+      <c r="AD238">
+        <v>7.3</v>
+      </c>
+      <c r="AE238">
+        <v>1.42</v>
+      </c>
+      <c r="AF238">
+        <v>2.75</v>
+      </c>
+      <c r="AG238">
+        <v>2.2</v>
+      </c>
+      <c r="AH238">
+        <v>1.6</v>
+      </c>
+      <c r="AI238">
+        <v>1.91</v>
+      </c>
+      <c r="AJ238">
+        <v>1.8</v>
+      </c>
+      <c r="AK238">
+        <v>1.42</v>
+      </c>
+      <c r="AL238">
+        <v>1.3</v>
+      </c>
+      <c r="AM238">
+        <v>1.47</v>
+      </c>
+      <c r="AN238">
+        <v>0.92</v>
+      </c>
+      <c r="AO238">
+        <v>1.67</v>
+      </c>
+      <c r="AP238">
+        <v>1.08</v>
+      </c>
+      <c r="AQ238">
+        <v>1.54</v>
+      </c>
+      <c r="AR238">
+        <v>1.5</v>
+      </c>
+      <c r="AS238">
+        <v>1.19</v>
+      </c>
+      <c r="AT238">
+        <v>2.69</v>
+      </c>
+      <c r="AU238">
+        <v>4</v>
+      </c>
+      <c r="AV238">
+        <v>3</v>
+      </c>
+      <c r="AW238">
+        <v>7</v>
+      </c>
+      <c r="AX238">
+        <v>7</v>
+      </c>
+      <c r="AY238">
+        <v>11</v>
+      </c>
+      <c r="AZ238">
+        <v>10</v>
+      </c>
+      <c r="BA238">
+        <v>4</v>
+      </c>
+      <c r="BB238">
+        <v>3</v>
+      </c>
+      <c r="BC238">
+        <v>7</v>
+      </c>
+      <c r="BD238">
+        <v>1.85</v>
+      </c>
+      <c r="BE238">
+        <v>8</v>
+      </c>
+      <c r="BF238">
+        <v>2.28</v>
+      </c>
+      <c r="BG238">
+        <v>1.38</v>
+      </c>
+      <c r="BH238">
+        <v>2.8</v>
+      </c>
+      <c r="BI238">
+        <v>1.6</v>
+      </c>
+      <c r="BJ238">
+        <v>2.14</v>
+      </c>
+      <c r="BK238">
+        <v>2</v>
+      </c>
+      <c r="BL238">
+        <v>1.8</v>
+      </c>
+      <c r="BM238">
+        <v>2.67</v>
+      </c>
+      <c r="BN238">
+        <v>1.39</v>
+      </c>
+      <c r="BO238">
+        <v>3.6</v>
+      </c>
+      <c r="BP238">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7331160</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F239">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>85</v>
+      </c>
+      <c r="H239" t="s">
+        <v>75</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>2</v>
+      </c>
+      <c r="O239" t="s">
+        <v>234</v>
+      </c>
+      <c r="P239" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q239">
+        <v>4.75</v>
+      </c>
+      <c r="R239">
+        <v>2.1</v>
+      </c>
+      <c r="S239">
+        <v>2.5</v>
+      </c>
+      <c r="T239">
+        <v>1.44</v>
+      </c>
+      <c r="U239">
+        <v>2.63</v>
+      </c>
+      <c r="V239">
+        <v>3.25</v>
+      </c>
+      <c r="W239">
+        <v>1.33</v>
+      </c>
+      <c r="X239">
+        <v>9</v>
+      </c>
+      <c r="Y239">
+        <v>1.07</v>
+      </c>
+      <c r="Z239">
+        <v>4</v>
+      </c>
+      <c r="AA239">
+        <v>3.25</v>
+      </c>
+      <c r="AB239">
+        <v>1.8</v>
+      </c>
+      <c r="AC239">
+        <v>1.03</v>
+      </c>
+      <c r="AD239">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE239">
+        <v>1.33</v>
+      </c>
+      <c r="AF239">
+        <v>3.1</v>
+      </c>
+      <c r="AG239">
+        <v>2.1</v>
+      </c>
+      <c r="AH239">
+        <v>1.65</v>
+      </c>
+      <c r="AI239">
+        <v>1.91</v>
+      </c>
+      <c r="AJ239">
+        <v>1.8</v>
+      </c>
+      <c r="AK239">
+        <v>1.9</v>
+      </c>
+      <c r="AL239">
+        <v>1.25</v>
+      </c>
+      <c r="AM239">
+        <v>1.18</v>
+      </c>
+      <c r="AN239">
+        <v>1.09</v>
+      </c>
+      <c r="AO239">
+        <v>1.5</v>
+      </c>
+      <c r="AP239">
+        <v>1.08</v>
+      </c>
+      <c r="AQ239">
+        <v>1.46</v>
+      </c>
+      <c r="AR239">
+        <v>1.25</v>
+      </c>
+      <c r="AS239">
+        <v>1.56</v>
+      </c>
+      <c r="AT239">
+        <v>2.81</v>
+      </c>
+      <c r="AU239">
+        <v>4</v>
+      </c>
+      <c r="AV239">
+        <v>4</v>
+      </c>
+      <c r="AW239">
+        <v>4</v>
+      </c>
+      <c r="AX239">
+        <v>2</v>
+      </c>
+      <c r="AY239">
+        <v>8</v>
+      </c>
+      <c r="AZ239">
+        <v>6</v>
+      </c>
+      <c r="BA239">
+        <v>5</v>
+      </c>
+      <c r="BB239">
+        <v>4</v>
+      </c>
+      <c r="BC239">
+        <v>9</v>
+      </c>
+      <c r="BD239">
+        <v>2.77</v>
+      </c>
+      <c r="BE239">
+        <v>8</v>
+      </c>
+      <c r="BF239">
+        <v>1.64</v>
+      </c>
+      <c r="BG239">
+        <v>1.29</v>
+      </c>
+      <c r="BH239">
+        <v>3.4</v>
+      </c>
+      <c r="BI239">
+        <v>1.44</v>
+      </c>
+      <c r="BJ239">
+        <v>2.51</v>
+      </c>
+      <c r="BK239">
+        <v>1.92</v>
+      </c>
+      <c r="BL239">
+        <v>1.88</v>
+      </c>
+      <c r="BM239">
+        <v>2.25</v>
+      </c>
+      <c r="BN239">
+        <v>1.54</v>
+      </c>
+      <c r="BO239">
+        <v>2.8</v>
+      </c>
+      <c r="BP239">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7331159</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F240">
+        <v>24</v>
+      </c>
+      <c r="G240" t="s">
+        <v>88</v>
+      </c>
+      <c r="H240" t="s">
+        <v>83</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>2</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>210</v>
+      </c>
+      <c r="P240" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q240">
+        <v>3.1</v>
+      </c>
+      <c r="R240">
+        <v>2.2</v>
+      </c>
+      <c r="S240">
+        <v>3.5</v>
+      </c>
+      <c r="T240">
+        <v>1.4</v>
+      </c>
+      <c r="U240">
+        <v>2.75</v>
+      </c>
+      <c r="V240">
+        <v>2.75</v>
+      </c>
+      <c r="W240">
+        <v>1.4</v>
+      </c>
+      <c r="X240">
+        <v>8</v>
+      </c>
+      <c r="Y240">
+        <v>1.08</v>
+      </c>
+      <c r="Z240">
+        <v>2.35</v>
+      </c>
+      <c r="AA240">
+        <v>3.15</v>
+      </c>
+      <c r="AB240">
+        <v>2.7</v>
+      </c>
+      <c r="AC240">
+        <v>1.02</v>
+      </c>
+      <c r="AD240">
+        <v>9.1</v>
+      </c>
+      <c r="AE240">
+        <v>1.3</v>
+      </c>
+      <c r="AF240">
+        <v>3.3</v>
+      </c>
+      <c r="AG240">
+        <v>1.9</v>
+      </c>
+      <c r="AH240">
+        <v>1.8</v>
+      </c>
+      <c r="AI240">
+        <v>1.73</v>
+      </c>
+      <c r="AJ240">
+        <v>2</v>
+      </c>
+      <c r="AK240">
+        <v>1.38</v>
+      </c>
+      <c r="AL240">
+        <v>1.25</v>
+      </c>
+      <c r="AM240">
+        <v>1.57</v>
+      </c>
+      <c r="AN240">
+        <v>1.36</v>
+      </c>
+      <c r="AO240">
+        <v>1.64</v>
+      </c>
+      <c r="AP240">
+        <v>1.25</v>
+      </c>
+      <c r="AQ240">
+        <v>1.75</v>
+      </c>
+      <c r="AR240">
+        <v>1.63</v>
+      </c>
+      <c r="AS240">
+        <v>1.49</v>
+      </c>
+      <c r="AT240">
+        <v>3.12</v>
+      </c>
+      <c r="AU240">
+        <v>5</v>
+      </c>
+      <c r="AV240">
+        <v>5</v>
+      </c>
+      <c r="AW240">
+        <v>8</v>
+      </c>
+      <c r="AX240">
+        <v>8</v>
+      </c>
+      <c r="AY240">
+        <v>13</v>
+      </c>
+      <c r="AZ240">
+        <v>13</v>
+      </c>
+      <c r="BA240">
+        <v>8</v>
+      </c>
+      <c r="BB240">
+        <v>9</v>
+      </c>
+      <c r="BC240">
+        <v>17</v>
+      </c>
+      <c r="BD240">
+        <v>1.91</v>
+      </c>
+      <c r="BE240">
+        <v>8</v>
+      </c>
+      <c r="BF240">
+        <v>2.1</v>
+      </c>
+      <c r="BG240">
+        <v>1.22</v>
+      </c>
+      <c r="BH240">
+        <v>3.8</v>
+      </c>
+      <c r="BI240">
+        <v>1.36</v>
+      </c>
+      <c r="BJ240">
+        <v>2.79</v>
+      </c>
+      <c r="BK240">
+        <v>1.63</v>
+      </c>
+      <c r="BL240">
+        <v>2.09</v>
+      </c>
+      <c r="BM240">
+        <v>2.04</v>
+      </c>
+      <c r="BN240">
+        <v>1.66</v>
+      </c>
+      <c r="BO240">
+        <v>2.47</v>
+      </c>
+      <c r="BP240">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7331161</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45487.29166666666</v>
+      </c>
+      <c r="F241">
+        <v>24</v>
+      </c>
+      <c r="G241" t="s">
+        <v>74</v>
+      </c>
+      <c r="H241" t="s">
+        <v>76</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+      <c r="N241">
+        <v>2</v>
+      </c>
+      <c r="O241" t="s">
+        <v>92</v>
+      </c>
+      <c r="P241" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q241">
+        <v>2.3</v>
+      </c>
+      <c r="R241">
+        <v>2.3</v>
+      </c>
+      <c r="S241">
+        <v>4.75</v>
+      </c>
+      <c r="T241">
+        <v>1.33</v>
+      </c>
+      <c r="U241">
+        <v>3.25</v>
+      </c>
+      <c r="V241">
+        <v>2.63</v>
+      </c>
+      <c r="W241">
+        <v>1.44</v>
+      </c>
+      <c r="X241">
+        <v>6.5</v>
+      </c>
+      <c r="Y241">
+        <v>1.11</v>
+      </c>
+      <c r="Z241">
+        <v>1.65</v>
+      </c>
+      <c r="AA241">
+        <v>3.65</v>
+      </c>
+      <c r="AB241">
+        <v>4.2</v>
+      </c>
+      <c r="AC241">
+        <v>1.01</v>
+      </c>
+      <c r="AD241">
+        <v>11</v>
+      </c>
+      <c r="AE241">
+        <v>1.2</v>
+      </c>
+      <c r="AF241">
+        <v>4.2</v>
+      </c>
+      <c r="AG241">
+        <v>1.7</v>
+      </c>
+      <c r="AH241">
+        <v>2</v>
+      </c>
+      <c r="AI241">
+        <v>1.73</v>
+      </c>
+      <c r="AJ241">
+        <v>2</v>
+      </c>
+      <c r="AK241">
+        <v>1.15</v>
+      </c>
+      <c r="AL241">
+        <v>1.2</v>
+      </c>
+      <c r="AM241">
+        <v>2.1</v>
+      </c>
+      <c r="AN241">
+        <v>2</v>
+      </c>
+      <c r="AO241">
+        <v>1.27</v>
+      </c>
+      <c r="AP241">
+        <v>1.83</v>
+      </c>
+      <c r="AQ241">
+        <v>1.42</v>
+      </c>
+      <c r="AR241">
+        <v>1.98</v>
+      </c>
+      <c r="AS241">
+        <v>1.47</v>
+      </c>
+      <c r="AT241">
+        <v>3.45</v>
+      </c>
+      <c r="AU241">
+        <v>2</v>
+      </c>
+      <c r="AV241">
+        <v>3</v>
+      </c>
+      <c r="AW241">
+        <v>5</v>
+      </c>
+      <c r="AX241">
+        <v>9</v>
+      </c>
+      <c r="AY241">
+        <v>7</v>
+      </c>
+      <c r="AZ241">
+        <v>12</v>
+      </c>
+      <c r="BA241">
+        <v>4</v>
+      </c>
+      <c r="BB241">
+        <v>5</v>
+      </c>
+      <c r="BC241">
+        <v>9</v>
+      </c>
+      <c r="BD241">
+        <v>1.64</v>
+      </c>
+      <c r="BE241">
+        <v>8</v>
+      </c>
+      <c r="BF241">
+        <v>2.67</v>
+      </c>
+      <c r="BG241">
+        <v>1.3</v>
+      </c>
+      <c r="BH241">
+        <v>3.2</v>
+      </c>
+      <c r="BI241">
+        <v>1.48</v>
+      </c>
+      <c r="BJ241">
+        <v>2.4</v>
+      </c>
+      <c r="BK241">
+        <v>1.95</v>
+      </c>
+      <c r="BL241">
+        <v>1.85</v>
+      </c>
+      <c r="BM241">
+        <v>2.38</v>
+      </c>
+      <c r="BN241">
+        <v>1.49</v>
+      </c>
+      <c r="BO241">
+        <v>3</v>
+      </c>
+      <c r="BP241">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -48995,7 +48995,7 @@
         <v>69</v>
       </c>
       <c r="E232" s="2">
-        <v>45485.875</v>
+        <v>45486.29166666666</v>
       </c>
       <c r="F232">
         <v>24</v>
@@ -49121,16 +49121,16 @@
         <v>2.57</v>
       </c>
       <c r="AU232">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV232">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW232">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX232">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY232">
         <v>14</v>
@@ -49201,7 +49201,7 @@
         <v>69</v>
       </c>
       <c r="E233" s="2">
-        <v>45485.875</v>
+        <v>45486.29166666666</v>
       </c>
       <c r="F233">
         <v>24</v>
@@ -49327,22 +49327,22 @@
         <v>2.41</v>
       </c>
       <c r="AU233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW233">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX233">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY233">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AZ233">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA233">
         <v>2</v>
@@ -49407,7 +49407,7 @@
         <v>69</v>
       </c>
       <c r="E234" s="2">
-        <v>45486.875</v>
+        <v>45487.25</v>
       </c>
       <c r="F234">
         <v>24</v>
@@ -49533,31 +49533,31 @@
         <v>2.97</v>
       </c>
       <c r="AU234">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV234">
         <v>0</v>
       </c>
       <c r="AW234">
+        <v>8</v>
+      </c>
+      <c r="AX234">
+        <v>2</v>
+      </c>
+      <c r="AY234">
+        <v>12</v>
+      </c>
+      <c r="AZ234">
+        <v>2</v>
+      </c>
+      <c r="BA234">
         <v>4</v>
       </c>
-      <c r="AX234">
-        <v>0</v>
-      </c>
-      <c r="AY234">
-        <v>6</v>
-      </c>
-      <c r="AZ234">
-        <v>0</v>
-      </c>
-      <c r="BA234">
-        <v>0</v>
-      </c>
       <c r="BB234">
         <v>0</v>
       </c>
       <c r="BC234">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD234">
         <v>1.91</v>
@@ -49739,22 +49739,22 @@
         <v>3.04</v>
       </c>
       <c r="AU235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV235">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW235">
         <v>4</v>
       </c>
       <c r="AX235">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY235">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ235">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA235">
         <v>1</v>
@@ -49945,22 +49945,22 @@
         <v>3.1</v>
       </c>
       <c r="AU236">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV236">
         <v>5</v>
       </c>
       <c r="AW236">
+        <v>3</v>
+      </c>
+      <c r="AX236">
+        <v>6</v>
+      </c>
+      <c r="AY236">
         <v>7</v>
       </c>
-      <c r="AX236">
+      <c r="AZ236">
         <v>11</v>
-      </c>
-      <c r="AY236">
-        <v>12</v>
-      </c>
-      <c r="AZ236">
-        <v>16</v>
       </c>
       <c r="BA236">
         <v>3</v>
@@ -50357,22 +50357,22 @@
         <v>2.69</v>
       </c>
       <c r="AU238">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW238">
         <v>7</v>
       </c>
       <c r="AX238">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY238">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ238">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA238">
         <v>4</v>
@@ -50769,10 +50769,10 @@
         <v>3.12</v>
       </c>
       <c r="AU240">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV240">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW240">
         <v>8</v>
@@ -50781,10 +50781,10 @@
         <v>8</v>
       </c>
       <c r="AY240">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ240">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA240">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -1726,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ3">
         <v>1.58</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ8">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3374,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
+        <v>1.33</v>
+      </c>
+      <c r="AQ10">
         <v>1.08</v>
-      </c>
-      <c r="AQ10">
-        <v>1.58</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3580,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3780,25 +3780,25 @@
         <v>1.75</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ12">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AS12">
         <v>1.76</v>
       </c>
       <c r="AT12">
-        <v>1.76</v>
+        <v>3.5</v>
       </c>
       <c r="AU12">
         <v>3</v>
@@ -3992,10 +3992,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ13">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -4195,22 +4195,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AT14">
-        <v>1.52</v>
+        <v>2.64</v>
       </c>
       <c r="AU14">
         <v>9</v>
@@ -4398,25 +4398,25 @@
         <v>2.8</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ15">
+        <v>1.42</v>
+      </c>
+      <c r="AR15">
+        <v>1.79</v>
+      </c>
+      <c r="AS15">
         <v>1.25</v>
       </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
       <c r="AT15">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AU15">
         <v>11</v>
@@ -4607,22 +4607,22 @@
         <v>1</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AT16">
-        <v>1.51</v>
+        <v>2.98</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4810,25 +4810,25 @@
         <v>1.6</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AQ17">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -5019,22 +5019,22 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ18">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AT18">
-        <v>0</v>
+        <v>3.43</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -5222,7 +5222,7 @@
         <v>1.35</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -5231,16 +5231,16 @@
         <v>1.58</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AS19">
         <v>1.71</v>
       </c>
       <c r="AT19">
-        <v>1.71</v>
+        <v>3.17</v>
       </c>
       <c r="AU19">
         <v>6</v>
@@ -5431,22 +5431,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>1.77</v>
+        <v>2.77</v>
       </c>
       <c r="AU20">
         <v>7</v>
@@ -5640,19 +5640,19 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS21">
         <v>0.93</v>
       </c>
       <c r="AT21">
-        <v>0.93</v>
+        <v>1.74</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5846,19 +5846,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="AS22">
         <v>1.22</v>
       </c>
       <c r="AT22">
-        <v>2.41</v>
+        <v>2.24</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6046,25 +6046,25 @@
         <v>1.88</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AS23">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="AT23">
-        <v>0.8100000000000001</v>
+        <v>2.68</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6258,19 +6258,19 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR24">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS24">
         <v>1.14</v>
       </c>
       <c r="AT24">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6458,25 +6458,25 @@
         <v>1.57</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
       </c>
       <c r="AS25">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="AT25">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6664,25 +6664,25 @@
         <v>1.8</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ26">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AU26">
         <v>8</v>
@@ -6870,25 +6870,25 @@
         <v>1.3</v>
       </c>
       <c r="AN27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AT27">
-        <v>1.12</v>
+        <v>2.68</v>
       </c>
       <c r="AU27">
         <v>4</v>
@@ -7076,25 +7076,25 @@
         <v>1.95</v>
       </c>
       <c r="AN28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ28">
         <v>1.58</v>
       </c>
       <c r="AR28">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="AS28">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT28">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -7282,25 +7282,25 @@
         <v>1.2</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO29">
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR29">
-        <v>0.91</v>
+        <v>1.33</v>
       </c>
       <c r="AS29">
-        <v>1.79</v>
+        <v>2.01</v>
       </c>
       <c r="AT29">
-        <v>2.7</v>
+        <v>3.34</v>
       </c>
       <c r="AU29">
         <v>8</v>
@@ -7488,25 +7488,25 @@
         <v>1.44</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ30">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT30">
-        <v>1.25</v>
+        <v>3.23</v>
       </c>
       <c r="AU30">
         <v>5</v>
@@ -7697,22 +7697,22 @@
         <v>1</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AS31">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7900,25 +7900,25 @@
         <v>1.29</v>
       </c>
       <c r="AN32">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP32">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AQ32">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR32">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="AS32">
-        <v>1.41</v>
+        <v>1.88</v>
       </c>
       <c r="AT32">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -8106,25 +8106,25 @@
         <v>2.03</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AP33">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ33">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
-        <v>2.23</v>
+        <v>1.79</v>
       </c>
       <c r="AS33">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="AT33">
-        <v>3.89</v>
+        <v>3.22</v>
       </c>
       <c r="AU33">
         <v>10</v>
@@ -8312,25 +8312,25 @@
         <v>1.64</v>
       </c>
       <c r="AN34">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR34">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="AS34">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AT34">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -8518,25 +8518,25 @@
         <v>1.47</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ35">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AS35">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="AT35">
-        <v>2.11</v>
+        <v>2.28</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8724,25 +8724,25 @@
         <v>1.42</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ36">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR36">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="AS36">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="AT36">
-        <v>1.81</v>
+        <v>2.65</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8930,25 +8930,25 @@
         <v>1.5</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
+        <v>1.58</v>
+      </c>
+      <c r="AR37">
+        <v>1.68</v>
+      </c>
+      <c r="AS37">
         <v>1.54</v>
       </c>
-      <c r="AR37">
-        <v>0</v>
-      </c>
-      <c r="AS37">
-        <v>1.34</v>
-      </c>
       <c r="AT37">
-        <v>1.34</v>
+        <v>3.22</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -9136,25 +9136,25 @@
         <v>1.39</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP38">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AQ38">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR38">
-        <v>0.92</v>
+        <v>1.06</v>
       </c>
       <c r="AS38">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AT38">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="AU38">
         <v>3</v>
@@ -9342,25 +9342,25 @@
         <v>1.25</v>
       </c>
       <c r="AN39">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AQ39">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AS39">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AT39">
-        <v>3.97</v>
+        <v>3.68</v>
       </c>
       <c r="AU39">
         <v>5</v>
@@ -9548,25 +9548,25 @@
         <v>1.62</v>
       </c>
       <c r="AN40">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS40">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="AT40">
-        <v>3.23</v>
+        <v>3.47</v>
       </c>
       <c r="AU40">
         <v>3</v>
@@ -9754,25 +9754,25 @@
         <v>1.28</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP41">
         <v>1.58</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR41">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AS41">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AT41">
-        <v>2.99</v>
+        <v>2.76</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -9960,25 +9960,25 @@
         <v>2.14</v>
       </c>
       <c r="AN42">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO42">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ42">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="AR42">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="AS42">
         <v>1.4</v>
       </c>
       <c r="AT42">
-        <v>3.52</v>
+        <v>3.21</v>
       </c>
       <c r="AU42">
         <v>6</v>
@@ -10166,25 +10166,25 @@
         <v>1.71</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO43">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR43">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS43">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AT43">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="AU43">
         <v>2</v>
@@ -10372,25 +10372,25 @@
         <v>2.52</v>
       </c>
       <c r="AN44">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO44">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR44">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AS44">
-        <v>0.83</v>
+        <v>1.06</v>
       </c>
       <c r="AT44">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -10578,25 +10578,25 @@
         <v>1.63</v>
       </c>
       <c r="AN45">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO45">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP45">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR45">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="AS45">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="AU45">
         <v>5</v>
@@ -10784,25 +10784,25 @@
         <v>1.9</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP46">
+        <v>1.21</v>
+      </c>
+      <c r="AQ46">
         <v>1.25</v>
       </c>
-      <c r="AQ46">
-        <v>1.09</v>
-      </c>
       <c r="AR46">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="AS46">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT46">
-        <v>2.89</v>
+        <v>2.51</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10993,22 +10993,22 @@
         <v>1.5</v>
       </c>
       <c r="AO47">
+        <v>2.25</v>
+      </c>
+      <c r="AP47">
         <v>1.5</v>
       </c>
-      <c r="AP47">
-        <v>1.83</v>
-      </c>
       <c r="AQ47">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR47">
-        <v>2.09</v>
+        <v>1.99</v>
       </c>
       <c r="AS47">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="AT47">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="AU47">
         <v>2</v>
@@ -11202,19 +11202,19 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="AS48">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AT48">
-        <v>2.32</v>
+        <v>2.57</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11402,25 +11402,25 @@
         <v>1.82</v>
       </c>
       <c r="AN49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ49">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR49">
-        <v>1.94</v>
+        <v>1.39</v>
       </c>
       <c r="AS49">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AT49">
-        <v>3.89</v>
+        <v>3.08</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11611,22 +11611,22 @@
         <v>1.5</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP50">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR50">
-        <v>1.14</v>
+        <v>1.52</v>
       </c>
       <c r="AS50">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AT50">
-        <v>2.54</v>
+        <v>2.84</v>
       </c>
       <c r="AU50">
         <v>2</v>
@@ -11814,25 +11814,25 @@
         <v>1.47</v>
       </c>
       <c r="AN51">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>1.58</v>
       </c>
       <c r="AR51">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="AS51">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AT51">
-        <v>2.43</v>
+        <v>2.54</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -12020,25 +12020,25 @@
         <v>1.3</v>
       </c>
       <c r="AN52">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="AO52">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP52">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AQ52">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR52">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AS52">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AT52">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12226,22 +12226,22 @@
         <v>1.44</v>
       </c>
       <c r="AN53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ53">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR53">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AS53">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT53">
         <v>2.92</v>
@@ -12432,25 +12432,25 @@
         <v>1.55</v>
       </c>
       <c r="AN54">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO54">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP54">
         <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
       </c>
       <c r="AS54">
-        <v>1.89</v>
+        <v>1.52</v>
       </c>
       <c r="AT54">
-        <v>3.3</v>
+        <v>2.93</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12638,25 +12638,25 @@
         <v>2.2</v>
       </c>
       <c r="AN55">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AO55">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP55">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ55">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR55">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="AS55">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AT55">
-        <v>3.88</v>
+        <v>3.44</v>
       </c>
       <c r="AU55">
         <v>4</v>
@@ -12844,25 +12844,25 @@
         <v>1.57</v>
       </c>
       <c r="AN56">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="AO56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="AS56">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AT56">
-        <v>3.36</v>
+        <v>3.14</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -13050,25 +13050,25 @@
         <v>1.18</v>
       </c>
       <c r="AN57">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO57">
+        <v>1.2</v>
+      </c>
+      <c r="AP57">
+        <v>0.96</v>
+      </c>
+      <c r="AQ57">
         <v>1.5</v>
-      </c>
-      <c r="AP57">
-        <v>1.15</v>
-      </c>
-      <c r="AQ57">
-        <v>1.17</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
       </c>
       <c r="AS57">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="AT57">
-        <v>3.28</v>
+        <v>3.39</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -13256,25 +13256,25 @@
         <v>1.42</v>
       </c>
       <c r="AN58">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO58">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AP58">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR58">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="AS58">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="AT58">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13462,25 +13462,25 @@
         <v>1.9</v>
       </c>
       <c r="AN59">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO59">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP59">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ59">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
-        <v>1.94</v>
+        <v>1.39</v>
       </c>
       <c r="AS59">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AT59">
-        <v>3.16</v>
+        <v>2.52</v>
       </c>
       <c r="AU59">
         <v>7</v>
@@ -13668,25 +13668,25 @@
         <v>1.3</v>
       </c>
       <c r="AN60">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO60">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP60">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AQ60">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
-        <v>0.89</v>
+        <v>1.01</v>
       </c>
       <c r="AS60">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
-        <v>2.23</v>
+        <v>2.34</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13874,25 +13874,25 @@
         <v>1.17</v>
       </c>
       <c r="AN61">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AO61">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AP61">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ61">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR61">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AS61">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AT61">
-        <v>2.64</v>
+        <v>2.87</v>
       </c>
       <c r="AU61">
         <v>3</v>
@@ -14080,25 +14080,25 @@
         <v>2.1</v>
       </c>
       <c r="AN62">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="AO62">
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ62">
         <v>1.58</v>
       </c>
       <c r="AR62">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AS62">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AT62">
-        <v>2.79</v>
+        <v>3.05</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -14286,25 +14286,25 @@
         <v>1.62</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO63">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR63">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="AS63">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT63">
-        <v>1.86</v>
+        <v>2.21</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14492,25 +14492,25 @@
         <v>1.52</v>
       </c>
       <c r="AN64">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AO64">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP64">
+        <v>1.29</v>
+      </c>
+      <c r="AQ64">
         <v>1.42</v>
       </c>
-      <c r="AQ64">
-        <v>1.75</v>
-      </c>
       <c r="AR64">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="AS64">
-        <v>2.07</v>
+        <v>1.76</v>
       </c>
       <c r="AT64">
-        <v>3.27</v>
+        <v>3.22</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14698,25 +14698,25 @@
         <v>1.21</v>
       </c>
       <c r="AN65">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AO65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ65">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR65">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AS65">
-        <v>1.56</v>
+        <v>1.86</v>
       </c>
       <c r="AT65">
-        <v>2.85</v>
+        <v>3.04</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14904,25 +14904,25 @@
         <v>1.57</v>
       </c>
       <c r="AN66">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO66">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP66">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR66">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AS66">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AT66">
-        <v>2.89</v>
+        <v>2.73</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -15110,25 +15110,25 @@
         <v>2.15</v>
       </c>
       <c r="AN67">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO67">
         <v>1.67</v>
       </c>
       <c r="AP67">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ67">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AR67">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="AT67">
-        <v>2.76</v>
+        <v>3.27</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15316,25 +15316,25 @@
         <v>1.38</v>
       </c>
       <c r="AN68">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO68">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="AP68">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ68">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR68">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="AS68">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AT68">
-        <v>2.89</v>
+        <v>3.27</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15522,25 +15522,25 @@
         <v>1.35</v>
       </c>
       <c r="AN69">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AO69">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP69">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR69">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="AS69">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AT69">
-        <v>3.43</v>
+        <v>3.77</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15728,25 +15728,25 @@
         <v>1.48</v>
       </c>
       <c r="AN70">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO70">
+        <v>1.17</v>
+      </c>
+      <c r="AP70">
+        <v>1.42</v>
+      </c>
+      <c r="AQ70">
+        <v>1.25</v>
+      </c>
+      <c r="AR70">
         <v>1.5</v>
       </c>
-      <c r="AP70">
-        <v>1.58</v>
-      </c>
-      <c r="AQ70">
-        <v>1.09</v>
-      </c>
-      <c r="AR70">
-        <v>1.14</v>
-      </c>
       <c r="AS70">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AT70">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="AU70">
         <v>6</v>
@@ -15934,25 +15934,25 @@
         <v>1.24</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO71">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AP71">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR71">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AS71">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AT71">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="AU71">
         <v>3</v>
@@ -16140,25 +16140,25 @@
         <v>1.69</v>
       </c>
       <c r="AN72">
-        <v>1.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO72">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AP72">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ72">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR72">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AS72">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="AT72">
-        <v>2.66</v>
+        <v>2.83</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16346,25 +16346,25 @@
         <v>1.44</v>
       </c>
       <c r="AN73">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AO73">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP73">
         <v>1.58</v>
       </c>
       <c r="AQ73">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR73">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="AS73">
-        <v>2.19</v>
+        <v>1.71</v>
       </c>
       <c r="AT73">
-        <v>3.87</v>
+        <v>3.29</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16552,25 +16552,25 @@
         <v>1.63</v>
       </c>
       <c r="AN74">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="AO74">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR74">
-        <v>2.12</v>
+        <v>1.68</v>
       </c>
       <c r="AS74">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="AT74">
-        <v>3.99</v>
+        <v>3.38</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16758,25 +16758,25 @@
         <v>3.1</v>
       </c>
       <c r="AN75">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="AO75">
+        <v>0.57</v>
+      </c>
+      <c r="AP75">
+        <v>2.17</v>
+      </c>
+      <c r="AQ75">
         <v>1.33</v>
       </c>
-      <c r="AP75">
-        <v>2.82</v>
-      </c>
-      <c r="AQ75">
-        <v>1.64</v>
-      </c>
       <c r="AR75">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="AS75">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT75">
-        <v>3.39</v>
+        <v>3.07</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16964,25 +16964,25 @@
         <v>1.36</v>
       </c>
       <c r="AN76">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AO76">
-        <v>2.5</v>
+        <v>1.57</v>
       </c>
       <c r="AP76">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AQ76">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR76">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT76">
-        <v>2.69</v>
+        <v>2.74</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -17170,25 +17170,25 @@
         <v>1.4</v>
       </c>
       <c r="AN77">
-        <v>0.25</v>
+        <v>0.71</v>
       </c>
       <c r="AO77">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP77">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ77">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR77">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AS77">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT77">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17376,25 +17376,25 @@
         <v>1.8</v>
       </c>
       <c r="AN78">
-        <v>1.67</v>
+        <v>1.29</v>
       </c>
       <c r="AO78">
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ78">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AS78">
-        <v>1.87</v>
+        <v>1.49</v>
       </c>
       <c r="AT78">
-        <v>3.42</v>
+        <v>3.13</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17582,25 +17582,25 @@
         <v>1.63</v>
       </c>
       <c r="AN79">
-        <v>2.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO79">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP79">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ79">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="AR79">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AS79">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT79">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17788,25 +17788,25 @@
         <v>1.81</v>
       </c>
       <c r="AN80">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AO80">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP80">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR80">
-        <v>1.99</v>
+        <v>1.49</v>
       </c>
       <c r="AS80">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="AT80">
-        <v>3.73</v>
+        <v>3.04</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17997,22 +17997,22 @@
         <v>1</v>
       </c>
       <c r="AO81">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP81">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="AS81">
         <v>1.12</v>
       </c>
       <c r="AT81">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="AU81">
         <v>13</v>
@@ -18200,25 +18200,25 @@
         <v>1.4</v>
       </c>
       <c r="AN82">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AO82">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP82">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR82">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="AS82">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AT82">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="AU82">
         <v>11</v>
@@ -18406,25 +18406,25 @@
         <v>1.83</v>
       </c>
       <c r="AN83">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO83">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR83">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="AS83">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AT83">
-        <v>2.85</v>
+        <v>2.64</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18612,25 +18612,25 @@
         <v>1.33</v>
       </c>
       <c r="AN84">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AO84">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AP84">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AQ84">
         <v>1.58</v>
       </c>
       <c r="AR84">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AS84">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="AT84">
-        <v>2.59</v>
+        <v>2.75</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18818,25 +18818,25 @@
         <v>1.42</v>
       </c>
       <c r="AN85">
-        <v>0.2</v>
+        <v>0.63</v>
       </c>
       <c r="AO85">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ85">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="AR85">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AS85">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT85">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -19027,22 +19027,22 @@
         <v>1.75</v>
       </c>
       <c r="AO86">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ86">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR86">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="AS86">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AT86">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -19230,25 +19230,25 @@
         <v>1.25</v>
       </c>
       <c r="AN87">
-        <v>0.33</v>
+        <v>1.75</v>
       </c>
       <c r="AO87">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP87">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ87">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR87">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AS87">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="AT87">
-        <v>2.84</v>
+        <v>3.11</v>
       </c>
       <c r="AU87">
         <v>4</v>
@@ -19436,25 +19436,25 @@
         <v>1.3</v>
       </c>
       <c r="AN88">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO88">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AQ88">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AR88">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AS88">
-        <v>1.23</v>
+        <v>1.53</v>
       </c>
       <c r="AT88">
-        <v>2.53</v>
+        <v>2.98</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19642,25 +19642,25 @@
         <v>1.2</v>
       </c>
       <c r="AN89">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AO89">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP89">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AS89">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="AT89">
-        <v>3.14</v>
+        <v>3.35</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19851,22 +19851,22 @@
         <v>1.5</v>
       </c>
       <c r="AO90">
-        <v>0.75</v>
+        <v>1.38</v>
       </c>
       <c r="AP90">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR90">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AS90">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="AT90">
-        <v>2.87</v>
+        <v>2.94</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -20054,25 +20054,25 @@
         <v>1.28</v>
       </c>
       <c r="AN91">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AO91">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AP91">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ91">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR91">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="AS91">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AT91">
-        <v>2.8</v>
+        <v>3.21</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -20260,25 +20260,25 @@
         <v>1.87</v>
       </c>
       <c r="AN92">
+        <v>1.44</v>
+      </c>
+      <c r="AO92">
+        <v>1.33</v>
+      </c>
+      <c r="AP92">
         <v>1.5</v>
       </c>
-      <c r="AO92">
-        <v>1.5</v>
-      </c>
-      <c r="AP92">
-        <v>1.83</v>
-      </c>
       <c r="AQ92">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR92">
-        <v>2.25</v>
+        <v>1.84</v>
       </c>
       <c r="AS92">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AT92">
-        <v>3.83</v>
+        <v>3.41</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20466,25 +20466,25 @@
         <v>2</v>
       </c>
       <c r="AN93">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO93">
-        <v>1.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP93">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS93">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT93">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="AU93">
         <v>13</v>
@@ -20672,25 +20672,25 @@
         <v>1.47</v>
       </c>
       <c r="AN94">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AO94">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AP94">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR94">
-        <v>1.92</v>
+        <v>1.49</v>
       </c>
       <c r="AS94">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AT94">
-        <v>3.25</v>
+        <v>2.86</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20878,22 +20878,22 @@
         <v>1.72</v>
       </c>
       <c r="AN95">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AO95">
-        <v>0.75</v>
+        <v>1.22</v>
       </c>
       <c r="AP95">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ95">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR95">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AS95">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AT95">
         <v>2.41</v>
@@ -21084,25 +21084,25 @@
         <v>1.26</v>
       </c>
       <c r="AN96">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AO96">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="AP96">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ96">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR96">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AS96">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="AT96">
-        <v>2.94</v>
+        <v>3.13</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21290,25 +21290,25 @@
         <v>1.57</v>
       </c>
       <c r="AN97">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AO97">
-        <v>0.4</v>
+        <v>0.89</v>
       </c>
       <c r="AP97">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR97">
-        <v>1.2</v>
+        <v>1.49</v>
       </c>
       <c r="AS97">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AT97">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21496,25 +21496,25 @@
         <v>1.4</v>
       </c>
       <c r="AN98">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AP98">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR98">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="AS98">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="AT98">
-        <v>2.86</v>
+        <v>3.12</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21702,25 +21702,25 @@
         <v>2.7</v>
       </c>
       <c r="AN99">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AO99">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="AP99">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ99">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AS99">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="AT99">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21908,25 +21908,25 @@
         <v>1.91</v>
       </c>
       <c r="AN100">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO100">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP100">
         <v>1.58</v>
       </c>
       <c r="AQ100">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR100">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="AS100">
-        <v>0.93</v>
+        <v>1.09</v>
       </c>
       <c r="AT100">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -22114,25 +22114,25 @@
         <v>1.33</v>
       </c>
       <c r="AN101">
-        <v>0.8</v>
+        <v>1.22</v>
       </c>
       <c r="AO101">
-        <v>2.6</v>
+        <v>1.56</v>
       </c>
       <c r="AP101">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ101">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR101">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="AS101">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="AT101">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU101">
         <v>10</v>
@@ -22320,25 +22320,25 @@
         <v>1.69</v>
       </c>
       <c r="AN102">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="AO102">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR102">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="AS102">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="AT102">
-        <v>3.72</v>
+        <v>3.31</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22526,25 +22526,25 @@
         <v>1.46</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AO103">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP103">
+        <v>1.25</v>
+      </c>
+      <c r="AQ103">
+        <v>1.33</v>
+      </c>
+      <c r="AR103">
         <v>1.38</v>
-      </c>
-      <c r="AQ103">
-        <v>1.64</v>
-      </c>
-      <c r="AR103">
-        <v>1.24</v>
       </c>
       <c r="AS103">
         <v>1.36</v>
       </c>
       <c r="AT103">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22732,25 +22732,25 @@
         <v>1.87</v>
       </c>
       <c r="AN104">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AO104">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AP104">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ104">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AR104">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AS104">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AT104">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="AU104">
         <v>10</v>
@@ -22938,25 +22938,25 @@
         <v>2.11</v>
       </c>
       <c r="AN105">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO105">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP105">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR105">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AS105">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AT105">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU105">
         <v>7</v>
@@ -23144,25 +23144,25 @@
         <v>1.59</v>
       </c>
       <c r="AN106">
+        <v>1.3</v>
+      </c>
+      <c r="AO106">
         <v>1.5</v>
       </c>
-      <c r="AO106">
-        <v>1.75</v>
-      </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ106">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR106">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AS106">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="AT106">
-        <v>3.22</v>
+        <v>2.9</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23353,22 +23353,22 @@
         <v>1.4</v>
       </c>
       <c r="AO107">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP107">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ107">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR107">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="AS107">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AT107">
-        <v>3.83</v>
+        <v>3.4</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23556,25 +23556,25 @@
         <v>1.62</v>
       </c>
       <c r="AN108">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO108">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP108">
         <v>1.58</v>
       </c>
       <c r="AQ108">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="AR108">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="AS108">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT108">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23762,25 +23762,25 @@
         <v>1.48</v>
       </c>
       <c r="AN109">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AO109">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AP109">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ109">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR109">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="AS109">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AT109">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23968,25 +23968,25 @@
         <v>1.37</v>
       </c>
       <c r="AN110">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AO110">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AP110">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ110">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR110">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AS110">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="AT110">
-        <v>3.07</v>
+        <v>3.12</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -24174,25 +24174,25 @@
         <v>1.83</v>
       </c>
       <c r="AN111">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="AO111">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AQ111">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR111">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AS111">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AT111">
-        <v>2.33</v>
+        <v>2.44</v>
       </c>
       <c r="AU111">
         <v>7</v>
@@ -24380,22 +24380,22 @@
         <v>1.33</v>
       </c>
       <c r="AN112">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AO112">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AP112">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ112">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="AS112">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="AT112">
         <v>3.36</v>
@@ -24589,22 +24589,22 @@
         <v>1</v>
       </c>
       <c r="AO113">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="AP113">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ113">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AS113">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AT113">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24792,25 +24792,25 @@
         <v>1.14</v>
       </c>
       <c r="AN114">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="AO114">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AP114">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ114">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR114">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS114">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AT114">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -24998,25 +24998,25 @@
         <v>1.3</v>
       </c>
       <c r="AN115">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AO115">
-        <v>2.33</v>
+        <v>1.64</v>
       </c>
       <c r="AP115">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ115">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR115">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="AS115">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="AT115">
-        <v>2.74</v>
+        <v>2.87</v>
       </c>
       <c r="AU115">
         <v>4</v>
@@ -25204,25 +25204,25 @@
         <v>1.5</v>
       </c>
       <c r="AN116">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="AO116">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="AP116">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ116">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR116">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AS116">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AT116">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25410,25 +25410,25 @@
         <v>1.3</v>
       </c>
       <c r="AN117">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AO117">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
+        <v>2.17</v>
+      </c>
+      <c r="AR117">
+        <v>1.51</v>
+      </c>
+      <c r="AS117">
         <v>1.62</v>
       </c>
-      <c r="AR117">
-        <v>1.67</v>
-      </c>
-      <c r="AS117">
-        <v>1.38</v>
-      </c>
       <c r="AT117">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="AU117">
         <v>2</v>
@@ -25616,25 +25616,25 @@
         <v>1.28</v>
       </c>
       <c r="AN118">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AO118">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AP118">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ118">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR118">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AS118">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="AT118">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25822,25 +25822,25 @@
         <v>1.2</v>
       </c>
       <c r="AN119">
-        <v>1.6</v>
+        <v>1.09</v>
       </c>
       <c r="AO119">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AP119">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AQ119">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR119">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="AS119">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AT119">
-        <v>2.66</v>
+        <v>2.77</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -26028,25 +26028,25 @@
         <v>1.28</v>
       </c>
       <c r="AN120">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AO120">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="AP120">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ120">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR120">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AS120">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT120">
-        <v>2.71</v>
+        <v>2.68</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26234,25 +26234,25 @@
         <v>1.42</v>
       </c>
       <c r="AN121">
-        <v>1.8</v>
+        <v>1.09</v>
       </c>
       <c r="AO121">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="AP121">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AQ121">
         <v>1.58</v>
       </c>
       <c r="AR121">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AS121">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AT121">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26440,25 +26440,25 @@
         <v>1.43</v>
       </c>
       <c r="AN122">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AO122">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP122">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR122">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AS122">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AT122">
-        <v>3.04</v>
+        <v>2.79</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26646,25 +26646,25 @@
         <v>1.55</v>
       </c>
       <c r="AN123">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AO123">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP123">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AQ123">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR123">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AS123">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AT123">
-        <v>2.52</v>
+        <v>2.61</v>
       </c>
       <c r="AU123">
         <v>5</v>
@@ -26852,25 +26852,25 @@
         <v>1.63</v>
       </c>
       <c r="AN124">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AO124">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP124">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ124">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR124">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AS124">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AT124">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="AU124">
         <v>6</v>
@@ -27058,25 +27058,25 @@
         <v>1.59</v>
       </c>
       <c r="AN125">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="AO125">
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ125">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR125">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AS125">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AT125">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27264,25 +27264,25 @@
         <v>2.36</v>
       </c>
       <c r="AN126">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AO126">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP126">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ126">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR126">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="AS126">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT126">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="AU126">
         <v>8</v>
@@ -27470,25 +27470,25 @@
         <v>1.91</v>
       </c>
       <c r="AN127">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AO127">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AP127">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ127">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="AR127">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AS127">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AT127">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27676,25 +27676,25 @@
         <v>1.4</v>
       </c>
       <c r="AN128">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AO128">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ128">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR128">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AS128">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AT128">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27882,25 +27882,25 @@
         <v>1.6</v>
       </c>
       <c r="AN129">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AO129">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ129">
         <v>1.58</v>
       </c>
       <c r="AR129">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="AS129">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AT129">
-        <v>3.13</v>
+        <v>3.01</v>
       </c>
       <c r="AU129">
         <v>4</v>
@@ -28088,25 +28088,25 @@
         <v>1.68</v>
       </c>
       <c r="AN130">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AO130">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AP130">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ130">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR130">
+        <v>1.54</v>
+      </c>
+      <c r="AS130">
         <v>1.44</v>
       </c>
-      <c r="AS130">
-        <v>1.46</v>
-      </c>
       <c r="AT130">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="AU130">
         <v>3</v>
@@ -28294,25 +28294,25 @@
         <v>1.33</v>
       </c>
       <c r="AN131">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="AO131">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AP131">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ131">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AS131">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="AT131">
-        <v>3.15</v>
+        <v>3.43</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28500,25 +28500,25 @@
         <v>1.55</v>
       </c>
       <c r="AN132">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AO132">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AP132">
         <v>1.58</v>
       </c>
       <c r="AQ132">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR132">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="AS132">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AT132">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28706,25 +28706,25 @@
         <v>1.35</v>
       </c>
       <c r="AN133">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="AO133">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AP133">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ133">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR133">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AS133">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AT133">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="AU133">
         <v>4</v>
@@ -28912,25 +28912,25 @@
         <v>2.1</v>
       </c>
       <c r="AN134">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AO134">
+        <v>0.92</v>
+      </c>
+      <c r="AP134">
+        <v>1.71</v>
+      </c>
+      <c r="AQ134">
         <v>1.33</v>
       </c>
-      <c r="AP134">
-        <v>2</v>
-      </c>
-      <c r="AQ134">
-        <v>1.64</v>
-      </c>
       <c r="AR134">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AS134">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AT134">
-        <v>2.74</v>
+        <v>2.87</v>
       </c>
       <c r="AU134">
         <v>6</v>
@@ -29118,25 +29118,25 @@
         <v>1.4</v>
       </c>
       <c r="AN135">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO135">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AP135">
+        <v>0.96</v>
+      </c>
+      <c r="AQ135">
+        <v>1.58</v>
+      </c>
+      <c r="AR135">
         <v>1.42</v>
       </c>
-      <c r="AQ135">
-        <v>1.54</v>
-      </c>
-      <c r="AR135">
-        <v>1.3</v>
-      </c>
       <c r="AS135">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="AT135">
-        <v>2.49</v>
+        <v>2.84</v>
       </c>
       <c r="AU135">
         <v>8</v>
@@ -29324,25 +29324,25 @@
         <v>1.47</v>
       </c>
       <c r="AN136">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AO136">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="AP136">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AQ136">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR136">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AS136">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="AT136">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29530,25 +29530,25 @@
         <v>1.44</v>
       </c>
       <c r="AN137">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="AO137">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP137">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ137">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR137">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="AS137">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AT137">
-        <v>3.25</v>
+        <v>3.02</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29736,25 +29736,25 @@
         <v>1.52</v>
       </c>
       <c r="AN138">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AO138">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AP138">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR138">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AS138">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AT138">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="AU138">
         <v>3</v>
@@ -29942,25 +29942,25 @@
         <v>1.06</v>
       </c>
       <c r="AN139">
-        <v>0.29</v>
+        <v>0.46</v>
       </c>
       <c r="AO139">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="AP139">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ139">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR139">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AS139">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="AT139">
-        <v>2.54</v>
+        <v>2.75</v>
       </c>
       <c r="AU139">
         <v>2</v>
@@ -30148,25 +30148,25 @@
         <v>1.33</v>
       </c>
       <c r="AN140">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="AO140">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AP140">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ140">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR140">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AS140">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AT140">
-        <v>2.82</v>
+        <v>3.02</v>
       </c>
       <c r="AU140">
         <v>3</v>
@@ -30354,25 +30354,25 @@
         <v>1.6</v>
       </c>
       <c r="AN141">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AO141">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AP141">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ141">
+        <v>2.08</v>
+      </c>
+      <c r="AR141">
         <v>1.85</v>
       </c>
-      <c r="AR141">
-        <v>2.28</v>
-      </c>
       <c r="AS141">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT141">
-        <v>3.91</v>
+        <v>3.44</v>
       </c>
       <c r="AU141">
         <v>7</v>
@@ -30560,25 +30560,25 @@
         <v>2.03</v>
       </c>
       <c r="AN142">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AO142">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AP142">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ142">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR142">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AS142">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AT142">
-        <v>2.76</v>
+        <v>2.55</v>
       </c>
       <c r="AU142">
         <v>6</v>
@@ -30766,25 +30766,25 @@
         <v>2.32</v>
       </c>
       <c r="AN143">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AO143">
-        <v>0.57</v>
+        <v>0.93</v>
       </c>
       <c r="AP143">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ143">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR143">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="AS143">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT143">
-        <v>3.37</v>
+        <v>3.14</v>
       </c>
       <c r="AU143">
         <v>9</v>
@@ -30972,25 +30972,25 @@
         <v>1.73</v>
       </c>
       <c r="AN144">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AO144">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AP144">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ144">
         <v>1.58</v>
       </c>
       <c r="AR144">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AS144">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="AT144">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31178,25 +31178,25 @@
         <v>1.3</v>
       </c>
       <c r="AN145">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="AO145">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AP145">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ145">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR145">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="AS145">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="AT145">
-        <v>3.26</v>
+        <v>3.23</v>
       </c>
       <c r="AU145">
         <v>3</v>
@@ -31384,25 +31384,25 @@
         <v>1.56</v>
       </c>
       <c r="AN146">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AO146">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP146">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ146">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="AR146">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AS146">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="AT146">
-        <v>2.67</v>
+        <v>2.79</v>
       </c>
       <c r="AU146">
         <v>5</v>
@@ -31590,25 +31590,25 @@
         <v>1.29</v>
       </c>
       <c r="AN147">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="AO147">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AQ147">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AS147">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AT147">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AU147">
         <v>3</v>
@@ -31796,25 +31796,25 @@
         <v>1.82</v>
       </c>
       <c r="AN148">
-        <v>0.57</v>
+        <v>1.07</v>
       </c>
       <c r="AO148">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="AP148">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR148">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="AS148">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AT148">
-        <v>2.79</v>
+        <v>2.57</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32002,25 +32002,25 @@
         <v>1.53</v>
       </c>
       <c r="AN149">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AO149">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AP149">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ149">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR149">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AS149">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="AT149">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="AU149">
         <v>8</v>
@@ -32208,25 +32208,25 @@
         <v>1.72</v>
       </c>
       <c r="AN150">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AO150">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AP150">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ150">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR150">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AS150">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="AT150">
-        <v>2.94</v>
+        <v>2.85</v>
       </c>
       <c r="AU150">
         <v>4</v>
@@ -32414,25 +32414,25 @@
         <v>1.4</v>
       </c>
       <c r="AN151">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO151">
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ151">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR151">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AS151">
-        <v>1.55</v>
+        <v>1.84</v>
       </c>
       <c r="AT151">
-        <v>3.01</v>
+        <v>3.38</v>
       </c>
       <c r="AU151">
         <v>3</v>
@@ -32620,25 +32620,25 @@
         <v>1.47</v>
       </c>
       <c r="AN152">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
       <c r="AO152">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
       <c r="AP152">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ152">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR152">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AS152">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="AT152">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="AU152">
         <v>4</v>
@@ -32826,25 +32826,25 @@
         <v>1.37</v>
       </c>
       <c r="AN153">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO153">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="AP153">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ153">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR153">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AS153">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AT153">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="AU153">
         <v>7</v>
@@ -33032,25 +33032,25 @@
         <v>2.28</v>
       </c>
       <c r="AN154">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AO154">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AP154">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR154">
-        <v>2.17</v>
+        <v>1.84</v>
       </c>
       <c r="AS154">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AT154">
-        <v>3.68</v>
+        <v>3.25</v>
       </c>
       <c r="AU154">
         <v>9</v>
@@ -33241,22 +33241,22 @@
         <v>1.13</v>
       </c>
       <c r="AO155">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="AP155">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ155">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR155">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS155">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT155">
-        <v>2.97</v>
+        <v>2.86</v>
       </c>
       <c r="AU155">
         <v>7</v>
@@ -33444,25 +33444,25 @@
         <v>1.52</v>
       </c>
       <c r="AN156">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="AO156">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ156">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR156">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AS156">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="AT156">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AU156">
         <v>6</v>
@@ -33650,25 +33650,25 @@
         <v>1.14</v>
       </c>
       <c r="AN157">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AO157">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AP157">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ157">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR157">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AS157">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT157">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU157">
         <v>2</v>
@@ -33856,25 +33856,25 @@
         <v>1.28</v>
       </c>
       <c r="AN158">
-        <v>1.29</v>
+        <v>0.87</v>
       </c>
       <c r="AO158">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AP158">
+        <v>0.96</v>
+      </c>
+      <c r="AQ158">
+        <v>2.13</v>
+      </c>
+      <c r="AR158">
         <v>1.42</v>
       </c>
-      <c r="AQ158">
-        <v>2</v>
-      </c>
-      <c r="AR158">
-        <v>1.41</v>
-      </c>
       <c r="AS158">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AT158">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="AU158">
         <v>4</v>
@@ -34062,25 +34062,25 @@
         <v>1.57</v>
       </c>
       <c r="AN159">
+        <v>1.6</v>
+      </c>
+      <c r="AO159">
+        <v>1.47</v>
+      </c>
+      <c r="AP159">
         <v>1.71</v>
       </c>
-      <c r="AO159">
-        <v>2.13</v>
-      </c>
-      <c r="AP159">
-        <v>2</v>
-      </c>
       <c r="AQ159">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR159">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="AS159">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AT159">
-        <v>3.13</v>
+        <v>3</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34268,25 +34268,25 @@
         <v>1.83</v>
       </c>
       <c r="AN160">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AO160">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP160">
         <v>1.58</v>
       </c>
       <c r="AQ160">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR160">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT160">
-        <v>3.23</v>
+        <v>3.04</v>
       </c>
       <c r="AU160">
         <v>3</v>
@@ -34474,25 +34474,25 @@
         <v>1.17</v>
       </c>
       <c r="AN161">
+        <v>0.8</v>
+      </c>
+      <c r="AO161">
+        <v>1.73</v>
+      </c>
+      <c r="AP161">
+        <v>0.88</v>
+      </c>
+      <c r="AQ161">
+        <v>1.58</v>
+      </c>
+      <c r="AR161">
         <v>1.14</v>
       </c>
-      <c r="AO161">
-        <v>1.71</v>
-      </c>
-      <c r="AP161">
-        <v>1.08</v>
-      </c>
-      <c r="AQ161">
-        <v>1.54</v>
-      </c>
-      <c r="AR161">
-        <v>1.13</v>
-      </c>
       <c r="AS161">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
       <c r="AT161">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="AU161">
         <v>6</v>
@@ -34680,25 +34680,25 @@
         <v>1.61</v>
       </c>
       <c r="AN162">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AO162">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP162">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ162">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR162">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AS162">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AT162">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="AU162">
         <v>2</v>
@@ -34886,25 +34886,25 @@
         <v>1.47</v>
       </c>
       <c r="AN163">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AO163">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP163">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AQ163">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR163">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS163">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT163">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="AU163">
         <v>2</v>
@@ -35092,25 +35092,25 @@
         <v>1.47</v>
       </c>
       <c r="AN164">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="AO164">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ164">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR164">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="AS164">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="AT164">
-        <v>3.37</v>
+        <v>3.59</v>
       </c>
       <c r="AU164">
         <v>2</v>
@@ -35298,25 +35298,25 @@
         <v>1.28</v>
       </c>
       <c r="AN165">
-        <v>0.71</v>
+        <v>1.38</v>
       </c>
       <c r="AO165">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AP165">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ165">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR165">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AS165">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AT165">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35504,25 +35504,25 @@
         <v>1.5</v>
       </c>
       <c r="AN166">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AO166">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AP166">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ166">
+        <v>1.71</v>
+      </c>
+      <c r="AR166">
+        <v>1.42</v>
+      </c>
+      <c r="AS166">
         <v>1.46</v>
       </c>
-      <c r="AR166">
-        <v>1.6</v>
-      </c>
-      <c r="AS166">
-        <v>1.44</v>
-      </c>
       <c r="AT166">
-        <v>3.04</v>
+        <v>2.88</v>
       </c>
       <c r="AU166">
         <v>5</v>
@@ -35710,25 +35710,25 @@
         <v>2.1</v>
       </c>
       <c r="AN167">
+        <v>1.38</v>
+      </c>
+      <c r="AO167">
+        <v>0.38</v>
+      </c>
+      <c r="AP167">
         <v>1.29</v>
       </c>
-      <c r="AO167">
-        <v>0.57</v>
-      </c>
-      <c r="AP167">
-        <v>1.42</v>
-      </c>
       <c r="AQ167">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR167">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AS167">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AT167">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="AU167">
         <v>5</v>
@@ -35916,25 +35916,25 @@
         <v>1.95</v>
       </c>
       <c r="AN168">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AO168">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="AP168">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ168">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AR168">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AS168">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AT168">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="AU168">
         <v>4</v>
@@ -36122,25 +36122,25 @@
         <v>2.2</v>
       </c>
       <c r="AN169">
-        <v>2.71</v>
+        <v>2.31</v>
       </c>
       <c r="AO169">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AP169">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ169">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="AR169">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AS169">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AT169">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36328,25 +36328,25 @@
         <v>1.53</v>
       </c>
       <c r="AN170">
-        <v>0.78</v>
+        <v>1.06</v>
       </c>
       <c r="AO170">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AP170">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ170">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR170">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AS170">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AT170">
-        <v>2.93</v>
+        <v>3.04</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36534,25 +36534,25 @@
         <v>1.44</v>
       </c>
       <c r="AN171">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AO171">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AP171">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ171">
         <v>1.58</v>
       </c>
       <c r="AR171">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AS171">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AT171">
-        <v>2.92</v>
+        <v>3.04</v>
       </c>
       <c r="AU171">
         <v>2</v>
@@ -36740,25 +36740,25 @@
         <v>1.3</v>
       </c>
       <c r="AN172">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="AO172">
-        <v>1.89</v>
+        <v>1.29</v>
       </c>
       <c r="AP172">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AQ172">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR172">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AS172">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AT172">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="AU172">
         <v>5</v>
@@ -36946,25 +36946,25 @@
         <v>1.55</v>
       </c>
       <c r="AN173">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AO173">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="AP173">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ173">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AR173">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AS173">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="AT173">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AU173">
         <v>6</v>
@@ -37152,25 +37152,25 @@
         <v>1.74</v>
       </c>
       <c r="AN174">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="AO174">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="AP174">
+        <v>1.5</v>
+      </c>
+      <c r="AQ174">
+        <v>1.71</v>
+      </c>
+      <c r="AR174">
         <v>1.83</v>
       </c>
-      <c r="AQ174">
-        <v>1.46</v>
-      </c>
-      <c r="AR174">
-        <v>2.17</v>
-      </c>
       <c r="AS174">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT174">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="AU174">
         <v>7</v>
@@ -37358,25 +37358,25 @@
         <v>2.78</v>
       </c>
       <c r="AN175">
-        <v>2.13</v>
+        <v>1.82</v>
       </c>
       <c r="AO175">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AP175">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ175">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
       </c>
       <c r="AS175">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="AT175">
-        <v>3.02</v>
+        <v>2.92</v>
       </c>
       <c r="AU175">
         <v>9</v>
@@ -37564,25 +37564,25 @@
         <v>1.65</v>
       </c>
       <c r="AN176">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AO176">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AP176">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ176">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
       </c>
       <c r="AS176">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AT176">
-        <v>2.81</v>
+        <v>2.99</v>
       </c>
       <c r="AU176">
         <v>5</v>
@@ -37770,25 +37770,25 @@
         <v>1.36</v>
       </c>
       <c r="AN177">
-        <v>1.13</v>
+        <v>0.82</v>
       </c>
       <c r="AO177">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AP177">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AQ177">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR177">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AS177">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AT177">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="AU177">
         <v>3</v>
@@ -37976,25 +37976,25 @@
         <v>1.25</v>
       </c>
       <c r="AN178">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AO178">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="AP178">
         <v>1.58</v>
       </c>
       <c r="AQ178">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR178">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AS178">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AT178">
-        <v>3.13</v>
+        <v>3.17</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38182,25 +38182,25 @@
         <v>1.36</v>
       </c>
       <c r="AN179">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AO179">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="AP179">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ179">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR179">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AS179">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="AT179">
-        <v>3.21</v>
+        <v>3.14</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38388,25 +38388,25 @@
         <v>1.22</v>
       </c>
       <c r="AN180">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="AO180">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AP180">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ180">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR180">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AS180">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="AT180">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="AU180">
         <v>2</v>
@@ -38594,25 +38594,25 @@
         <v>1.29</v>
       </c>
       <c r="AN181">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AO181">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AQ181">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR181">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AS181">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="AT181">
-        <v>2.83</v>
+        <v>2.72</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38800,25 +38800,25 @@
         <v>1.55</v>
       </c>
       <c r="AN182">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO182">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="AP182">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ182">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR182">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AS182">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AT182">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="AU182">
         <v>7</v>
@@ -39006,25 +39006,25 @@
         <v>1.5</v>
       </c>
       <c r="AN183">
-        <v>0.63</v>
+        <v>1.22</v>
       </c>
       <c r="AO183">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AP183">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ183">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AR183">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AS183">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="AT183">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="AU183">
         <v>4</v>
@@ -39212,25 +39212,25 @@
         <v>2.8</v>
       </c>
       <c r="AN184">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="AO184">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AP184">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ184">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR184">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="AS184">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="AT184">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU184">
         <v>7</v>
@@ -39418,25 +39418,25 @@
         <v>1.16</v>
       </c>
       <c r="AN185">
-        <v>0.78</v>
+        <v>1.22</v>
       </c>
       <c r="AO185">
-        <v>1.56</v>
+        <v>1.89</v>
       </c>
       <c r="AP185">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR185">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS185">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AT185">
-        <v>3.06</v>
+        <v>2.99</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39624,25 +39624,25 @@
         <v>1.3</v>
       </c>
       <c r="AN186">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AO186">
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ186">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="AR186">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AS186">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AT186">
-        <v>2.61</v>
+        <v>2.79</v>
       </c>
       <c r="AU186">
         <v>3</v>
@@ -39830,25 +39830,25 @@
         <v>1.28</v>
       </c>
       <c r="AN187">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AO187">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AP187">
         <v>1.58</v>
       </c>
       <c r="AQ187">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR187">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS187">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="AT187">
-        <v>3.17</v>
+        <v>3.38</v>
       </c>
       <c r="AU187">
         <v>4</v>
@@ -40036,25 +40036,25 @@
         <v>1.53</v>
       </c>
       <c r="AN188">
-        <v>0.89</v>
+        <v>0.72</v>
       </c>
       <c r="AO188">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="AP188">
+        <v>0.88</v>
+      </c>
+      <c r="AQ188">
+        <v>0.54</v>
+      </c>
+      <c r="AR188">
+        <v>1.17</v>
+      </c>
+      <c r="AS188">
         <v>1.08</v>
       </c>
-      <c r="AQ188">
-        <v>0.83</v>
-      </c>
-      <c r="AR188">
-        <v>1.2</v>
-      </c>
-      <c r="AS188">
-        <v>1.12</v>
-      </c>
       <c r="AT188">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="AU188">
         <v>5</v>
@@ -40242,25 +40242,25 @@
         <v>1.6</v>
       </c>
       <c r="AN189">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AO189">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="AP189">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ189">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR189">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AS189">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AT189">
-        <v>3.02</v>
+        <v>2.85</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40448,25 +40448,25 @@
         <v>1.99</v>
       </c>
       <c r="AN190">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AO190">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AP190">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ190">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR190">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AS190">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="AT190">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="AU190">
         <v>5</v>
@@ -40654,25 +40654,25 @@
         <v>1.15</v>
       </c>
       <c r="AN191">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="AO191">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AP191">
+        <v>1.25</v>
+      </c>
+      <c r="AQ191">
+        <v>2.08</v>
+      </c>
+      <c r="AR191">
         <v>1.38</v>
       </c>
-      <c r="AQ191">
-        <v>1.85</v>
-      </c>
-      <c r="AR191">
-        <v>1.35</v>
-      </c>
       <c r="AS191">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AT191">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="AU191">
         <v>3</v>
@@ -40860,25 +40860,25 @@
         <v>1.39</v>
       </c>
       <c r="AN192">
-        <v>1.11</v>
+        <v>0.84</v>
       </c>
       <c r="AO192">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AP192">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AQ192">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR192">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AS192">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AT192">
-        <v>2.74</v>
+        <v>2.87</v>
       </c>
       <c r="AU192">
         <v>3</v>
@@ -41066,25 +41066,25 @@
         <v>1.66</v>
       </c>
       <c r="AN193">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO193">
-        <v>1.7</v>
+        <v>1.21</v>
       </c>
       <c r="AP193">
+        <v>1.42</v>
+      </c>
+      <c r="AQ193">
         <v>1.08</v>
       </c>
-      <c r="AQ193">
+      <c r="AR193">
         <v>1.58</v>
       </c>
-      <c r="AR193">
-        <v>1.59</v>
-      </c>
       <c r="AS193">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AT193">
-        <v>3.13</v>
+        <v>3.02</v>
       </c>
       <c r="AU193">
         <v>2</v>
@@ -41272,25 +41272,25 @@
         <v>1.47</v>
       </c>
       <c r="AN194">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AO194">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AP194">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ194">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR194">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS194">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AT194">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AU194">
         <v>4</v>
@@ -41478,25 +41478,25 @@
         <v>1.44</v>
       </c>
       <c r="AN195">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="AO195">
-        <v>2.33</v>
+        <v>2.17</v>
       </c>
       <c r="AP195">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ195">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR195">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AS195">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AT195">
-        <v>3.33</v>
+        <v>3.08</v>
       </c>
       <c r="AU195">
         <v>4</v>
@@ -41684,25 +41684,25 @@
         <v>1.1</v>
       </c>
       <c r="AN196">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="AO196">
-        <v>1.8</v>
+        <v>2.26</v>
       </c>
       <c r="AP196">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ196">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR196">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AS196">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AT196">
-        <v>2.66</v>
+        <v>2.91</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -41890,25 +41890,25 @@
         <v>1.42</v>
       </c>
       <c r="AN197">
-        <v>0.7</v>
+        <v>1.11</v>
       </c>
       <c r="AO197">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AP197">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ197">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR197">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AS197">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AT197">
-        <v>2.94</v>
+        <v>2.99</v>
       </c>
       <c r="AU197">
         <v>3</v>
@@ -42096,25 +42096,25 @@
         <v>1.75</v>
       </c>
       <c r="AN198">
-        <v>0.9</v>
+        <v>1.26</v>
       </c>
       <c r="AO198">
-        <v>0.5600000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="AP198">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ198">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR198">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AS198">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AT198">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="AU198">
         <v>4</v>
@@ -42302,25 +42302,25 @@
         <v>1.22</v>
       </c>
       <c r="AN199">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="AO199">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AP199">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ199">
         <v>1.58</v>
       </c>
       <c r="AR199">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AS199">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AT199">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="AU199">
         <v>2</v>
@@ -42508,25 +42508,25 @@
         <v>2.05</v>
       </c>
       <c r="AN200">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="AO200">
-        <v>1.67</v>
+        <v>1.16</v>
       </c>
       <c r="AP200">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ200">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AR200">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="AS200">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="AT200">
-        <v>3.43</v>
+        <v>3.18</v>
       </c>
       <c r="AU200">
         <v>5</v>
@@ -42714,25 +42714,25 @@
         <v>1.5</v>
       </c>
       <c r="AN201">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AO201">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AP201">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ201">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AR201">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AS201">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="AT201">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="AU201">
         <v>4</v>
@@ -42920,25 +42920,25 @@
         <v>2.25</v>
       </c>
       <c r="AN202">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AO202">
-        <v>1.56</v>
+        <v>1.05</v>
       </c>
       <c r="AP202">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ202">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR202">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AS202">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT202">
-        <v>3.22</v>
+        <v>3.12</v>
       </c>
       <c r="AU202">
         <v>10</v>
@@ -43126,25 +43126,25 @@
         <v>2.1</v>
       </c>
       <c r="AN203">
-        <v>0.67</v>
+        <v>1.2</v>
       </c>
       <c r="AO203">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP203">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ203">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR203">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AS203">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AT203">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU203">
         <v>7</v>
@@ -43332,25 +43332,25 @@
         <v>1.12</v>
       </c>
       <c r="AN204">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="AO204">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="AP204">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AQ204">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR204">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS204">
-        <v>1.53</v>
+        <v>1.79</v>
       </c>
       <c r="AT204">
-        <v>2.75</v>
+        <v>2.98</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43538,25 +43538,25 @@
         <v>2.35</v>
       </c>
       <c r="AN205">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AO205">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="AP205">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ205">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR205">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AS205">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT205">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AU205">
         <v>9</v>
@@ -43744,25 +43744,25 @@
         <v>1.44</v>
       </c>
       <c r="AN206">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AO206">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AP206">
         <v>1.58</v>
       </c>
       <c r="AQ206">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR206">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="AS206">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="AT206">
-        <v>3.15</v>
+        <v>3.07</v>
       </c>
       <c r="AU206">
         <v>0</v>
@@ -43950,25 +43950,25 @@
         <v>2.3</v>
       </c>
       <c r="AN207">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AO207">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP207">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ207">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR207">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="AS207">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AT207">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="AU207">
         <v>3</v>
@@ -44156,25 +44156,25 @@
         <v>1.52</v>
       </c>
       <c r="AN208">
-        <v>1.3</v>
+        <v>0.95</v>
       </c>
       <c r="AO208">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AP208">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AQ208">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR208">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AS208">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT208">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AU208">
         <v>4</v>
@@ -44362,25 +44362,25 @@
         <v>1.18</v>
       </c>
       <c r="AN209">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AO209">
-        <v>1.64</v>
+        <v>2.15</v>
       </c>
       <c r="AP209">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ209">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR209">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AS209">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT209">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="AU209">
         <v>4</v>
@@ -44568,25 +44568,25 @@
         <v>1.52</v>
       </c>
       <c r="AN210">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AO210">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="AP210">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ210">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="AR210">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="AS210">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT210">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="AU210">
         <v>6</v>
@@ -44774,25 +44774,25 @@
         <v>1.62</v>
       </c>
       <c r="AN211">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AO211">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AP211">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ211">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR211">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="AS211">
         <v>1.55</v>
       </c>
       <c r="AT211">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="AU211">
         <v>4</v>
@@ -44980,25 +44980,25 @@
         <v>1.32</v>
       </c>
       <c r="AN212">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="AO212">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AP212">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ212">
         <v>1.58</v>
       </c>
       <c r="AR212">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AS212">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="AT212">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU212">
         <v>2</v>
@@ -45186,25 +45186,25 @@
         <v>1.75</v>
       </c>
       <c r="AN213">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="AO213">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="AP213">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AQ213">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR213">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AS213">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AT213">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45392,25 +45392,25 @@
         <v>1.22</v>
       </c>
       <c r="AN214">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AO214">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="AP214">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ214">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR214">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AS214">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AT214">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="AU214">
         <v>4</v>
@@ -45598,25 +45598,25 @@
         <v>2.1</v>
       </c>
       <c r="AN215">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO215">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AP215">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ215">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR215">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="AS215">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AT215">
-        <v>2.73</v>
+        <v>2.59</v>
       </c>
       <c r="AU215">
         <v>5</v>
@@ -45804,25 +45804,25 @@
         <v>1.27</v>
       </c>
       <c r="AN216">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="AO216">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="AP216">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="AQ216">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR216">
         <v>1.06</v>
       </c>
       <c r="AS216">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AT216">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="AU216">
         <v>2</v>
@@ -46010,25 +46010,25 @@
         <v>1.24</v>
       </c>
       <c r="AN217">
-        <v>0.91</v>
+        <v>1.19</v>
       </c>
       <c r="AO217">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="AP217">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ217">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR217">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AS217">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="AT217">
-        <v>3.27</v>
+        <v>3.07</v>
       </c>
       <c r="AU217">
         <v>4</v>
@@ -46216,25 +46216,25 @@
         <v>1.32</v>
       </c>
       <c r="AN218">
-        <v>0.82</v>
+        <v>1.14</v>
       </c>
       <c r="AO218">
-        <v>1.64</v>
+        <v>1.14</v>
       </c>
       <c r="AP218">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ218">
-        <v>1.58</v>
+        <v>1.08</v>
       </c>
       <c r="AR218">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AS218">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT218">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="AU218">
         <v>2</v>
@@ -46422,25 +46422,25 @@
         <v>1.53</v>
       </c>
       <c r="AN219">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO219">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AP219">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ219">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AR219">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AS219">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT219">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="AU219">
         <v>4</v>
@@ -46628,25 +46628,25 @@
         <v>1.75</v>
       </c>
       <c r="AN220">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
       <c r="AO220">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="AP220">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ220">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR220">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AS220">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AT220">
-        <v>3.35</v>
+        <v>3.12</v>
       </c>
       <c r="AU220">
         <v>9</v>
@@ -46834,25 +46834,25 @@
         <v>2.38</v>
       </c>
       <c r="AN221">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="AO221">
-        <v>0.6</v>
+        <v>1.05</v>
       </c>
       <c r="AP221">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ221">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR221">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="AS221">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AT221">
-        <v>3.5</v>
+        <v>3.14</v>
       </c>
       <c r="AU221">
         <v>5</v>
@@ -47040,25 +47040,25 @@
         <v>1.44</v>
       </c>
       <c r="AN222">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="AO222">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP222">
+        <v>1.25</v>
+      </c>
+      <c r="AQ222">
+        <v>0.96</v>
+      </c>
+      <c r="AR222">
         <v>1.38</v>
       </c>
-      <c r="AQ222">
-        <v>0.73</v>
-      </c>
-      <c r="AR222">
-        <v>1.33</v>
-      </c>
       <c r="AS222">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AT222">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="AU222">
         <v>4</v>
@@ -47246,25 +47246,25 @@
         <v>1.85</v>
       </c>
       <c r="AN223">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="AO223">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AP223">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="AQ223">
-        <v>1.64</v>
+        <v>1.17</v>
       </c>
       <c r="AR223">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AS223">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AT223">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="AU223">
         <v>7</v>
@@ -47452,25 +47452,25 @@
         <v>1.98</v>
       </c>
       <c r="AN224">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="AO224">
         <v>1.27</v>
       </c>
       <c r="AP224">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="AQ224">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR224">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="AS224">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AT224">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="AU224">
         <v>5</v>
@@ -47658,25 +47658,25 @@
         <v>1.57</v>
       </c>
       <c r="AN225">
-        <v>0.6</v>
+        <v>1.14</v>
       </c>
       <c r="AO225">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AP225">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ225">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AR225">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AS225">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AT225">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AU225">
         <v>5</v>
@@ -47864,25 +47864,25 @@
         <v>1.76</v>
       </c>
       <c r="AN226">
-        <v>2.8</v>
+        <v>2.09</v>
       </c>
       <c r="AO226">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="AP226">
-        <v>2.82</v>
+        <v>2.17</v>
       </c>
       <c r="AQ226">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR226">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="AS226">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="AT226">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="AU226">
         <v>3</v>
@@ -48070,25 +48070,25 @@
         <v>1.97</v>
       </c>
       <c r="AN227">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AO227">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
       <c r="AP227">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ227">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="AR227">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="AS227">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AT227">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
       <c r="AU227">
         <v>8</v>
@@ -48276,25 +48276,25 @@
         <v>1.64</v>
       </c>
       <c r="AN228">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="AO228">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="AP228">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ228">
+        <v>1.58</v>
+      </c>
+      <c r="AR228">
         <v>1.54</v>
       </c>
-      <c r="AR228">
-        <v>1.52</v>
-      </c>
       <c r="AS228">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AT228">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48482,25 +48482,25 @@
         <v>1.69</v>
       </c>
       <c r="AN229">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AO229">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AP229">
         <v>1.58</v>
       </c>
       <c r="AQ229">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AR229">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AS229">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT229">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
       <c r="AU229">
         <v>4</v>
@@ -48688,25 +48688,25 @@
         <v>2.2</v>
       </c>
       <c r="AN230">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AO230">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AP230">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="AQ230">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR230">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AS230">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AT230">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="AU230">
         <v>3</v>
@@ -48894,25 +48894,25 @@
         <v>1.72</v>
       </c>
       <c r="AN231">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="AO231">
-        <v>0.6</v>
+        <v>0.41</v>
       </c>
       <c r="AP231">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="AQ231">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR231">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AS231">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT231">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="AU231">
         <v>0</v>
@@ -49100,25 +49100,25 @@
         <v>1.65</v>
       </c>
       <c r="AN232">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AO232">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="AP232">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AQ232">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AR232">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AS232">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AT232">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="AU232">
         <v>5</v>
@@ -49306,25 +49306,25 @@
         <v>1.9</v>
       </c>
       <c r="AN233">
-        <v>1.45</v>
+        <v>0.96</v>
       </c>
       <c r="AO233">
-        <v>0.82</v>
+        <v>0.52</v>
       </c>
       <c r="AP233">
-        <v>1.42</v>
+        <v>0.96</v>
       </c>
       <c r="AQ233">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="AR233">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AS233">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AT233">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
       <c r="AU233">
         <v>2</v>
@@ -49512,43 +49512,43 @@
         <v>1.45</v>
       </c>
       <c r="AN234">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AO234">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AP234">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ234">
         <v>1.58</v>
       </c>
       <c r="AR234">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS234">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT234">
-        <v>2.97</v>
+        <v>2.92</v>
       </c>
       <c r="AU234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV234">
         <v>0</v>
       </c>
       <c r="AW234">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY234">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA234">
         <v>4</v>
@@ -49718,43 +49718,43 @@
         <v>1.11</v>
       </c>
       <c r="AN235">
-        <v>1.17</v>
+        <v>0.96</v>
       </c>
       <c r="AO235">
-        <v>1.92</v>
+        <v>2.13</v>
       </c>
       <c r="AP235">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="AQ235">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="AR235">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AS235">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="AT235">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="AU235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV235">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW235">
         <v>4</v>
       </c>
       <c r="AX235">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY235">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ235">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA235">
         <v>1</v>
@@ -49924,43 +49924,43 @@
         <v>1.42</v>
       </c>
       <c r="AN236">
-        <v>0.55</v>
+        <v>1.09</v>
       </c>
       <c r="AO236">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AP236">
-        <v>0.58</v>
+        <v>1.08</v>
       </c>
       <c r="AQ236">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR236">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AS236">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT236">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU236">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV236">
         <v>5</v>
       </c>
       <c r="AW236">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX236">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AY236">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ236">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA236">
         <v>3</v>
@@ -50130,25 +50130,25 @@
         <v>1.15</v>
       </c>
       <c r="AN237">
-        <v>0.83</v>
+        <v>1.22</v>
       </c>
       <c r="AO237">
-        <v>1.5</v>
+        <v>2.13</v>
       </c>
       <c r="AP237">
-        <v>0.77</v>
+        <v>1.17</v>
       </c>
       <c r="AQ237">
-        <v>1.62</v>
+        <v>2.17</v>
       </c>
       <c r="AR237">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AS237">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AT237">
-        <v>2.71</v>
+        <v>2.9</v>
       </c>
       <c r="AU237">
         <v>4</v>
@@ -50336,25 +50336,25 @@
         <v>1.47</v>
       </c>
       <c r="AN238">
-        <v>0.92</v>
+        <v>1.26</v>
       </c>
       <c r="AO238">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AP238">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AQ238">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="AR238">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AS238">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="AT238">
-        <v>2.69</v>
+        <v>2.74</v>
       </c>
       <c r="AU238">
         <v>3</v>
@@ -50542,25 +50542,25 @@
         <v>1.18</v>
       </c>
       <c r="AN239">
-        <v>1.09</v>
+        <v>0.87</v>
       </c>
       <c r="AO239">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="AP239">
-        <v>1.08</v>
+        <v>0.88</v>
       </c>
       <c r="AQ239">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="AR239">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AS239">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT239">
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -50748,25 +50748,25 @@
         <v>1.57</v>
       </c>
       <c r="AN240">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AO240">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="AP240">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AQ240">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AR240">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="AS240">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AT240">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="AU240">
         <v>3</v>
@@ -50954,25 +50954,25 @@
         <v>2.1</v>
       </c>
       <c r="AN241">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO241">
-        <v>1.27</v>
+        <v>1.04</v>
       </c>
       <c r="AP241">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ241">
-        <v>1.42</v>
+        <v>1.13</v>
       </c>
       <c r="AR241">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="AS241">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AT241">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="AU241">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -1726,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ2">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ3">
         <v>1.58</v>
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ5">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ8">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3374,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ10">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3580,10 +3580,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ11">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3780,25 +3780,25 @@
         <v>1.75</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12">
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR12">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AS12">
         <v>1.76</v>
       </c>
       <c r="AT12">
-        <v>3.5</v>
+        <v>1.76</v>
       </c>
       <c r="AU12">
         <v>3</v>
@@ -3992,10 +3992,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ13">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -4195,22 +4195,22 @@
         <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
       </c>
       <c r="AS14">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.64</v>
+        <v>1.52</v>
       </c>
       <c r="AU14">
         <v>9</v>
@@ -4398,25 +4398,25 @@
         <v>2.8</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ15">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>11</v>
@@ -4607,22 +4607,22 @@
         <v>1</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ16">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
       </c>
       <c r="AS16">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>2.98</v>
+        <v>1.51</v>
       </c>
       <c r="AU16">
         <v>4</v>
@@ -4810,25 +4810,25 @@
         <v>1.6</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AR17">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>5</v>
@@ -5019,22 +5019,22 @@
         <v>0</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ18">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR18">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>3.43</v>
+        <v>0</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -5222,7 +5222,7 @@
         <v>1.35</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19">
         <v>0</v>
@@ -5231,16 +5231,16 @@
         <v>1.58</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AS19">
         <v>1.71</v>
       </c>
       <c r="AT19">
-        <v>3.17</v>
+        <v>1.71</v>
       </c>
       <c r="AU19">
         <v>6</v>
@@ -5431,22 +5431,22 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ20">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>2.77</v>
+        <v>1.77</v>
       </c>
       <c r="AU20">
         <v>7</v>
@@ -5640,19 +5640,19 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ21">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR21">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS21">
         <v>0.93</v>
       </c>
       <c r="AT21">
-        <v>1.74</v>
+        <v>0.93</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5846,19 +5846,19 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AS22">
         <v>1.22</v>
       </c>
       <c r="AT22">
-        <v>2.24</v>
+        <v>2.41</v>
       </c>
       <c r="AU22">
         <v>3</v>
@@ -6046,25 +6046,25 @@
         <v>1.88</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO23">
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ23">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT23">
-        <v>2.68</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6258,19 +6258,19 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ24">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS24">
         <v>1.14</v>
       </c>
       <c r="AT24">
-        <v>2.51</v>
+        <v>2.61</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6458,25 +6458,25 @@
         <v>1.57</v>
       </c>
       <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>1.08</v>
+      </c>
+      <c r="AQ25">
         <v>0.5</v>
-      </c>
-      <c r="AO25">
-        <v>2</v>
-      </c>
-      <c r="AP25">
-        <v>1.42</v>
-      </c>
-      <c r="AQ25">
-        <v>0.96</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
       </c>
       <c r="AS25">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="AT25">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6664,25 +6664,25 @@
         <v>1.8</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ26">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR26">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AU26">
         <v>8</v>
@@ -6870,25 +6870,25 @@
         <v>1.3</v>
       </c>
       <c r="AN27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR27">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="AS27">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>2.68</v>
+        <v>1.12</v>
       </c>
       <c r="AU27">
         <v>4</v>
@@ -7076,25 +7076,25 @@
         <v>1.95</v>
       </c>
       <c r="AN28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>1.58</v>
       </c>
       <c r="AR28">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="AS28">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AT28">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -7282,25 +7282,25 @@
         <v>1.2</v>
       </c>
       <c r="AN29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO29">
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR29">
-        <v>1.33</v>
+        <v>0.91</v>
       </c>
       <c r="AS29">
-        <v>2.01</v>
+        <v>1.79</v>
       </c>
       <c r="AT29">
-        <v>3.34</v>
+        <v>2.7</v>
       </c>
       <c r="AU29">
         <v>8</v>
@@ -7488,25 +7488,25 @@
         <v>1.44</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP30">
+        <v>1.58</v>
+      </c>
+      <c r="AQ30">
         <v>1.42</v>
       </c>
-      <c r="AQ30">
-        <v>1.13</v>
-      </c>
       <c r="AR30">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="AS30">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>3.23</v>
+        <v>1.25</v>
       </c>
       <c r="AU30">
         <v>5</v>
@@ -7697,22 +7697,22 @@
         <v>1</v>
       </c>
       <c r="AO31">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.09</v>
+        <v>0</v>
       </c>
       <c r="AT31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7900,25 +7900,25 @@
         <v>1.29</v>
       </c>
       <c r="AN32">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ32">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR32">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="AS32">
-        <v>1.88</v>
+        <v>1.41</v>
       </c>
       <c r="AT32">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -8106,25 +8106,25 @@
         <v>2.03</v>
       </c>
       <c r="AN33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO33">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR33">
-        <v>1.79</v>
+        <v>2.23</v>
       </c>
       <c r="AS33">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="AT33">
-        <v>3.22</v>
+        <v>3.89</v>
       </c>
       <c r="AU33">
         <v>10</v>
@@ -8312,25 +8312,25 @@
         <v>1.64</v>
       </c>
       <c r="AN34">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ34">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR34">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="AS34">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AT34">
-        <v>2.25</v>
+        <v>2.58</v>
       </c>
       <c r="AU34">
         <v>4</v>
@@ -8518,25 +8518,25 @@
         <v>1.47</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AR35">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AS35">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="AT35">
-        <v>2.28</v>
+        <v>2.11</v>
       </c>
       <c r="AU35">
         <v>6</v>
@@ -8724,25 +8724,25 @@
         <v>1.42</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR36">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="AT36">
-        <v>2.65</v>
+        <v>1.81</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8930,25 +8930,25 @@
         <v>1.5</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ37">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR37">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="AT37">
-        <v>3.22</v>
+        <v>1.34</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -9136,25 +9136,25 @@
         <v>1.39</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ38">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR38">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="AS38">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="AT38">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="AU38">
         <v>3</v>
@@ -9342,25 +9342,25 @@
         <v>1.25</v>
       </c>
       <c r="AN39">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP39">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR39">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AS39">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT39">
-        <v>3.68</v>
+        <v>3.97</v>
       </c>
       <c r="AU39">
         <v>5</v>
@@ -9548,25 +9548,25 @@
         <v>1.62</v>
       </c>
       <c r="AN40">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO40">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ40">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS40">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="AT40">
-        <v>3.47</v>
+        <v>3.23</v>
       </c>
       <c r="AU40">
         <v>3</v>
@@ -9754,25 +9754,25 @@
         <v>1.28</v>
       </c>
       <c r="AN41">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO41">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP41">
         <v>1.58</v>
       </c>
       <c r="AQ41">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR41">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AS41">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="AT41">
-        <v>2.76</v>
+        <v>2.99</v>
       </c>
       <c r="AU41">
         <v>4</v>
@@ -9960,25 +9960,25 @@
         <v>2.14</v>
       </c>
       <c r="AN42">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO42">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR42">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
       <c r="AS42">
         <v>1.4</v>
       </c>
       <c r="AT42">
-        <v>3.21</v>
+        <v>3.52</v>
       </c>
       <c r="AU42">
         <v>6</v>
@@ -10166,25 +10166,25 @@
         <v>1.71</v>
       </c>
       <c r="AN43">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ43">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS43">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AT43">
-        <v>2.79</v>
+        <v>2.77</v>
       </c>
       <c r="AU43">
         <v>2</v>
@@ -10372,25 +10372,25 @@
         <v>2.52</v>
       </c>
       <c r="AN44">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ44">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR44">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AS44">
-        <v>1.06</v>
+        <v>0.83</v>
       </c>
       <c r="AT44">
-        <v>2.55</v>
+        <v>2.39</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -10578,25 +10578,25 @@
         <v>1.63</v>
       </c>
       <c r="AN45">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>0.58</v>
+      </c>
+      <c r="AQ45">
         <v>1.75</v>
       </c>
-      <c r="AP45">
-        <v>1.08</v>
-      </c>
-      <c r="AQ45">
-        <v>1.42</v>
-      </c>
       <c r="AR45">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="AS45">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="AT45">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="AU45">
         <v>5</v>
@@ -10784,25 +10784,25 @@
         <v>1.9</v>
       </c>
       <c r="AN46">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO46">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR46">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="AS46">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AT46">
-        <v>2.51</v>
+        <v>2.89</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10993,22 +10993,22 @@
         <v>1.5</v>
       </c>
       <c r="AO47">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR47">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="AS47">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="AT47">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="AU47">
         <v>2</v>
@@ -11202,19 +11202,19 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="AS48">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AT48">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="AU48">
         <v>3</v>
@@ -11402,25 +11402,25 @@
         <v>1.82</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ49">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR49">
-        <v>1.39</v>
+        <v>1.94</v>
       </c>
       <c r="AS49">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AT49">
-        <v>3.08</v>
+        <v>3.89</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11611,22 +11611,22 @@
         <v>1.5</v>
       </c>
       <c r="AO50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ50">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR50">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="AS50">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT50">
-        <v>2.84</v>
+        <v>2.54</v>
       </c>
       <c r="AU50">
         <v>2</v>
@@ -11814,25 +11814,25 @@
         <v>1.47</v>
       </c>
       <c r="AN51">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ51">
         <v>1.58</v>
       </c>
       <c r="AR51">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="AS51">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AT51">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -12020,25 +12020,25 @@
         <v>1.3</v>
       </c>
       <c r="AN52">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="AO52">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ52">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR52">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AS52">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AT52">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12226,22 +12226,22 @@
         <v>1.44</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ53">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR53">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AS53">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT53">
         <v>2.92</v>
@@ -12432,25 +12432,25 @@
         <v>1.55</v>
       </c>
       <c r="AN54">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO54">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP54">
         <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
       </c>
       <c r="AS54">
-        <v>1.52</v>
+        <v>1.89</v>
       </c>
       <c r="AT54">
-        <v>2.93</v>
+        <v>3.3</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12638,25 +12638,25 @@
         <v>2.2</v>
       </c>
       <c r="AN55">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="AO55">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="AS55">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AT55">
-        <v>3.44</v>
+        <v>3.88</v>
       </c>
       <c r="AU55">
         <v>4</v>
@@ -12844,25 +12844,25 @@
         <v>1.57</v>
       </c>
       <c r="AN56">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="AO56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR56">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="AS56">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AT56">
-        <v>3.14</v>
+        <v>3.36</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -13050,25 +13050,25 @@
         <v>1.18</v>
       </c>
       <c r="AN57">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO57">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
       </c>
       <c r="AS57">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="AT57">
-        <v>3.39</v>
+        <v>3.28</v>
       </c>
       <c r="AU57">
         <v>5</v>
@@ -13256,25 +13256,25 @@
         <v>1.42</v>
       </c>
       <c r="AN58">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO58">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ58">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="AS58">
-        <v>1.06</v>
+        <v>0.98</v>
       </c>
       <c r="AT58">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="AU58">
         <v>4</v>
@@ -13462,25 +13462,25 @@
         <v>1.9</v>
       </c>
       <c r="AN59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AO59">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ59">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AR59">
-        <v>1.39</v>
+        <v>1.94</v>
       </c>
       <c r="AS59">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AT59">
-        <v>2.52</v>
+        <v>3.16</v>
       </c>
       <c r="AU59">
         <v>7</v>
@@ -13668,25 +13668,25 @@
         <v>1.3</v>
       </c>
       <c r="AN60">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR60">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
       <c r="AS60">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT60">
-        <v>2.34</v>
+        <v>2.23</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13874,25 +13874,25 @@
         <v>1.17</v>
       </c>
       <c r="AN61">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AO61">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ61">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR61">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AS61">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AT61">
-        <v>2.87</v>
+        <v>2.64</v>
       </c>
       <c r="AU61">
         <v>3</v>
@@ -14080,25 +14080,25 @@
         <v>2.1</v>
       </c>
       <c r="AN62">
-        <v>1.83</v>
+        <v>0.5</v>
       </c>
       <c r="AO62">
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ62">
         <v>1.58</v>
       </c>
       <c r="AR62">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="AS62">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AT62">
-        <v>3.05</v>
+        <v>2.79</v>
       </c>
       <c r="AU62">
         <v>3</v>
@@ -14286,25 +14286,25 @@
         <v>1.62</v>
       </c>
       <c r="AN63">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ63">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR63">
-        <v>1.21</v>
+        <v>1.03</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT63">
-        <v>2.21</v>
+        <v>1.86</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14492,25 +14492,25 @@
         <v>1.52</v>
       </c>
       <c r="AN64">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO64">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ64">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR64">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="AS64">
-        <v>1.76</v>
+        <v>2.07</v>
       </c>
       <c r="AT64">
-        <v>3.22</v>
+        <v>3.27</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14698,25 +14698,25 @@
         <v>1.21</v>
       </c>
       <c r="AN65">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AO65">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR65">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="AS65">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="AT65">
-        <v>3.04</v>
+        <v>2.85</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14904,25 +14904,25 @@
         <v>1.57</v>
       </c>
       <c r="AN66">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO66">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ66">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT66">
-        <v>2.73</v>
+        <v>2.89</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -15110,25 +15110,25 @@
         <v>2.15</v>
       </c>
       <c r="AN67">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO67">
         <v>1.67</v>
       </c>
       <c r="AP67">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ67">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR67">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AS67">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="AT67">
-        <v>3.27</v>
+        <v>2.76</v>
       </c>
       <c r="AU67">
         <v>5</v>
@@ -15316,25 +15316,25 @@
         <v>1.38</v>
       </c>
       <c r="AN68">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO68">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ68">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR68">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS68">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AT68">
-        <v>3.27</v>
+        <v>2.89</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15522,25 +15522,25 @@
         <v>1.35</v>
       </c>
       <c r="AN69">
+        <v>0.33</v>
+      </c>
+      <c r="AO69">
+        <v>1.33</v>
+      </c>
+      <c r="AP69">
         <v>0.83</v>
       </c>
-      <c r="AO69">
+      <c r="AQ69">
         <v>1.17</v>
       </c>
-      <c r="AP69">
-        <v>1.13</v>
-      </c>
-      <c r="AQ69">
-        <v>1.5</v>
-      </c>
       <c r="AR69">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AT69">
-        <v>3.77</v>
+        <v>3.43</v>
       </c>
       <c r="AU69">
         <v>2</v>
@@ -15728,25 +15728,25 @@
         <v>1.48</v>
       </c>
       <c r="AN70">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO70">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR70">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AS70">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AT70">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="AU70">
         <v>6</v>
@@ -15934,25 +15934,25 @@
         <v>1.24</v>
       </c>
       <c r="AN71">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ71">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR71">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AS71">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AT71">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="AU71">
         <v>3</v>
@@ -16140,25 +16140,25 @@
         <v>1.69</v>
       </c>
       <c r="AN72">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AO72">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR72">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AS72">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AT72">
-        <v>2.83</v>
+        <v>2.66</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -16346,25 +16346,25 @@
         <v>1.44</v>
       </c>
       <c r="AN73">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO73">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP73">
         <v>1.58</v>
       </c>
       <c r="AQ73">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR73">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AS73">
-        <v>1.71</v>
+        <v>2.19</v>
       </c>
       <c r="AT73">
-        <v>3.29</v>
+        <v>3.87</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16552,25 +16552,25 @@
         <v>1.63</v>
       </c>
       <c r="AN74">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="AO74">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR74">
-        <v>1.68</v>
+        <v>2.12</v>
       </c>
       <c r="AS74">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AT74">
-        <v>3.38</v>
+        <v>3.99</v>
       </c>
       <c r="AU74">
         <v>2</v>
@@ -16758,25 +16758,25 @@
         <v>3.1</v>
       </c>
       <c r="AN75">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="AO75">
-        <v>0.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ75">
+        <v>1.64</v>
+      </c>
+      <c r="AR75">
+        <v>2.06</v>
+      </c>
+      <c r="AS75">
         <v>1.33</v>
       </c>
-      <c r="AR75">
-        <v>1.73</v>
-      </c>
-      <c r="AS75">
-        <v>1.34</v>
-      </c>
       <c r="AT75">
-        <v>3.07</v>
+        <v>3.39</v>
       </c>
       <c r="AU75">
         <v>3</v>
@@ -16964,25 +16964,25 @@
         <v>1.36</v>
       </c>
       <c r="AN76">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AO76">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ76">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR76">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AS76">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AT76">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -17170,25 +17170,25 @@
         <v>1.4</v>
       </c>
       <c r="AN77">
-        <v>0.71</v>
+        <v>0.25</v>
       </c>
       <c r="AO77">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ77">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR77">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AS77">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="AT77">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17376,25 +17376,25 @@
         <v>1.8</v>
       </c>
       <c r="AN78">
-        <v>1.29</v>
+        <v>1.67</v>
       </c>
       <c r="AO78">
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR78">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AS78">
-        <v>1.49</v>
+        <v>1.87</v>
       </c>
       <c r="AT78">
-        <v>3.13</v>
+        <v>3.42</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17582,25 +17582,25 @@
         <v>1.63</v>
       </c>
       <c r="AN79">
-        <v>1.43</v>
+        <v>2.33</v>
       </c>
       <c r="AO79">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ79">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR79">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AS79">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AT79">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17788,25 +17788,25 @@
         <v>1.81</v>
       </c>
       <c r="AN80">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AO80">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ80">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
-        <v>1.49</v>
+        <v>1.99</v>
       </c>
       <c r="AS80">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="AT80">
-        <v>3.04</v>
+        <v>3.73</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -17997,22 +17997,22 @@
         <v>1</v>
       </c>
       <c r="AO81">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="AS81">
         <v>1.12</v>
       </c>
       <c r="AT81">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="AU81">
         <v>13</v>
@@ -18200,25 +18200,25 @@
         <v>1.4</v>
       </c>
       <c r="AN82">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AO82">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ82">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR82">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AS82">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="AT82">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="AU82">
         <v>11</v>
@@ -18406,25 +18406,25 @@
         <v>1.83</v>
       </c>
       <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
+        <v>0.5</v>
+      </c>
+      <c r="AP83">
         <v>1.25</v>
       </c>
-      <c r="AO83">
-        <v>1</v>
-      </c>
-      <c r="AP83">
-        <v>1.21</v>
-      </c>
       <c r="AQ83">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AS83">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AT83">
-        <v>2.64</v>
+        <v>2.85</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18612,25 +18612,25 @@
         <v>1.33</v>
       </c>
       <c r="AN84">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO84">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ84">
         <v>1.58</v>
       </c>
       <c r="AR84">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AS84">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AT84">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AU84">
         <v>2</v>
@@ -18818,25 +18818,25 @@
         <v>1.42</v>
       </c>
       <c r="AN85">
-        <v>0.63</v>
+        <v>0.2</v>
       </c>
       <c r="AO85">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ85">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR85">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AS85">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AT85">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -19027,22 +19027,22 @@
         <v>1.75</v>
       </c>
       <c r="AO86">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ86">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR86">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="AS86">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AT86">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="AU86">
         <v>6</v>
@@ -19230,25 +19230,25 @@
         <v>1.25</v>
       </c>
       <c r="AN87">
-        <v>1.75</v>
+        <v>0.33</v>
       </c>
       <c r="AO87">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ87">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR87">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AS87">
-        <v>1.65</v>
+        <v>1.41</v>
       </c>
       <c r="AT87">
-        <v>3.11</v>
+        <v>2.84</v>
       </c>
       <c r="AU87">
         <v>4</v>
@@ -19436,25 +19436,25 @@
         <v>1.3</v>
       </c>
       <c r="AN88">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO88">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR88">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AS88">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="AT88">
-        <v>2.98</v>
+        <v>2.53</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19642,25 +19642,25 @@
         <v>1.2</v>
       </c>
       <c r="AN89">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AO89">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS89">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="AT89">
-        <v>3.35</v>
+        <v>3.14</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19851,22 +19851,22 @@
         <v>1.5</v>
       </c>
       <c r="AO90">
-        <v>1.38</v>
+        <v>0.75</v>
       </c>
       <c r="AP90">
+        <v>0.77</v>
+      </c>
+      <c r="AQ90">
         <v>1.17</v>
       </c>
-      <c r="AQ90">
-        <v>1.29</v>
-      </c>
       <c r="AR90">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="AS90">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="AT90">
-        <v>2.94</v>
+        <v>2.87</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -20054,25 +20054,25 @@
         <v>1.28</v>
       </c>
       <c r="AN91">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AO91">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ91">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR91">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="AS91">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AT91">
-        <v>3.21</v>
+        <v>2.8</v>
       </c>
       <c r="AU91">
         <v>3</v>
@@ -20260,25 +20260,25 @@
         <v>1.87</v>
       </c>
       <c r="AN92">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AO92">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR92">
-        <v>1.84</v>
+        <v>2.25</v>
       </c>
       <c r="AS92">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT92">
-        <v>3.41</v>
+        <v>3.83</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20466,25 +20466,25 @@
         <v>2</v>
       </c>
       <c r="AN93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO93">
-        <v>0.5600000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AR93">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS93">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT93">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="AU93">
         <v>13</v>
@@ -20672,25 +20672,25 @@
         <v>1.47</v>
       </c>
       <c r="AN94">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AO94">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ94">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
-        <v>1.49</v>
+        <v>1.92</v>
       </c>
       <c r="AS94">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AT94">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="AU94">
         <v>4</v>
@@ -20878,22 +20878,22 @@
         <v>1.72</v>
       </c>
       <c r="AN95">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AO95">
-        <v>1.22</v>
+        <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ95">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR95">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS95">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AT95">
         <v>2.41</v>
@@ -21084,25 +21084,25 @@
         <v>1.26</v>
       </c>
       <c r="AN96">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="AO96">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ96">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR96">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS96">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="AT96">
-        <v>3.13</v>
+        <v>2.94</v>
       </c>
       <c r="AU96">
         <v>9</v>
@@ -21290,25 +21290,25 @@
         <v>1.57</v>
       </c>
       <c r="AN97">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AO97">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="AP97">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ97">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
-        <v>1.49</v>
+        <v>1.2</v>
       </c>
       <c r="AS97">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AT97">
-        <v>2.76</v>
+        <v>2.54</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21496,25 +21496,25 @@
         <v>1.4</v>
       </c>
       <c r="AN98">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO98">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ98">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR98">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="AS98">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="AT98">
-        <v>3.12</v>
+        <v>2.86</v>
       </c>
       <c r="AU98">
         <v>7</v>
@@ -21702,25 +21702,25 @@
         <v>2.7</v>
       </c>
       <c r="AN99">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AO99">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR99">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AS99">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="AT99">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21908,25 +21908,25 @@
         <v>1.91</v>
       </c>
       <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>1.33</v>
-      </c>
-      <c r="AO100">
-        <v>0.67</v>
       </c>
       <c r="AP100">
         <v>1.58</v>
       </c>
       <c r="AQ100">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR100">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AS100">
-        <v>1.09</v>
+        <v>0.93</v>
       </c>
       <c r="AT100">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="AU100">
         <v>7</v>
@@ -22114,25 +22114,25 @@
         <v>1.33</v>
       </c>
       <c r="AN101">
-        <v>1.22</v>
+        <v>0.8</v>
       </c>
       <c r="AO101">
-        <v>1.56</v>
+        <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ101">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR101">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="AS101">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="AT101">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU101">
         <v>10</v>
@@ -22320,25 +22320,25 @@
         <v>1.69</v>
       </c>
       <c r="AN102">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="AO102">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR102">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="AS102">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="AT102">
-        <v>3.31</v>
+        <v>3.72</v>
       </c>
       <c r="AU102">
         <v>6</v>
@@ -22526,25 +22526,25 @@
         <v>1.46</v>
       </c>
       <c r="AN103">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AO103">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AR103">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AS103">
         <v>1.36</v>
       </c>
       <c r="AT103">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="AU103">
         <v>5</v>
@@ -22732,25 +22732,25 @@
         <v>1.87</v>
       </c>
       <c r="AN104">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AO104">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ104">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR104">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AS104">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AT104">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="AU104">
         <v>10</v>
@@ -22938,25 +22938,25 @@
         <v>2.11</v>
       </c>
       <c r="AN105">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AO105">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ105">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR105">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AS105">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AT105">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AU105">
         <v>7</v>
@@ -23144,25 +23144,25 @@
         <v>1.59</v>
       </c>
       <c r="AN106">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AO106">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR106">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AS106">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="AT106">
-        <v>2.9</v>
+        <v>3.22</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23353,22 +23353,22 @@
         <v>1.4</v>
       </c>
       <c r="AO107">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ107">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR107">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="AS107">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AT107">
-        <v>3.4</v>
+        <v>3.83</v>
       </c>
       <c r="AU107">
         <v>7</v>
@@ -23556,25 +23556,25 @@
         <v>1.62</v>
       </c>
       <c r="AN108">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AO108">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP108">
         <v>1.58</v>
       </c>
       <c r="AQ108">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR108">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AS108">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT108">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23762,25 +23762,25 @@
         <v>1.48</v>
       </c>
       <c r="AN109">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AO109">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ109">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR109">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AS109">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AT109">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -23968,25 +23968,25 @@
         <v>1.37</v>
       </c>
       <c r="AN110">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AO110">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ110">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR110">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AS110">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="AT110">
-        <v>3.12</v>
+        <v>3.07</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -24174,25 +24174,25 @@
         <v>1.83</v>
       </c>
       <c r="AN111">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="AO111">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR111">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AS111">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AT111">
-        <v>2.44</v>
+        <v>2.33</v>
       </c>
       <c r="AU111">
         <v>7</v>
@@ -24380,22 +24380,22 @@
         <v>1.33</v>
       </c>
       <c r="AN112">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AO112">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR112">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="AS112">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="AT112">
         <v>3.36</v>
@@ -24589,22 +24589,22 @@
         <v>1</v>
       </c>
       <c r="AO113">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ113">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR113">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AS113">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AT113">
-        <v>2.77</v>
+        <v>2.91</v>
       </c>
       <c r="AU113">
         <v>5</v>
@@ -24792,25 +24792,25 @@
         <v>1.14</v>
       </c>
       <c r="AN114">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="AO114">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ114">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR114">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS114">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AT114">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -24998,25 +24998,25 @@
         <v>1.3</v>
       </c>
       <c r="AN115">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AO115">
-        <v>1.64</v>
+        <v>2.33</v>
       </c>
       <c r="AP115">
+        <v>1.58</v>
+      </c>
+      <c r="AQ115">
+        <v>1.58</v>
+      </c>
+      <c r="AR115">
+        <v>1.32</v>
+      </c>
+      <c r="AS115">
         <v>1.42</v>
       </c>
-      <c r="AQ115">
-        <v>1.08</v>
-      </c>
-      <c r="AR115">
-        <v>1.44</v>
-      </c>
-      <c r="AS115">
-        <v>1.43</v>
-      </c>
       <c r="AT115">
-        <v>2.87</v>
+        <v>2.74</v>
       </c>
       <c r="AU115">
         <v>4</v>
@@ -25204,25 +25204,25 @@
         <v>1.5</v>
       </c>
       <c r="AN116">
-        <v>1.09</v>
+        <v>0.83</v>
       </c>
       <c r="AO116">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ116">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR116">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AS116">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AT116">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="AU116">
         <v>3</v>
@@ -25410,25 +25410,25 @@
         <v>1.3</v>
       </c>
       <c r="AN117">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AO117">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR117">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="AS117">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="AT117">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="AU117">
         <v>2</v>
@@ -25616,25 +25616,25 @@
         <v>1.28</v>
       </c>
       <c r="AN118">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AO118">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ118">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR118">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AS118">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="AT118">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25822,25 +25822,25 @@
         <v>1.2</v>
       </c>
       <c r="AN119">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="AO119">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ119">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR119">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="AS119">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AT119">
-        <v>2.77</v>
+        <v>2.66</v>
       </c>
       <c r="AU119">
         <v>3</v>
@@ -26028,25 +26028,25 @@
         <v>1.28</v>
       </c>
       <c r="AN120">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="AO120">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="AP120">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ120">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR120">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="AS120">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="AT120">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26234,25 +26234,25 @@
         <v>1.42</v>
       </c>
       <c r="AN121">
-        <v>1.09</v>
+        <v>1.8</v>
       </c>
       <c r="AO121">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AP121">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ121">
         <v>1.58</v>
       </c>
       <c r="AR121">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AS121">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AT121">
-        <v>2.98</v>
+        <v>2.72</v>
       </c>
       <c r="AU121">
         <v>5</v>
@@ -26440,25 +26440,25 @@
         <v>1.43</v>
       </c>
       <c r="AN122">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="AO122">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ122">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR122">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AS122">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AT122">
-        <v>2.79</v>
+        <v>3.04</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26646,25 +26646,25 @@
         <v>1.55</v>
       </c>
       <c r="AN123">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="AO123">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR123">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AS123">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT123">
-        <v>2.61</v>
+        <v>2.52</v>
       </c>
       <c r="AU123">
         <v>5</v>
@@ -26852,25 +26852,25 @@
         <v>1.63</v>
       </c>
       <c r="AN124">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AO124">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP124">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ124">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR124">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AS124">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="AT124">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="AU124">
         <v>6</v>
@@ -27058,25 +27058,25 @@
         <v>1.59</v>
       </c>
       <c r="AN125">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AO125">
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ125">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR125">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AS125">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AT125">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27264,25 +27264,25 @@
         <v>2.36</v>
       </c>
       <c r="AN126">
-        <v>2.33</v>
+        <v>2.6</v>
       </c>
       <c r="AO126">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP126">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ126">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR126">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="AS126">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AT126">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="AU126">
         <v>8</v>
@@ -27470,25 +27470,25 @@
         <v>1.91</v>
       </c>
       <c r="AN127">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AO127">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AP127">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ127">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR127">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS127">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AT127">
-        <v>2.97</v>
+        <v>2.85</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27676,25 +27676,25 @@
         <v>1.4</v>
       </c>
       <c r="AN128">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AO128">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AQ128">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR128">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AS128">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AT128">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AU128">
         <v>5</v>
@@ -27882,25 +27882,25 @@
         <v>1.6</v>
       </c>
       <c r="AN129">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AO129">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AP129">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ129">
         <v>1.58</v>
       </c>
       <c r="AR129">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="AS129">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AT129">
-        <v>3.01</v>
+        <v>3.13</v>
       </c>
       <c r="AU129">
         <v>4</v>
@@ -28088,25 +28088,25 @@
         <v>1.68</v>
       </c>
       <c r="AN130">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO130">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ130">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR130">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AS130">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AT130">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="AU130">
         <v>3</v>
@@ -28294,25 +28294,25 @@
         <v>1.33</v>
       </c>
       <c r="AN131">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AO131">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR131">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AS131">
-        <v>1.86</v>
+        <v>1.51</v>
       </c>
       <c r="AT131">
-        <v>3.43</v>
+        <v>3.15</v>
       </c>
       <c r="AU131">
         <v>7</v>
@@ -28500,25 +28500,25 @@
         <v>1.55</v>
       </c>
       <c r="AN132">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AO132">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AP132">
         <v>1.58</v>
       </c>
       <c r="AQ132">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR132">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AS132">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AT132">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="AU132">
         <v>6</v>
@@ -28706,25 +28706,25 @@
         <v>1.35</v>
       </c>
       <c r="AN133">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AO133">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="AP133">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ133">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR133">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AS133">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AT133">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="AU133">
         <v>4</v>
@@ -28912,25 +28912,25 @@
         <v>2.1</v>
       </c>
       <c r="AN134">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="AO134">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AP134">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AR134">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AS134">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AT134">
-        <v>2.87</v>
+        <v>2.74</v>
       </c>
       <c r="AU134">
         <v>6</v>
@@ -29118,25 +29118,25 @@
         <v>1.4</v>
       </c>
       <c r="AN135">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO135">
+        <v>1.5</v>
+      </c>
+      <c r="AP135">
+        <v>1.42</v>
+      </c>
+      <c r="AQ135">
         <v>1.54</v>
       </c>
-      <c r="AP135">
-        <v>0.96</v>
-      </c>
-      <c r="AQ135">
-        <v>1.58</v>
-      </c>
       <c r="AR135">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AS135">
-        <v>1.42</v>
+        <v>1.19</v>
       </c>
       <c r="AT135">
-        <v>2.84</v>
+        <v>2.49</v>
       </c>
       <c r="AU135">
         <v>8</v>
@@ -29324,25 +29324,25 @@
         <v>1.47</v>
       </c>
       <c r="AN136">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AO136">
+        <v>1</v>
+      </c>
+      <c r="AP136">
         <v>1.08</v>
       </c>
-      <c r="AP136">
-        <v>0.88</v>
-      </c>
       <c r="AQ136">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR136">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AS136">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="AT136">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29530,25 +29530,25 @@
         <v>1.44</v>
       </c>
       <c r="AN137">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AO137">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ137">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR137">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="AS137">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AT137">
-        <v>3.02</v>
+        <v>3.25</v>
       </c>
       <c r="AU137">
         <v>4</v>
@@ -29736,25 +29736,25 @@
         <v>1.52</v>
       </c>
       <c r="AN138">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AO138">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ138">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR138">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AS138">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="AT138">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="AU138">
         <v>3</v>
@@ -29942,25 +29942,25 @@
         <v>1.06</v>
       </c>
       <c r="AN139">
-        <v>0.46</v>
+        <v>0.29</v>
       </c>
       <c r="AO139">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="AP139">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ139">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR139">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AS139">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AT139">
-        <v>2.75</v>
+        <v>2.54</v>
       </c>
       <c r="AU139">
         <v>2</v>
@@ -30148,25 +30148,25 @@
         <v>1.33</v>
       </c>
       <c r="AN140">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AO140">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AP140">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ140">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR140">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AS140">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="AT140">
-        <v>3.02</v>
+        <v>2.82</v>
       </c>
       <c r="AU140">
         <v>3</v>
@@ -30354,25 +30354,25 @@
         <v>1.6</v>
       </c>
       <c r="AN141">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AO141">
+        <v>1.67</v>
+      </c>
+      <c r="AP141">
+        <v>1.83</v>
+      </c>
+      <c r="AQ141">
         <v>1.85</v>
       </c>
-      <c r="AP141">
-        <v>1.5</v>
-      </c>
-      <c r="AQ141">
-        <v>2.08</v>
-      </c>
       <c r="AR141">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="AS141">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="AT141">
-        <v>3.44</v>
+        <v>3.91</v>
       </c>
       <c r="AU141">
         <v>7</v>
@@ -30560,25 +30560,25 @@
         <v>2.03</v>
       </c>
       <c r="AN142">
+        <v>1.57</v>
+      </c>
+      <c r="AO142">
+        <v>0.67</v>
+      </c>
+      <c r="AP142">
         <v>1.64</v>
       </c>
-      <c r="AO142">
-        <v>0.43</v>
-      </c>
-      <c r="AP142">
-        <v>1.58</v>
-      </c>
       <c r="AQ142">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR142">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="AS142">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AT142">
-        <v>2.55</v>
+        <v>2.76</v>
       </c>
       <c r="AU142">
         <v>6</v>
@@ -30766,25 +30766,25 @@
         <v>2.32</v>
       </c>
       <c r="AN143">
-        <v>2.43</v>
+        <v>2.67</v>
       </c>
       <c r="AO143">
-        <v>0.93</v>
+        <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ143">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR143">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="AS143">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AT143">
-        <v>3.14</v>
+        <v>3.37</v>
       </c>
       <c r="AU143">
         <v>9</v>
@@ -30972,25 +30972,25 @@
         <v>1.73</v>
       </c>
       <c r="AN144">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="AO144">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ144">
         <v>1.58</v>
       </c>
       <c r="AR144">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="AS144">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="AT144">
-        <v>3.24</v>
+        <v>3.1</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31178,25 +31178,25 @@
         <v>1.3</v>
       </c>
       <c r="AN145">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="AO145">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AP145">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ145">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR145">
+        <v>1.62</v>
+      </c>
+      <c r="AS145">
         <v>1.64</v>
       </c>
-      <c r="AS145">
-        <v>1.59</v>
-      </c>
       <c r="AT145">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
       <c r="AU145">
         <v>3</v>
@@ -31384,25 +31384,25 @@
         <v>1.56</v>
       </c>
       <c r="AN146">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AO146">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AQ146">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR146">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AS146">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="AT146">
-        <v>2.79</v>
+        <v>2.67</v>
       </c>
       <c r="AU146">
         <v>5</v>
@@ -31590,25 +31590,25 @@
         <v>1.29</v>
       </c>
       <c r="AN147">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="AO147">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR147">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AS147">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AT147">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AU147">
         <v>3</v>
@@ -31796,25 +31796,25 @@
         <v>1.82</v>
       </c>
       <c r="AN148">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="AO148">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AP148">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ148">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR148">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="AS148">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AT148">
-        <v>2.57</v>
+        <v>2.79</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32002,25 +32002,25 @@
         <v>1.53</v>
       </c>
       <c r="AN149">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="AO149">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ149">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR149">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AS149">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AT149">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="AU149">
         <v>8</v>
@@ -32208,25 +32208,25 @@
         <v>1.72</v>
       </c>
       <c r="AN150">
-        <v>1.43</v>
+        <v>1</v>
       </c>
       <c r="AO150">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ150">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR150">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AS150">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="AT150">
-        <v>2.85</v>
+        <v>2.94</v>
       </c>
       <c r="AU150">
         <v>4</v>
@@ -32414,25 +32414,25 @@
         <v>1.4</v>
       </c>
       <c r="AN151">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO151">
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ151">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR151">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AS151">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
       <c r="AT151">
-        <v>3.38</v>
+        <v>3.01</v>
       </c>
       <c r="AU151">
         <v>3</v>
@@ -32620,25 +32620,25 @@
         <v>1.47</v>
       </c>
       <c r="AN152">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
       <c r="AO152">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="AP152">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ152">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR152">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AS152">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT152">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="AU152">
         <v>4</v>
@@ -32826,25 +32826,25 @@
         <v>1.37</v>
       </c>
       <c r="AN153">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO153">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="AP153">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ153">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR153">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS153">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AT153">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="AU153">
         <v>7</v>
@@ -33032,25 +33032,25 @@
         <v>2.28</v>
       </c>
       <c r="AN154">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AO154">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ154">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR154">
-        <v>1.84</v>
+        <v>2.17</v>
       </c>
       <c r="AS154">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="AT154">
-        <v>3.25</v>
+        <v>3.68</v>
       </c>
       <c r="AU154">
         <v>9</v>
@@ -33241,22 +33241,22 @@
         <v>1.13</v>
       </c>
       <c r="AO155">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="AP155">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ155">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR155">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS155">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="AT155">
-        <v>2.86</v>
+        <v>2.97</v>
       </c>
       <c r="AU155">
         <v>7</v>
@@ -33444,25 +33444,25 @@
         <v>1.52</v>
       </c>
       <c r="AN156">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="AO156">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AP156">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AQ156">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR156">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AS156">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="AT156">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AU156">
         <v>6</v>
@@ -33650,25 +33650,25 @@
         <v>1.14</v>
       </c>
       <c r="AN157">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AO157">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AP157">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ157">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR157">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS157">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AT157">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU157">
         <v>2</v>
@@ -33856,25 +33856,25 @@
         <v>1.28</v>
       </c>
       <c r="AN158">
-        <v>0.87</v>
+        <v>1.29</v>
       </c>
       <c r="AO158">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AP158">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ158">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR158">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AS158">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AT158">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="AU158">
         <v>4</v>
@@ -34062,25 +34062,25 @@
         <v>1.57</v>
       </c>
       <c r="AN159">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="AO159">
-        <v>1.47</v>
+        <v>2.13</v>
       </c>
       <c r="AP159">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ159">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR159">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="AS159">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AT159">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="AU159">
         <v>4</v>
@@ -34268,25 +34268,25 @@
         <v>1.83</v>
       </c>
       <c r="AN160">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AO160">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP160">
         <v>1.58</v>
       </c>
       <c r="AQ160">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR160">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AS160">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT160">
-        <v>3.04</v>
+        <v>3.23</v>
       </c>
       <c r="AU160">
         <v>3</v>
@@ -34474,25 +34474,25 @@
         <v>1.17</v>
       </c>
       <c r="AN161">
-        <v>0.8</v>
+        <v>1.14</v>
       </c>
       <c r="AO161">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AP161">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ161">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR161">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AS161">
-        <v>1.41</v>
+        <v>1.22</v>
       </c>
       <c r="AT161">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AU161">
         <v>6</v>
@@ -34680,25 +34680,25 @@
         <v>1.61</v>
       </c>
       <c r="AN162">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AO162">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ162">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR162">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AS162">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AT162">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="AU162">
         <v>2</v>
@@ -34886,25 +34886,25 @@
         <v>1.47</v>
       </c>
       <c r="AN163">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AO163">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR163">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AS163">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AT163">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="AU163">
         <v>2</v>
@@ -35092,25 +35092,25 @@
         <v>1.47</v>
       </c>
       <c r="AN164">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="AO164">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ164">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR164">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="AS164">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="AT164">
-        <v>3.59</v>
+        <v>3.37</v>
       </c>
       <c r="AU164">
         <v>2</v>
@@ -35298,25 +35298,25 @@
         <v>1.28</v>
       </c>
       <c r="AN165">
+        <v>0.71</v>
+      </c>
+      <c r="AO165">
         <v>1.38</v>
       </c>
-      <c r="AO165">
-        <v>1.75</v>
-      </c>
       <c r="AP165">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ165">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR165">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AS165">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AT165">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU165">
         <v>2</v>
@@ -35504,25 +35504,25 @@
         <v>1.5</v>
       </c>
       <c r="AN166">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AO166">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ166">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR166">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AS166">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AT166">
-        <v>2.88</v>
+        <v>3.04</v>
       </c>
       <c r="AU166">
         <v>5</v>
@@ -35710,25 +35710,25 @@
         <v>2.1</v>
       </c>
       <c r="AN167">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AO167">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="AP167">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR167">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AS167">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AT167">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="AU167">
         <v>5</v>
@@ -35916,25 +35916,25 @@
         <v>1.95</v>
       </c>
       <c r="AN168">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AO168">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AP168">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ168">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AR168">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AS168">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="AT168">
-        <v>2.96</v>
+        <v>2.87</v>
       </c>
       <c r="AU168">
         <v>4</v>
@@ -36122,25 +36122,25 @@
         <v>2.2</v>
       </c>
       <c r="AN169">
-        <v>2.31</v>
+        <v>2.71</v>
       </c>
       <c r="AO169">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AP169">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ169">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR169">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="AS169">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AT169">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="AU169">
         <v>3</v>
@@ -36328,25 +36328,25 @@
         <v>1.53</v>
       </c>
       <c r="AN170">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="AO170">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AP170">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ170">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR170">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS170">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT170">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="AU170">
         <v>4</v>
@@ -36534,25 +36534,25 @@
         <v>1.44</v>
       </c>
       <c r="AN171">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AO171">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ171">
         <v>1.58</v>
       </c>
       <c r="AR171">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AS171">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AT171">
-        <v>3.04</v>
+        <v>2.92</v>
       </c>
       <c r="AU171">
         <v>2</v>
@@ -36740,25 +36740,25 @@
         <v>1.3</v>
       </c>
       <c r="AN172">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AO172">
-        <v>1.29</v>
+        <v>1.89</v>
       </c>
       <c r="AP172">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ172">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR172">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AS172">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AT172">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="AU172">
         <v>5</v>
@@ -36946,25 +36946,25 @@
         <v>1.55</v>
       </c>
       <c r="AN173">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="AO173">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="AP173">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ173">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AR173">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AS173">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="AT173">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AU173">
         <v>6</v>
@@ -37152,25 +37152,25 @@
         <v>1.74</v>
       </c>
       <c r="AN174">
-        <v>1.41</v>
+        <v>1.63</v>
       </c>
       <c r="AO174">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ174">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR174">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AS174">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT174">
-        <v>3.3</v>
+        <v>3.62</v>
       </c>
       <c r="AU174">
         <v>7</v>
@@ -37358,25 +37358,25 @@
         <v>2.78</v>
       </c>
       <c r="AN175">
-        <v>1.82</v>
+        <v>2.13</v>
       </c>
       <c r="AO175">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AP175">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ175">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
       </c>
       <c r="AS175">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="AT175">
-        <v>2.92</v>
+        <v>3.02</v>
       </c>
       <c r="AU175">
         <v>9</v>
@@ -37564,25 +37564,25 @@
         <v>1.65</v>
       </c>
       <c r="AN176">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AO176">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AP176">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ176">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
       </c>
       <c r="AS176">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT176">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="AU176">
         <v>5</v>
@@ -37770,25 +37770,25 @@
         <v>1.36</v>
       </c>
       <c r="AN177">
-        <v>0.82</v>
+        <v>1.13</v>
       </c>
       <c r="AO177">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AP177">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ177">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR177">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS177">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AT177">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="AU177">
         <v>3</v>
@@ -37976,25 +37976,25 @@
         <v>1.25</v>
       </c>
       <c r="AN178">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AO178">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="AP178">
         <v>1.58</v>
       </c>
       <c r="AQ178">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR178">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AS178">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="AT178">
-        <v>3.17</v>
+        <v>3.13</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38182,25 +38182,25 @@
         <v>1.36</v>
       </c>
       <c r="AN179">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AO179">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="AP179">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ179">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR179">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AS179">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AT179">
-        <v>3.14</v>
+        <v>3.21</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38388,25 +38388,25 @@
         <v>1.22</v>
       </c>
       <c r="AN180">
-        <v>0.41</v>
+        <v>0.22</v>
       </c>
       <c r="AO180">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ180">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR180">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AS180">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="AT180">
-        <v>2.53</v>
+        <v>2.42</v>
       </c>
       <c r="AU180">
         <v>2</v>
@@ -38594,25 +38594,25 @@
         <v>1.29</v>
       </c>
       <c r="AN181">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="AO181">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AP181">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ181">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR181">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AS181">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AT181">
-        <v>2.72</v>
+        <v>2.83</v>
       </c>
       <c r="AU181">
         <v>3</v>
@@ -38800,25 +38800,25 @@
         <v>1.55</v>
       </c>
       <c r="AN182">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AO182">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="AP182">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ182">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR182">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AS182">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AT182">
-        <v>2.96</v>
+        <v>3.04</v>
       </c>
       <c r="AU182">
         <v>7</v>
@@ -39006,25 +39006,25 @@
         <v>1.5</v>
       </c>
       <c r="AN183">
-        <v>1.22</v>
+        <v>0.63</v>
       </c>
       <c r="AO183">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AP183">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ183">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR183">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="AS183">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="AT183">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="AU183">
         <v>4</v>
@@ -39212,25 +39212,25 @@
         <v>2.8</v>
       </c>
       <c r="AN184">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="AO184">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AP184">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ184">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR184">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="AS184">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="AT184">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU184">
         <v>7</v>
@@ -39418,25 +39418,25 @@
         <v>1.16</v>
       </c>
       <c r="AN185">
-        <v>1.22</v>
+        <v>0.78</v>
       </c>
       <c r="AO185">
-        <v>1.89</v>
+        <v>1.56</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ185">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR185">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS185">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AT185">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39624,25 +39624,25 @@
         <v>1.3</v>
       </c>
       <c r="AN186">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AO186">
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ186">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR186">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="AS186">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AT186">
-        <v>2.79</v>
+        <v>2.61</v>
       </c>
       <c r="AU186">
         <v>3</v>
@@ -39830,25 +39830,25 @@
         <v>1.28</v>
       </c>
       <c r="AN187">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AO187">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AP187">
         <v>1.58</v>
       </c>
       <c r="AQ187">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR187">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AS187">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AT187">
-        <v>3.38</v>
+        <v>3.17</v>
       </c>
       <c r="AU187">
         <v>4</v>
@@ -40036,25 +40036,25 @@
         <v>1.53</v>
       </c>
       <c r="AN188">
-        <v>0.72</v>
+        <v>0.89</v>
       </c>
       <c r="AO188">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="AP188">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ188">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR188">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AS188">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AT188">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="AU188">
         <v>5</v>
@@ -40242,25 +40242,25 @@
         <v>1.6</v>
       </c>
       <c r="AN189">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AO189">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AQ189">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR189">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AS189">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AT189">
-        <v>2.85</v>
+        <v>3.02</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40448,25 +40448,25 @@
         <v>1.99</v>
       </c>
       <c r="AN190">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AO190">
-        <v>0.83</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP190">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ190">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR190">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AS190">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AT190">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="AU190">
         <v>5</v>
@@ -40654,25 +40654,25 @@
         <v>1.15</v>
       </c>
       <c r="AN191">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="AO191">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AP191">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ191">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR191">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS191">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AT191">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="AU191">
         <v>3</v>
@@ -40860,25 +40860,25 @@
         <v>1.39</v>
       </c>
       <c r="AN192">
-        <v>0.84</v>
+        <v>1.11</v>
       </c>
       <c r="AO192">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AP192">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ192">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR192">
+        <v>1.35</v>
+      </c>
+      <c r="AS192">
         <v>1.39</v>
       </c>
-      <c r="AS192">
-        <v>1.48</v>
-      </c>
       <c r="AT192">
-        <v>2.87</v>
+        <v>2.74</v>
       </c>
       <c r="AU192">
         <v>3</v>
@@ -41066,25 +41066,25 @@
         <v>1.66</v>
       </c>
       <c r="AN193">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO193">
-        <v>1.21</v>
+        <v>1.7</v>
       </c>
       <c r="AP193">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ193">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR193">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="AS193">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AT193">
-        <v>3.02</v>
+        <v>3.13</v>
       </c>
       <c r="AU193">
         <v>2</v>
@@ -41272,25 +41272,25 @@
         <v>1.47</v>
       </c>
       <c r="AN194">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AO194">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AP194">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ194">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR194">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS194">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AT194">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="AU194">
         <v>4</v>
@@ -41478,25 +41478,25 @@
         <v>1.44</v>
       </c>
       <c r="AN195">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="AO195">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="AP195">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AQ195">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR195">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AS195">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AT195">
-        <v>3.08</v>
+        <v>3.33</v>
       </c>
       <c r="AU195">
         <v>4</v>
@@ -41684,25 +41684,25 @@
         <v>1.1</v>
       </c>
       <c r="AN196">
-        <v>1.32</v>
+        <v>1.6</v>
       </c>
       <c r="AO196">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="AP196">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ196">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR196">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AS196">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AT196">
-        <v>2.91</v>
+        <v>2.66</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -41890,25 +41890,25 @@
         <v>1.42</v>
       </c>
       <c r="AN197">
-        <v>1.11</v>
+        <v>0.7</v>
       </c>
       <c r="AO197">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AP197">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ197">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR197">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AS197">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AT197">
-        <v>2.99</v>
+        <v>2.94</v>
       </c>
       <c r="AU197">
         <v>3</v>
@@ -42096,25 +42096,25 @@
         <v>1.75</v>
       </c>
       <c r="AN198">
-        <v>1.26</v>
+        <v>0.9</v>
       </c>
       <c r="AO198">
-        <v>0.74</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP198">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ198">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR198">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AS198">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AT198">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="AU198">
         <v>4</v>
@@ -42302,25 +42302,25 @@
         <v>1.22</v>
       </c>
       <c r="AN199">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="AO199">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AP199">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ199">
         <v>1.58</v>
       </c>
       <c r="AR199">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AS199">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AT199">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AU199">
         <v>2</v>
@@ -42508,25 +42508,25 @@
         <v>2.05</v>
       </c>
       <c r="AN200">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="AO200">
-        <v>1.16</v>
+        <v>1.67</v>
       </c>
       <c r="AP200">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ200">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AR200">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="AS200">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="AT200">
-        <v>3.18</v>
+        <v>3.43</v>
       </c>
       <c r="AU200">
         <v>5</v>
@@ -42714,25 +42714,25 @@
         <v>1.5</v>
       </c>
       <c r="AN201">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AO201">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AP201">
+        <v>1.25</v>
+      </c>
+      <c r="AQ201">
+        <v>1.54</v>
+      </c>
+      <c r="AR201">
+        <v>1.6</v>
+      </c>
+      <c r="AS201">
         <v>1.21</v>
       </c>
-      <c r="AQ201">
-        <v>1.58</v>
-      </c>
-      <c r="AR201">
-        <v>1.48</v>
-      </c>
-      <c r="AS201">
-        <v>1.39</v>
-      </c>
       <c r="AT201">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="AU201">
         <v>4</v>
@@ -42920,25 +42920,25 @@
         <v>2.25</v>
       </c>
       <c r="AN202">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AO202">
-        <v>1.05</v>
+        <v>1.56</v>
       </c>
       <c r="AP202">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ202">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR202">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AS202">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AT202">
-        <v>3.12</v>
+        <v>3.22</v>
       </c>
       <c r="AU202">
         <v>10</v>
@@ -43126,25 +43126,25 @@
         <v>2.1</v>
       </c>
       <c r="AN203">
-        <v>1.2</v>
+        <v>0.67</v>
       </c>
       <c r="AO203">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP203">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ203">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR203">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AS203">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="AT203">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="AU203">
         <v>7</v>
@@ -43332,25 +43332,25 @@
         <v>1.12</v>
       </c>
       <c r="AN204">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="AO204">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="AP204">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ204">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR204">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS204">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="AT204">
-        <v>2.98</v>
+        <v>2.75</v>
       </c>
       <c r="AU204">
         <v>6</v>
@@ -43538,25 +43538,25 @@
         <v>2.35</v>
       </c>
       <c r="AN205">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="AO205">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AP205">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ205">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR205">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AS205">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AT205">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="AU205">
         <v>9</v>
@@ -43744,25 +43744,25 @@
         <v>1.44</v>
       </c>
       <c r="AN206">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AO206">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="AP206">
         <v>1.58</v>
       </c>
       <c r="AQ206">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR206">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AS206">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AT206">
-        <v>3.07</v>
+        <v>3.15</v>
       </c>
       <c r="AU206">
         <v>0</v>
@@ -43950,25 +43950,25 @@
         <v>2.3</v>
       </c>
       <c r="AN207">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AO207">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP207">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ207">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR207">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AS207">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AT207">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="AU207">
         <v>3</v>
@@ -44156,25 +44156,25 @@
         <v>1.52</v>
       </c>
       <c r="AN208">
-        <v>0.95</v>
+        <v>1.3</v>
       </c>
       <c r="AO208">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AP208">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ208">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR208">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AS208">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT208">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="AU208">
         <v>4</v>
@@ -44362,25 +44362,25 @@
         <v>1.18</v>
       </c>
       <c r="AN209">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AO209">
-        <v>2.15</v>
+        <v>1.64</v>
       </c>
       <c r="AP209">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ209">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR209">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AS209">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AT209">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="AU209">
         <v>4</v>
@@ -44568,25 +44568,25 @@
         <v>1.52</v>
       </c>
       <c r="AN210">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AO210">
-        <v>1.05</v>
+        <v>0.89</v>
       </c>
       <c r="AP210">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ210">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR210">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="AS210">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AT210">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="AU210">
         <v>6</v>
@@ -44774,25 +44774,25 @@
         <v>1.62</v>
       </c>
       <c r="AN211">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AO211">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AP211">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ211">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR211">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="AS211">
         <v>1.55</v>
       </c>
       <c r="AT211">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="AU211">
         <v>4</v>
@@ -44980,25 +44980,25 @@
         <v>1.32</v>
       </c>
       <c r="AN212">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AO212">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AP212">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ212">
         <v>1.58</v>
       </c>
       <c r="AR212">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AS212">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="AT212">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU212">
         <v>2</v>
@@ -45186,25 +45186,25 @@
         <v>1.75</v>
       </c>
       <c r="AN213">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="AO213">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="AP213">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AQ213">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AR213">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AS213">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AT213">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU213">
         <v>5</v>
@@ -45392,25 +45392,25 @@
         <v>1.22</v>
       </c>
       <c r="AN214">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AO214">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="AP214">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ214">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR214">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS214">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AT214">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="AU214">
         <v>4</v>
@@ -45598,25 +45598,25 @@
         <v>2.1</v>
       </c>
       <c r="AN215">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO215">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AP215">
+        <v>1.64</v>
+      </c>
+      <c r="AQ215">
+        <v>0.67</v>
+      </c>
+      <c r="AR215">
         <v>1.58</v>
       </c>
-      <c r="AQ215">
-        <v>0.88</v>
-      </c>
-      <c r="AR215">
-        <v>1.38</v>
-      </c>
       <c r="AS215">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AT215">
-        <v>2.59</v>
+        <v>2.73</v>
       </c>
       <c r="AU215">
         <v>5</v>
@@ -45804,25 +45804,25 @@
         <v>1.27</v>
       </c>
       <c r="AN216">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="AO216">
-        <v>1.14</v>
+        <v>0.9</v>
       </c>
       <c r="AP216">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="AQ216">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AR216">
         <v>1.06</v>
       </c>
       <c r="AS216">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="AT216">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="AU216">
         <v>2</v>
@@ -46010,25 +46010,25 @@
         <v>1.24</v>
       </c>
       <c r="AN217">
-        <v>1.19</v>
+        <v>0.91</v>
       </c>
       <c r="AO217">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="AP217">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ217">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR217">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AS217">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="AT217">
-        <v>3.07</v>
+        <v>3.27</v>
       </c>
       <c r="AU217">
         <v>4</v>
@@ -46216,25 +46216,25 @@
         <v>1.32</v>
       </c>
       <c r="AN218">
-        <v>1.14</v>
+        <v>0.82</v>
       </c>
       <c r="AO218">
-        <v>1.14</v>
+        <v>1.64</v>
       </c>
       <c r="AP218">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ218">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AR218">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="AS218">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AT218">
-        <v>2.78</v>
+        <v>2.85</v>
       </c>
       <c r="AU218">
         <v>2</v>
@@ -46422,25 +46422,25 @@
         <v>1.53</v>
       </c>
       <c r="AN219">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO219">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AP219">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ219">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AR219">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AS219">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT219">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="AU219">
         <v>4</v>
@@ -46628,25 +46628,25 @@
         <v>1.75</v>
       </c>
       <c r="AN220">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="AO220">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="AP220">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ220">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR220">
+        <v>1.78</v>
+      </c>
+      <c r="AS220">
         <v>1.57</v>
       </c>
-      <c r="AS220">
-        <v>1.55</v>
-      </c>
       <c r="AT220">
-        <v>3.12</v>
+        <v>3.35</v>
       </c>
       <c r="AU220">
         <v>9</v>
@@ -46834,25 +46834,25 @@
         <v>2.38</v>
       </c>
       <c r="AN221">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="AO221">
-        <v>1.05</v>
+        <v>0.6</v>
       </c>
       <c r="AP221">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ221">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR221">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="AS221">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AT221">
-        <v>3.14</v>
+        <v>3.5</v>
       </c>
       <c r="AU221">
         <v>5</v>
@@ -47040,25 +47040,25 @@
         <v>1.44</v>
       </c>
       <c r="AN222">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AO222">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP222">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ222">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="AR222">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS222">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AT222">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="AU222">
         <v>4</v>
@@ -47246,25 +47246,25 @@
         <v>1.85</v>
       </c>
       <c r="AN223">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="AO223">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="AQ223">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AR223">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AS223">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AT223">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="AU223">
         <v>7</v>
@@ -47452,25 +47452,25 @@
         <v>1.98</v>
       </c>
       <c r="AN224">
-        <v>2.09</v>
+        <v>2.3</v>
       </c>
       <c r="AO224">
         <v>1.27</v>
       </c>
       <c r="AP224">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="AQ224">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AR224">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AS224">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AT224">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="AU224">
         <v>5</v>
@@ -47658,25 +47658,25 @@
         <v>1.57</v>
       </c>
       <c r="AN225">
-        <v>1.14</v>
+        <v>0.6</v>
       </c>
       <c r="AO225">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AP225">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ225">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AR225">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="AS225">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AT225">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AU225">
         <v>5</v>
@@ -47864,25 +47864,25 @@
         <v>1.76</v>
       </c>
       <c r="AN226">
-        <v>2.09</v>
+        <v>2.8</v>
       </c>
       <c r="AO226">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="AP226">
-        <v>2.17</v>
+        <v>2.82</v>
       </c>
       <c r="AQ226">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AR226">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="AS226">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="AT226">
-        <v>3.34</v>
+        <v>3.33</v>
       </c>
       <c r="AU226">
         <v>3</v>
@@ -48070,25 +48070,25 @@
         <v>1.97</v>
       </c>
       <c r="AN227">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AO227">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="AP227">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AQ227">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AR227">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="AS227">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AT227">
-        <v>2.69</v>
+        <v>2.77</v>
       </c>
       <c r="AU227">
         <v>8</v>
@@ -48276,25 +48276,25 @@
         <v>1.64</v>
       </c>
       <c r="AN228">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="AO228">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="AP228">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ228">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR228">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AS228">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AT228">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48482,25 +48482,25 @@
         <v>1.69</v>
       </c>
       <c r="AN229">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AO229">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AP229">
         <v>1.58</v>
       </c>
       <c r="AQ229">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="AR229">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AS229">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AT229">
-        <v>2.86</v>
+        <v>2.93</v>
       </c>
       <c r="AU229">
         <v>4</v>
@@ -48688,25 +48688,25 @@
         <v>2.2</v>
       </c>
       <c r="AN230">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AO230">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="AQ230">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR230">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AS230">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AT230">
-        <v>3.15</v>
+        <v>3.11</v>
       </c>
       <c r="AU230">
         <v>3</v>
@@ -48894,25 +48894,25 @@
         <v>1.72</v>
       </c>
       <c r="AN231">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="AO231">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="AP231">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AQ231">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR231">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AS231">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AT231">
-        <v>2.29</v>
+        <v>2.27</v>
       </c>
       <c r="AU231">
         <v>0</v>
@@ -49100,25 +49100,25 @@
         <v>1.65</v>
       </c>
       <c r="AN232">
+        <v>1.5</v>
+      </c>
+      <c r="AO232">
+        <v>1.09</v>
+      </c>
+      <c r="AP232">
+        <v>1.38</v>
+      </c>
+      <c r="AQ232">
+        <v>1.25</v>
+      </c>
+      <c r="AR232">
         <v>1.3</v>
       </c>
-      <c r="AO232">
-        <v>1.35</v>
-      </c>
-      <c r="AP232">
-        <v>1.25</v>
-      </c>
-      <c r="AQ232">
-        <v>1.42</v>
-      </c>
-      <c r="AR232">
-        <v>1.36</v>
-      </c>
       <c r="AS232">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="AT232">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="AU232">
         <v>5</v>
@@ -49306,25 +49306,25 @@
         <v>1.9</v>
       </c>
       <c r="AN233">
-        <v>0.96</v>
+        <v>1.45</v>
       </c>
       <c r="AO233">
-        <v>0.52</v>
+        <v>0.82</v>
       </c>
       <c r="AP233">
-        <v>0.96</v>
+        <v>1.42</v>
       </c>
       <c r="AQ233">
-        <v>0.54</v>
+        <v>0.83</v>
       </c>
       <c r="AR233">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AS233">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AT233">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="AU233">
         <v>2</v>
@@ -49512,25 +49512,25 @@
         <v>1.45</v>
       </c>
       <c r="AN234">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AO234">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AP234">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ234">
         <v>1.58</v>
       </c>
       <c r="AR234">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS234">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="AT234">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="AU234">
         <v>3</v>
@@ -49718,25 +49718,25 @@
         <v>1.11</v>
       </c>
       <c r="AN235">
-        <v>0.96</v>
+        <v>1.17</v>
       </c>
       <c r="AO235">
-        <v>2.13</v>
+        <v>1.92</v>
       </c>
       <c r="AP235">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="AQ235">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="AR235">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AS235">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT235">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="AU235">
         <v>3</v>
@@ -49924,25 +49924,25 @@
         <v>1.42</v>
       </c>
       <c r="AN236">
-        <v>1.09</v>
+        <v>0.55</v>
       </c>
       <c r="AO236">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="AP236">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="AQ236">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR236">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AS236">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT236">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU236">
         <v>5</v>
@@ -50130,25 +50130,25 @@
         <v>1.15</v>
       </c>
       <c r="AN237">
-        <v>1.22</v>
+        <v>0.83</v>
       </c>
       <c r="AO237">
-        <v>2.13</v>
+        <v>1.5</v>
       </c>
       <c r="AP237">
-        <v>1.17</v>
+        <v>0.77</v>
       </c>
       <c r="AQ237">
-        <v>2.17</v>
+        <v>1.62</v>
       </c>
       <c r="AR237">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AS237">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AT237">
-        <v>2.9</v>
+        <v>2.71</v>
       </c>
       <c r="AU237">
         <v>4</v>
@@ -50336,25 +50336,25 @@
         <v>1.47</v>
       </c>
       <c r="AN238">
-        <v>1.26</v>
+        <v>0.92</v>
       </c>
       <c r="AO238">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AP238">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AQ238">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AR238">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AS238">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AT238">
-        <v>2.74</v>
+        <v>2.69</v>
       </c>
       <c r="AU238">
         <v>3</v>
@@ -50542,25 +50542,25 @@
         <v>1.18</v>
       </c>
       <c r="AN239">
-        <v>0.87</v>
+        <v>1.09</v>
       </c>
       <c r="AO239">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="AP239">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="AQ239">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="AR239">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AS239">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AT239">
-        <v>2.72</v>
+        <v>2.81</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -50748,25 +50748,25 @@
         <v>1.57</v>
       </c>
       <c r="AN240">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AO240">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="AP240">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AQ240">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AR240">
+        <v>1.63</v>
+      </c>
+      <c r="AS240">
         <v>1.49</v>
       </c>
-      <c r="AS240">
-        <v>1.53</v>
-      </c>
       <c r="AT240">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="AU240">
         <v>3</v>
@@ -50954,25 +50954,25 @@
         <v>2.1</v>
       </c>
       <c r="AN241">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="AO241">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="AP241">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ241">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="AR241">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="AS241">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AT241">
-        <v>3.18</v>
+        <v>3.45</v>
       </c>
       <c r="AU241">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,24 @@
     <t>['32']</t>
   </si>
   <si>
+    <t>['90+1', '90+2']</t>
+  </si>
+  <si>
+    <t>['28', '80']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['4', '52']</t>
+  </si>
+  <si>
+    <t>['38', '80']</t>
+  </si>
+  <si>
+    <t>['4', '69']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -967,9 +985,6 @@
     <t>['45+4', '79']</t>
   </si>
   <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
     <t>['55']</t>
   </si>
   <si>
@@ -1028,6 +1043,12 @@
   </si>
   <si>
     <t>['55', '74']</t>
+  </si>
+  <si>
+    <t>['35', '45', '58']</t>
+  </si>
+  <si>
+    <t>['12', '62']</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1854,7 +1875,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1932,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ3">
         <v>1.58</v>
@@ -2344,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2472,7 +2493,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2553,7 +2574,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2756,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2884,7 +2905,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2962,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ8">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3168,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -3296,7 +3317,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3377,7 +3398,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ10">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3708,7 +3729,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3786,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ12">
         <v>1.54</v>
@@ -3914,7 +3935,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -3995,7 +4016,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ13">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -4201,7 +4222,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4816,10 +4837,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ17">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5022,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ18">
         <v>1.46</v>
@@ -5228,10 +5249,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5434,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ20">
         <v>0.83</v>
@@ -5562,7 +5583,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5643,7 +5664,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ21">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5768,7 +5789,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5849,7 +5870,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -5974,7 +5995,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6055,7 +6076,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6258,10 +6279,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6464,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -6670,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -6879,7 +6900,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -7082,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ28">
         <v>1.58</v>
@@ -7210,7 +7231,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7288,10 +7309,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ29">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7416,7 +7437,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7494,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ30">
         <v>1.42</v>
@@ -7622,7 +7643,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7700,10 +7721,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7828,7 +7849,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8115,7 +8136,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ33">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -8318,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ34">
         <v>1.25</v>
@@ -8446,7 +8467,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8527,7 +8548,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ35">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8652,7 +8673,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8733,7 +8754,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -9270,7 +9291,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9348,10 +9369,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ39">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9476,7 +9497,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9554,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ40">
         <v>1.75</v>
@@ -9760,7 +9781,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -9966,10 +9987,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ42">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR42">
         <v>2.12</v>
@@ -10378,7 +10399,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ44">
         <v>0.83</v>
@@ -10793,7 +10814,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10918,7 +10939,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10999,7 +11020,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ47">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -11205,7 +11226,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11408,7 +11429,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
         <v>1.42</v>
@@ -11536,7 +11557,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11614,7 +11635,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11742,7 +11763,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11948,7 +11969,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12026,7 +12047,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ52">
         <v>1.85</v>
@@ -12154,7 +12175,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12232,10 +12253,10 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ53">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12438,7 +12459,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ54">
         <v>1.25</v>
@@ -12647,7 +12668,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ55">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12772,7 +12793,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13059,7 +13080,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ57">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -13262,10 +13283,10 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13468,10 +13489,10 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13596,7 +13617,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13677,7 +13698,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ60">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13802,7 +13823,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13880,7 +13901,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ61">
         <v>1.46</v>
@@ -14008,7 +14029,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14707,7 +14728,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ65">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.29</v>
@@ -15038,7 +15059,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15116,7 +15137,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ67">
         <v>1.54</v>
@@ -15528,10 +15549,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15734,10 +15755,10 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ70">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15862,7 +15883,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16146,10 +16167,10 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ72">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16274,7 +16295,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16352,7 +16373,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ73">
         <v>1.42</v>
@@ -16480,7 +16501,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16558,7 +16579,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ74">
         <v>1.85</v>
@@ -16686,7 +16707,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16767,7 +16788,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ75">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR75">
         <v>2.06</v>
@@ -16970,10 +16991,10 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ76">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR76">
         <v>1.19</v>
@@ -17098,7 +17119,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17176,10 +17197,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ77">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -17382,10 +17403,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ78">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
         <v>1.55</v>
@@ -17591,7 +17612,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ79">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17716,7 +17737,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17794,7 +17815,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
         <v>1.25</v>
@@ -18003,7 +18024,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR81">
         <v>2.09</v>
@@ -18128,7 +18149,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18206,7 +18227,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ82">
         <v>2</v>
@@ -18824,10 +18845,10 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ85">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR85">
         <v>1.13</v>
@@ -18952,7 +18973,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19030,7 +19051,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ86">
         <v>1.75</v>
@@ -19239,7 +19260,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ87">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19651,7 +19672,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR89">
         <v>1.35</v>
@@ -19776,7 +19797,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19857,7 +19878,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ90">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR90">
         <v>1.34</v>
@@ -19982,7 +20003,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20060,7 +20081,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ91">
         <v>1.46</v>
@@ -20188,7 +20209,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20269,7 +20290,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>2.25</v>
@@ -20472,10 +20493,10 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ93">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR93">
         <v>1.45</v>
@@ -20678,10 +20699,10 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20806,7 +20827,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20887,7 +20908,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ95">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -21012,7 +21033,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21090,10 +21111,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ96">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21218,7 +21239,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21296,7 +21317,7 @@
         <v>0.4</v>
       </c>
       <c r="AP97">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ97">
         <v>0.5</v>
@@ -21708,10 +21729,10 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ99">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21914,7 +21935,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ100">
         <v>0.83</v>
@@ -22042,7 +22063,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22120,10 +22141,10 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ101">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR101">
         <v>1.63</v>
@@ -22326,7 +22347,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ102">
         <v>1.42</v>
@@ -22535,7 +22556,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR103">
         <v>1.24</v>
@@ -22660,7 +22681,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22866,7 +22887,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23278,7 +23299,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23359,7 +23380,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ107">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR107">
         <v>2.24</v>
@@ -23484,7 +23505,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23562,10 +23583,10 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ108">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR108">
         <v>1.71</v>
@@ -23768,7 +23789,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ109">
         <v>1.85</v>
@@ -23896,7 +23917,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24180,10 +24201,10 @@
         <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ111">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24308,7 +24329,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24386,10 +24407,10 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ112">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24514,7 +24535,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24595,7 +24616,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ113">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24720,7 +24741,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24798,7 +24819,7 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ114">
         <v>2</v>
@@ -25004,10 +25025,10 @@
         <v>2.33</v>
       </c>
       <c r="AP115">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ115">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -25132,7 +25153,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25210,10 +25231,10 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ116">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR116">
         <v>1.7</v>
@@ -25416,10 +25437,10 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ117">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25544,7 +25565,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26037,7 +26058,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ120">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26240,7 +26261,7 @@
         <v>1.6</v>
       </c>
       <c r="AP121">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ121">
         <v>1.58</v>
@@ -26574,7 +26595,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26780,7 +26801,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26858,7 +26879,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ124">
         <v>0.5</v>
@@ -26986,7 +27007,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27064,10 +27085,10 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ125">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR125">
         <v>1.64</v>
@@ -27192,7 +27213,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27273,7 +27294,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ126">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR126">
         <v>1.87</v>
@@ -27476,10 +27497,10 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ127">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR127">
         <v>1.55</v>
@@ -27604,7 +27625,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27888,7 +27909,7 @@
         <v>1.83</v>
       </c>
       <c r="AP129">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ129">
         <v>1.58</v>
@@ -28016,7 +28037,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28097,7 +28118,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ130">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28300,10 +28321,10 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
+        <v>1.23</v>
+      </c>
+      <c r="AQ131">
         <v>1.08</v>
-      </c>
-      <c r="AQ131">
-        <v>1.17</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28506,10 +28527,10 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ132">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR132">
         <v>1.72</v>
@@ -28840,7 +28861,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28918,10 +28939,10 @@
         <v>1.33</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ134">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -29046,7 +29067,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29124,7 +29145,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ135">
         <v>1.54</v>
@@ -29333,7 +29354,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ136">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR136">
         <v>1.07</v>
@@ -29664,7 +29685,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29745,7 +29766,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ138">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -29870,7 +29891,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -29948,10 +29969,10 @@
         <v>2.14</v>
       </c>
       <c r="AP139">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ139">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
         <v>1.17</v>
@@ -30154,7 +30175,7 @@
         <v>1.57</v>
       </c>
       <c r="AP140">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ140">
         <v>1.75</v>
@@ -30488,7 +30509,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30566,7 +30587,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ142">
         <v>0.83</v>
@@ -30900,7 +30921,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -30978,7 +30999,7 @@
         <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ144">
         <v>1.58</v>
@@ -31184,7 +31205,7 @@
         <v>1.43</v>
       </c>
       <c r="AP145">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ145">
         <v>1.85</v>
@@ -31312,7 +31333,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31393,7 +31414,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ146">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR146">
         <v>1.44</v>
@@ -31599,7 +31620,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ147">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31805,7 +31826,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ148">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR148">
         <v>1.56</v>
@@ -32008,7 +32029,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ149">
         <v>1.46</v>
@@ -32136,7 +32157,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32342,7 +32363,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32423,7 +32444,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ151">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32548,7 +32569,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32832,10 +32853,10 @@
         <v>2.25</v>
       </c>
       <c r="AP153">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ153">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR153">
         <v>1.55</v>
@@ -32960,7 +32981,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33247,7 +33268,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ155">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR155">
         <v>1.5</v>
@@ -33372,7 +33393,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33453,7 +33474,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ156">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33578,7 +33599,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33656,7 +33677,7 @@
         <v>1.5</v>
       </c>
       <c r="AP157">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ157">
         <v>1.75</v>
@@ -33784,7 +33805,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33862,7 +33883,7 @@
         <v>2.14</v>
       </c>
       <c r="AP158">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ158">
         <v>2</v>
@@ -34068,10 +34089,10 @@
         <v>2.13</v>
       </c>
       <c r="AP159">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ159">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR159">
         <v>1.54</v>
@@ -34196,7 +34217,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34274,10 +34295,10 @@
         <v>1.29</v>
       </c>
       <c r="AP160">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ160">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR160">
         <v>1.73</v>
@@ -34402,7 +34423,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34686,10 +34707,10 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ162">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR162">
         <v>1.3</v>
@@ -34814,7 +34835,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35098,10 +35119,10 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ164">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR164">
         <v>1.77</v>
@@ -35226,7 +35247,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35432,7 +35453,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35510,7 +35531,7 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ166">
         <v>1.46</v>
@@ -35844,7 +35865,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35922,10 +35943,10 @@
         <v>1.57</v>
       </c>
       <c r="AP168">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ168">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR168">
         <v>1.62</v>
@@ -36050,7 +36071,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36131,7 +36152,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ169">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR169">
         <v>1.82</v>
@@ -36256,7 +36277,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36334,10 +36355,10 @@
         <v>0.88</v>
       </c>
       <c r="AP170">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ170">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR170">
         <v>1.55</v>
@@ -36668,7 +36689,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36749,7 +36770,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ172">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -36874,7 +36895,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36955,7 +36976,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ173">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR173">
         <v>1.34</v>
@@ -37080,7 +37101,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37364,7 +37385,7 @@
         <v>1.13</v>
       </c>
       <c r="AP175">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ175">
         <v>1.25</v>
@@ -37492,7 +37513,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37570,7 +37591,7 @@
         <v>1.88</v>
       </c>
       <c r="AP176">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ176">
         <v>1.54</v>
@@ -37776,10 +37797,10 @@
         <v>1.44</v>
       </c>
       <c r="AP177">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ177">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR177">
         <v>1.37</v>
@@ -37982,10 +38003,10 @@
         <v>2</v>
       </c>
       <c r="AP178">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ178">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR178">
         <v>1.66</v>
@@ -38110,7 +38131,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38394,10 +38415,10 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ180">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR180">
         <v>1.08</v>
@@ -38522,7 +38543,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38728,7 +38749,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38934,7 +38955,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39221,7 +39242,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ184">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR184">
         <v>1.74</v>
@@ -39346,7 +39367,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39630,10 +39651,10 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ186">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR186">
         <v>1.24</v>
@@ -39758,7 +39779,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39836,10 +39857,10 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ187">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR187">
         <v>1.61</v>
@@ -39964,7 +39985,7 @@
         <v>115</v>
       </c>
       <c r="P188" t="s">
-        <v>317</v>
+        <v>237</v>
       </c>
       <c r="Q188">
         <v>3.3</v>
@@ -40251,7 +40272,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ189">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR189">
         <v>1.54</v>
@@ -40376,7 +40397,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40454,7 +40475,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP190">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ190">
         <v>0.5</v>
@@ -40582,7 +40603,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -40866,10 +40887,10 @@
         <v>1.1</v>
       </c>
       <c r="AP192">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ192">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR192">
         <v>1.35</v>
@@ -40994,7 +41015,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41072,10 +41093,10 @@
         <v>1.7</v>
       </c>
       <c r="AP193">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ193">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR193">
         <v>1.59</v>
@@ -41281,7 +41302,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ194">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR194">
         <v>1.53</v>
@@ -41406,7 +41427,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41484,7 +41505,7 @@
         <v>2.33</v>
       </c>
       <c r="AP195">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ195">
         <v>2</v>
@@ -41690,10 +41711,10 @@
         <v>1.8</v>
       </c>
       <c r="AP196">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ196">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR196">
         <v>1.21</v>
@@ -41818,7 +41839,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -41896,7 +41917,7 @@
         <v>1.5</v>
       </c>
       <c r="AP197">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ197">
         <v>1.46</v>
@@ -42024,7 +42045,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42105,7 +42126,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ198">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42308,7 +42329,7 @@
         <v>1.67</v>
       </c>
       <c r="AP199">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ199">
         <v>1.58</v>
@@ -42517,7 +42538,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ200">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR200">
         <v>2.16</v>
@@ -42926,7 +42947,7 @@
         <v>1.56</v>
       </c>
       <c r="AP202">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ202">
         <v>1.42</v>
@@ -43054,7 +43075,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43260,7 +43281,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43341,7 +43362,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ204">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR204">
         <v>1.22</v>
@@ -43544,7 +43565,7 @@
         <v>0.67</v>
       </c>
       <c r="AP205">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ205">
         <v>0.83</v>
@@ -43672,7 +43693,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -43750,7 +43771,7 @@
         <v>1.67</v>
       </c>
       <c r="AP206">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ206">
         <v>1.75</v>
@@ -43956,10 +43977,10 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ207">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR207">
         <v>1.68</v>
@@ -44162,10 +44183,10 @@
         <v>1.67</v>
       </c>
       <c r="AP208">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ208">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR208">
         <v>1.32</v>
@@ -44371,7 +44392,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ209">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR209">
         <v>1.52</v>
@@ -44577,7 +44598,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ210">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR210">
         <v>1.48</v>
@@ -44780,7 +44801,7 @@
         <v>1.8</v>
       </c>
       <c r="AP211">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ211">
         <v>1.75</v>
@@ -44908,7 +44929,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -45192,7 +45213,7 @@
         <v>1.2</v>
       </c>
       <c r="AP213">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AQ213">
         <v>1.25</v>
@@ -45320,7 +45341,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45398,7 +45419,7 @@
         <v>1.82</v>
       </c>
       <c r="AP214">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ214">
         <v>1.85</v>
@@ -45526,7 +45547,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45604,10 +45625,10 @@
         <v>0.8</v>
       </c>
       <c r="AP215">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ215">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR215">
         <v>1.58</v>
@@ -45732,7 +45753,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -45810,10 +45831,10 @@
         <v>0.9</v>
       </c>
       <c r="AP216">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ216">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR216">
         <v>1.06</v>
@@ -45938,7 +45959,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -46225,7 +46246,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ218">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR218">
         <v>1.35</v>
@@ -46350,7 +46371,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46431,7 +46452,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ219">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR219">
         <v>1.5</v>
@@ -46556,7 +46577,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46762,7 +46783,7 @@
         <v>224</v>
       </c>
       <c r="P221" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q221">
         <v>1.95</v>
@@ -46968,7 +46989,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q222">
         <v>3.25</v>
@@ -47049,7 +47070,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ222">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR222">
         <v>1.33</v>
@@ -47174,7 +47195,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47252,10 +47273,10 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AQ223">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AR223">
         <v>1.52</v>
@@ -47458,10 +47479,10 @@
         <v>1.27</v>
       </c>
       <c r="AP224">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ224">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR224">
         <v>1.71</v>
@@ -47586,7 +47607,7 @@
         <v>96</v>
       </c>
       <c r="P225" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q225">
         <v>2.9</v>
@@ -47667,7 +47688,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ225">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AR225">
         <v>1.37</v>
@@ -47873,7 +47894,7 @@
         <v>2.82</v>
       </c>
       <c r="AQ226">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR226">
         <v>1.81</v>
@@ -48079,7 +48100,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ227">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR227">
         <v>1.58</v>
@@ -48282,7 +48303,7 @@
         <v>1.82</v>
       </c>
       <c r="AP228">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ228">
         <v>1.54</v>
@@ -48488,7 +48509,7 @@
         <v>0.55</v>
       </c>
       <c r="AP229">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AQ229">
         <v>0.5</v>
@@ -48694,7 +48715,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ230">
         <v>1.42</v>
@@ -48822,7 +48843,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -48900,7 +48921,7 @@
         <v>0.6</v>
       </c>
       <c r="AP231">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ231">
         <v>0.83</v>
@@ -49312,7 +49333,7 @@
         <v>0.82</v>
       </c>
       <c r="AP233">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ233">
         <v>0.83</v>
@@ -49646,7 +49667,7 @@
         <v>231</v>
       </c>
       <c r="P235" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q235">
         <v>5.5</v>
@@ -49852,7 +49873,7 @@
         <v>232</v>
       </c>
       <c r="P236" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50058,7 +50079,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50139,7 +50160,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ237">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR237">
         <v>1.31</v>
@@ -50470,7 +50491,7 @@
         <v>234</v>
       </c>
       <c r="P239" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q239">
         <v>4.75</v>
@@ -50676,7 +50697,7 @@
         <v>210</v>
       </c>
       <c r="P240" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -50882,7 +50903,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51039,6 +51060,2066 @@
       </c>
       <c r="BP241">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7331164</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45507.25</v>
+      </c>
+      <c r="F242">
+        <v>25</v>
+      </c>
+      <c r="G242" t="s">
+        <v>71</v>
+      </c>
+      <c r="H242" t="s">
+        <v>74</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>1</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+      <c r="N242">
+        <v>3</v>
+      </c>
+      <c r="O242" t="s">
+        <v>235</v>
+      </c>
+      <c r="P242" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q242">
+        <v>2.45</v>
+      </c>
+      <c r="R242">
+        <v>2.15</v>
+      </c>
+      <c r="S242">
+        <v>4</v>
+      </c>
+      <c r="T242">
+        <v>1.36</v>
+      </c>
+      <c r="U242">
+        <v>3</v>
+      </c>
+      <c r="V242">
+        <v>2.75</v>
+      </c>
+      <c r="W242">
+        <v>1.4</v>
+      </c>
+      <c r="X242">
+        <v>6.5</v>
+      </c>
+      <c r="Y242">
+        <v>1.1</v>
+      </c>
+      <c r="Z242">
+        <v>1.85</v>
+      </c>
+      <c r="AA242">
+        <v>3.35</v>
+      </c>
+      <c r="AB242">
+        <v>3.5</v>
+      </c>
+      <c r="AC242">
+        <v>1.01</v>
+      </c>
+      <c r="AD242">
+        <v>9.5</v>
+      </c>
+      <c r="AE242">
+        <v>1.28</v>
+      </c>
+      <c r="AF242">
+        <v>3.5</v>
+      </c>
+      <c r="AG242">
+        <v>1.8</v>
+      </c>
+      <c r="AH242">
+        <v>1.9</v>
+      </c>
+      <c r="AI242">
+        <v>1.72</v>
+      </c>
+      <c r="AJ242">
+        <v>2.05</v>
+      </c>
+      <c r="AK242">
+        <v>1.2</v>
+      </c>
+      <c r="AL242">
+        <v>1.22</v>
+      </c>
+      <c r="AM242">
+        <v>1.85</v>
+      </c>
+      <c r="AN242">
+        <v>2.36</v>
+      </c>
+      <c r="AO242">
+        <v>1.17</v>
+      </c>
+      <c r="AP242">
+        <v>2.42</v>
+      </c>
+      <c r="AQ242">
+        <v>1.08</v>
+      </c>
+      <c r="AR242">
+        <v>1.7</v>
+      </c>
+      <c r="AS242">
+        <v>1.47</v>
+      </c>
+      <c r="AT242">
+        <v>3.17</v>
+      </c>
+      <c r="AU242">
+        <v>3</v>
+      </c>
+      <c r="AV242">
+        <v>5</v>
+      </c>
+      <c r="AW242">
+        <v>6</v>
+      </c>
+      <c r="AX242">
+        <v>10</v>
+      </c>
+      <c r="AY242">
+        <v>9</v>
+      </c>
+      <c r="AZ242">
+        <v>15</v>
+      </c>
+      <c r="BA242">
+        <v>4</v>
+      </c>
+      <c r="BB242">
+        <v>2</v>
+      </c>
+      <c r="BC242">
+        <v>6</v>
+      </c>
+      <c r="BD242">
+        <v>1.45</v>
+      </c>
+      <c r="BE242">
+        <v>8.5</v>
+      </c>
+      <c r="BF242">
+        <v>3.33</v>
+      </c>
+      <c r="BG242">
+        <v>1.29</v>
+      </c>
+      <c r="BH242">
+        <v>3.3</v>
+      </c>
+      <c r="BI242">
+        <v>1.5</v>
+      </c>
+      <c r="BJ242">
+        <v>2.48</v>
+      </c>
+      <c r="BK242">
+        <v>1.95</v>
+      </c>
+      <c r="BL242">
+        <v>1.85</v>
+      </c>
+      <c r="BM242">
+        <v>2.34</v>
+      </c>
+      <c r="BN242">
+        <v>1.56</v>
+      </c>
+      <c r="BO242">
+        <v>2.9</v>
+      </c>
+      <c r="BP242">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7331172</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45507.29166666666</v>
+      </c>
+      <c r="F243">
+        <v>25</v>
+      </c>
+      <c r="G243" t="s">
+        <v>82</v>
+      </c>
+      <c r="H243" t="s">
+        <v>72</v>
+      </c>
+      <c r="I243">
+        <v>1</v>
+      </c>
+      <c r="J243">
+        <v>2</v>
+      </c>
+      <c r="K243">
+        <v>3</v>
+      </c>
+      <c r="L243">
+        <v>2</v>
+      </c>
+      <c r="M243">
+        <v>3</v>
+      </c>
+      <c r="N243">
+        <v>5</v>
+      </c>
+      <c r="O243" t="s">
+        <v>236</v>
+      </c>
+      <c r="P243" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q243">
+        <v>2.9</v>
+      </c>
+      <c r="R243">
+        <v>2.15</v>
+      </c>
+      <c r="S243">
+        <v>3.25</v>
+      </c>
+      <c r="T243">
+        <v>1.33</v>
+      </c>
+      <c r="U243">
+        <v>3.25</v>
+      </c>
+      <c r="V243">
+        <v>2.65</v>
+      </c>
+      <c r="W243">
+        <v>1.43</v>
+      </c>
+      <c r="X243">
+        <v>6</v>
+      </c>
+      <c r="Y243">
+        <v>1.11</v>
+      </c>
+      <c r="Z243">
+        <v>2.25</v>
+      </c>
+      <c r="AA243">
+        <v>3.2</v>
+      </c>
+      <c r="AB243">
+        <v>2.7</v>
+      </c>
+      <c r="AC243">
+        <v>1.01</v>
+      </c>
+      <c r="AD243">
+        <v>10.25</v>
+      </c>
+      <c r="AE243">
+        <v>1.25</v>
+      </c>
+      <c r="AF243">
+        <v>3.75</v>
+      </c>
+      <c r="AG243">
+        <v>1.75</v>
+      </c>
+      <c r="AH243">
+        <v>1.95</v>
+      </c>
+      <c r="AI243">
+        <v>1.63</v>
+      </c>
+      <c r="AJ243">
+        <v>2.2</v>
+      </c>
+      <c r="AK243">
+        <v>1.42</v>
+      </c>
+      <c r="AL243">
+        <v>1.25</v>
+      </c>
+      <c r="AM243">
+        <v>1.55</v>
+      </c>
+      <c r="AN243">
+        <v>1.42</v>
+      </c>
+      <c r="AO243">
+        <v>1.09</v>
+      </c>
+      <c r="AP243">
+        <v>1.31</v>
+      </c>
+      <c r="AQ243">
+        <v>1.25</v>
+      </c>
+      <c r="AR243">
+        <v>1.31</v>
+      </c>
+      <c r="AS243">
+        <v>1.44</v>
+      </c>
+      <c r="AT243">
+        <v>2.75</v>
+      </c>
+      <c r="AU243">
+        <v>6</v>
+      </c>
+      <c r="AV243">
+        <v>4</v>
+      </c>
+      <c r="AW243">
+        <v>8</v>
+      </c>
+      <c r="AX243">
+        <v>4</v>
+      </c>
+      <c r="AY243">
+        <v>14</v>
+      </c>
+      <c r="AZ243">
+        <v>8</v>
+      </c>
+      <c r="BA243">
+        <v>6</v>
+      </c>
+      <c r="BB243">
+        <v>5</v>
+      </c>
+      <c r="BC243">
+        <v>11</v>
+      </c>
+      <c r="BD243">
+        <v>1.91</v>
+      </c>
+      <c r="BE243">
+        <v>8</v>
+      </c>
+      <c r="BF243">
+        <v>2.1</v>
+      </c>
+      <c r="BG243">
+        <v>1.25</v>
+      </c>
+      <c r="BH243">
+        <v>3.6</v>
+      </c>
+      <c r="BI243">
+        <v>1.42</v>
+      </c>
+      <c r="BJ243">
+        <v>2.62</v>
+      </c>
+      <c r="BK243">
+        <v>1.64</v>
+      </c>
+      <c r="BL243">
+        <v>2.07</v>
+      </c>
+      <c r="BM243">
+        <v>2.1</v>
+      </c>
+      <c r="BN243">
+        <v>1.7</v>
+      </c>
+      <c r="BO243">
+        <v>2.62</v>
+      </c>
+      <c r="BP243">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7331170</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45507.29166666666</v>
+      </c>
+      <c r="F244">
+        <v>25</v>
+      </c>
+      <c r="G244" t="s">
+        <v>80</v>
+      </c>
+      <c r="H244" t="s">
+        <v>70</v>
+      </c>
+      <c r="I244">
+        <v>1</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>2</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>2</v>
+      </c>
+      <c r="N244">
+        <v>3</v>
+      </c>
+      <c r="O244" t="s">
+        <v>237</v>
+      </c>
+      <c r="P244" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q244">
+        <v>2.1</v>
+      </c>
+      <c r="R244">
+        <v>2.3</v>
+      </c>
+      <c r="S244">
+        <v>4.75</v>
+      </c>
+      <c r="T244">
+        <v>1.33</v>
+      </c>
+      <c r="U244">
+        <v>3.25</v>
+      </c>
+      <c r="V244">
+        <v>2.4</v>
+      </c>
+      <c r="W244">
+        <v>1.51</v>
+      </c>
+      <c r="X244">
+        <v>5.5</v>
+      </c>
+      <c r="Y244">
+        <v>1.12</v>
+      </c>
+      <c r="Z244">
+        <v>1.53</v>
+      </c>
+      <c r="AA244">
+        <v>3.85</v>
+      </c>
+      <c r="AB244">
+        <v>4.75</v>
+      </c>
+      <c r="AC244">
+        <v>1.01</v>
+      </c>
+      <c r="AD244">
+        <v>12.1</v>
+      </c>
+      <c r="AE244">
+        <v>1.2</v>
+      </c>
+      <c r="AF244">
+        <v>4.2</v>
+      </c>
+      <c r="AG244">
+        <v>1.65</v>
+      </c>
+      <c r="AH244">
+        <v>2.1</v>
+      </c>
+      <c r="AI244">
+        <v>1.7</v>
+      </c>
+      <c r="AJ244">
+        <v>2.1</v>
+      </c>
+      <c r="AK244">
+        <v>1.11</v>
+      </c>
+      <c r="AL244">
+        <v>1.18</v>
+      </c>
+      <c r="AM244">
+        <v>2.3</v>
+      </c>
+      <c r="AN244">
+        <v>2.25</v>
+      </c>
+      <c r="AO244">
+        <v>0.73</v>
+      </c>
+      <c r="AP244">
+        <v>2.08</v>
+      </c>
+      <c r="AQ244">
+        <v>0.92</v>
+      </c>
+      <c r="AR244">
+        <v>1.55</v>
+      </c>
+      <c r="AS244">
+        <v>1.45</v>
+      </c>
+      <c r="AT244">
+        <v>3</v>
+      </c>
+      <c r="AU244">
+        <v>7</v>
+      </c>
+      <c r="AV244">
+        <v>5</v>
+      </c>
+      <c r="AW244">
+        <v>12</v>
+      </c>
+      <c r="AX244">
+        <v>4</v>
+      </c>
+      <c r="AY244">
+        <v>19</v>
+      </c>
+      <c r="AZ244">
+        <v>9</v>
+      </c>
+      <c r="BA244">
+        <v>8</v>
+      </c>
+      <c r="BB244">
+        <v>5</v>
+      </c>
+      <c r="BC244">
+        <v>13</v>
+      </c>
+      <c r="BD244">
+        <v>1.64</v>
+      </c>
+      <c r="BE244">
+        <v>8</v>
+      </c>
+      <c r="BF244">
+        <v>2.77</v>
+      </c>
+      <c r="BG244">
+        <v>1.3</v>
+      </c>
+      <c r="BH244">
+        <v>3.2</v>
+      </c>
+      <c r="BI244">
+        <v>1.52</v>
+      </c>
+      <c r="BJ244">
+        <v>2.48</v>
+      </c>
+      <c r="BK244">
+        <v>1.88</v>
+      </c>
+      <c r="BL244">
+        <v>1.92</v>
+      </c>
+      <c r="BM244">
+        <v>2.37</v>
+      </c>
+      <c r="BN244">
+        <v>1.56</v>
+      </c>
+      <c r="BO244">
+        <v>3</v>
+      </c>
+      <c r="BP244">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7331169</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45507.29166666666</v>
+      </c>
+      <c r="F245">
+        <v>25</v>
+      </c>
+      <c r="G245" t="s">
+        <v>73</v>
+      </c>
+      <c r="H245" t="s">
+        <v>78</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>1</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>1</v>
+      </c>
+      <c r="O245" t="s">
+        <v>92</v>
+      </c>
+      <c r="P245" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q245">
+        <v>4</v>
+      </c>
+      <c r="R245">
+        <v>2.1</v>
+      </c>
+      <c r="S245">
+        <v>2.55</v>
+      </c>
+      <c r="T245">
+        <v>1.4</v>
+      </c>
+      <c r="U245">
+        <v>2.75</v>
+      </c>
+      <c r="V245">
+        <v>2.75</v>
+      </c>
+      <c r="W245">
+        <v>1.4</v>
+      </c>
+      <c r="X245">
+        <v>6.5</v>
+      </c>
+      <c r="Y245">
+        <v>1.1</v>
+      </c>
+      <c r="Z245">
+        <v>3.75</v>
+      </c>
+      <c r="AA245">
+        <v>3.3</v>
+      </c>
+      <c r="AB245">
+        <v>1.8</v>
+      </c>
+      <c r="AC245">
+        <v>1.02</v>
+      </c>
+      <c r="AD245">
+        <v>9.1</v>
+      </c>
+      <c r="AE245">
+        <v>1.28</v>
+      </c>
+      <c r="AF245">
+        <v>3.5</v>
+      </c>
+      <c r="AG245">
+        <v>1.9</v>
+      </c>
+      <c r="AH245">
+        <v>1.8</v>
+      </c>
+      <c r="AI245">
+        <v>1.75</v>
+      </c>
+      <c r="AJ245">
+        <v>2</v>
+      </c>
+      <c r="AK245">
+        <v>1.8</v>
+      </c>
+      <c r="AL245">
+        <v>1.22</v>
+      </c>
+      <c r="AM245">
+        <v>1.25</v>
+      </c>
+      <c r="AN245">
+        <v>1.58</v>
+      </c>
+      <c r="AO245">
+        <v>1.64</v>
+      </c>
+      <c r="AP245">
+        <v>1.46</v>
+      </c>
+      <c r="AQ245">
+        <v>1.75</v>
+      </c>
+      <c r="AR245">
+        <v>1.13</v>
+      </c>
+      <c r="AS245">
+        <v>1.28</v>
+      </c>
+      <c r="AT245">
+        <v>2.41</v>
+      </c>
+      <c r="AU245">
+        <v>4</v>
+      </c>
+      <c r="AV245">
+        <v>2</v>
+      </c>
+      <c r="AW245">
+        <v>9</v>
+      </c>
+      <c r="AX245">
+        <v>8</v>
+      </c>
+      <c r="AY245">
+        <v>13</v>
+      </c>
+      <c r="AZ245">
+        <v>10</v>
+      </c>
+      <c r="BA245">
+        <v>6</v>
+      </c>
+      <c r="BB245">
+        <v>2</v>
+      </c>
+      <c r="BC245">
+        <v>8</v>
+      </c>
+      <c r="BD245">
+        <v>3.07</v>
+      </c>
+      <c r="BE245">
+        <v>8.5</v>
+      </c>
+      <c r="BF245">
+        <v>1.51</v>
+      </c>
+      <c r="BG245">
+        <v>1.22</v>
+      </c>
+      <c r="BH245">
+        <v>3.8</v>
+      </c>
+      <c r="BI245">
+        <v>1.38</v>
+      </c>
+      <c r="BJ245">
+        <v>2.8</v>
+      </c>
+      <c r="BK245">
+        <v>1.64</v>
+      </c>
+      <c r="BL245">
+        <v>2.18</v>
+      </c>
+      <c r="BM245">
+        <v>2.03</v>
+      </c>
+      <c r="BN245">
+        <v>1.76</v>
+      </c>
+      <c r="BO245">
+        <v>2.5</v>
+      </c>
+      <c r="BP245">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7331171</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45507.29166666666</v>
+      </c>
+      <c r="F246">
+        <v>25</v>
+      </c>
+      <c r="G246" t="s">
+        <v>76</v>
+      </c>
+      <c r="H246" t="s">
+        <v>85</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>2</v>
+      </c>
+      <c r="N246">
+        <v>2</v>
+      </c>
+      <c r="O246" t="s">
+        <v>92</v>
+      </c>
+      <c r="P246" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q246">
+        <v>2.6</v>
+      </c>
+      <c r="R246">
+        <v>2.05</v>
+      </c>
+      <c r="S246">
+        <v>4</v>
+      </c>
+      <c r="T246">
+        <v>1.43</v>
+      </c>
+      <c r="U246">
+        <v>2.65</v>
+      </c>
+      <c r="V246">
+        <v>2.75</v>
+      </c>
+      <c r="W246">
+        <v>1.4</v>
+      </c>
+      <c r="X246">
+        <v>7</v>
+      </c>
+      <c r="Y246">
+        <v>1.08</v>
+      </c>
+      <c r="Z246">
+        <v>1.85</v>
+      </c>
+      <c r="AA246">
+        <v>3.25</v>
+      </c>
+      <c r="AB246">
+        <v>3.65</v>
+      </c>
+      <c r="AC246">
+        <v>1.03</v>
+      </c>
+      <c r="AD246">
+        <v>8.4</v>
+      </c>
+      <c r="AE246">
+        <v>1.33</v>
+      </c>
+      <c r="AF246">
+        <v>3.1</v>
+      </c>
+      <c r="AG246">
+        <v>2</v>
+      </c>
+      <c r="AH246">
+        <v>1.7</v>
+      </c>
+      <c r="AI246">
+        <v>1.83</v>
+      </c>
+      <c r="AJ246">
+        <v>1.9</v>
+      </c>
+      <c r="AK246">
+        <v>1.25</v>
+      </c>
+      <c r="AL246">
+        <v>1.25</v>
+      </c>
+      <c r="AM246">
+        <v>1.78</v>
+      </c>
+      <c r="AN246">
+        <v>0.83</v>
+      </c>
+      <c r="AO246">
+        <v>0.67</v>
+      </c>
+      <c r="AP246">
+        <v>0.77</v>
+      </c>
+      <c r="AQ246">
+        <v>0.85</v>
+      </c>
+      <c r="AR246">
+        <v>1.49</v>
+      </c>
+      <c r="AS246">
+        <v>1.13</v>
+      </c>
+      <c r="AT246">
+        <v>2.62</v>
+      </c>
+      <c r="AU246">
+        <v>3</v>
+      </c>
+      <c r="AV246">
+        <v>6</v>
+      </c>
+      <c r="AW246">
+        <v>13</v>
+      </c>
+      <c r="AX246">
+        <v>5</v>
+      </c>
+      <c r="AY246">
+        <v>16</v>
+      </c>
+      <c r="AZ246">
+        <v>11</v>
+      </c>
+      <c r="BA246">
+        <v>12</v>
+      </c>
+      <c r="BB246">
+        <v>4</v>
+      </c>
+      <c r="BC246">
+        <v>16</v>
+      </c>
+      <c r="BD246">
+        <v>1.51</v>
+      </c>
+      <c r="BE246">
+        <v>8.5</v>
+      </c>
+      <c r="BF246">
+        <v>3.16</v>
+      </c>
+      <c r="BG246">
+        <v>1.3</v>
+      </c>
+      <c r="BH246">
+        <v>3.2</v>
+      </c>
+      <c r="BI246">
+        <v>1.5</v>
+      </c>
+      <c r="BJ246">
+        <v>2.47</v>
+      </c>
+      <c r="BK246">
+        <v>2</v>
+      </c>
+      <c r="BL246">
+        <v>1.8</v>
+      </c>
+      <c r="BM246">
+        <v>2.35</v>
+      </c>
+      <c r="BN246">
+        <v>1.56</v>
+      </c>
+      <c r="BO246">
+        <v>3</v>
+      </c>
+      <c r="BP246">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7331167</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45507.29166666666</v>
+      </c>
+      <c r="F247">
+        <v>25</v>
+      </c>
+      <c r="G247" t="s">
+        <v>75</v>
+      </c>
+      <c r="H247" t="s">
+        <v>88</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247">
+        <v>2</v>
+      </c>
+      <c r="O247" t="s">
+        <v>138</v>
+      </c>
+      <c r="P247" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q247">
+        <v>2.85</v>
+      </c>
+      <c r="R247">
+        <v>2.05</v>
+      </c>
+      <c r="S247">
+        <v>3.6</v>
+      </c>
+      <c r="T247">
+        <v>1.41</v>
+      </c>
+      <c r="U247">
+        <v>2.7</v>
+      </c>
+      <c r="V247">
+        <v>2.75</v>
+      </c>
+      <c r="W247">
+        <v>1.4</v>
+      </c>
+      <c r="X247">
+        <v>7</v>
+      </c>
+      <c r="Y247">
+        <v>1.08</v>
+      </c>
+      <c r="Z247">
+        <v>2.2</v>
+      </c>
+      <c r="AA247">
+        <v>3.1</v>
+      </c>
+      <c r="AB247">
+        <v>2.9</v>
+      </c>
+      <c r="AC247">
+        <v>1.02</v>
+      </c>
+      <c r="AD247">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE247">
+        <v>1.3</v>
+      </c>
+      <c r="AF247">
+        <v>3.3</v>
+      </c>
+      <c r="AG247">
+        <v>1.95</v>
+      </c>
+      <c r="AH247">
+        <v>1.75</v>
+      </c>
+      <c r="AI247">
+        <v>1.75</v>
+      </c>
+      <c r="AJ247">
+        <v>2</v>
+      </c>
+      <c r="AK247">
+        <v>1.36</v>
+      </c>
+      <c r="AL247">
+        <v>1.25</v>
+      </c>
+      <c r="AM247">
+        <v>1.6</v>
+      </c>
+      <c r="AN247">
+        <v>2</v>
+      </c>
+      <c r="AO247">
+        <v>1.17</v>
+      </c>
+      <c r="AP247">
+        <v>1.92</v>
+      </c>
+      <c r="AQ247">
+        <v>1.15</v>
+      </c>
+      <c r="AR247">
+        <v>1.5</v>
+      </c>
+      <c r="AS247">
+        <v>1.38</v>
+      </c>
+      <c r="AT247">
+        <v>2.88</v>
+      </c>
+      <c r="AU247">
+        <v>5</v>
+      </c>
+      <c r="AV247">
+        <v>2</v>
+      </c>
+      <c r="AW247">
+        <v>17</v>
+      </c>
+      <c r="AX247">
+        <v>6</v>
+      </c>
+      <c r="AY247">
+        <v>22</v>
+      </c>
+      <c r="AZ247">
+        <v>8</v>
+      </c>
+      <c r="BA247">
+        <v>10</v>
+      </c>
+      <c r="BB247">
+        <v>1</v>
+      </c>
+      <c r="BC247">
+        <v>11</v>
+      </c>
+      <c r="BD247">
+        <v>1.75</v>
+      </c>
+      <c r="BE247">
+        <v>8</v>
+      </c>
+      <c r="BF247">
+        <v>2.44</v>
+      </c>
+      <c r="BG247">
+        <v>1.2</v>
+      </c>
+      <c r="BH247">
+        <v>4</v>
+      </c>
+      <c r="BI247">
+        <v>1.33</v>
+      </c>
+      <c r="BJ247">
+        <v>3</v>
+      </c>
+      <c r="BK247">
+        <v>1.54</v>
+      </c>
+      <c r="BL247">
+        <v>2.25</v>
+      </c>
+      <c r="BM247">
+        <v>1.91</v>
+      </c>
+      <c r="BN247">
+        <v>1.76</v>
+      </c>
+      <c r="BO247">
+        <v>2.45</v>
+      </c>
+      <c r="BP247">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7331166</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45507.29166666666</v>
+      </c>
+      <c r="F248">
+        <v>25</v>
+      </c>
+      <c r="G248" t="s">
+        <v>77</v>
+      </c>
+      <c r="H248" t="s">
+        <v>86</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248">
+        <v>1</v>
+      </c>
+      <c r="O248" t="s">
+        <v>92</v>
+      </c>
+      <c r="P248" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q248">
+        <v>4.2</v>
+      </c>
+      <c r="R248">
+        <v>2.1</v>
+      </c>
+      <c r="S248">
+        <v>2.45</v>
+      </c>
+      <c r="T248">
+        <v>1.4</v>
+      </c>
+      <c r="U248">
+        <v>2.75</v>
+      </c>
+      <c r="V248">
+        <v>2.75</v>
+      </c>
+      <c r="W248">
+        <v>1.4</v>
+      </c>
+      <c r="X248">
+        <v>7</v>
+      </c>
+      <c r="Y248">
+        <v>1.08</v>
+      </c>
+      <c r="Z248">
+        <v>4</v>
+      </c>
+      <c r="AA248">
+        <v>3.35</v>
+      </c>
+      <c r="AB248">
+        <v>1.75</v>
+      </c>
+      <c r="AC248">
+        <v>1.02</v>
+      </c>
+      <c r="AD248">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE248">
+        <v>1.3</v>
+      </c>
+      <c r="AF248">
+        <v>3.3</v>
+      </c>
+      <c r="AG248">
+        <v>1.9</v>
+      </c>
+      <c r="AH248">
+        <v>1.8</v>
+      </c>
+      <c r="AI248">
+        <v>1.83</v>
+      </c>
+      <c r="AJ248">
+        <v>1.9</v>
+      </c>
+      <c r="AK248">
+        <v>1.87</v>
+      </c>
+      <c r="AL248">
+        <v>1.22</v>
+      </c>
+      <c r="AM248">
+        <v>1.2</v>
+      </c>
+      <c r="AN248">
+        <v>0.25</v>
+      </c>
+      <c r="AO248">
+        <v>1.58</v>
+      </c>
+      <c r="AP248">
+        <v>0.23</v>
+      </c>
+      <c r="AQ248">
+        <v>1.69</v>
+      </c>
+      <c r="AR248">
+        <v>1.05</v>
+      </c>
+      <c r="AS248">
+        <v>1.44</v>
+      </c>
+      <c r="AT248">
+        <v>2.49</v>
+      </c>
+      <c r="AU248">
+        <v>2</v>
+      </c>
+      <c r="AV248">
+        <v>2</v>
+      </c>
+      <c r="AW248">
+        <v>5</v>
+      </c>
+      <c r="AX248">
+        <v>4</v>
+      </c>
+      <c r="AY248">
+        <v>7</v>
+      </c>
+      <c r="AZ248">
+        <v>6</v>
+      </c>
+      <c r="BA248">
+        <v>3</v>
+      </c>
+      <c r="BB248">
+        <v>0</v>
+      </c>
+      <c r="BC248">
+        <v>3</v>
+      </c>
+      <c r="BD248">
+        <v>2.66</v>
+      </c>
+      <c r="BE248">
+        <v>8.5</v>
+      </c>
+      <c r="BF248">
+        <v>1.64</v>
+      </c>
+      <c r="BG248">
+        <v>1.22</v>
+      </c>
+      <c r="BH248">
+        <v>3.8</v>
+      </c>
+      <c r="BI248">
+        <v>1.4</v>
+      </c>
+      <c r="BJ248">
+        <v>2.7</v>
+      </c>
+      <c r="BK248">
+        <v>1.68</v>
+      </c>
+      <c r="BL248">
+        <v>2.16</v>
+      </c>
+      <c r="BM248">
+        <v>2.07</v>
+      </c>
+      <c r="BN248">
+        <v>1.74</v>
+      </c>
+      <c r="BO248">
+        <v>2.6</v>
+      </c>
+      <c r="BP248">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7331165</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45507.29166666666</v>
+      </c>
+      <c r="F249">
+        <v>25</v>
+      </c>
+      <c r="G249" t="s">
+        <v>87</v>
+      </c>
+      <c r="H249" t="s">
+        <v>81</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>2</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>3</v>
+      </c>
+      <c r="O249" t="s">
+        <v>238</v>
+      </c>
+      <c r="P249" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q249">
+        <v>3.75</v>
+      </c>
+      <c r="R249">
+        <v>2.05</v>
+      </c>
+      <c r="S249">
+        <v>2.75</v>
+      </c>
+      <c r="T249">
+        <v>1.41</v>
+      </c>
+      <c r="U249">
+        <v>2.7</v>
+      </c>
+      <c r="V249">
+        <v>2.75</v>
+      </c>
+      <c r="W249">
+        <v>1.4</v>
+      </c>
+      <c r="X249">
+        <v>7</v>
+      </c>
+      <c r="Y249">
+        <v>1.08</v>
+      </c>
+      <c r="Z249">
+        <v>3.25</v>
+      </c>
+      <c r="AA249">
+        <v>3.2</v>
+      </c>
+      <c r="AB249">
+        <v>2</v>
+      </c>
+      <c r="AC249">
+        <v>1.02</v>
+      </c>
+      <c r="AD249">
+        <v>8.9</v>
+      </c>
+      <c r="AE249">
+        <v>1.3</v>
+      </c>
+      <c r="AF249">
+        <v>3.3</v>
+      </c>
+      <c r="AG249">
+        <v>1.9</v>
+      </c>
+      <c r="AH249">
+        <v>1.8</v>
+      </c>
+      <c r="AI249">
+        <v>1.75</v>
+      </c>
+      <c r="AJ249">
+        <v>2</v>
+      </c>
+      <c r="AK249">
+        <v>1.68</v>
+      </c>
+      <c r="AL249">
+        <v>1.25</v>
+      </c>
+      <c r="AM249">
+        <v>1.3</v>
+      </c>
+      <c r="AN249">
+        <v>1.64</v>
+      </c>
+      <c r="AO249">
+        <v>1.62</v>
+      </c>
+      <c r="AP249">
+        <v>1.75</v>
+      </c>
+      <c r="AQ249">
+        <v>1.5</v>
+      </c>
+      <c r="AR249">
+        <v>1.54</v>
+      </c>
+      <c r="AS249">
+        <v>1.4</v>
+      </c>
+      <c r="AT249">
+        <v>2.94</v>
+      </c>
+      <c r="AU249">
+        <v>3</v>
+      </c>
+      <c r="AV249">
+        <v>4</v>
+      </c>
+      <c r="AW249">
+        <v>4</v>
+      </c>
+      <c r="AX249">
+        <v>6</v>
+      </c>
+      <c r="AY249">
+        <v>7</v>
+      </c>
+      <c r="AZ249">
+        <v>10</v>
+      </c>
+      <c r="BA249">
+        <v>3</v>
+      </c>
+      <c r="BB249">
+        <v>2</v>
+      </c>
+      <c r="BC249">
+        <v>5</v>
+      </c>
+      <c r="BD249">
+        <v>2.1</v>
+      </c>
+      <c r="BE249">
+        <v>8</v>
+      </c>
+      <c r="BF249">
+        <v>1.95</v>
+      </c>
+      <c r="BG249">
+        <v>1.29</v>
+      </c>
+      <c r="BH249">
+        <v>3.3</v>
+      </c>
+      <c r="BI249">
+        <v>1.49</v>
+      </c>
+      <c r="BJ249">
+        <v>2.53</v>
+      </c>
+      <c r="BK249">
+        <v>1.98</v>
+      </c>
+      <c r="BL249">
+        <v>1.82</v>
+      </c>
+      <c r="BM249">
+        <v>2.28</v>
+      </c>
+      <c r="BN249">
+        <v>1.61</v>
+      </c>
+      <c r="BO249">
+        <v>2.88</v>
+      </c>
+      <c r="BP249">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7331168</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45507.29166666666</v>
+      </c>
+      <c r="F250">
+        <v>25</v>
+      </c>
+      <c r="G250" t="s">
+        <v>84</v>
+      </c>
+      <c r="H250" t="s">
+        <v>79</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>2</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>2</v>
+      </c>
+      <c r="O250" t="s">
+        <v>239</v>
+      </c>
+      <c r="P250" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q250">
+        <v>2.65</v>
+      </c>
+      <c r="R250">
+        <v>2</v>
+      </c>
+      <c r="S250">
+        <v>4.2</v>
+      </c>
+      <c r="T250">
+        <v>1.48</v>
+      </c>
+      <c r="U250">
+        <v>2.5</v>
+      </c>
+      <c r="V250">
+        <v>3</v>
+      </c>
+      <c r="W250">
+        <v>1.36</v>
+      </c>
+      <c r="X250">
+        <v>7.5</v>
+      </c>
+      <c r="Y250">
+        <v>1.07</v>
+      </c>
+      <c r="Z250">
+        <v>1.91</v>
+      </c>
+      <c r="AA250">
+        <v>3.2</v>
+      </c>
+      <c r="AB250">
+        <v>3.5</v>
+      </c>
+      <c r="AC250">
+        <v>1.04</v>
+      </c>
+      <c r="AD250">
+        <v>7.5</v>
+      </c>
+      <c r="AE250">
+        <v>1.4</v>
+      </c>
+      <c r="AF250">
+        <v>2.8</v>
+      </c>
+      <c r="AG250">
+        <v>2.2</v>
+      </c>
+      <c r="AH250">
+        <v>1.6</v>
+      </c>
+      <c r="AI250">
+        <v>1.95</v>
+      </c>
+      <c r="AJ250">
+        <v>1.78</v>
+      </c>
+      <c r="AK250">
+        <v>1.25</v>
+      </c>
+      <c r="AL250">
+        <v>1.25</v>
+      </c>
+      <c r="AM250">
+        <v>1.75</v>
+      </c>
+      <c r="AN250">
+        <v>1.58</v>
+      </c>
+      <c r="AO250">
+        <v>1.64</v>
+      </c>
+      <c r="AP250">
+        <v>1.69</v>
+      </c>
+      <c r="AQ250">
+        <v>1.5</v>
+      </c>
+      <c r="AR250">
+        <v>1.55</v>
+      </c>
+      <c r="AS250">
+        <v>1.35</v>
+      </c>
+      <c r="AT250">
+        <v>2.9</v>
+      </c>
+      <c r="AU250">
+        <v>5</v>
+      </c>
+      <c r="AV250">
+        <v>3</v>
+      </c>
+      <c r="AW250">
+        <v>5</v>
+      </c>
+      <c r="AX250">
+        <v>0</v>
+      </c>
+      <c r="AY250">
+        <v>10</v>
+      </c>
+      <c r="AZ250">
+        <v>3</v>
+      </c>
+      <c r="BA250">
+        <v>7</v>
+      </c>
+      <c r="BB250">
+        <v>3</v>
+      </c>
+      <c r="BC250">
+        <v>10</v>
+      </c>
+      <c r="BD250">
+        <v>1.75</v>
+      </c>
+      <c r="BE250">
+        <v>8</v>
+      </c>
+      <c r="BF250">
+        <v>2.44</v>
+      </c>
+      <c r="BG250">
+        <v>1.33</v>
+      </c>
+      <c r="BH250">
+        <v>3</v>
+      </c>
+      <c r="BI250">
+        <v>1.59</v>
+      </c>
+      <c r="BJ250">
+        <v>2.3</v>
+      </c>
+      <c r="BK250">
+        <v>1.82</v>
+      </c>
+      <c r="BL250">
+        <v>1.98</v>
+      </c>
+      <c r="BM250">
+        <v>2.54</v>
+      </c>
+      <c r="BN250">
+        <v>1.49</v>
+      </c>
+      <c r="BO250">
+        <v>3.2</v>
+      </c>
+      <c r="BP250">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7331173</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45508.25</v>
+      </c>
+      <c r="F251">
+        <v>25</v>
+      </c>
+      <c r="G251" t="s">
+        <v>83</v>
+      </c>
+      <c r="H251" t="s">
+        <v>89</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>2</v>
+      </c>
+      <c r="O251" t="s">
+        <v>240</v>
+      </c>
+      <c r="P251" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q251">
+        <v>3.2</v>
+      </c>
+      <c r="R251">
+        <v>2</v>
+      </c>
+      <c r="S251">
+        <v>3.75</v>
+      </c>
+      <c r="T251">
+        <v>1.5</v>
+      </c>
+      <c r="U251">
+        <v>2.5</v>
+      </c>
+      <c r="V251">
+        <v>3.5</v>
+      </c>
+      <c r="W251">
+        <v>1.29</v>
+      </c>
+      <c r="X251">
+        <v>11</v>
+      </c>
+      <c r="Y251">
+        <v>1.05</v>
+      </c>
+      <c r="Z251">
+        <v>2.38</v>
+      </c>
+      <c r="AA251">
+        <v>2.95</v>
+      </c>
+      <c r="AB251">
+        <v>3</v>
+      </c>
+      <c r="AC251">
+        <v>1.08</v>
+      </c>
+      <c r="AD251">
+        <v>6.5</v>
+      </c>
+      <c r="AE251">
+        <v>1.37</v>
+      </c>
+      <c r="AF251">
+        <v>2.8</v>
+      </c>
+      <c r="AG251">
+        <v>2.28</v>
+      </c>
+      <c r="AH251">
+        <v>1.59</v>
+      </c>
+      <c r="AI251">
+        <v>2</v>
+      </c>
+      <c r="AJ251">
+        <v>1.73</v>
+      </c>
+      <c r="AK251">
+        <v>1.3</v>
+      </c>
+      <c r="AL251">
+        <v>1.36</v>
+      </c>
+      <c r="AM251">
+        <v>1.57</v>
+      </c>
+      <c r="AN251">
+        <v>1.08</v>
+      </c>
+      <c r="AO251">
+        <v>1.17</v>
+      </c>
+      <c r="AP251">
+        <v>1.23</v>
+      </c>
+      <c r="AQ251">
+        <v>1.08</v>
+      </c>
+      <c r="AR251">
+        <v>1.56</v>
+      </c>
+      <c r="AS251">
+        <v>1.34</v>
+      </c>
+      <c r="AT251">
+        <v>2.9</v>
+      </c>
+      <c r="AU251">
+        <v>5</v>
+      </c>
+      <c r="AV251">
+        <v>4</v>
+      </c>
+      <c r="AW251">
+        <v>11</v>
+      </c>
+      <c r="AX251">
+        <v>1</v>
+      </c>
+      <c r="AY251">
+        <v>16</v>
+      </c>
+      <c r="AZ251">
+        <v>5</v>
+      </c>
+      <c r="BA251">
+        <v>5</v>
+      </c>
+      <c r="BB251">
+        <v>4</v>
+      </c>
+      <c r="BC251">
+        <v>9</v>
+      </c>
+      <c r="BD251">
+        <v>1.91</v>
+      </c>
+      <c r="BE251">
+        <v>8</v>
+      </c>
+      <c r="BF251">
+        <v>2.2</v>
+      </c>
+      <c r="BG251">
+        <v>1.22</v>
+      </c>
+      <c r="BH251">
+        <v>3.8</v>
+      </c>
+      <c r="BI251">
+        <v>1.36</v>
+      </c>
+      <c r="BJ251">
+        <v>2.88</v>
+      </c>
+      <c r="BK251">
+        <v>1.61</v>
+      </c>
+      <c r="BL251">
+        <v>2.25</v>
+      </c>
+      <c r="BM251">
+        <v>1.99</v>
+      </c>
+      <c r="BN251">
+        <v>1.8</v>
+      </c>
+      <c r="BO251">
+        <v>2.51</v>
+      </c>
+      <c r="BP251">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,18 @@
     <t>['4', '69']</t>
   </si>
   <si>
+    <t>['21', '82']</t>
+  </si>
+  <si>
+    <t>['8', '45+1', '63']</t>
+  </si>
+  <si>
+    <t>['20', '27', '45+1', '75']</t>
+  </si>
+  <si>
+    <t>['26', '45+1', '70', '84']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1049,6 +1061,9 @@
   </si>
   <si>
     <t>['12', '62']</t>
+  </si>
+  <si>
+    <t>['17', '44', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP251"/>
+  <dimension ref="A1:BP258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ2">
         <v>1.75</v>
@@ -1875,7 +1890,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -1953,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ3">
         <v>1.58</v>
@@ -2162,7 +2177,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2493,7 +2508,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2777,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ7">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2905,7 +2920,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3317,7 +3332,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3604,7 +3619,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ11">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3729,7 +3744,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3810,7 +3825,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ12">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3935,7 +3950,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4013,7 +4028,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ13">
         <v>1.69</v>
@@ -4222,7 +4237,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4425,10 +4440,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5043,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ18">
         <v>1.46</v>
@@ -5249,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ19">
         <v>1.08</v>
@@ -5458,7 +5473,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5583,7 +5598,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5789,7 +5804,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5995,7 +6010,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6073,10 +6088,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ23">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6279,7 +6294,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ24">
         <v>1.15</v>
@@ -6485,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ25">
         <v>0.5</v>
@@ -7103,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ28">
         <v>1.58</v>
@@ -7231,7 +7246,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7437,7 +7452,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7643,7 +7658,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7724,7 +7739,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ31">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7849,7 +7864,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8133,7 +8148,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -8342,7 +8357,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ34">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -8467,7 +8482,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8545,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -8673,7 +8688,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8960,7 +8975,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ37">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -9291,7 +9306,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9372,7 +9387,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ39">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9497,7 +9512,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9781,10 +9796,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR41">
         <v>1.25</v>
@@ -9987,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ42">
         <v>0.92</v>
@@ -10399,10 +10414,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10605,7 +10620,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ45">
         <v>1.75</v>
@@ -10814,7 +10829,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -10939,7 +10954,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11226,7 +11241,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ48">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11557,7 +11572,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11638,7 +11653,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR50">
         <v>1.14</v>
@@ -11763,7 +11778,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11969,7 +11984,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12175,7 +12190,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12459,10 +12474,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12665,7 +12680,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ55">
         <v>1.08</v>
@@ -12793,7 +12808,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13077,10 +13092,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ57">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -13283,7 +13298,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ58">
         <v>1.15</v>
@@ -13617,7 +13632,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13823,7 +13838,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14029,7 +14044,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14107,7 +14122,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ62">
         <v>1.58</v>
@@ -14316,7 +14331,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ63">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR63">
         <v>1.03</v>
@@ -14931,7 +14946,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -15059,7 +15074,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15137,10 +15152,10 @@
         <v>1.67</v>
       </c>
       <c r="AP67">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ67">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15552,7 +15567,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ69">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15758,7 +15773,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15883,7 +15898,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -15964,7 +15979,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ71">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR71">
         <v>1.06</v>
@@ -16295,7 +16310,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16373,7 +16388,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ73">
         <v>1.42</v>
@@ -16501,7 +16516,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16579,7 +16594,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ74">
         <v>1.85</v>
@@ -16707,7 +16722,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16785,7 +16800,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ75">
         <v>1.75</v>
@@ -17119,7 +17134,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17403,10 +17418,10 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR78">
         <v>1.55</v>
@@ -17737,7 +17752,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17818,7 +17833,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR80">
         <v>1.99</v>
@@ -18024,7 +18039,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ81">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR81">
         <v>2.09</v>
@@ -18149,7 +18164,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18230,7 +18245,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ82">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR82">
         <v>1.47</v>
@@ -18973,7 +18988,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19051,7 +19066,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ86">
         <v>1.75</v>
@@ -19257,7 +19272,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ87">
         <v>1.5</v>
@@ -19466,7 +19481,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19672,7 +19687,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ89">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR89">
         <v>1.35</v>
@@ -19797,7 +19812,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -20003,7 +20018,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20209,7 +20224,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20827,7 +20842,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20905,10 +20920,10 @@
         <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ95">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -21033,7 +21048,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21111,7 +21126,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -21239,7 +21254,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21729,10 +21744,10 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ99">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -21935,10 +21950,10 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ100">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -22063,7 +22078,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22347,7 +22362,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ102">
         <v>1.42</v>
@@ -22681,7 +22696,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22759,10 +22774,10 @@
         <v>1.8</v>
       </c>
       <c r="AP104">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ104">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -22887,7 +22902,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -22965,10 +22980,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -23174,7 +23189,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ106">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR106">
         <v>1.44</v>
@@ -23299,7 +23314,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23505,7 +23520,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23583,7 +23598,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ108">
         <v>0.92</v>
@@ -23917,7 +23932,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24204,7 +24219,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ111">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24329,7 +24344,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24410,7 +24425,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ112">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24535,7 +24550,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24613,10 +24628,10 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
+        <v>1.07</v>
+      </c>
+      <c r="AQ113">
         <v>1.15</v>
-      </c>
-      <c r="AQ113">
-        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24741,7 +24756,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24822,7 +24837,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ114">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR114">
         <v>1.14</v>
@@ -25153,7 +25168,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25437,7 +25452,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ117">
         <v>1.5</v>
@@ -25565,7 +25580,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26470,7 +26485,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ122">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26595,7 +26610,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26676,7 +26691,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26801,7 +26816,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -27007,7 +27022,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27213,7 +27228,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27291,10 +27306,10 @@
         <v>0.67</v>
       </c>
       <c r="AP126">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ126">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR126">
         <v>1.87</v>
@@ -27497,7 +27512,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ127">
         <v>0.92</v>
@@ -27625,7 +27640,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -28037,7 +28052,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28115,7 +28130,7 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ130">
         <v>1.5</v>
@@ -28321,10 +28336,10 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ131">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28527,7 +28542,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ132">
         <v>1.15</v>
@@ -28736,7 +28751,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ133">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR133">
         <v>1.42</v>
@@ -28861,7 +28876,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28939,7 +28954,7 @@
         <v>1.33</v>
       </c>
       <c r="AP134">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ134">
         <v>1.75</v>
@@ -29067,7 +29082,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29148,7 +29163,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ135">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29354,7 +29369,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ136">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR136">
         <v>1.07</v>
@@ -29557,7 +29572,7 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ137">
         <v>1.42</v>
@@ -29685,7 +29700,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29891,7 +29906,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30509,7 +30524,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30590,7 +30605,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ142">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR142">
         <v>1.64</v>
@@ -30793,7 +30808,7 @@
         <v>0.57</v>
       </c>
       <c r="AP143">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ143">
         <v>0.5</v>
@@ -30921,7 +30936,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -30999,7 +31014,7 @@
         <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ144">
         <v>1.58</v>
@@ -31333,7 +31348,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31826,7 +31841,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ148">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR148">
         <v>1.56</v>
@@ -32157,7 +32172,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32238,7 +32253,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ150">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -32363,7 +32378,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32441,10 +32456,10 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ151">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32569,7 +32584,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32853,7 +32868,7 @@
         <v>2.25</v>
       </c>
       <c r="AP153">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ153">
         <v>1.5</v>
@@ -32981,7 +32996,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33062,7 +33077,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ154">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR154">
         <v>2.17</v>
@@ -33265,7 +33280,7 @@
         <v>1.86</v>
       </c>
       <c r="AP155">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ155">
         <v>1.5</v>
@@ -33393,7 +33408,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33599,7 +33614,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33805,7 +33820,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33886,7 +33901,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ158">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR158">
         <v>1.41</v>
@@ -34089,7 +34104,7 @@
         <v>2.13</v>
       </c>
       <c r="AP159">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ159">
         <v>1.69</v>
@@ -34217,7 +34232,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34295,10 +34310,10 @@
         <v>1.29</v>
       </c>
       <c r="AP160">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ160">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR160">
         <v>1.73</v>
@@ -34423,7 +34438,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34504,7 +34519,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ161">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR161">
         <v>1.13</v>
@@ -34710,7 +34725,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ162">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR162">
         <v>1.3</v>
@@ -34835,7 +34850,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35122,7 +35137,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ164">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR164">
         <v>1.77</v>
@@ -35247,7 +35262,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35325,7 +35340,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ165">
         <v>1.85</v>
@@ -35453,7 +35468,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35740,7 +35755,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ167">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -35865,7 +35880,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35943,7 +35958,7 @@
         <v>1.57</v>
       </c>
       <c r="AP168">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ168">
         <v>1.75</v>
@@ -36071,7 +36086,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36149,7 +36164,7 @@
         <v>1.14</v>
       </c>
       <c r="AP169">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ169">
         <v>0.92</v>
@@ -36277,7 +36292,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36689,7 +36704,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36895,7 +36910,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37101,7 +37116,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37385,10 +37400,10 @@
         <v>1.13</v>
       </c>
       <c r="AP175">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ175">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -37513,7 +37528,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37591,10 +37606,10 @@
         <v>1.88</v>
       </c>
       <c r="AP176">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ176">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -38003,7 +38018,7 @@
         <v>2</v>
       </c>
       <c r="AP178">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ178">
         <v>1.5</v>
@@ -38131,7 +38146,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38209,10 +38224,10 @@
         <v>2.25</v>
       </c>
       <c r="AP179">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ179">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR179">
         <v>1.55</v>
@@ -38543,7 +38558,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38749,7 +38764,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38955,7 +38970,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39033,10 +39048,10 @@
         <v>2</v>
       </c>
       <c r="AP183">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ183">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39239,10 +39254,10 @@
         <v>1.13</v>
       </c>
       <c r="AP184">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ184">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR184">
         <v>1.74</v>
@@ -39367,7 +39382,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39779,7 +39794,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39857,10 +39872,10 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ187">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR187">
         <v>1.61</v>
@@ -40066,7 +40081,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ188">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR188">
         <v>1.2</v>
@@ -40397,7 +40412,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40475,7 +40490,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP190">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ190">
         <v>0.5</v>
@@ -40603,7 +40618,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -41015,7 +41030,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41093,7 +41108,7 @@
         <v>1.7</v>
       </c>
       <c r="AP193">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ193">
         <v>1.69</v>
@@ -41299,7 +41314,7 @@
         <v>1.4</v>
       </c>
       <c r="AP194">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ194">
         <v>1.08</v>
@@ -41427,7 +41442,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41508,7 +41523,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ195">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR195">
         <v>1.6</v>
@@ -41839,7 +41854,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42045,7 +42060,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42126,7 +42141,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ198">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42744,7 +42759,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ201">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR201">
         <v>1.6</v>
@@ -42947,7 +42962,7 @@
         <v>1.56</v>
       </c>
       <c r="AP202">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ202">
         <v>1.42</v>
@@ -43075,7 +43090,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43153,10 +43168,10 @@
         <v>1</v>
       </c>
       <c r="AP203">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ203">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR203">
         <v>1.31</v>
@@ -43281,7 +43296,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43362,7 +43377,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ204">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR204">
         <v>1.22</v>
@@ -43565,10 +43580,10 @@
         <v>0.67</v>
       </c>
       <c r="AP205">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ205">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR205">
         <v>1.48</v>
@@ -43693,7 +43708,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -43771,7 +43786,7 @@
         <v>1.67</v>
       </c>
       <c r="AP206">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ206">
         <v>1.75</v>
@@ -43980,7 +43995,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ207">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR207">
         <v>1.68</v>
@@ -44929,7 +44944,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -45007,7 +45022,7 @@
         <v>1.8</v>
       </c>
       <c r="AP212">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ212">
         <v>1.58</v>
@@ -45216,7 +45231,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ213">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR213">
         <v>1.46</v>
@@ -45341,7 +45356,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45419,7 +45434,7 @@
         <v>1.82</v>
       </c>
       <c r="AP214">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ214">
         <v>1.85</v>
@@ -45547,7 +45562,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45628,7 +45643,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ215">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR215">
         <v>1.58</v>
@@ -45753,7 +45768,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -45834,7 +45849,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ216">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR216">
         <v>1.06</v>
@@ -45959,7 +45974,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -46040,7 +46055,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ217">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR217">
         <v>1.5</v>
@@ -46371,7 +46386,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46577,7 +46592,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46655,7 +46670,7 @@
         <v>1.64</v>
       </c>
       <c r="AP220">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ220">
         <v>1.46</v>
@@ -46783,7 +46798,7 @@
         <v>224</v>
       </c>
       <c r="P221" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q221">
         <v>1.95</v>
@@ -46989,7 +47004,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q222">
         <v>3.25</v>
@@ -47195,7 +47210,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47273,7 +47288,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ223">
         <v>1.5</v>
@@ -47479,7 +47494,7 @@
         <v>1.27</v>
       </c>
       <c r="AP224">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ224">
         <v>1.08</v>
@@ -47607,7 +47622,7 @@
         <v>96</v>
       </c>
       <c r="P225" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q225">
         <v>2.9</v>
@@ -47685,7 +47700,7 @@
         <v>1.5</v>
       </c>
       <c r="AP225">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ225">
         <v>1.75</v>
@@ -47891,10 +47906,10 @@
         <v>1.27</v>
       </c>
       <c r="AP226">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AQ226">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR226">
         <v>1.81</v>
@@ -48100,7 +48115,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ227">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR227">
         <v>1.58</v>
@@ -48303,10 +48318,10 @@
         <v>1.82</v>
       </c>
       <c r="AP228">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ228">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR228">
         <v>1.52</v>
@@ -48509,7 +48524,7 @@
         <v>0.55</v>
       </c>
       <c r="AP229">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ229">
         <v>0.5</v>
@@ -48843,7 +48858,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -48924,7 +48939,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ231">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR231">
         <v>1.21</v>
@@ -49130,7 +49145,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ232">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR232">
         <v>1.3</v>
@@ -49336,7 +49351,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ233">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR233">
         <v>1.32</v>
@@ -49667,7 +49682,7 @@
         <v>231</v>
       </c>
       <c r="P235" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q235">
         <v>5.5</v>
@@ -49745,7 +49760,7 @@
         <v>1.92</v>
       </c>
       <c r="AP235">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ235">
         <v>1.85</v>
@@ -49873,7 +49888,7 @@
         <v>232</v>
       </c>
       <c r="P236" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -49951,10 +49966,10 @@
         <v>2.09</v>
       </c>
       <c r="AP236">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AQ236">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR236">
         <v>1.39</v>
@@ -50079,7 +50094,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50366,7 +50381,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ238">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AR238">
         <v>1.5</v>
@@ -50491,7 +50506,7 @@
         <v>234</v>
       </c>
       <c r="P239" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q239">
         <v>4.75</v>
@@ -50697,7 +50712,7 @@
         <v>210</v>
       </c>
       <c r="P240" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -50903,7 +50918,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51109,7 +51124,7 @@
         <v>235</v>
       </c>
       <c r="P242" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q242">
         <v>2.45</v>
@@ -51187,10 +51202,10 @@
         <v>1.17</v>
       </c>
       <c r="AP242">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AQ242">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR242">
         <v>1.7</v>
@@ -51315,7 +51330,7 @@
         <v>236</v>
       </c>
       <c r="P243" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q243">
         <v>2.9</v>
@@ -51396,7 +51411,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ243">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR243">
         <v>1.31</v>
@@ -51933,7 +51948,7 @@
         <v>92</v>
       </c>
       <c r="P246" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q246">
         <v>2.6</v>
@@ -52014,7 +52029,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ246">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AR246">
         <v>1.49</v>
@@ -52139,7 +52154,7 @@
         <v>138</v>
       </c>
       <c r="P247" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q247">
         <v>2.85</v>
@@ -52217,7 +52232,7 @@
         <v>1.17</v>
       </c>
       <c r="AP247">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ247">
         <v>1.15</v>
@@ -52835,7 +52850,7 @@
         <v>1.64</v>
       </c>
       <c r="AP250">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ250">
         <v>1.5</v>
@@ -53041,7 +53056,7 @@
         <v>1.17</v>
       </c>
       <c r="AP251">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AQ251">
         <v>1.08</v>
@@ -53120,6 +53135,1448 @@
       </c>
       <c r="BP251">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7331174</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45514.25</v>
+      </c>
+      <c r="F252">
+        <v>26</v>
+      </c>
+      <c r="G252" t="s">
+        <v>83</v>
+      </c>
+      <c r="H252" t="s">
+        <v>73</v>
+      </c>
+      <c r="I252">
+        <v>1</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>2</v>
+      </c>
+      <c r="L252">
+        <v>2</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+      <c r="N252">
+        <v>3</v>
+      </c>
+      <c r="O252" t="s">
+        <v>241</v>
+      </c>
+      <c r="P252" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q252">
+        <v>2.13</v>
+      </c>
+      <c r="R252">
+        <v>2.5</v>
+      </c>
+      <c r="S252">
+        <v>5.32</v>
+      </c>
+      <c r="T252">
+        <v>1.29</v>
+      </c>
+      <c r="U252">
+        <v>3.3</v>
+      </c>
+      <c r="V252">
+        <v>2.51</v>
+      </c>
+      <c r="W252">
+        <v>1.53</v>
+      </c>
+      <c r="X252">
+        <v>5.25</v>
+      </c>
+      <c r="Y252">
+        <v>1.12</v>
+      </c>
+      <c r="Z252">
+        <v>1.65</v>
+      </c>
+      <c r="AA252">
+        <v>3.8</v>
+      </c>
+      <c r="AB252">
+        <v>4.33</v>
+      </c>
+      <c r="AC252">
+        <v>1.01</v>
+      </c>
+      <c r="AD252">
+        <v>11</v>
+      </c>
+      <c r="AE252">
+        <v>1.2</v>
+      </c>
+      <c r="AF252">
+        <v>4</v>
+      </c>
+      <c r="AG252">
+        <v>1.65</v>
+      </c>
+      <c r="AH252">
+        <v>2.1</v>
+      </c>
+      <c r="AI252">
+        <v>1.67</v>
+      </c>
+      <c r="AJ252">
+        <v>2.1</v>
+      </c>
+      <c r="AK252">
+        <v>1.18</v>
+      </c>
+      <c r="AL252">
+        <v>1.25</v>
+      </c>
+      <c r="AM252">
+        <v>2.2</v>
+      </c>
+      <c r="AN252">
+        <v>1.23</v>
+      </c>
+      <c r="AO252">
+        <v>1.25</v>
+      </c>
+      <c r="AP252">
+        <v>1.36</v>
+      </c>
+      <c r="AQ252">
+        <v>1.15</v>
+      </c>
+      <c r="AR252">
+        <v>1.58</v>
+      </c>
+      <c r="AS252">
+        <v>1.25</v>
+      </c>
+      <c r="AT252">
+        <v>2.83</v>
+      </c>
+      <c r="AU252">
+        <v>6</v>
+      </c>
+      <c r="AV252">
+        <v>5</v>
+      </c>
+      <c r="AW252">
+        <v>12</v>
+      </c>
+      <c r="AX252">
+        <v>7</v>
+      </c>
+      <c r="AY252">
+        <v>18</v>
+      </c>
+      <c r="AZ252">
+        <v>12</v>
+      </c>
+      <c r="BA252">
+        <v>5</v>
+      </c>
+      <c r="BB252">
+        <v>2</v>
+      </c>
+      <c r="BC252">
+        <v>7</v>
+      </c>
+      <c r="BD252">
+        <v>1.26</v>
+      </c>
+      <c r="BE252">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF252">
+        <v>4.9</v>
+      </c>
+      <c r="BG252">
+        <v>1.15</v>
+      </c>
+      <c r="BH252">
+        <v>4.75</v>
+      </c>
+      <c r="BI252">
+        <v>1.29</v>
+      </c>
+      <c r="BJ252">
+        <v>3.3</v>
+      </c>
+      <c r="BK252">
+        <v>1.44</v>
+      </c>
+      <c r="BL252">
+        <v>2.5</v>
+      </c>
+      <c r="BM252">
+        <v>1.95</v>
+      </c>
+      <c r="BN252">
+        <v>1.85</v>
+      </c>
+      <c r="BO252">
+        <v>2.21</v>
+      </c>
+      <c r="BP252">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7331175</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45514.25</v>
+      </c>
+      <c r="F253">
+        <v>26</v>
+      </c>
+      <c r="G253" t="s">
+        <v>70</v>
+      </c>
+      <c r="H253" t="s">
+        <v>87</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+      <c r="N253">
+        <v>1</v>
+      </c>
+      <c r="O253" t="s">
+        <v>92</v>
+      </c>
+      <c r="P253" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q253">
+        <v>3.5</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
+        <v>3</v>
+      </c>
+      <c r="T253">
+        <v>1.42</v>
+      </c>
+      <c r="U253">
+        <v>2.62</v>
+      </c>
+      <c r="V253">
+        <v>3</v>
+      </c>
+      <c r="W253">
+        <v>1.33</v>
+      </c>
+      <c r="X253">
+        <v>7.5</v>
+      </c>
+      <c r="Y253">
+        <v>1.06</v>
+      </c>
+      <c r="Z253">
+        <v>2.88</v>
+      </c>
+      <c r="AA253">
+        <v>1.92</v>
+      </c>
+      <c r="AB253">
+        <v>4.16</v>
+      </c>
+      <c r="AC253">
+        <v>1.03</v>
+      </c>
+      <c r="AD253">
+        <v>8</v>
+      </c>
+      <c r="AE253">
+        <v>1.36</v>
+      </c>
+      <c r="AF253">
+        <v>3</v>
+      </c>
+      <c r="AG253">
+        <v>2.1</v>
+      </c>
+      <c r="AH253">
+        <v>1.65</v>
+      </c>
+      <c r="AI253">
+        <v>1.83</v>
+      </c>
+      <c r="AJ253">
+        <v>1.9</v>
+      </c>
+      <c r="AK253">
+        <v>1.53</v>
+      </c>
+      <c r="AL253">
+        <v>1.28</v>
+      </c>
+      <c r="AM253">
+        <v>1.38</v>
+      </c>
+      <c r="AN253">
+        <v>1.15</v>
+      </c>
+      <c r="AO253">
+        <v>1.54</v>
+      </c>
+      <c r="AP253">
+        <v>1.07</v>
+      </c>
+      <c r="AQ253">
+        <v>1.64</v>
+      </c>
+      <c r="AR253">
+        <v>1.39</v>
+      </c>
+      <c r="AS253">
+        <v>1.16</v>
+      </c>
+      <c r="AT253">
+        <v>2.55</v>
+      </c>
+      <c r="AU253">
+        <v>5</v>
+      </c>
+      <c r="AV253">
+        <v>6</v>
+      </c>
+      <c r="AW253">
+        <v>5</v>
+      </c>
+      <c r="AX253">
+        <v>7</v>
+      </c>
+      <c r="AY253">
+        <v>10</v>
+      </c>
+      <c r="AZ253">
+        <v>13</v>
+      </c>
+      <c r="BA253">
+        <v>6</v>
+      </c>
+      <c r="BB253">
+        <v>6</v>
+      </c>
+      <c r="BC253">
+        <v>12</v>
+      </c>
+      <c r="BD253">
+        <v>1.85</v>
+      </c>
+      <c r="BE253">
+        <v>8</v>
+      </c>
+      <c r="BF253">
+        <v>2.2</v>
+      </c>
+      <c r="BG253">
+        <v>1.42</v>
+      </c>
+      <c r="BH253">
+        <v>2.62</v>
+      </c>
+      <c r="BI253">
+        <v>1.74</v>
+      </c>
+      <c r="BJ253">
+        <v>2.06</v>
+      </c>
+      <c r="BK253">
+        <v>2.19</v>
+      </c>
+      <c r="BL253">
+        <v>1.66</v>
+      </c>
+      <c r="BM253">
+        <v>2.8</v>
+      </c>
+      <c r="BN253">
+        <v>1.38</v>
+      </c>
+      <c r="BO253">
+        <v>3.6</v>
+      </c>
+      <c r="BP253">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7331176</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45514.25</v>
+      </c>
+      <c r="F254">
+        <v>26</v>
+      </c>
+      <c r="G254" t="s">
+        <v>71</v>
+      </c>
+      <c r="H254" t="s">
+        <v>80</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254" t="s">
+        <v>92</v>
+      </c>
+      <c r="P254" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q254">
+        <v>2.5</v>
+      </c>
+      <c r="R254">
+        <v>2.2</v>
+      </c>
+      <c r="S254">
+        <v>3.75</v>
+      </c>
+      <c r="T254">
+        <v>1.33</v>
+      </c>
+      <c r="U254">
+        <v>3.14</v>
+      </c>
+      <c r="V254">
+        <v>2.55</v>
+      </c>
+      <c r="W254">
+        <v>1.46</v>
+      </c>
+      <c r="X254">
+        <v>5.9</v>
+      </c>
+      <c r="Y254">
+        <v>1.1</v>
+      </c>
+      <c r="Z254">
+        <v>1.32</v>
+      </c>
+      <c r="AA254">
+        <v>4.05</v>
+      </c>
+      <c r="AB254">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AC254">
+        <v>1.01</v>
+      </c>
+      <c r="AD254">
+        <v>10.5</v>
+      </c>
+      <c r="AE254">
+        <v>1.22</v>
+      </c>
+      <c r="AF254">
+        <v>4</v>
+      </c>
+      <c r="AG254">
+        <v>1.7</v>
+      </c>
+      <c r="AH254">
+        <v>2.05</v>
+      </c>
+      <c r="AI254">
+        <v>1.63</v>
+      </c>
+      <c r="AJ254">
+        <v>2.2</v>
+      </c>
+      <c r="AK254">
+        <v>1.28</v>
+      </c>
+      <c r="AL254">
+        <v>1.22</v>
+      </c>
+      <c r="AM254">
+        <v>1.78</v>
+      </c>
+      <c r="AN254">
+        <v>2.42</v>
+      </c>
+      <c r="AO254">
+        <v>2</v>
+      </c>
+      <c r="AP254">
+        <v>2.31</v>
+      </c>
+      <c r="AQ254">
+        <v>1.92</v>
+      </c>
+      <c r="AR254">
+        <v>1.68</v>
+      </c>
+      <c r="AS254">
+        <v>1.75</v>
+      </c>
+      <c r="AT254">
+        <v>3.43</v>
+      </c>
+      <c r="AU254">
+        <v>5</v>
+      </c>
+      <c r="AV254">
+        <v>4</v>
+      </c>
+      <c r="AW254">
+        <v>11</v>
+      </c>
+      <c r="AX254">
+        <v>4</v>
+      </c>
+      <c r="AY254">
+        <v>16</v>
+      </c>
+      <c r="AZ254">
+        <v>8</v>
+      </c>
+      <c r="BA254">
+        <v>5</v>
+      </c>
+      <c r="BB254">
+        <v>1</v>
+      </c>
+      <c r="BC254">
+        <v>6</v>
+      </c>
+      <c r="BD254">
+        <v>1.37</v>
+      </c>
+      <c r="BE254">
+        <v>7.3</v>
+      </c>
+      <c r="BF254">
+        <v>3.98</v>
+      </c>
+      <c r="BG254">
+        <v>1.29</v>
+      </c>
+      <c r="BH254">
+        <v>3.3</v>
+      </c>
+      <c r="BI254">
+        <v>1.48</v>
+      </c>
+      <c r="BJ254">
+        <v>2.53</v>
+      </c>
+      <c r="BK254">
+        <v>1.82</v>
+      </c>
+      <c r="BL254">
+        <v>1.98</v>
+      </c>
+      <c r="BM254">
+        <v>2.3</v>
+      </c>
+      <c r="BN254">
+        <v>1.58</v>
+      </c>
+      <c r="BO254">
+        <v>2.9</v>
+      </c>
+      <c r="BP254">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7331177</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45514.25</v>
+      </c>
+      <c r="F255">
+        <v>26</v>
+      </c>
+      <c r="G255" t="s">
+        <v>86</v>
+      </c>
+      <c r="H255" t="s">
+        <v>72</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>2</v>
+      </c>
+      <c r="L255">
+        <v>3</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>3</v>
+      </c>
+      <c r="O255" t="s">
+        <v>242</v>
+      </c>
+      <c r="P255" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q255">
+        <v>2.35</v>
+      </c>
+      <c r="R255">
+        <v>2.25</v>
+      </c>
+      <c r="S255">
+        <v>4</v>
+      </c>
+      <c r="T255">
+        <v>1.32</v>
+      </c>
+      <c r="U255">
+        <v>3.2</v>
+      </c>
+      <c r="V255">
+        <v>2.5</v>
+      </c>
+      <c r="W255">
+        <v>1.48</v>
+      </c>
+      <c r="X255">
+        <v>5.6</v>
+      </c>
+      <c r="Y255">
+        <v>1.11</v>
+      </c>
+      <c r="Z255">
+        <v>1.66</v>
+      </c>
+      <c r="AA255">
+        <v>6.45</v>
+      </c>
+      <c r="AB255">
+        <v>2.83</v>
+      </c>
+      <c r="AC255">
+        <v>1.01</v>
+      </c>
+      <c r="AD255">
+        <v>11</v>
+      </c>
+      <c r="AE255">
+        <v>1.2</v>
+      </c>
+      <c r="AF255">
+        <v>4</v>
+      </c>
+      <c r="AG255">
+        <v>1.65</v>
+      </c>
+      <c r="AH255">
+        <v>2.1</v>
+      </c>
+      <c r="AI255">
+        <v>1.62</v>
+      </c>
+      <c r="AJ255">
+        <v>2.2</v>
+      </c>
+      <c r="AK255">
+        <v>1.2</v>
+      </c>
+      <c r="AL255">
+        <v>1.2</v>
+      </c>
+      <c r="AM255">
+        <v>1.9</v>
+      </c>
+      <c r="AN255">
+        <v>0.58</v>
+      </c>
+      <c r="AO255">
+        <v>1.25</v>
+      </c>
+      <c r="AP255">
+        <v>0.77</v>
+      </c>
+      <c r="AQ255">
+        <v>1.15</v>
+      </c>
+      <c r="AR255">
+        <v>1.4</v>
+      </c>
+      <c r="AS255">
+        <v>1.41</v>
+      </c>
+      <c r="AT255">
+        <v>2.81</v>
+      </c>
+      <c r="AU255">
+        <v>9</v>
+      </c>
+      <c r="AV255">
+        <v>0</v>
+      </c>
+      <c r="AW255">
+        <v>12</v>
+      </c>
+      <c r="AX255">
+        <v>6</v>
+      </c>
+      <c r="AY255">
+        <v>21</v>
+      </c>
+      <c r="AZ255">
+        <v>6</v>
+      </c>
+      <c r="BA255">
+        <v>7</v>
+      </c>
+      <c r="BB255">
+        <v>2</v>
+      </c>
+      <c r="BC255">
+        <v>9</v>
+      </c>
+      <c r="BD255">
+        <v>1.49</v>
+      </c>
+      <c r="BE255">
+        <v>6.85</v>
+      </c>
+      <c r="BF255">
+        <v>3.32</v>
+      </c>
+      <c r="BG255">
+        <v>1.25</v>
+      </c>
+      <c r="BH255">
+        <v>3.6</v>
+      </c>
+      <c r="BI255">
+        <v>1.42</v>
+      </c>
+      <c r="BJ255">
+        <v>2.62</v>
+      </c>
+      <c r="BK255">
+        <v>1.85</v>
+      </c>
+      <c r="BL255">
+        <v>1.95</v>
+      </c>
+      <c r="BM255">
+        <v>2.15</v>
+      </c>
+      <c r="BN255">
+        <v>1.68</v>
+      </c>
+      <c r="BO255">
+        <v>2.62</v>
+      </c>
+      <c r="BP255">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7331178</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45514.27083333334</v>
+      </c>
+      <c r="F256">
+        <v>26</v>
+      </c>
+      <c r="G256" t="s">
+        <v>81</v>
+      </c>
+      <c r="H256" t="s">
+        <v>77</v>
+      </c>
+      <c r="I256">
+        <v>3</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>3</v>
+      </c>
+      <c r="L256">
+        <v>4</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>4</v>
+      </c>
+      <c r="O256" t="s">
+        <v>243</v>
+      </c>
+      <c r="P256" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q256">
+        <v>1.95</v>
+      </c>
+      <c r="R256">
+        <v>2.25</v>
+      </c>
+      <c r="S256">
+        <v>6</v>
+      </c>
+      <c r="T256">
+        <v>1.38</v>
+      </c>
+      <c r="U256">
+        <v>2.9</v>
+      </c>
+      <c r="V256">
+        <v>2.75</v>
+      </c>
+      <c r="W256">
+        <v>1.4</v>
+      </c>
+      <c r="X256">
+        <v>6.5</v>
+      </c>
+      <c r="Y256">
+        <v>1.08</v>
+      </c>
+      <c r="Z256">
+        <v>1.38</v>
+      </c>
+      <c r="AA256">
+        <v>4.33</v>
+      </c>
+      <c r="AB256">
+        <v>7</v>
+      </c>
+      <c r="AC256">
+        <v>1.01</v>
+      </c>
+      <c r="AD256">
+        <v>9.4</v>
+      </c>
+      <c r="AE256">
+        <v>1.26</v>
+      </c>
+      <c r="AF256">
+        <v>3.34</v>
+      </c>
+      <c r="AG256">
+        <v>1.8</v>
+      </c>
+      <c r="AH256">
+        <v>1.91</v>
+      </c>
+      <c r="AI256">
+        <v>2.05</v>
+      </c>
+      <c r="AJ256">
+        <v>1.72</v>
+      </c>
+      <c r="AK256">
+        <v>1.06</v>
+      </c>
+      <c r="AL256">
+        <v>1.16</v>
+      </c>
+      <c r="AM256">
+        <v>2.65</v>
+      </c>
+      <c r="AN256">
+        <v>2.82</v>
+      </c>
+      <c r="AO256">
+        <v>0.83</v>
+      </c>
+      <c r="AP256">
+        <v>2.83</v>
+      </c>
+      <c r="AQ256">
+        <v>0.77</v>
+      </c>
+      <c r="AR256">
+        <v>1.75</v>
+      </c>
+      <c r="AS256">
+        <v>1.12</v>
+      </c>
+      <c r="AT256">
+        <v>2.87</v>
+      </c>
+      <c r="AU256">
+        <v>13</v>
+      </c>
+      <c r="AV256">
+        <v>4</v>
+      </c>
+      <c r="AW256">
+        <v>14</v>
+      </c>
+      <c r="AX256">
+        <v>1</v>
+      </c>
+      <c r="AY256">
+        <v>27</v>
+      </c>
+      <c r="AZ256">
+        <v>5</v>
+      </c>
+      <c r="BA256">
+        <v>6</v>
+      </c>
+      <c r="BB256">
+        <v>2</v>
+      </c>
+      <c r="BC256">
+        <v>8</v>
+      </c>
+      <c r="BD256">
+        <v>1.25</v>
+      </c>
+      <c r="BE256">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF256">
+        <v>5.1</v>
+      </c>
+      <c r="BG256">
+        <v>1.22</v>
+      </c>
+      <c r="BH256">
+        <v>3.8</v>
+      </c>
+      <c r="BI256">
+        <v>1.4</v>
+      </c>
+      <c r="BJ256">
+        <v>2.7</v>
+      </c>
+      <c r="BK256">
+        <v>1.8</v>
+      </c>
+      <c r="BL256">
+        <v>2</v>
+      </c>
+      <c r="BM256">
+        <v>2.05</v>
+      </c>
+      <c r="BN256">
+        <v>1.74</v>
+      </c>
+      <c r="BO256">
+        <v>2.5</v>
+      </c>
+      <c r="BP256">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7331180</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45514.29166666666</v>
+      </c>
+      <c r="F257">
+        <v>26</v>
+      </c>
+      <c r="G257" t="s">
+        <v>84</v>
+      </c>
+      <c r="H257" t="s">
+        <v>85</v>
+      </c>
+      <c r="I257">
+        <v>2</v>
+      </c>
+      <c r="J257">
+        <v>2</v>
+      </c>
+      <c r="K257">
+        <v>4</v>
+      </c>
+      <c r="L257">
+        <v>4</v>
+      </c>
+      <c r="M257">
+        <v>3</v>
+      </c>
+      <c r="N257">
+        <v>7</v>
+      </c>
+      <c r="O257" t="s">
+        <v>244</v>
+      </c>
+      <c r="P257" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q257">
+        <v>2.45</v>
+      </c>
+      <c r="R257">
+        <v>2</v>
+      </c>
+      <c r="S257">
+        <v>4.75</v>
+      </c>
+      <c r="T257">
+        <v>1.48</v>
+      </c>
+      <c r="U257">
+        <v>2.5</v>
+      </c>
+      <c r="V257">
+        <v>3.2</v>
+      </c>
+      <c r="W257">
+        <v>1.32</v>
+      </c>
+      <c r="X257">
+        <v>7.9</v>
+      </c>
+      <c r="Y257">
+        <v>1.05</v>
+      </c>
+      <c r="Z257">
+        <v>1.8</v>
+      </c>
+      <c r="AA257">
+        <v>3.25</v>
+      </c>
+      <c r="AB257">
+        <v>4.2</v>
+      </c>
+      <c r="AC257">
+        <v>1.04</v>
+      </c>
+      <c r="AD257">
+        <v>7.6</v>
+      </c>
+      <c r="AE257">
+        <v>1.4</v>
+      </c>
+      <c r="AF257">
+        <v>2.8</v>
+      </c>
+      <c r="AG257">
+        <v>2.2</v>
+      </c>
+      <c r="AH257">
+        <v>1.62</v>
+      </c>
+      <c r="AI257">
+        <v>2.05</v>
+      </c>
+      <c r="AJ257">
+        <v>1.72</v>
+      </c>
+      <c r="AK257">
+        <v>1.17</v>
+      </c>
+      <c r="AL257">
+        <v>1.27</v>
+      </c>
+      <c r="AM257">
+        <v>1.91</v>
+      </c>
+      <c r="AN257">
+        <v>1.69</v>
+      </c>
+      <c r="AO257">
+        <v>0.85</v>
+      </c>
+      <c r="AP257">
+        <v>1.79</v>
+      </c>
+      <c r="AQ257">
+        <v>0.79</v>
+      </c>
+      <c r="AR257">
+        <v>1.53</v>
+      </c>
+      <c r="AS257">
+        <v>1.15</v>
+      </c>
+      <c r="AT257">
+        <v>2.68</v>
+      </c>
+      <c r="AU257">
+        <v>2</v>
+      </c>
+      <c r="AV257">
+        <v>0</v>
+      </c>
+      <c r="AW257">
+        <v>2</v>
+      </c>
+      <c r="AX257">
+        <v>2</v>
+      </c>
+      <c r="AY257">
+        <v>4</v>
+      </c>
+      <c r="AZ257">
+        <v>2</v>
+      </c>
+      <c r="BA257">
+        <v>0</v>
+      </c>
+      <c r="BB257">
+        <v>1</v>
+      </c>
+      <c r="BC257">
+        <v>1</v>
+      </c>
+      <c r="BD257">
+        <v>1.36</v>
+      </c>
+      <c r="BE257">
+        <v>7.3</v>
+      </c>
+      <c r="BF257">
+        <v>4.05</v>
+      </c>
+      <c r="BG257">
+        <v>1.33</v>
+      </c>
+      <c r="BH257">
+        <v>3</v>
+      </c>
+      <c r="BI257">
+        <v>1.56</v>
+      </c>
+      <c r="BJ257">
+        <v>2.35</v>
+      </c>
+      <c r="BK257">
+        <v>1.85</v>
+      </c>
+      <c r="BL257">
+        <v>1.95</v>
+      </c>
+      <c r="BM257">
+        <v>2.47</v>
+      </c>
+      <c r="BN257">
+        <v>1.51</v>
+      </c>
+      <c r="BO257">
+        <v>3.2</v>
+      </c>
+      <c r="BP257">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7331179</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45514.29166666666</v>
+      </c>
+      <c r="F258">
+        <v>26</v>
+      </c>
+      <c r="G258" t="s">
+        <v>75</v>
+      </c>
+      <c r="H258" t="s">
+        <v>74</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+      <c r="O258" t="s">
+        <v>92</v>
+      </c>
+      <c r="P258" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q258">
+        <v>3.2</v>
+      </c>
+      <c r="R258">
+        <v>2.12</v>
+      </c>
+      <c r="S258">
+        <v>3</v>
+      </c>
+      <c r="T258">
+        <v>1.37</v>
+      </c>
+      <c r="U258">
+        <v>2.94</v>
+      </c>
+      <c r="V258">
+        <v>2.75</v>
+      </c>
+      <c r="W258">
+        <v>1.4</v>
+      </c>
+      <c r="X258">
+        <v>6.2</v>
+      </c>
+      <c r="Y258">
+        <v>1.09</v>
+      </c>
+      <c r="Z258">
+        <v>2.5</v>
+      </c>
+      <c r="AA258">
+        <v>3.3</v>
+      </c>
+      <c r="AB258">
+        <v>2.5</v>
+      </c>
+      <c r="AC258">
+        <v>1.01</v>
+      </c>
+      <c r="AD258">
+        <v>9.6</v>
+      </c>
+      <c r="AE258">
+        <v>1.25</v>
+      </c>
+      <c r="AF258">
+        <v>3.42</v>
+      </c>
+      <c r="AG258">
+        <v>1.8</v>
+      </c>
+      <c r="AH258">
+        <v>1.91</v>
+      </c>
+      <c r="AI258">
+        <v>1.66</v>
+      </c>
+      <c r="AJ258">
+        <v>2.15</v>
+      </c>
+      <c r="AK258">
+        <v>1.48</v>
+      </c>
+      <c r="AL258">
+        <v>1.27</v>
+      </c>
+      <c r="AM258">
+        <v>1.43</v>
+      </c>
+      <c r="AN258">
+        <v>1.92</v>
+      </c>
+      <c r="AO258">
+        <v>1.08</v>
+      </c>
+      <c r="AP258">
+        <v>1.85</v>
+      </c>
+      <c r="AQ258">
+        <v>1.07</v>
+      </c>
+      <c r="AR258">
+        <v>1.57</v>
+      </c>
+      <c r="AS258">
+        <v>1.5</v>
+      </c>
+      <c r="AT258">
+        <v>3.07</v>
+      </c>
+      <c r="AU258">
+        <v>2</v>
+      </c>
+      <c r="AV258">
+        <v>0</v>
+      </c>
+      <c r="AW258">
+        <v>0</v>
+      </c>
+      <c r="AX258">
+        <v>0</v>
+      </c>
+      <c r="AY258">
+        <v>2</v>
+      </c>
+      <c r="AZ258">
+        <v>0</v>
+      </c>
+      <c r="BA258">
+        <v>6</v>
+      </c>
+      <c r="BB258">
+        <v>0</v>
+      </c>
+      <c r="BC258">
+        <v>6</v>
+      </c>
+      <c r="BD258">
+        <v>1.92</v>
+      </c>
+      <c r="BE258">
+        <v>6.3</v>
+      </c>
+      <c r="BF258">
+        <v>2.28</v>
+      </c>
+      <c r="BG258">
+        <v>1.25</v>
+      </c>
+      <c r="BH258">
+        <v>3.6</v>
+      </c>
+      <c r="BI258">
+        <v>1.42</v>
+      </c>
+      <c r="BJ258">
+        <v>2.62</v>
+      </c>
+      <c r="BK258">
+        <v>1.95</v>
+      </c>
+      <c r="BL258">
+        <v>1.85</v>
+      </c>
+      <c r="BM258">
+        <v>2.17</v>
+      </c>
+      <c r="BN258">
+        <v>1.65</v>
+      </c>
+      <c r="BO258">
+        <v>2.62</v>
+      </c>
+      <c r="BP258">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="352">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,12 @@
     <t>['26', '45+1', '70', '84']</t>
   </si>
   <si>
+    <t>['46', '58']</t>
+  </si>
+  <si>
+    <t>['87', '90+4']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1425,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP258"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1896,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2508,7 +2514,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2920,7 +2926,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3207,7 +3213,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3332,7 +3338,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3616,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ11">
         <v>1.64</v>
@@ -3744,7 +3750,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3950,7 +3956,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4646,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ16">
         <v>1.85</v>
@@ -4855,7 +4861,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5598,7 +5604,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5804,7 +5810,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -6010,7 +6016,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6503,7 +6509,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -7246,7 +7252,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7452,7 +7458,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7533,7 +7539,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ30">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7658,7 +7664,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7864,7 +7870,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8482,7 +8488,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8563,7 +8569,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ35">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8688,7 +8694,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8766,7 +8772,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36">
         <v>1.69</v>
@@ -8972,7 +8978,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ37">
         <v>1.64</v>
@@ -9306,7 +9312,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9512,7 +9518,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -10208,10 +10214,10 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -10826,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
         <v>1.15</v>
@@ -10954,7 +10960,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11238,7 +11244,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ48">
         <v>0.79</v>
@@ -11447,7 +11453,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR49">
         <v>1.94</v>
@@ -11572,7 +11578,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11778,7 +11784,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11984,7 +11990,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12190,7 +12196,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12808,7 +12814,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12889,7 +12895,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -13507,7 +13513,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13632,7 +13638,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13838,7 +13844,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14044,7 +14050,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14534,7 +14540,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ64">
         <v>1.75</v>
@@ -14740,7 +14746,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>1.5</v>
@@ -14949,7 +14955,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR66">
         <v>1.44</v>
@@ -15074,7 +15080,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15358,7 +15364,7 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ68">
         <v>1.46</v>
@@ -15898,7 +15904,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16310,7 +16316,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16391,7 +16397,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ73">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16516,7 +16522,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16722,7 +16728,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16803,7 +16809,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ75">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR75">
         <v>2.06</v>
@@ -17134,7 +17140,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17624,7 +17630,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ79">
         <v>0.92</v>
@@ -17752,7 +17758,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -18164,7 +18170,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18448,10 +18454,10 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR83">
         <v>1.51</v>
@@ -18988,7 +18994,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19812,7 +19818,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19890,7 +19896,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ90">
         <v>1.08</v>
@@ -20018,7 +20024,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20224,7 +20230,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20511,7 +20517,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ93">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR93">
         <v>1.45</v>
@@ -20842,7 +20848,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -21048,7 +21054,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21254,7 +21260,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21335,7 +21341,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21538,7 +21544,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ98">
         <v>1.46</v>
@@ -22078,7 +22084,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22365,7 +22371,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ102">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR102">
         <v>1.81</v>
@@ -22571,7 +22577,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR103">
         <v>1.24</v>
@@ -22696,7 +22702,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22902,7 +22908,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23186,7 +23192,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
         <v>1.15</v>
@@ -23314,7 +23320,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23520,7 +23526,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23932,7 +23938,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24010,7 +24016,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ110">
         <v>1.75</v>
@@ -24344,7 +24350,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24550,7 +24556,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24756,7 +24762,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25168,7 +25174,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25580,7 +25586,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25658,7 +25664,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ118">
         <v>1.85</v>
@@ -26610,7 +26616,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26816,7 +26822,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26897,7 +26903,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ124">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -27022,7 +27028,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27228,7 +27234,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27640,7 +27646,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27718,7 +27724,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
         <v>1.46</v>
@@ -28052,7 +28058,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28748,7 +28754,7 @@
         <v>2.33</v>
       </c>
       <c r="AP133">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ133">
         <v>1.92</v>
@@ -28876,7 +28882,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28957,7 +28963,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ134">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -29082,7 +29088,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q135">
         <v>3.79</v>
@@ -29575,7 +29581,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ137">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29700,7 +29706,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29778,7 +29784,7 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ138">
         <v>1.69</v>
@@ -29906,7 +29912,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30524,7 +30530,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30811,7 +30817,7 @@
         <v>2.83</v>
       </c>
       <c r="AQ143">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR143">
         <v>1.82</v>
@@ -30936,7 +30942,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31348,7 +31354,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31426,7 +31432,7 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ146">
         <v>0.92</v>
@@ -32172,7 +32178,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32250,7 +32256,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ150">
         <v>1.15</v>
@@ -32378,7 +32384,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32584,7 +32590,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32665,7 +32671,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ152">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -32996,7 +33002,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33408,7 +33414,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33486,7 +33492,7 @@
         <v>1.25</v>
       </c>
       <c r="AP156">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ156">
         <v>1.08</v>
@@ -33614,7 +33620,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33820,7 +33826,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34232,7 +34238,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34438,7 +34444,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34850,7 +34856,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34931,7 +34937,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ163">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -35262,7 +35268,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35468,7 +35474,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35752,7 +35758,7 @@
         <v>0.57</v>
       </c>
       <c r="AP167">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ167">
         <v>0.77</v>
@@ -35880,7 +35886,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35961,7 +35967,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ168">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR168">
         <v>1.62</v>
@@ -36086,7 +36092,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36292,7 +36298,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36576,7 +36582,7 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ171">
         <v>1.58</v>
@@ -36704,7 +36710,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36910,7 +36916,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -36988,10 +36994,10 @@
         <v>1.5</v>
       </c>
       <c r="AP173">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ173">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR173">
         <v>1.34</v>
@@ -37116,7 +37122,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37528,7 +37534,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -38146,7 +38152,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38558,7 +38564,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38639,7 +38645,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ181">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR181">
         <v>1.17</v>
@@ -38764,7 +38770,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -38842,10 +38848,10 @@
         <v>1.63</v>
       </c>
       <c r="AP182">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ182">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR182">
         <v>1.43</v>
@@ -38970,7 +38976,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39382,7 +39388,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39794,7 +39800,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -40284,7 +40290,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ189">
         <v>1.5</v>
@@ -40412,7 +40418,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40493,7 +40499,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ190">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR190">
         <v>1.48</v>
@@ -40618,7 +40624,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -41030,7 +41036,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41442,7 +41448,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41854,7 +41860,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42060,7 +42066,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42138,7 +42144,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP198">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ198">
         <v>0.79</v>
@@ -42553,7 +42559,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ200">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR200">
         <v>2.16</v>
@@ -42756,7 +42762,7 @@
         <v>1.9</v>
       </c>
       <c r="AP201">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ201">
         <v>1.64</v>
@@ -42965,7 +42971,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ202">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR202">
         <v>1.65</v>
@@ -43090,7 +43096,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43296,7 +43302,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43708,7 +43714,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -44404,7 +44410,7 @@
         <v>1.64</v>
       </c>
       <c r="AP209">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ209">
         <v>1.5</v>
@@ -44944,7 +44950,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -45356,7 +45362,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45562,7 +45568,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45768,7 +45774,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -45974,7 +45980,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -46258,7 +46264,7 @@
         <v>1.64</v>
       </c>
       <c r="AP218">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ218">
         <v>1.69</v>
@@ -46386,7 +46392,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46464,7 +46470,7 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ219">
         <v>1.15</v>
@@ -46592,7 +46598,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46798,7 +46804,7 @@
         <v>224</v>
       </c>
       <c r="P221" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q221">
         <v>1.95</v>
@@ -46879,7 +46885,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ221">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR221">
         <v>2.08</v>
@@ -47004,7 +47010,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q222">
         <v>3.25</v>
@@ -47210,7 +47216,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47622,7 +47628,7 @@
         <v>96</v>
       </c>
       <c r="P225" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q225">
         <v>2.9</v>
@@ -47703,7 +47709,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ225">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR225">
         <v>1.37</v>
@@ -48112,7 +48118,7 @@
         <v>0.73</v>
       </c>
       <c r="AP227">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ227">
         <v>0.79</v>
@@ -48527,7 +48533,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ229">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR229">
         <v>1.53</v>
@@ -48733,7 +48739,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ230">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR230">
         <v>1.61</v>
@@ -48858,7 +48864,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49554,7 +49560,7 @@
         <v>1.73</v>
       </c>
       <c r="AP234">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ234">
         <v>1.58</v>
@@ -49682,7 +49688,7 @@
         <v>231</v>
       </c>
       <c r="P235" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q235">
         <v>5.5</v>
@@ -49888,7 +49894,7 @@
         <v>232</v>
       </c>
       <c r="P236" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50094,7 +50100,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50172,7 +50178,7 @@
         <v>1.5</v>
       </c>
       <c r="AP237">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ237">
         <v>1.5</v>
@@ -50506,7 +50512,7 @@
         <v>234</v>
       </c>
       <c r="P239" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q239">
         <v>4.75</v>
@@ -50712,7 +50718,7 @@
         <v>210</v>
       </c>
       <c r="P240" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -50790,7 +50796,7 @@
         <v>1.64</v>
       </c>
       <c r="AP240">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ240">
         <v>1.75</v>
@@ -50918,7 +50924,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -50999,7 +51005,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ241">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AR241">
         <v>1.98</v>
@@ -51124,7 +51130,7 @@
         <v>235</v>
       </c>
       <c r="P242" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q242">
         <v>2.45</v>
@@ -51330,7 +51336,7 @@
         <v>236</v>
       </c>
       <c r="P243" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q243">
         <v>2.9</v>
@@ -51823,7 +51829,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ245">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR245">
         <v>1.13</v>
@@ -51948,7 +51954,7 @@
         <v>92</v>
       </c>
       <c r="P246" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q246">
         <v>2.6</v>
@@ -52154,7 +52160,7 @@
         <v>138</v>
       </c>
       <c r="P247" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q247">
         <v>2.85</v>
@@ -53895,7 +53901,7 @@
         <v>2.81</v>
       </c>
       <c r="AU255">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV255">
         <v>0</v>
@@ -53907,7 +53913,7 @@
         <v>6</v>
       </c>
       <c r="AY255">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AZ255">
         <v>6</v>
@@ -54101,22 +54107,22 @@
         <v>2.87</v>
       </c>
       <c r="AU256">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AV256">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW256">
         <v>14</v>
       </c>
       <c r="AX256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY256">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AZ256">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA256">
         <v>6</v>
@@ -54214,7 +54220,7 @@
         <v>244</v>
       </c>
       <c r="P257" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q257">
         <v>2.45</v>
@@ -54307,31 +54313,31 @@
         <v>2.68</v>
       </c>
       <c r="AU257">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV257">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY257">
+        <v>8</v>
+      </c>
+      <c r="AZ257">
+        <v>5</v>
+      </c>
+      <c r="BA257">
+        <v>3</v>
+      </c>
+      <c r="BB257">
+        <v>1</v>
+      </c>
+      <c r="BC257">
         <v>4</v>
-      </c>
-      <c r="AZ257">
-        <v>2</v>
-      </c>
-      <c r="BA257">
-        <v>0</v>
-      </c>
-      <c r="BB257">
-        <v>1</v>
-      </c>
-      <c r="BC257">
-        <v>1</v>
       </c>
       <c r="BD257">
         <v>1.36</v>
@@ -54513,31 +54519,31 @@
         <v>3.07</v>
       </c>
       <c r="AU258">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV258">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX258">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY258">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ258">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BA258">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB258">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC258">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD258">
         <v>1.92</v>
@@ -54577,6 +54583,624 @@
       </c>
       <c r="BP258">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7331181</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45515.25</v>
+      </c>
+      <c r="F259">
+        <v>26</v>
+      </c>
+      <c r="G259" t="s">
+        <v>89</v>
+      </c>
+      <c r="H259" t="s">
+        <v>82</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>2</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>2</v>
+      </c>
+      <c r="O259" t="s">
+        <v>245</v>
+      </c>
+      <c r="P259" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q259">
+        <v>2.75</v>
+      </c>
+      <c r="R259">
+        <v>2.05</v>
+      </c>
+      <c r="S259">
+        <v>4.33</v>
+      </c>
+      <c r="T259">
+        <v>1.44</v>
+      </c>
+      <c r="U259">
+        <v>2.63</v>
+      </c>
+      <c r="V259">
+        <v>3.25</v>
+      </c>
+      <c r="W259">
+        <v>1.33</v>
+      </c>
+      <c r="X259">
+        <v>10</v>
+      </c>
+      <c r="Y259">
+        <v>1.06</v>
+      </c>
+      <c r="Z259">
+        <v>2.02</v>
+      </c>
+      <c r="AA259">
+        <v>3.3</v>
+      </c>
+      <c r="AB259">
+        <v>3.7</v>
+      </c>
+      <c r="AC259">
+        <v>1.05</v>
+      </c>
+      <c r="AD259">
+        <v>7.2</v>
+      </c>
+      <c r="AE259">
+        <v>1.38</v>
+      </c>
+      <c r="AF259">
+        <v>2.9</v>
+      </c>
+      <c r="AG259">
+        <v>2.08</v>
+      </c>
+      <c r="AH259">
+        <v>1.62</v>
+      </c>
+      <c r="AI259">
+        <v>1.91</v>
+      </c>
+      <c r="AJ259">
+        <v>1.8</v>
+      </c>
+      <c r="AK259">
+        <v>1.25</v>
+      </c>
+      <c r="AL259">
+        <v>1.28</v>
+      </c>
+      <c r="AM259">
+        <v>1.72</v>
+      </c>
+      <c r="AN259">
+        <v>1.42</v>
+      </c>
+      <c r="AO259">
+        <v>0.5</v>
+      </c>
+      <c r="AP259">
+        <v>1.54</v>
+      </c>
+      <c r="AQ259">
+        <v>0.46</v>
+      </c>
+      <c r="AR259">
+        <v>1.51</v>
+      </c>
+      <c r="AS259">
+        <v>1.38</v>
+      </c>
+      <c r="AT259">
+        <v>2.89</v>
+      </c>
+      <c r="AU259">
+        <v>8</v>
+      </c>
+      <c r="AV259">
+        <v>3</v>
+      </c>
+      <c r="AW259">
+        <v>4</v>
+      </c>
+      <c r="AX259">
+        <v>2</v>
+      </c>
+      <c r="AY259">
+        <v>12</v>
+      </c>
+      <c r="AZ259">
+        <v>5</v>
+      </c>
+      <c r="BA259">
+        <v>6</v>
+      </c>
+      <c r="BB259">
+        <v>3</v>
+      </c>
+      <c r="BC259">
+        <v>9</v>
+      </c>
+      <c r="BD259">
+        <v>1.52</v>
+      </c>
+      <c r="BE259">
+        <v>6.95</v>
+      </c>
+      <c r="BF259">
+        <v>3.16</v>
+      </c>
+      <c r="BG259">
+        <v>1.22</v>
+      </c>
+      <c r="BH259">
+        <v>3.8</v>
+      </c>
+      <c r="BI259">
+        <v>1.36</v>
+      </c>
+      <c r="BJ259">
+        <v>2.88</v>
+      </c>
+      <c r="BK259">
+        <v>1.61</v>
+      </c>
+      <c r="BL259">
+        <v>2.26</v>
+      </c>
+      <c r="BM259">
+        <v>2</v>
+      </c>
+      <c r="BN259">
+        <v>1.8</v>
+      </c>
+      <c r="BO259">
+        <v>2.53</v>
+      </c>
+      <c r="BP259">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7331182</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F260">
+        <v>26</v>
+      </c>
+      <c r="G260" t="s">
+        <v>88</v>
+      </c>
+      <c r="H260" t="s">
+        <v>78</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>1</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>1</v>
+      </c>
+      <c r="O260" t="s">
+        <v>127</v>
+      </c>
+      <c r="P260" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q260">
+        <v>3.2</v>
+      </c>
+      <c r="R260">
+        <v>2.05</v>
+      </c>
+      <c r="S260">
+        <v>3.6</v>
+      </c>
+      <c r="T260">
+        <v>1.44</v>
+      </c>
+      <c r="U260">
+        <v>2.63</v>
+      </c>
+      <c r="V260">
+        <v>3.25</v>
+      </c>
+      <c r="W260">
+        <v>1.33</v>
+      </c>
+      <c r="X260">
+        <v>9</v>
+      </c>
+      <c r="Y260">
+        <v>1.07</v>
+      </c>
+      <c r="Z260">
+        <v>2.43</v>
+      </c>
+      <c r="AA260">
+        <v>3.25</v>
+      </c>
+      <c r="AB260">
+        <v>2.85</v>
+      </c>
+      <c r="AC260">
+        <v>1.03</v>
+      </c>
+      <c r="AD260">
+        <v>8</v>
+      </c>
+      <c r="AE260">
+        <v>1.36</v>
+      </c>
+      <c r="AF260">
+        <v>3</v>
+      </c>
+      <c r="AG260">
+        <v>1.97</v>
+      </c>
+      <c r="AH260">
+        <v>1.69</v>
+      </c>
+      <c r="AI260">
+        <v>1.83</v>
+      </c>
+      <c r="AJ260">
+        <v>1.83</v>
+      </c>
+      <c r="AK260">
+        <v>1.38</v>
+      </c>
+      <c r="AL260">
+        <v>1.28</v>
+      </c>
+      <c r="AM260">
+        <v>1.53</v>
+      </c>
+      <c r="AN260">
+        <v>1.25</v>
+      </c>
+      <c r="AO260">
+        <v>1.75</v>
+      </c>
+      <c r="AP260">
+        <v>1.38</v>
+      </c>
+      <c r="AQ260">
+        <v>1.62</v>
+      </c>
+      <c r="AR260">
+        <v>1.6</v>
+      </c>
+      <c r="AS260">
+        <v>1.26</v>
+      </c>
+      <c r="AT260">
+        <v>2.86</v>
+      </c>
+      <c r="AU260">
+        <v>4</v>
+      </c>
+      <c r="AV260">
+        <v>2</v>
+      </c>
+      <c r="AW260">
+        <v>7</v>
+      </c>
+      <c r="AX260">
+        <v>3</v>
+      </c>
+      <c r="AY260">
+        <v>11</v>
+      </c>
+      <c r="AZ260">
+        <v>5</v>
+      </c>
+      <c r="BA260">
+        <v>4</v>
+      </c>
+      <c r="BB260">
+        <v>5</v>
+      </c>
+      <c r="BC260">
+        <v>9</v>
+      </c>
+      <c r="BD260">
+        <v>1.66</v>
+      </c>
+      <c r="BE260">
+        <v>6.55</v>
+      </c>
+      <c r="BF260">
+        <v>2.76</v>
+      </c>
+      <c r="BG260">
+        <v>1.29</v>
+      </c>
+      <c r="BH260">
+        <v>3.4</v>
+      </c>
+      <c r="BI260">
+        <v>1.48</v>
+      </c>
+      <c r="BJ260">
+        <v>2.5</v>
+      </c>
+      <c r="BK260">
+        <v>1.8</v>
+      </c>
+      <c r="BL260">
+        <v>2</v>
+      </c>
+      <c r="BM260">
+        <v>2.23</v>
+      </c>
+      <c r="BN260">
+        <v>1.63</v>
+      </c>
+      <c r="BO260">
+        <v>2.8</v>
+      </c>
+      <c r="BP260">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7331183</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45515.29166666666</v>
+      </c>
+      <c r="F261">
+        <v>26</v>
+      </c>
+      <c r="G261" t="s">
+        <v>79</v>
+      </c>
+      <c r="H261" t="s">
+        <v>76</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>2</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261">
+        <v>3</v>
+      </c>
+      <c r="O261" t="s">
+        <v>246</v>
+      </c>
+      <c r="P261" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q261">
+        <v>3.4</v>
+      </c>
+      <c r="R261">
+        <v>2.1</v>
+      </c>
+      <c r="S261">
+        <v>3.2</v>
+      </c>
+      <c r="T261">
+        <v>1.44</v>
+      </c>
+      <c r="U261">
+        <v>2.63</v>
+      </c>
+      <c r="V261">
+        <v>3</v>
+      </c>
+      <c r="W261">
+        <v>1.36</v>
+      </c>
+      <c r="X261">
+        <v>9</v>
+      </c>
+      <c r="Y261">
+        <v>1.07</v>
+      </c>
+      <c r="Z261">
+        <v>2.8</v>
+      </c>
+      <c r="AA261">
+        <v>3.25</v>
+      </c>
+      <c r="AB261">
+        <v>2.48</v>
+      </c>
+      <c r="AC261">
+        <v>1.03</v>
+      </c>
+      <c r="AD261">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE261">
+        <v>1.33</v>
+      </c>
+      <c r="AF261">
+        <v>3.2</v>
+      </c>
+      <c r="AG261">
+        <v>1.99</v>
+      </c>
+      <c r="AH261">
+        <v>1.79</v>
+      </c>
+      <c r="AI261">
+        <v>1.8</v>
+      </c>
+      <c r="AJ261">
+        <v>1.91</v>
+      </c>
+      <c r="AK261">
+        <v>1.5</v>
+      </c>
+      <c r="AL261">
+        <v>1.28</v>
+      </c>
+      <c r="AM261">
+        <v>1.42</v>
+      </c>
+      <c r="AN261">
+        <v>0.77</v>
+      </c>
+      <c r="AO261">
+        <v>1.42</v>
+      </c>
+      <c r="AP261">
+        <v>0.93</v>
+      </c>
+      <c r="AQ261">
+        <v>1.31</v>
+      </c>
+      <c r="AR261">
+        <v>1.3</v>
+      </c>
+      <c r="AS261">
+        <v>1.45</v>
+      </c>
+      <c r="AT261">
+        <v>2.75</v>
+      </c>
+      <c r="AU261">
+        <v>5</v>
+      </c>
+      <c r="AV261">
+        <v>5</v>
+      </c>
+      <c r="AW261">
+        <v>9</v>
+      </c>
+      <c r="AX261">
+        <v>9</v>
+      </c>
+      <c r="AY261">
+        <v>14</v>
+      </c>
+      <c r="AZ261">
+        <v>14</v>
+      </c>
+      <c r="BA261">
+        <v>9</v>
+      </c>
+      <c r="BB261">
+        <v>2</v>
+      </c>
+      <c r="BC261">
+        <v>11</v>
+      </c>
+      <c r="BD261">
+        <v>2.48</v>
+      </c>
+      <c r="BE261">
+        <v>6.4</v>
+      </c>
+      <c r="BF261">
+        <v>1.79</v>
+      </c>
+      <c r="BG261">
+        <v>1.25</v>
+      </c>
+      <c r="BH261">
+        <v>3.6</v>
+      </c>
+      <c r="BI261">
+        <v>1.47</v>
+      </c>
+      <c r="BJ261">
+        <v>2.56</v>
+      </c>
+      <c r="BK261">
+        <v>1.95</v>
+      </c>
+      <c r="BL261">
+        <v>1.85</v>
+      </c>
+      <c r="BM261">
+        <v>2.19</v>
+      </c>
+      <c r="BN261">
+        <v>1.64</v>
+      </c>
+      <c r="BO261">
+        <v>2.7</v>
+      </c>
+      <c r="BP261">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="362">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -772,6 +772,9 @@
     <t>['9', '13', '25']</t>
   </si>
   <si>
+    <t>['35', '46', '85']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1094,6 +1097,9 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['2', '11']</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,7 +1926,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2410,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ5">
         <v>1.07</v>
@@ -2538,7 +2544,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2950,7 +2956,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3362,7 +3368,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3774,7 +3780,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3980,7 +3986,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -5628,7 +5634,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5834,7 +5840,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -6040,7 +6046,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6945,7 +6951,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -7276,7 +7282,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7482,7 +7488,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7560,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ30">
         <v>1.31</v>
@@ -7688,7 +7694,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7894,7 +7900,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8181,7 +8187,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -8512,7 +8518,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8718,7 +8724,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -9336,7 +9342,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9542,7 +9548,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -10984,7 +10990,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11602,7 +11608,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11680,7 +11686,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50">
         <v>1.79</v>
@@ -11808,7 +11814,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -12014,7 +12020,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12220,7 +12226,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12838,7 +12844,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13662,7 +13668,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13743,7 +13749,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13868,7 +13874,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14074,7 +14080,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -15104,7 +15110,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15800,7 +15806,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70">
         <v>1.15</v>
@@ -15928,7 +15934,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16340,7 +16346,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16546,7 +16552,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16752,7 +16758,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -17164,7 +17170,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17245,7 +17251,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -17782,7 +17788,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -18194,7 +18200,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -19018,7 +19024,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19842,7 +19848,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -20048,7 +20054,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20126,7 +20132,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ91">
         <v>1.43</v>
@@ -20254,7 +20260,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20335,7 +20341,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR92">
         <v>2.25</v>
@@ -20872,7 +20878,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -21078,7 +21084,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21284,7 +21290,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21362,7 +21368,7 @@
         <v>0.4</v>
       </c>
       <c r="AP97">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ97">
         <v>0.43</v>
@@ -22108,7 +22114,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22726,7 +22732,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22932,7 +22938,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23344,7 +23350,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23550,7 +23556,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23962,7 +23968,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24374,7 +24380,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24580,7 +24586,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24786,7 +24792,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25070,7 +25076,7 @@
         <v>2.33</v>
       </c>
       <c r="AP115">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ115">
         <v>1.57</v>
@@ -25198,7 +25204,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25279,7 +25285,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ116">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR116">
         <v>1.7</v>
@@ -25610,7 +25616,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26640,7 +26646,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26846,7 +26852,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -27052,7 +27058,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27258,7 +27264,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27670,7 +27676,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -28082,7 +28088,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28163,7 +28169,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28906,7 +28912,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -29730,7 +29736,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29936,7 +29942,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30220,7 +30226,7 @@
         <v>1.57</v>
       </c>
       <c r="AP140">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ140">
         <v>1.85</v>
@@ -30554,7 +30560,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30966,7 +30972,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31378,7 +31384,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -32202,7 +32208,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32408,7 +32414,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32614,7 +32620,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -33026,7 +33032,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33313,7 +33319,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ155">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR155">
         <v>1.5</v>
@@ -33438,7 +33444,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33644,7 +33650,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33850,7 +33856,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34262,7 +34268,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34468,7 +34474,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34752,7 +34758,7 @@
         <v>0.5</v>
       </c>
       <c r="AP162">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ162">
         <v>0.79</v>
@@ -34880,7 +34886,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35292,7 +35298,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35498,7 +35504,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35910,7 +35916,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36116,7 +36122,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36322,7 +36328,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36734,7 +36740,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36940,7 +36946,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37146,7 +37152,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37558,7 +37564,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -38176,7 +38182,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38588,7 +38594,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38794,7 +38800,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -39000,7 +39006,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39412,7 +39418,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39696,7 +39702,7 @@
         <v>1</v>
       </c>
       <c r="AP186">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ186">
         <v>1.08</v>
@@ -39824,7 +39830,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -40317,7 +40323,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ189">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR189">
         <v>1.54</v>
@@ -40442,7 +40448,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40648,7 +40654,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -41060,7 +41066,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41472,7 +41478,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41756,7 +41762,7 @@
         <v>1.8</v>
       </c>
       <c r="AP196">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ196">
         <v>1.5</v>
@@ -41884,7 +41890,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42090,7 +42096,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -43120,7 +43126,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43326,7 +43332,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43738,7 +43744,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -44231,7 +44237,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ208">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR208">
         <v>1.32</v>
@@ -44974,7 +44980,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -45386,7 +45392,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45592,7 +45598,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45798,7 +45804,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -46004,7 +46010,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -46416,7 +46422,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46622,7 +46628,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -47034,7 +47040,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q222">
         <v>3.25</v>
@@ -47240,7 +47246,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47321,7 +47327,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ223">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR223">
         <v>1.52</v>
@@ -47652,7 +47658,7 @@
         <v>96</v>
       </c>
       <c r="P225" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q225">
         <v>2.9</v>
@@ -48888,7 +48894,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -48966,7 +48972,7 @@
         <v>0.6</v>
       </c>
       <c r="AP231">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ231">
         <v>0.77</v>
@@ -49712,7 +49718,7 @@
         <v>231</v>
       </c>
       <c r="P235" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q235">
         <v>5.5</v>
@@ -49918,7 +49924,7 @@
         <v>232</v>
       </c>
       <c r="P236" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50124,7 +50130,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50536,7 +50542,7 @@
         <v>234</v>
       </c>
       <c r="P239" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q239">
         <v>4.75</v>
@@ -50742,7 +50748,7 @@
         <v>210</v>
       </c>
       <c r="P240" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -50948,7 +50954,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51154,7 +51160,7 @@
         <v>235</v>
       </c>
       <c r="P242" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q242">
         <v>2.45</v>
@@ -51360,7 +51366,7 @@
         <v>236</v>
       </c>
       <c r="P243" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q243">
         <v>2.9</v>
@@ -51850,7 +51856,7 @@
         <v>1.64</v>
       </c>
       <c r="AP245">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ245">
         <v>1.62</v>
@@ -51978,7 +51984,7 @@
         <v>92</v>
       </c>
       <c r="P246" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q246">
         <v>2.6</v>
@@ -52184,7 +52190,7 @@
         <v>138</v>
       </c>
       <c r="P247" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q247">
         <v>2.85</v>
@@ -52883,7 +52889,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ250">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR250">
         <v>1.55</v>
@@ -54244,7 +54250,7 @@
         <v>244</v>
       </c>
       <c r="P257" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q257">
         <v>2.45</v>
@@ -55686,7 +55692,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q264">
         <v>3.26</v>
@@ -56098,7 +56104,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q266">
         <v>7.59</v>
@@ -56304,7 +56310,7 @@
         <v>92</v>
       </c>
       <c r="P267" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q267">
         <v>2.38</v>
@@ -56922,7 +56928,7 @@
         <v>92</v>
       </c>
       <c r="P270" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q270">
         <v>2.79</v>
@@ -57079,6 +57085,212 @@
       </c>
       <c r="BP270">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7331203</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45522.29166666666</v>
+      </c>
+      <c r="F271">
+        <v>27</v>
+      </c>
+      <c r="G271" t="s">
+        <v>73</v>
+      </c>
+      <c r="H271" t="s">
+        <v>79</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>2</v>
+      </c>
+      <c r="K271">
+        <v>3</v>
+      </c>
+      <c r="L271">
+        <v>3</v>
+      </c>
+      <c r="M271">
+        <v>2</v>
+      </c>
+      <c r="N271">
+        <v>5</v>
+      </c>
+      <c r="O271" t="s">
+        <v>252</v>
+      </c>
+      <c r="P271" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q271">
+        <v>3.2</v>
+      </c>
+      <c r="R271">
+        <v>2.15</v>
+      </c>
+      <c r="S271">
+        <v>2.88</v>
+      </c>
+      <c r="T271">
+        <v>1.36</v>
+      </c>
+      <c r="U271">
+        <v>3</v>
+      </c>
+      <c r="V271">
+        <v>2.62</v>
+      </c>
+      <c r="W271">
+        <v>1.44</v>
+      </c>
+      <c r="X271">
+        <v>6</v>
+      </c>
+      <c r="Y271">
+        <v>1.11</v>
+      </c>
+      <c r="Z271">
+        <v>4.44</v>
+      </c>
+      <c r="AA271">
+        <v>1.72</v>
+      </c>
+      <c r="AB271">
+        <v>3.31</v>
+      </c>
+      <c r="AC271">
+        <v>1.02</v>
+      </c>
+      <c r="AD271">
+        <v>9.1</v>
+      </c>
+      <c r="AE271">
+        <v>1.25</v>
+      </c>
+      <c r="AF271">
+        <v>3.42</v>
+      </c>
+      <c r="AG271">
+        <v>1.81</v>
+      </c>
+      <c r="AH271">
+        <v>1.99</v>
+      </c>
+      <c r="AI271">
+        <v>1.65</v>
+      </c>
+      <c r="AJ271">
+        <v>2.05</v>
+      </c>
+      <c r="AK271">
+        <v>1.47</v>
+      </c>
+      <c r="AL271">
+        <v>1.32</v>
+      </c>
+      <c r="AM271">
+        <v>1.3</v>
+      </c>
+      <c r="AN271">
+        <v>1.46</v>
+      </c>
+      <c r="AO271">
+        <v>1.5</v>
+      </c>
+      <c r="AP271">
+        <v>1.57</v>
+      </c>
+      <c r="AQ271">
+        <v>1.38</v>
+      </c>
+      <c r="AR271">
+        <v>1.15</v>
+      </c>
+      <c r="AS271">
+        <v>1.3</v>
+      </c>
+      <c r="AT271">
+        <v>2.45</v>
+      </c>
+      <c r="AU271">
+        <v>4</v>
+      </c>
+      <c r="AV271">
+        <v>3</v>
+      </c>
+      <c r="AW271">
+        <v>6</v>
+      </c>
+      <c r="AX271">
+        <v>1</v>
+      </c>
+      <c r="AY271">
+        <v>10</v>
+      </c>
+      <c r="AZ271">
+        <v>4</v>
+      </c>
+      <c r="BA271">
+        <v>5</v>
+      </c>
+      <c r="BB271">
+        <v>3</v>
+      </c>
+      <c r="BC271">
+        <v>8</v>
+      </c>
+      <c r="BD271">
+        <v>2.78</v>
+      </c>
+      <c r="BE271">
+        <v>8.5</v>
+      </c>
+      <c r="BF271">
+        <v>1.59</v>
+      </c>
+      <c r="BG271">
+        <v>1.2</v>
+      </c>
+      <c r="BH271">
+        <v>4</v>
+      </c>
+      <c r="BI271">
+        <v>1.36</v>
+      </c>
+      <c r="BJ271">
+        <v>2.9</v>
+      </c>
+      <c r="BK271">
+        <v>1.59</v>
+      </c>
+      <c r="BL271">
+        <v>2.29</v>
+      </c>
+      <c r="BM271">
+        <v>2</v>
+      </c>
+      <c r="BN271">
+        <v>1.8</v>
+      </c>
+      <c r="BO271">
+        <v>2.44</v>
+      </c>
+      <c r="BP271">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -56836,10 +56836,10 @@
         <v>6</v>
       </c>
       <c r="BB269">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC269">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD269">
         <v>2.15</v>
@@ -57039,13 +57039,13 @@
         <v>5</v>
       </c>
       <c r="BA270">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB270">
         <v>3</v>
       </c>
       <c r="BC270">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD270">
         <v>1.55</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,9 @@
     <t>['35', '46', '85']</t>
   </si>
   <si>
+    <t>['5', '70']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1461,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1926,7 +1929,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2004,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ3">
         <v>1.46</v>
@@ -2544,7 +2547,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2956,7 +2959,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3368,7 +3371,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3780,7 +3783,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3986,7 +3989,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4891,7 +4894,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ17">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5634,7 +5637,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5840,7 +5843,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -6046,7 +6049,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6330,7 +6333,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ24">
         <v>1.15</v>
@@ -7282,7 +7285,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7488,7 +7491,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7694,7 +7697,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7900,7 +7903,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8518,7 +8521,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8599,7 +8602,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ35">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR35">
         <v>1.26</v>
@@ -8724,7 +8727,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -9342,7 +9345,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9548,7 +9551,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -10450,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ44">
         <v>0.77</v>
@@ -10990,7 +10993,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11608,7 +11611,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11814,7 +11817,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -12020,7 +12023,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12226,7 +12229,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12844,7 +12847,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13543,7 +13546,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ59">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
         <v>1.94</v>
@@ -13668,7 +13671,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13874,7 +13877,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14080,7 +14083,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -15110,7 +15113,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15188,7 +15191,7 @@
         <v>1.67</v>
       </c>
       <c r="AP67">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ67">
         <v>1.64</v>
@@ -15934,7 +15937,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16346,7 +16349,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16552,7 +16555,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16758,7 +16761,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -16839,7 +16842,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ75">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR75">
         <v>2.06</v>
@@ -17170,7 +17173,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17788,7 +17791,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -18200,7 +18203,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -19024,7 +19027,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19102,7 +19105,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ86">
         <v>1.85</v>
@@ -19848,7 +19851,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -20054,7 +20057,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20260,7 +20263,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20547,7 +20550,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ93">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.45</v>
@@ -20878,7 +20881,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -21084,7 +21087,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21290,7 +21293,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21780,7 +21783,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ99">
         <v>1.15</v>
@@ -22114,7 +22117,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22607,7 +22610,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ103">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>1.24</v>
@@ -22732,7 +22735,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22938,7 +22941,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23350,7 +23353,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23556,7 +23559,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23968,7 +23971,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24380,7 +24383,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24586,7 +24589,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24792,7 +24795,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25204,7 +25207,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25616,7 +25619,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26646,7 +26649,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26852,7 +26855,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -27058,7 +27061,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27264,7 +27267,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27548,7 +27551,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ127">
         <v>1.08</v>
@@ -27676,7 +27679,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -28088,7 +28091,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28912,7 +28915,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28993,7 +28996,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ134">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.46</v>
@@ -29736,7 +29739,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29942,7 +29945,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30560,7 +30563,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30972,7 +30975,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31384,7 +31387,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -32208,7 +32211,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32414,7 +32417,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32620,7 +32623,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32904,7 +32907,7 @@
         <v>2.25</v>
       </c>
       <c r="AP153">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ153">
         <v>1.5</v>
@@ -33032,7 +33035,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33444,7 +33447,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33650,7 +33653,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33856,7 +33859,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34268,7 +34271,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34474,7 +34477,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34886,7 +34889,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35298,7 +35301,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35504,7 +35507,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35916,7 +35919,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35997,7 +36000,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ168">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR168">
         <v>1.62</v>
@@ -36122,7 +36125,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36328,7 +36331,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36740,7 +36743,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36946,7 +36949,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37027,7 +37030,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ173">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR173">
         <v>1.34</v>
@@ -37152,7 +37155,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37436,7 +37439,7 @@
         <v>1.13</v>
       </c>
       <c r="AP175">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ175">
         <v>1.15</v>
@@ -37564,7 +37567,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -38182,7 +38185,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38594,7 +38597,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38800,7 +38803,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -39006,7 +39009,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39418,7 +39421,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39830,7 +39833,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -40448,7 +40451,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40654,7 +40657,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -41066,7 +41069,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41478,7 +41481,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41890,7 +41893,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42096,7 +42099,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42589,7 +42592,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ200">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR200">
         <v>2.16</v>
@@ -42998,7 +43001,7 @@
         <v>1.56</v>
       </c>
       <c r="AP202">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ202">
         <v>1.31</v>
@@ -43126,7 +43129,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43332,7 +43335,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43744,7 +43747,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -44980,7 +44983,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -45392,7 +45395,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45598,7 +45601,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45804,7 +45807,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -46010,7 +46013,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -46422,7 +46425,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46628,7 +46631,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -47040,7 +47043,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q222">
         <v>3.25</v>
@@ -47246,7 +47249,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47530,7 +47533,7 @@
         <v>1.27</v>
       </c>
       <c r="AP224">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ224">
         <v>1.07</v>
@@ -47658,7 +47661,7 @@
         <v>96</v>
       </c>
       <c r="P225" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q225">
         <v>2.9</v>
@@ -47739,7 +47742,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ225">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR225">
         <v>1.37</v>
@@ -48894,7 +48897,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49718,7 +49721,7 @@
         <v>231</v>
       </c>
       <c r="P235" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q235">
         <v>5.5</v>
@@ -49924,7 +49927,7 @@
         <v>232</v>
       </c>
       <c r="P236" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50130,7 +50133,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50542,7 +50545,7 @@
         <v>234</v>
       </c>
       <c r="P239" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q239">
         <v>4.75</v>
@@ -50748,7 +50751,7 @@
         <v>210</v>
       </c>
       <c r="P240" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -50954,7 +50957,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51160,7 +51163,7 @@
         <v>235</v>
       </c>
       <c r="P242" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q242">
         <v>2.45</v>
@@ -51238,7 +51241,7 @@
         <v>1.17</v>
       </c>
       <c r="AP242">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ242">
         <v>1.07</v>
@@ -51366,7 +51369,7 @@
         <v>236</v>
       </c>
       <c r="P243" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q243">
         <v>2.9</v>
@@ -51859,7 +51862,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ245">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR245">
         <v>1.13</v>
@@ -51984,7 +51987,7 @@
         <v>92</v>
       </c>
       <c r="P246" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q246">
         <v>2.6</v>
@@ -52190,7 +52193,7 @@
         <v>138</v>
       </c>
       <c r="P247" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q247">
         <v>2.85</v>
@@ -53710,7 +53713,7 @@
         <v>2</v>
       </c>
       <c r="AP254">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ254">
         <v>1.79</v>
@@ -54250,7 +54253,7 @@
         <v>244</v>
       </c>
       <c r="P257" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q257">
         <v>2.45</v>
@@ -54949,7 +54952,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ260">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AR260">
         <v>1.6</v>
@@ -55692,7 +55695,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q264">
         <v>3.26</v>
@@ -56104,7 +56107,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q266">
         <v>7.59</v>
@@ -56310,7 +56313,7 @@
         <v>92</v>
       </c>
       <c r="P267" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q267">
         <v>2.38</v>
@@ -56928,7 +56931,7 @@
         <v>92</v>
       </c>
       <c r="P270" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q270">
         <v>2.79</v>
@@ -57134,7 +57137,7 @@
         <v>252</v>
       </c>
       <c r="P271" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q271">
         <v>3.2</v>
@@ -57291,6 +57294,212 @@
       </c>
       <c r="BP271">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7331204</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45528.25</v>
+      </c>
+      <c r="F272">
+        <v>28</v>
+      </c>
+      <c r="G272" t="s">
+        <v>71</v>
+      </c>
+      <c r="H272" t="s">
+        <v>78</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>2</v>
+      </c>
+      <c r="O272" t="s">
+        <v>253</v>
+      </c>
+      <c r="P272" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q272">
+        <v>2.3</v>
+      </c>
+      <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
+        <v>5</v>
+      </c>
+      <c r="T272">
+        <v>1.46</v>
+      </c>
+      <c r="U272">
+        <v>2.55</v>
+      </c>
+      <c r="V272">
+        <v>3.1</v>
+      </c>
+      <c r="W272">
+        <v>1.34</v>
+      </c>
+      <c r="X272">
+        <v>7.8</v>
+      </c>
+      <c r="Y272">
+        <v>1.05</v>
+      </c>
+      <c r="Z272">
+        <v>1.65</v>
+      </c>
+      <c r="AA272">
+        <v>3.4</v>
+      </c>
+      <c r="AB272">
+        <v>5.5</v>
+      </c>
+      <c r="AC272">
+        <v>1.03</v>
+      </c>
+      <c r="AD272">
+        <v>8</v>
+      </c>
+      <c r="AE272">
+        <v>1.33</v>
+      </c>
+      <c r="AF272">
+        <v>2.91</v>
+      </c>
+      <c r="AG272">
+        <v>2.12</v>
+      </c>
+      <c r="AH272">
+        <v>1.64</v>
+      </c>
+      <c r="AI272">
+        <v>2</v>
+      </c>
+      <c r="AJ272">
+        <v>1.75</v>
+      </c>
+      <c r="AK272">
+        <v>1.12</v>
+      </c>
+      <c r="AL272">
+        <v>1.22</v>
+      </c>
+      <c r="AM272">
+        <v>2.05</v>
+      </c>
+      <c r="AN272">
+        <v>2.31</v>
+      </c>
+      <c r="AO272">
+        <v>1.62</v>
+      </c>
+      <c r="AP272">
+        <v>2.36</v>
+      </c>
+      <c r="AQ272">
+        <v>1.5</v>
+      </c>
+      <c r="AR272">
+        <v>1.69</v>
+      </c>
+      <c r="AS272">
+        <v>1.22</v>
+      </c>
+      <c r="AT272">
+        <v>2.91</v>
+      </c>
+      <c r="AU272">
+        <v>5</v>
+      </c>
+      <c r="AV272">
+        <v>3</v>
+      </c>
+      <c r="AW272">
+        <v>5</v>
+      </c>
+      <c r="AX272">
+        <v>2</v>
+      </c>
+      <c r="AY272">
+        <v>10</v>
+      </c>
+      <c r="AZ272">
+        <v>5</v>
+      </c>
+      <c r="BA272">
+        <v>4</v>
+      </c>
+      <c r="BB272">
+        <v>2</v>
+      </c>
+      <c r="BC272">
+        <v>6</v>
+      </c>
+      <c r="BD272">
+        <v>1.26</v>
+      </c>
+      <c r="BE272">
+        <v>10</v>
+      </c>
+      <c r="BF272">
+        <v>4.64</v>
+      </c>
+      <c r="BG272">
+        <v>1.37</v>
+      </c>
+      <c r="BH272">
+        <v>2.85</v>
+      </c>
+      <c r="BI272">
+        <v>1.56</v>
+      </c>
+      <c r="BJ272">
+        <v>2.21</v>
+      </c>
+      <c r="BK272">
+        <v>1.95</v>
+      </c>
+      <c r="BL272">
+        <v>1.85</v>
+      </c>
+      <c r="BM272">
+        <v>2.57</v>
+      </c>
+      <c r="BN272">
+        <v>1.42</v>
+      </c>
+      <c r="BO272">
+        <v>3.6</v>
+      </c>
+      <c r="BP272">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="364">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -778,6 +778,9 @@
     <t>['5', '70']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1012,9 +1015,6 @@
     <t>['47', '55', '77']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['18']</t>
   </si>
   <si>
@@ -1103,6 +1103,9 @@
   </si>
   <si>
     <t>['2', '11']</t>
+  </si>
+  <si>
+    <t>['48', '55']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP272"/>
+  <dimension ref="A1:BP276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1929,7 +1932,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2010,7 +2013,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ3">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2213,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
         <v>1.79</v>
@@ -2547,7 +2550,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2628,7 +2631,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ6">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2831,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ7">
         <v>0.79</v>
@@ -2959,7 +2962,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3040,7 +3043,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3371,7 +3374,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3783,7 +3786,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3861,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ12">
         <v>1.64</v>
@@ -3989,7 +3992,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4891,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -5637,7 +5640,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5718,7 +5721,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ21">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5843,7 +5846,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -6049,7 +6052,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6336,7 +6339,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ24">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR24">
         <v>1.47</v>
@@ -6951,10 +6954,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR27">
         <v>1.12</v>
@@ -7157,10 +7160,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ28">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR28">
         <v>2.05</v>
@@ -7285,7 +7288,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7363,10 +7366,10 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR29">
         <v>0.91</v>
@@ -7491,7 +7494,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7697,7 +7700,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7903,7 +7906,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -7981,7 +7984,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ32">
         <v>1.43</v>
@@ -8190,7 +8193,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ33">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR33">
         <v>2.23</v>
@@ -8521,7 +8524,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8727,7 +8730,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -9345,7 +9348,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9423,7 +9426,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ39">
         <v>1.07</v>
@@ -9551,7 +9554,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -10041,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ42">
         <v>1.08</v>
@@ -10993,7 +10996,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11074,7 +11077,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR47">
         <v>2.09</v>
@@ -11611,7 +11614,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11817,7 +11820,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -11898,7 +11901,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ51">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR51">
         <v>1.03</v>
@@ -12023,7 +12026,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12101,7 +12104,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ52">
         <v>1.93</v>
@@ -12229,7 +12232,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12307,7 +12310,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ53">
         <v>1.57</v>
@@ -12847,7 +12850,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12925,7 +12928,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ56">
         <v>1.31</v>
@@ -13340,7 +13343,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ58">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13671,7 +13674,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13752,7 +13755,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ60">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR60">
         <v>0.89</v>
@@ -13877,7 +13880,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14083,7 +14086,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14164,7 +14167,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ62">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR62">
         <v>1.39</v>
@@ -14782,7 +14785,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR65">
         <v>1.29</v>
@@ -15113,7 +15116,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15937,7 +15940,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16221,10 +16224,10 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ72">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16349,7 +16352,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16555,7 +16558,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16633,7 +16636,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ74">
         <v>1.93</v>
@@ -16761,7 +16764,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -17045,7 +17048,7 @@
         <v>2.5</v>
       </c>
       <c r="AP76">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ76">
         <v>1.57</v>
@@ -17173,7 +17176,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17254,7 +17257,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ77">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR77">
         <v>1.05</v>
@@ -17791,7 +17794,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -18203,7 +18206,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18696,7 +18699,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ84">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR84">
         <v>1.12</v>
@@ -19027,7 +19030,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19314,7 +19317,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19517,7 +19520,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ88">
         <v>1.64</v>
@@ -19851,7 +19854,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -20057,7 +20060,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20263,7 +20266,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20344,7 +20347,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ92">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR92">
         <v>2.25</v>
@@ -20547,7 +20550,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20756,7 +20759,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ94">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR94">
         <v>1.92</v>
@@ -20881,7 +20884,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -21087,7 +21090,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21168,7 +21171,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR96">
         <v>1.54</v>
@@ -21293,7 +21296,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -22117,7 +22120,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22401,7 +22404,7 @@
         <v>1.75</v>
       </c>
       <c r="AP102">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ102">
         <v>1.31</v>
@@ -22607,7 +22610,7 @@
         <v>1</v>
       </c>
       <c r="AP103">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ103">
         <v>1.5</v>
@@ -22735,7 +22738,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22941,7 +22944,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23353,7 +23356,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23559,7 +23562,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23843,7 +23846,7 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ109">
         <v>1.93</v>
@@ -23971,7 +23974,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24255,7 +24258,7 @@
         <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ111">
         <v>0.79</v>
@@ -24383,7 +24386,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24589,7 +24592,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24795,7 +24798,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25207,7 +25210,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25288,7 +25291,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ116">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR116">
         <v>1.7</v>
@@ -25491,10 +25494,10 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ117">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25619,7 +25622,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26112,7 +26115,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ120">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26315,10 +26318,10 @@
         <v>1.6</v>
       </c>
       <c r="AP121">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ121">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR121">
         <v>1.25</v>
@@ -26649,7 +26652,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26727,7 +26730,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ123">
         <v>0.77</v>
@@ -26855,7 +26858,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -27061,7 +27064,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27139,7 +27142,7 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ125">
         <v>1.07</v>
@@ -27267,7 +27270,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27679,7 +27682,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27966,7 +27969,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ129">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR129">
         <v>1.7</v>
@@ -28091,7 +28094,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28172,7 +28175,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ130">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28584,7 +28587,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ132">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR132">
         <v>1.72</v>
@@ -28915,7 +28918,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -28993,7 +28996,7 @@
         <v>1.33</v>
       </c>
       <c r="AP134">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ134">
         <v>1.5</v>
@@ -29199,7 +29202,7 @@
         <v>1.5</v>
       </c>
       <c r="AP135">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135">
         <v>1.64</v>
@@ -29739,7 +29742,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29945,7 +29948,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30026,7 +30029,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ139">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR139">
         <v>1.17</v>
@@ -30563,7 +30566,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30975,7 +30978,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31056,7 +31059,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ144">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -31387,7 +31390,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31671,7 +31674,7 @@
         <v>1.43</v>
       </c>
       <c r="AP147">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ147">
         <v>1.07</v>
@@ -32083,7 +32086,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ149">
         <v>1.43</v>
@@ -32211,7 +32214,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32417,7 +32420,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32623,7 +32626,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32910,7 +32913,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ153">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR153">
         <v>1.55</v>
@@ -33035,7 +33038,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33322,7 +33325,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ155">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR155">
         <v>1.5</v>
@@ -33447,7 +33450,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33653,7 +33656,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33859,7 +33862,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -33937,7 +33940,7 @@
         <v>2.14</v>
       </c>
       <c r="AP158">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ158">
         <v>1.79</v>
@@ -34143,7 +34146,7 @@
         <v>2.13</v>
       </c>
       <c r="AP159">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ159">
         <v>1.57</v>
@@ -34271,7 +34274,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34477,7 +34480,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34889,7 +34892,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34967,7 +34970,7 @@
         <v>0.5</v>
       </c>
       <c r="AP163">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ163">
         <v>0.43</v>
@@ -35173,7 +35176,7 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ164">
         <v>1.07</v>
@@ -35301,7 +35304,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35507,7 +35510,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35919,7 +35922,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36125,7 +36128,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36331,7 +36334,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36412,7 +36415,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ170">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR170">
         <v>1.55</v>
@@ -36618,7 +36621,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ171">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR171">
         <v>1.43</v>
@@ -36743,7 +36746,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36821,7 +36824,7 @@
         <v>1.89</v>
       </c>
       <c r="AP172">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ172">
         <v>1.57</v>
@@ -36949,7 +36952,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37155,7 +37158,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37567,7 +37570,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37851,7 +37854,7 @@
         <v>1.44</v>
       </c>
       <c r="AP177">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ177">
         <v>1.07</v>
@@ -38060,7 +38063,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ178">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR178">
         <v>1.66</v>
@@ -38185,7 +38188,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38472,7 +38475,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ180">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR180">
         <v>1.08</v>
@@ -38597,7 +38600,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38803,7 +38806,7 @@
         <v>203</v>
       </c>
       <c r="P182" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="Q182">
         <v>3.1</v>
@@ -39421,7 +39424,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -40326,7 +40329,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ189">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR189">
         <v>1.54</v>
@@ -40529,7 +40532,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP190">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ190">
         <v>0.43</v>
@@ -40735,7 +40738,7 @@
         <v>1.7</v>
       </c>
       <c r="AP191">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ191">
         <v>1.93</v>
@@ -40941,10 +40944,10 @@
         <v>1.1</v>
       </c>
       <c r="AP192">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ192">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR192">
         <v>1.35</v>
@@ -41768,7 +41771,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ196">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR196">
         <v>1.21</v>
@@ -41893,7 +41896,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42386,7 +42389,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ199">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR199">
         <v>1.05</v>
@@ -43335,7 +43338,7 @@
         <v>215</v>
       </c>
       <c r="P204" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="Q204">
         <v>4.75</v>
@@ -43619,7 +43622,7 @@
         <v>0.67</v>
       </c>
       <c r="AP205">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ205">
         <v>0.77</v>
@@ -44031,7 +44034,7 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ207">
         <v>1.15</v>
@@ -44237,10 +44240,10 @@
         <v>1.67</v>
       </c>
       <c r="AP208">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ208">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR208">
         <v>1.32</v>
@@ -44446,7 +44449,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ209">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR209">
         <v>1.52</v>
@@ -44855,7 +44858,7 @@
         <v>1.8</v>
       </c>
       <c r="AP211">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ211">
         <v>1.85</v>
@@ -45064,7 +45067,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ212">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR212">
         <v>1.48</v>
@@ -46506,7 +46509,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ219">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR219">
         <v>1.5</v>
@@ -46631,7 +46634,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -47043,7 +47046,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q222">
         <v>3.25</v>
@@ -47121,7 +47124,7 @@
         <v>0.8</v>
       </c>
       <c r="AP222">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ222">
         <v>1.08</v>
@@ -47249,7 +47252,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47330,7 +47333,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ223">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR223">
         <v>1.52</v>
@@ -48357,7 +48360,7 @@
         <v>1.82</v>
       </c>
       <c r="AP228">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ228">
         <v>1.64</v>
@@ -48769,7 +48772,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ230">
         <v>1.31</v>
@@ -49181,7 +49184,7 @@
         <v>1.09</v>
       </c>
       <c r="AP232">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ232">
         <v>1.15</v>
@@ -49387,7 +49390,7 @@
         <v>0.82</v>
       </c>
       <c r="AP233">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ233">
         <v>0.77</v>
@@ -49596,7 +49599,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ234">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR234">
         <v>1.5</v>
@@ -50214,7 +50217,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ237">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR237">
         <v>1.31</v>
@@ -50545,7 +50548,7 @@
         <v>234</v>
       </c>
       <c r="P239" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q239">
         <v>4.75</v>
@@ -51163,7 +51166,7 @@
         <v>235</v>
       </c>
       <c r="P242" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q242">
         <v>2.45</v>
@@ -51447,7 +51450,7 @@
         <v>1.09</v>
       </c>
       <c r="AP243">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AQ243">
         <v>1.15</v>
@@ -51653,7 +51656,7 @@
         <v>0.73</v>
       </c>
       <c r="AP244">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ244">
         <v>1.08</v>
@@ -52193,7 +52196,7 @@
         <v>138</v>
       </c>
       <c r="P247" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q247">
         <v>2.85</v>
@@ -52271,10 +52274,10 @@
         <v>1.17</v>
       </c>
       <c r="AP247">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ247">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR247">
         <v>1.5</v>
@@ -52686,7 +52689,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ249">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AR249">
         <v>1.54</v>
@@ -52892,7 +52895,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ250">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR250">
         <v>1.55</v>
@@ -54537,7 +54540,7 @@
         <v>1.08</v>
       </c>
       <c r="AP258">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AQ258">
         <v>1.07</v>
@@ -56597,10 +56600,10 @@
         <v>1.58</v>
       </c>
       <c r="AP268">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ268">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AR268">
         <v>1.32</v>
@@ -57218,7 +57221,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ271">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AR271">
         <v>1.15</v>
@@ -57436,22 +57439,22 @@
         <v>2.91</v>
       </c>
       <c r="AU272">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV272">
         <v>3</v>
       </c>
       <c r="AW272">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY272">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ272">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA272">
         <v>4</v>
@@ -57500,6 +57503,830 @@
       </c>
       <c r="BP272">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7331205</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45528.29166666666</v>
+      </c>
+      <c r="F273">
+        <v>28</v>
+      </c>
+      <c r="G273" t="s">
+        <v>72</v>
+      </c>
+      <c r="H273" t="s">
+        <v>88</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>1</v>
+      </c>
+      <c r="O273" t="s">
+        <v>92</v>
+      </c>
+      <c r="P273" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q273">
+        <v>3.64</v>
+      </c>
+      <c r="R273">
+        <v>2.18</v>
+      </c>
+      <c r="S273">
+        <v>2.6</v>
+      </c>
+      <c r="T273">
+        <v>1.34</v>
+      </c>
+      <c r="U273">
+        <v>3.1</v>
+      </c>
+      <c r="V273">
+        <v>2.6</v>
+      </c>
+      <c r="W273">
+        <v>1.45</v>
+      </c>
+      <c r="X273">
+        <v>5.7</v>
+      </c>
+      <c r="Y273">
+        <v>1.1</v>
+      </c>
+      <c r="Z273">
+        <v>3.25</v>
+      </c>
+      <c r="AA273">
+        <v>3.3</v>
+      </c>
+      <c r="AB273">
+        <v>2.1</v>
+      </c>
+      <c r="AC273">
+        <v>1.02</v>
+      </c>
+      <c r="AD273">
+        <v>10</v>
+      </c>
+      <c r="AE273">
+        <v>1.22</v>
+      </c>
+      <c r="AF273">
+        <v>3.8</v>
+      </c>
+      <c r="AG273">
+        <v>1.73</v>
+      </c>
+      <c r="AH273">
+        <v>1.98</v>
+      </c>
+      <c r="AI273">
+        <v>1.55</v>
+      </c>
+      <c r="AJ273">
+        <v>2.3</v>
+      </c>
+      <c r="AK273">
+        <v>1.73</v>
+      </c>
+      <c r="AL273">
+        <v>1.29</v>
+      </c>
+      <c r="AM273">
+        <v>1.35</v>
+      </c>
+      <c r="AN273">
+        <v>1.5</v>
+      </c>
+      <c r="AO273">
+        <v>1.15</v>
+      </c>
+      <c r="AP273">
+        <v>1.4</v>
+      </c>
+      <c r="AQ273">
+        <v>1.29</v>
+      </c>
+      <c r="AR273">
+        <v>1.32</v>
+      </c>
+      <c r="AS273">
+        <v>1.35</v>
+      </c>
+      <c r="AT273">
+        <v>2.67</v>
+      </c>
+      <c r="AU273">
+        <v>3</v>
+      </c>
+      <c r="AV273">
+        <v>9</v>
+      </c>
+      <c r="AW273">
+        <v>6</v>
+      </c>
+      <c r="AX273">
+        <v>9</v>
+      </c>
+      <c r="AY273">
+        <v>9</v>
+      </c>
+      <c r="AZ273">
+        <v>18</v>
+      </c>
+      <c r="BA273">
+        <v>2</v>
+      </c>
+      <c r="BB273">
+        <v>5</v>
+      </c>
+      <c r="BC273">
+        <v>7</v>
+      </c>
+      <c r="BD273">
+        <v>2.2</v>
+      </c>
+      <c r="BE273">
+        <v>8</v>
+      </c>
+      <c r="BF273">
+        <v>1.91</v>
+      </c>
+      <c r="BG273">
+        <v>1.21</v>
+      </c>
+      <c r="BH273">
+        <v>3.9</v>
+      </c>
+      <c r="BI273">
+        <v>1.4</v>
+      </c>
+      <c r="BJ273">
+        <v>2.75</v>
+      </c>
+      <c r="BK273">
+        <v>1.85</v>
+      </c>
+      <c r="BL273">
+        <v>1.95</v>
+      </c>
+      <c r="BM273">
+        <v>2.05</v>
+      </c>
+      <c r="BN273">
+        <v>1.65</v>
+      </c>
+      <c r="BO273">
+        <v>2.71</v>
+      </c>
+      <c r="BP273">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7331206</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45528.29166666666</v>
+      </c>
+      <c r="F274">
+        <v>28</v>
+      </c>
+      <c r="G274" t="s">
+        <v>75</v>
+      </c>
+      <c r="H274" t="s">
+        <v>79</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+      <c r="O274" t="s">
+        <v>92</v>
+      </c>
+      <c r="P274" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q274">
+        <v>2.27</v>
+      </c>
+      <c r="R274">
+        <v>2.08</v>
+      </c>
+      <c r="S274">
+        <v>5.05</v>
+      </c>
+      <c r="T274">
+        <v>1.43</v>
+      </c>
+      <c r="U274">
+        <v>2.7</v>
+      </c>
+      <c r="V274">
+        <v>2.99</v>
+      </c>
+      <c r="W274">
+        <v>1.36</v>
+      </c>
+      <c r="X274">
+        <v>7</v>
+      </c>
+      <c r="Y274">
+        <v>1.07</v>
+      </c>
+      <c r="Z274">
+        <v>1.75</v>
+      </c>
+      <c r="AA274">
+        <v>3.3</v>
+      </c>
+      <c r="AB274">
+        <v>4.8</v>
+      </c>
+      <c r="AC274">
+        <v>1.03</v>
+      </c>
+      <c r="AD274">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE274">
+        <v>1.32</v>
+      </c>
+      <c r="AF274">
+        <v>2.98</v>
+      </c>
+      <c r="AG274">
+        <v>2</v>
+      </c>
+      <c r="AH274">
+        <v>1.71</v>
+      </c>
+      <c r="AI274">
+        <v>1.92</v>
+      </c>
+      <c r="AJ274">
+        <v>1.75</v>
+      </c>
+      <c r="AK274">
+        <v>1.15</v>
+      </c>
+      <c r="AL274">
+        <v>1.25</v>
+      </c>
+      <c r="AM274">
+        <v>2.01</v>
+      </c>
+      <c r="AN274">
+        <v>1.85</v>
+      </c>
+      <c r="AO274">
+        <v>1.38</v>
+      </c>
+      <c r="AP274">
+        <v>1.79</v>
+      </c>
+      <c r="AQ274">
+        <v>1.36</v>
+      </c>
+      <c r="AR274">
+        <v>1.56</v>
+      </c>
+      <c r="AS274">
+        <v>1.27</v>
+      </c>
+      <c r="AT274">
+        <v>2.83</v>
+      </c>
+      <c r="AU274">
+        <v>2</v>
+      </c>
+      <c r="AV274">
+        <v>3</v>
+      </c>
+      <c r="AW274">
+        <v>2</v>
+      </c>
+      <c r="AX274">
+        <v>8</v>
+      </c>
+      <c r="AY274">
+        <v>4</v>
+      </c>
+      <c r="AZ274">
+        <v>11</v>
+      </c>
+      <c r="BA274">
+        <v>6</v>
+      </c>
+      <c r="BB274">
+        <v>10</v>
+      </c>
+      <c r="BC274">
+        <v>16</v>
+      </c>
+      <c r="BD274">
+        <v>1.51</v>
+      </c>
+      <c r="BE274">
+        <v>8.5</v>
+      </c>
+      <c r="BF274">
+        <v>3.07</v>
+      </c>
+      <c r="BG274">
+        <v>1.2</v>
+      </c>
+      <c r="BH274">
+        <v>4</v>
+      </c>
+      <c r="BI274">
+        <v>1.39</v>
+      </c>
+      <c r="BJ274">
+        <v>2.75</v>
+      </c>
+      <c r="BK274">
+        <v>1.63</v>
+      </c>
+      <c r="BL274">
+        <v>2.09</v>
+      </c>
+      <c r="BM274">
+        <v>2.05</v>
+      </c>
+      <c r="BN274">
+        <v>1.65</v>
+      </c>
+      <c r="BO274">
+        <v>2.71</v>
+      </c>
+      <c r="BP274">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7331207</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45528.29166666666</v>
+      </c>
+      <c r="F275">
+        <v>28</v>
+      </c>
+      <c r="G275" t="s">
+        <v>80</v>
+      </c>
+      <c r="H275" t="s">
+        <v>84</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275">
+        <v>2</v>
+      </c>
+      <c r="N275">
+        <v>3</v>
+      </c>
+      <c r="O275" t="s">
+        <v>254</v>
+      </c>
+      <c r="P275" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q275">
+        <v>2.4</v>
+      </c>
+      <c r="R275">
+        <v>2.2</v>
+      </c>
+      <c r="S275">
+        <v>4</v>
+      </c>
+      <c r="T275">
+        <v>1.33</v>
+      </c>
+      <c r="U275">
+        <v>3.14</v>
+      </c>
+      <c r="V275">
+        <v>2.55</v>
+      </c>
+      <c r="W275">
+        <v>1.46</v>
+      </c>
+      <c r="X275">
+        <v>5.6</v>
+      </c>
+      <c r="Y275">
+        <v>1.11</v>
+      </c>
+      <c r="Z275">
+        <v>1.85</v>
+      </c>
+      <c r="AA275">
+        <v>3.5</v>
+      </c>
+      <c r="AB275">
+        <v>3.9</v>
+      </c>
+      <c r="AC275">
+        <v>1.01</v>
+      </c>
+      <c r="AD275">
+        <v>10.5</v>
+      </c>
+      <c r="AE275">
+        <v>1.22</v>
+      </c>
+      <c r="AF275">
+        <v>4</v>
+      </c>
+      <c r="AG275">
+        <v>1.71</v>
+      </c>
+      <c r="AH275">
+        <v>2.02</v>
+      </c>
+      <c r="AI275">
+        <v>1.55</v>
+      </c>
+      <c r="AJ275">
+        <v>2.2</v>
+      </c>
+      <c r="AK275">
+        <v>1.23</v>
+      </c>
+      <c r="AL275">
+        <v>1.23</v>
+      </c>
+      <c r="AM275">
+        <v>1.68</v>
+      </c>
+      <c r="AN275">
+        <v>2.08</v>
+      </c>
+      <c r="AO275">
+        <v>1.46</v>
+      </c>
+      <c r="AP275">
+        <v>1.93</v>
+      </c>
+      <c r="AQ275">
+        <v>1.57</v>
+      </c>
+      <c r="AR275">
+        <v>1.6</v>
+      </c>
+      <c r="AS275">
+        <v>1.34</v>
+      </c>
+      <c r="AT275">
+        <v>2.94</v>
+      </c>
+      <c r="AU275">
+        <v>3</v>
+      </c>
+      <c r="AV275">
+        <v>3</v>
+      </c>
+      <c r="AW275">
+        <v>5</v>
+      </c>
+      <c r="AX275">
+        <v>3</v>
+      </c>
+      <c r="AY275">
+        <v>8</v>
+      </c>
+      <c r="AZ275">
+        <v>6</v>
+      </c>
+      <c r="BA275">
+        <v>1</v>
+      </c>
+      <c r="BB275">
+        <v>2</v>
+      </c>
+      <c r="BC275">
+        <v>3</v>
+      </c>
+      <c r="BD275">
+        <v>1.82</v>
+      </c>
+      <c r="BE275">
+        <v>8</v>
+      </c>
+      <c r="BF275">
+        <v>2.33</v>
+      </c>
+      <c r="BG275">
+        <v>1.31</v>
+      </c>
+      <c r="BH275">
+        <v>3.1</v>
+      </c>
+      <c r="BI275">
+        <v>1.52</v>
+      </c>
+      <c r="BJ275">
+        <v>2.3</v>
+      </c>
+      <c r="BK275">
+        <v>1.89</v>
+      </c>
+      <c r="BL275">
+        <v>1.77</v>
+      </c>
+      <c r="BM275">
+        <v>2.5</v>
+      </c>
+      <c r="BN275">
+        <v>1.44</v>
+      </c>
+      <c r="BO275">
+        <v>3.2</v>
+      </c>
+      <c r="BP275">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7331208</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45528.29166666666</v>
+      </c>
+      <c r="F276">
+        <v>28</v>
+      </c>
+      <c r="G276" t="s">
+        <v>82</v>
+      </c>
+      <c r="H276" t="s">
+        <v>81</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>1</v>
+      </c>
+      <c r="N276">
+        <v>1</v>
+      </c>
+      <c r="O276" t="s">
+        <v>92</v>
+      </c>
+      <c r="P276" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q276">
+        <v>4.5</v>
+      </c>
+      <c r="R276">
+        <v>2.25</v>
+      </c>
+      <c r="S276">
+        <v>2.2</v>
+      </c>
+      <c r="T276">
+        <v>1.35</v>
+      </c>
+      <c r="U276">
+        <v>2.85</v>
+      </c>
+      <c r="V276">
+        <v>2.5</v>
+      </c>
+      <c r="W276">
+        <v>1.45</v>
+      </c>
+      <c r="X276">
+        <v>5</v>
+      </c>
+      <c r="Y276">
+        <v>1.12</v>
+      </c>
+      <c r="Z276">
+        <v>5</v>
+      </c>
+      <c r="AA276">
+        <v>3.7</v>
+      </c>
+      <c r="AB276">
+        <v>1.63</v>
+      </c>
+      <c r="AC276">
+        <v>1.02</v>
+      </c>
+      <c r="AD276">
+        <v>10.5</v>
+      </c>
+      <c r="AE276">
+        <v>1.21</v>
+      </c>
+      <c r="AF276">
+        <v>3.74</v>
+      </c>
+      <c r="AG276">
+        <v>1.67</v>
+      </c>
+      <c r="AH276">
+        <v>2.07</v>
+      </c>
+      <c r="AI276">
+        <v>1.7</v>
+      </c>
+      <c r="AJ276">
+        <v>2.1</v>
+      </c>
+      <c r="AK276">
+        <v>1.87</v>
+      </c>
+      <c r="AL276">
+        <v>1.21</v>
+      </c>
+      <c r="AM276">
+        <v>1.16</v>
+      </c>
+      <c r="AN276">
+        <v>1.31</v>
+      </c>
+      <c r="AO276">
+        <v>1.5</v>
+      </c>
+      <c r="AP276">
+        <v>1.21</v>
+      </c>
+      <c r="AQ276">
+        <v>1.6</v>
+      </c>
+      <c r="AR276">
+        <v>1.34</v>
+      </c>
+      <c r="AS276">
+        <v>1.38</v>
+      </c>
+      <c r="AT276">
+        <v>2.72</v>
+      </c>
+      <c r="AU276">
+        <v>2</v>
+      </c>
+      <c r="AV276">
+        <v>8</v>
+      </c>
+      <c r="AW276">
+        <v>6</v>
+      </c>
+      <c r="AX276">
+        <v>11</v>
+      </c>
+      <c r="AY276">
+        <v>8</v>
+      </c>
+      <c r="AZ276">
+        <v>19</v>
+      </c>
+      <c r="BA276">
+        <v>1</v>
+      </c>
+      <c r="BB276">
+        <v>6</v>
+      </c>
+      <c r="BC276">
+        <v>7</v>
+      </c>
+      <c r="BD276">
+        <v>2.76</v>
+      </c>
+      <c r="BE276">
+        <v>8.5</v>
+      </c>
+      <c r="BF276">
+        <v>1.64</v>
+      </c>
+      <c r="BG276">
+        <v>1.19</v>
+      </c>
+      <c r="BH276">
+        <v>4.1</v>
+      </c>
+      <c r="BI276">
+        <v>1.32</v>
+      </c>
+      <c r="BJ276">
+        <v>3.1</v>
+      </c>
+      <c r="BK276">
+        <v>1.58</v>
+      </c>
+      <c r="BL276">
+        <v>2.17</v>
+      </c>
+      <c r="BM276">
+        <v>1.97</v>
+      </c>
+      <c r="BN276">
+        <v>1.71</v>
+      </c>
+      <c r="BO276">
+        <v>2.57</v>
+      </c>
+      <c r="BP276">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -781,6 +781,15 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['25', '52', '74']</t>
+  </si>
+  <si>
+    <t>['14', '45+1']</t>
+  </si>
+  <si>
+    <t>['45+7', '65', '76', '85']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1106,6 +1115,15 @@
   </si>
   <si>
     <t>['48', '55']</t>
+  </si>
+  <si>
+    <t>['13', '36', '49', '68']</t>
+  </si>
+  <si>
+    <t>['16', '90']</t>
+  </si>
+  <si>
+    <t>['28', '54']</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP276"/>
+  <dimension ref="A1:BP281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1804,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ2">
         <v>1.85</v>
@@ -1932,7 +1950,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2550,7 +2568,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2628,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ6">
         <v>1.29</v>
@@ -2962,7 +2980,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3374,7 +3392,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3455,7 +3473,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3661,7 +3679,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ11">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3786,7 +3804,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3867,7 +3885,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ12">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3992,7 +4010,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4070,10 +4088,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>1.28</v>
@@ -4276,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ14">
         <v>1.15</v>
@@ -4485,7 +4503,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ15">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5100,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -5515,7 +5533,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ20">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>1.77</v>
@@ -5640,7 +5658,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5718,7 +5736,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.29</v>
@@ -5846,7 +5864,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -6052,7 +6070,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6542,7 +6560,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ25">
         <v>0.43</v>
@@ -7288,7 +7306,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7494,7 +7512,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7575,7 +7593,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ30">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR30">
         <v>1.25</v>
@@ -7700,7 +7718,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7906,7 +7924,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8399,7 +8417,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ34">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -8524,7 +8542,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8602,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8730,7 +8748,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8811,7 +8829,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -9014,10 +9032,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR37">
         <v>0</v>
@@ -9220,7 +9238,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>1.93</v>
@@ -9348,7 +9366,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9554,7 +9572,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -10459,7 +10477,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ44">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR44">
         <v>1.56</v>
@@ -10996,7 +11014,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11074,7 +11092,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ47">
         <v>1.6</v>
@@ -11280,7 +11298,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>0.79</v>
@@ -11489,7 +11507,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ49">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR49">
         <v>1.94</v>
@@ -11614,7 +11632,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11820,7 +11838,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -12026,7 +12044,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12232,7 +12250,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12313,7 +12331,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ53">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12519,7 +12537,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ54">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12850,7 +12868,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -12931,7 +12949,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ56">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -13134,7 +13152,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
         <v>1.07</v>
@@ -13340,7 +13358,7 @@
         <v>2</v>
       </c>
       <c r="AP58">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ58">
         <v>1.29</v>
@@ -13674,7 +13692,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13752,7 +13770,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>1.36</v>
@@ -13880,7 +13898,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14086,7 +14104,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14373,7 +14391,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ63">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR63">
         <v>1.03</v>
@@ -14576,7 +14594,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
         <v>1.85</v>
@@ -14988,7 +15006,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ66">
         <v>0.43</v>
@@ -15116,7 +15134,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15197,7 +15215,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ67">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR67">
         <v>1.56</v>
@@ -15940,7 +15958,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16018,7 +16036,7 @@
         <v>2.33</v>
       </c>
       <c r="AP71">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
         <v>1.79</v>
@@ -16352,7 +16370,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16433,7 +16451,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ73">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16558,7 +16576,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16764,7 +16782,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -17051,7 +17069,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ76">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR76">
         <v>1.19</v>
@@ -17176,7 +17194,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17460,7 +17478,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ78">
         <v>1.15</v>
@@ -17666,7 +17684,7 @@
         <v>0</v>
       </c>
       <c r="AP79">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>1.08</v>
@@ -17794,7 +17812,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17875,7 +17893,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ80">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR80">
         <v>1.99</v>
@@ -18078,7 +18096,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ81">
         <v>0.79</v>
@@ -18206,7 +18224,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18696,7 +18714,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
         <v>1.57</v>
@@ -19030,7 +19048,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19523,7 +19541,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ88">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR88">
         <v>1.3</v>
@@ -19854,7 +19872,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -20060,7 +20078,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20266,7 +20284,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20344,7 +20362,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ92">
         <v>1.36</v>
@@ -20884,7 +20902,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20962,7 +20980,7 @@
         <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ95">
         <v>0.79</v>
@@ -21090,7 +21108,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21168,7 +21186,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ96">
         <v>1.6</v>
@@ -21296,7 +21314,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21580,7 +21598,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>1.43</v>
@@ -21995,7 +22013,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ100">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR100">
         <v>1.77</v>
@@ -22120,7 +22138,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22201,7 +22219,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ101">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR101">
         <v>1.63</v>
@@ -22407,7 +22425,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ102">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR102">
         <v>1.81</v>
@@ -22738,7 +22756,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22819,7 +22837,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ104">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR104">
         <v>1.83</v>
@@ -22944,7 +22962,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23025,7 +23043,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ105">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -23231,7 +23249,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR106">
         <v>1.44</v>
@@ -23356,7 +23374,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23434,7 +23452,7 @@
         <v>1.2</v>
       </c>
       <c r="AP107">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ107">
         <v>1.07</v>
@@ -23562,7 +23580,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23974,7 +23992,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24386,7 +24404,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24592,7 +24610,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24670,7 +24688,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ113">
         <v>1.15</v>
@@ -24798,7 +24816,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25085,7 +25103,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ115">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
         <v>1.32</v>
@@ -25210,7 +25228,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25622,7 +25640,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25700,7 +25718,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>1.93</v>
@@ -25906,7 +25924,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>1.85</v>
@@ -26527,7 +26545,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ122">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26652,7 +26670,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26733,7 +26751,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ123">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26858,7 +26876,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -27064,7 +27082,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27270,7 +27288,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27682,7 +27700,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -28094,7 +28112,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28378,7 +28396,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ131">
         <v>1.07</v>
@@ -28918,7 +28936,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -29205,7 +29223,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ135">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR135">
         <v>1.3</v>
@@ -29408,7 +29426,7 @@
         <v>1</v>
       </c>
       <c r="AP136">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
         <v>1.15</v>
@@ -29614,10 +29632,10 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ137">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29742,7 +29760,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29820,10 +29838,10 @@
         <v>2</v>
       </c>
       <c r="AP138">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ138">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR138">
         <v>1.44</v>
@@ -29948,7 +29966,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30438,7 +30456,7 @@
         <v>1.67</v>
       </c>
       <c r="AP141">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ141">
         <v>1.93</v>
@@ -30566,7 +30584,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30647,7 +30665,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ142">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR142">
         <v>1.64</v>
@@ -30978,7 +30996,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31056,7 +31074,7 @@
         <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ144">
         <v>1.57</v>
@@ -31390,7 +31408,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -32214,7 +32232,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32295,7 +32313,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ150">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -32420,7 +32438,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32626,7 +32644,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -32707,7 +32725,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ152">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR152">
         <v>1.53</v>
@@ -33038,7 +33056,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33116,10 +33134,10 @@
         <v>1.29</v>
       </c>
       <c r="AP154">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ154">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR154">
         <v>2.17</v>
@@ -33322,7 +33340,7 @@
         <v>1.86</v>
       </c>
       <c r="AP155">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ155">
         <v>1.36</v>
@@ -33450,7 +33468,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33656,7 +33674,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33862,7 +33880,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34149,7 +34167,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ159">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR159">
         <v>1.54</v>
@@ -34274,7 +34292,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34480,7 +34498,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34558,10 +34576,10 @@
         <v>1.71</v>
       </c>
       <c r="AP161">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ161">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR161">
         <v>1.13</v>
@@ -34892,7 +34910,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35304,7 +35322,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35510,7 +35528,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35794,10 +35812,10 @@
         <v>0.57</v>
       </c>
       <c r="AP167">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ167">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR167">
         <v>1.37</v>
@@ -35922,7 +35940,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36000,7 +36018,7 @@
         <v>1.57</v>
       </c>
       <c r="AP168">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ168">
         <v>1.5</v>
@@ -36128,7 +36146,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36334,7 +36352,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36746,7 +36764,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36827,7 +36845,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ172">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR172">
         <v>1.36</v>
@@ -36952,7 +36970,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37158,7 +37176,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37236,7 +37254,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ174">
         <v>1.43</v>
@@ -37445,7 +37463,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ175">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -37570,7 +37588,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37648,10 +37666,10 @@
         <v>1.88</v>
       </c>
       <c r="AP176">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ176">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR176">
         <v>1.56</v>
@@ -38188,7 +38206,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38266,7 +38284,7 @@
         <v>2.25</v>
       </c>
       <c r="AP179">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ179">
         <v>1.79</v>
@@ -38600,7 +38618,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -38678,10 +38696,10 @@
         <v>1.43</v>
       </c>
       <c r="AP181">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ181">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR181">
         <v>1.17</v>
@@ -38884,10 +38902,10 @@
         <v>1.63</v>
       </c>
       <c r="AP182">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR182">
         <v>1.43</v>
@@ -39012,7 +39030,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39093,7 +39111,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ183">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR183">
         <v>1.35</v>
@@ -39424,7 +39442,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39836,7 +39854,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -40120,10 +40138,10 @@
         <v>0.63</v>
       </c>
       <c r="AP188">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ188">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR188">
         <v>1.2</v>
@@ -40454,7 +40472,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40660,7 +40678,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -41072,7 +41090,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41150,10 +41168,10 @@
         <v>1.7</v>
       </c>
       <c r="AP193">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ193">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR193">
         <v>1.59</v>
@@ -41356,7 +41374,7 @@
         <v>1.4</v>
       </c>
       <c r="AP194">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ194">
         <v>1.07</v>
@@ -41484,7 +41502,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41896,7 +41914,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42102,7 +42120,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42592,7 +42610,7 @@
         <v>1.67</v>
       </c>
       <c r="AP200">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ200">
         <v>1.5</v>
@@ -42801,7 +42819,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ201">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR201">
         <v>1.6</v>
@@ -43007,7 +43025,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ202">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR202">
         <v>1.65</v>
@@ -43132,7 +43150,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43213,7 +43231,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ203">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR203">
         <v>1.31</v>
@@ -43416,7 +43434,7 @@
         <v>1.4</v>
       </c>
       <c r="AP204">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ204">
         <v>1.07</v>
@@ -43625,7 +43643,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ205">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR205">
         <v>1.48</v>
@@ -43750,7 +43768,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -44446,7 +44464,7 @@
         <v>1.64</v>
       </c>
       <c r="AP209">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ209">
         <v>1.6</v>
@@ -44986,7 +45004,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -45064,7 +45082,7 @@
         <v>1.8</v>
       </c>
       <c r="AP212">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ212">
         <v>1.57</v>
@@ -45273,7 +45291,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ213">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR213">
         <v>1.46</v>
@@ -45398,7 +45416,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45476,7 +45494,7 @@
         <v>1.82</v>
       </c>
       <c r="AP214">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ214">
         <v>1.93</v>
@@ -45604,7 +45622,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45810,7 +45828,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -46016,7 +46034,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -46303,7 +46321,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ218">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR218">
         <v>1.35</v>
@@ -46428,7 +46446,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46506,7 +46524,7 @@
         <v>1</v>
       </c>
       <c r="AP219">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ219">
         <v>1.29</v>
@@ -46634,7 +46652,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46918,7 +46936,7 @@
         <v>0.6</v>
       </c>
       <c r="AP221">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ221">
         <v>0.43</v>
@@ -47046,7 +47064,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q222">
         <v>3.25</v>
@@ -47252,7 +47270,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47330,7 +47348,7 @@
         <v>1.5</v>
       </c>
       <c r="AP223">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ223">
         <v>1.36</v>
@@ -47664,7 +47682,7 @@
         <v>96</v>
       </c>
       <c r="P225" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q225">
         <v>2.9</v>
@@ -48363,7 +48381,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ228">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR228">
         <v>1.52</v>
@@ -48775,7 +48793,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ230">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR230">
         <v>1.61</v>
@@ -48900,7 +48918,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -48981,7 +48999,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ231">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR231">
         <v>1.21</v>
@@ -49187,7 +49205,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ232">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR232">
         <v>1.3</v>
@@ -49393,7 +49411,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ233">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR233">
         <v>1.32</v>
@@ -49596,7 +49614,7 @@
         <v>1.73</v>
       </c>
       <c r="AP234">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ234">
         <v>1.57</v>
@@ -49724,7 +49742,7 @@
         <v>231</v>
       </c>
       <c r="P235" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q235">
         <v>5.5</v>
@@ -49802,7 +49820,7 @@
         <v>1.92</v>
       </c>
       <c r="AP235">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ235">
         <v>1.93</v>
@@ -49930,7 +49948,7 @@
         <v>232</v>
       </c>
       <c r="P236" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50136,7 +50154,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50423,7 +50441,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ238">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR238">
         <v>1.5</v>
@@ -50548,7 +50566,7 @@
         <v>234</v>
       </c>
       <c r="P239" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q239">
         <v>4.75</v>
@@ -50626,7 +50644,7 @@
         <v>1.5</v>
       </c>
       <c r="AP239">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ239">
         <v>1.43</v>
@@ -50754,7 +50772,7 @@
         <v>210</v>
       </c>
       <c r="P240" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -50960,7 +50978,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51038,10 +51056,10 @@
         <v>1.27</v>
       </c>
       <c r="AP241">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ241">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR241">
         <v>1.98</v>
@@ -51166,7 +51184,7 @@
         <v>235</v>
       </c>
       <c r="P242" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q242">
         <v>2.45</v>
@@ -51372,7 +51390,7 @@
         <v>236</v>
       </c>
       <c r="P243" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q243">
         <v>2.9</v>
@@ -51990,7 +52008,7 @@
         <v>92</v>
       </c>
       <c r="P246" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q246">
         <v>2.6</v>
@@ -52196,7 +52214,7 @@
         <v>138</v>
       </c>
       <c r="P247" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q247">
         <v>2.85</v>
@@ -52483,7 +52501,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ248">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR248">
         <v>1.05</v>
@@ -53098,7 +53116,7 @@
         <v>1.17</v>
       </c>
       <c r="AP251">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ251">
         <v>1.07</v>
@@ -53304,10 +53322,10 @@
         <v>1.25</v>
       </c>
       <c r="AP252">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ252">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR252">
         <v>1.58</v>
@@ -53510,10 +53528,10 @@
         <v>1.54</v>
       </c>
       <c r="AP253">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AQ253">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR253">
         <v>1.39</v>
@@ -54131,7 +54149,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ256">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR256">
         <v>1.75</v>
@@ -54256,7 +54274,7 @@
         <v>244</v>
       </c>
       <c r="P257" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q257">
         <v>2.45</v>
@@ -54746,7 +54764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP259">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AQ259">
         <v>0.43</v>
@@ -55161,7 +55179,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ261">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AR261">
         <v>1.3</v>
@@ -55367,7 +55385,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ262">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR262">
         <v>1.77</v>
@@ -55698,7 +55716,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q264">
         <v>3.26</v>
@@ -55982,7 +56000,7 @@
         <v>1.08</v>
       </c>
       <c r="AP265">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ265">
         <v>1.07</v>
@@ -56110,7 +56128,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q266">
         <v>7.59</v>
@@ -56316,7 +56334,7 @@
         <v>92</v>
       </c>
       <c r="P267" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q267">
         <v>2.38</v>
@@ -56394,7 +56412,7 @@
         <v>1.75</v>
       </c>
       <c r="AP267">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AQ267">
         <v>1.85</v>
@@ -56934,7 +56952,7 @@
         <v>92</v>
       </c>
       <c r="P270" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q270">
         <v>2.79</v>
@@ -57140,7 +57158,7 @@
         <v>252</v>
       </c>
       <c r="P271" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q271">
         <v>3.2</v>
@@ -57552,7 +57570,7 @@
         <v>92</v>
       </c>
       <c r="P273" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q273">
         <v>3.64</v>
@@ -57964,7 +57982,7 @@
         <v>254</v>
       </c>
       <c r="P275" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q275">
         <v>2.4</v>
@@ -58170,7 +58188,7 @@
         <v>92</v>
       </c>
       <c r="P276" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q276">
         <v>4.5</v>
@@ -58327,6 +58345,1036 @@
       </c>
       <c r="BP276">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7331209</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45529.25</v>
+      </c>
+      <c r="F277">
+        <v>28</v>
+      </c>
+      <c r="G277" t="s">
+        <v>89</v>
+      </c>
+      <c r="H277" t="s">
+        <v>73</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+      <c r="O277" t="s">
+        <v>92</v>
+      </c>
+      <c r="P277" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q277">
+        <v>2.38</v>
+      </c>
+      <c r="R277">
+        <v>2.2</v>
+      </c>
+      <c r="S277">
+        <v>5</v>
+      </c>
+      <c r="T277">
+        <v>1.4</v>
+      </c>
+      <c r="U277">
+        <v>2.75</v>
+      </c>
+      <c r="V277">
+        <v>3</v>
+      </c>
+      <c r="W277">
+        <v>1.36</v>
+      </c>
+      <c r="X277">
+        <v>8</v>
+      </c>
+      <c r="Y277">
+        <v>1.08</v>
+      </c>
+      <c r="Z277">
+        <v>1.72</v>
+      </c>
+      <c r="AA277">
+        <v>3.6</v>
+      </c>
+      <c r="AB277">
+        <v>4.5</v>
+      </c>
+      <c r="AC277">
+        <v>1.02</v>
+      </c>
+      <c r="AD277">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE277">
+        <v>1.28</v>
+      </c>
+      <c r="AF277">
+        <v>3.18</v>
+      </c>
+      <c r="AG277">
+        <v>1.95</v>
+      </c>
+      <c r="AH277">
+        <v>1.8</v>
+      </c>
+      <c r="AI277">
+        <v>1.83</v>
+      </c>
+      <c r="AJ277">
+        <v>1.83</v>
+      </c>
+      <c r="AK277">
+        <v>1.16</v>
+      </c>
+      <c r="AL277">
+        <v>1.24</v>
+      </c>
+      <c r="AM277">
+        <v>2.01</v>
+      </c>
+      <c r="AN277">
+        <v>1.54</v>
+      </c>
+      <c r="AO277">
+        <v>1.15</v>
+      </c>
+      <c r="AP277">
+        <v>1.5</v>
+      </c>
+      <c r="AQ277">
+        <v>1.14</v>
+      </c>
+      <c r="AR277">
+        <v>1.53</v>
+      </c>
+      <c r="AS277">
+        <v>1.25</v>
+      </c>
+      <c r="AT277">
+        <v>2.78</v>
+      </c>
+      <c r="AU277">
+        <v>4</v>
+      </c>
+      <c r="AV277">
+        <v>3</v>
+      </c>
+      <c r="AW277">
+        <v>8</v>
+      </c>
+      <c r="AX277">
+        <v>10</v>
+      </c>
+      <c r="AY277">
+        <v>12</v>
+      </c>
+      <c r="AZ277">
+        <v>13</v>
+      </c>
+      <c r="BA277">
+        <v>5</v>
+      </c>
+      <c r="BB277">
+        <v>6</v>
+      </c>
+      <c r="BC277">
+        <v>11</v>
+      </c>
+      <c r="BD277">
+        <v>1.23</v>
+      </c>
+      <c r="BE277">
+        <v>11</v>
+      </c>
+      <c r="BF277">
+        <v>5.1</v>
+      </c>
+      <c r="BG277">
+        <v>1.18</v>
+      </c>
+      <c r="BH277">
+        <v>4.33</v>
+      </c>
+      <c r="BI277">
+        <v>1.3</v>
+      </c>
+      <c r="BJ277">
+        <v>3.2</v>
+      </c>
+      <c r="BK277">
+        <v>1.48</v>
+      </c>
+      <c r="BL277">
+        <v>2.4</v>
+      </c>
+      <c r="BM277">
+        <v>1.95</v>
+      </c>
+      <c r="BN277">
+        <v>1.85</v>
+      </c>
+      <c r="BO277">
+        <v>2.3</v>
+      </c>
+      <c r="BP277">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7331210</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45529.25</v>
+      </c>
+      <c r="F278">
+        <v>28</v>
+      </c>
+      <c r="G278" t="s">
+        <v>83</v>
+      </c>
+      <c r="H278" t="s">
+        <v>76</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>2</v>
+      </c>
+      <c r="K278">
+        <v>3</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278">
+        <v>4</v>
+      </c>
+      <c r="N278">
+        <v>7</v>
+      </c>
+      <c r="O278" t="s">
+        <v>255</v>
+      </c>
+      <c r="P278" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q278">
+        <v>2.88</v>
+      </c>
+      <c r="R278">
+        <v>2.2</v>
+      </c>
+      <c r="S278">
+        <v>3.6</v>
+      </c>
+      <c r="T278">
+        <v>1.36</v>
+      </c>
+      <c r="U278">
+        <v>3</v>
+      </c>
+      <c r="V278">
+        <v>2.75</v>
+      </c>
+      <c r="W278">
+        <v>1.4</v>
+      </c>
+      <c r="X278">
+        <v>7</v>
+      </c>
+      <c r="Y278">
+        <v>1.1</v>
+      </c>
+      <c r="Z278">
+        <v>2.2</v>
+      </c>
+      <c r="AA278">
+        <v>3.4</v>
+      </c>
+      <c r="AB278">
+        <v>3</v>
+      </c>
+      <c r="AC278">
+        <v>1.01</v>
+      </c>
+      <c r="AD278">
+        <v>9.5</v>
+      </c>
+      <c r="AE278">
+        <v>1.24</v>
+      </c>
+      <c r="AF278">
+        <v>3.48</v>
+      </c>
+      <c r="AG278">
+        <v>1.85</v>
+      </c>
+      <c r="AH278">
+        <v>1.9</v>
+      </c>
+      <c r="AI278">
+        <v>1.67</v>
+      </c>
+      <c r="AJ278">
+        <v>2.1</v>
+      </c>
+      <c r="AK278">
+        <v>1.36</v>
+      </c>
+      <c r="AL278">
+        <v>1.22</v>
+      </c>
+      <c r="AM278">
+        <v>1.65</v>
+      </c>
+      <c r="AN278">
+        <v>1.36</v>
+      </c>
+      <c r="AO278">
+        <v>1.31</v>
+      </c>
+      <c r="AP278">
+        <v>1.27</v>
+      </c>
+      <c r="AQ278">
+        <v>1.43</v>
+      </c>
+      <c r="AR278">
+        <v>1.61</v>
+      </c>
+      <c r="AS278">
+        <v>1.46</v>
+      </c>
+      <c r="AT278">
+        <v>3.07</v>
+      </c>
+      <c r="AU278">
+        <v>4</v>
+      </c>
+      <c r="AV278">
+        <v>5</v>
+      </c>
+      <c r="AW278">
+        <v>6</v>
+      </c>
+      <c r="AX278">
+        <v>3</v>
+      </c>
+      <c r="AY278">
+        <v>10</v>
+      </c>
+      <c r="AZ278">
+        <v>8</v>
+      </c>
+      <c r="BA278">
+        <v>4</v>
+      </c>
+      <c r="BB278">
+        <v>6</v>
+      </c>
+      <c r="BC278">
+        <v>10</v>
+      </c>
+      <c r="BD278">
+        <v>2.2</v>
+      </c>
+      <c r="BE278">
+        <v>8</v>
+      </c>
+      <c r="BF278">
+        <v>1.91</v>
+      </c>
+      <c r="BG278">
+        <v>1.25</v>
+      </c>
+      <c r="BH278">
+        <v>3.6</v>
+      </c>
+      <c r="BI278">
+        <v>1.32</v>
+      </c>
+      <c r="BJ278">
+        <v>3.1</v>
+      </c>
+      <c r="BK278">
+        <v>1.85</v>
+      </c>
+      <c r="BL278">
+        <v>1.95</v>
+      </c>
+      <c r="BM278">
+        <v>2.04</v>
+      </c>
+      <c r="BN278">
+        <v>1.66</v>
+      </c>
+      <c r="BO278">
+        <v>2.67</v>
+      </c>
+      <c r="BP278">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7331211</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45529.25</v>
+      </c>
+      <c r="F279">
+        <v>28</v>
+      </c>
+      <c r="G279" t="s">
+        <v>70</v>
+      </c>
+      <c r="H279" t="s">
+        <v>77</v>
+      </c>
+      <c r="I279">
+        <v>2</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>2</v>
+      </c>
+      <c r="L279">
+        <v>2</v>
+      </c>
+      <c r="M279">
+        <v>1</v>
+      </c>
+      <c r="N279">
+        <v>3</v>
+      </c>
+      <c r="O279" t="s">
+        <v>256</v>
+      </c>
+      <c r="P279" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q279">
+        <v>2.65</v>
+      </c>
+      <c r="R279">
+        <v>1.95</v>
+      </c>
+      <c r="S279">
+        <v>4.33</v>
+      </c>
+      <c r="T279">
+        <v>1.5</v>
+      </c>
+      <c r="U279">
+        <v>2.48</v>
+      </c>
+      <c r="V279">
+        <v>3.26</v>
+      </c>
+      <c r="W279">
+        <v>1.31</v>
+      </c>
+      <c r="X279">
+        <v>8</v>
+      </c>
+      <c r="Y279">
+        <v>1.06</v>
+      </c>
+      <c r="Z279">
+        <v>1.9</v>
+      </c>
+      <c r="AA279">
+        <v>3.25</v>
+      </c>
+      <c r="AB279">
+        <v>4</v>
+      </c>
+      <c r="AC279">
+        <v>1.05</v>
+      </c>
+      <c r="AD279">
+        <v>7.1</v>
+      </c>
+      <c r="AE279">
+        <v>1.39</v>
+      </c>
+      <c r="AF279">
+        <v>2.67</v>
+      </c>
+      <c r="AG279">
+        <v>2.3</v>
+      </c>
+      <c r="AH279">
+        <v>1.57</v>
+      </c>
+      <c r="AI279">
+        <v>2</v>
+      </c>
+      <c r="AJ279">
+        <v>1.75</v>
+      </c>
+      <c r="AK279">
+        <v>1.25</v>
+      </c>
+      <c r="AL279">
+        <v>1.28</v>
+      </c>
+      <c r="AM279">
+        <v>1.75</v>
+      </c>
+      <c r="AN279">
+        <v>1.07</v>
+      </c>
+      <c r="AO279">
+        <v>0.77</v>
+      </c>
+      <c r="AP279">
+        <v>1.2</v>
+      </c>
+      <c r="AQ279">
+        <v>0.71</v>
+      </c>
+      <c r="AR279">
+        <v>1.39</v>
+      </c>
+      <c r="AS279">
+        <v>1.05</v>
+      </c>
+      <c r="AT279">
+        <v>2.44</v>
+      </c>
+      <c r="AU279">
+        <v>4</v>
+      </c>
+      <c r="AV279">
+        <v>3</v>
+      </c>
+      <c r="AW279">
+        <v>12</v>
+      </c>
+      <c r="AX279">
+        <v>5</v>
+      </c>
+      <c r="AY279">
+        <v>16</v>
+      </c>
+      <c r="AZ279">
+        <v>8</v>
+      </c>
+      <c r="BA279">
+        <v>10</v>
+      </c>
+      <c r="BB279">
+        <v>4</v>
+      </c>
+      <c r="BC279">
+        <v>14</v>
+      </c>
+      <c r="BD279">
+        <v>1.82</v>
+      </c>
+      <c r="BE279">
+        <v>8</v>
+      </c>
+      <c r="BF279">
+        <v>2.39</v>
+      </c>
+      <c r="BG279">
+        <v>1.33</v>
+      </c>
+      <c r="BH279">
+        <v>3</v>
+      </c>
+      <c r="BI279">
+        <v>1.53</v>
+      </c>
+      <c r="BJ279">
+        <v>2.28</v>
+      </c>
+      <c r="BK279">
+        <v>1.98</v>
+      </c>
+      <c r="BL279">
+        <v>1.82</v>
+      </c>
+      <c r="BM279">
+        <v>2.5</v>
+      </c>
+      <c r="BN279">
+        <v>1.44</v>
+      </c>
+      <c r="BO279">
+        <v>3.2</v>
+      </c>
+      <c r="BP279">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7331212</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F280">
+        <v>28</v>
+      </c>
+      <c r="G280" t="s">
+        <v>85</v>
+      </c>
+      <c r="H280" t="s">
+        <v>86</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280">
+        <v>2</v>
+      </c>
+      <c r="N280">
+        <v>3</v>
+      </c>
+      <c r="O280" t="s">
+        <v>227</v>
+      </c>
+      <c r="P280" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q280">
+        <v>4</v>
+      </c>
+      <c r="R280">
+        <v>2.1</v>
+      </c>
+      <c r="S280">
+        <v>2.75</v>
+      </c>
+      <c r="T280">
+        <v>1.4</v>
+      </c>
+      <c r="U280">
+        <v>2.75</v>
+      </c>
+      <c r="V280">
+        <v>3</v>
+      </c>
+      <c r="W280">
+        <v>1.36</v>
+      </c>
+      <c r="X280">
+        <v>8</v>
+      </c>
+      <c r="Y280">
+        <v>1.08</v>
+      </c>
+      <c r="Z280">
+        <v>3.2</v>
+      </c>
+      <c r="AA280">
+        <v>3.3</v>
+      </c>
+      <c r="AB280">
+        <v>2.15</v>
+      </c>
+      <c r="AC280">
+        <v>1.02</v>
+      </c>
+      <c r="AD280">
+        <v>8.5</v>
+      </c>
+      <c r="AE280">
+        <v>1.28</v>
+      </c>
+      <c r="AF280">
+        <v>3.2</v>
+      </c>
+      <c r="AG280">
+        <v>2</v>
+      </c>
+      <c r="AH280">
+        <v>1.75</v>
+      </c>
+      <c r="AI280">
+        <v>1.8</v>
+      </c>
+      <c r="AJ280">
+        <v>1.91</v>
+      </c>
+      <c r="AK280">
+        <v>1.65</v>
+      </c>
+      <c r="AL280">
+        <v>1.28</v>
+      </c>
+      <c r="AM280">
+        <v>1.28</v>
+      </c>
+      <c r="AN280">
+        <v>1.08</v>
+      </c>
+      <c r="AO280">
+        <v>1.57</v>
+      </c>
+      <c r="AP280">
+        <v>1</v>
+      </c>
+      <c r="AQ280">
+        <v>1.67</v>
+      </c>
+      <c r="AR280">
+        <v>1.24</v>
+      </c>
+      <c r="AS280">
+        <v>1.37</v>
+      </c>
+      <c r="AT280">
+        <v>2.61</v>
+      </c>
+      <c r="AU280">
+        <v>5</v>
+      </c>
+      <c r="AV280">
+        <v>4</v>
+      </c>
+      <c r="AW280">
+        <v>8</v>
+      </c>
+      <c r="AX280">
+        <v>5</v>
+      </c>
+      <c r="AY280">
+        <v>13</v>
+      </c>
+      <c r="AZ280">
+        <v>9</v>
+      </c>
+      <c r="BA280">
+        <v>6</v>
+      </c>
+      <c r="BB280">
+        <v>4</v>
+      </c>
+      <c r="BC280">
+        <v>10</v>
+      </c>
+      <c r="BD280">
+        <v>2.44</v>
+      </c>
+      <c r="BE280">
+        <v>8</v>
+      </c>
+      <c r="BF280">
+        <v>1.75</v>
+      </c>
+      <c r="BG280">
+        <v>1.29</v>
+      </c>
+      <c r="BH280">
+        <v>3.4</v>
+      </c>
+      <c r="BI280">
+        <v>1.42</v>
+      </c>
+      <c r="BJ280">
+        <v>2.57</v>
+      </c>
+      <c r="BK280">
+        <v>1.88</v>
+      </c>
+      <c r="BL280">
+        <v>1.92</v>
+      </c>
+      <c r="BM280">
+        <v>2.21</v>
+      </c>
+      <c r="BN280">
+        <v>1.56</v>
+      </c>
+      <c r="BO280">
+        <v>3.05</v>
+      </c>
+      <c r="BP280">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7331213</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45529.29166666666</v>
+      </c>
+      <c r="F281">
+        <v>28</v>
+      </c>
+      <c r="G281" t="s">
+        <v>74</v>
+      </c>
+      <c r="H281" t="s">
+        <v>87</v>
+      </c>
+      <c r="I281">
+        <v>1</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>2</v>
+      </c>
+      <c r="L281">
+        <v>4</v>
+      </c>
+      <c r="M281">
+        <v>2</v>
+      </c>
+      <c r="N281">
+        <v>6</v>
+      </c>
+      <c r="O281" t="s">
+        <v>257</v>
+      </c>
+      <c r="P281" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q281">
+        <v>2.75</v>
+      </c>
+      <c r="R281">
+        <v>2.2</v>
+      </c>
+      <c r="S281">
+        <v>4</v>
+      </c>
+      <c r="T281">
+        <v>1.4</v>
+      </c>
+      <c r="U281">
+        <v>2.75</v>
+      </c>
+      <c r="V281">
+        <v>2.75</v>
+      </c>
+      <c r="W281">
+        <v>1.4</v>
+      </c>
+      <c r="X281">
+        <v>8</v>
+      </c>
+      <c r="Y281">
+        <v>1.08</v>
+      </c>
+      <c r="Z281">
+        <v>2.05</v>
+      </c>
+      <c r="AA281">
+        <v>3.4</v>
+      </c>
+      <c r="AB281">
+        <v>3.4</v>
+      </c>
+      <c r="AC281">
+        <v>1.02</v>
+      </c>
+      <c r="AD281">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE281">
+        <v>1.3</v>
+      </c>
+      <c r="AF281">
+        <v>3.3</v>
+      </c>
+      <c r="AG281">
+        <v>1.95</v>
+      </c>
+      <c r="AH281">
+        <v>1.8</v>
+      </c>
+      <c r="AI281">
+        <v>1.73</v>
+      </c>
+      <c r="AJ281">
+        <v>2</v>
+      </c>
+      <c r="AK281">
+        <v>1.28</v>
+      </c>
+      <c r="AL281">
+        <v>1.25</v>
+      </c>
+      <c r="AM281">
+        <v>1.75</v>
+      </c>
+      <c r="AN281">
+        <v>1.69</v>
+      </c>
+      <c r="AO281">
+        <v>1.64</v>
+      </c>
+      <c r="AP281">
+        <v>1.79</v>
+      </c>
+      <c r="AQ281">
+        <v>1.53</v>
+      </c>
+      <c r="AR281">
+        <v>1.87</v>
+      </c>
+      <c r="AS281">
+        <v>1.19</v>
+      </c>
+      <c r="AT281">
+        <v>3.06</v>
+      </c>
+      <c r="AU281">
+        <v>8</v>
+      </c>
+      <c r="AV281">
+        <v>5</v>
+      </c>
+      <c r="AW281">
+        <v>6</v>
+      </c>
+      <c r="AX281">
+        <v>3</v>
+      </c>
+      <c r="AY281">
+        <v>14</v>
+      </c>
+      <c r="AZ281">
+        <v>8</v>
+      </c>
+      <c r="BA281">
+        <v>5</v>
+      </c>
+      <c r="BB281">
+        <v>2</v>
+      </c>
+      <c r="BC281">
+        <v>7</v>
+      </c>
+      <c r="BD281">
+        <v>1.69</v>
+      </c>
+      <c r="BE281">
+        <v>8</v>
+      </c>
+      <c r="BF281">
+        <v>2.62</v>
+      </c>
+      <c r="BG281">
+        <v>1.33</v>
+      </c>
+      <c r="BH281">
+        <v>3</v>
+      </c>
+      <c r="BI281">
+        <v>1.53</v>
+      </c>
+      <c r="BJ281">
+        <v>2.28</v>
+      </c>
+      <c r="BK281">
+        <v>1.95</v>
+      </c>
+      <c r="BL281">
+        <v>1.85</v>
+      </c>
+      <c r="BM281">
+        <v>2.51</v>
+      </c>
+      <c r="BN281">
+        <v>1.44</v>
+      </c>
+      <c r="BO281">
+        <v>3.2</v>
+      </c>
+      <c r="BP281">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -1120,7 +1120,7 @@
     <t>['13', '36', '49', '68']</t>
   </si>
   <si>
-    <t>['16', '90']</t>
+    <t>['16', '90+1']</t>
   </si>
   <si>
     <t>['28', '54']</t>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="371">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -790,6 +790,9 @@
     <t>['45+7', '65', '76', '85']</t>
   </si>
   <si>
+    <t>['10', '18', '63']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1485,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP281"/>
+  <dimension ref="A1:BP283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1822,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ2">
         <v>1.85</v>
@@ -1950,7 +1953,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2568,7 +2571,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2980,7 +2983,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3267,7 +3270,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ9">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3392,7 +3395,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3804,7 +3807,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -4010,7 +4013,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4088,7 +4091,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -4503,7 +4506,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ15">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5658,7 +5661,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5864,7 +5867,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -6070,7 +6073,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6148,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ23">
         <v>0.79</v>
@@ -6563,7 +6566,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ25">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR25">
         <v>1.38</v>
@@ -7306,7 +7309,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7512,7 +7515,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7718,7 +7721,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7924,7 +7927,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8417,7 +8420,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ34">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR34">
         <v>1.07</v>
@@ -8542,7 +8545,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8620,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
@@ -8748,7 +8751,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -9366,7 +9369,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9572,7 +9575,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -10271,7 +10274,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ43">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR43">
         <v>1.32</v>
@@ -10680,7 +10683,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ45">
         <v>1.85</v>
@@ -11014,7 +11017,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11632,7 +11635,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11838,7 +11841,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -12044,7 +12047,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12250,7 +12253,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12537,7 +12540,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ54">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR54">
         <v>1.41</v>
@@ -12868,7 +12871,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13152,7 +13155,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ57">
         <v>1.07</v>
@@ -13692,7 +13695,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13898,7 +13901,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -14104,7 +14107,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14182,7 +14185,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ62">
         <v>1.57</v>
@@ -15006,10 +15009,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ66">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR66">
         <v>1.44</v>
@@ -15134,7 +15137,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15958,7 +15961,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16370,7 +16373,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16576,7 +16579,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16782,7 +16785,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -17194,7 +17197,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17812,7 +17815,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17893,7 +17896,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ80">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR80">
         <v>1.99</v>
@@ -18224,7 +18227,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18511,7 +18514,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ83">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR83">
         <v>1.51</v>
@@ -19048,7 +19051,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19332,7 +19335,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ87">
         <v>1.6</v>
@@ -19872,7 +19875,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -20078,7 +20081,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20284,7 +20287,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20902,7 +20905,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20980,7 +20983,7 @@
         <v>0.75</v>
       </c>
       <c r="AP95">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ95">
         <v>0.79</v>
@@ -21108,7 +21111,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21314,7 +21317,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21395,7 +21398,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ97">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -22138,7 +22141,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22756,7 +22759,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22962,7 +22965,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23040,7 +23043,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ105">
         <v>0.71</v>
@@ -23249,7 +23252,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR106">
         <v>1.44</v>
@@ -23374,7 +23377,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23580,7 +23583,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23992,7 +23995,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24404,7 +24407,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24610,7 +24613,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24688,7 +24691,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ113">
         <v>1.15</v>
@@ -24816,7 +24819,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -25228,7 +25231,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25640,7 +25643,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -26545,7 +26548,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ122">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR122">
         <v>1.47</v>
@@ -26670,7 +26673,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26876,7 +26879,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26957,7 +26960,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ124">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR124">
         <v>1.6</v>
@@ -27082,7 +27085,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27288,7 +27291,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27700,7 +27703,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -28112,7 +28115,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28190,7 +28193,7 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ130">
         <v>1.36</v>
@@ -28936,7 +28939,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -29632,7 +29635,7 @@
         <v>1.4</v>
       </c>
       <c r="AP137">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ137">
         <v>1.43</v>
@@ -29760,7 +29763,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29966,7 +29969,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30584,7 +30587,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30871,7 +30874,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ143">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR143">
         <v>1.82</v>
@@ -30996,7 +30999,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31408,7 +31411,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -32232,7 +32235,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32313,7 +32316,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ150">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -32438,7 +32441,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32516,7 +32519,7 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ151">
         <v>1.07</v>
@@ -32644,7 +32647,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -33056,7 +33059,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33137,7 +33140,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ154">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR154">
         <v>2.17</v>
@@ -33340,7 +33343,7 @@
         <v>1.86</v>
       </c>
       <c r="AP155">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ155">
         <v>1.36</v>
@@ -33468,7 +33471,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33674,7 +33677,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33880,7 +33883,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34292,7 +34295,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34498,7 +34501,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34910,7 +34913,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34991,7 +34994,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ163">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR163">
         <v>1.38</v>
@@ -35322,7 +35325,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35400,7 +35403,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ165">
         <v>1.93</v>
@@ -35528,7 +35531,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35940,7 +35943,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36146,7 +36149,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36352,7 +36355,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36764,7 +36767,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36970,7 +36973,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37176,7 +37179,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37463,7 +37466,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ175">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR175">
         <v>1.58</v>
@@ -37588,7 +37591,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -38206,7 +38209,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38284,7 +38287,7 @@
         <v>2.25</v>
       </c>
       <c r="AP179">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ179">
         <v>1.79</v>
@@ -38618,7 +38621,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -39030,7 +39033,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39108,7 +39111,7 @@
         <v>2</v>
       </c>
       <c r="AP183">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ183">
         <v>1.53</v>
@@ -39442,7 +39445,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39854,7 +39857,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -40472,7 +40475,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40553,7 +40556,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ190">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR190">
         <v>1.48</v>
@@ -40678,7 +40681,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -41090,7 +41093,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41374,7 +41377,7 @@
         <v>1.4</v>
       </c>
       <c r="AP194">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ194">
         <v>1.07</v>
@@ -41502,7 +41505,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41914,7 +41917,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -42120,7 +42123,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -43150,7 +43153,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43228,10 +43231,10 @@
         <v>1</v>
       </c>
       <c r="AP203">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ203">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR203">
         <v>1.31</v>
@@ -43768,7 +43771,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -45004,7 +45007,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -45082,7 +45085,7 @@
         <v>1.8</v>
       </c>
       <c r="AP212">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ212">
         <v>1.57</v>
@@ -45291,7 +45294,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ213">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR213">
         <v>1.46</v>
@@ -45416,7 +45419,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45622,7 +45625,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45828,7 +45831,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -46034,7 +46037,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -46446,7 +46449,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46652,7 +46655,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46939,7 +46942,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ221">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR221">
         <v>2.08</v>
@@ -47064,7 +47067,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q222">
         <v>3.25</v>
@@ -47270,7 +47273,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47682,7 +47685,7 @@
         <v>96</v>
       </c>
       <c r="P225" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q225">
         <v>2.9</v>
@@ -47760,7 +47763,7 @@
         <v>1.5</v>
       </c>
       <c r="AP225">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ225">
         <v>1.5</v>
@@ -48587,7 +48590,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ229">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR229">
         <v>1.53</v>
@@ -48918,7 +48921,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49205,7 +49208,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ232">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR232">
         <v>1.3</v>
@@ -49742,7 +49745,7 @@
         <v>231</v>
       </c>
       <c r="P235" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q235">
         <v>5.5</v>
@@ -49820,7 +49823,7 @@
         <v>1.92</v>
       </c>
       <c r="AP235">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ235">
         <v>1.93</v>
@@ -49948,7 +49951,7 @@
         <v>232</v>
       </c>
       <c r="P236" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50026,7 +50029,7 @@
         <v>2.09</v>
       </c>
       <c r="AP236">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ236">
         <v>1.79</v>
@@ -50154,7 +50157,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50566,7 +50569,7 @@
         <v>234</v>
       </c>
       <c r="P239" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q239">
         <v>4.75</v>
@@ -50772,7 +50775,7 @@
         <v>210</v>
       </c>
       <c r="P240" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -50978,7 +50981,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51184,7 +51187,7 @@
         <v>235</v>
       </c>
       <c r="P242" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q242">
         <v>2.45</v>
@@ -51390,7 +51393,7 @@
         <v>236</v>
       </c>
       <c r="P243" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q243">
         <v>2.9</v>
@@ -52008,7 +52011,7 @@
         <v>92</v>
       </c>
       <c r="P246" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q246">
         <v>2.6</v>
@@ -52214,7 +52217,7 @@
         <v>138</v>
       </c>
       <c r="P247" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q247">
         <v>2.85</v>
@@ -53325,7 +53328,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ252">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR252">
         <v>1.58</v>
@@ -53528,7 +53531,7 @@
         <v>1.54</v>
       </c>
       <c r="AP253">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ253">
         <v>1.53</v>
@@ -53940,7 +53943,7 @@
         <v>1.25</v>
       </c>
       <c r="AP255">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AQ255">
         <v>1.15</v>
@@ -54274,7 +54277,7 @@
         <v>244</v>
       </c>
       <c r="P257" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q257">
         <v>2.45</v>
@@ -54767,7 +54770,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ259">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR259">
         <v>1.51</v>
@@ -55591,7 +55594,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ263">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AR263">
         <v>1.48</v>
@@ -55716,7 +55719,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q264">
         <v>3.26</v>
@@ -56128,7 +56131,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q266">
         <v>7.59</v>
@@ -56334,7 +56337,7 @@
         <v>92</v>
       </c>
       <c r="P267" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q267">
         <v>2.38</v>
@@ -56952,7 +56955,7 @@
         <v>92</v>
       </c>
       <c r="P270" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q270">
         <v>2.79</v>
@@ -57158,7 +57161,7 @@
         <v>252</v>
       </c>
       <c r="P271" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q271">
         <v>3.2</v>
@@ -57570,7 +57573,7 @@
         <v>92</v>
       </c>
       <c r="P273" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q273">
         <v>3.64</v>
@@ -57982,7 +57985,7 @@
         <v>254</v>
       </c>
       <c r="P275" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q275">
         <v>2.4</v>
@@ -58188,7 +58191,7 @@
         <v>92</v>
       </c>
       <c r="P276" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q276">
         <v>4.5</v>
@@ -58475,7 +58478,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ277">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AR277">
         <v>1.53</v>
@@ -58600,7 +58603,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58806,7 +58809,7 @@
         <v>256</v>
       </c>
       <c r="P279" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q279">
         <v>2.65</v>
@@ -58884,7 +58887,7 @@
         <v>0.77</v>
       </c>
       <c r="AP279">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ279">
         <v>0.71</v>
@@ -59012,7 +59015,7 @@
         <v>227</v>
       </c>
       <c r="P280" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q280">
         <v>4</v>
@@ -59218,7 +59221,7 @@
         <v>257</v>
       </c>
       <c r="P281" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q281">
         <v>2.75</v>
@@ -59375,6 +59378,418 @@
       </c>
       <c r="BP281">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7331215</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="F282">
+        <v>29</v>
+      </c>
+      <c r="G282" t="s">
+        <v>86</v>
+      </c>
+      <c r="H282" t="s">
+        <v>82</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
+        <v>182</v>
+      </c>
+      <c r="P282" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q282">
+        <v>2.27</v>
+      </c>
+      <c r="R282">
+        <v>2.25</v>
+      </c>
+      <c r="S282">
+        <v>4.33</v>
+      </c>
+      <c r="T282">
+        <v>1.32</v>
+      </c>
+      <c r="U282">
+        <v>3.2</v>
+      </c>
+      <c r="V282">
+        <v>2.48</v>
+      </c>
+      <c r="W282">
+        <v>1.5</v>
+      </c>
+      <c r="X282">
+        <v>5.5</v>
+      </c>
+      <c r="Y282">
+        <v>1.11</v>
+      </c>
+      <c r="Z282">
+        <v>1.8</v>
+      </c>
+      <c r="AA282">
+        <v>3.5</v>
+      </c>
+      <c r="AB282">
+        <v>3.5</v>
+      </c>
+      <c r="AC282">
+        <v>1.01</v>
+      </c>
+      <c r="AD282">
+        <v>11</v>
+      </c>
+      <c r="AE282">
+        <v>1.19</v>
+      </c>
+      <c r="AF282">
+        <v>3.95</v>
+      </c>
+      <c r="AG282">
+        <v>1.67</v>
+      </c>
+      <c r="AH282">
+        <v>2.08</v>
+      </c>
+      <c r="AI282">
+        <v>1.62</v>
+      </c>
+      <c r="AJ282">
+        <v>2.11</v>
+      </c>
+      <c r="AK282">
+        <v>1.21</v>
+      </c>
+      <c r="AL282">
+        <v>1.23</v>
+      </c>
+      <c r="AM282">
+        <v>1.92</v>
+      </c>
+      <c r="AN282">
+        <v>0.77</v>
+      </c>
+      <c r="AO282">
+        <v>0.43</v>
+      </c>
+      <c r="AP282">
+        <v>0.93</v>
+      </c>
+      <c r="AQ282">
+        <v>0.4</v>
+      </c>
+      <c r="AR282">
+        <v>1.42</v>
+      </c>
+      <c r="AS282">
+        <v>1.29</v>
+      </c>
+      <c r="AT282">
+        <v>2.71</v>
+      </c>
+      <c r="AU282">
+        <v>4</v>
+      </c>
+      <c r="AV282">
+        <v>0</v>
+      </c>
+      <c r="AW282">
+        <v>2</v>
+      </c>
+      <c r="AX282">
+        <v>4</v>
+      </c>
+      <c r="AY282">
+        <v>6</v>
+      </c>
+      <c r="AZ282">
+        <v>4</v>
+      </c>
+      <c r="BA282">
+        <v>2</v>
+      </c>
+      <c r="BB282">
+        <v>3</v>
+      </c>
+      <c r="BC282">
+        <v>5</v>
+      </c>
+      <c r="BD282">
+        <v>1.6</v>
+      </c>
+      <c r="BE282">
+        <v>6.75</v>
+      </c>
+      <c r="BF282">
+        <v>3.3</v>
+      </c>
+      <c r="BG282">
+        <v>1.25</v>
+      </c>
+      <c r="BH282">
+        <v>3.6</v>
+      </c>
+      <c r="BI282">
+        <v>1.42</v>
+      </c>
+      <c r="BJ282">
+        <v>2.62</v>
+      </c>
+      <c r="BK282">
+        <v>1.7</v>
+      </c>
+      <c r="BL282">
+        <v>2.11</v>
+      </c>
+      <c r="BM282">
+        <v>2.13</v>
+      </c>
+      <c r="BN282">
+        <v>1.69</v>
+      </c>
+      <c r="BO282">
+        <v>2.62</v>
+      </c>
+      <c r="BP282">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7331214</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="F283">
+        <v>29</v>
+      </c>
+      <c r="G283" t="s">
+        <v>70</v>
+      </c>
+      <c r="H283" t="s">
+        <v>73</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>3</v>
+      </c>
+      <c r="L283">
+        <v>3</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>4</v>
+      </c>
+      <c r="O283" t="s">
+        <v>258</v>
+      </c>
+      <c r="P283" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q283">
+        <v>2.38</v>
+      </c>
+      <c r="R283">
+        <v>2.16</v>
+      </c>
+      <c r="S283">
+        <v>4.3</v>
+      </c>
+      <c r="T283">
+        <v>1.36</v>
+      </c>
+      <c r="U283">
+        <v>2.97</v>
+      </c>
+      <c r="V283">
+        <v>2.7</v>
+      </c>
+      <c r="W283">
+        <v>1.43</v>
+      </c>
+      <c r="X283">
+        <v>6.1</v>
+      </c>
+      <c r="Y283">
+        <v>1.09</v>
+      </c>
+      <c r="Z283">
+        <v>1.83</v>
+      </c>
+      <c r="AA283">
+        <v>3.3</v>
+      </c>
+      <c r="AB283">
+        <v>3.6</v>
+      </c>
+      <c r="AC283">
+        <v>1.01</v>
+      </c>
+      <c r="AD283">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE283">
+        <v>1.24</v>
+      </c>
+      <c r="AF283">
+        <v>3.48</v>
+      </c>
+      <c r="AG283">
+        <v>1.8</v>
+      </c>
+      <c r="AH283">
+        <v>1.9</v>
+      </c>
+      <c r="AI283">
+        <v>1.71</v>
+      </c>
+      <c r="AJ283">
+        <v>1.97</v>
+      </c>
+      <c r="AK283">
+        <v>1.22</v>
+      </c>
+      <c r="AL283">
+        <v>1.25</v>
+      </c>
+      <c r="AM283">
+        <v>1.84</v>
+      </c>
+      <c r="AN283">
+        <v>1.2</v>
+      </c>
+      <c r="AO283">
+        <v>1.14</v>
+      </c>
+      <c r="AP283">
+        <v>1.31</v>
+      </c>
+      <c r="AQ283">
+        <v>1.07</v>
+      </c>
+      <c r="AR283">
+        <v>1.41</v>
+      </c>
+      <c r="AS283">
+        <v>1.25</v>
+      </c>
+      <c r="AT283">
+        <v>2.66</v>
+      </c>
+      <c r="AU283">
+        <v>2</v>
+      </c>
+      <c r="AV283">
+        <v>2</v>
+      </c>
+      <c r="AW283">
+        <v>2</v>
+      </c>
+      <c r="AX283">
+        <v>5</v>
+      </c>
+      <c r="AY283">
+        <v>4</v>
+      </c>
+      <c r="AZ283">
+        <v>7</v>
+      </c>
+      <c r="BA283">
+        <v>0</v>
+      </c>
+      <c r="BB283">
+        <v>2</v>
+      </c>
+      <c r="BC283">
+        <v>2</v>
+      </c>
+      <c r="BD283">
+        <v>1.55</v>
+      </c>
+      <c r="BE283">
+        <v>8.5</v>
+      </c>
+      <c r="BF283">
+        <v>2.75</v>
+      </c>
+      <c r="BG283">
+        <v>1.22</v>
+      </c>
+      <c r="BH283">
+        <v>3.8</v>
+      </c>
+      <c r="BI283">
+        <v>1.4</v>
+      </c>
+      <c r="BJ283">
+        <v>2.7</v>
+      </c>
+      <c r="BK283">
+        <v>1.65</v>
+      </c>
+      <c r="BL283">
+        <v>2.17</v>
+      </c>
+      <c r="BM283">
+        <v>2.05</v>
+      </c>
+      <c r="BN283">
+        <v>1.74</v>
+      </c>
+      <c r="BO283">
+        <v>2.5</v>
+      </c>
+      <c r="BP283">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Japan J2 League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="376">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -793,6 +793,12 @@
     <t>['10', '18', '63']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['8', '73']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -1012,9 +1018,6 @@
     <t>['90+4']</t>
   </si>
   <si>
-    <t>['34']</t>
-  </si>
-  <si>
     <t>['22', '54']</t>
   </si>
   <si>
@@ -1127,6 +1130,18 @@
   </si>
   <si>
     <t>['28', '54']</t>
+  </si>
+  <si>
+    <t>['72', '78']</t>
+  </si>
+  <si>
+    <t>['56', '80']</t>
+  </si>
+  <si>
+    <t>['40', '60']</t>
+  </si>
+  <si>
+    <t>['39', '65']</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP283"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1828,7 +1843,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ2">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1953,7 +1968,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q3">
         <v>2.07</v>
@@ -2446,7 +2461,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ5">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2571,7 +2586,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q6">
         <v>2.65</v>
@@ -2858,7 +2873,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ7">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2983,7 +2998,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3061,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
         <v>1.6</v>
@@ -3267,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ9">
         <v>0.4</v>
@@ -3395,7 +3410,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q10">
         <v>3.3</v>
@@ -3679,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ11">
         <v>1.53</v>
@@ -3807,7 +3822,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q12">
         <v>2.49</v>
@@ -3885,7 +3900,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ12">
         <v>1.53</v>
@@ -4013,7 +4028,7 @@
         <v>99</v>
       </c>
       <c r="P13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q13">
         <v>3.7</v>
@@ -4300,7 +4315,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ14">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
         <v>1.52</v>
@@ -4709,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ16">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>1.51</v>
@@ -5124,7 +5139,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ18">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5327,10 +5342,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5533,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -5661,7 +5676,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q21">
         <v>3.75</v>
@@ -5867,7 +5882,7 @@
         <v>107</v>
       </c>
       <c r="P22" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q22">
         <v>3.6</v>
@@ -5948,7 +5963,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ22">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.19</v>
@@ -6073,7 +6088,7 @@
         <v>108</v>
       </c>
       <c r="P23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q23">
         <v>2.39</v>
@@ -6154,7 +6169,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ23">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6769,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ26">
         <v>1.08</v>
@@ -7309,7 +7324,7 @@
         <v>113</v>
       </c>
       <c r="P29" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7387,7 +7402,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ29">
         <v>1.6</v>
@@ -7515,7 +7530,7 @@
         <v>114</v>
       </c>
       <c r="P30" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q30">
         <v>3.1</v>
@@ -7721,7 +7736,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q31">
         <v>4.75</v>
@@ -7799,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ31">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
         <v>1</v>
@@ -7927,7 +7942,7 @@
         <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q32">
         <v>3.75</v>
@@ -8008,7 +8023,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ32">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR32">
         <v>1.34</v>
@@ -8417,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ34">
         <v>1.07</v>
@@ -8545,7 +8560,7 @@
         <v>117</v>
       </c>
       <c r="P35" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q35">
         <v>3.37</v>
@@ -8751,7 +8766,7 @@
         <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8829,7 +8844,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -9244,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9369,7 +9384,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q39">
         <v>3.9</v>
@@ -9450,7 +9465,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ39">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
         <v>1.75</v>
@@ -9575,7 +9590,7 @@
         <v>92</v>
       </c>
       <c r="P40" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q40">
         <v>2.8</v>
@@ -9653,10 +9668,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ40">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR40">
         <v>1.85</v>
@@ -9859,7 +9874,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
         <v>1.79</v>
@@ -10271,7 +10286,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ43">
         <v>0.4</v>
@@ -10686,7 +10701,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ45">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR45">
         <v>1.39</v>
@@ -10889,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR46">
         <v>1.29</v>
@@ -11017,7 +11032,7 @@
         <v>123</v>
       </c>
       <c r="P47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -11304,7 +11319,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>1.2</v>
@@ -11507,7 +11522,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ49">
         <v>1.43</v>
@@ -11635,7 +11650,7 @@
         <v>125</v>
       </c>
       <c r="P50" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q50">
         <v>3.35</v>
@@ -11841,7 +11856,7 @@
         <v>126</v>
       </c>
       <c r="P51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q51">
         <v>3.42</v>
@@ -12047,7 +12062,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q52">
         <v>3.6</v>
@@ -12128,7 +12143,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ52">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.48</v>
@@ -12253,7 +12268,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12331,7 +12346,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ53">
         <v>1.67</v>
@@ -12537,7 +12552,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
         <v>1.07</v>
@@ -12746,7 +12761,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ55">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>2.2</v>
@@ -12871,7 +12886,7 @@
         <v>130</v>
       </c>
       <c r="P56" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q56">
         <v>3.1</v>
@@ -13158,7 +13173,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ57">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR57">
         <v>1.4</v>
@@ -13567,7 +13582,7 @@
         <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ59">
         <v>1.5</v>
@@ -13695,7 +13710,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q60">
         <v>3.75</v>
@@ -13901,7 +13916,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q61">
         <v>4.75</v>
@@ -13979,10 +13994,10 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ61">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR61">
         <v>1.14</v>
@@ -14107,7 +14122,7 @@
         <v>92</v>
       </c>
       <c r="P62" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q62">
         <v>2.24</v>
@@ -14600,7 +14615,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR64">
         <v>1.2</v>
@@ -14803,7 +14818,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ65">
         <v>1.6</v>
@@ -15137,7 +15152,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q67">
         <v>2.25</v>
@@ -15421,10 +15436,10 @@
         <v>2.33</v>
       </c>
       <c r="AP68">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ68">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR68">
         <v>1.32</v>
@@ -15627,10 +15642,10 @@
         <v>1.33</v>
       </c>
       <c r="AP69">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ69">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR69">
         <v>1.6</v>
@@ -15836,7 +15851,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ70">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR70">
         <v>1.14</v>
@@ -15961,7 +15976,7 @@
         <v>128</v>
       </c>
       <c r="P71" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q71">
         <v>4.6</v>
@@ -16245,7 +16260,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ72">
         <v>1.29</v>
@@ -16373,7 +16388,7 @@
         <v>138</v>
       </c>
       <c r="P73" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q73">
         <v>3.22</v>
@@ -16451,7 +16466,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ73">
         <v>1.43</v>
@@ -16579,7 +16594,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q74">
         <v>2.74</v>
@@ -16660,7 +16675,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ74">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>2.12</v>
@@ -16785,7 +16800,7 @@
         <v>107</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q75">
         <v>1.8</v>
@@ -17197,7 +17212,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q77">
         <v>3.6</v>
@@ -17275,7 +17290,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ77">
         <v>1.36</v>
@@ -17484,7 +17499,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ78">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
         <v>1.55</v>
@@ -17815,7 +17830,7 @@
         <v>108</v>
       </c>
       <c r="P80" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q80">
         <v>2.42</v>
@@ -17893,7 +17908,7 @@
         <v>1.33</v>
       </c>
       <c r="AP80">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ80">
         <v>1.07</v>
@@ -18102,7 +18117,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ81">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR81">
         <v>2.09</v>
@@ -18227,7 +18242,7 @@
         <v>143</v>
       </c>
       <c r="P82" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18305,7 +18320,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ82">
         <v>1.79</v>
@@ -18511,7 +18526,7 @@
         <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ83">
         <v>0.4</v>
@@ -18923,7 +18938,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ85">
         <v>1.08</v>
@@ -19051,7 +19066,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q86">
         <v>2.38</v>
@@ -19132,7 +19147,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ86">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR86">
         <v>1.52</v>
@@ -19750,7 +19765,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ89">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR89">
         <v>1.35</v>
@@ -19875,7 +19890,7 @@
         <v>108</v>
       </c>
       <c r="P90" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q90">
         <v>3.25</v>
@@ -19953,10 +19968,10 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ90">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.34</v>
@@ -20081,7 +20096,7 @@
         <v>146</v>
       </c>
       <c r="P91" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q91">
         <v>3.75</v>
@@ -20162,7 +20177,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ91">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR91">
         <v>1.35</v>
@@ -20287,7 +20302,7 @@
         <v>147</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20571,7 +20586,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20777,7 +20792,7 @@
         <v>1.4</v>
       </c>
       <c r="AP94">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ94">
         <v>1.29</v>
@@ -20905,7 +20920,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q95">
         <v>2.64</v>
@@ -20986,7 +21001,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ95">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR95">
         <v>1.32</v>
@@ -21111,7 +21126,7 @@
         <v>151</v>
       </c>
       <c r="P96" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q96">
         <v>3.92</v>
@@ -21317,7 +21332,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q97">
         <v>1.06</v>
@@ -21604,7 +21619,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR98">
         <v>1.35</v>
@@ -21810,7 +21825,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ99">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -22013,7 +22028,7 @@
         <v>1.33</v>
       </c>
       <c r="AP100">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
         <v>0.71</v>
@@ -22141,7 +22156,7 @@
         <v>155</v>
       </c>
       <c r="P101" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q101">
         <v>3.75</v>
@@ -22219,7 +22234,7 @@
         <v>2.6</v>
       </c>
       <c r="AP101">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ101">
         <v>1.67</v>
@@ -22759,7 +22774,7 @@
         <v>157</v>
       </c>
       <c r="P104" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q104">
         <v>2.45</v>
@@ -22965,7 +22980,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q105">
         <v>2.05</v>
@@ -23249,7 +23264,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ106">
         <v>1.07</v>
@@ -23377,7 +23392,7 @@
         <v>97</v>
       </c>
       <c r="P107" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23458,7 +23473,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ107">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>2.24</v>
@@ -23583,7 +23598,7 @@
         <v>121</v>
       </c>
       <c r="P108" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q108">
         <v>2.82</v>
@@ -23661,7 +23676,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108">
         <v>1.08</v>
@@ -23867,10 +23882,10 @@
         <v>1.75</v>
       </c>
       <c r="AP109">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ109">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR109">
         <v>1.65</v>
@@ -23995,7 +24010,7 @@
         <v>92</v>
       </c>
       <c r="P110" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q110">
         <v>3.3</v>
@@ -24073,10 +24088,10 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ110">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR110">
         <v>1.56</v>
@@ -24282,7 +24297,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ111">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.21</v>
@@ -24407,7 +24422,7 @@
         <v>92</v>
       </c>
       <c r="P112" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q112">
         <v>3.72</v>
@@ -24485,10 +24500,10 @@
         <v>1.4</v>
       </c>
       <c r="AP112">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ112">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24613,7 +24628,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q113">
         <v>2.5</v>
@@ -24694,7 +24709,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ113">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24819,7 +24834,7 @@
         <v>163</v>
       </c>
       <c r="P114" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q114">
         <v>5.72</v>
@@ -24897,7 +24912,7 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ114">
         <v>1.79</v>
@@ -25231,7 +25246,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25309,7 +25324,7 @@
         <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ116">
         <v>1.36</v>
@@ -25643,7 +25658,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25724,7 +25739,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR118">
         <v>1.43</v>
@@ -25930,7 +25945,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR119">
         <v>1.06</v>
@@ -26673,7 +26688,7 @@
         <v>167</v>
       </c>
       <c r="P123" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q123">
         <v>2.65</v>
@@ -26879,7 +26894,7 @@
         <v>168</v>
       </c>
       <c r="P124" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q124">
         <v>2.65</v>
@@ -26957,7 +26972,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ124">
         <v>0.4</v>
@@ -27085,7 +27100,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q125">
         <v>2.64</v>
@@ -27163,10 +27178,10 @@
         <v>1.5</v>
       </c>
       <c r="AP125">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ125">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.64</v>
@@ -27291,7 +27306,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>1.9</v>
@@ -27372,7 +27387,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ126">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR126">
         <v>1.87</v>
@@ -27703,7 +27718,7 @@
         <v>172</v>
       </c>
       <c r="P128" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q128">
         <v>3.35</v>
@@ -27781,10 +27796,10 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ128">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27987,7 +28002,7 @@
         <v>1.83</v>
       </c>
       <c r="AP129">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ129">
         <v>1.57</v>
@@ -28115,7 +28130,7 @@
         <v>174</v>
       </c>
       <c r="P130" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q130">
         <v>2.62</v>
@@ -28402,7 +28417,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ131">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28605,7 +28620,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ132">
         <v>1.29</v>
@@ -28811,7 +28826,7 @@
         <v>2.33</v>
       </c>
       <c r="AP133">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ133">
         <v>1.79</v>
@@ -28939,7 +28954,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>2.3</v>
@@ -29432,7 +29447,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR136">
         <v>1.07</v>
@@ -29763,7 +29778,7 @@
         <v>179</v>
       </c>
       <c r="P138" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q138">
         <v>3.53</v>
@@ -29969,7 +29984,7 @@
         <v>92</v>
       </c>
       <c r="P139" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q139">
         <v>6.99</v>
@@ -30047,7 +30062,7 @@
         <v>2.14</v>
       </c>
       <c r="AP139">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ139">
         <v>1.6</v>
@@ -30256,7 +30271,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ140">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR140">
         <v>1.31</v>
@@ -30462,7 +30477,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ141">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR141">
         <v>2.28</v>
@@ -30587,7 +30602,7 @@
         <v>180</v>
       </c>
       <c r="P142" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q142">
         <v>2.27</v>
@@ -30665,7 +30680,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ142">
         <v>0.71</v>
@@ -30999,7 +31014,7 @@
         <v>182</v>
       </c>
       <c r="P144" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q144">
         <v>2.72</v>
@@ -31283,10 +31298,10 @@
         <v>1.43</v>
       </c>
       <c r="AP145">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ145">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR145">
         <v>1.62</v>
@@ -31411,7 +31426,7 @@
         <v>92</v>
       </c>
       <c r="P146" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q146">
         <v>2.86</v>
@@ -31489,7 +31504,7 @@
         <v>0.83</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ146">
         <v>1.08</v>
@@ -31698,7 +31713,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ147">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.43</v>
@@ -31904,7 +31919,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ148">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR148">
         <v>1.56</v>
@@ -32107,10 +32122,10 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ149">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR149">
         <v>1.67</v>
@@ -32235,7 +32250,7 @@
         <v>185</v>
       </c>
       <c r="P150" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>2.69</v>
@@ -32313,7 +32328,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ150">
         <v>1.07</v>
@@ -32441,7 +32456,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q151">
         <v>3.55</v>
@@ -32522,7 +32537,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ151">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32647,7 +32662,7 @@
         <v>132</v>
       </c>
       <c r="P152" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q152">
         <v>3.12</v>
@@ -33059,7 +33074,7 @@
         <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q154">
         <v>2.08</v>
@@ -33471,7 +33486,7 @@
         <v>92</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q156">
         <v>3.04</v>
@@ -33549,10 +33564,10 @@
         <v>1.25</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ156">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33677,7 +33692,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q157">
         <v>5.35</v>
@@ -33755,10 +33770,10 @@
         <v>1.5</v>
       </c>
       <c r="AP157">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ157">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR157">
         <v>1.13</v>
@@ -33883,7 +33898,7 @@
         <v>92</v>
       </c>
       <c r="P158" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q158">
         <v>3.86</v>
@@ -34295,7 +34310,7 @@
         <v>190</v>
       </c>
       <c r="P160" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34373,10 +34388,10 @@
         <v>1.29</v>
       </c>
       <c r="AP160">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ160">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR160">
         <v>1.73</v>
@@ -34501,7 +34516,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q161">
         <v>4.5</v>
@@ -34788,7 +34803,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ162">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR162">
         <v>1.3</v>
@@ -34913,7 +34928,7 @@
         <v>99</v>
       </c>
       <c r="P163" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35197,10 +35212,10 @@
         <v>1.38</v>
       </c>
       <c r="AP164">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ164">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR164">
         <v>1.77</v>
@@ -35325,7 +35340,7 @@
         <v>192</v>
       </c>
       <c r="P165" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q165">
         <v>3.75</v>
@@ -35406,7 +35421,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ165">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR165">
         <v>1.44</v>
@@ -35531,7 +35546,7 @@
         <v>192</v>
       </c>
       <c r="P166" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q166">
         <v>3.25</v>
@@ -35609,10 +35624,10 @@
         <v>1.5</v>
       </c>
       <c r="AP166">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ166">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35943,7 +35958,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36149,7 +36164,7 @@
         <v>195</v>
       </c>
       <c r="P169" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36355,7 +36370,7 @@
         <v>92</v>
       </c>
       <c r="P170" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q170">
         <v>3.1</v>
@@ -36433,7 +36448,7 @@
         <v>0.88</v>
       </c>
       <c r="AP170">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ170">
         <v>1.29</v>
@@ -36639,7 +36654,7 @@
         <v>1.75</v>
       </c>
       <c r="AP171">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ171">
         <v>1.57</v>
@@ -36767,7 +36782,7 @@
         <v>196</v>
       </c>
       <c r="P172" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="Q172">
         <v>3.83</v>
@@ -36973,7 +36988,7 @@
         <v>197</v>
       </c>
       <c r="P173" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37051,7 +37066,7 @@
         <v>1.5</v>
       </c>
       <c r="AP173">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ173">
         <v>1.5</v>
@@ -37179,7 +37194,7 @@
         <v>198</v>
       </c>
       <c r="P174" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q174">
         <v>2.55</v>
@@ -37260,7 +37275,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ174">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR174">
         <v>2.17</v>
@@ -37591,7 +37606,7 @@
         <v>200</v>
       </c>
       <c r="P176" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q176">
         <v>2.82</v>
@@ -37878,7 +37893,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ177">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR177">
         <v>1.37</v>
@@ -38081,7 +38096,7 @@
         <v>2</v>
       </c>
       <c r="AP178">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ178">
         <v>1.6</v>
@@ -38209,7 +38224,7 @@
         <v>202</v>
       </c>
       <c r="P179" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q179">
         <v>3.56</v>
@@ -38493,7 +38508,7 @@
         <v>1.11</v>
       </c>
       <c r="AP180">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ180">
         <v>1.29</v>
@@ -38621,7 +38636,7 @@
         <v>106</v>
       </c>
       <c r="P181" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q181">
         <v>4.05</v>
@@ -39033,7 +39048,7 @@
         <v>204</v>
       </c>
       <c r="P183" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -39320,7 +39335,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ184">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR184">
         <v>1.74</v>
@@ -39445,7 +39460,7 @@
         <v>92</v>
       </c>
       <c r="P185" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q185">
         <v>4.5</v>
@@ -39526,7 +39541,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ185">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR185">
         <v>1.47</v>
@@ -39857,7 +39872,7 @@
         <v>206</v>
       </c>
       <c r="P187" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q187">
         <v>3.75</v>
@@ -39935,10 +39950,10 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ187">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR187">
         <v>1.61</v>
@@ -40347,7 +40362,7 @@
         <v>1.75</v>
       </c>
       <c r="AP189">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ189">
         <v>1.36</v>
@@ -40475,7 +40490,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q190">
         <v>2.4</v>
@@ -40681,7 +40696,7 @@
         <v>207</v>
       </c>
       <c r="P191" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q191">
         <v>4.75</v>
@@ -40762,7 +40777,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ191">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR191">
         <v>1.35</v>
@@ -41093,7 +41108,7 @@
         <v>209</v>
       </c>
       <c r="P193" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41380,7 +41395,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ194">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR194">
         <v>1.53</v>
@@ -41505,7 +41520,7 @@
         <v>211</v>
       </c>
       <c r="P195" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q195">
         <v>3.4</v>
@@ -41583,7 +41598,7 @@
         <v>2.33</v>
       </c>
       <c r="AP195">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ195">
         <v>1.79</v>
@@ -41917,7 +41932,7 @@
         <v>92</v>
       </c>
       <c r="P197" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q197">
         <v>3.5</v>
@@ -41995,10 +42010,10 @@
         <v>1.5</v>
       </c>
       <c r="AP197">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ197">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR197">
         <v>1.51</v>
@@ -42123,7 +42138,7 @@
         <v>92</v>
       </c>
       <c r="P198" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q198">
         <v>2.63</v>
@@ -42201,10 +42216,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP198">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ198">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR198">
         <v>1.34</v>
@@ -42407,7 +42422,7 @@
         <v>1.67</v>
       </c>
       <c r="AP199">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ199">
         <v>1.57</v>
@@ -42819,7 +42834,7 @@
         <v>1.9</v>
       </c>
       <c r="AP201">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ201">
         <v>1.53</v>
@@ -43153,7 +43168,7 @@
         <v>214</v>
       </c>
       <c r="P203" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q203">
         <v>2.2</v>
@@ -43440,7 +43455,7 @@
         <v>1</v>
       </c>
       <c r="AQ204">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR204">
         <v>1.22</v>
@@ -43771,7 +43786,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q206">
         <v>3.3</v>
@@ -43849,10 +43864,10 @@
         <v>1.67</v>
       </c>
       <c r="AP206">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ206">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR206">
         <v>1.59</v>
@@ -44055,10 +44070,10 @@
         <v>1</v>
       </c>
       <c r="AP207">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ207">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR207">
         <v>1.68</v>
@@ -44879,10 +44894,10 @@
         <v>1.8</v>
       </c>
       <c r="AP211">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ211">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR211">
         <v>1.62</v>
@@ -45007,7 +45022,7 @@
         <v>135</v>
       </c>
       <c r="P212" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q212">
         <v>3.6</v>
@@ -45291,7 +45306,7 @@
         <v>1.2</v>
       </c>
       <c r="AP213">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ213">
         <v>1.07</v>
@@ -45419,7 +45434,7 @@
         <v>92</v>
       </c>
       <c r="P214" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q214">
         <v>4.04</v>
@@ -45500,7 +45515,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ214">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR214">
         <v>1.54</v>
@@ -45625,7 +45640,7 @@
         <v>221</v>
       </c>
       <c r="P215" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q215">
         <v>2.35</v>
@@ -45703,10 +45718,10 @@
         <v>0.8</v>
       </c>
       <c r="AP215">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ215">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR215">
         <v>1.58</v>
@@ -45831,7 +45846,7 @@
         <v>193</v>
       </c>
       <c r="P216" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q216">
         <v>3.6</v>
@@ -45909,10 +45924,10 @@
         <v>0.9</v>
       </c>
       <c r="AP216">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ216">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR216">
         <v>1.06</v>
@@ -46037,7 +46052,7 @@
         <v>222</v>
       </c>
       <c r="P217" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q217">
         <v>3.74</v>
@@ -46321,7 +46336,7 @@
         <v>1.64</v>
       </c>
       <c r="AP218">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ218">
         <v>1.67</v>
@@ -46449,7 +46464,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46655,7 +46670,7 @@
         <v>223</v>
       </c>
       <c r="P220" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q220">
         <v>2.5</v>
@@ -46736,7 +46751,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ220">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR220">
         <v>1.78</v>
@@ -47067,7 +47082,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q222">
         <v>3.25</v>
@@ -47273,7 +47288,7 @@
         <v>92</v>
       </c>
       <c r="P223" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q223">
         <v>2.5</v>
@@ -47560,7 +47575,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ224">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR224">
         <v>1.71</v>
@@ -47685,7 +47700,7 @@
         <v>96</v>
       </c>
       <c r="P225" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q225">
         <v>2.9</v>
@@ -47972,7 +47987,7 @@
         <v>2.85</v>
       </c>
       <c r="AQ226">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR226">
         <v>1.81</v>
@@ -48175,10 +48190,10 @@
         <v>0.73</v>
       </c>
       <c r="AP227">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ227">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR227">
         <v>1.58</v>
@@ -48587,7 +48602,7 @@
         <v>0.55</v>
       </c>
       <c r="AP229">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ229">
         <v>0.4</v>
@@ -48793,7 +48808,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ230">
         <v>1.43</v>
@@ -48921,7 +48936,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q231">
         <v>2.75</v>
@@ -49745,7 +49760,7 @@
         <v>231</v>
       </c>
       <c r="P235" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q235">
         <v>5.5</v>
@@ -49826,7 +49841,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ235">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR235">
         <v>1.43</v>
@@ -49951,7 +49966,7 @@
         <v>232</v>
       </c>
       <c r="P236" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q236">
         <v>3.4</v>
@@ -50157,7 +50172,7 @@
         <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q237">
         <v>5</v>
@@ -50235,7 +50250,7 @@
         <v>1.5</v>
       </c>
       <c r="AP237">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ237">
         <v>1.6</v>
@@ -50569,7 +50584,7 @@
         <v>234</v>
       </c>
       <c r="P239" t="s">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="Q239">
         <v>4.75</v>
@@ -50650,7 +50665,7 @@
         <v>1</v>
       </c>
       <c r="AQ239">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR239">
         <v>1.25</v>
@@ -50775,7 +50790,7 @@
         <v>210</v>
       </c>
       <c r="P240" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q240">
         <v>3.1</v>
@@ -50853,10 +50868,10 @@
         <v>1.64</v>
       </c>
       <c r="AP240">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ240">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR240">
         <v>1.63</v>
@@ -50981,7 +50996,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q241">
         <v>2.3</v>
@@ -51187,7 +51202,7 @@
         <v>235</v>
       </c>
       <c r="P242" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q242">
         <v>2.45</v>
@@ -51268,7 +51283,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ242">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR242">
         <v>1.7</v>
@@ -51393,7 +51408,7 @@
         <v>236</v>
       </c>
       <c r="P243" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q243">
         <v>2.9</v>
@@ -51474,7 +51489,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ243">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR243">
         <v>1.31</v>
@@ -51677,7 +51692,7 @@
         <v>0.73</v>
       </c>
       <c r="AP244">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ244">
         <v>1.08</v>
@@ -52011,7 +52026,7 @@
         <v>92</v>
       </c>
       <c r="P246" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q246">
         <v>2.6</v>
@@ -52089,10 +52104,10 @@
         <v>0.67</v>
       </c>
       <c r="AP246">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ246">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR246">
         <v>1.49</v>
@@ -52217,7 +52232,7 @@
         <v>138</v>
       </c>
       <c r="P247" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q247">
         <v>2.85</v>
@@ -52501,7 +52516,7 @@
         <v>1.58</v>
       </c>
       <c r="AP248">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ248">
         <v>1.67</v>
@@ -52707,7 +52722,7 @@
         <v>1.62</v>
       </c>
       <c r="AP249">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ249">
         <v>1.6</v>
@@ -52913,7 +52928,7 @@
         <v>1.64</v>
       </c>
       <c r="AP250">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ250">
         <v>1.36</v>
@@ -53122,7 +53137,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ251">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR251">
         <v>1.56</v>
@@ -53946,7 +53961,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ255">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR255">
         <v>1.4</v>
@@ -54277,7 +54292,7 @@
         <v>244</v>
       </c>
       <c r="P257" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q257">
         <v>2.45</v>
@@ -54355,10 +54370,10 @@
         <v>0.85</v>
       </c>
       <c r="AP257">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AQ257">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AR257">
         <v>1.53</v>
@@ -54564,7 +54579,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ258">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR258">
         <v>1.57</v>
@@ -54973,7 +54988,7 @@
         <v>1.75</v>
       </c>
       <c r="AP260">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ260">
         <v>1.5</v>
@@ -55179,7 +55194,7 @@
         <v>1.42</v>
       </c>
       <c r="AP261">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ261">
         <v>1.43</v>
@@ -55591,7 +55606,7 @@
         <v>0.46</v>
       </c>
       <c r="AP263">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ263">
         <v>0.4</v>
@@ -55719,7 +55734,7 @@
         <v>249</v>
       </c>
       <c r="P264" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q264">
         <v>3.26</v>
@@ -55797,7 +55812,7 @@
         <v>1.92</v>
       </c>
       <c r="AP264">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ264">
         <v>1.79</v>
@@ -56006,7 +56021,7 @@
         <v>1</v>
       </c>
       <c r="AQ265">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR265">
         <v>1.23</v>
@@ -56131,7 +56146,7 @@
         <v>250</v>
       </c>
       <c r="P266" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q266">
         <v>7.59</v>
@@ -56209,10 +56224,10 @@
         <v>1.85</v>
       </c>
       <c r="AP266">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="AQ266">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR266">
         <v>1.04</v>
@@ -56337,7 +56352,7 @@
         <v>92</v>
       </c>
       <c r="P267" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q267">
         <v>2.38</v>
@@ -56418,7 +56433,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ267">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AR267">
         <v>1.89</v>
@@ -56830,7 +56845,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ269">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AR269">
         <v>1.46</v>
@@ -56955,7 +56970,7 @@
         <v>92</v>
       </c>
       <c r="P270" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q270">
         <v>2.79</v>
@@ -57033,7 +57048,7 @@
         <v>0.92</v>
       </c>
       <c r="AP270">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AQ270">
         <v>1.08</v>
@@ -57161,7 +57176,7 @@
         <v>252</v>
       </c>
       <c r="P271" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q271">
         <v>3.2</v>
@@ -57573,7 +57588,7 @@
         <v>92</v>
       </c>
       <c r="P273" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q273">
         <v>3.64</v>
@@ -57985,7 +58000,7 @@
         <v>254</v>
       </c>
       <c r="P275" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q275">
         <v>2.4</v>
@@ -58063,7 +58078,7 @@
         <v>1.46</v>
       </c>
       <c r="AP275">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AQ275">
         <v>1.57</v>
@@ -58191,7 +58206,7 @@
         <v>92</v>
       </c>
       <c r="P276" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q276">
         <v>4.5</v>
@@ -58603,7 +58618,7 @@
         <v>255</v>
       </c>
       <c r="P278" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58809,7 +58824,7 @@
         <v>256</v>
       </c>
       <c r="P279" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q279">
         <v>2.65</v>
@@ -59015,7 +59030,7 @@
         <v>227</v>
       </c>
       <c r="P280" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q280">
         <v>4</v>
@@ -59221,7 +59236,7 @@
         <v>257</v>
       </c>
       <c r="P281" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q281">
         <v>2.75</v>
@@ -59520,31 +59535,31 @@
         <v>2.71</v>
       </c>
       <c r="AU282">
+        <v>6</v>
+      </c>
+      <c r="AV282">
+        <v>0</v>
+      </c>
+      <c r="AW282">
         <v>4</v>
       </c>
-      <c r="AV282">
-        <v>0</v>
-      </c>
-      <c r="AW282">
-        <v>2</v>
-      </c>
       <c r="AX282">
+        <v>6</v>
+      </c>
+      <c r="AY282">
+        <v>10</v>
+      </c>
+      <c r="AZ282">
+        <v>6</v>
+      </c>
+      <c r="BA282">
         <v>4</v>
-      </c>
-      <c r="AY282">
-        <v>6</v>
-      </c>
-      <c r="AZ282">
-        <v>4</v>
-      </c>
-      <c r="BA282">
-        <v>2</v>
       </c>
       <c r="BB282">
         <v>3</v>
       </c>
       <c r="BC282">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD282">
         <v>1.6</v>
@@ -59726,31 +59741,31 @@
         <v>2.66</v>
       </c>
       <c r="AU283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX283">
+        <v>8</v>
+      </c>
+      <c r="AY283">
+        <v>6</v>
+      </c>
+      <c r="AZ283">
+        <v>11</v>
+      </c>
+      <c r="BA283">
+        <v>2</v>
+      </c>
+      <c r="BB283">
         <v>5</v>
       </c>
-      <c r="AY283">
-        <v>4</v>
-      </c>
-      <c r="AZ283">
+      <c r="BC283">
         <v>7</v>
-      </c>
-      <c r="BA283">
-        <v>0</v>
-      </c>
-      <c r="BB283">
-        <v>2</v>
-      </c>
-      <c r="BC283">
-        <v>2</v>
       </c>
       <c r="BD283">
         <v>1.55</v>
@@ -59790,6 +59805,1448 @@
       </c>
       <c r="BP283">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>7331220</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="F284">
+        <v>29</v>
+      </c>
+      <c r="G284" t="s">
+        <v>80</v>
+      </c>
+      <c r="H284" t="s">
+        <v>85</v>
+      </c>
+      <c r="I284">
+        <v>1</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284">
+        <v>1</v>
+      </c>
+      <c r="N284">
+        <v>2</v>
+      </c>
+      <c r="O284" t="s">
+        <v>259</v>
+      </c>
+      <c r="P284" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q284">
+        <v>1.98</v>
+      </c>
+      <c r="R284">
+        <v>2.34</v>
+      </c>
+      <c r="S284">
+        <v>5.4</v>
+      </c>
+      <c r="T284">
+        <v>1.31</v>
+      </c>
+      <c r="U284">
+        <v>3.26</v>
+      </c>
+      <c r="V284">
+        <v>2.48</v>
+      </c>
+      <c r="W284">
+        <v>1.5</v>
+      </c>
+      <c r="X284">
+        <v>5.5</v>
+      </c>
+      <c r="Y284">
+        <v>1.11</v>
+      </c>
+      <c r="Z284">
+        <v>1.47</v>
+      </c>
+      <c r="AA284">
+        <v>4.1</v>
+      </c>
+      <c r="AB284">
+        <v>5.25</v>
+      </c>
+      <c r="AC284">
+        <v>1.01</v>
+      </c>
+      <c r="AD284">
+        <v>11</v>
+      </c>
+      <c r="AE284">
+        <v>1.18</v>
+      </c>
+      <c r="AF284">
+        <v>4</v>
+      </c>
+      <c r="AG284">
+        <v>1.62</v>
+      </c>
+      <c r="AH284">
+        <v>2.15</v>
+      </c>
+      <c r="AI284">
+        <v>1.75</v>
+      </c>
+      <c r="AJ284">
+        <v>1.92</v>
+      </c>
+      <c r="AK284">
+        <v>1.12</v>
+      </c>
+      <c r="AL284">
+        <v>1.17</v>
+      </c>
+      <c r="AM284">
+        <v>2.09</v>
+      </c>
+      <c r="AN284">
+        <v>1.93</v>
+      </c>
+      <c r="AO284">
+        <v>0.79</v>
+      </c>
+      <c r="AP284">
+        <v>1.87</v>
+      </c>
+      <c r="AQ284">
+        <v>0.8</v>
+      </c>
+      <c r="AR284">
+        <v>1.56</v>
+      </c>
+      <c r="AS284">
+        <v>1.13</v>
+      </c>
+      <c r="AT284">
+        <v>2.69</v>
+      </c>
+      <c r="AU284">
+        <v>3</v>
+      </c>
+      <c r="AV284">
+        <v>3</v>
+      </c>
+      <c r="AW284">
+        <v>3</v>
+      </c>
+      <c r="AX284">
+        <v>3</v>
+      </c>
+      <c r="AY284">
+        <v>6</v>
+      </c>
+      <c r="AZ284">
+        <v>6</v>
+      </c>
+      <c r="BA284">
+        <v>3</v>
+      </c>
+      <c r="BB284">
+        <v>7</v>
+      </c>
+      <c r="BC284">
+        <v>10</v>
+      </c>
+      <c r="BD284">
+        <v>1.48</v>
+      </c>
+      <c r="BE284">
+        <v>6.85</v>
+      </c>
+      <c r="BF284">
+        <v>3.38</v>
+      </c>
+      <c r="BG284">
+        <v>1.29</v>
+      </c>
+      <c r="BH284">
+        <v>3.4</v>
+      </c>
+      <c r="BI284">
+        <v>1.46</v>
+      </c>
+      <c r="BJ284">
+        <v>2.58</v>
+      </c>
+      <c r="BK284">
+        <v>1.95</v>
+      </c>
+      <c r="BL284">
+        <v>1.85</v>
+      </c>
+      <c r="BM284">
+        <v>2.25</v>
+      </c>
+      <c r="BN284">
+        <v>1.61</v>
+      </c>
+      <c r="BO284">
+        <v>2.8</v>
+      </c>
+      <c r="BP284">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>7331218</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="F285">
+        <v>29</v>
+      </c>
+      <c r="G285" t="s">
+        <v>84</v>
+      </c>
+      <c r="H285" t="s">
+        <v>75</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>2</v>
+      </c>
+      <c r="N285">
+        <v>2</v>
+      </c>
+      <c r="O285" t="s">
+        <v>92</v>
+      </c>
+      <c r="P285" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q285">
+        <v>3.44</v>
+      </c>
+      <c r="R285">
+        <v>1.97</v>
+      </c>
+      <c r="S285">
+        <v>3.14</v>
+      </c>
+      <c r="T285">
+        <v>1.48</v>
+      </c>
+      <c r="U285">
+        <v>2.54</v>
+      </c>
+      <c r="V285">
+        <v>3.2</v>
+      </c>
+      <c r="W285">
+        <v>1.32</v>
+      </c>
+      <c r="X285">
+        <v>8.5</v>
+      </c>
+      <c r="Y285">
+        <v>1.04</v>
+      </c>
+      <c r="Z285">
+        <v>2.6</v>
+      </c>
+      <c r="AA285">
+        <v>2.95</v>
+      </c>
+      <c r="AB285">
+        <v>2.45</v>
+      </c>
+      <c r="AC285">
+        <v>1.04</v>
+      </c>
+      <c r="AD285">
+        <v>7.4</v>
+      </c>
+      <c r="AE285">
+        <v>1.37</v>
+      </c>
+      <c r="AF285">
+        <v>2.75</v>
+      </c>
+      <c r="AG285">
+        <v>2.23</v>
+      </c>
+      <c r="AH285">
+        <v>1.58</v>
+      </c>
+      <c r="AI285">
+        <v>1.87</v>
+      </c>
+      <c r="AJ285">
+        <v>1.79</v>
+      </c>
+      <c r="AK285">
+        <v>1.46</v>
+      </c>
+      <c r="AL285">
+        <v>1.31</v>
+      </c>
+      <c r="AM285">
+        <v>1.4</v>
+      </c>
+      <c r="AN285">
+        <v>1.79</v>
+      </c>
+      <c r="AO285">
+        <v>1.43</v>
+      </c>
+      <c r="AP285">
+        <v>1.67</v>
+      </c>
+      <c r="AQ285">
+        <v>1.53</v>
+      </c>
+      <c r="AR285">
+        <v>1.5</v>
+      </c>
+      <c r="AS285">
+        <v>1.5</v>
+      </c>
+      <c r="AT285">
+        <v>3</v>
+      </c>
+      <c r="AU285">
+        <v>6</v>
+      </c>
+      <c r="AV285">
+        <v>2</v>
+      </c>
+      <c r="AW285">
+        <v>2</v>
+      </c>
+      <c r="AX285">
+        <v>8</v>
+      </c>
+      <c r="AY285">
+        <v>8</v>
+      </c>
+      <c r="AZ285">
+        <v>10</v>
+      </c>
+      <c r="BA285">
+        <v>4</v>
+      </c>
+      <c r="BB285">
+        <v>3</v>
+      </c>
+      <c r="BC285">
+        <v>7</v>
+      </c>
+      <c r="BD285">
+        <v>2.33</v>
+      </c>
+      <c r="BE285">
+        <v>6.25</v>
+      </c>
+      <c r="BF285">
+        <v>1.89</v>
+      </c>
+      <c r="BG285">
+        <v>1.29</v>
+      </c>
+      <c r="BH285">
+        <v>3.3</v>
+      </c>
+      <c r="BI285">
+        <v>1.5</v>
+      </c>
+      <c r="BJ285">
+        <v>2.49</v>
+      </c>
+      <c r="BK285">
+        <v>1.88</v>
+      </c>
+      <c r="BL285">
+        <v>1.92</v>
+      </c>
+      <c r="BM285">
+        <v>2.3</v>
+      </c>
+      <c r="BN285">
+        <v>1.58</v>
+      </c>
+      <c r="BO285">
+        <v>2.9</v>
+      </c>
+      <c r="BP285">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7331216</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="F286">
+        <v>29</v>
+      </c>
+      <c r="G286" t="s">
+        <v>87</v>
+      </c>
+      <c r="H286" t="s">
+        <v>83</v>
+      </c>
+      <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>2</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>2</v>
+      </c>
+      <c r="O286" t="s">
+        <v>260</v>
+      </c>
+      <c r="P286" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q286">
+        <v>2.93</v>
+      </c>
+      <c r="R286">
+        <v>2.06</v>
+      </c>
+      <c r="S286">
+        <v>3.44</v>
+      </c>
+      <c r="T286">
+        <v>1.41</v>
+      </c>
+      <c r="U286">
+        <v>2.77</v>
+      </c>
+      <c r="V286">
+        <v>2.9</v>
+      </c>
+      <c r="W286">
+        <v>1.38</v>
+      </c>
+      <c r="X286">
+        <v>6.5</v>
+      </c>
+      <c r="Y286">
+        <v>1.08</v>
+      </c>
+      <c r="Z286">
+        <v>2.35</v>
+      </c>
+      <c r="AA286">
+        <v>3.1</v>
+      </c>
+      <c r="AB286">
+        <v>2.65</v>
+      </c>
+      <c r="AC286">
+        <v>1.02</v>
+      </c>
+      <c r="AD286">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE286">
+        <v>1.29</v>
+      </c>
+      <c r="AF286">
+        <v>3.14</v>
+      </c>
+      <c r="AG286">
+        <v>1.95</v>
+      </c>
+      <c r="AH286">
+        <v>1.76</v>
+      </c>
+      <c r="AI286">
+        <v>1.73</v>
+      </c>
+      <c r="AJ286">
+        <v>1.94</v>
+      </c>
+      <c r="AK286">
+        <v>1.38</v>
+      </c>
+      <c r="AL286">
+        <v>1.28</v>
+      </c>
+      <c r="AM286">
+        <v>1.52</v>
+      </c>
+      <c r="AN286">
+        <v>1.85</v>
+      </c>
+      <c r="AO286">
+        <v>1.85</v>
+      </c>
+      <c r="AP286">
+        <v>1.93</v>
+      </c>
+      <c r="AQ286">
+        <v>1.71</v>
+      </c>
+      <c r="AR286">
+        <v>1.44</v>
+      </c>
+      <c r="AS286">
+        <v>1.46</v>
+      </c>
+      <c r="AT286">
+        <v>2.9</v>
+      </c>
+      <c r="AU286">
+        <v>4</v>
+      </c>
+      <c r="AV286">
+        <v>4</v>
+      </c>
+      <c r="AW286">
+        <v>5</v>
+      </c>
+      <c r="AX286">
+        <v>3</v>
+      </c>
+      <c r="AY286">
+        <v>9</v>
+      </c>
+      <c r="AZ286">
+        <v>7</v>
+      </c>
+      <c r="BA286">
+        <v>4</v>
+      </c>
+      <c r="BB286">
+        <v>6</v>
+      </c>
+      <c r="BC286">
+        <v>10</v>
+      </c>
+      <c r="BD286">
+        <v>1.95</v>
+      </c>
+      <c r="BE286">
+        <v>7</v>
+      </c>
+      <c r="BF286">
+        <v>2.25</v>
+      </c>
+      <c r="BG286">
+        <v>1.33</v>
+      </c>
+      <c r="BH286">
+        <v>3</v>
+      </c>
+      <c r="BI286">
+        <v>1.56</v>
+      </c>
+      <c r="BJ286">
+        <v>2.35</v>
+      </c>
+      <c r="BK286">
+        <v>1.94</v>
+      </c>
+      <c r="BL286">
+        <v>1.85</v>
+      </c>
+      <c r="BM286">
+        <v>2.44</v>
+      </c>
+      <c r="BN286">
+        <v>1.52</v>
+      </c>
+      <c r="BO286">
+        <v>3.2</v>
+      </c>
+      <c r="BP286">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7331217</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="F287">
+        <v>29</v>
+      </c>
+      <c r="G287" t="s">
+        <v>88</v>
+      </c>
+      <c r="H287" t="s">
+        <v>71</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>1</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>2</v>
+      </c>
+      <c r="N287">
+        <v>3</v>
+      </c>
+      <c r="O287" t="s">
+        <v>191</v>
+      </c>
+      <c r="P287" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q287">
+        <v>4.37</v>
+      </c>
+      <c r="R287">
+        <v>2.26</v>
+      </c>
+      <c r="S287">
+        <v>2.6</v>
+      </c>
+      <c r="T287">
+        <v>1.39</v>
+      </c>
+      <c r="U287">
+        <v>3.02</v>
+      </c>
+      <c r="V287">
+        <v>2.91</v>
+      </c>
+      <c r="W287">
+        <v>1.41</v>
+      </c>
+      <c r="X287">
+        <v>6.5</v>
+      </c>
+      <c r="Y287">
+        <v>1.08</v>
+      </c>
+      <c r="Z287">
+        <v>3.5</v>
+      </c>
+      <c r="AA287">
+        <v>3.25</v>
+      </c>
+      <c r="AB287">
+        <v>1.88</v>
+      </c>
+      <c r="AC287">
+        <v>1.02</v>
+      </c>
+      <c r="AD287">
+        <v>9.5</v>
+      </c>
+      <c r="AE287">
+        <v>1.25</v>
+      </c>
+      <c r="AF287">
+        <v>3.5</v>
+      </c>
+      <c r="AG287">
+        <v>1.91</v>
+      </c>
+      <c r="AH287">
+        <v>1.79</v>
+      </c>
+      <c r="AI287">
+        <v>1.75</v>
+      </c>
+      <c r="AJ287">
+        <v>2</v>
+      </c>
+      <c r="AK287">
+        <v>1.85</v>
+      </c>
+      <c r="AL287">
+        <v>1.29</v>
+      </c>
+      <c r="AM287">
+        <v>1.29</v>
+      </c>
+      <c r="AN287">
+        <v>1.5</v>
+      </c>
+      <c r="AO287">
+        <v>1.93</v>
+      </c>
+      <c r="AP287">
+        <v>1.4</v>
+      </c>
+      <c r="AQ287">
+        <v>2</v>
+      </c>
+      <c r="AR287">
+        <v>1.62</v>
+      </c>
+      <c r="AS287">
+        <v>1.69</v>
+      </c>
+      <c r="AT287">
+        <v>3.31</v>
+      </c>
+      <c r="AU287">
+        <v>2</v>
+      </c>
+      <c r="AV287">
+        <v>5</v>
+      </c>
+      <c r="AW287">
+        <v>4</v>
+      </c>
+      <c r="AX287">
+        <v>12</v>
+      </c>
+      <c r="AY287">
+        <v>6</v>
+      </c>
+      <c r="AZ287">
+        <v>17</v>
+      </c>
+      <c r="BA287">
+        <v>2</v>
+      </c>
+      <c r="BB287">
+        <v>13</v>
+      </c>
+      <c r="BC287">
+        <v>15</v>
+      </c>
+      <c r="BD287">
+        <v>3.07</v>
+      </c>
+      <c r="BE287">
+        <v>8.5</v>
+      </c>
+      <c r="BF287">
+        <v>1.51</v>
+      </c>
+      <c r="BG287">
+        <v>1.3</v>
+      </c>
+      <c r="BH287">
+        <v>3.2</v>
+      </c>
+      <c r="BI287">
+        <v>1.53</v>
+      </c>
+      <c r="BJ287">
+        <v>2.45</v>
+      </c>
+      <c r="BK287">
+        <v>1.88</v>
+      </c>
+      <c r="BL287">
+        <v>1.92</v>
+      </c>
+      <c r="BM287">
+        <v>2.34</v>
+      </c>
+      <c r="BN287">
+        <v>1.57</v>
+      </c>
+      <c r="BO287">
+        <v>3</v>
+      </c>
+      <c r="BP287">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7331221</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="F288">
+        <v>29</v>
+      </c>
+      <c r="G288" t="s">
+        <v>77</v>
+      </c>
+      <c r="H288" t="s">
+        <v>89</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+      